--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\Nipah_gpG_Fv_Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A2353A-305B-421D-BB9A-B71148BA460B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164E8A39-E544-437E-A54A-D84C97E40389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{32DB5F44-596F-4297-9F57-726AB156A716}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{32DB5F44-596F-4297-9F57-726AB156A716}"/>
   </bookViews>
   <sheets>
     <sheet name="Antigens" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>ICLQKTSNQILKPKLISYTLPVVGQSGTCITDPLLAMDEGYFAYSHLERIGSCSRGVSKQRIIGVGEVLDRGDEVPSLFMTNVWTPPNPNTVYHCSAVYNNEFYYVLCAVSTVGDPILNSTYWSGSLMMTRLAVKPKSNGGGYNQHQLALRSIEKGRYDKVMPYGPSGIKQGDTLYFPAVGFLVRTEFKYNDSNCPITKCQYSKPENCRLSMGIRPNSHYILRSGLLKYNLSDGENPKVVFIEISDQRLSIGSPSKIYDSLGQPVFYQASFSWDTMIKFGDVLTVNPLVVNWRNNTVISRPGQSQCPRFNTCPEICWEGVYNDAFLIDRINWISAGVFLDSNQTAENPVFTVFKDNEILYRAQLASEDTNAQKTITNCFLLKNKIWCISLVEIYDTGDNVIRPKLFAVKIPEQCTH</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>QMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>franken_chain</t>
+  </si>
+  <si>
+    <t>len_franken_chain</t>
   </si>
 </sst>
 </file>
@@ -525,7 +531,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,163 +586,213 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DE7A58-5172-4962-953B-A6DE58BB841B}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="145.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="121.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="71.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0.7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="b">
+      <c r="G2" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="H2" s="2" t="str">
+        <f>_xlfn.CONCAT(E2,"GGGSGGGSGGGSGGGS",F2)</f>
+        <v>QVQLVESGGGVVQPGRSLRLSCAASGFTFSSYGMHWVRQAPGKGLEWVAVISYDGSKKYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARSPFYDSSGYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISSYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQANSFPPTFGQGTKVEIK</v>
+      </c>
+      <c r="I2" s="1">
+        <f>LEN(H2)</f>
+        <v>246</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0.7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="b">
+      <c r="G3" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="H3" s="2" t="str">
+        <f t="shared" ref="H3:H6" si="0">_xlfn.CONCAT(E3,"GGGSGGGSGGGSGGGS",F3)</f>
+        <v>QVQLVESGGGVVQPGKSLRLSCAASGFTFSSYAMSWVRQAPGKGPEWVAFISYDGSNNYYADSVKGRFTISRDNPKNTLYLQMKSLRAEDTAVYYCARWRQRFDMYWGRGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I6" si="1">LEN(H3)</f>
+        <v>240</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0.9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G4" t="b">
+      <c r="G4" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="H4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>QVQLQESGPGLVKPSETLSLTCTVSGASIRGYYWSWIRQFPGKELEWIGYVYSGSTENYNPSLKSRVTVTLTDTKNSFSLKLNSVTSEDTAVYYCARGGALIYYDVWGTGTTVTVSSGGGSGGGSGGGSGGGSDIQVTQSPVSLSASVGDRVTITCRASQGIDSLNWFQQRPGKAPKLLIYAASQLTGIAPRFRSGSGSGTDFTLTISSLQPEDFATYYCQQYNIYPATFGQGTKVEIK</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="1"/>
+        <v>239</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>0.9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G5" t="b">
+      <c r="G5" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="H5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLVQSGAEVKKPGESLKISCKGSGYTFSYYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAMYYCARGEGVFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSYTLTQAPSVSASGQSVTISCTGTSRDVGTYWYQQIPGRAPKLLIHDKSENQGKTPGIPDRFSGSKSGNTASLVIIRGLQADDEADYYCNSYHGSGSNIFGGGTKLTVD</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0.5</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G6" t="b">
+      <c r="G6" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="H6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYWMNWVRQAPGKGLEWVANINQDGGEKYYVDSVKGRFTISRDNAKNSLYLQMNSLRAEDTAIYYCARDVGGGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\Nipah_gpG_Fv_Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6156EF-19A9-4001-AD43-2E8D5DB5B68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0706BEC8-B4DD-489F-AF75-702328E45FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>antigen_id</t>
   </si>
@@ -166,13 +166,28 @@
   </si>
   <si>
     <t>DIQLTQSPFLSLSPGSTASISCSGSSYDYTSGYRYKSSGKSPKPWMQRFLYSGSKRFSGVPERFIGSGTDFALTISRVEAEDVGFCSGWIFPFTFGPGTKVDIK</t>
+  </si>
+  <si>
+    <t>General LLM</t>
+  </si>
+  <si>
+    <t>Qwen3-235B-A22B-Instruct-2507</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-008</t>
+  </si>
+  <si>
+    <t>QVQLVESGGGVVQPGRSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAIWSNGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARDYGSYGYFDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>DIVMTQSPLSLPVTPGEPASISCRSSQSLLYSNGNTYLEWYLQKPGQSPQLLIYLVSKLDSGVPDRFSGSGSGTDFTLKISRVEAEDLGIYYCQQSKEVPYTFGAGTKLEIK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -191,6 +206,13 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -213,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -227,11 +249,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -619,17 +693,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMJ11"/>
+  <dimension ref="A1:AMJ10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="54" style="2" customWidth="1"/>
     <col min="6" max="6" width="42.140625" style="2" customWidth="1"/>
@@ -639,36 +713,1051 @@
     <col min="10" max="1024" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1024" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+      <c r="BC1" s="5"/>
+      <c r="BD1" s="5"/>
+      <c r="BE1" s="5"/>
+      <c r="BF1" s="5"/>
+      <c r="BG1" s="5"/>
+      <c r="BH1" s="5"/>
+      <c r="BI1" s="5"/>
+      <c r="BJ1" s="5"/>
+      <c r="BK1" s="5"/>
+      <c r="BL1" s="5"/>
+      <c r="BM1" s="5"/>
+      <c r="BN1" s="5"/>
+      <c r="BO1" s="5"/>
+      <c r="BP1" s="5"/>
+      <c r="BQ1" s="5"/>
+      <c r="BR1" s="5"/>
+      <c r="BS1" s="5"/>
+      <c r="BT1" s="5"/>
+      <c r="BU1" s="5"/>
+      <c r="BV1" s="5"/>
+      <c r="BW1" s="5"/>
+      <c r="BX1" s="5"/>
+      <c r="BY1" s="5"/>
+      <c r="BZ1" s="5"/>
+      <c r="CA1" s="5"/>
+      <c r="CB1" s="5"/>
+      <c r="CC1" s="5"/>
+      <c r="CD1" s="5"/>
+      <c r="CE1" s="5"/>
+      <c r="CF1" s="5"/>
+      <c r="CG1" s="5"/>
+      <c r="CH1" s="5"/>
+      <c r="CI1" s="5"/>
+      <c r="CJ1" s="5"/>
+      <c r="CK1" s="5"/>
+      <c r="CL1" s="5"/>
+      <c r="CM1" s="5"/>
+      <c r="CN1" s="5"/>
+      <c r="CO1" s="5"/>
+      <c r="CP1" s="5"/>
+      <c r="CQ1" s="5"/>
+      <c r="CR1" s="5"/>
+      <c r="CS1" s="5"/>
+      <c r="CT1" s="5"/>
+      <c r="CU1" s="5"/>
+      <c r="CV1" s="5"/>
+      <c r="CW1" s="5"/>
+      <c r="CX1" s="5"/>
+      <c r="CY1" s="5"/>
+      <c r="CZ1" s="5"/>
+      <c r="DA1" s="5"/>
+      <c r="DB1" s="5"/>
+      <c r="DC1" s="5"/>
+      <c r="DD1" s="5"/>
+      <c r="DE1" s="5"/>
+      <c r="DF1" s="5"/>
+      <c r="DG1" s="5"/>
+      <c r="DH1" s="5"/>
+      <c r="DI1" s="5"/>
+      <c r="DJ1" s="5"/>
+      <c r="DK1" s="5"/>
+      <c r="DL1" s="5"/>
+      <c r="DM1" s="5"/>
+      <c r="DN1" s="5"/>
+      <c r="DO1" s="5"/>
+      <c r="DP1" s="5"/>
+      <c r="DQ1" s="5"/>
+      <c r="DR1" s="5"/>
+      <c r="DS1" s="5"/>
+      <c r="DT1" s="5"/>
+      <c r="DU1" s="5"/>
+      <c r="DV1" s="5"/>
+      <c r="DW1" s="5"/>
+      <c r="DX1" s="5"/>
+      <c r="DY1" s="5"/>
+      <c r="DZ1" s="5"/>
+      <c r="EA1" s="5"/>
+      <c r="EB1" s="5"/>
+      <c r="EC1" s="5"/>
+      <c r="ED1" s="5"/>
+      <c r="EE1" s="5"/>
+      <c r="EF1" s="5"/>
+      <c r="EG1" s="5"/>
+      <c r="EH1" s="5"/>
+      <c r="EI1" s="5"/>
+      <c r="EJ1" s="5"/>
+      <c r="EK1" s="5"/>
+      <c r="EL1" s="5"/>
+      <c r="EM1" s="5"/>
+      <c r="EN1" s="5"/>
+      <c r="EO1" s="5"/>
+      <c r="EP1" s="5"/>
+      <c r="EQ1" s="5"/>
+      <c r="ER1" s="5"/>
+      <c r="ES1" s="5"/>
+      <c r="ET1" s="5"/>
+      <c r="EU1" s="5"/>
+      <c r="EV1" s="5"/>
+      <c r="EW1" s="5"/>
+      <c r="EX1" s="5"/>
+      <c r="EY1" s="5"/>
+      <c r="EZ1" s="5"/>
+      <c r="FA1" s="5"/>
+      <c r="FB1" s="5"/>
+      <c r="FC1" s="5"/>
+      <c r="FD1" s="5"/>
+      <c r="FE1" s="5"/>
+      <c r="FF1" s="5"/>
+      <c r="FG1" s="5"/>
+      <c r="FH1" s="5"/>
+      <c r="FI1" s="5"/>
+      <c r="FJ1" s="5"/>
+      <c r="FK1" s="5"/>
+      <c r="FL1" s="5"/>
+      <c r="FM1" s="5"/>
+      <c r="FN1" s="5"/>
+      <c r="FO1" s="5"/>
+      <c r="FP1" s="5"/>
+      <c r="FQ1" s="5"/>
+      <c r="FR1" s="5"/>
+      <c r="FS1" s="5"/>
+      <c r="FT1" s="5"/>
+      <c r="FU1" s="5"/>
+      <c r="FV1" s="5"/>
+      <c r="FW1" s="5"/>
+      <c r="FX1" s="5"/>
+      <c r="FY1" s="5"/>
+      <c r="FZ1" s="5"/>
+      <c r="GA1" s="5"/>
+      <c r="GB1" s="5"/>
+      <c r="GC1" s="5"/>
+      <c r="GD1" s="5"/>
+      <c r="GE1" s="5"/>
+      <c r="GF1" s="5"/>
+      <c r="GG1" s="5"/>
+      <c r="GH1" s="5"/>
+      <c r="GI1" s="5"/>
+      <c r="GJ1" s="5"/>
+      <c r="GK1" s="5"/>
+      <c r="GL1" s="5"/>
+      <c r="GM1" s="5"/>
+      <c r="GN1" s="5"/>
+      <c r="GO1" s="5"/>
+      <c r="GP1" s="5"/>
+      <c r="GQ1" s="5"/>
+      <c r="GR1" s="5"/>
+      <c r="GS1" s="5"/>
+      <c r="GT1" s="5"/>
+      <c r="GU1" s="5"/>
+      <c r="GV1" s="5"/>
+      <c r="GW1" s="5"/>
+      <c r="GX1" s="5"/>
+      <c r="GY1" s="5"/>
+      <c r="GZ1" s="5"/>
+      <c r="HA1" s="5"/>
+      <c r="HB1" s="5"/>
+      <c r="HC1" s="5"/>
+      <c r="HD1" s="5"/>
+      <c r="HE1" s="5"/>
+      <c r="HF1" s="5"/>
+      <c r="HG1" s="5"/>
+      <c r="HH1" s="5"/>
+      <c r="HI1" s="5"/>
+      <c r="HJ1" s="5"/>
+      <c r="HK1" s="5"/>
+      <c r="HL1" s="5"/>
+      <c r="HM1" s="5"/>
+      <c r="HN1" s="5"/>
+      <c r="HO1" s="5"/>
+      <c r="HP1" s="5"/>
+      <c r="HQ1" s="5"/>
+      <c r="HR1" s="5"/>
+      <c r="HS1" s="5"/>
+      <c r="HT1" s="5"/>
+      <c r="HU1" s="5"/>
+      <c r="HV1" s="5"/>
+      <c r="HW1" s="5"/>
+      <c r="HX1" s="5"/>
+      <c r="HY1" s="5"/>
+      <c r="HZ1" s="5"/>
+      <c r="IA1" s="5"/>
+      <c r="IB1" s="5"/>
+      <c r="IC1" s="5"/>
+      <c r="ID1" s="5"/>
+      <c r="IE1" s="5"/>
+      <c r="IF1" s="5"/>
+      <c r="IG1" s="5"/>
+      <c r="IH1" s="5"/>
+      <c r="II1" s="5"/>
+      <c r="IJ1" s="5"/>
+      <c r="IK1" s="5"/>
+      <c r="IL1" s="5"/>
+      <c r="IM1" s="5"/>
+      <c r="IN1" s="5"/>
+      <c r="IO1" s="5"/>
+      <c r="IP1" s="5"/>
+      <c r="IQ1" s="5"/>
+      <c r="IR1" s="5"/>
+      <c r="IS1" s="5"/>
+      <c r="IT1" s="5"/>
+      <c r="IU1" s="5"/>
+      <c r="IV1" s="5"/>
+      <c r="IW1" s="5"/>
+      <c r="IX1" s="5"/>
+      <c r="IY1" s="5"/>
+      <c r="IZ1" s="5"/>
+      <c r="JA1" s="5"/>
+      <c r="JB1" s="5"/>
+      <c r="JC1" s="5"/>
+      <c r="JD1" s="5"/>
+      <c r="JE1" s="5"/>
+      <c r="JF1" s="5"/>
+      <c r="JG1" s="5"/>
+      <c r="JH1" s="5"/>
+      <c r="JI1" s="5"/>
+      <c r="JJ1" s="5"/>
+      <c r="JK1" s="5"/>
+      <c r="JL1" s="5"/>
+      <c r="JM1" s="5"/>
+      <c r="JN1" s="5"/>
+      <c r="JO1" s="5"/>
+      <c r="JP1" s="5"/>
+      <c r="JQ1" s="5"/>
+      <c r="JR1" s="5"/>
+      <c r="JS1" s="5"/>
+      <c r="JT1" s="5"/>
+      <c r="JU1" s="5"/>
+      <c r="JV1" s="5"/>
+      <c r="JW1" s="5"/>
+      <c r="JX1" s="5"/>
+      <c r="JY1" s="5"/>
+      <c r="JZ1" s="5"/>
+      <c r="KA1" s="5"/>
+      <c r="KB1" s="5"/>
+      <c r="KC1" s="5"/>
+      <c r="KD1" s="5"/>
+      <c r="KE1" s="5"/>
+      <c r="KF1" s="5"/>
+      <c r="KG1" s="5"/>
+      <c r="KH1" s="5"/>
+      <c r="KI1" s="5"/>
+      <c r="KJ1" s="5"/>
+      <c r="KK1" s="5"/>
+      <c r="KL1" s="5"/>
+      <c r="KM1" s="5"/>
+      <c r="KN1" s="5"/>
+      <c r="KO1" s="5"/>
+      <c r="KP1" s="5"/>
+      <c r="KQ1" s="5"/>
+      <c r="KR1" s="5"/>
+      <c r="KS1" s="5"/>
+      <c r="KT1" s="5"/>
+      <c r="KU1" s="5"/>
+      <c r="KV1" s="5"/>
+      <c r="KW1" s="5"/>
+      <c r="KX1" s="5"/>
+      <c r="KY1" s="5"/>
+      <c r="KZ1" s="5"/>
+      <c r="LA1" s="5"/>
+      <c r="LB1" s="5"/>
+      <c r="LC1" s="5"/>
+      <c r="LD1" s="5"/>
+      <c r="LE1" s="5"/>
+      <c r="LF1" s="5"/>
+      <c r="LG1" s="5"/>
+      <c r="LH1" s="5"/>
+      <c r="LI1" s="5"/>
+      <c r="LJ1" s="5"/>
+      <c r="LK1" s="5"/>
+      <c r="LL1" s="5"/>
+      <c r="LM1" s="5"/>
+      <c r="LN1" s="5"/>
+      <c r="LO1" s="5"/>
+      <c r="LP1" s="5"/>
+      <c r="LQ1" s="5"/>
+      <c r="LR1" s="5"/>
+      <c r="LS1" s="5"/>
+      <c r="LT1" s="5"/>
+      <c r="LU1" s="5"/>
+      <c r="LV1" s="5"/>
+      <c r="LW1" s="5"/>
+      <c r="LX1" s="5"/>
+      <c r="LY1" s="5"/>
+      <c r="LZ1" s="5"/>
+      <c r="MA1" s="5"/>
+      <c r="MB1" s="5"/>
+      <c r="MC1" s="5"/>
+      <c r="MD1" s="5"/>
+      <c r="ME1" s="5"/>
+      <c r="MF1" s="5"/>
+      <c r="MG1" s="5"/>
+      <c r="MH1" s="5"/>
+      <c r="MI1" s="5"/>
+      <c r="MJ1" s="5"/>
+      <c r="MK1" s="5"/>
+      <c r="ML1" s="5"/>
+      <c r="MM1" s="5"/>
+      <c r="MN1" s="5"/>
+      <c r="MO1" s="5"/>
+      <c r="MP1" s="5"/>
+      <c r="MQ1" s="5"/>
+      <c r="MR1" s="5"/>
+      <c r="MS1" s="5"/>
+      <c r="MT1" s="5"/>
+      <c r="MU1" s="5"/>
+      <c r="MV1" s="5"/>
+      <c r="MW1" s="5"/>
+      <c r="MX1" s="5"/>
+      <c r="MY1" s="5"/>
+      <c r="MZ1" s="5"/>
+      <c r="NA1" s="5"/>
+      <c r="NB1" s="5"/>
+      <c r="NC1" s="5"/>
+      <c r="ND1" s="5"/>
+      <c r="NE1" s="5"/>
+      <c r="NF1" s="5"/>
+      <c r="NG1" s="5"/>
+      <c r="NH1" s="5"/>
+      <c r="NI1" s="5"/>
+      <c r="NJ1" s="5"/>
+      <c r="NK1" s="5"/>
+      <c r="NL1" s="5"/>
+      <c r="NM1" s="5"/>
+      <c r="NN1" s="5"/>
+      <c r="NO1" s="5"/>
+      <c r="NP1" s="5"/>
+      <c r="NQ1" s="5"/>
+      <c r="NR1" s="5"/>
+      <c r="NS1" s="5"/>
+      <c r="NT1" s="5"/>
+      <c r="NU1" s="5"/>
+      <c r="NV1" s="5"/>
+      <c r="NW1" s="5"/>
+      <c r="NX1" s="5"/>
+      <c r="NY1" s="5"/>
+      <c r="NZ1" s="5"/>
+      <c r="OA1" s="5"/>
+      <c r="OB1" s="5"/>
+      <c r="OC1" s="5"/>
+      <c r="OD1" s="5"/>
+      <c r="OE1" s="5"/>
+      <c r="OF1" s="5"/>
+      <c r="OG1" s="5"/>
+      <c r="OH1" s="5"/>
+      <c r="OI1" s="5"/>
+      <c r="OJ1" s="5"/>
+      <c r="OK1" s="5"/>
+      <c r="OL1" s="5"/>
+      <c r="OM1" s="5"/>
+      <c r="ON1" s="5"/>
+      <c r="OO1" s="5"/>
+      <c r="OP1" s="5"/>
+      <c r="OQ1" s="5"/>
+      <c r="OR1" s="5"/>
+      <c r="OS1" s="5"/>
+      <c r="OT1" s="5"/>
+      <c r="OU1" s="5"/>
+      <c r="OV1" s="5"/>
+      <c r="OW1" s="5"/>
+      <c r="OX1" s="5"/>
+      <c r="OY1" s="5"/>
+      <c r="OZ1" s="5"/>
+      <c r="PA1" s="5"/>
+      <c r="PB1" s="5"/>
+      <c r="PC1" s="5"/>
+      <c r="PD1" s="5"/>
+      <c r="PE1" s="5"/>
+      <c r="PF1" s="5"/>
+      <c r="PG1" s="5"/>
+      <c r="PH1" s="5"/>
+      <c r="PI1" s="5"/>
+      <c r="PJ1" s="5"/>
+      <c r="PK1" s="5"/>
+      <c r="PL1" s="5"/>
+      <c r="PM1" s="5"/>
+      <c r="PN1" s="5"/>
+      <c r="PO1" s="5"/>
+      <c r="PP1" s="5"/>
+      <c r="PQ1" s="5"/>
+      <c r="PR1" s="5"/>
+      <c r="PS1" s="5"/>
+      <c r="PT1" s="5"/>
+      <c r="PU1" s="5"/>
+      <c r="PV1" s="5"/>
+      <c r="PW1" s="5"/>
+      <c r="PX1" s="5"/>
+      <c r="PY1" s="5"/>
+      <c r="PZ1" s="5"/>
+      <c r="QA1" s="5"/>
+      <c r="QB1" s="5"/>
+      <c r="QC1" s="5"/>
+      <c r="QD1" s="5"/>
+      <c r="QE1" s="5"/>
+      <c r="QF1" s="5"/>
+      <c r="QG1" s="5"/>
+      <c r="QH1" s="5"/>
+      <c r="QI1" s="5"/>
+      <c r="QJ1" s="5"/>
+      <c r="QK1" s="5"/>
+      <c r="QL1" s="5"/>
+      <c r="QM1" s="5"/>
+      <c r="QN1" s="5"/>
+      <c r="QO1" s="5"/>
+      <c r="QP1" s="5"/>
+      <c r="QQ1" s="5"/>
+      <c r="QR1" s="5"/>
+      <c r="QS1" s="5"/>
+      <c r="QT1" s="5"/>
+      <c r="QU1" s="5"/>
+      <c r="QV1" s="5"/>
+      <c r="QW1" s="5"/>
+      <c r="QX1" s="5"/>
+      <c r="QY1" s="5"/>
+      <c r="QZ1" s="5"/>
+      <c r="RA1" s="5"/>
+      <c r="RB1" s="5"/>
+      <c r="RC1" s="5"/>
+      <c r="RD1" s="5"/>
+      <c r="RE1" s="5"/>
+      <c r="RF1" s="5"/>
+      <c r="RG1" s="5"/>
+      <c r="RH1" s="5"/>
+      <c r="RI1" s="5"/>
+      <c r="RJ1" s="5"/>
+      <c r="RK1" s="5"/>
+      <c r="RL1" s="5"/>
+      <c r="RM1" s="5"/>
+      <c r="RN1" s="5"/>
+      <c r="RO1" s="5"/>
+      <c r="RP1" s="5"/>
+      <c r="RQ1" s="5"/>
+      <c r="RR1" s="5"/>
+      <c r="RS1" s="5"/>
+      <c r="RT1" s="5"/>
+      <c r="RU1" s="5"/>
+      <c r="RV1" s="5"/>
+      <c r="RW1" s="5"/>
+      <c r="RX1" s="5"/>
+      <c r="RY1" s="5"/>
+      <c r="RZ1" s="5"/>
+      <c r="SA1" s="5"/>
+      <c r="SB1" s="5"/>
+      <c r="SC1" s="5"/>
+      <c r="SD1" s="5"/>
+      <c r="SE1" s="5"/>
+      <c r="SF1" s="5"/>
+      <c r="SG1" s="5"/>
+      <c r="SH1" s="5"/>
+      <c r="SI1" s="5"/>
+      <c r="SJ1" s="5"/>
+      <c r="SK1" s="5"/>
+      <c r="SL1" s="5"/>
+      <c r="SM1" s="5"/>
+      <c r="SN1" s="5"/>
+      <c r="SO1" s="5"/>
+      <c r="SP1" s="5"/>
+      <c r="SQ1" s="5"/>
+      <c r="SR1" s="5"/>
+      <c r="SS1" s="5"/>
+      <c r="ST1" s="5"/>
+      <c r="SU1" s="5"/>
+      <c r="SV1" s="5"/>
+      <c r="SW1" s="5"/>
+      <c r="SX1" s="5"/>
+      <c r="SY1" s="5"/>
+      <c r="SZ1" s="5"/>
+      <c r="TA1" s="5"/>
+      <c r="TB1" s="5"/>
+      <c r="TC1" s="5"/>
+      <c r="TD1" s="5"/>
+      <c r="TE1" s="5"/>
+      <c r="TF1" s="5"/>
+      <c r="TG1" s="5"/>
+      <c r="TH1" s="5"/>
+      <c r="TI1" s="5"/>
+      <c r="TJ1" s="5"/>
+      <c r="TK1" s="5"/>
+      <c r="TL1" s="5"/>
+      <c r="TM1" s="5"/>
+      <c r="TN1" s="5"/>
+      <c r="TO1" s="5"/>
+      <c r="TP1" s="5"/>
+      <c r="TQ1" s="5"/>
+      <c r="TR1" s="5"/>
+      <c r="TS1" s="5"/>
+      <c r="TT1" s="5"/>
+      <c r="TU1" s="5"/>
+      <c r="TV1" s="5"/>
+      <c r="TW1" s="5"/>
+      <c r="TX1" s="5"/>
+      <c r="TY1" s="5"/>
+      <c r="TZ1" s="5"/>
+      <c r="UA1" s="5"/>
+      <c r="UB1" s="5"/>
+      <c r="UC1" s="5"/>
+      <c r="UD1" s="5"/>
+      <c r="UE1" s="5"/>
+      <c r="UF1" s="5"/>
+      <c r="UG1" s="5"/>
+      <c r="UH1" s="5"/>
+      <c r="UI1" s="5"/>
+      <c r="UJ1" s="5"/>
+      <c r="UK1" s="5"/>
+      <c r="UL1" s="5"/>
+      <c r="UM1" s="5"/>
+      <c r="UN1" s="5"/>
+      <c r="UO1" s="5"/>
+      <c r="UP1" s="5"/>
+      <c r="UQ1" s="5"/>
+      <c r="UR1" s="5"/>
+      <c r="US1" s="5"/>
+      <c r="UT1" s="5"/>
+      <c r="UU1" s="5"/>
+      <c r="UV1" s="5"/>
+      <c r="UW1" s="5"/>
+      <c r="UX1" s="5"/>
+      <c r="UY1" s="5"/>
+      <c r="UZ1" s="5"/>
+      <c r="VA1" s="5"/>
+      <c r="VB1" s="5"/>
+      <c r="VC1" s="5"/>
+      <c r="VD1" s="5"/>
+      <c r="VE1" s="5"/>
+      <c r="VF1" s="5"/>
+      <c r="VG1" s="5"/>
+      <c r="VH1" s="5"/>
+      <c r="VI1" s="5"/>
+      <c r="VJ1" s="5"/>
+      <c r="VK1" s="5"/>
+      <c r="VL1" s="5"/>
+      <c r="VM1" s="5"/>
+      <c r="VN1" s="5"/>
+      <c r="VO1" s="5"/>
+      <c r="VP1" s="5"/>
+      <c r="VQ1" s="5"/>
+      <c r="VR1" s="5"/>
+      <c r="VS1" s="5"/>
+      <c r="VT1" s="5"/>
+      <c r="VU1" s="5"/>
+      <c r="VV1" s="5"/>
+      <c r="VW1" s="5"/>
+      <c r="VX1" s="5"/>
+      <c r="VY1" s="5"/>
+      <c r="VZ1" s="5"/>
+      <c r="WA1" s="5"/>
+      <c r="WB1" s="5"/>
+      <c r="WC1" s="5"/>
+      <c r="WD1" s="5"/>
+      <c r="WE1" s="5"/>
+      <c r="WF1" s="5"/>
+      <c r="WG1" s="5"/>
+      <c r="WH1" s="5"/>
+      <c r="WI1" s="5"/>
+      <c r="WJ1" s="5"/>
+      <c r="WK1" s="5"/>
+      <c r="WL1" s="5"/>
+      <c r="WM1" s="5"/>
+      <c r="WN1" s="5"/>
+      <c r="WO1" s="5"/>
+      <c r="WP1" s="5"/>
+      <c r="WQ1" s="5"/>
+      <c r="WR1" s="5"/>
+      <c r="WS1" s="5"/>
+      <c r="WT1" s="5"/>
+      <c r="WU1" s="5"/>
+      <c r="WV1" s="5"/>
+      <c r="WW1" s="5"/>
+      <c r="WX1" s="5"/>
+      <c r="WY1" s="5"/>
+      <c r="WZ1" s="5"/>
+      <c r="XA1" s="5"/>
+      <c r="XB1" s="5"/>
+      <c r="XC1" s="5"/>
+      <c r="XD1" s="5"/>
+      <c r="XE1" s="5"/>
+      <c r="XF1" s="5"/>
+      <c r="XG1" s="5"/>
+      <c r="XH1" s="5"/>
+      <c r="XI1" s="5"/>
+      <c r="XJ1" s="5"/>
+      <c r="XK1" s="5"/>
+      <c r="XL1" s="5"/>
+      <c r="XM1" s="5"/>
+      <c r="XN1" s="5"/>
+      <c r="XO1" s="5"/>
+      <c r="XP1" s="5"/>
+      <c r="XQ1" s="5"/>
+      <c r="XR1" s="5"/>
+      <c r="XS1" s="5"/>
+      <c r="XT1" s="5"/>
+      <c r="XU1" s="5"/>
+      <c r="XV1" s="5"/>
+      <c r="XW1" s="5"/>
+      <c r="XX1" s="5"/>
+      <c r="XY1" s="5"/>
+      <c r="XZ1" s="5"/>
+      <c r="YA1" s="5"/>
+      <c r="YB1" s="5"/>
+      <c r="YC1" s="5"/>
+      <c r="YD1" s="5"/>
+      <c r="YE1" s="5"/>
+      <c r="YF1" s="5"/>
+      <c r="YG1" s="5"/>
+      <c r="YH1" s="5"/>
+      <c r="YI1" s="5"/>
+      <c r="YJ1" s="5"/>
+      <c r="YK1" s="5"/>
+      <c r="YL1" s="5"/>
+      <c r="YM1" s="5"/>
+      <c r="YN1" s="5"/>
+      <c r="YO1" s="5"/>
+      <c r="YP1" s="5"/>
+      <c r="YQ1" s="5"/>
+      <c r="YR1" s="5"/>
+      <c r="YS1" s="5"/>
+      <c r="YT1" s="5"/>
+      <c r="YU1" s="5"/>
+      <c r="YV1" s="5"/>
+      <c r="YW1" s="5"/>
+      <c r="YX1" s="5"/>
+      <c r="YY1" s="5"/>
+      <c r="YZ1" s="5"/>
+      <c r="ZA1" s="5"/>
+      <c r="ZB1" s="5"/>
+      <c r="ZC1" s="5"/>
+      <c r="ZD1" s="5"/>
+      <c r="ZE1" s="5"/>
+      <c r="ZF1" s="5"/>
+      <c r="ZG1" s="5"/>
+      <c r="ZH1" s="5"/>
+      <c r="ZI1" s="5"/>
+      <c r="ZJ1" s="5"/>
+      <c r="ZK1" s="5"/>
+      <c r="ZL1" s="5"/>
+      <c r="ZM1" s="5"/>
+      <c r="ZN1" s="5"/>
+      <c r="ZO1" s="5"/>
+      <c r="ZP1" s="5"/>
+      <c r="ZQ1" s="5"/>
+      <c r="ZR1" s="5"/>
+      <c r="ZS1" s="5"/>
+      <c r="ZT1" s="5"/>
+      <c r="ZU1" s="5"/>
+      <c r="ZV1" s="5"/>
+      <c r="ZW1" s="5"/>
+      <c r="ZX1" s="5"/>
+      <c r="ZY1" s="5"/>
+      <c r="ZZ1" s="5"/>
+      <c r="AAA1" s="5"/>
+      <c r="AAB1" s="5"/>
+      <c r="AAC1" s="5"/>
+      <c r="AAD1" s="5"/>
+      <c r="AAE1" s="5"/>
+      <c r="AAF1" s="5"/>
+      <c r="AAG1" s="5"/>
+      <c r="AAH1" s="5"/>
+      <c r="AAI1" s="5"/>
+      <c r="AAJ1" s="5"/>
+      <c r="AAK1" s="5"/>
+      <c r="AAL1" s="5"/>
+      <c r="AAM1" s="5"/>
+      <c r="AAN1" s="5"/>
+      <c r="AAO1" s="5"/>
+      <c r="AAP1" s="5"/>
+      <c r="AAQ1" s="5"/>
+      <c r="AAR1" s="5"/>
+      <c r="AAS1" s="5"/>
+      <c r="AAT1" s="5"/>
+      <c r="AAU1" s="5"/>
+      <c r="AAV1" s="5"/>
+      <c r="AAW1" s="5"/>
+      <c r="AAX1" s="5"/>
+      <c r="AAY1" s="5"/>
+      <c r="AAZ1" s="5"/>
+      <c r="ABA1" s="5"/>
+      <c r="ABB1" s="5"/>
+      <c r="ABC1" s="5"/>
+      <c r="ABD1" s="5"/>
+      <c r="ABE1" s="5"/>
+      <c r="ABF1" s="5"/>
+      <c r="ABG1" s="5"/>
+      <c r="ABH1" s="5"/>
+      <c r="ABI1" s="5"/>
+      <c r="ABJ1" s="5"/>
+      <c r="ABK1" s="5"/>
+      <c r="ABL1" s="5"/>
+      <c r="ABM1" s="5"/>
+      <c r="ABN1" s="5"/>
+      <c r="ABO1" s="5"/>
+      <c r="ABP1" s="5"/>
+      <c r="ABQ1" s="5"/>
+      <c r="ABR1" s="5"/>
+      <c r="ABS1" s="5"/>
+      <c r="ABT1" s="5"/>
+      <c r="ABU1" s="5"/>
+      <c r="ABV1" s="5"/>
+      <c r="ABW1" s="5"/>
+      <c r="ABX1" s="5"/>
+      <c r="ABY1" s="5"/>
+      <c r="ABZ1" s="5"/>
+      <c r="ACA1" s="5"/>
+      <c r="ACB1" s="5"/>
+      <c r="ACC1" s="5"/>
+      <c r="ACD1" s="5"/>
+      <c r="ACE1" s="5"/>
+      <c r="ACF1" s="5"/>
+      <c r="ACG1" s="5"/>
+      <c r="ACH1" s="5"/>
+      <c r="ACI1" s="5"/>
+      <c r="ACJ1" s="5"/>
+      <c r="ACK1" s="5"/>
+      <c r="ACL1" s="5"/>
+      <c r="ACM1" s="5"/>
+      <c r="ACN1" s="5"/>
+      <c r="ACO1" s="5"/>
+      <c r="ACP1" s="5"/>
+      <c r="ACQ1" s="5"/>
+      <c r="ACR1" s="5"/>
+      <c r="ACS1" s="5"/>
+      <c r="ACT1" s="5"/>
+      <c r="ACU1" s="5"/>
+      <c r="ACV1" s="5"/>
+      <c r="ACW1" s="5"/>
+      <c r="ACX1" s="5"/>
+      <c r="ACY1" s="5"/>
+      <c r="ACZ1" s="5"/>
+      <c r="ADA1" s="5"/>
+      <c r="ADB1" s="5"/>
+      <c r="ADC1" s="5"/>
+      <c r="ADD1" s="5"/>
+      <c r="ADE1" s="5"/>
+      <c r="ADF1" s="5"/>
+      <c r="ADG1" s="5"/>
+      <c r="ADH1" s="5"/>
+      <c r="ADI1" s="5"/>
+      <c r="ADJ1" s="5"/>
+      <c r="ADK1" s="5"/>
+      <c r="ADL1" s="5"/>
+      <c r="ADM1" s="5"/>
+      <c r="ADN1" s="5"/>
+      <c r="ADO1" s="5"/>
+      <c r="ADP1" s="5"/>
+      <c r="ADQ1" s="5"/>
+      <c r="ADR1" s="5"/>
+      <c r="ADS1" s="5"/>
+      <c r="ADT1" s="5"/>
+      <c r="ADU1" s="5"/>
+      <c r="ADV1" s="5"/>
+      <c r="ADW1" s="5"/>
+      <c r="ADX1" s="5"/>
+      <c r="ADY1" s="5"/>
+      <c r="ADZ1" s="5"/>
+      <c r="AEA1" s="5"/>
+      <c r="AEB1" s="5"/>
+      <c r="AEC1" s="5"/>
+      <c r="AED1" s="5"/>
+      <c r="AEE1" s="5"/>
+      <c r="AEF1" s="5"/>
+      <c r="AEG1" s="5"/>
+      <c r="AEH1" s="5"/>
+      <c r="AEI1" s="5"/>
+      <c r="AEJ1" s="5"/>
+      <c r="AEK1" s="5"/>
+      <c r="AEL1" s="5"/>
+      <c r="AEM1" s="5"/>
+      <c r="AEN1" s="5"/>
+      <c r="AEO1" s="5"/>
+      <c r="AEP1" s="5"/>
+      <c r="AEQ1" s="5"/>
+      <c r="AER1" s="5"/>
+      <c r="AES1" s="5"/>
+      <c r="AET1" s="5"/>
+      <c r="AEU1" s="5"/>
+      <c r="AEV1" s="5"/>
+      <c r="AEW1" s="5"/>
+      <c r="AEX1" s="5"/>
+      <c r="AEY1" s="5"/>
+      <c r="AEZ1" s="5"/>
+      <c r="AFA1" s="5"/>
+      <c r="AFB1" s="5"/>
+      <c r="AFC1" s="5"/>
+      <c r="AFD1" s="5"/>
+      <c r="AFE1" s="5"/>
+      <c r="AFF1" s="5"/>
+      <c r="AFG1" s="5"/>
+      <c r="AFH1" s="5"/>
+      <c r="AFI1" s="5"/>
+      <c r="AFJ1" s="5"/>
+      <c r="AFK1" s="5"/>
+      <c r="AFL1" s="5"/>
+      <c r="AFM1" s="5"/>
+      <c r="AFN1" s="5"/>
+      <c r="AFO1" s="5"/>
+      <c r="AFP1" s="5"/>
+      <c r="AFQ1" s="5"/>
+      <c r="AFR1" s="5"/>
+      <c r="AFS1" s="5"/>
+      <c r="AFT1" s="5"/>
+      <c r="AFU1" s="5"/>
+      <c r="AFV1" s="5"/>
+      <c r="AFW1" s="5"/>
+      <c r="AFX1" s="5"/>
+      <c r="AFY1" s="5"/>
+      <c r="AFZ1" s="5"/>
+      <c r="AGA1" s="5"/>
+      <c r="AGB1" s="5"/>
+      <c r="AGC1" s="5"/>
+      <c r="AGD1" s="5"/>
+      <c r="AGE1" s="5"/>
+      <c r="AGF1" s="5"/>
+      <c r="AGG1" s="5"/>
+      <c r="AGH1" s="5"/>
+      <c r="AGI1" s="5"/>
+      <c r="AGJ1" s="5"/>
+      <c r="AGK1" s="5"/>
+      <c r="AGL1" s="5"/>
+      <c r="AGM1" s="5"/>
+      <c r="AGN1" s="5"/>
+      <c r="AGO1" s="5"/>
+      <c r="AGP1" s="5"/>
+      <c r="AGQ1" s="5"/>
+      <c r="AGR1" s="5"/>
+      <c r="AGS1" s="5"/>
+      <c r="AGT1" s="5"/>
+      <c r="AGU1" s="5"/>
+      <c r="AGV1" s="5"/>
+      <c r="AGW1" s="5"/>
+      <c r="AGX1" s="5"/>
+      <c r="AGY1" s="5"/>
+      <c r="AGZ1" s="5"/>
+      <c r="AHA1" s="5"/>
+      <c r="AHB1" s="5"/>
+      <c r="AHC1" s="5"/>
+      <c r="AHD1" s="5"/>
+      <c r="AHE1" s="5"/>
+      <c r="AHF1" s="5"/>
+      <c r="AHG1" s="5"/>
+      <c r="AHH1" s="5"/>
+      <c r="AHI1" s="5"/>
+      <c r="AHJ1" s="5"/>
+      <c r="AHK1" s="5"/>
+      <c r="AHL1" s="5"/>
+      <c r="AHM1" s="5"/>
+      <c r="AHN1" s="5"/>
+      <c r="AHO1" s="5"/>
+      <c r="AHP1" s="5"/>
+      <c r="AHQ1" s="5"/>
+      <c r="AHR1" s="5"/>
+      <c r="AHS1" s="5"/>
+      <c r="AHT1" s="5"/>
+      <c r="AHU1" s="5"/>
+      <c r="AHV1" s="5"/>
+      <c r="AHW1" s="5"/>
+      <c r="AHX1" s="5"/>
+      <c r="AHY1" s="5"/>
+      <c r="AHZ1" s="5"/>
+      <c r="AIA1" s="5"/>
+      <c r="AIB1" s="5"/>
+      <c r="AIC1" s="5"/>
+      <c r="AID1" s="5"/>
+      <c r="AIE1" s="5"/>
+      <c r="AIF1" s="5"/>
+      <c r="AIG1" s="5"/>
+      <c r="AIH1" s="5"/>
+      <c r="AII1" s="5"/>
+      <c r="AIJ1" s="5"/>
+      <c r="AIK1" s="5"/>
+      <c r="AIL1" s="5"/>
+      <c r="AIM1" s="5"/>
+      <c r="AIN1" s="5"/>
+      <c r="AIO1" s="5"/>
+      <c r="AIP1" s="5"/>
+      <c r="AIQ1" s="5"/>
+      <c r="AIR1" s="5"/>
+      <c r="AIS1" s="5"/>
+      <c r="AIT1" s="5"/>
+      <c r="AIU1" s="5"/>
+      <c r="AIV1" s="5"/>
+      <c r="AIW1" s="5"/>
+      <c r="AIX1" s="5"/>
+      <c r="AIY1" s="5"/>
+      <c r="AIZ1" s="5"/>
+      <c r="AJA1" s="5"/>
+      <c r="AJB1" s="5"/>
+      <c r="AJC1" s="5"/>
+      <c r="AJD1" s="5"/>
+      <c r="AJE1" s="5"/>
+      <c r="AJF1" s="5"/>
+      <c r="AJG1" s="5"/>
+      <c r="AJH1" s="5"/>
+      <c r="AJI1" s="5"/>
+      <c r="AJJ1" s="5"/>
+      <c r="AJK1" s="5"/>
+      <c r="AJL1" s="5"/>
+      <c r="AJM1" s="5"/>
+      <c r="AJN1" s="5"/>
+      <c r="AJO1" s="5"/>
+      <c r="AJP1" s="5"/>
+      <c r="AJQ1" s="5"/>
+      <c r="AJR1" s="5"/>
+      <c r="AJS1" s="5"/>
+      <c r="AJT1" s="5"/>
+      <c r="AJU1" s="5"/>
+      <c r="AJV1" s="5"/>
+      <c r="AJW1" s="5"/>
+      <c r="AJX1" s="5"/>
+      <c r="AJY1" s="5"/>
+      <c r="AJZ1" s="5"/>
+      <c r="AKA1" s="5"/>
+      <c r="AKB1" s="5"/>
+      <c r="AKC1" s="5"/>
+      <c r="AKD1" s="5"/>
+      <c r="AKE1" s="5"/>
+      <c r="AKF1" s="5"/>
+      <c r="AKG1" s="5"/>
+      <c r="AKH1" s="5"/>
+      <c r="AKI1" s="5"/>
+      <c r="AKJ1" s="5"/>
+      <c r="AKK1" s="5"/>
+      <c r="AKL1" s="5"/>
+      <c r="AKM1" s="5"/>
+      <c r="AKN1" s="5"/>
+      <c r="AKO1" s="5"/>
+      <c r="AKP1" s="5"/>
+      <c r="AKQ1" s="5"/>
+      <c r="AKR1" s="5"/>
+      <c r="AKS1" s="5"/>
+      <c r="AKT1" s="5"/>
+      <c r="AKU1" s="5"/>
+      <c r="AKV1" s="5"/>
+      <c r="AKW1" s="5"/>
+      <c r="AKX1" s="5"/>
+      <c r="AKY1" s="5"/>
+      <c r="AKZ1" s="5"/>
+      <c r="ALA1" s="5"/>
+      <c r="ALB1" s="5"/>
+      <c r="ALC1" s="5"/>
+      <c r="ALD1" s="5"/>
+      <c r="ALE1" s="5"/>
+      <c r="ALF1" s="5"/>
+      <c r="ALG1" s="5"/>
+      <c r="ALH1" s="5"/>
+      <c r="ALI1" s="5"/>
+      <c r="ALJ1" s="5"/>
+      <c r="ALK1" s="5"/>
+      <c r="ALL1" s="5"/>
+      <c r="ALM1" s="5"/>
+      <c r="ALN1" s="5"/>
+      <c r="ALO1" s="5"/>
+      <c r="ALP1" s="5"/>
+      <c r="ALQ1" s="5"/>
+      <c r="ALR1" s="5"/>
+      <c r="ALS1" s="5"/>
+      <c r="ALT1" s="5"/>
+      <c r="ALU1" s="5"/>
+      <c r="ALV1" s="5"/>
+      <c r="ALW1" s="5"/>
+      <c r="ALX1" s="5"/>
+      <c r="ALY1" s="5"/>
+      <c r="ALZ1" s="5"/>
+      <c r="AMA1" s="5"/>
+      <c r="AMB1" s="5"/>
+      <c r="AMC1" s="5"/>
+      <c r="AMD1" s="5"/>
+      <c r="AME1" s="5"/>
+      <c r="AMF1" s="5"/>
+      <c r="AMG1" s="5"/>
+      <c r="AMH1" s="5"/>
+      <c r="AMI1" s="5"/>
+      <c r="AMJ1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1024" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -700,7 +1789,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -732,7 +1821,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -764,7 +1853,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -796,7 +1885,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -828,7 +1917,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -848,15 +1937,15 @@
         <v>0</v>
       </c>
       <c r="H7" s="2" t="str">
-        <f t="shared" ref="H7:H8" si="0">_xlfn.CONCAT(E7,"GGGSGGGSGGGSGGGS",F7)</f>
+        <f t="shared" ref="H7:H9" si="0">_xlfn.CONCAT(E7,"GGGSGGGSGGGSGGGS",F7)</f>
         <v>VGPRTTLTVSLRSGASVKMSCKASGYSFTWVRQKPGQGLEWVKISYDGLKDYTNYKFQGVKATITADKSSNTAYLQISNLTSEDTAVYFCSRRAVYYDYWGQGTTLTVSSGGGSGGGSGGGSGGGSVTVALGTVSLAPGTVSLRSCRASQSVSLSYLHWYQQKPGQAPLLVYGDNSKRPSGIPDRFSGSSSGNTASLTISGVQAEDEADYYCQSSDSSNWVFGGGTKLTVL</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" ref="I7:I11" si="1">LEN(H7)</f>
+        <f t="shared" ref="I7:I9" si="1">LEN(H7)</f>
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1024" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -884,17 +1973,50 @@
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="3"/>
+    <row r="9" spans="1:1024" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>QVQLVESGGGVVQPGRSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAIWSNGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARDYGSYGYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPLSLPVTPGEPASISCRSSQSLLYSNGNTYLEWYLQKPGQSPQLLIYLVSKLDSGVPDRFSGSGSGTDFTLKISRVEAEDLGIYYCQQSKEVPYTFGAGTKLEIK</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>247</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(G1))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\Nipah_gpG_Fv_Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0706BEC8-B4DD-489F-AF75-702328E45FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2BF81F-16DF-4E16-847C-798608248153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,9 +87,6 @@
     <t>l_chain</t>
   </si>
   <si>
-    <t>test_abysis_pass</t>
-  </si>
-  <si>
     <t>franken_chain</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t>DIVMTQSPLSLPVTPGEPASISCRSSQSLLYSNGNTYLEWYLQKPGQSPQLLIYLVSKLDSGVPDRFSGSGSGTDFTLKISRVEAEDLGIYYCQQSKEVPYTFGAGTKLEIK</t>
+  </si>
+  <si>
+    <t>test_chotia_pass</t>
   </si>
 </sst>
 </file>
@@ -262,32 +262,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -301,7 +280,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -696,7 +675,7 @@
   <dimension ref="A1:AMJ10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,13 +712,13 @@
         <v>15</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -1759,22 +1738,22 @@
     </row>
     <row r="2" spans="1:1024" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D2" s="1">
         <v>0.7</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="G2" s="1" t="b">
         <f>TRUE()</f>
@@ -1791,22 +1770,22 @@
     </row>
     <row r="3" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D3" s="1">
         <v>0.7</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="G3" s="1" t="b">
         <f>TRUE()</f>
@@ -1823,22 +1802,22 @@
     </row>
     <row r="4" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D4" s="1">
         <v>0.9</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="G4" s="1" t="b">
         <f>TRUE()</f>
@@ -1855,22 +1834,22 @@
     </row>
     <row r="5" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D5" s="1">
         <v>0.9</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="G5" s="1" t="b">
         <f>TRUE()</f>
@@ -1887,22 +1866,22 @@
     </row>
     <row r="6" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D6" s="1">
         <v>0.5</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="G6" s="1" t="b">
         <f>TRUE()</f>
@@ -1919,19 +1898,19 @@
     </row>
     <row r="7" spans="1:1024" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="G7" s="1" t="b">
         <v>0</v>
@@ -1947,19 +1926,19 @@
     </row>
     <row r="8" spans="1:1024" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="G8" s="1" t="b">
         <v>0</v>
@@ -1975,19 +1954,19 @@
     </row>
     <row r="9" spans="1:1024" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="G9" s="1" t="b">
         <v>1</v>
@@ -2007,13 +1986,13 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
+    <cfRule type="containsBlanks" dxfId="0" priority="3">
       <formula>LEN(TRIM(G1))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\Nipah_gpG_Fv_Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D21CD0-627B-4BC3-B798-FE209C51F825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877832B6-BE65-452A-9908-00A7D12F3A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Antigens" sheetId="1" r:id="rId1"/>
@@ -30,15 +30,12 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="115">
   <si>
     <t>antigen_id</t>
   </si>
@@ -347,6 +344,42 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>status_folded_boltz2</t>
+  </si>
+  <si>
+    <t>note_ids</t>
+  </si>
+  <si>
+    <t>candidate_for_submission</t>
+  </si>
+  <si>
+    <t>submitted_to_comp</t>
+  </si>
+  <si>
+    <t>len_lte_250</t>
+  </si>
+  <si>
+    <t>average_pae</t>
+  </si>
+  <si>
+    <t>average_pde</t>
+  </si>
+  <si>
+    <t>average_plddt</t>
+  </si>
+  <si>
+    <t>ipsae_score</t>
+  </si>
+  <si>
+    <t>pae_score</t>
+  </si>
+  <si>
+    <t>pde_score</t>
+  </si>
+  <si>
+    <t>plddt_score</t>
   </si>
 </sst>
 </file>
@@ -401,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -411,6 +444,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -425,13 +473,55 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -841,897 +931,1668 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="H16" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54" style="2" customWidth="1"/>
-    <col min="8" max="8" width="42.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="71.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="17.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54" style="8" customWidth="1"/>
+    <col min="9" max="9" width="42.140625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="16" style="7" customWidth="1"/>
+    <col min="11" max="11" width="71.28515625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="M1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="12">
         <v>0.7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J2" s="2" t="str">
-        <f>_xlfn.CONCAT(G2,"GGGSGGGSGGGSGGGS",H2)</f>
+      <c r="J2" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="8" t="str">
+        <f>_xlfn.CONCAT(H2,"GGGSGGGSGGGSGGGS",I2)</f>
         <v>QVQLVESGGGVVQPGRSLRLSCAASGFTFSSYGMHWVRQAPGKGLEWVAVISYDGSKKYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARSPFYDSSGYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISSYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQANSFPPTFGQGTKVEIK</v>
       </c>
-      <c r="K2" s="1">
-        <f>LEN(J2)</f>
+      <c r="L2" s="7">
+        <f>LEN(K2)</f>
         <v>246</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="M2" s="7" t="b">
+        <f>IF(L2&lt;=250,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N2" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O2" s="7">
+        <v>12.403783000000001</v>
+      </c>
+      <c r="P2" s="7">
+        <v>4.492502</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>0.92373499999999997</v>
+      </c>
+      <c r="R2" s="7">
+        <v>0.49246200000000001</v>
+      </c>
+      <c r="S2" s="7">
+        <v>0.58654099999999998</v>
+      </c>
+      <c r="T2" s="7">
+        <v>0.85024999999999995</v>
+      </c>
+      <c r="U2" s="7">
+        <v>9.2370000000000004E-3</v>
+      </c>
+      <c r="V2" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="12">
         <v>0.7</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J3" s="2" t="str">
-        <f>_xlfn.CONCAT(G3,"GGGSGGGSGGGSGGGS",H3)</f>
+      <c r="J3" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="8" t="str">
+        <f>_xlfn.CONCAT(H3,"GGGSGGGSGGGSGGGS",I3)</f>
         <v>QVQLVESGGGVVQPGKSLRLSCAASGFTFSSYAMSWVRQAPGKGPEWVAFISYDGSNNYYADSVKGRFTISRDNPKNTLYLQMKSLRAEDTAVYYCARWRQRFDMYWGRGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK</v>
       </c>
-      <c r="K3" s="1">
-        <f>LEN(J3)</f>
+      <c r="L3" s="7">
+        <f>LEN(K3)</f>
         <v>240</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="M3" s="7" t="b">
+        <f t="shared" ref="M3:M24" si="0">IF(L3&lt;=250,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O3" s="7">
+        <v>13.11187</v>
+      </c>
+      <c r="P3" s="7">
+        <v>5.1952559999999997</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0.92223100000000002</v>
+      </c>
+      <c r="R3" s="7">
+        <v>0.475989</v>
+      </c>
+      <c r="S3" s="7">
+        <v>0.56293800000000005</v>
+      </c>
+      <c r="T3" s="7">
+        <v>0.82682500000000003</v>
+      </c>
+      <c r="U3" s="7">
+        <v>9.2219999999999993E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="12">
         <v>0.9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J4" s="2" t="str">
-        <f>_xlfn.CONCAT(G4,"GGGSGGGSGGGSGGGS",H4)</f>
+      <c r="J4" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="8" t="str">
+        <f>_xlfn.CONCAT(H4,"GGGSGGGSGGGSGGGS",I4)</f>
         <v>QVQLQESGPGLVKPSETLSLTCTVSGASIRGYYWSWIRQFPGKELEWIGYVYSGSTENYNPSLKSRVTVTLTDTKNSFSLKLNSVTSEDTAVYYCARGGALIYYDVWGTGTTVTVSSGGGSGGGSGGGSGGGSDIQVTQSPVSLSASVGDRVTITCRASQGIDSLNWFQQRPGKAPKLLIYAASQLTGIAPRFRSGSGSGTDFTLTISSLQPEDFATYYCQQYNIYPATFGQGTKVEIK</v>
       </c>
-      <c r="K4" s="1">
-        <f>LEN(J4)</f>
+      <c r="L4" s="7">
+        <f>LEN(K4)</f>
         <v>239</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="M4" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O4" s="7">
+        <v>5.68208</v>
+      </c>
+      <c r="P4" s="7">
+        <v>1.471314</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0.904497</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0.61223899999999998</v>
+      </c>
+      <c r="S4" s="7">
+        <v>0.81059700000000001</v>
+      </c>
+      <c r="T4" s="7">
+        <v>0.95095600000000002</v>
+      </c>
+      <c r="U4" s="7">
+        <v>9.0449999999999992E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="12">
         <v>0.9</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J5" s="2" t="str">
-        <f>_xlfn.CONCAT(G5,"GGGSGGGSGGGSGGGS",H5)</f>
+      <c r="J5" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="8" t="str">
+        <f>_xlfn.CONCAT(H5,"GGGSGGGSGGGSGGGS",I5)</f>
         <v>EVQLVQSGAEVKKPGESLKISCKGSGYTFSYYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAMYYCARGEGVFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSYTLTQAPSVSASGQSVTISCTGTSRDVGTYWYQQIPGRAPKLLIHDKSENQGKTPGIPDRFSGSKSGNTASLVIIRGLQADDEADYYCNSYHGSGSNIFGGGTKLTVD</v>
       </c>
-      <c r="K5" s="1">
-        <f>LEN(J5)</f>
+      <c r="L5" s="7">
+        <f>LEN(K5)</f>
         <v>240</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="M5" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N5" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O5" s="7">
+        <v>6.7126570000000001</v>
+      </c>
+      <c r="P5" s="7">
+        <v>1.9524440000000001</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0.91164900000000004</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0.59370800000000001</v>
+      </c>
+      <c r="S5" s="7">
+        <v>0.77624499999999996</v>
+      </c>
+      <c r="T5" s="7">
+        <v>0.93491900000000006</v>
+      </c>
+      <c r="U5" s="7">
+        <v>9.1160000000000008E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="12">
         <v>0.5</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J6" s="2" t="str">
-        <f>_xlfn.CONCAT(G6,"GGGSGGGSGGGSGGGS",H6)</f>
+      <c r="J6" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="8" t="str">
+        <f>_xlfn.CONCAT(H6,"GGGSGGGSGGGSGGGS",I6)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYWMNWVRQAPGKGLEWVANINQDGGEKYYVDSVKGRFTISRDNAKNSLYLQMNSLRAEDTAIYYCARDVGGGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</v>
       </c>
-      <c r="K6" s="1">
-        <f>LEN(J6)</f>
+      <c r="L6" s="7">
+        <f>LEN(K6)</f>
         <v>238</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="M6" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O6" s="7">
+        <v>13.620810000000001</v>
+      </c>
+      <c r="P6" s="7">
+        <v>5.7309039999999998</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0.91465700000000005</v>
+      </c>
+      <c r="R6" s="7">
+        <v>0.46382400000000001</v>
+      </c>
+      <c r="S6" s="7">
+        <v>0.54597300000000004</v>
+      </c>
+      <c r="T6" s="7">
+        <v>0.80896999999999997</v>
+      </c>
+      <c r="U6" s="7">
+        <v>9.1470000000000006E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="1" t="b">
+      <c r="J7" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="J7" s="2" t="str">
-        <f t="shared" ref="J7:J24" si="0">_xlfn.CONCAT(G7,"GGGSGGGSGGGSGGGS",H7)</f>
+      <c r="K7" s="8" t="str">
+        <f t="shared" ref="K7:K24" si="1">_xlfn.CONCAT(H7,"GGGSGGGSGGGSGGGS",I7)</f>
         <v>VGPRTTLTVSLRSGASVKMSCKASGYSFTWVRQKPGQGLEWVKISYDGLKDYTNYKFQGVKATITADKSSNTAYLQISNLTSEDTAVYFCSRRAVYYDYWGQGTTLTVSSGGGSGGGSGGGSGGGSVTVALGTVSLAPGTVSLRSCRASQSVSLSYLHWYQQKPGQAPLLVYGDNSKRPSGIPDRFSGSSSGNTASLTISGVQAEDEADYYCQSSDSSNWVFGGGTKLTVL</v>
       </c>
-      <c r="K7" s="1">
-        <f t="shared" ref="K7:K24" si="1">LEN(J7)</f>
+      <c r="L7" s="7">
+        <f t="shared" ref="L7:L24" si="2">LEN(K7)</f>
         <v>231</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="M7" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N7" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="1" t="b">
+      <c r="J8" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="J8" s="2" t="str">
+      <c r="K8" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>DRPSLTVKTSLTVSEPGSSISCASGIGTFSSYDFIVKQPSQGFDLEWIGGISYDSTYVNYSLKHRISRTIITNWKNTLQFTISLTSLKPASVYFDVWGAGTWISPYWGQGTTLTVSSSSAVSSFYVKNKGLDVWGHVITVNGGGSGGGSGGGSGGGSDIQLTQSPFLSLSPGSTASISCSGSSYDYTSGYRYKSSGKSPKPWMQRFLYSGSKRFSGVPERFIGSGTDFALTISRVEAEDVGFCSGWIFPFTFGPGTKVDIK</v>
+      </c>
+      <c r="L8" s="7">
+        <f t="shared" si="2"/>
+        <v>261</v>
+      </c>
+      <c r="M8" s="7" t="b">
         <f t="shared" si="0"/>
-        <v>DRPSLTVKTSLTVSEPGSSISCASGIGTFSSYDFIVKQPSQGFDLEWIGGISYDSTYVNYSLKHRISRTIITNWKNTLQFTISLTSLKPASVYFDVWGAGTWISPYWGQGTTLTVSSSSAVSSFYVKNKGLDVWGHVITVNGGGSGGGSGGGSGGGSDIQLTQSPFLSLSPGSTASISCSGSSYDYTSGYRYKSSGKSPKPWMQRFLYSGSKRFSGVPERFIGSGTDFALTISRVEAEDVGFCSGWIFPFTFGPGTKVDIK</v>
-      </c>
-      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>261</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2" t="str">
+        <v>QVQLVESGGGVVQPGRSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAIWSNGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARDYGSYGYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPLSLPVTPGEPASISCRSSQSLLYSNGNTYLEWYLQKPGQSPQLLIYLVSKLDSGVPDRFSGSGSGTDFTLKISRVEAEDLGIYYCQQSKEVPYTFGAGTKLEIK</v>
+      </c>
+      <c r="L9" s="7">
+        <f t="shared" si="2"/>
+        <v>247</v>
+      </c>
+      <c r="M9" s="7" t="b">
         <f t="shared" si="0"/>
-        <v>QVQLVESGGGVVQPGRSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAIWSNGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARDYGSYGYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPLSLPVTPGEPASISCRSSQSLLYSNGNTYLEWYLQKPGQSPQLLIYLVSKLDSGVPDRFSGSGSGTDFTLKISRVEAEDLGIYYCQQSKEVPYTFGAGTKLEIK</v>
-      </c>
-      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O9" s="7">
+        <v>13.464549</v>
+      </c>
+      <c r="P9" s="7">
+        <v>5.3052169999999998</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>0.93009900000000001</v>
+      </c>
+      <c r="R9" s="7">
+        <v>0.47021099999999999</v>
+      </c>
+      <c r="S9" s="7">
+        <v>0.55118199999999995</v>
+      </c>
+      <c r="T9" s="7">
+        <v>0.82315899999999997</v>
+      </c>
+      <c r="U9" s="7">
+        <v>9.3010000000000002E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" s="8" t="str">
         <f t="shared" si="1"/>
+        <v>AVSLVESGGGTVKPGESVTLSCQASGFNFSKYQWVWVRQAPGKGLEWVGQISPDGSKTRYHPSVAGRFTISRDNSNSTLYLHMSNLRPEDTAVYYCGIIPQDNVHGDYSISHWGQGTLLTVSAGGGSGGGSGGGSGGGSAIKLTQSPKSLSASVGDTVTINCTASRPIGDLLSWYKQKPGKPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSSDFATYYCRQTSRFPITFGEGTTINKK</v>
+      </c>
+      <c r="L10" s="7">
+        <f t="shared" si="2"/>
+        <v>246</v>
+      </c>
+      <c r="M10" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N10" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O10" s="7">
+        <v>10.421203999999999</v>
+      </c>
+      <c r="P10" s="7">
+        <v>3.5293600000000001</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0.919072</v>
+      </c>
+      <c r="R10" s="7">
+        <v>0.52851400000000004</v>
+      </c>
+      <c r="S10" s="7">
+        <v>0.65262699999999996</v>
+      </c>
+      <c r="T10" s="7">
+        <v>0.882355</v>
+      </c>
+      <c r="U10" s="7">
+        <v>9.1909999999999995E-3</v>
+      </c>
+      <c r="V10" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>AVSITESGGGTKAPGSSVTLSCKVSGFVFSKYSIAWVRQAPGQGLEWVSQISPDGSTTRYNPAVAGRFTISRDNSNSTAYLQMSNLTPSDTATYYCAIIPQDNEHGDYSLSHWGQGTQLTVSAGGGSGGGSGGGSGGGSAIKLTQSPKSLSAKVGDTVTINCTASAPIGDFLSWYKQKPGQPPQLLIYKSSTLAPGVSSRYSGSGSDTNFTLTISSLQEEDFATYYCQQTATLPITFGEGTTINKK</v>
+      </c>
+      <c r="L11" s="7">
+        <f t="shared" si="2"/>
+        <v>246</v>
+      </c>
+      <c r="M11" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N11" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O11" s="7">
+        <v>13.818918999999999</v>
+      </c>
+      <c r="P11" s="7">
+        <v>5.6661869999999999</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>0.903362</v>
+      </c>
+      <c r="R11" s="7">
+        <v>0.46179599999999998</v>
+      </c>
+      <c r="S11" s="7">
+        <v>0.53936899999999999</v>
+      </c>
+      <c r="T11" s="7">
+        <v>0.81112700000000004</v>
+      </c>
+      <c r="U11" s="7">
+        <v>9.0340000000000004E-3</v>
+      </c>
+      <c r="V11" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>SISLVESGGGTVAPGSSVTLSCQASGFNFSKYSKAWVRQPPGQPLEWVSRISPDGSTKYYHPDVAGRFTISKDNSKSTVYLAMSNLTAADTATYYCGIIPGDNTHGDYAMSHWGQGTLLTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTISCTASRPIGDKLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTSFTLTISSLQEDDFATYYCQQTYTLPITFGQGTTISKK</v>
+      </c>
+      <c r="L12" s="7">
+        <f t="shared" si="2"/>
+        <v>246</v>
+      </c>
+      <c r="M12" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O12" s="7">
+        <v>13.512441000000001</v>
+      </c>
+      <c r="P12" s="7">
+        <v>5.0770359999999997</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>0.91817099999999996</v>
+      </c>
+      <c r="R12" s="7">
+        <v>0.47181800000000002</v>
+      </c>
+      <c r="S12" s="7">
+        <v>0.54958499999999999</v>
+      </c>
+      <c r="T12" s="7">
+        <v>0.83076499999999998</v>
+      </c>
+      <c r="U12" s="7">
+        <v>9.1819999999999992E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>GVSLTESGGGTVAPGSSVTLSCKASGFNFSKYSHAWVRQAPGQGLTWVGEISPDGSKTRYASSVAGRFTISRDNSNSTVYLQMSSLTPSDTATYYCGIIPGDSVHGERSMSHWGQGTLLTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTLNCTASRPIGDRLSWYKQKPGQAPQLLIYRASTLAPGVSSRYSGSGSDTQFTLTISSLQSDDFATYYCQQTSSYPVTFGQGTTITKK</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" si="2"/>
+        <v>246</v>
+      </c>
+      <c r="M13" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N13" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O13" s="7">
+        <v>9.0397739999999995</v>
+      </c>
+      <c r="P13" s="7">
+        <v>2.962634</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0.91289399999999998</v>
+      </c>
+      <c r="R13" s="7">
+        <v>0.55258200000000002</v>
+      </c>
+      <c r="S13" s="7">
+        <v>0.69867400000000002</v>
+      </c>
+      <c r="T13" s="7">
+        <v>0.90124599999999999</v>
+      </c>
+      <c r="U13" s="7">
+        <v>9.129E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">EVSLVESGGGTVKPGESVTLSCQASGFNFSKYRLAWVRQPPGQGLVWVSEISPDGTEVKYHPDVKGRFTASRDNSNSTAYLKMNNLQPSDTATYYCGIIPQDSSHGDYSISHWGQGTQLTVSAGGGSGGGSGGGSGGGSTITLTQSPSSLSASVGDTVTINCTASRPIGDFLSWYKQKPGQPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSDDFATYYCQQTYTLPITFGQGTTLTKK </v>
+      </c>
+      <c r="L14" s="7">
+        <f t="shared" si="2"/>
         <v>247</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="M14" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N14" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O14" s="7">
+        <v>12.902165</v>
+      </c>
+      <c r="P14" s="7">
+        <v>5.0798560000000004</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0.91761400000000004</v>
+      </c>
+      <c r="R14" s="7">
+        <v>0.47992499999999999</v>
+      </c>
+      <c r="S14" s="7">
+        <v>0.56992799999999999</v>
+      </c>
+      <c r="T14" s="7">
+        <v>0.83067100000000005</v>
+      </c>
+      <c r="U14" s="7">
+        <v>9.1760000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C15" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D15" s="12">
         <v>0.1</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2" t="str">
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>AVSLVESGGGTYAPGSSVTLSCQGSGFNFSKVRKVWVRQPPGGPLEYVAEISPDGSTTTYASSVAGRFTISKDNSNSTLYLSMSNLTPADTATYYCGLIPGDSEHGDRSISHWGQGTLVTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTINCTASQPIGNFLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTNFTLTISSLQSEDFATYYCQQTSRLPVTFGQGTTINKK</v>
+      </c>
+      <c r="L15" s="7">
+        <f t="shared" si="2"/>
+        <v>246</v>
+      </c>
+      <c r="M15" s="7" t="b">
         <f t="shared" si="0"/>
-        <v>AVSLVESGGGTVKPGESVTLSCQASGFNFSKYQWVWVRQAPGKGLEWVGQISPDGSKTRYHPSVAGRFTISRDNSNSTLYLHMSNLRPEDTAVYYCGIIPQDNVHGDYSISHWGQGTLLTVSAGGGSGGGSGGGSGGGSAIKLTQSPKSLSASVGDTVTINCTASRPIGDLLSWYKQKPGKPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSSDFATYYCRQTSRFPITFGEGTTINKK</v>
-      </c>
-      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O15" s="7">
+        <v>12.295652</v>
+      </c>
+      <c r="P15" s="7">
+        <v>5.068085</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>0.91950900000000002</v>
+      </c>
+      <c r="R15" s="7">
+        <v>0.48813600000000001</v>
+      </c>
+      <c r="S15" s="7">
+        <v>0.59014500000000003</v>
+      </c>
+      <c r="T15" s="7">
+        <v>0.83106400000000002</v>
+      </c>
+      <c r="U15" s="7">
+        <v>9.195E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" s="8" t="str">
         <f t="shared" si="1"/>
+        <v>GISLVESGGGTVKPGESVTLSCKASGFVFSKYSHAWVRQPPGGPLEWVSQISSDGSVTRYASSVSGRFTISRDNSNSTVYLQMNNLRPSDTATYYCGIIPQDNVHGDYAISHWGQGTLLTVTAGGGSGGGSGGGSGGGSAITLTQSPASLSAKVGDTVTLSCTASRPIGDLLSWYKQKPGQPPQLLIYRASTLAPGVDSRYSGSGSDTSFTLTISSLQPEDFATYYCQQTSRFPITFGQGTTIKQA</v>
+      </c>
+      <c r="L16" s="7">
+        <f t="shared" si="2"/>
         <v>246</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="M16" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N16" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O16" s="7">
+        <v>10.440493999999999</v>
+      </c>
+      <c r="P16" s="7">
+        <v>3.5942219999999998</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>0.90822599999999998</v>
+      </c>
+      <c r="R16" s="7">
+        <v>0.52757600000000004</v>
+      </c>
+      <c r="S16" s="7">
+        <v>0.65198400000000001</v>
+      </c>
+      <c r="T16" s="7">
+        <v>0.880193</v>
+      </c>
+      <c r="U16" s="7">
+        <v>9.0819999999999998E-3</v>
+      </c>
+      <c r="V16" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="C17" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2" t="str">
+      <c r="G17" s="7">
+        <v>1</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">PVSLVESGGGTVAPGSSVTLTCQASGFNFSKYIVAWVRQPPGQPLRFVAMITPDGSKVWLHPEVEGRFTPSKDNSKNTSYLQLKDLQPEDTATYYCGIIPQGSTHGDYSITHWGQGVVLTVTAGGGSGGGSGGGSGGGSMVTLTQSPSSLSASVGDTVTITCTASSPVDNLMSWYQQPPGQPLRLLIYNASTRAPGVSSRFSGSGSDTNFTLTISSLQASDFATYYCQQTYRLPVTFGQGTTLSAA </v>
+      </c>
+      <c r="L17" s="7">
+        <f t="shared" si="2"/>
+        <v>247</v>
+      </c>
+      <c r="M17" s="7" t="b">
         <f t="shared" si="0"/>
-        <v>AVSITESGGGTKAPGSSVTLSCKVSGFVFSKYSIAWVRQAPGQGLEWVSQISPDGSTTRYNPAVAGRFTISRDNSNSTAYLQMSNLTPSDTATYYCAIIPQDNEHGDYSLSHWGQGTQLTVSAGGGSGGGSGGGSGGGSAIKLTQSPKSLSAKVGDTVTINCTASAPIGDFLSWYKQKPGQPPQLLIYKSSTLAPGVSSRYSGSGSDTNFTLTISSLQEEDFATYYCQQTATLPITFGEGTTINKK</v>
-      </c>
-      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O17" s="7">
+        <v>13.850232</v>
+      </c>
+      <c r="P17" s="7">
+        <v>5.5440639999999997</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>0.91428100000000001</v>
+      </c>
+      <c r="R17" s="7">
+        <v>0.46263199999999999</v>
+      </c>
+      <c r="S17" s="7">
+        <v>0.53832599999999997</v>
+      </c>
+      <c r="T17" s="7">
+        <v>0.81519799999999998</v>
+      </c>
+      <c r="U17" s="7">
+        <v>9.1430000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" s="8" t="str">
         <f t="shared" si="1"/>
+        <v>SIKLTESGGGTVKPGSSVTLSCQASGFNFSKYEVVWVMQKPGQPLQWVGSISPDGSKVRLHPKVKGRFTLSKDNSKNTAYLTMKNLQPEDTATYYCGIIPGGSVHGDRSITHWGQGVELKVVAGGGSGGGSGGGSGGGSMIKLTQSPKSVKAKVGDTVTITCTASEPVDDLVSWYQQKPGQPLRLLIYRSSTLAPGVSSRFSGSGSDTNFTLTISSLQEEDFATYYCMQTSKYPYTFGQGTTLSRA</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="2"/>
         <v>246</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="M18" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N18" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O18" s="7">
+        <v>12.388191000000001</v>
+      </c>
+      <c r="P18" s="7">
+        <v>4.3815280000000003</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>0.914825</v>
+      </c>
+      <c r="R18" s="7">
+        <v>0.493753</v>
+      </c>
+      <c r="S18" s="7">
+        <v>0.58706000000000003</v>
+      </c>
+      <c r="T18" s="7">
+        <v>0.85394899999999996</v>
+      </c>
+      <c r="U18" s="7">
+        <v>9.1479999999999999E-3</v>
+      </c>
+      <c r="V18" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="C19" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2" t="str">
+      <c r="G19" s="7">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>AITLTESGGGVVAPGSSVTLTCTASGFNFSKYSMVWVRQPPGGPLQWVAQISPDNSTVRYHPAVEGRFTASKDNSKNTAYLAMSDLEPSDTATYYCGIIPQGSTHNDYSIVHWGQGTELRVVAGGGSGGGSGGGSGGGSMIKLTQSPSSLSAKVGDKVTITCTASSPVDNLVSWYKQPPGGPLQLLIYNSSTRAPGVSSRFKGSGSDTNFTLTIESLQEEDFATYYCQQTYKFPITFGQGTKLTRA</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="2"/>
+        <v>246</v>
+      </c>
+      <c r="M19" s="7" t="b">
         <f t="shared" si="0"/>
-        <v>SISLVESGGGTVAPGSSVTLSCQASGFNFSKYSKAWVRQPPGQPLEWVSRISPDGSTKYYHPDVAGRFTISKDNSKSTVYLAMSNLTAADTATYYCGIIPGDNTHGDYAMSHWGQGTLLTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTISCTASRPIGDKLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTSFTLTISSLQEDDFATYYCQQTYTLPITFGQGTTISKK</v>
-      </c>
-      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O19" s="7">
+        <v>13.144735000000001</v>
+      </c>
+      <c r="P19" s="7">
+        <v>4.9212369999999996</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>0.90124400000000005</v>
+      </c>
+      <c r="R19" s="7">
+        <v>0.47822799999999999</v>
+      </c>
+      <c r="S19" s="7">
+        <v>0.56184199999999995</v>
+      </c>
+      <c r="T19" s="7">
+        <v>0.83595900000000001</v>
+      </c>
+      <c r="U19" s="7">
+        <v>9.0119999999999992E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="8" t="str">
         <f t="shared" si="1"/>
+        <v>SISLTESGGGTVAPGSSVTLTCTASGFNFSKYSVAWVRQPPGQPLQWVALISPDGSKKWYHPDVKGRATISKDNSKNTSYLTLSNLQPSDTATYYCGIIPGGNIHGDYSMTHWGQGTQLTVVAGGGSGGGSGGGSGGGSMITLTQSPLSLSAKVGDTVTITCTASSPVDDLVSWYQQKPGQPLRLLIRNASERAPGVSSRFSGSGSDTTFTLTISSVQEEDFATYYCQQTSKLPYTFGQGTTLSRA</v>
+      </c>
+      <c r="L20" s="7">
+        <f t="shared" si="2"/>
         <v>246</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="M20" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N20" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O20" s="7">
+        <v>12.468555</v>
+      </c>
+      <c r="P20" s="7">
+        <v>4.6081789999999998</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>0.91461000000000003</v>
+      </c>
+      <c r="R20" s="7">
+        <v>0.49041499999999999</v>
+      </c>
+      <c r="S20" s="7">
+        <v>0.58438100000000004</v>
+      </c>
+      <c r="T20" s="7">
+        <v>0.84639399999999998</v>
+      </c>
+      <c r="U20" s="7">
+        <v>9.1459999999999996E-3</v>
+      </c>
+      <c r="V20" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="C21" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2" t="str">
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J21" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>AVTLTESGGGTVAPGSSVTLTCTASGFNFSKYILAWVRQAPGQPLEWVASISPDGSKTRYHPAVKGRATASKDNSKNTAYLELKDLRPEDTATYYCGIIPQGSVHGDYSMTHWGQGTELRVEAGGGSGGGSGGGSGGGSPVVLTQSPLSLSAKVGDTVTITCTASSPVDNLVSWYKQAPGQPLQLLIYNATTRAPGVPSRFTGSGSDTTFTLTISSLQPEDFAVYYCQQTYKFPITFGQGTRLTPA</v>
+      </c>
+      <c r="L21" s="7">
+        <f t="shared" si="2"/>
+        <v>246</v>
+      </c>
+      <c r="M21" s="7" t="b">
         <f t="shared" si="0"/>
-        <v>GVSLTESGGGTVAPGSSVTLSCKASGFNFSKYSHAWVRQAPGQGLTWVGEISPDGSKTRYASSVAGRFTISRDNSNSTVYLQMSSLTPSDTATYYCGIIPGDSVHGERSMSHWGQGTLLTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTLNCTASRPIGDRLSWYKQKPGQAPQLLIYRASTLAPGVSSRYSGSGSDTQFTLTISSLQSDDFATYYCQQTSSYPVTFGQGTTITKK</v>
-      </c>
-      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N21" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O21" s="7">
+        <v>12.596812999999999</v>
+      </c>
+      <c r="P21" s="7">
+        <v>4.4891050000000003</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>0.91376999999999997</v>
+      </c>
+      <c r="R21" s="7">
+        <v>0.48989300000000002</v>
+      </c>
+      <c r="S21" s="7">
+        <v>0.58010600000000001</v>
+      </c>
+      <c r="T21" s="7">
+        <v>0.85036299999999998</v>
+      </c>
+      <c r="U21" s="7">
+        <v>9.1380000000000003E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" s="8" t="str">
         <f t="shared" si="1"/>
+        <v>PVKLVESGGGTVAPGSSVTLTCKASGFNFSKYMVQWVRQAPGGAFQWVGLISPDGSTKWYHPDVEGRFTISKDNSKNTAYLEMRNLTPADTAVYYCGIVPQGSVHGDYSITHWGQGVTLTVTAGGGSGGGSGGGSGGGSVVQLTQSPPELSAKVGEKVTITCTASSPVDNLVSWYQQKPGGAPKLLIYNATTLAPGVPSRFSGSGSDTVFTLTIDSLQAEDFATYYCQQTSRLPFTFGQGTVLRPA</v>
+      </c>
+      <c r="L22" s="7">
+        <f t="shared" si="2"/>
         <v>246</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="M22" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N22" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O22" s="7">
+        <v>13.056381999999999</v>
+      </c>
+      <c r="P22" s="7">
+        <v>4.9774649999999996</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>0.90879799999999999</v>
+      </c>
+      <c r="R22" s="7">
+        <v>0.47886699999999999</v>
+      </c>
+      <c r="S22" s="7">
+        <v>0.56478700000000004</v>
+      </c>
+      <c r="T22" s="7">
+        <v>0.83408400000000005</v>
+      </c>
+      <c r="U22" s="7">
+        <v>9.0880000000000006E-3</v>
+      </c>
+      <c r="V22" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="C23" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2" t="str">
+      <c r="G23" s="7">
+        <v>1</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J23" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>AIKLTESGGGTVKPGSSVTLTCQASGFNFSKYIMAWVRQAPGQPLQWVAQISPDNSVKRYHPEVEGRFTASKDNSKNTAYLEMKNLTPADTATYYCAIIPQGSTQGDYSMVHWGQGVELKVVAGGGSGGGSGGGSGGGSPVVLTQSPASLKAAVGDTVTITCTASAPVDNLVSWYKQAPGQPPQLLIYNASTLAPGVPSRFTGSGSDTSFTLTISSLQEEDFATYYCQETSKFPITFGQGTKLEKK</v>
+      </c>
+      <c r="L23" s="7">
+        <f t="shared" si="2"/>
+        <v>246</v>
+      </c>
+      <c r="M23" s="7" t="b">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">EVSLVESGGGTVKPGESVTLSCQASGFNFSKYRLAWVRQPPGQGLVWVSEISPDGTEVKYHPDVKGRFTASRDNSNSTAYLKMNNLQPSDTATYYCGIIPQDSSHGDYSISHWGQGTQLTVSAGGGSGGGSGGGSGGGSTITLTQSPSSLSASVGDTVTINCTASRPIGDFLSWYKQKPGQPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSDDFATYYCQQTYTLPITFGQGTTLTKK </v>
-      </c>
-      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O23" s="7">
+        <v>8.0418699999999994</v>
+      </c>
+      <c r="P23" s="7">
+        <v>2.5753710000000001</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>0.90690199999999999</v>
+      </c>
+      <c r="R23" s="7">
+        <v>0.56974199999999997</v>
+      </c>
+      <c r="S23" s="7">
+        <v>0.73193799999999998</v>
+      </c>
+      <c r="T23" s="7">
+        <v>0.91415400000000002</v>
+      </c>
+      <c r="U23" s="7">
+        <v>9.0690000000000007E-3</v>
+      </c>
+      <c r="V23" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="7">
+        <v>1</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J24" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>247</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2" t="str">
+        <v>SIKLTESGGGVVAPGESVTLTCTASGFNFSKYEMAWVRQAPGGPLEFVAVISPDGSTTRYHPRVEGRATISRDNSKNTAYLTLRDLTPADTAVYYCGIIPGGSVHGDRALSHWGQGVRLEVRAGGGSGGGSGGGSGGGSMVTLTQSPSSLSAKVGDKVTISCTASEPVDDLVSWYKQAPGGPPQLLISRASTRAPGVPSRFSGSGSDTNFTLTIESLQSSDFATYYCQQTYKFPDTFGQGTTLSEA</v>
+      </c>
+      <c r="L24" s="7">
+        <f t="shared" si="2"/>
+        <v>246</v>
+      </c>
+      <c r="M24" s="7" t="b">
         <f t="shared" si="0"/>
-        <v>AVSLVESGGGTYAPGSSVTLSCQGSGFNFSKVRKVWVRQPPGGPLEYVAEISPDGSTTTYASSVAGRFTISKDNSNSTLYLSMSNLTPADTATYYCGLIPGDSEHGDRSISHWGQGTLVTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTINCTASQPIGNFLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTNFTLTISSLQSEDFATYYCQQTSRLPVTFGQGTTINKK</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="1"/>
-        <v>246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>GISLVESGGGTVKPGESVTLSCKASGFVFSKYSHAWVRQPPGGPLEWVSQISSDGSVTRYASSVSGRFTISRDNSNSTVYLQMNNLRPSDTATYYCGIIPQDNVHGDYAISHWGQGTLLTVTAGGGSGGGSGGGSGGGSAITLTQSPASLSAKVGDTVTLSCTASRPIGDLLSWYKQKPGQPPQLLIYRASTLAPGVDSRYSGSGSDTSFTLTISSLQPEDFATYYCQQTSRFPITFGQGTTIKQA</v>
-      </c>
-      <c r="K16" s="1">
-        <f t="shared" si="1"/>
-        <v>246</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PVSLVESGGGTVAPGSSVTLTCQASGFNFSKYIVAWVRQPPGQPLRFVAMITPDGSKVWLHPEVEGRFTPSKDNSKNTSYLQLKDLQPEDTATYYCGIIPQGSTHGDYSITHWGQGVVLTVTAGGGSGGGSGGGSGGGSMVTLTQSPSSLSASVGDTVTITCTASSPVDNLMSWYQQPPGQPLRLLIYNASTRAPGVSSRFSGSGSDTNFTLTISSLQASDFATYYCQQTYRLPVTFGQGTTLSAA </v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" si="1"/>
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SIKLTESGGGTVKPGSSVTLSCQASGFNFSKYEVVWVMQKPGQPLQWVGSISPDGSKVRLHPKVKGRFTLSKDNSKNTAYLTMKNLQPEDTATYYCGIIPGGSVHGDRSITHWGQGVELKVVAGGGSGGGSGGGSGGGSMIKLTQSPKSVKAKVGDTVTITCTASEPVDDLVSWYQQKPGQPLRLLIYRSSTLAPGVSSRFSGSGSDTNFTLTISSLQEEDFATYYCMQTSKYPYTFGQGTTLSRA</v>
-      </c>
-      <c r="K18" s="1">
-        <f t="shared" si="1"/>
-        <v>246</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>AITLTESGGGVVAPGSSVTLTCTASGFNFSKYSMVWVRQPPGGPLQWVAQISPDNSTVRYHPAVEGRFTASKDNSKNTAYLAMSDLEPSDTATYYCGIIPQGSTHNDYSIVHWGQGTELRVVAGGGSGGGSGGGSGGGSMIKLTQSPSSLSAKVGDKVTITCTASSPVDNLVSWYKQPPGGPLQLLIYNSSTRAPGVSSRFKGSGSDTNFTLTIESLQEEDFATYYCQQTYKFPITFGQGTKLTRA</v>
-      </c>
-      <c r="K19" s="1">
-        <f t="shared" si="1"/>
-        <v>246</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SISLTESGGGTVAPGSSVTLTCTASGFNFSKYSVAWVRQPPGQPLQWVALISPDGSKKWYHPDVKGRATISKDNSKNTSYLTLSNLQPSDTATYYCGIIPGGNIHGDYSMTHWGQGTQLTVVAGGGSGGGSGGGSGGGSMITLTQSPLSLSAKVGDTVTITCTASSPVDDLVSWYQQKPGQPLRLLIRNASERAPGVSSRFSGSGSDTTFTLTISSVQEEDFATYYCQQTSKLPYTFGQGTTLSRA</v>
-      </c>
-      <c r="K20" s="1">
-        <f t="shared" si="1"/>
-        <v>246</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>AVTLTESGGGTVAPGSSVTLTCTASGFNFSKYILAWVRQAPGQPLEWVASISPDGSKTRYHPAVKGRATASKDNSKNTAYLELKDLRPEDTATYYCGIIPQGSVHGDYSMTHWGQGTELRVEAGGGSGGGSGGGSGGGSPVVLTQSPLSLSAKVGDTVTITCTASSPVDNLVSWYKQAPGQPLQLLIYNATTRAPGVPSRFTGSGSDTTFTLTISSLQPEDFAVYYCQQTYKFPITFGQGTRLTPA</v>
-      </c>
-      <c r="K21" s="1">
-        <f t="shared" si="1"/>
-        <v>246</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>PVKLVESGGGTVAPGSSVTLTCKASGFNFSKYMVQWVRQAPGGAFQWVGLISPDGSTKWYHPDVEGRFTISKDNSKNTAYLEMRNLTPADTAVYYCGIVPQGSVHGDYSITHWGQGVTLTVTAGGGSGGGSGGGSGGGSVVQLTQSPPELSAKVGEKVTITCTASSPVDNLVSWYQQKPGGAPKLLIYNATTLAPGVPSRFSGSGSDTVFTLTIDSLQAEDFATYYCQQTSRLPFTFGQGTVLRPA</v>
-      </c>
-      <c r="K22" s="1">
-        <f t="shared" si="1"/>
-        <v>246</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>AIKLTESGGGTVKPGSSVTLTCQASGFNFSKYIMAWVRQAPGQPLQWVAQISPDNSVKRYHPEVEGRFTASKDNSKNTAYLEMKNLTPADTATYYCAIIPQGSTQGDYSMVHWGQGVELKVVAGGGSGGGSGGGSGGGSPVVLTQSPASLKAAVGDTVTITCTASAPVDNLVSWYKQAPGQPPQLLIYNASTLAPGVPSRFTGSGSDTSFTLTISSLQEEDFATYYCQETSKFPITFGQGTKLEKK</v>
-      </c>
-      <c r="K23" s="1">
-        <f t="shared" si="1"/>
-        <v>246</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>SIKLTESGGGVVAPGESVTLTCTASGFNFSKYEMAWVRQAPGGPLEFVAVISPDGSTTRYHPRVEGRATISRDNSKNTAYLTLRDLTPADTAVYYCGIIPGGSVHGDRALSHWGQGVRLEVRAGGGSGGGSGGGSGGGSMVTLTQSPSSLSAKVGDKVTISCTASEPVDDLVSWYKQAPGGPPQLLISRASTRAPGVPSRFSGSGSDTNFTLTIESLQSSDFATYYCQQTYKFPDTFGQGTTLSEA</v>
-      </c>
-      <c r="K24" s="1">
-        <f t="shared" si="1"/>
-        <v>246</v>
+        <v>1</v>
+      </c>
+      <c r="N24" s="7" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O24" s="7">
+        <v>12.82887</v>
+      </c>
+      <c r="P24" s="7">
+        <v>4.7956110000000001</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>0.915072</v>
+      </c>
+      <c r="R24" s="7">
+        <v>0.483738</v>
+      </c>
+      <c r="S24" s="7">
+        <v>0.57237099999999996</v>
+      </c>
+      <c r="T24" s="7">
+        <v>0.84014599999999995</v>
+      </c>
+      <c r="U24" s="7">
+        <v>9.1509999999999994E-3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="0" priority="3">
-      <formula>LEN(TRIM(I1))=0</formula>
+    <cfRule type="containsBlanks" dxfId="6" priority="9">
+      <formula>LEN(TRIM(J1))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:V24">
+    <cfRule type="containsBlanks" dxfId="5" priority="-1">
+      <formula>LEN(TRIM(N2))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M24">
+    <cfRule type="containsBlanks" dxfId="2" priority="1">
+      <formula>LEN(TRIM(M2))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1743,26 +2604,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C06239D-77DB-4F47-9412-C7BA2E2E54B1}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
     <col min="2" max="2" width="53" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">

--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\Nipah_gpG_Fv_Generation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colbyford/Documents/GitHub/Nipah_gpG_Fv_Generation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597C3723-B1B1-49E9-9FEA-13013B25FFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB16DC7B-F618-9B42-8EAB-798713776910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="44800" windowHeight="22520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Antigens" sheetId="1" r:id="rId1"/>
     <sheet name="Antibody Candidates" sheetId="2" r:id="rId2"/>
-    <sheet name="Notes" sheetId="3" r:id="rId3"/>
+    <sheet name="20251107 Submission FASTA" sheetId="4" r:id="rId3"/>
+    <sheet name="Notes" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <pivotCaches>
+    <pivotCache cacheId="6" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="154">
   <si>
     <t>antigen_id</t>
   </si>
@@ -361,27 +365,6 @@
     <t>len_lte_250</t>
   </si>
   <si>
-    <t>average_pae</t>
-  </si>
-  <si>
-    <t>average_pde</t>
-  </si>
-  <si>
-    <t>average_plddt</t>
-  </si>
-  <si>
-    <t>ipsae_score</t>
-  </si>
-  <si>
-    <t>pae_score</t>
-  </si>
-  <si>
-    <t>pde_score</t>
-  </si>
-  <si>
-    <t>plddt_score</t>
-  </si>
-  <si>
     <t>m102.3 (PDB: 6CMI)</t>
   </si>
   <si>
@@ -473,13 +456,58 @@
   </si>
   <si>
     <t>ITVTQSPASPEKKVGETATLTCTLSSAVPKSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLQPEDFATYYCRVYGEEPSFGQGTTLKLK</t>
+  </si>
+  <si>
+    <t>status_folded_franken_boltz2</t>
+  </si>
+  <si>
+    <t>max_ipsae</t>
+  </si>
+  <si>
+    <t>min_ipsae</t>
+  </si>
+  <si>
+    <t>QVQLVESGGGVVQPGRSLRLSCAASGFTFSSYGMHWVRQAPGKGLEWVAVISYDGSKKYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARSPFYDSSGYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISSYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQANSFPPTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>AVSLVESGGGTVKPGESVTLSCQASGFNFSKYQWVWVRQAPGKGLEWVGQISPDGSKTRYHPSVAGRFTISRDNSNSTLYLHMSNLRPEDTAVYYCGIIPQDNVHGDYSISHWGQGTLLTVSAGGGSGGGSGGGSGGGSAIKLTQSPKSLSASVGDTVTINCTASRPIGDLLSWYKQKPGKPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSSDFATYYCRQTSRFPITFGEGTTINKK</t>
+  </si>
+  <si>
+    <t>SISLVESGGGTVAPGSSVTLSCQASGFNFSKYSKAWVRQPPGQPLEWVSRISPDGSTKYYHPDVAGRFTISKDNSKSTVYLAMSNLTAADTATYYCGIIPGDNTHGDYAMSHWGQGTLLTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTISCTASRPIGDKLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTSFTLTISSLQEDDFATYYCQQTYTLPITFGQGTTISKK</t>
+  </si>
+  <si>
+    <t>GVSLTESGGGTVAPGSSVTLSCKASGFNFSKYSHAWVRQAPGQGLTWVGEISPDGSKTRYASSVAGRFTISRDNSNSTVYLQMSSLTPSDTATYYCGIIPGDSVHGERSMSHWGQGTLLTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTLNCTASRPIGDRLSWYKQKPGQAPQLLIYRASTLAPGVSSRYSGSGSDTQFTLTISSLQSDDFATYYCQQTSSYPVTFGQGTTITKK</t>
+  </si>
+  <si>
+    <t>GISLVESGGGTVKPGESVTLSCKASGFVFSKYSHAWVRQPPGGPLEWVSQISSDGSVTRYASSVSGRFTISRDNSNSTVYLQMNNLRPSDTATYYCGIIPQDNVHGDYAISHWGQGTLLTVTAGGGSGGGSGGGSGGGSAITLTQSPASLSAKVGDTVTLSCTASRPIGDLLSWYKQKPGQPPQLLIYRASTLAPGVDSRYSGSGSDTSFTLTISSLQPEDFATYYCQQTSRFPITFGQGTTIKQA</t>
+  </si>
+  <si>
+    <t>SIKLTESGGGTVKPGSSVTLSCQASGFNFSKYEVVWVMQKPGQPLQWVGSISPDGSKVRLHPKVKGRFTLSKDNSKNTAYLTMKNLQPEDTATYYCGIIPGGSVHGDRSITHWGQGVELKVVAGGGSGGGSGGGSGGGSMIKLTQSPKSVKAKVGDTVTITCTASEPVDDLVSWYQQKPGQPLRLLIYRSSTLAPGVSSRFSGSGSDTNFTLTISSLQEEDFATYYCMQTSKYPYTFGQGTTLSRA</t>
+  </si>
+  <si>
+    <t>GVKLVQSGDLTVKPGGSVTLSCKSEGGSFGNSSVAWVRQRPGGPYEYIGSIIPAYGVSRVSPEYEGRVTISADVANNTAYLTISNLTPEDTATYYCALGPGEVVYAASPFDEKLLTGALSVWGEGTLVTVTGGGSGGGSGGGSITVTQSPSSPSLSVGDTATLTCTLSSSVATSNVAWYKQLPGQPPELLISGGSTRAPGVPSRYSGSGSGTTFTLTISSLQASDFATYYCQVYGENPSFGQGTTLTLK</t>
+  </si>
+  <si>
+    <t>AVKLVQSGDQTVAPGGSVTLSCTSSGGSFGNSSVAWVRQRPGGPFEFIGSIIPSLGISRYNSKYKGRVTISSDAANNTAYLTISNLTAADTATYYCALGPGESVFASHPFKEKLLTGALSVWGEGTLVTVSGGGSGGGSGGGSITVTQSPSSPSKSVGDTVTLTCTLSSSVPVSQVAWYKQHPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLQPEDFATYYCQVYGEEPSFGQGTTVTLA</t>
+  </si>
+  <si>
+    <t>SISLVQSSDQTVAPGGSVTLSCTSSGGSFGNSGVAWVRQAPGGPPVYIGGIIPATGVSTYNAAFKGRVTISSDSSNNTAYLTISGLTAADTATYYCALGPAENVFASHPFAEDVNLGALSVWGQGTLVTVTGGGSGGGSGGGSITVTESPSSPELSVGETAVLSCTLSSSVPQSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLEPEDFATYYCQVYGTSPSFGQGTTLKLK</t>
+  </si>
+  <si>
+    <t>AVSLVESGDQTVAPGGSVTLSCTSSGGSFGNSGVAWVRQAPGGPLEFLGFIIPALGVSKVNSKYEGRVTISSDPANNTAYLTISNLTAADTATYYCGLGTGESVFASSPFDEKLLLGALSVWGQGTKVTVTGGGSGGGSGGGSITVTQSPASPEKKVGETATLTCTLSSAVPKSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLQPEDFATYYCRVYGEEPSFGQGTTLKLK</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FASTA Lines</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -506,6 +534,32 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -527,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -548,16 +602,53 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -569,6 +660,62 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -611,6 +758,1022 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Colby Ford" refreshedDate="45968.534644097221" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="31" xr:uid="{F849F4EE-A06F-6143-95E5-DE9F322614C7}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:T32" sheet="Antibody Candidates"/>
+  </cacheSource>
+  <cacheFields count="20">
+    <cacheField name="antibody_id" numFmtId="0">
+      <sharedItems count="31">
+        <s v="sbio-nipahgpg-001"/>
+        <s v="sbio-nipahgpg-002"/>
+        <s v="sbio-nipahgpg-003"/>
+        <s v="sbio-nipahgpg-004"/>
+        <s v="sbio-nipahgpg-005"/>
+        <s v="sbio-nipahgpg-006"/>
+        <s v="sbio-nipahgpg-007"/>
+        <s v="sbio-nipahgpg-008"/>
+        <s v="sbio-nipahgpg-009"/>
+        <s v="sbio-nipahgpg-010"/>
+        <s v="sbio-nipahgpg-011"/>
+        <s v="sbio-nipahgpg-012"/>
+        <s v="sbio-nipahgpg-013"/>
+        <s v="sbio-nipahgpg-014"/>
+        <s v="sbio-nipahgpg-015"/>
+        <s v="sbio-nipahgpg-016"/>
+        <s v="sbio-nipahgpg-017"/>
+        <s v="sbio-nipahgpg-018"/>
+        <s v="sbio-nipahgpg-019"/>
+        <s v="sbio-nipahgpg-020"/>
+        <s v="sbio-nipahgpg-021"/>
+        <s v="sbio-nipahgpg-022"/>
+        <s v="sbio-nipahgpg-023"/>
+        <s v="sbio-nipahgpg-024"/>
+        <s v="sbio-nipahgpg-025"/>
+        <s v="sbio-nipahgpg-026"/>
+        <s v="sbio-nipahgpg-027"/>
+        <s v="sbio-nipahgpg-028"/>
+        <s v="sbio-nipahgpg-029"/>
+        <s v="sbio-nipahgpg-030"/>
+        <s v="sbio-nipahgpg-031"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="method" numFmtId="0">
+      <sharedItems count="4">
+        <s v="peleke-1"/>
+        <s v="General LLM"/>
+        <s v="peleke-1 + ProteinMPNN"/>
+        <s v="ProteinMPNN"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="model_version" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="temperature" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.1" maxValue="0.9"/>
+    </cacheField>
+    <cacheField name="type" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="parent_antibody_id" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="note_ids" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="2"/>
+    </cacheField>
+    <cacheField name="h_chain" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="l_chain" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="test_chotia_pass" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="linker_seq" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="franken_chain" numFmtId="0">
+      <sharedItems count="31" longText="1">
+        <s v="QVQLVESGGGVVQPGRSLRLSCAASGFTFSSYGMHWVRQAPGKGLEWVAVISYDGSKKYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARSPFYDSSGYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISSYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQANSFPPTFGQGTKVEIK"/>
+        <s v="QVQLVESGGGVVQPGKSLRLSCAASGFTFSSYAMSWVRQAPGKGPEWVAFISYDGSNNYYADSVKGRFTISRDNPKNTLYLQMKSLRAEDTAVYYCARWRQRFDMYWGRGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK"/>
+        <s v="QVQLQESGPGLVKPSETLSLTCTVSGASIRGYYWSWIRQFPGKELEWIGYVYSGSTENYNPSLKSRVTVTLTDTKNSFSLKLNSVTSEDTAVYYCARGGALIYYDVWGTGTTVTVSSGGGSGGGSGGGSGGGSDIQVTQSPVSLSASVGDRVTITCRASQGIDSLNWFQQRPGKAPKLLIYAASQLTGIAPRFRSGSGSGTDFTLTISSLQPEDFATYYCQQYNIYPATFGQGTKVEIK"/>
+        <s v="EVQLVQSGAEVKKPGESLKISCKGSGYTFSYYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAMYYCARGEGVFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSYTLTQAPSVSASGQSVTISCTGTSRDVGTYWYQQIPGRAPKLLIHDKSENQGKTPGIPDRFSGSKSGNTASLVIIRGLQADDEADYYCNSYHGSGSNIFGGGTKLTVD"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYWMNWVRQAPGKGLEWVANINQDGGEKYYVDSVKGRFTISRDNAKNSLYLQMNSLRAEDTAIYYCARDVGGGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK"/>
+        <s v="VGPRTTLTVSLRSGASVKMSCKASGYSFTWVRQKPGQGLEWVKISYDGLKDYTNYKFQGVKATITADKSSNTAYLQISNLTSEDTAVYFCSRRAVYYDYWGQGTTLTVSSGGGSGGGSGGGSGGGSVTVALGTVSLAPGTVSLRSCRASQSVSLSYLHWYQQKPGQAPLLVYGDNSKRPSGIPDRFSGSSSGNTASLTISGVQAEDEADYYCQSSDSSNWVFGGGTKLTVL"/>
+        <s v="DRPSLTVKTSLTVSEPGSSISCASGIGTFSSYDFIVKQPSQGFDLEWIGGISYDSTYVNYSLKHRISRTIITNWKNTLQFTISLTSLKPASVYFDVWGAGTWISPYWGQGTTLTVSSSSAVSSFYVKNKGLDVWGHVITVNGGGSGGGSGGGSGGGSDIQLTQSPFLSLSPGSTASISCSGSSYDYTSGYRYKSSGKSPKPWMQRFLYSGSKRFSGVPERFIGSGTDFALTISRVEAEDVGFCSGWIFPFTFGPGTKVDIK"/>
+        <s v="QVQLVESGGGVVQPGRSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAIWSNGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARDYGSYGYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPLSLPVTPGEPASISCRSSQSLLYSNGNTYLEWYLQKPGQSPQLLIYLVSKLDSGVPDRFSGSGSGTDFTLKISRVEAEDLGIYYCQQSKEVPYTFGAGTKLEIK"/>
+        <s v="AVSLVESGGGTVKPGESVTLSCQASGFNFSKYQWVWVRQAPGKGLEWVGQISPDGSKTRYHPSVAGRFTISRDNSNSTLYLHMSNLRPEDTAVYYCGIIPQDNVHGDYSISHWGQGTLLTVSAGGGSGGGSGGGSGGGSAIKLTQSPKSLSASVGDTVTINCTASRPIGDLLSWYKQKPGKPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSSDFATYYCRQTSRFPITFGEGTTINKK"/>
+        <s v="AVSITESGGGTKAPGSSVTLSCKVSGFVFSKYSIAWVRQAPGQGLEWVSQISPDGSTTRYNPAVAGRFTISRDNSNSTAYLQMSNLTPSDTATYYCAIIPQDNEHGDYSLSHWGQGTQLTVSAGGGSGGGSGGGSGGGSAIKLTQSPKSLSAKVGDTVTINCTASAPIGDFLSWYKQKPGQPPQLLIYKSSTLAPGVSSRYSGSGSDTNFTLTISSLQEEDFATYYCQQTATLPITFGEGTTINKK"/>
+        <s v="SISLVESGGGTVAPGSSVTLSCQASGFNFSKYSKAWVRQPPGQPLEWVSRISPDGSTKYYHPDVAGRFTISKDNSKSTVYLAMSNLTAADTATYYCGIIPGDNTHGDYAMSHWGQGTLLTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTISCTASRPIGDKLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTSFTLTISSLQEDDFATYYCQQTYTLPITFGQGTTISKK"/>
+        <s v="GVSLTESGGGTVAPGSSVTLSCKASGFNFSKYSHAWVRQAPGQGLTWVGEISPDGSKTRYASSVAGRFTISRDNSNSTVYLQMSSLTPSDTATYYCGIIPGDSVHGERSMSHWGQGTLLTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTLNCTASRPIGDRLSWYKQKPGQAPQLLIYRASTLAPGVSSRYSGSGSDTQFTLTISSLQSDDFATYYCQQTSSYPVTFGQGTTITKK"/>
+        <s v="EVSLVESGGGTVKPGESVTLSCQASGFNFSKYRLAWVRQPPGQGLVWVSEISPDGTEVKYHPDVKGRFTASRDNSNSTAYLKMNNLQPSDTATYYCGIIPQDSSHGDYSISHWGQGTQLTVSAGGGSGGGSGGGSGGGSTITLTQSPSSLSASVGDTVTINCTASRPIGDFLSWYKQKPGQPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSDDFATYYCQQTYTLPITFGQGTTLTKK "/>
+        <s v="AVSLVESGGGTYAPGSSVTLSCQGSGFNFSKVRKVWVRQPPGGPLEYVAEISPDGSTTTYASSVAGRFTISKDNSNSTLYLSMSNLTPADTATYYCGLIPGDSEHGDRSISHWGQGTLVTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTINCTASQPIGNFLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTNFTLTISSLQSEDFATYYCQQTSRLPVTFGQGTTINKK"/>
+        <s v="GISLVESGGGTVKPGESVTLSCKASGFVFSKYSHAWVRQPPGGPLEWVSQISSDGSVTRYASSVSGRFTISRDNSNSTVYLQMNNLRPSDTATYYCGIIPQDNVHGDYAISHWGQGTLLTVTAGGGSGGGSGGGSGGGSAITLTQSPASLSAKVGDTVTLSCTASRPIGDLLSWYKQKPGQPPQLLIYRASTLAPGVDSRYSGSGSDTSFTLTISSLQPEDFATYYCQQTSRFPITFGQGTTIKQA"/>
+        <s v="PVSLVESGGGTVAPGSSVTLTCQASGFNFSKYIVAWVRQPPGQPLRFVAMITPDGSKVWLHPEVEGRFTPSKDNSKNTSYLQLKDLQPEDTATYYCGIIPQGSTHGDYSITHWGQGVVLTVTAGGGSGGGSGGGSGGGSMVTLTQSPSSLSASVGDTVTITCTASSPVDNLMSWYQQPPGQPLRLLIYNASTRAPGVSSRFSGSGSDTNFTLTISSLQASDFATYYCQQTYRLPVTFGQGTTLSAA "/>
+        <s v="SIKLTESGGGTVKPGSSVTLSCQASGFNFSKYEVVWVMQKPGQPLQWVGSISPDGSKVRLHPKVKGRFTLSKDNSKNTAYLTMKNLQPEDTATYYCGIIPGGSVHGDRSITHWGQGVELKVVAGGGSGGGSGGGSGGGSMIKLTQSPKSVKAKVGDTVTITCTASEPVDDLVSWYQQKPGQPLRLLIYRSSTLAPGVSSRFSGSGSDTNFTLTISSLQEEDFATYYCMQTSKYPYTFGQGTTLSRA"/>
+        <s v="AITLTESGGGVVAPGSSVTLTCTASGFNFSKYSMVWVRQPPGGPLQWVAQISPDNSTVRYHPAVEGRFTASKDNSKNTAYLAMSDLEPSDTATYYCGIIPQGSTHNDYSIVHWGQGTELRVVAGGGSGGGSGGGSGGGSMIKLTQSPSSLSAKVGDKVTITCTASSPVDNLVSWYKQPPGGPLQLLIYNSSTRAPGVSSRFKGSGSDTNFTLTIESLQEEDFATYYCQQTYKFPITFGQGTKLTRA"/>
+        <s v="SISLTESGGGTVAPGSSVTLTCTASGFNFSKYSVAWVRQPPGQPLQWVALISPDGSKKWYHPDVKGRATISKDNSKNTSYLTLSNLQPSDTATYYCGIIPGGNIHGDYSMTHWGQGTQLTVVAGGGSGGGSGGGSGGGSMITLTQSPLSLSAKVGDTVTITCTASSPVDDLVSWYQQKPGQPLRLLIRNASERAPGVSSRFSGSGSDTTFTLTISSVQEEDFATYYCQQTSKLPYTFGQGTTLSRA"/>
+        <s v="AVTLTESGGGTVAPGSSVTLTCTASGFNFSKYILAWVRQAPGQPLEWVASISPDGSKTRYHPAVKGRATASKDNSKNTAYLELKDLRPEDTATYYCGIIPQGSVHGDYSMTHWGQGTELRVEAGGGSGGGSGGGSGGGSPVVLTQSPLSLSAKVGDTVTITCTASSPVDNLVSWYKQAPGQPLQLLIYNATTRAPGVPSRFTGSGSDTTFTLTISSLQPEDFAVYYCQQTYKFPITFGQGTRLTPA"/>
+        <s v="PVKLVESGGGTVAPGSSVTLTCKASGFNFSKYMVQWVRQAPGGAFQWVGLISPDGSTKWYHPDVEGRFTISKDNSKNTAYLEMRNLTPADTAVYYCGIVPQGSVHGDYSITHWGQGVTLTVTAGGGSGGGSGGGSGGGSVVQLTQSPPELSAKVGEKVTITCTASSPVDNLVSWYQQKPGGAPKLLIYNATTLAPGVPSRFSGSGSDTVFTLTIDSLQAEDFATYYCQQTSRLPFTFGQGTVLRPA"/>
+        <s v="AIKLTESGGGTVKPGSSVTLTCQASGFNFSKYIMAWVRQAPGQPLQWVAQISPDNSVKRYHPEVEGRFTASKDNSKNTAYLEMKNLTPADTATYYCAIIPQGSTQGDYSMVHWGQGVELKVVAGGGSGGGSGGGSGGGSPVVLTQSPASLKAAVGDTVTITCTASAPVDNLVSWYKQAPGQPPQLLIYNASTLAPGVPSRFTGSGSDTSFTLTISSLQEEDFATYYCQETSKFPITFGQGTKLEKK"/>
+        <s v="SIKLTESGGGVVAPGESVTLTCTASGFNFSKYEMAWVRQAPGGPLEFVAVISPDGSTTRYHPRVEGRATISRDNSKNTAYLTLRDLTPADTAVYYCGIIPGGSVHGDRALSHWGQGVRLEVRAGGGSGGGSGGGSGGGSMVTLTQSPSSLSAKVGDKVTISCTASEPVDDLVSWYKQAPGGPPQLLISRASTRAPGVPSRFSGSGSDTNFTLTIESLQSSDFATYYCQQTYKFPDTFGQGTTLSEA"/>
+        <s v="SVTLVESGDQTVAPGGSVTLSCTSSGGSFGNSGVSWVKQQPGGPLQWIGGIIPSLGISKVSPEYAGRVTISSDSSNNTAYLTISNLTAADTATYYCALGEGEDVFASSPFASNVNLGALSVWGQGTKVTVSGGGSGGGSGGGSITVTQSPSSPSLKVGETATLTCTLSAPVPRSNVAWYKQQPGQPPTLLIYGGSTRAPGVPSRYSGSGSGTTFTLTITALKPEDFATYYCQVYGENPSFGQGTTLKLK "/>
+        <s v="GVKLVQSGDLTVKPGGSVTLSCKSEGGSFGNSSVAWVRQRPGGPYEYIGSIIPAYGVSRVSPEYEGRVTISADVANNTAYLTISNLTPEDTATYYCALGPGEVVYAASPFDEKLLTGALSVWGEGTLVTVTGGGSGGGSGGGSITVTQSPSSPSLSVGDTATLTCTLSSSVATSNVAWYKQLPGQPPELLISGGSTRAPGVPSRYSGSGSGTTFTLTISSLQASDFATYYCQVYGENPSFGQGTTLTLK"/>
+        <s v="AVKLVQSGDQTVAPGGSVTLSCTSSGGSFGNSSVAWVRQRPGGPFEFIGSIIPSLGISRYNSKYKGRVTISSDAANNTAYLTISNLTAADTATYYCALGPGESVFASHPFKEKLLTGALSVWGEGTLVTVSGGGSGGGSGGGSITVTQSPSSPSKSVGDTVTLTCTLSSSVPVSQVAWYKQHPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLQPEDFATYYCQVYGEEPSFGQGTTVTLA"/>
+        <s v="SITLVQSGDVTVAPGGSVTLTCTSSGGSFGNKAVAWVRQRPGGPYEWLGFIIPAYGVSRYNPAYEGRVTISVDSASNTASLTISNLTAADTATYYCALGEGEIVYAASPFDENYKLGALYIWGQGTKVTVSGGGSGGGSGGGSITLTQSPSSPSLSVGETATLTCTASAPVPKSNVAWYKQLPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLTADDFATYYCQVYGENPSFGEGTTLTLK"/>
+        <s v="SVTLVQSGDQTVPIGGSVTLSCTANGGSFGNKGVAWVRQRPGGPYEFLGFIKPAIGESRYHPKYKGRVTISSDVSSNTAYLTISNLTPEDTAVYYCALGEAEDVFAAHPFKTDLLLGALSIWGQGTRVTVTGGGSGGGSGGGSITVTQSPSSPSLSVGETAVLTCTLSQPVPQSQVAWYKQLPGQPPTLLISGGSTRASGVPSRYSGSGSGTTFTLTISSLLPEDFATYYCQVVGKEPSFGQGTTLTLK"/>
+        <s v="SVKLVQSGDQTVPVGGSVTLSCTASGGSFGNYGVAWVRQRPGGPLEYIGSIIPAYGISTVNPKYEGRVTISADPTNNTAYLTISNLTPEDTATYYCALGPGEVVFASSPFDIDVLTGALWVWGEGTKVTVTGGGSGGGSGGGSITVTQSPSSPSLKVGETATLTCTLSAPVAKSNVAWYKQLPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLQPEDFATYYCQVVGKNPSFGQGTLLKLK"/>
+        <s v="SISLVQSSDQTVAPGGSVTLSCTSSGGSFGNSGVAWVRQAPGGPPVYIGGIIPATGVSTYNAAFKGRVTISSDSSNNTAYLTISGLTAADTATYYCALGPAENVFASHPFAEDVNLGALSVWGQGTLVTVTGGGSGGGSGGGSITVTESPSSPELSVGETAVLSCTLSSSVPQSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLEPEDFATYYCQVYGTSPSFGQGTTLKLK"/>
+        <s v="AVSLVESGDQTVAPGGSVTLSCTSSGGSFGNSGVAWVRQAPGGPLEFLGFIIPALGVSKVNSKYEGRVTISSDPANNTAYLTISNLTAADTATYYCGLGTGESVFASSPFDEKLLLGALSVWGQGTKVTVTGGGSGGGSGGGSITVTQSPASPEKKVGETATLTCTLSSAVPKSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLQPEDFATYYCRVYGEEPSFGQGTTLKLK"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="len_franken_chain" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="231" maxValue="261"/>
+    </cacheField>
+    <cacheField name="len_lte_250" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="status_folded_boltz2" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="status_folded_franken_boltz2" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="max_ipsae" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="0.64176299999999997"/>
+    </cacheField>
+    <cacheField name="min_ipsae" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="0.69121100000000002"/>
+    </cacheField>
+    <cacheField name="candidate_for_submission" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <b v="1"/>
+        <b v="0"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="submitted_to_comp" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="31">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="peleke-phi-4"/>
+    <n v="0.7"/>
+    <s v="base"/>
+    <m/>
+    <m/>
+    <s v="QVQLVESGGGVVQPGRSLRLSCAASGFTFSSYGMHWVRQAPGKGLEWVAVISYDGSKKYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARSPFYDSSGYYAMDYWGQGTLVTVSS"/>
+    <s v="DIQLTQSPSSLSASVGDRVTITCRASQGISSYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQANSFPPTFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="0"/>
+    <n v="246"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <n v="0.25843100000000002"/>
+    <n v="0.33503300000000003"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="peleke-phi-4"/>
+    <n v="0.7"/>
+    <s v="base"/>
+    <m/>
+    <m/>
+    <s v="QVQLVESGGGVVQPGKSLRLSCAASGFTFSSYAMSWVRQAPGKGPEWVAFISYDGSNNYYADSVKGRFTISRDNPKNTLYLQMKSLRAEDTAVYYCARWRQRFDMYWGRGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="1"/>
+    <n v="240"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <n v="0"/>
+    <n v="5.4939999999999998E-3"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="peleke-phi-4"/>
+    <n v="0.9"/>
+    <s v="base"/>
+    <m/>
+    <m/>
+    <s v="QVQLQESGPGLVKPSETLSLTCTVSGASIRGYYWSWIRQFPGKELEWIGYVYSGSTENYNPSLKSRVTVTLTDTKNSFSLKLNSVTSEDTAVYYCARGGALIYYDVWGTGTTVTVSS"/>
+    <s v="DIQVTQSPVSLSASVGDRVTITCRASQGIDSLNWFQQRPGKAPKLLIYAASQLTGIAPRFRSGSGSGTDFTLTISSLQPEDFATYYCQQYNIYPATFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="2"/>
+    <n v="239"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="peleke-phi-4"/>
+    <n v="0.9"/>
+    <s v="base"/>
+    <m/>
+    <m/>
+    <s v="EVQLVQSGAEVKKPGESLKISCKGSGYTFSYYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAMYYCARGEGVFDYWGQGTLVTVSS"/>
+    <s v="YTLTQAPSVSASGQSVTISCTGTSRDVGTYWYQQIPGRAPKLLIHDKSENQGKTPGIPDRFSGSKSGNTASLVIIRGLQADDEADYYCNSYHGSGSNIFGGGTKLTVD"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="3"/>
+    <n v="240"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <n v="5.2389999999999997E-3"/>
+    <n v="8.0114000000000005E-2"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="peleke-phi-4"/>
+    <n v="0.5"/>
+    <s v="base"/>
+    <m/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYWMNWVRQAPGKGLEWVANINQDGGEKYYVDSVKGRFTISRDNAKNSLYLQMNSLRAEDTAIYYCARDVGGGMDVWGQGTTVTVSS"/>
+    <s v="QMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="4"/>
+    <n v="238"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <n v="0"/>
+    <n v="5.3489999999999996E-3"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <m/>
+    <s v="base"/>
+    <m/>
+    <m/>
+    <s v="VGPRTTLTVSLRSGASVKMSCKASGYSFTWVRQKPGQGLEWVKISYDGLKDYTNYKFQGVKATITADKSSNTAYLQISNLTSEDTAVYFCSRRAVYYDYWGQGTTLTVSS"/>
+    <s v="VTVALGTVSLAPGTVSLRSCRASQSVSLSYLHWYQQKPGQAPLLVYGDNSKRPSGIPDRFSGSSSGNTASLTISGVQAEDEADYYCQSSDSSNWVFGGGTKLTVL"/>
+    <b v="0"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="5"/>
+    <n v="231"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <m/>
+    <s v="base"/>
+    <m/>
+    <m/>
+    <s v="DRPSLTVKTSLTVSEPGSSISCASGIGTFSSYDFIVKQPSQGFDLEWIGGISYDSTYVNYSLKHRISRTIITNWKNTLQFTISLTSLKPASVYFDVWGAGTWISPYWGQGTTLTVSSSSAVSSFYVKNKGLDVWGHVITVN"/>
+    <s v="DIQLTQSPFLSLSPGSTASISCSGSSYDYTSGYRYKSSGKSPKPWMQRFLYSGSKRFSGVPERFIGSGTDFALTISRVEAEDVGFCSGWIFPFTFGPGTKVDIK"/>
+    <b v="0"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="6"/>
+    <n v="261"/>
+    <b v="0"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <s v="Qwen3-235B-A22B-Instruct-2507"/>
+    <m/>
+    <s v="base"/>
+    <m/>
+    <m/>
+    <s v="QVQLVESGGGVVQPGRSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAIWSNGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARDYGSYGYFDYWGQGTLVTVSS"/>
+    <s v="DIVMTQSPLSLPVTPGEPASISCRSSQSLLYSNGNTYLEWYLQKPGQSPQLLIYLVSKLDSGVPDRFSGSGSGTDFTLKISRVEAEDLGIYYCQQSKEVPYTFGAGTKLEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="7"/>
+    <n v="247"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <n v="0"/>
+    <n v="1.302E-2"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <s v="peleke-phi-4 / v_48_020"/>
+    <n v="0.1"/>
+    <s v="derivative"/>
+    <s v="sbio-nipahgpg-001"/>
+    <n v="1"/>
+    <s v="AVSLVESGGGTVKPGESVTLSCQASGFNFSKYQWVWVRQAPGKGLEWVGQISPDGSKTRYHPSVAGRFTISRDNSNSTLYLHMSNLRPEDTAVYYCGIIPQDNVHGDYSISHWGQGTLLTVSA"/>
+    <s v="AIKLTQSPKSLSASVGDTVTINCTASRPIGDLLSWYKQKPGKPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSSDFATYYCRQTSRFPITFGEGTTINKK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="8"/>
+    <n v="246"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <n v="5.2820000000000002E-3"/>
+    <n v="8.6638999999999994E-2"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <s v="peleke-phi-4 / v_48_020"/>
+    <n v="0.1"/>
+    <s v="derivative"/>
+    <s v="sbio-nipahgpg-001"/>
+    <n v="1"/>
+    <s v="AVSITESGGGTKAPGSSVTLSCKVSGFVFSKYSIAWVRQAPGQGLEWVSQISPDGSTTRYNPAVAGRFTISRDNSNSTAYLQMSNLTPSDTATYYCAIIPQDNEHGDYSLSHWGQGTQLTVSA"/>
+    <s v="AIKLTQSPKSLSAKVGDTVTINCTASAPIGDFLSWYKQKPGQPPQLLIYKSSTLAPGVSSRYSGSGSDTNFTLTISSLQEEDFATYYCQQTATLPITFGEGTTINKK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="9"/>
+    <n v="246"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <s v="peleke-phi-4 / v_48_020"/>
+    <n v="0.1"/>
+    <s v="derivative"/>
+    <s v="sbio-nipahgpg-001"/>
+    <n v="1"/>
+    <s v="SISLVESGGGTVAPGSSVTLSCQASGFNFSKYSKAWVRQPPGQPLEWVSRISPDGSTKYYHPDVAGRFTISKDNSKSTVYLAMSNLTAADTATYYCGIIPGDNTHGDYAMSHWGQGTLLTVSA"/>
+    <s v="AITLTQSPSSLSASVGDTVTISCTASRPIGDKLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTSFTLTISSLQEDDFATYYCQQTYTLPITFGQGTTISKK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="10"/>
+    <n v="246"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <n v="0.116301"/>
+    <n v="0.18454400000000001"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+    <s v="peleke-phi-4 / v_48_020"/>
+    <n v="0.1"/>
+    <s v="derivative"/>
+    <s v="sbio-nipahgpg-001"/>
+    <n v="1"/>
+    <s v="GVSLTESGGGTVAPGSSVTLSCKASGFNFSKYSHAWVRQAPGQGLTWVGEISPDGSKTRYASSVAGRFTISRDNSNSTVYLQMSSLTPSDTATYYCGIIPGDSVHGERSMSHWGQGTLLTVSA"/>
+    <s v="AITLTQSPSSLSASVGDTVTLNCTASRPIGDRLSWYKQKPGQAPQLLIYRASTLAPGVSSRYSGSGSDTQFTLTISSLQSDDFATYYCQQTSSYPVTFGQGTTITKK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="11"/>
+    <n v="246"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <n v="0"/>
+    <n v="4.8060000000000004E-3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="2"/>
+    <s v="peleke-phi-4 / v_48_020"/>
+    <n v="0.1"/>
+    <s v="derivative"/>
+    <s v="sbio-nipahgpg-001"/>
+    <n v="1"/>
+    <s v="EVSLVESGGGTVKPGESVTLSCQASGFNFSKYRLAWVRQPPGQGLVWVSEISPDGTEVKYHPDVKGRFTASRDNSNSTAYLKMNNLQPSDTATYYCGIIPQDSSHGDYSISHWGQGTQLTVSA"/>
+    <s v="TITLTQSPSSLSASVGDTVTINCTASRPIGDFLSWYKQKPGQPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSDDFATYYCQQTYTLPITFGQGTTLTKK "/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="12"/>
+    <n v="247"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="2"/>
+    <s v="peleke-phi-4 / v_48_020"/>
+    <n v="0.1"/>
+    <s v="derivative"/>
+    <s v="sbio-nipahgpg-001"/>
+    <n v="1"/>
+    <s v="AVSLVESGGGTYAPGSSVTLSCQGSGFNFSKVRKVWVRQPPGGPLEYVAEISPDGSTTTYASSVAGRFTISKDNSNSTLYLSMSNLTPADTATYYCGLIPGDSEHGDRSISHWGQGTLVTVSA"/>
+    <s v="AITLTQSPSSLSASVGDTVTINCTASQPIGNFLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTNFTLTISSLQSEDFATYYCQQTSRLPVTFGQGTTINKK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="13"/>
+    <n v="246"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="2"/>
+    <s v="peleke-phi-4 / v_48_020"/>
+    <n v="0.1"/>
+    <s v="derivative"/>
+    <s v="sbio-nipahgpg-001"/>
+    <n v="1"/>
+    <s v="GISLVESGGGTVKPGESVTLSCKASGFVFSKYSHAWVRQPPGGPLEWVSQISSDGSVTRYASSVSGRFTISRDNSNSTVYLQMNNLRPSDTATYYCGIIPQDNVHGDYAISHWGQGTLLTVTA"/>
+    <s v="AITLTQSPASLSAKVGDTVTLSCTASRPIGDLLSWYKQKPGQPPQLLIYRASTLAPGVDSRYSGSGSDTSFTLTISSLQPEDFATYYCQQTSRFPITFGQGTTIKQA"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="14"/>
+    <n v="246"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <n v="5.7704999999999999E-2"/>
+    <n v="0.165157"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="2"/>
+    <s v="peleke-phi-4 / v_48_030"/>
+    <n v="0.15"/>
+    <s v="derivative"/>
+    <s v="sbio-nipahgpg-001"/>
+    <n v="1"/>
+    <s v="PVSLVESGGGTVAPGSSVTLTCQASGFNFSKYIVAWVRQPPGQPLRFVAMITPDGSKVWLHPEVEGRFTPSKDNSKNTSYLQLKDLQPEDTATYYCGIIPQGSTHGDYSITHWGQGVVLTVTA"/>
+    <s v="MVTLTQSPSSLSASVGDTVTITCTASSPVDNLMSWYQQPPGQPLRLLIYNASTRAPGVSSRFSGSGSDTNFTLTISSLQASDFATYYCQQTYRLPVTFGQGTTLSAA "/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="15"/>
+    <n v="247"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="2"/>
+    <s v="peleke-phi-4 / v_48_030"/>
+    <n v="0.15"/>
+    <s v="derivative"/>
+    <s v="sbio-nipahgpg-001"/>
+    <n v="1"/>
+    <s v="SIKLTESGGGTVKPGSSVTLSCQASGFNFSKYEVVWVMQKPGQPLQWVGSISPDGSKVRLHPKVKGRFTLSKDNSKNTAYLTMKNLQPEDTATYYCGIIPGGSVHGDRSITHWGQGVELKVVA"/>
+    <s v="MIKLTQSPKSVKAKVGDTVTITCTASEPVDDLVSWYQQKPGQPLRLLIYRSSTLAPGVSSRFSGSGSDTNFTLTISSLQEEDFATYYCMQTSKYPYTFGQGTTLSRA"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="16"/>
+    <n v="246"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <n v="0.15156800000000001"/>
+    <n v="0.23256399999999999"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="2"/>
+    <s v="peleke-phi-4 / v_48_030"/>
+    <n v="0.15"/>
+    <s v="derivative"/>
+    <s v="sbio-nipahgpg-001"/>
+    <n v="1"/>
+    <s v="AITLTESGGGVVAPGSSVTLTCTASGFNFSKYSMVWVRQPPGGPLQWVAQISPDNSTVRYHPAVEGRFTASKDNSKNTAYLAMSDLEPSDTATYYCGIIPQGSTHNDYSIVHWGQGTELRVVA"/>
+    <s v="MIKLTQSPSSLSAKVGDKVTITCTASSPVDNLVSWYKQPPGGPLQLLIYNSSTRAPGVSSRFKGSGSDTNFTLTIESLQEEDFATYYCQQTYKFPITFGQGTKLTRA"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="17"/>
+    <n v="246"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="2"/>
+    <s v="peleke-phi-4 / v_48_030"/>
+    <n v="0.15"/>
+    <s v="derivative"/>
+    <s v="sbio-nipahgpg-001"/>
+    <n v="1"/>
+    <s v="SISLTESGGGTVAPGSSVTLTCTASGFNFSKYSVAWVRQPPGQPLQWVALISPDGSKKWYHPDVKGRATISKDNSKNTSYLTLSNLQPSDTATYYCGIIPGGNIHGDYSMTHWGQGTQLTVVA"/>
+    <s v="MITLTQSPLSLSAKVGDTVTITCTASSPVDDLVSWYQQKPGQPLRLLIRNASERAPGVSSRFSGSGSDTTFTLTISSVQEEDFATYYCQQTSKLPYTFGQGTTLSRA"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="18"/>
+    <n v="246"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="2"/>
+    <s v="peleke-phi-4 / v_48_030"/>
+    <n v="0.15"/>
+    <s v="derivative"/>
+    <s v="sbio-nipahgpg-001"/>
+    <n v="1"/>
+    <s v="AVTLTESGGGTVAPGSSVTLTCTASGFNFSKYILAWVRQAPGQPLEWVASISPDGSKTRYHPAVKGRATASKDNSKNTAYLELKDLRPEDTATYYCGIIPQGSVHGDYSMTHWGQGTELRVEA"/>
+    <s v="PVVLTQSPLSLSAKVGDTVTITCTASSPVDNLVSWYKQAPGQPLQLLIYNATTRAPGVPSRFTGSGSDTTFTLTISSLQPEDFAVYYCQQTYKFPITFGQGTRLTPA"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="19"/>
+    <n v="246"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <n v="0"/>
+    <n v="6.1079999999999997E-3"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="2"/>
+    <s v="peleke-phi-4 / v_48_030"/>
+    <n v="0.15"/>
+    <s v="derivative"/>
+    <s v="sbio-nipahgpg-001"/>
+    <n v="1"/>
+    <s v="PVKLVESGGGTVAPGSSVTLTCKASGFNFSKYMVQWVRQAPGGAFQWVGLISPDGSTKWYHPDVEGRFTISKDNSKNTAYLEMRNLTPADTAVYYCGIVPQGSVHGDYSITHWGQGVTLTVTA"/>
+    <s v="VVQLTQSPPELSAKVGEKVTITCTASSPVDNLVSWYQQKPGGAPKLLIYNATTLAPGVPSRFSGSGSDTVFTLTIDSLQAEDFATYYCQQTSRLPFTFGQGTVLRPA"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="20"/>
+    <n v="246"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="2"/>
+    <s v="peleke-phi-4 / v_48_030"/>
+    <n v="0.15"/>
+    <s v="derivative"/>
+    <s v="sbio-nipahgpg-001"/>
+    <n v="1"/>
+    <s v="AIKLTESGGGTVKPGSSVTLTCQASGFNFSKYIMAWVRQAPGQPLQWVAQISPDNSVKRYHPEVEGRFTASKDNSKNTAYLEMKNLTPADTATYYCAIIPQGSTQGDYSMVHWGQGVELKVVA"/>
+    <s v="PVVLTQSPASLKAAVGDTVTITCTASAPVDNLVSWYKQAPGQPPQLLIYNASTLAPGVPSRFTGSGSDTSFTLTISSLQEEDFATYYCQETSKFPITFGQGTKLEKK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="21"/>
+    <n v="246"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="2"/>
+    <s v="peleke-phi-4 / v_48_030"/>
+    <n v="0.15"/>
+    <s v="derivative"/>
+    <s v="sbio-nipahgpg-001"/>
+    <n v="1"/>
+    <s v="SIKLTESGGGVVAPGESVTLTCTASGFNFSKYEMAWVRQAPGGPLEFVAVISPDGSTTRYHPRVEGRATISRDNSKNTAYLTLRDLTPADTAVYYCGIIPGGSVHGDRALSHWGQGVRLEVRA"/>
+    <s v="MVTLTQSPSSLSAKVGDKVTISCTASEPVDDLVSWYKQAPGGPPQLLISRASTRAPGVPSRFSGSGSDTNFTLTIESLQSSDFATYYCQQTYKFPDTFGQGTTLSEA"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="22"/>
+    <n v="246"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <n v="0"/>
+    <n v="5.0870000000000004E-3"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="3"/>
+    <s v="v_48_020"/>
+    <n v="0.1"/>
+    <s v="derivative"/>
+    <s v="m102.3 (PDB: 6CMI)"/>
+    <n v="2"/>
+    <s v="SVTLVESGDQTVAPGGSVTLSCTSSGGSFGNSGVSWVKQQPGGPLQWIGGIIPSLGISKVSPEYAGRVTISSDSSNNTAYLTISNLTAADTATYYCALGEGEDVFASSPFASNVNLGALSVWGQGTKVTVS"/>
+    <s v="ITVTQSPSSPSLKVGETATLTCTLSAPVPRSNVAWYKQQPGQPPTLLIYGGSTRAPGVPSRYSGSGSGTTFTLTITALKPEDFATYYCQVYGENPSFGQGTTLKLK "/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGS"/>
+    <x v="23"/>
+    <n v="250"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="3"/>
+    <s v="v_48_020"/>
+    <n v="0.1"/>
+    <s v="derivative"/>
+    <s v="m102.3 (PDB: 6CMI)"/>
+    <n v="2"/>
+    <s v="GVKLVQSGDLTVKPGGSVTLSCKSEGGSFGNSSVAWVRQRPGGPYEYIGSIIPAYGVSRVSPEYEGRVTISADVANNTAYLTISNLTPEDTATYYCALGPGEVVYAASPFDEKLLTGALSVWGEGTLVTVT"/>
+    <s v="ITVTQSPSSPSLSVGDTATLTCTLSSSVATSNVAWYKQLPGQPPELLISGGSTRAPGVPSRYSGSGSGTTFTLTISSLQASDFATYYCQVYGENPSFGQGTTLTLK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGS"/>
+    <x v="24"/>
+    <n v="249"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <n v="0.31751499999999999"/>
+    <n v="0.405559"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="3"/>
+    <s v="v_48_020"/>
+    <n v="0.1"/>
+    <s v="derivative"/>
+    <s v="m102.3 (PDB: 6CMI)"/>
+    <n v="2"/>
+    <s v="AVKLVQSGDQTVAPGGSVTLSCTSSGGSFGNSSVAWVRQRPGGPFEFIGSIIPSLGISRYNSKYKGRVTISSDAANNTAYLTISNLTAADTATYYCALGPGESVFASHPFKEKLLTGALSVWGEGTLVTVS"/>
+    <s v="ITVTQSPSSPSKSVGDTVTLTCTLSSSVPVSQVAWYKQHPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLQPEDFATYYCQVYGEEPSFGQGTTVTLA"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGS"/>
+    <x v="25"/>
+    <n v="249"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <n v="0.64176299999999997"/>
+    <n v="0.69121100000000002"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="3"/>
+    <s v="v_48_020"/>
+    <n v="0.1"/>
+    <s v="derivative"/>
+    <s v="m102.3 (PDB: 6CMI)"/>
+    <n v="2"/>
+    <s v="SITLVQSGDVTVAPGGSVTLTCTSSGGSFGNKAVAWVRQRPGGPYEWLGFIIPAYGVSRYNPAYEGRVTISVDSASNTASLTISNLTAADTATYYCALGEGEIVYAASPFDENYKLGALYIWGQGTKVTVS"/>
+    <s v="ITLTQSPSSPSLSVGETATLTCTASAPVPKSNVAWYKQLPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLTADDFATYYCQVYGENPSFGEGTTLTLK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGS"/>
+    <x v="26"/>
+    <n v="249"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <n v="5.2189999999999997E-3"/>
+    <n v="5.4400000000000004E-3"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="3"/>
+    <s v="v_48_020"/>
+    <n v="0.1"/>
+    <s v="derivative"/>
+    <s v="m102.3 (PDB: 6CMI)"/>
+    <n v="2"/>
+    <s v="SVTLVQSGDQTVPIGGSVTLSCTANGGSFGNKGVAWVRQRPGGPYEFLGFIKPAIGESRYHPKYKGRVTISSDVSSNTAYLTISNLTPEDTAVYYCALGEAEDVFAAHPFKTDLLLGALSIWGQGTRVTVT"/>
+    <s v="ITVTQSPSSPSLSVGETAVLTCTLSQPVPQSQVAWYKQLPGQPPTLLISGGSTRASGVPSRYSGSGSGTTFTLTISSLLPEDFATYYCQVVGKEPSFGQGTTLTLK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGS"/>
+    <x v="27"/>
+    <n v="249"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="3"/>
+    <s v="v_48_020"/>
+    <n v="0.1"/>
+    <s v="derivative"/>
+    <s v="m102.3 (PDB: 6CMI)"/>
+    <n v="2"/>
+    <s v="SVKLVQSGDQTVPVGGSVTLSCTASGGSFGNYGVAWVRQRPGGPLEYIGSIIPAYGISTVNPKYEGRVTISADPTNNTAYLTISNLTPEDTATYYCALGPGEVVFASSPFDIDVLTGALWVWGEGTKVTVT"/>
+    <s v="ITVTQSPSSPSLKVGETATLTCTLSAPVAKSNVAWYKQLPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLQPEDFATYYCQVVGKNPSFGQGTLLKLK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGS"/>
+    <x v="28"/>
+    <n v="249"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <n v="5.1520000000000003E-3"/>
+    <n v="5.3605E-2"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="3"/>
+    <s v="v_48_020"/>
+    <n v="0.1"/>
+    <s v="derivative"/>
+    <s v="m102.3 (PDB: 6CMI)"/>
+    <n v="2"/>
+    <s v="SISLVQSSDQTVAPGGSVTLSCTSSGGSFGNSGVAWVRQAPGGPPVYIGGIIPATGVSTYNAAFKGRVTISSDSSNNTAYLTISGLTAADTATYYCALGPAENVFASHPFAEDVNLGALSVWGQGTLVTVT"/>
+    <s v="ITVTESPSSPELSVGETAVLSCTLSSSVPQSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLEPEDFATYYCQVYGTSPSFGQGTTLKLK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGS"/>
+    <x v="29"/>
+    <n v="249"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <n v="0.32629000000000002"/>
+    <n v="0.41575699999999999"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="3"/>
+    <s v="v_48_020"/>
+    <n v="0.1"/>
+    <s v="derivative"/>
+    <s v="m102.3 (PDB: 6CMI)"/>
+    <n v="2"/>
+    <s v="AVSLVESGDQTVAPGGSVTLSCTSSGGSFGNSGVAWVRQAPGGPLEFLGFIIPALGVSKVNSKYEGRVTISSDPANNTAYLTISNLTAADTATYYCGLGTGESVFASSPFDEKLLLGALSVWGQGTKVTVT"/>
+    <s v="ITVTQSPASPEKKVGETATLTCTLSSAVPKSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLQPEDFATYYCRVYGEEPSFGQGTTLKLK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGS"/>
+    <x v="30"/>
+    <n v="249"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <n v="0.50901600000000002"/>
+    <n v="0.56638100000000002"/>
+    <x v="0"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7EF0D312-8073-644F-BACB-C3BF6FDB30B2}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A3:C12" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="20">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="31">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="31">
+        <item x="21"/>
+        <item x="17"/>
+        <item x="25"/>
+        <item x="9"/>
+        <item x="30"/>
+        <item x="8"/>
+        <item x="13"/>
+        <item x="19"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="24"/>
+        <item x="11"/>
+        <item x="20"/>
+        <item x="15"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="16"/>
+        <item x="22"/>
+        <item x="18"/>
+        <item x="10"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="28"/>
+        <item x="23"/>
+        <item x="27"/>
+        <item x="5"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item h="1" x="1"/>
+        <item x="0"/>
+        <item h="1" x="2"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="0"/>
+    <field x="1"/>
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+      <x v="1"/>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x v="2"/>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="10"/>
+      <x v="2"/>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="11"/>
+      <x v="2"/>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="14"/>
+      <x v="2"/>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="16"/>
+      <x v="2"/>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="24"/>
+      <x v="3"/>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="25"/>
+      <x v="3"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="29"/>
+      <x v="3"/>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="30"/>
+      <x v="3"/>
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="18" hier="-1"/>
+  </pageFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -932,21 +2095,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="78.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="93.28515625" style="1" customWidth="1"/>
-    <col min="6" max="1024" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="78.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="93.33203125" style="1" customWidth="1"/>
+    <col min="6" max="1024" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -962,8 +2125,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -978,6 +2147,12 @@
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.79488899999999996</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.72998799999999997</v>
       </c>
     </row>
   </sheetData>
@@ -988,43 +2163,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X32"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H23" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q25" sqref="Q25"/>
+      <selection pane="bottomRight" activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="54" style="2" customWidth="1"/>
-    <col min="9" max="9" width="42.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="42.1640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="16" style="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="2" customWidth="1"/>
-    <col min="12" max="12" width="71.28515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="71.33203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.1640625" style="10"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -1056,7 +2229,7 @@
         <v>47</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>16</v>
@@ -1070,35 +2243,24 @@
       <c r="O1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="W1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="U1" s="8"/>
+    </row>
+    <row r="2" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1125,7 +2287,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L2" s="2" t="str">
         <f>_xlfn.CONCAT(H2,K2,I2)</f>
@@ -1143,33 +2305,26 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P2" s="1">
-        <v>12.403783000000001</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>4.492502</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0.92373499999999997</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0.49246200000000001</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0.58654099999999998</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0.85024999999999995</v>
-      </c>
-      <c r="V2" s="1">
-        <v>9.2370000000000004E-3</v>
-      </c>
-      <c r="W2" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="P2" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0.25843100000000002</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0.33503300000000003</v>
+      </c>
+      <c r="S2" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="T2" s="13">
+        <v>45968</v>
+      </c>
+      <c r="U2" s="9"/>
+    </row>
+    <row r="3" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -1196,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L3" s="2" t="str">
         <f t="shared" ref="L3:L32" si="0">_xlfn.CONCAT(H3,K3,I3)</f>
@@ -1214,29 +2369,22 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P3" s="1">
-        <v>13.11187</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>5.1952559999999997</v>
-      </c>
-      <c r="R3" s="1">
-        <v>0.92223100000000002</v>
-      </c>
-      <c r="S3" s="1">
-        <v>0.475989</v>
-      </c>
-      <c r="T3" s="1">
-        <v>0.56293800000000005</v>
-      </c>
-      <c r="U3" s="1">
-        <v>0.82682500000000003</v>
-      </c>
-      <c r="V3" s="1">
-        <v>9.2219999999999993E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="P3" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <v>5.4939999999999998E-3</v>
+      </c>
+      <c r="S3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" s="9"/>
+    </row>
+    <row r="4" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -1263,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1281,29 +2429,22 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P4" s="1">
-        <v>5.68208</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>1.471314</v>
-      </c>
-      <c r="R4" s="1">
-        <v>0.904497</v>
-      </c>
-      <c r="S4" s="1">
-        <v>0.61223899999999998</v>
-      </c>
-      <c r="T4" s="1">
-        <v>0.81059700000000001</v>
-      </c>
-      <c r="U4" s="1">
-        <v>0.95095600000000002</v>
-      </c>
-      <c r="V4" s="1">
-        <v>9.0449999999999992E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="P4" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" s="9"/>
+    </row>
+    <row r="5" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -1330,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1348,29 +2489,22 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P5" s="1">
-        <v>6.7126570000000001</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>1.9524440000000001</v>
-      </c>
-      <c r="R5" s="1">
-        <v>0.91164900000000004</v>
-      </c>
-      <c r="S5" s="1">
-        <v>0.59370800000000001</v>
-      </c>
-      <c r="T5" s="1">
-        <v>0.77624499999999996</v>
-      </c>
-      <c r="U5" s="1">
-        <v>0.93491900000000006</v>
-      </c>
-      <c r="V5" s="1">
-        <v>9.1160000000000008E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="P5" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>5.2389999999999997E-3</v>
+      </c>
+      <c r="R5" s="4">
+        <v>8.0114000000000005E-2</v>
+      </c>
+      <c r="S5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" s="9"/>
+    </row>
+    <row r="6" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -1397,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1415,29 +2549,22 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P6" s="1">
-        <v>13.620810000000001</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>5.7309039999999998</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0.91465700000000005</v>
-      </c>
-      <c r="S6" s="1">
-        <v>0.46382400000000001</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0.54597300000000004</v>
-      </c>
-      <c r="U6" s="1">
-        <v>0.80896999999999997</v>
-      </c>
-      <c r="V6" s="1">
-        <v>9.1470000000000006E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="P6" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <v>5.3489999999999996E-3</v>
+      </c>
+      <c r="S6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" s="9"/>
+    </row>
+    <row r="7" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -1460,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1477,8 +2604,15 @@
       <c r="O7" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="P7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" s="9"/>
+    </row>
+    <row r="8" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
@@ -1501,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1518,8 +2652,15 @@
       <c r="O8" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="P8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" s="9"/>
+    </row>
+    <row r="9" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
@@ -1542,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1560,29 +2701,22 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P9" s="1">
-        <v>13.464549</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>5.3052169999999998</v>
-      </c>
-      <c r="R9" s="1">
-        <v>0.93009900000000001</v>
-      </c>
-      <c r="S9" s="1">
-        <v>0.47021099999999999</v>
-      </c>
-      <c r="T9" s="1">
-        <v>0.55118199999999995</v>
-      </c>
-      <c r="U9" s="1">
-        <v>0.82315899999999997</v>
-      </c>
-      <c r="V9" s="1">
-        <v>9.3010000000000002E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="P9" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
+        <v>1.302E-2</v>
+      </c>
+      <c r="S9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9" s="9"/>
+    </row>
+    <row r="10" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
@@ -1614,7 +2748,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1632,33 +2766,26 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P10" s="1">
-        <v>10.421203999999999</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>3.5293600000000001</v>
-      </c>
-      <c r="R10" s="1">
-        <v>0.919072</v>
-      </c>
-      <c r="S10" s="1">
-        <v>0.52851400000000004</v>
-      </c>
-      <c r="T10" s="1">
-        <v>0.65262699999999996</v>
-      </c>
-      <c r="U10" s="1">
-        <v>0.882355</v>
-      </c>
-      <c r="V10" s="1">
-        <v>9.1909999999999995E-3</v>
-      </c>
-      <c r="W10" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="P10" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>5.2820000000000002E-3</v>
+      </c>
+      <c r="R10" s="4">
+        <v>8.6638999999999994E-2</v>
+      </c>
+      <c r="S10" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="T10" s="13">
+        <v>45968</v>
+      </c>
+      <c r="U10" s="9"/>
+    </row>
+    <row r="11" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
@@ -1690,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1708,33 +2835,22 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P11" s="1">
-        <v>13.818918999999999</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>5.6661869999999999</v>
-      </c>
-      <c r="R11" s="1">
-        <v>0.903362</v>
-      </c>
-      <c r="S11" s="1">
-        <v>0.46179599999999998</v>
-      </c>
-      <c r="T11" s="1">
-        <v>0.53936899999999999</v>
-      </c>
-      <c r="U11" s="1">
-        <v>0.81112700000000004</v>
-      </c>
-      <c r="V11" s="1">
-        <v>9.0340000000000004E-3</v>
-      </c>
-      <c r="W11" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="P11" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U11" s="9"/>
+    </row>
+    <row r="12" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
@@ -1766,7 +2882,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1784,29 +2900,25 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P12" s="1">
-        <v>13.512441000000001</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>5.0770359999999997</v>
-      </c>
-      <c r="R12" s="1">
-        <v>0.91817099999999996</v>
-      </c>
-      <c r="S12" s="1">
-        <v>0.47181800000000002</v>
-      </c>
-      <c r="T12" s="1">
-        <v>0.54958499999999999</v>
-      </c>
-      <c r="U12" s="1">
-        <v>0.83076499999999998</v>
-      </c>
-      <c r="V12" s="1">
-        <v>9.1819999999999992E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="P12" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0.116301</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0.18454400000000001</v>
+      </c>
+      <c r="S12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="T12" s="13">
+        <v>45968</v>
+      </c>
+      <c r="U12" s="9"/>
+    </row>
+    <row r="13" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -1838,7 +2950,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1856,29 +2968,25 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P13" s="1">
-        <v>9.0397739999999995</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>2.962634</v>
-      </c>
-      <c r="R13" s="1">
-        <v>0.91289399999999998</v>
-      </c>
-      <c r="S13" s="1">
-        <v>0.55258200000000002</v>
-      </c>
-      <c r="T13" s="1">
-        <v>0.69867400000000002</v>
-      </c>
-      <c r="U13" s="1">
-        <v>0.90124599999999999</v>
-      </c>
-      <c r="V13" s="1">
-        <v>9.129E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="P13" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
+        <v>4.8060000000000004E-3</v>
+      </c>
+      <c r="S13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="T13" s="13">
+        <v>45968</v>
+      </c>
+      <c r="U13" s="9"/>
+    </row>
+    <row r="14" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
@@ -1910,7 +3018,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1928,29 +3036,13 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P14" s="1">
-        <v>12.902165</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>5.0798560000000004</v>
-      </c>
-      <c r="R14" s="1">
-        <v>0.91761400000000004</v>
-      </c>
-      <c r="S14" s="1">
-        <v>0.47992499999999999</v>
-      </c>
-      <c r="T14" s="1">
-        <v>0.56992799999999999</v>
-      </c>
-      <c r="U14" s="1">
-        <v>0.83067100000000005</v>
-      </c>
-      <c r="V14" s="1">
-        <v>9.1760000000000001E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="P14" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U14" s="9"/>
+    </row>
+    <row r="15" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>55</v>
       </c>
@@ -1982,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2000,29 +3092,22 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P15" s="1">
-        <v>12.295652</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>5.068085</v>
-      </c>
-      <c r="R15" s="1">
-        <v>0.91950900000000002</v>
-      </c>
-      <c r="S15" s="1">
-        <v>0.48813600000000001</v>
-      </c>
-      <c r="T15" s="1">
-        <v>0.59014500000000003</v>
-      </c>
-      <c r="U15" s="1">
-        <v>0.83106400000000002</v>
-      </c>
-      <c r="V15" s="1">
-        <v>9.195E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="P15" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U15" s="9"/>
+    </row>
+    <row r="16" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
@@ -2054,7 +3139,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2072,33 +3157,26 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P16" s="1">
-        <v>10.440493999999999</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>3.5942219999999998</v>
-      </c>
-      <c r="R16" s="1">
-        <v>0.90822599999999998</v>
-      </c>
-      <c r="S16" s="1">
-        <v>0.52757600000000004</v>
-      </c>
-      <c r="T16" s="1">
-        <v>0.65198400000000001</v>
-      </c>
-      <c r="U16" s="1">
-        <v>0.880193</v>
-      </c>
-      <c r="V16" s="1">
-        <v>9.0819999999999998E-3</v>
-      </c>
-      <c r="W16" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="P16" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>5.7704999999999999E-2</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0.165157</v>
+      </c>
+      <c r="S16" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="T16" s="13">
+        <v>45968</v>
+      </c>
+      <c r="U16" s="9"/>
+    </row>
+    <row r="17" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>76</v>
       </c>
@@ -2130,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L17" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2148,29 +3226,13 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P17" s="1">
-        <v>13.850232</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>5.5440639999999997</v>
-      </c>
-      <c r="R17" s="1">
-        <v>0.91428100000000001</v>
-      </c>
-      <c r="S17" s="1">
-        <v>0.46263199999999999</v>
-      </c>
-      <c r="T17" s="1">
-        <v>0.53832599999999997</v>
-      </c>
-      <c r="U17" s="1">
-        <v>0.81519799999999998</v>
-      </c>
-      <c r="V17" s="1">
-        <v>9.1430000000000001E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="P17" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U17" s="9"/>
+    </row>
+    <row r="18" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>77</v>
       </c>
@@ -2202,7 +3264,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2220,33 +3282,26 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P18" s="1">
-        <v>12.388191000000001</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>4.3815280000000003</v>
-      </c>
-      <c r="R18" s="1">
-        <v>0.914825</v>
-      </c>
-      <c r="S18" s="1">
-        <v>0.493753</v>
-      </c>
-      <c r="T18" s="1">
-        <v>0.58706000000000003</v>
-      </c>
-      <c r="U18" s="1">
-        <v>0.85394899999999996</v>
-      </c>
-      <c r="V18" s="1">
-        <v>9.1479999999999999E-3</v>
-      </c>
-      <c r="W18" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="P18" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>0.15156800000000001</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0.23256399999999999</v>
+      </c>
+      <c r="S18" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="T18" s="13">
+        <v>45968</v>
+      </c>
+      <c r="U18" s="9"/>
+    </row>
+    <row r="19" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>78</v>
       </c>
@@ -2278,7 +3333,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L19" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2296,29 +3351,22 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P19" s="1">
-        <v>13.144735000000001</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>4.9212369999999996</v>
-      </c>
-      <c r="R19" s="1">
-        <v>0.90124400000000005</v>
-      </c>
-      <c r="S19" s="1">
-        <v>0.47822799999999999</v>
-      </c>
-      <c r="T19" s="1">
-        <v>0.56184199999999995</v>
-      </c>
-      <c r="U19" s="1">
-        <v>0.83595900000000001</v>
-      </c>
-      <c r="V19" s="1">
-        <v>9.0119999999999992E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="P19" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U19" s="9"/>
+    </row>
+    <row r="20" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>79</v>
       </c>
@@ -2350,7 +3398,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L20" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2368,33 +3416,22 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P20" s="1">
-        <v>12.468555</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>4.6081789999999998</v>
-      </c>
-      <c r="R20" s="1">
-        <v>0.91461000000000003</v>
-      </c>
-      <c r="S20" s="1">
-        <v>0.49041499999999999</v>
-      </c>
-      <c r="T20" s="1">
-        <v>0.58438100000000004</v>
-      </c>
-      <c r="U20" s="1">
-        <v>0.84639399999999998</v>
-      </c>
-      <c r="V20" s="1">
-        <v>9.1459999999999996E-3</v>
-      </c>
-      <c r="W20" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="P20" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>0</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U20" s="9"/>
+    </row>
+    <row r="21" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>80</v>
       </c>
@@ -2426,7 +3463,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L21" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2444,29 +3481,22 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P21" s="1">
-        <v>12.596812999999999</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>4.4891050000000003</v>
-      </c>
-      <c r="R21" s="1">
-        <v>0.91376999999999997</v>
-      </c>
-      <c r="S21" s="1">
-        <v>0.48989300000000002</v>
-      </c>
-      <c r="T21" s="1">
-        <v>0.58010600000000001</v>
-      </c>
-      <c r="U21" s="1">
-        <v>0.85036299999999998</v>
-      </c>
-      <c r="V21" s="1">
-        <v>9.1380000000000003E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="P21" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>0</v>
+      </c>
+      <c r="R21" s="4">
+        <v>6.1079999999999997E-3</v>
+      </c>
+      <c r="S21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U21" s="9"/>
+    </row>
+    <row r="22" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>81</v>
       </c>
@@ -2498,7 +3528,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L22" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2516,33 +3546,22 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P22" s="1">
-        <v>13.056381999999999</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>4.9774649999999996</v>
-      </c>
-      <c r="R22" s="1">
-        <v>0.90879799999999999</v>
-      </c>
-      <c r="S22" s="1">
-        <v>0.47886699999999999</v>
-      </c>
-      <c r="T22" s="1">
-        <v>0.56478700000000004</v>
-      </c>
-      <c r="U22" s="1">
-        <v>0.83408400000000005</v>
-      </c>
-      <c r="V22" s="1">
-        <v>9.0880000000000006E-3</v>
-      </c>
-      <c r="W22" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="P22" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>0</v>
+      </c>
+      <c r="R22" s="4">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U22" s="9"/>
+    </row>
+    <row r="23" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>82</v>
       </c>
@@ -2574,7 +3593,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2592,33 +3611,22 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P23" s="1">
-        <v>8.0418699999999994</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>2.5753710000000001</v>
-      </c>
-      <c r="R23" s="1">
-        <v>0.90690199999999999</v>
-      </c>
-      <c r="S23" s="1">
-        <v>0.56974199999999997</v>
-      </c>
-      <c r="T23" s="1">
-        <v>0.73193799999999998</v>
-      </c>
-      <c r="U23" s="1">
-        <v>0.91415400000000002</v>
-      </c>
-      <c r="V23" s="1">
-        <v>9.0690000000000007E-3</v>
-      </c>
-      <c r="W23" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="P23" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>0</v>
+      </c>
+      <c r="R23" s="4">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U23" s="9"/>
+    </row>
+    <row r="24" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>83</v>
       </c>
@@ -2650,7 +3658,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L24" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2668,37 +3676,30 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P24" s="1">
-        <v>12.82887</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>4.7956110000000001</v>
-      </c>
-      <c r="R24" s="1">
-        <v>0.915072</v>
-      </c>
-      <c r="S24" s="1">
-        <v>0.483738</v>
-      </c>
-      <c r="T24" s="1">
-        <v>0.57237099999999996</v>
-      </c>
-      <c r="U24" s="1">
-        <v>0.84014599999999995</v>
-      </c>
-      <c r="V24" s="1">
-        <v>9.1509999999999994E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="P24" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0</v>
+      </c>
+      <c r="R24" s="4">
+        <v>5.0870000000000004E-3</v>
+      </c>
+      <c r="S24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U24" s="9"/>
+    </row>
+    <row r="25" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D25" s="4">
         <v>0.1</v>
@@ -2707,22 +3708,22 @@
         <v>56</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G25" s="1">
         <v>2</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="J25" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="L25" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2737,18 +3738,24 @@
         <v>1</v>
       </c>
       <c r="O25" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="P25" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="U25" s="9"/>
+    </row>
+    <row r="26" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D26" s="4">
         <v>0.1</v>
@@ -2757,22 +3764,22 @@
         <v>56</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G26" s="1">
         <v>2</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="J26" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="L26" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2787,18 +3794,36 @@
         <v>1</v>
       </c>
       <c r="O26" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="P26" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>0.31751499999999999</v>
+      </c>
+      <c r="R26" s="4">
+        <v>0.405559</v>
+      </c>
+      <c r="S26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="T26" s="13">
+        <v>45968</v>
+      </c>
+      <c r="U26" s="9"/>
+    </row>
+    <row r="27" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="D27" s="4">
         <v>0.1</v>
@@ -2807,22 +3832,22 @@
         <v>56</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G27" s="1">
         <v>2</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="J27" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="L27" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2837,18 +3862,36 @@
         <v>1</v>
       </c>
       <c r="O27" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="P27" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0.64176299999999997</v>
+      </c>
+      <c r="R27" s="4">
+        <v>0.69121100000000002</v>
+      </c>
+      <c r="S27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="T27" s="13">
+        <v>45968</v>
+      </c>
+      <c r="U27" s="9"/>
+    </row>
+    <row r="28" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D28" s="4">
         <v>0.1</v>
@@ -2857,22 +3900,22 @@
         <v>56</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G28" s="1">
         <v>2</v>
       </c>
       <c r="H28" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="J28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="J28" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="L28" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2887,18 +3930,32 @@
         <v>1</v>
       </c>
       <c r="O28" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="P28" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>5.2189999999999997E-3</v>
+      </c>
+      <c r="R28" s="4">
+        <v>5.4400000000000004E-3</v>
+      </c>
+      <c r="S28" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D29" s="4">
         <v>0.1</v>
@@ -2907,22 +3964,22 @@
         <v>56</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G29" s="1">
         <v>2</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="J29" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="L29" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2937,18 +3994,32 @@
         <v>1</v>
       </c>
       <c r="O29" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="P29" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>0</v>
+      </c>
+      <c r="R29" s="4">
+        <v>0</v>
+      </c>
+      <c r="S29" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D30" s="4">
         <v>0.1</v>
@@ -2957,22 +4028,22 @@
         <v>56</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G30" s="1">
         <v>2</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="J30" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="L30" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2987,18 +4058,32 @@
         <v>1</v>
       </c>
       <c r="O30" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="P30" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>5.1520000000000003E-3</v>
+      </c>
+      <c r="R30" s="4">
+        <v>5.3605E-2</v>
+      </c>
+      <c r="S30" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D31" s="4">
         <v>0.1</v>
@@ -3007,22 +4092,22 @@
         <v>56</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G31" s="1">
         <v>2</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="J31" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="L31" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3037,18 +4122,35 @@
         <v>1</v>
       </c>
       <c r="O31" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="P31" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>0.32629000000000002</v>
+      </c>
+      <c r="R31" s="4">
+        <v>0.41575699999999999</v>
+      </c>
+      <c r="S31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="T31" s="13">
+        <v>45968</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="64" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D32" s="4">
         <v>0.1</v>
@@ -3057,22 +4159,22 @@
         <v>56</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G32" s="1">
         <v>2</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="J32" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="L32" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3087,33 +4189,62 @@
         <v>1</v>
       </c>
       <c r="O32" s="1" t="b">
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="P32" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>0.50901600000000002</v>
+      </c>
+      <c r="R32" s="4">
+        <v>0.56638100000000002</v>
+      </c>
+      <c r="S32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="T32" s="13">
+        <v>45968</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J1:K1048576">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="3" priority="9">
+    <cfRule type="containsBlanks" dxfId="9" priority="10">
       <formula>LEN(TRIM(J1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N32">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
+    <cfRule type="containsBlanks" dxfId="8" priority="2">
       <formula>LEN(TRIM(N2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:W24 N25:O32 W25:W32">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="S25:S32 N2:S2 N3:P32 Q3:S24">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>FALSE</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:R1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3122,6 +4253,212 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036FE0EC-FC47-C643-AAB5-7D34FF5161C9}">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="str">
+        <f>_xlfn.CONCAT("&gt;",A3,"|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ",B3,"\n",C3)</f>
+        <v>&gt;sbio-nipahgpg-001|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1\nQVQLVESGGGVVQPGRSLRLSCAASGFTFSSYGMHWVRQAPGKGLEWVAVISYDGSKKYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARSPFYDSSGYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISSYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQANSFPPTFGQGTKVEIK</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="str">
+        <f t="shared" ref="A29:A37" si="0">_xlfn.CONCAT("&gt;",A4,"|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ",B4,"\n",C4)</f>
+        <v>&gt;sbio-nipahgpg-009|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1 + ProteinMPNN\nAVSLVESGGGTVKPGESVTLSCQASGFNFSKYQWVWVRQAPGKGLEWVGQISPDGSKTRYHPSVAGRFTISRDNSNSTLYLHMSNLRPEDTAVYYCGIIPQDNVHGDYSISHWGQGTLLTVSAGGGSGGGSGGGSGGGSAIKLTQSPKSLSASVGDTVTINCTASRPIGDLLSWYKQKPGKPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSSDFATYYCRQTSRFPITFGEGTTINKK</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-011|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1 + ProteinMPNN\nSISLVESGGGTVAPGSSVTLSCQASGFNFSKYSKAWVRQPPGQPLEWVSRISPDGSTKYYHPDVAGRFTISKDNSKSTVYLAMSNLTAADTATYYCGIIPGDNTHGDYAMSHWGQGTLLTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTISCTASRPIGDKLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTSFTLTISSLQEDDFATYYCQQTYTLPITFGQGTTISKK</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-012|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1 + ProteinMPNN\nGVSLTESGGGTVAPGSSVTLSCKASGFNFSKYSHAWVRQAPGQGLTWVGEISPDGSKTRYASSVAGRFTISRDNSNSTVYLQMSSLTPSDTATYYCGIIPGDSVHGERSMSHWGQGTLLTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTLNCTASRPIGDRLSWYKQKPGQAPQLLIYRASTLAPGVSSRYSGSGSDTQFTLTISSLQSDDFATYYCQQTSSYPVTFGQGTTITKK</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-015|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1 + ProteinMPNN\nGISLVESGGGTVKPGESVTLSCKASGFVFSKYSHAWVRQPPGGPLEWVSQISSDGSVTRYASSVSGRFTISRDNSNSTVYLQMNNLRPSDTATYYCGIIPQDNVHGDYAISHWGQGTLLTVTAGGGSGGGSGGGSGGGSAITLTQSPASLSAKVGDTVTLSCTASRPIGDLLSWYKQKPGQPPQLLIYRASTLAPGVDSRYSGSGSDTSFTLTISSLQPEDFATYYCQQTSRFPITFGQGTTIKQA</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-017|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1 + ProteinMPNN\nSIKLTESGGGTVKPGSSVTLSCQASGFNFSKYEVVWVMQKPGQPLQWVGSISPDGSKVRLHPKVKGRFTLSKDNSKNTAYLTMKNLQPEDTATYYCGIIPGGSVHGDRSITHWGQGVELKVVAGGGSGGGSGGGSGGGSMIKLTQSPKSVKAKVGDTVTITCTASEPVDDLVSWYQQKPGQPLRLLIYRSSTLAPGVSSRFSGSGSDTNFTLTISSLQEEDFATYYCMQTSKYPYTFGQGTTLSRA</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-025|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ProteinMPNN\nGVKLVQSGDLTVKPGGSVTLSCKSEGGSFGNSSVAWVRQRPGGPYEYIGSIIPAYGVSRVSPEYEGRVTISADVANNTAYLTISNLTPEDTATYYCALGPGEVVYAASPFDEKLLTGALSVWGEGTLVTVTGGGSGGGSGGGSITVTQSPSSPSLSVGDTATLTCTLSSSVATSNVAWYKQLPGQPPELLISGGSTRAPGVPSRYSGSGSGTTFTLTISSLQASDFATYYCQVYGENPSFGQGTTLTLK</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-026|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ProteinMPNN\nAVKLVQSGDQTVAPGGSVTLSCTSSGGSFGNSSVAWVRQRPGGPFEFIGSIIPSLGISRYNSKYKGRVTISSDAANNTAYLTISNLTAADTATYYCALGPGESVFASHPFKEKLLTGALSVWGEGTLVTVSGGGSGGGSGGGSITVTQSPSSPSKSVGDTVTLTCTLSSSVPVSQVAWYKQHPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLQPEDFATYYCQVYGEEPSFGQGTTVTLA</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-030|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ProteinMPNN\nSISLVQSSDQTVAPGGSVTLSCTSSGGSFGNSGVAWVRQAPGGPPVYIGGIIPATGVSTYNAAFKGRVTISSDSSNNTAYLTISGLTAADTATYYCALGPAENVFASHPFAEDVNLGALSVWGQGTLVTVTGGGSGGGSGGGSITVTESPSSPELSVGETAVLSCTLSSSVPQSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLEPEDFATYYCQVYGTSPSFGQGTTLKLK</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-031|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ProteinMPNN\nAVSLVESGDQTVAPGGSVTLSCTSSGGSFGNSGVAWVRQAPGGPLEFLGFIIPALGVSKVNSKYEGRVTISSDPANNTAYLTISNLTAADTATYYCGLGTGESVFASSPFDEKLLLGALSVWGQGTKVTVTGGGSGGGSGGGSITVTQSPASPEKKVGETATLTCTLSSAVPKSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLQPEDFATYYCRVYGEEPSFGQGTTLKLK</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C06239D-77DB-4F47-9412-C7BA2E2E54B1}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -3129,22 +4466,22 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.1640625" style="4"/>
     <col min="2" max="2" width="53" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3152,12 +4489,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colbyford/Documents/GitHub/Nipah_gpG_Fv_Generation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\Nipah_gpG_Fv_Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB16DC7B-F618-9B42-8EAB-798713776910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BD0159-EE67-40A2-954B-23BBF8C67905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="44800" windowHeight="22520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Antigens" sheetId="1" r:id="rId1"/>
-    <sheet name="Antibody Candidates" sheetId="2" r:id="rId2"/>
-    <sheet name="20251107 Submission FASTA" sheetId="4" r:id="rId3"/>
-    <sheet name="Notes" sheetId="3" r:id="rId4"/>
+    <sheet name="Antibody Candidates" sheetId="2" r:id="rId1"/>
+    <sheet name="Antigens" sheetId="1" r:id="rId2"/>
+    <sheet name="Notes" sheetId="3" r:id="rId3"/>
+    <sheet name="20251107 Submission FASTA" sheetId="4" r:id="rId4"/>
+    <sheet name="20251108 Submission FASTA" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Antibody Candidates'!$A$1:$S$50</definedName>
+  </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId5"/>
+    <pivotCache cacheId="14" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="215">
   <si>
     <t>antigen_id</t>
   </si>
@@ -146,27 +150,9 @@
     <t>QMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</t>
   </si>
   <si>
-    <t>sbio-nipahgpg-006</t>
-  </si>
-  <si>
     <t>peleke-mistral-7b-instruct-v0.2</t>
   </si>
   <si>
-    <t>VGPRTTLTVSLRSGASVKMSCKASGYSFTWVRQKPGQGLEWVKISYDGLKDYTNYKFQGVKATITADKSSNTAYLQISNLTSEDTAVYFCSRRAVYYDYWGQGTTLTVSS</t>
-  </si>
-  <si>
-    <t>VTVALGTVSLAPGTVSLRSCRASQSVSLSYLHWYQQKPGQAPLLVYGDNSKRPSGIPDRFSGSSSGNTASLTISGVQAEDEADYYCQSSDSSNWVFGGGTKLTVL</t>
-  </si>
-  <si>
-    <t>sbio-nipahgpg-007</t>
-  </si>
-  <si>
-    <t>DRPSLTVKTSLTVSEPGSSISCASGIGTFSSYDFIVKQPSQGFDLEWIGGISYDSTYVNYSLKHRISRTIITNWKNTLQFTISLTSLKPASVYFDVWGAGTWISPYWGQGTTLTVSSSSAVSSFYVKNKGLDVWGHVITVN</t>
-  </si>
-  <si>
-    <t>DIQLTQSPFLSLSPGSTASISCSGSSYDYTSGYRYKSSGKSPKPWMQRFLYSGSKRFSGVPERFIGSGTDFALTISRVEAEDVGFCSGWIFPFTFGPGTKVDIK</t>
-  </si>
-  <si>
     <t>General LLM</t>
   </si>
   <si>
@@ -356,9 +342,6 @@
     <t>note_ids</t>
   </si>
   <si>
-    <t>candidate_for_submission</t>
-  </si>
-  <si>
     <t>submitted_to_comp</t>
   </si>
   <si>
@@ -497,29 +480,227 @@
     <t>AVSLVESGDQTVAPGGSVTLSCTSSGGSFGNSGVAWVRQAPGGPLEFLGFIIPALGVSKVNSKYEGRVTISSDPANNTAYLTISNLTAADTATYYCGLGTGESVFASSPFDEKLLLGALSVWGQGTKVTVTGGGSGGGSGGGSITVTQSPASPEKKVGETATLTCTLSSAVPKSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLQPEDFATYYCRVYGEEPSFGQGTTLKLK</t>
   </si>
   <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>FASTA Lines</t>
+    <t>VQLQESGPGLVKPSQSLSLTCTVTGYSITTGYAWNWIRQFPGNKLEWMGYISYSGSTYYPSLKSRISITRDTSKNQFFLQLSIVTTEDTATYYCARGTTLPDYVDFWGQGTSVTVSS</t>
+  </si>
+  <si>
+    <t>DIQLTQSPSSLSASVGDRVTITCRASQTISTYLNWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYFCLQHFWTPPITFGQGTRLEIK</t>
+  </si>
+  <si>
+    <t>QVQLQESGPGLVKPSETLSVTCTVSGGSIGSNNYWSWIRQPAGKGLEWIGYIYYSGSTNYNPSLKSRVTMSVDTSKNQFSLKLSSVTAADTAVYYCVRNYYDSSDSSGYYFMDVWGQGTTVTVSS</t>
+  </si>
+  <si>
+    <t>DIVMTQSPLSLSVTPGEPASISCRSSQSLLHSNGYNYLDWYLQKPGQSPQLLIYLGSNRASGVPDRFSGSGSGTDFTLKISRVEAEDVGVYYCMQALQTPTFGQGTRLEIK</t>
+  </si>
+  <si>
+    <t>QVQLVQSGAEVKKPGESLKISCKGSGYRFSSYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAMYYCARQGPDYYYGMDVWGQGTTVTVSS</t>
+  </si>
+  <si>
+    <t>DIQMTQSPSTLSASVGDRVTITCRASQSISSWLAWYQQKPGKAPKLLIYKASELQSGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQQYINSYTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>QVQLQQSGPELVKPGASVKLSCKASGYTFTDYYMHWVKQRPGQGLEWIGEINPNSGGTNTYDQKFKGRATLTVDKSSSTAYLQLSSLTSEDSAVYYCARSPPWYFDYWGQGTTLTVS</t>
+  </si>
+  <si>
+    <t>DIVMTQSPSSMFASVGETVTITCRASENIYSNLAWYQQKPGQSPKLLIYWASTRHTGVPDRFTGSGSGTDFTLTISSVQAEDLALYYCQHYGSYSFTFGSGTKLEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRNYVYSSGYLDFWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSYSSPPTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNIYYSSIHWVRQAPGKGLEWVASISPYYGSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARDYGHYYYAMDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>EIVMTQSPATLSVSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYGASTRATGIPARFSGSGSGTEFTLTISSLQSEDSAVYYCQQYNNWPPITFGQGTRLEIK</t>
+  </si>
+  <si>
+    <t>QVQLQESGPGLVKPSETLSLSCVVSGDSSSTNYYWGWIRQPPGKGLEWIGYIYGSGDTAYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARRSWGYGYNGYSTYYYYYYFDQGYFDVWGPGTLVT</t>
+  </si>
+  <si>
+    <t>DIQMTQSPSSLSASVGDRVTITCRASQSIGSYLNWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTEFTLTISSLQPEDFATYYCQQSYSWGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>QVQLVQSGAEVKKPGASVKVSCKASGYTFTSYGISWVRQAPGQGLEWMGWISAHNGDTNYAQKFQGRVTMTRDTSITTAYMELRSDDTAVYYCARDGSVGGFYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>EIVLTQSPGTLSLSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPITFGQGTRLEIK</t>
+  </si>
+  <si>
+    <t>EVQLLESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASISPYYGSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSYYWYWSGWGTLVTVSS</t>
+  </si>
+  <si>
+    <t>DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSYGSPPTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGHYAWWIRQPPGKGLEWIACIYSSSGSTYYNPSLKSRITISVDTSKNQFSLKLSSVTAADTAVYYCARRQRGYDYDYYYGMDVWGQGTTVTVSS</t>
+  </si>
+  <si>
+    <t>DIQLTQSPSSLSASVGDRVTITCRASQGISRNLAWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSNNWPITFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNIYYSSIHWVRQAPGKGLEWVASIYSYYSSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARVYGYLSYSYFYWGLDVWGQGTLVTVS</t>
+  </si>
+  <si>
+    <t>DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEI</t>
+  </si>
+  <si>
+    <t>EVQLQQSGAELVKPGASVKLSCTASGFNIKDTYVHWVKQRPEQGLEWIGRIDPANGYTKYDPKFQGKATITADTSSNTAYLQLSSLTSEDTAVYYCVRPLYDYYAMDYWGQGTTLTVSS</t>
+  </si>
+  <si>
+    <t>DIVMTQSPSSLAMSAGRVSITCRTSQSISSYLNWVQQKPGKSPKLLIYWASTRESGVPDRFTGSGSGTDFTLTISRVEAEDLGVYYCMQGTHVPYTFGGGTKLEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVKPGGSLRLSCAASGFTFSSYAMHWVRQAPGKGLEWVSAISGGGGSTYYADSVKGRFTISRDNSKNTLYLQMRAEDTAVYYCAKDDADWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPFTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGSYYWIRQSPGKGLEWIGYIYYSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARHRYYDRGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>DIQMTQSPASLSASVGETVTITCRASENIYSNLAWYQQKQGKSPQLLVYAATDLADGVPSRFSGSGSGTQFSLKINSLQPEDFGSYYCQHFWDTPWTFGQGTRVE</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNLYSSSIHWVRQAPGKGLEWVAYISSSGTHYADSVKGRFTISADTSKNTAYLQMRAEDTAVYYCARVGHYYSSGGYYYAMDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYSSYWTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVVDSGISWVRQAPGKGLEWVSYISSSSGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARAHYYGSYFGSVVYYYGLDVWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYDTYPITFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVYSSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSYSTYYYGYWYFDVWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>DIQMTQSPSSLSAAVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYNYYWLITFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>QVQLQQPGAELVKPGASVKLSCKASGYTFTSDWIHWVKQRPGHGLEWIGEIIPSYGRANYNEKIQKKATLTADKSSSTAFMHLSSLTSEDSAVYYCARERGDGYFAVWGAGTTVTVSS</t>
+  </si>
+  <si>
+    <t>DILLTQSPAILSVSPGERVSFSCRASQSIGTDIHWYQQRTNGSPRLLIKYASESISGIPSRFSGSGSGTDFTLSINSVESEDIANYYCQQSNRWPFTFGSGTKLEIK</t>
+  </si>
+  <si>
+    <t>VRLLESGGGLVQPGGSLKLSCAASGFDYSRYWMSWVRQAPGKGLKWIGEINPVSSTINYTPSLKDKFIISRDNAKDTLYLQISKVRSEDTALYYCARLYYGYGYWYFDVWGAGTTVTVSS</t>
+  </si>
+  <si>
+    <t>DIVLTQSPAIMSAAPGDKVTMTCSASSSVSYIHWYQQKSGTSPKRWIYDTSKLTSGVPVRFSGSGSGTSYSLTINTMEAEDAATYYCQQWSSHPQTFGGGTKLEIl</t>
+  </si>
+  <si>
+    <t>QVQLQESGPGLVQPSQSLSLTCTVSGFSLTSYGVHWVRQSPGKGLEWLGVIWAGGSTDYNSALKSRLSISRDTSKNQVFLKMNSLQTDDTAMYYCAKHGSSNGDYWGQGTSVTVSS</t>
+  </si>
+  <si>
+    <t>DIVMTQSPDSLAVSLGERATINCKSSQSVLYSSNNKNYLAWYQQKPEGQPPNLLIYWASTRESGVPDRFSGSGSGTDFTLTISSLQAEDVAVYYCQQYYSAPTFGQGTKLEIK</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-032</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-033</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-034</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-035</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-036</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-037</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-038</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-039</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-040</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-041</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-042</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-043</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-044</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-045</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-046</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-047</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-048</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-049</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-050</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-051</t>
+  </si>
+  <si>
+    <t>QVQLVESGGGVVQPGKSLRLSCAASGFTFSSYAMSWVRQAPGKGPEWVAFISYDGSNNYYADSVKGRFTISRDNPKNTLYLQMKSLRAEDTAVYYCARWRQRFDMYWGRGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>QVQLQESGPGLVKPSETLSLTCTVSGASIRGYYWSWIRQFPGKELEWIGYVYSGSTENYNPSLKSRVTVTLTDTKNSFSLKLNSVTSEDTAVYYCARGGALIYYDVWGTGTTVTVSSGGGSGGGSGGGSGGGSDIQVTQSPVSLSASVGDRVTITCRASQGIDSLNWFQQRPGKAPKLLIYAASQLTGIAPRFRSGSGSGTDFTLTISSLQPEDFATYYCQQYNIYPATFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVQSGAEVKKPGESLKISCKGSGYTFSYYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAMYYCARGEGVFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSYTLTQAPSVSASGQSVTISCTGTSRDVGTYWYQQIPGRAPKLLIHDKSENQGKTPGIPDRFSGSKSGNTASLVIIRGLQADDEADYYCNSYHGSGSNIFGGGTKLTVD</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYWMNWVRQAPGKGLEWVANINQDGGEKYYVDSVKGRFTISRDNAKNSLYLQMNSLRAEDTAIYYCARDVGGGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>QVQLVESGGGVVQPGRSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAIWSNGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARDYGSYGYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPLSLPVTPGEPASISCRSSQSLLYSNGNTYLEWYLQKPGQSPQLLIYLVSKLDSGVPDRFSGSGSGTDFTLKISRVEAEDLGIYYCQQSKEVPYTFGAGTKLEIK</t>
+  </si>
+  <si>
+    <t>AVSITESGGGTKAPGSSVTLSCKVSGFVFSKYSIAWVRQAPGQGLEWVSQISPDGSTTRYNPAVAGRFTISRDNSNSTAYLQMSNLTPSDTATYYCAIIPQDNEHGDYSLSHWGQGTQLTVSAGGGSGGGSGGGSGGGSAIKLTQSPKSLSAKVGDTVTINCTASAPIGDFLSWYKQKPGQPPQLLIYKSSTLAPGVSSRYSGSGSDTNFTLTISSLQEEDFATYYCQQTATLPITFGEGTTINKK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVSLVESGGGTVKPGESVTLSCQASGFNFSKYRLAWVRQPPGQGLVWVSEISPDGTEVKYHPDVKGRFTASRDNSNSTAYLKMNNLQPSDTATYYCGIIPQDSSHGDYSISHWGQGTQLTVSAGGGSGGGSGGGSGGGSTITLTQSPSSLSASVGDTVTINCTASRPIGDFLSWYKQKPGQPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSDDFATYYCQQTYTLPITFGQGTTLTKK </t>
+  </si>
+  <si>
+    <t>AVSLVESGGGTYAPGSSVTLSCQGSGFNFSKVRKVWVRQPPGGPLEYVAEISPDGSTTTYASSVAGRFTISKDNSNSTLYLSMSNLTPADTATYYCGLIPGDSEHGDRSISHWGQGTLVTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTINCTASQPIGNFLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTNFTLTISSLQSEDFATYYCQQTSRLPVTFGQGTTINKK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PVSLVESGGGTVAPGSSVTLTCQASGFNFSKYIVAWVRQPPGQPLRFVAMITPDGSKVWLHPEVEGRFTPSKDNSKNTSYLQLKDLQPEDTATYYCGIIPQGSTHGDYSITHWGQGVVLTVTAGGGSGGGSGGGSGGGSMVTLTQSPSSLSASVGDTVTITCTASSPVDNLMSWYQQPPGQPLRLLIYNASTRAPGVSSRFSGSGSDTNFTLTISSLQASDFATYYCQQTYRLPVTFGQGTTLSAA </t>
+  </si>
+  <si>
+    <t>AITLTESGGGVVAPGSSVTLTCTASGFNFSKYSMVWVRQPPGGPLQWVAQISPDNSTVRYHPAVEGRFTASKDNSKNTAYLAMSDLEPSDTATYYCGIIPQGSTHNDYSIVHWGQGTELRVVAGGGSGGGSGGGSGGGSMIKLTQSPSSLSAKVGDKVTITCTASSPVDNLVSWYKQPPGGPLQLLIYNSSTRAPGVSSRFKGSGSDTNFTLTIESLQEEDFATYYCQQTYKFPITFGQGTKLTRA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -546,6 +727,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -589,38 +771,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -632,76 +814,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -761,20 +873,18 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Colby Ford" refreshedDate="45968.534644097221" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="31" xr:uid="{F849F4EE-A06F-6143-95E5-DE9F322614C7}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Colby" refreshedDate="45969.58142696759" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="50" xr:uid="{C69715DE-2A16-4198-9FD9-FAE4F60B2265}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:T32" sheet="Antibody Candidates"/>
+    <worksheetSource ref="A1:S3000" sheet="Antibody Candidates"/>
   </cacheSource>
-  <cacheFields count="20">
+  <cacheFields count="19">
     <cacheField name="antibody_id" numFmtId="0">
-      <sharedItems count="31">
+      <sharedItems containsBlank="1" count="50">
         <s v="sbio-nipahgpg-001"/>
         <s v="sbio-nipahgpg-002"/>
         <s v="sbio-nipahgpg-003"/>
         <s v="sbio-nipahgpg-004"/>
         <s v="sbio-nipahgpg-005"/>
-        <s v="sbio-nipahgpg-006"/>
-        <s v="sbio-nipahgpg-007"/>
         <s v="sbio-nipahgpg-008"/>
         <s v="sbio-nipahgpg-009"/>
         <s v="sbio-nipahgpg-010"/>
@@ -799,24 +909,46 @@
         <s v="sbio-nipahgpg-029"/>
         <s v="sbio-nipahgpg-030"/>
         <s v="sbio-nipahgpg-031"/>
+        <s v="sbio-nipahgpg-032"/>
+        <s v="sbio-nipahgpg-033"/>
+        <s v="sbio-nipahgpg-034"/>
+        <s v="sbio-nipahgpg-035"/>
+        <s v="sbio-nipahgpg-036"/>
+        <s v="sbio-nipahgpg-037"/>
+        <s v="sbio-nipahgpg-038"/>
+        <s v="sbio-nipahgpg-039"/>
+        <s v="sbio-nipahgpg-040"/>
+        <s v="sbio-nipahgpg-041"/>
+        <s v="sbio-nipahgpg-042"/>
+        <s v="sbio-nipahgpg-043"/>
+        <s v="sbio-nipahgpg-044"/>
+        <s v="sbio-nipahgpg-045"/>
+        <s v="sbio-nipahgpg-046"/>
+        <s v="sbio-nipahgpg-047"/>
+        <s v="sbio-nipahgpg-048"/>
+        <s v="sbio-nipahgpg-049"/>
+        <s v="sbio-nipahgpg-050"/>
+        <s v="sbio-nipahgpg-051"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="method" numFmtId="0">
-      <sharedItems count="4">
+      <sharedItems containsBlank="1" count="5">
         <s v="peleke-1"/>
         <s v="General LLM"/>
         <s v="peleke-1 + ProteinMPNN"/>
         <s v="ProteinMPNN"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="model_version" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="temperature" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.1" maxValue="0.9"/>
     </cacheField>
     <cacheField name="type" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="parent_antibody_id" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -825,26 +957,24 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="2"/>
     </cacheField>
     <cacheField name="h_chain" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="l_chain" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="test_chotia_pass" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="linker_seq" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="franken_chain" numFmtId="0">
-      <sharedItems count="31" longText="1">
+      <sharedItems containsBlank="1" count="50">
         <s v="QVQLVESGGGVVQPGRSLRLSCAASGFTFSSYGMHWVRQAPGKGLEWVAVISYDGSKKYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARSPFYDSSGYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISSYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQANSFPPTFGQGTKVEIK"/>
         <s v="QVQLVESGGGVVQPGKSLRLSCAASGFTFSSYAMSWVRQAPGKGPEWVAFISYDGSNNYYADSVKGRFTISRDNPKNTLYLQMKSLRAEDTAVYYCARWRQRFDMYWGRGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK"/>
         <s v="QVQLQESGPGLVKPSETLSLTCTVSGASIRGYYWSWIRQFPGKELEWIGYVYSGSTENYNPSLKSRVTVTLTDTKNSFSLKLNSVTSEDTAVYYCARGGALIYYDVWGTGTTVTVSSGGGSGGGSGGGSGGGSDIQVTQSPVSLSASVGDRVTITCRASQGIDSLNWFQQRPGKAPKLLIYAASQLTGIAPRFRSGSGSGTDFTLTISSLQPEDFATYYCQQYNIYPATFGQGTKVEIK"/>
         <s v="EVQLVQSGAEVKKPGESLKISCKGSGYTFSYYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAMYYCARGEGVFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSYTLTQAPSVSASGQSVTISCTGTSRDVGTYWYQQIPGRAPKLLIHDKSENQGKTPGIPDRFSGSKSGNTASLVIIRGLQADDEADYYCNSYHGSGSNIFGGGTKLTVD"/>
         <s v="EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYWMNWVRQAPGKGLEWVANINQDGGEKYYVDSVKGRFTISRDNAKNSLYLQMNSLRAEDTAIYYCARDVGGGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK"/>
-        <s v="VGPRTTLTVSLRSGASVKMSCKASGYSFTWVRQKPGQGLEWVKISYDGLKDYTNYKFQGVKATITADKSSNTAYLQISNLTSEDTAVYFCSRRAVYYDYWGQGTTLTVSSGGGSGGGSGGGSGGGSVTVALGTVSLAPGTVSLRSCRASQSVSLSYLHWYQQKPGQAPLLVYGDNSKRPSGIPDRFSGSSSGNTASLTISGVQAEDEADYYCQSSDSSNWVFGGGTKLTVL"/>
-        <s v="DRPSLTVKTSLTVSEPGSSISCASGIGTFSSYDFIVKQPSQGFDLEWIGGISYDSTYVNYSLKHRISRTIITNWKNTLQFTISLTSLKPASVYFDVWGAGTWISPYWGQGTTLTVSSSSAVSSFYVKNKGLDVWGHVITVNGGGSGGGSGGGSGGGSDIQLTQSPFLSLSPGSTASISCSGSSYDYTSGYRYKSSGKSPKPWMQRFLYSGSKRFSGVPERFIGSGTDFALTISRVEAEDVGFCSGWIFPFTFGPGTKVDIK"/>
         <s v="QVQLVESGGGVVQPGRSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAIWSNGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARDYGSYGYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPLSLPVTPGEPASISCRSSQSLLYSNGNTYLEWYLQKPGQSPQLLIYLVSKLDSGVPDRFSGSGSGTDFTLKISRVEAEDLGIYYCQQSKEVPYTFGAGTKLEIK"/>
         <s v="AVSLVESGGGTVKPGESVTLSCQASGFNFSKYQWVWVRQAPGKGLEWVGQISPDGSKTRYHPSVAGRFTISRDNSNSTLYLHMSNLRPEDTAVYYCGIIPQDNVHGDYSISHWGQGTLLTVSAGGGSGGGSGGGSGGGSAIKLTQSPKSLSASVGDTVTINCTASRPIGDLLSWYKQKPGKPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSSDFATYYCRQTSRFPITFGEGTTINKK"/>
         <s v="AVSITESGGGTKAPGSSVTLSCKVSGFVFSKYSIAWVRQAPGQGLEWVSQISPDGSTTRYNPAVAGRFTISRDNSNSTAYLQMSNLTPSDTATYYCAIIPQDNEHGDYSLSHWGQGTQLTVSAGGGSGGGSGGGSGGGSAIKLTQSPKSLSAKVGDTVTINCTASAPIGDFLSWYKQKPGQPPQLLIYKSSTLAPGVSSRYSGSGSDTNFTLTISSLQEEDFATYYCQQTATLPITFGEGTTINKK"/>
@@ -869,19 +999,40 @@
         <s v="SVKLVQSGDQTVPVGGSVTLSCTASGGSFGNYGVAWVRQRPGGPLEYIGSIIPAYGISTVNPKYEGRVTISADPTNNTAYLTISNLTPEDTATYYCALGPGEVVFASSPFDIDVLTGALWVWGEGTKVTVTGGGSGGGSGGGSITVTQSPSSPSLKVGETATLTCTLSAPVAKSNVAWYKQLPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLQPEDFATYYCQVVGKNPSFGQGTLLKLK"/>
         <s v="SISLVQSSDQTVAPGGSVTLSCTSSGGSFGNSGVAWVRQAPGGPPVYIGGIIPATGVSTYNAAFKGRVTISSDSSNNTAYLTISGLTAADTATYYCALGPAENVFASHPFAEDVNLGALSVWGQGTLVTVTGGGSGGGSGGGSITVTESPSSPELSVGETAVLSCTLSSSVPQSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLEPEDFATYYCQVYGTSPSFGQGTTLKLK"/>
         <s v="AVSLVESGDQTVAPGGSVTLSCTSSGGSFGNSGVAWVRQAPGGPLEFLGFIIPALGVSKVNSKYEGRVTISSDPANNTAYLTISNLTAADTATYYCGLGTGESVFASSPFDEKLLLGALSVWGQGTKVTVTGGGSGGGSGGGSITVTQSPASPEKKVGETATLTCTLSSAVPKSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLQPEDFATYYCRVYGEEPSFGQGTTLKLK"/>
+        <s v="VQLQESGPGLVKPSQSLSLTCTVTGYSITTGYAWNWIRQFPGNKLEWMGYISYSGSTYYPSLKSRISITRDTSKNQFFLQLSIVTTEDTATYYCARGTTLPDYVDFWGQGTSVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQTISTYLNWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYFCLQHFWTPPITFGQGTRLEIK"/>
+        <s v="QVQLQESGPGLVKPSETLSVTCTVSGGSIGSNNYWSWIRQPAGKGLEWIGYIYYSGSTNYNPSLKSRVTMSVDTSKNQFSLKLSSVTAADTAVYYCVRNYYDSSDSSGYYFMDVWGQGTTVTVSSGGGSGGGSGGGSDIVMTQSPLSLSVTPGEPASISCRSSQSLLHSNGYNYLDWYLQKPGQSPQLLIYLGSNRASGVPDRFSGSGSGTDFTLKISRVEAEDVGVYYCMQALQTPTFGQGTRLEIK"/>
+        <s v="QVQLVQSGAEVKKPGESLKISCKGSGYRFSSYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAMYYCARQGPDYYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSTLSASVGDRVTITCRASQSISSWLAWYQQKPGKAPKLLIYKASELQSGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQQYINSYTFGQGTKVEIK"/>
+        <s v="QVQLQQSGPELVKPGASVKLSCKASGYTFTDYYMHWVKQRPGQGLEWIGEINPNSGGTNTYDQKFKGRATLTVDKSSSTAYLQLSSLTSEDSAVYYCARSPPWYFDYWGQGTTLTVSGGGSGGGSGGGSGGGSDIVMTQSPSSMFASVGETVTITCRASENIYSNLAWYQQKPGQSPKLLIYWASTRHTGVPDRFTGSGSGTDFTLTISSVQAEDLALYYCQHYGSYSFTFGSGTKLEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRNYVYSSGYLDFWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSYSSPPTFGQGTKVEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNIYYSSIHWVRQAPGKGLEWVASISPYYGSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARDYGHYYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVMTQSPATLSVSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYGASTRATGIPARFSGSGSGTEFTLTISSLQSEDSAVYYCQQYNNWPPITFGQGTRLEIK"/>
+        <s v="QVQLQESGPGLVKPSETLSLSCVVSGDSSSTNYYWGWIRQPPGKGLEWIGYIYGSGDTAYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARRSWGYGYNGYSTYYYYYYFDQGYFDVWGPGTLVTGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSIGSYLNWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTEFTLTISSLQPEDFATYYCQQSYSWGQGTKVEIK"/>
+        <s v="QVQLVQSGAEVKKPGASVKVSCKASGYTFTSYGISWVRQAPGQGLEWMGWISAHNGDTNYAQKFQGRVTMTRDTSITTAYMELRSDDTAVYYCARDGSVGGFYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPITFGQGTRLEIK"/>
+        <s v="EVQLLESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASISPYYGSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSYYWYWSGWGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSYGSPPTFGQGTKVEIK"/>
+        <s v="QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGHYAWWIRQPPGKGLEWIACIYSSSGSTYYNPSLKSRITISVDTSKNQFSLKLSSVTAADTAVYYCARRQRGYDYDYYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISRNLAWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSNNWPITFGQGTKVEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNIYYSSIHWVRQAPGKGLEWVASIYSYYSSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARVYGYLSYSYFYWGLDVWGQGTLVTVSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEI"/>
+        <s v="EVQLQQSGAELVKPGASVKLSCTASGFNIKDTYVHWVKQRPEQGLEWIGRIDPANGYTKYDPKFQGKATITADTSSNTAYLQLSSLTSEDTAVYYCVRPLYDYYAMDYWGQGTTLTVSSGGGSGGGSGGGSGGGSDIVMTQSPSSLAMSAGRVSITCRTSQSISSYLNWVQQKPGKSPKLLIYWASTRESGVPDRFTGSGSGTDFTLTISRVEAEDLGVYYCMQGTHVPYTFGGGTKLEIK"/>
+        <s v="EVQLVESGGGLVKPGGSLRLSCAASGFTFSSYAMHWVRQAPGKGLEWVSAISGGGGSTYYADSVKGRFTISRDNSKNTLYLQMRAEDTAVYYCAKDDADWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPFTFGQGTKVEIK"/>
+        <s v="QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGSYYWIRQSPGKGLEWIGYIYYSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARHRYYDRGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPASLSASVGETVTITCRASENIYSNLAWYQQKQGKSPQLLVYAATDLADGVPSRFSGSGSGTQFSLKINSLQPEDFGSYYCQHFWDTPWTFGQGTRVE"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNLYSSSIHWVRQAPGKGLEWVAYISSSGTHYADSVKGRFTISADTSKNTAYLQMRAEDTAVYYCARVGHYYSSGGYYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYSSYWTFGQGTKVEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVVDSGISWVRQAPGKGLEWVSYISSSSGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARAHYYGSYFGSVVYYYGLDVWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYDTYPITFGQGTKVEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVYSSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSYSTYYYGYWYFDVWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSAAVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYNYYWLITFGQGTKVEIK"/>
+        <s v="QVQLQQPGAELVKPGASVKLSCKASGYTFTSDWIHWVKQRPGHGLEWIGEIIPSYGRANYNEKIQKKATLTADKSSSTAFMHLSSLTSEDSAVYYCARERGDGYFAVWGAGTTVTVSSGGGSGGGSGGGSGGGSDILLTQSPAILSVSPGERVSFSCRASQSIGTDIHWYQQRTNGSPRLLIKYASESISGIPSRFSGSGSGTDFTLSINSVESEDIANYYCQQSNRWPFTFGSGTKLEIK"/>
+        <s v="VRLLESGGGLVQPGGSLKLSCAASGFDYSRYWMSWVRQAPGKGLKWIGEINPVSSTINYTPSLKDKFIISRDNAKDTLYLQISKVRSEDTALYYCARLYYGYGYWYFDVWGAGTTVTVSSGGGSGGGSGGGSGGGSDIVLTQSPAIMSAAPGDKVTMTCSASSSVSYIHWYQQKSGTSPKRWIYDTSKLTSGVPVRFSGSGSGTSYSLTINTMEAEDAATYYCQQWSSHPQTFGGGTKLEIl"/>
+        <s v="QVQLQESGPGLVQPSQSLSLTCTVSGFSLTSYGVHWVRQSPGKGLEWLGVIWAGGSTDYNSALKSRLSISRDTSKNQVFLKMNSLQTDDTAMYYCAKHGSSNGDYWGQGTSVTVSSGGGSGGGSGGGSGGGSDIVMTQSPDSLAVSLGERATINCKSSQSVLYSSNNKNYLAWYQQKPEGQPPNLLIYWASTRESGVPDRFSGSGSGTDFTLTISSLQAEDVAVYYCQQYYSAPTFGQGTKLEIK"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="len_franken_chain" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="231" maxValue="261"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="233" maxValue="250"/>
     </cacheField>
     <cacheField name="len_lte_250" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="status_folded_boltz2" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="status_folded_franken_boltz2" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="max_ipsae" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="0.64176299999999997"/>
@@ -889,15 +1040,12 @@
     <cacheField name="min_ipsae" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="0.69121100000000002"/>
     </cacheField>
-    <cacheField name="candidate_for_submission" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
-        <b v="1"/>
-        <b v="0"/>
+    <cacheField name="submitted_to_comp" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-11-07T00:00:00" maxDate="2025-11-09T00:00:00" count="3">
+        <d v="2025-11-07T00:00:00"/>
+        <d v="2025-11-08T00:00:00"/>
         <m/>
       </sharedItems>
-    </cacheField>
-    <cacheField name="submitted_to_comp" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -909,7 +1057,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="31">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="50">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -930,7 +1078,6 @@
     <n v="0.25843100000000002"/>
     <n v="0.33503300000000003"/>
     <x v="0"/>
-    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -952,7 +1099,6 @@
     <n v="0"/>
     <n v="5.4939999999999998E-3"/>
     <x v="1"/>
-    <m/>
   </r>
   <r>
     <x v="2"/>
@@ -974,7 +1120,6 @@
     <n v="0"/>
     <n v="0"/>
     <x v="1"/>
-    <m/>
   </r>
   <r>
     <x v="3"/>
@@ -996,7 +1141,6 @@
     <n v="5.2389999999999997E-3"/>
     <n v="8.0114000000000005E-2"/>
     <x v="1"/>
-    <m/>
   </r>
   <r>
     <x v="4"/>
@@ -1018,73 +1162,69 @@
     <n v="0"/>
     <n v="5.3489999999999996E-3"/>
     <x v="1"/>
-    <m/>
   </r>
   <r>
     <x v="5"/>
-    <x v="0"/>
-    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <x v="1"/>
+    <s v="Qwen3-235B-A22B-Instruct-2507"/>
     <m/>
     <s v="base"/>
     <m/>
     <m/>
-    <s v="VGPRTTLTVSLRSGASVKMSCKASGYSFTWVRQKPGQGLEWVKISYDGLKDYTNYKFQGVKATITADKSSNTAYLQISNLTSEDTAVYFCSRRAVYYDYWGQGTTLTVSS"/>
-    <s v="VTVALGTVSLAPGTVSLRSCRASQSVSLSYLHWYQQKPGQAPLLVYGDNSKRPSGIPDRFSGSSSGNTASLTISGVQAEDEADYYCQSSDSSNWVFGGGTKLTVL"/>
-    <b v="0"/>
+    <s v="QVQLVESGGGVVQPGRSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAIWSNGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARDYGSYGYFDYWGQGTLVTVSS"/>
+    <s v="DIVMTQSPLSLPVTPGEPASISCRSSQSLLYSNGNTYLEWYLQKPGQSPQLLIYLVSKLDSGVPDRFSGSGSGTDFTLKISRVEAEDLGIYYCQQSKEVPYTFGAGTKLEIK"/>
+    <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="5"/>
-    <n v="231"/>
-    <b v="1"/>
-    <b v="0"/>
-    <b v="0"/>
-    <m/>
-    <m/>
+    <n v="247"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <n v="0"/>
+    <n v="1.302E-2"/>
     <x v="1"/>
-    <m/>
   </r>
   <r>
     <x v="6"/>
-    <x v="0"/>
-    <s v="peleke-mistral-7b-instruct-v0.2"/>
-    <m/>
-    <s v="base"/>
-    <m/>
-    <m/>
-    <s v="DRPSLTVKTSLTVSEPGSSISCASGIGTFSSYDFIVKQPSQGFDLEWIGGISYDSTYVNYSLKHRISRTIITNWKNTLQFTISLTSLKPASVYFDVWGAGTWISPYWGQGTTLTVSSSSAVSSFYVKNKGLDVWGHVITVN"/>
-    <s v="DIQLTQSPFLSLSPGSTASISCSGSSYDYTSGYRYKSSGKSPKPWMQRFLYSGSKRFSGVPERFIGSGTDFALTISRVEAEDVGFCSGWIFPFTFGPGTKVDIK"/>
-    <b v="0"/>
+    <x v="2"/>
+    <s v="peleke-phi-4 / v_48_020"/>
+    <n v="0.1"/>
+    <s v="derivative"/>
+    <s v="sbio-nipahgpg-001"/>
+    <n v="1"/>
+    <s v="AVSLVESGGGTVKPGESVTLSCQASGFNFSKYQWVWVRQAPGKGLEWVGQISPDGSKTRYHPSVAGRFTISRDNSNSTLYLHMSNLRPEDTAVYYCGIIPQDNVHGDYSISHWGQGTLLTVSA"/>
+    <s v="AIKLTQSPKSLSASVGDTVTINCTASRPIGDLLSWYKQKPGKPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSSDFATYYCRQTSRFPITFGEGTTINKK"/>
+    <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="6"/>
-    <n v="261"/>
-    <b v="0"/>
-    <b v="0"/>
-    <b v="0"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
+    <n v="246"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <n v="5.2820000000000002E-3"/>
+    <n v="8.6638999999999994E-2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="7"/>
-    <x v="1"/>
-    <s v="Qwen3-235B-A22B-Instruct-2507"/>
-    <m/>
-    <s v="base"/>
-    <m/>
-    <m/>
-    <s v="QVQLVESGGGVVQPGRSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAIWSNGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARDYGSYGYFDYWGQGTLVTVSS"/>
-    <s v="DIVMTQSPLSLPVTPGEPASISCRSSQSLLYSNGNTYLEWYLQKPGQSPQLLIYLVSKLDSGVPDRFSGSGSGTDFTLKISRVEAEDLGIYYCQQSKEVPYTFGAGTKLEIK"/>
+    <x v="2"/>
+    <s v="peleke-phi-4 / v_48_020"/>
+    <n v="0.1"/>
+    <s v="derivative"/>
+    <s v="sbio-nipahgpg-001"/>
+    <n v="1"/>
+    <s v="AVSITESGGGTKAPGSSVTLSCKVSGFVFSKYSIAWVRQAPGQGLEWVSQISPDGSTTRYNPAVAGRFTISRDNSNSTAYLQMSNLTPSDTATYYCAIIPQDNEHGDYSLSHWGQGTQLTVSA"/>
+    <s v="AIKLTQSPKSLSAKVGDTVTINCTASAPIGDFLSWYKQKPGQPPQLLIYKSSTLAPGVSSRYSGSGSDTNFTLTISSLQEEDFATYYCQQTATLPITFGEGTTINKK"/>
     <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="7"/>
-    <n v="247"/>
+    <n v="246"/>
     <b v="1"/>
     <b v="1"/>
     <b v="1"/>
     <n v="0"/>
-    <n v="1.302E-2"/>
+    <n v="0"/>
     <x v="1"/>
-    <m/>
   </r>
   <r>
     <x v="8"/>
@@ -1094,8 +1234,8 @@
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
     <n v="1"/>
-    <s v="AVSLVESGGGTVKPGESVTLSCQASGFNFSKYQWVWVRQAPGKGLEWVGQISPDGSKTRYHPSVAGRFTISRDNSNSTLYLHMSNLRPEDTAVYYCGIIPQDNVHGDYSISHWGQGTLLTVSA"/>
-    <s v="AIKLTQSPKSLSASVGDTVTINCTASRPIGDLLSWYKQKPGKPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSSDFATYYCRQTSRFPITFGEGTTINKK"/>
+    <s v="SISLVESGGGTVAPGSSVTLSCQASGFNFSKYSKAWVRQPPGQPLEWVSRISPDGSTKYYHPDVAGRFTISKDNSKSTVYLAMSNLTAADTATYYCGIIPGDNTHGDYAMSHWGQGTLLTVSA"/>
+    <s v="AITLTQSPSSLSASVGDTVTISCTASRPIGDKLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTSFTLTISSLQEDDFATYYCQQTYTLPITFGQGTTISKK"/>
     <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="8"/>
@@ -1103,10 +1243,9 @@
     <b v="1"/>
     <b v="1"/>
     <b v="1"/>
-    <n v="5.2820000000000002E-3"/>
-    <n v="8.6638999999999994E-2"/>
+    <n v="0.116301"/>
+    <n v="0.18454400000000001"/>
     <x v="0"/>
-    <m/>
   </r>
   <r>
     <x v="9"/>
@@ -1116,8 +1255,8 @@
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
     <n v="1"/>
-    <s v="AVSITESGGGTKAPGSSVTLSCKVSGFVFSKYSIAWVRQAPGQGLEWVSQISPDGSTTRYNPAVAGRFTISRDNSNSTAYLQMSNLTPSDTATYYCAIIPQDNEHGDYSLSHWGQGTQLTVSA"/>
-    <s v="AIKLTQSPKSLSAKVGDTVTINCTASAPIGDFLSWYKQKPGQPPQLLIYKSSTLAPGVSSRYSGSGSDTNFTLTISSLQEEDFATYYCQQTATLPITFGEGTTINKK"/>
+    <s v="GVSLTESGGGTVAPGSSVTLSCKASGFNFSKYSHAWVRQAPGQGLTWVGEISPDGSKTRYASSVAGRFTISRDNSNSTVYLQMSSLTPSDTATYYCGIIPGDSVHGERSMSHWGQGTLLTVSA"/>
+    <s v="AITLTQSPSSLSASVGDTVTLNCTASRPIGDRLSWYKQKPGQAPQLLIYRASTLAPGVSSRYSGSGSDTQFTLTISSLQSDDFATYYCQQTSSYPVTFGQGTTITKK"/>
     <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="9"/>
@@ -1126,9 +1265,8 @@
     <b v="1"/>
     <b v="1"/>
     <n v="0"/>
-    <n v="0"/>
-    <x v="1"/>
-    <m/>
+    <n v="4.8060000000000004E-3"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="10"/>
@@ -1138,19 +1276,18 @@
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
     <n v="1"/>
-    <s v="SISLVESGGGTVAPGSSVTLSCQASGFNFSKYSKAWVRQPPGQPLEWVSRISPDGSTKYYHPDVAGRFTISKDNSKSTVYLAMSNLTAADTATYYCGIIPGDNTHGDYAMSHWGQGTLLTVSA"/>
-    <s v="AITLTQSPSSLSASVGDTVTISCTASRPIGDKLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTSFTLTISSLQEDDFATYYCQQTYTLPITFGQGTTISKK"/>
+    <s v="EVSLVESGGGTVKPGESVTLSCQASGFNFSKYRLAWVRQPPGQGLVWVSEISPDGTEVKYHPDVKGRFTASRDNSNSTAYLKMNNLQPSDTATYYCGIIPQDSSHGDYSISHWGQGTQLTVSA"/>
+    <s v="TITLTQSPSSLSASVGDTVTINCTASRPIGDFLSWYKQKPGQPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSDDFATYYCQQTYTLPITFGQGTTLTKK "/>
     <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="10"/>
-    <n v="246"/>
-    <b v="1"/>
-    <b v="1"/>
-    <b v="1"/>
-    <n v="0.116301"/>
-    <n v="0.18454400000000001"/>
-    <x v="0"/>
-    <m/>
+    <n v="247"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
   </r>
   <r>
     <x v="11"/>
@@ -1160,8 +1297,8 @@
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
     <n v="1"/>
-    <s v="GVSLTESGGGTVAPGSSVTLSCKASGFNFSKYSHAWVRQAPGQGLTWVGEISPDGSKTRYASSVAGRFTISRDNSNSTVYLQMSSLTPSDTATYYCGIIPGDSVHGERSMSHWGQGTLLTVSA"/>
-    <s v="AITLTQSPSSLSASVGDTVTLNCTASRPIGDRLSWYKQKPGQAPQLLIYRASTLAPGVSSRYSGSGSDTQFTLTISSLQSDDFATYYCQQTSSYPVTFGQGTTITKK"/>
+    <s v="AVSLVESGGGTYAPGSSVTLSCQGSGFNFSKVRKVWVRQPPGGPLEYVAEISPDGSTTTYASSVAGRFTISKDNSNSTLYLSMSNLTPADTATYYCGLIPGDSEHGDRSISHWGQGTLVTVSA"/>
+    <s v="AITLTQSPSSLSASVGDTVTINCTASQPIGNFLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTNFTLTISSLQSEDFATYYCQQTSRLPVTFGQGTTINKK"/>
     <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="11"/>
@@ -1170,9 +1307,8 @@
     <b v="1"/>
     <b v="1"/>
     <n v="0"/>
-    <n v="4.8060000000000004E-3"/>
-    <x v="0"/>
-    <m/>
+    <n v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="12"/>
@@ -1182,52 +1318,50 @@
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
     <n v="1"/>
-    <s v="EVSLVESGGGTVKPGESVTLSCQASGFNFSKYRLAWVRQPPGQGLVWVSEISPDGTEVKYHPDVKGRFTASRDNSNSTAYLKMNNLQPSDTATYYCGIIPQDSSHGDYSISHWGQGTQLTVSA"/>
-    <s v="TITLTQSPSSLSASVGDTVTINCTASRPIGDFLSWYKQKPGQPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSDDFATYYCQQTYTLPITFGQGTTLTKK "/>
+    <s v="GISLVESGGGTVKPGESVTLSCKASGFVFSKYSHAWVRQPPGGPLEWVSQISSDGSVTRYASSVSGRFTISRDNSNSTVYLQMNNLRPSDTATYYCGIIPQDNVHGDYAISHWGQGTLLTVTA"/>
+    <s v="AITLTQSPASLSAKVGDTVTLSCTASRPIGDLLSWYKQKPGQPPQLLIYRASTLAPGVDSRYSGSGSDTSFTLTISSLQPEDFATYYCQQTSRFPITFGQGTTIKQA"/>
     <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="12"/>
-    <n v="247"/>
-    <b v="1"/>
-    <b v="1"/>
-    <b v="1"/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
+    <n v="246"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <n v="5.7704999999999999E-2"/>
+    <n v="0.165157"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="13"/>
     <x v="2"/>
-    <s v="peleke-phi-4 / v_48_020"/>
-    <n v="0.1"/>
+    <s v="peleke-phi-4 / v_48_030"/>
+    <n v="0.15"/>
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
     <n v="1"/>
-    <s v="AVSLVESGGGTYAPGSSVTLSCQGSGFNFSKVRKVWVRQPPGGPLEYVAEISPDGSTTTYASSVAGRFTISKDNSNSTLYLSMSNLTPADTATYYCGLIPGDSEHGDRSISHWGQGTLVTVSA"/>
-    <s v="AITLTQSPSSLSASVGDTVTINCTASQPIGNFLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTNFTLTISSLQSEDFATYYCQQTSRLPVTFGQGTTINKK"/>
+    <s v="PVSLVESGGGTVAPGSSVTLTCQASGFNFSKYIVAWVRQPPGQPLRFVAMITPDGSKVWLHPEVEGRFTPSKDNSKNTSYLQLKDLQPEDTATYYCGIIPQGSTHGDYSITHWGQGVVLTVTA"/>
+    <s v="MVTLTQSPSSLSASVGDTVTITCTASSPVDNLMSWYQQPPGQPLRLLIYNASTRAPGVSSRFSGSGSDTNFTLTISSLQASDFATYYCQQTYRLPVTFGQGTTLSAA "/>
     <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="13"/>
-    <n v="246"/>
-    <b v="1"/>
-    <b v="1"/>
-    <b v="1"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="247"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <m/>
+    <m/>
     <x v="1"/>
-    <m/>
   </r>
   <r>
     <x v="14"/>
     <x v="2"/>
-    <s v="peleke-phi-4 / v_48_020"/>
-    <n v="0.1"/>
+    <s v="peleke-phi-4 / v_48_030"/>
+    <n v="0.15"/>
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
     <n v="1"/>
-    <s v="GISLVESGGGTVKPGESVTLSCKASGFVFSKYSHAWVRQPPGGPLEWVSQISSDGSVTRYASSVSGRFTISRDNSNSTVYLQMNNLRPSDTATYYCGIIPQDNVHGDYAISHWGQGTLLTVTA"/>
-    <s v="AITLTQSPASLSAKVGDTVTLSCTASRPIGDLLSWYKQKPGQPPQLLIYRASTLAPGVDSRYSGSGSDTSFTLTISSLQPEDFATYYCQQTSRFPITFGQGTTIKQA"/>
+    <s v="SIKLTESGGGTVKPGSSVTLSCQASGFNFSKYEVVWVMQKPGQPLQWVGSISPDGSKVRLHPKVKGRFTLSKDNSKNTAYLTMKNLQPEDTATYYCGIIPGGSVHGDRSITHWGQGVELKVVA"/>
+    <s v="MIKLTQSPKSVKAKVGDTVTITCTASEPVDDLVSWYQQKPGQPLRLLIYRSSTLAPGVSSRFSGSGSDTNFTLTISSLQEEDFATYYCMQTSKYPYTFGQGTTLSRA"/>
     <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="14"/>
@@ -1235,10 +1369,9 @@
     <b v="1"/>
     <b v="1"/>
     <b v="1"/>
-    <n v="5.7704999999999999E-2"/>
-    <n v="0.165157"/>
+    <n v="0.15156800000000001"/>
+    <n v="0.23256399999999999"/>
     <x v="0"/>
-    <m/>
   </r>
   <r>
     <x v="15"/>
@@ -1248,19 +1381,18 @@
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
     <n v="1"/>
-    <s v="PVSLVESGGGTVAPGSSVTLTCQASGFNFSKYIVAWVRQPPGQPLRFVAMITPDGSKVWLHPEVEGRFTPSKDNSKNTSYLQLKDLQPEDTATYYCGIIPQGSTHGDYSITHWGQGVVLTVTA"/>
-    <s v="MVTLTQSPSSLSASVGDTVTITCTASSPVDNLMSWYQQPPGQPLRLLIYNASTRAPGVSSRFSGSGSDTNFTLTISSLQASDFATYYCQQTYRLPVTFGQGTTLSAA "/>
+    <s v="AITLTESGGGVVAPGSSVTLTCTASGFNFSKYSMVWVRQPPGGPLQWVAQISPDNSTVRYHPAVEGRFTASKDNSKNTAYLAMSDLEPSDTATYYCGIIPQGSTHNDYSIVHWGQGTELRVVA"/>
+    <s v="MIKLTQSPSSLSAKVGDKVTITCTASSPVDNLVSWYKQPPGGPLQLLIYNSSTRAPGVSSRFKGSGSDTNFTLTIESLQEEDFATYYCQQTYKFPITFGQGTKLTRA"/>
     <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="15"/>
-    <n v="247"/>
-    <b v="1"/>
-    <b v="1"/>
-    <b v="1"/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
+    <n v="246"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="16"/>
@@ -1270,8 +1402,8 @@
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
     <n v="1"/>
-    <s v="SIKLTESGGGTVKPGSSVTLSCQASGFNFSKYEVVWVMQKPGQPLQWVGSISPDGSKVRLHPKVKGRFTLSKDNSKNTAYLTMKNLQPEDTATYYCGIIPGGSVHGDRSITHWGQGVELKVVA"/>
-    <s v="MIKLTQSPKSVKAKVGDTVTITCTASEPVDDLVSWYQQKPGQPLRLLIYRSSTLAPGVSSRFSGSGSDTNFTLTISSLQEEDFATYYCMQTSKYPYTFGQGTTLSRA"/>
+    <s v="SISLTESGGGTVAPGSSVTLTCTASGFNFSKYSVAWVRQPPGQPLQWVALISPDGSKKWYHPDVKGRATISKDNSKNTSYLTLSNLQPSDTATYYCGIIPGGNIHGDYSMTHWGQGTQLTVVA"/>
+    <s v="MITLTQSPLSLSAKVGDTVTITCTASSPVDDLVSWYQQKPGQPLRLLIRNASERAPGVSSRFSGSGSDTTFTLTISSVQEEDFATYYCQQTSKLPYTFGQGTTLSRA"/>
     <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="16"/>
@@ -1279,10 +1411,9 @@
     <b v="1"/>
     <b v="1"/>
     <b v="1"/>
-    <n v="0.15156800000000001"/>
-    <n v="0.23256399999999999"/>
-    <x v="0"/>
-    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="17"/>
@@ -1292,8 +1423,8 @@
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
     <n v="1"/>
-    <s v="AITLTESGGGVVAPGSSVTLTCTASGFNFSKYSMVWVRQPPGGPLQWVAQISPDNSTVRYHPAVEGRFTASKDNSKNTAYLAMSDLEPSDTATYYCGIIPQGSTHNDYSIVHWGQGTELRVVA"/>
-    <s v="MIKLTQSPSSLSAKVGDKVTITCTASSPVDNLVSWYKQPPGGPLQLLIYNSSTRAPGVSSRFKGSGSDTNFTLTIESLQEEDFATYYCQQTYKFPITFGQGTKLTRA"/>
+    <s v="AVTLTESGGGTVAPGSSVTLTCTASGFNFSKYILAWVRQAPGQPLEWVASISPDGSKTRYHPAVKGRATASKDNSKNTAYLELKDLRPEDTATYYCGIIPQGSVHGDYSMTHWGQGTELRVEA"/>
+    <s v="PVVLTQSPLSLSAKVGDTVTITCTASSPVDNLVSWYKQAPGQPLQLLIYNATTRAPGVPSRFTGSGSDTTFTLTISSLQPEDFAVYYCQQTYKFPITFGQGTRLTPA"/>
     <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="17"/>
@@ -1302,9 +1433,8 @@
     <b v="1"/>
     <b v="1"/>
     <n v="0"/>
-    <n v="0"/>
-    <x v="1"/>
-    <m/>
+    <n v="6.1079999999999997E-3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="18"/>
@@ -1314,8 +1444,8 @@
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
     <n v="1"/>
-    <s v="SISLTESGGGTVAPGSSVTLTCTASGFNFSKYSVAWVRQPPGQPLQWVALISPDGSKKWYHPDVKGRATISKDNSKNTSYLTLSNLQPSDTATYYCGIIPGGNIHGDYSMTHWGQGTQLTVVA"/>
-    <s v="MITLTQSPLSLSAKVGDTVTITCTASSPVDDLVSWYQQKPGQPLRLLIRNASERAPGVSSRFSGSGSDTTFTLTISSVQEEDFATYYCQQTSKLPYTFGQGTTLSRA"/>
+    <s v="PVKLVESGGGTVAPGSSVTLTCKASGFNFSKYMVQWVRQAPGGAFQWVGLISPDGSTKWYHPDVEGRFTISKDNSKNTAYLEMRNLTPADTAVYYCGIVPQGSVHGDYSITHWGQGVTLTVTA"/>
+    <s v="VVQLTQSPPELSAKVGEKVTITCTASSPVDNLVSWYQQKPGGAPKLLIYNATTLAPGVPSRFSGSGSDTVFTLTIDSLQAEDFATYYCQQTSRLPFTFGQGTVLRPA"/>
     <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="18"/>
@@ -1325,8 +1455,7 @@
     <b v="1"/>
     <n v="0"/>
     <n v="0"/>
-    <x v="1"/>
-    <m/>
+    <x v="2"/>
   </r>
   <r>
     <x v="19"/>
@@ -1336,8 +1465,8 @@
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
     <n v="1"/>
-    <s v="AVTLTESGGGTVAPGSSVTLTCTASGFNFSKYILAWVRQAPGQPLEWVASISPDGSKTRYHPAVKGRATASKDNSKNTAYLELKDLRPEDTATYYCGIIPQGSVHGDYSMTHWGQGTELRVEA"/>
-    <s v="PVVLTQSPLSLSAKVGDTVTITCTASSPVDNLVSWYKQAPGQPLQLLIYNATTRAPGVPSRFTGSGSDTTFTLTISSLQPEDFAVYYCQQTYKFPITFGQGTRLTPA"/>
+    <s v="AIKLTESGGGTVKPGSSVTLTCQASGFNFSKYIMAWVRQAPGQPLQWVAQISPDNSVKRYHPEVEGRFTASKDNSKNTAYLEMKNLTPADTATYYCAIIPQGSTQGDYSMVHWGQGVELKVVA"/>
+    <s v="PVVLTQSPASLKAAVGDTVTITCTASAPVDNLVSWYKQAPGQPPQLLIYNASTLAPGVPSRFTGSGSDTSFTLTISSLQEEDFATYYCQETSKFPITFGQGTKLEKK"/>
     <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="19"/>
@@ -1346,9 +1475,8 @@
     <b v="1"/>
     <b v="1"/>
     <n v="0"/>
-    <n v="6.1079999999999997E-3"/>
-    <x v="1"/>
-    <m/>
+    <n v="0"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="20"/>
@@ -1358,8 +1486,8 @@
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
     <n v="1"/>
-    <s v="PVKLVESGGGTVAPGSSVTLTCKASGFNFSKYMVQWVRQAPGGAFQWVGLISPDGSTKWYHPDVEGRFTISKDNSKNTAYLEMRNLTPADTAVYYCGIVPQGSVHGDYSITHWGQGVTLTVTA"/>
-    <s v="VVQLTQSPPELSAKVGEKVTITCTASSPVDNLVSWYQQKPGGAPKLLIYNATTLAPGVPSRFSGSGSDTVFTLTIDSLQAEDFATYYCQQTSRLPFTFGQGTVLRPA"/>
+    <s v="SIKLTESGGGVVAPGESVTLTCTASGFNFSKYEMAWVRQAPGGPLEFVAVISPDGSTTRYHPRVEGRATISRDNSKNTAYLTLRDLTPADTAVYYCGIIPGGSVHGDRALSHWGQGVRLEVRA"/>
+    <s v="MVTLTQSPSSLSAKVGDKVTISCTASEPVDDLVSWYKQAPGGPPQLLISRASTRAPGVPSRFSGSGSDTNFTLTIESLQSSDFATYYCQQTYKFPDTFGQGTTLSEA"/>
     <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="20"/>
@@ -1368,53 +1496,50 @@
     <b v="1"/>
     <b v="1"/>
     <n v="0"/>
-    <n v="0"/>
-    <x v="1"/>
-    <m/>
+    <n v="5.0870000000000004E-3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="21"/>
+    <x v="3"/>
+    <s v="v_48_020"/>
+    <n v="0.1"/>
+    <s v="derivative"/>
+    <s v="m102.3 (PDB: 6CMI)"/>
+    <n v="2"/>
+    <s v="SVTLVESGDQTVAPGGSVTLSCTSSGGSFGNSGVSWVKQQPGGPLQWIGGIIPSLGISKVSPEYAGRVTISSDSSNNTAYLTISNLTAADTATYYCALGEGEDVFASSPFASNVNLGALSVWGQGTKVTVS"/>
+    <s v="ITVTQSPSSPSLKVGETATLTCTLSAPVPRSNVAWYKQQPGQPPTLLIYGGSTRAPGVPSRYSGSGSGTTFTLTITALKPEDFATYYCQVYGENPSFGQGTTLKLK "/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGS"/>
+    <x v="21"/>
+    <n v="250"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <m/>
+    <m/>
     <x v="2"/>
-    <s v="peleke-phi-4 / v_48_030"/>
-    <n v="0.15"/>
-    <s v="derivative"/>
-    <s v="sbio-nipahgpg-001"/>
-    <n v="1"/>
-    <s v="AIKLTESGGGTVKPGSSVTLTCQASGFNFSKYIMAWVRQAPGQPLQWVAQISPDNSVKRYHPEVEGRFTASKDNSKNTAYLEMKNLTPADTATYYCAIIPQGSTQGDYSMVHWGQGVELKVVA"/>
-    <s v="PVVLTQSPASLKAAVGDTVTITCTASAPVDNLVSWYKQAPGQPPQLLIYNASTLAPGVPSRFTGSGSDTSFTLTISSLQEEDFATYYCQETSKFPITFGQGTKLEKK"/>
-    <b v="1"/>
-    <s v="GGGSGGGSGGGSGGGS"/>
-    <x v="21"/>
-    <n v="246"/>
-    <b v="1"/>
-    <b v="1"/>
-    <b v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="1"/>
-    <m/>
   </r>
   <r>
     <x v="22"/>
-    <x v="2"/>
-    <s v="peleke-phi-4 / v_48_030"/>
-    <n v="0.15"/>
+    <x v="3"/>
+    <s v="v_48_020"/>
+    <n v="0.1"/>
     <s v="derivative"/>
-    <s v="sbio-nipahgpg-001"/>
-    <n v="1"/>
-    <s v="SIKLTESGGGVVAPGESVTLTCTASGFNFSKYEMAWVRQAPGGPLEFVAVISPDGSTTRYHPRVEGRATISRDNSKNTAYLTLRDLTPADTAVYYCGIIPGGSVHGDRALSHWGQGVRLEVRA"/>
-    <s v="MVTLTQSPSSLSAKVGDKVTISCTASEPVDDLVSWYKQAPGGPPQLLISRASTRAPGVPSRFSGSGSDTNFTLTIESLQSSDFATYYCQQTYKFPDTFGQGTTLSEA"/>
-    <b v="1"/>
-    <s v="GGGSGGGSGGGSGGGS"/>
+    <s v="m102.3 (PDB: 6CMI)"/>
+    <n v="2"/>
+    <s v="GVKLVQSGDLTVKPGGSVTLSCKSEGGSFGNSSVAWVRQRPGGPYEYIGSIIPAYGVSRVSPEYEGRVTISADVANNTAYLTISNLTPEDTATYYCALGPGEVVYAASPFDEKLLTGALSVWGEGTLVTVT"/>
+    <s v="ITVTQSPSSPSLSVGDTATLTCTLSSSVATSNVAWYKQLPGQPPELLISGGSTRAPGVPSRYSGSGSGTTFTLTISSLQASDFATYYCQVYGENPSFGQGTTLTLK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGS"/>
     <x v="22"/>
-    <n v="246"/>
-    <b v="1"/>
-    <b v="1"/>
-    <b v="1"/>
-    <n v="0"/>
-    <n v="5.0870000000000004E-3"/>
-    <x v="1"/>
-    <m/>
+    <n v="249"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <n v="0.31751499999999999"/>
+    <n v="0.405559"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="23"/>
@@ -1424,19 +1549,18 @@
     <s v="derivative"/>
     <s v="m102.3 (PDB: 6CMI)"/>
     <n v="2"/>
-    <s v="SVTLVESGDQTVAPGGSVTLSCTSSGGSFGNSGVSWVKQQPGGPLQWIGGIIPSLGISKVSPEYAGRVTISSDSSNNTAYLTISNLTAADTATYYCALGEGEDVFASSPFASNVNLGALSVWGQGTKVTVS"/>
-    <s v="ITVTQSPSSPSLKVGETATLTCTLSAPVPRSNVAWYKQQPGQPPTLLIYGGSTRAPGVPSRYSGSGSGTTFTLTITALKPEDFATYYCQVYGENPSFGQGTTLKLK "/>
+    <s v="AVKLVQSGDQTVAPGGSVTLSCTSSGGSFGNSSVAWVRQRPGGPFEFIGSIIPSLGISRYNSKYKGRVTISSDAANNTAYLTISNLTAADTATYYCALGPGESVFASHPFKEKLLTGALSVWGEGTLVTVS"/>
+    <s v="ITVTQSPSSPSKSVGDTVTLTCTLSSSVPVSQVAWYKQHPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLQPEDFATYYCQVYGEEPSFGQGTTVTLA"/>
     <b v="1"/>
     <s v="GGGSGGGSGGGS"/>
     <x v="23"/>
-    <n v="250"/>
-    <b v="1"/>
-    <b v="1"/>
-    <b v="1"/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
+    <n v="249"/>
+    <b v="1"/>
+    <b v="1"/>
+    <b v="1"/>
+    <n v="0.64176299999999997"/>
+    <n v="0.69121100000000002"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="24"/>
@@ -1446,8 +1570,8 @@
     <s v="derivative"/>
     <s v="m102.3 (PDB: 6CMI)"/>
     <n v="2"/>
-    <s v="GVKLVQSGDLTVKPGGSVTLSCKSEGGSFGNSSVAWVRQRPGGPYEYIGSIIPAYGVSRVSPEYEGRVTISADVANNTAYLTISNLTPEDTATYYCALGPGEVVYAASPFDEKLLTGALSVWGEGTLVTVT"/>
-    <s v="ITVTQSPSSPSLSVGDTATLTCTLSSSVATSNVAWYKQLPGQPPELLISGGSTRAPGVPSRYSGSGSGTTFTLTISSLQASDFATYYCQVYGENPSFGQGTTLTLK"/>
+    <s v="SITLVQSGDVTVAPGGSVTLTCTSSGGSFGNKAVAWVRQRPGGPYEWLGFIIPAYGVSRYNPAYEGRVTISVDSASNTASLTISNLTAADTATYYCALGEGEIVYAASPFDENYKLGALYIWGQGTKVTVS"/>
+    <s v="ITLTQSPSSPSLSVGETATLTCTASAPVPKSNVAWYKQLPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLTADDFATYYCQVYGENPSFGEGTTLTLK"/>
     <b v="1"/>
     <s v="GGGSGGGSGGGS"/>
     <x v="24"/>
@@ -1455,10 +1579,9 @@
     <b v="1"/>
     <b v="1"/>
     <b v="1"/>
-    <n v="0.31751499999999999"/>
-    <n v="0.405559"/>
-    <x v="0"/>
-    <m/>
+    <n v="5.2189999999999997E-3"/>
+    <n v="5.4400000000000004E-3"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="25"/>
@@ -1468,8 +1591,8 @@
     <s v="derivative"/>
     <s v="m102.3 (PDB: 6CMI)"/>
     <n v="2"/>
-    <s v="AVKLVQSGDQTVAPGGSVTLSCTSSGGSFGNSSVAWVRQRPGGPFEFIGSIIPSLGISRYNSKYKGRVTISSDAANNTAYLTISNLTAADTATYYCALGPGESVFASHPFKEKLLTGALSVWGEGTLVTVS"/>
-    <s v="ITVTQSPSSPSKSVGDTVTLTCTLSSSVPVSQVAWYKQHPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLQPEDFATYYCQVYGEEPSFGQGTTVTLA"/>
+    <s v="SVTLVQSGDQTVPIGGSVTLSCTANGGSFGNKGVAWVRQRPGGPYEFLGFIKPAIGESRYHPKYKGRVTISSDVSSNTAYLTISNLTPEDTAVYYCALGEAEDVFAAHPFKTDLLLGALSIWGQGTRVTVT"/>
+    <s v="ITVTQSPSSPSLSVGETAVLTCTLSQPVPQSQVAWYKQLPGQPPTLLISGGSTRASGVPSRYSGSGSGTTFTLTISSLLPEDFATYYCQVVGKEPSFGQGTTLTLK"/>
     <b v="1"/>
     <s v="GGGSGGGSGGGS"/>
     <x v="25"/>
@@ -1477,10 +1600,9 @@
     <b v="1"/>
     <b v="1"/>
     <b v="1"/>
-    <n v="0.64176299999999997"/>
-    <n v="0.69121100000000002"/>
-    <x v="0"/>
-    <m/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="26"/>
@@ -1490,8 +1612,8 @@
     <s v="derivative"/>
     <s v="m102.3 (PDB: 6CMI)"/>
     <n v="2"/>
-    <s v="SITLVQSGDVTVAPGGSVTLTCTSSGGSFGNKAVAWVRQRPGGPYEWLGFIIPAYGVSRYNPAYEGRVTISVDSASNTASLTISNLTAADTATYYCALGEGEIVYAASPFDENYKLGALYIWGQGTKVTVS"/>
-    <s v="ITLTQSPSSPSLSVGETATLTCTASAPVPKSNVAWYKQLPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLTADDFATYYCQVYGENPSFGEGTTLTLK"/>
+    <s v="SVKLVQSGDQTVPVGGSVTLSCTASGGSFGNYGVAWVRQRPGGPLEYIGSIIPAYGISTVNPKYEGRVTISADPTNNTAYLTISNLTPEDTATYYCALGPGEVVFASSPFDIDVLTGALWVWGEGTKVTVT"/>
+    <s v="ITVTQSPSSPSLKVGETATLTCTLSAPVAKSNVAWYKQLPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLQPEDFATYYCQVVGKNPSFGQGTLLKLK"/>
     <b v="1"/>
     <s v="GGGSGGGSGGGS"/>
     <x v="26"/>
@@ -1499,10 +1621,9 @@
     <b v="1"/>
     <b v="1"/>
     <b v="1"/>
-    <n v="5.2189999999999997E-3"/>
-    <n v="5.4400000000000004E-3"/>
-    <x v="1"/>
-    <m/>
+    <n v="5.1520000000000003E-3"/>
+    <n v="5.3605E-2"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="27"/>
@@ -1512,8 +1633,8 @@
     <s v="derivative"/>
     <s v="m102.3 (PDB: 6CMI)"/>
     <n v="2"/>
-    <s v="SVTLVQSGDQTVPIGGSVTLSCTANGGSFGNKGVAWVRQRPGGPYEFLGFIKPAIGESRYHPKYKGRVTISSDVSSNTAYLTISNLTPEDTAVYYCALGEAEDVFAAHPFKTDLLLGALSIWGQGTRVTVT"/>
-    <s v="ITVTQSPSSPSLSVGETAVLTCTLSQPVPQSQVAWYKQLPGQPPTLLISGGSTRASGVPSRYSGSGSGTTFTLTISSLLPEDFATYYCQVVGKEPSFGQGTTLTLK"/>
+    <s v="SISLVQSSDQTVAPGGSVTLSCTSSGGSFGNSGVAWVRQAPGGPPVYIGGIIPATGVSTYNAAFKGRVTISSDSSNNTAYLTISGLTAADTATYYCALGPAENVFASHPFAEDVNLGALSVWGQGTLVTVT"/>
+    <s v="ITVTESPSSPELSVGETAVLSCTLSSSVPQSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLEPEDFATYYCQVYGTSPSFGQGTTLKLK"/>
     <b v="1"/>
     <s v="GGGSGGGSGGGS"/>
     <x v="27"/>
@@ -1521,10 +1642,9 @@
     <b v="1"/>
     <b v="1"/>
     <b v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="1"/>
-    <m/>
+    <n v="0.32629000000000002"/>
+    <n v="0.41575699999999999"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="28"/>
@@ -1534,8 +1654,8 @@
     <s v="derivative"/>
     <s v="m102.3 (PDB: 6CMI)"/>
     <n v="2"/>
-    <s v="SVKLVQSGDQTVPVGGSVTLSCTASGGSFGNYGVAWVRQRPGGPLEYIGSIIPAYGISTVNPKYEGRVTISADPTNNTAYLTISNLTPEDTATYYCALGPGEVVFASSPFDIDVLTGALWVWGEGTKVTVT"/>
-    <s v="ITVTQSPSSPSLKVGETATLTCTLSAPVAKSNVAWYKQLPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLQPEDFATYYCQVVGKNPSFGQGTLLKLK"/>
+    <s v="AVSLVESGDQTVAPGGSVTLSCTSSGGSFGNSGVAWVRQAPGGPLEFLGFIIPALGVSKVNSKYEGRVTISSDPANNTAYLTISNLTAADTATYYCGLGTGESVFASSPFDEKLLLGALSVWGQGTKVTVT"/>
+    <s v="ITVTQSPASPEKKVGETATLTCTLSSAVPKSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLQPEDFATYYCRVYGEEPSFGQGTTLKLK"/>
     <b v="1"/>
     <s v="GGGSGGGSGGGS"/>
     <x v="28"/>
@@ -1543,64 +1663,460 @@
     <b v="1"/>
     <b v="1"/>
     <b v="1"/>
-    <n v="5.1520000000000003E-3"/>
-    <n v="5.3605E-2"/>
-    <x v="1"/>
-    <m/>
+    <n v="0.50901600000000002"/>
+    <n v="0.56638100000000002"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="29"/>
-    <x v="3"/>
-    <s v="v_48_020"/>
-    <n v="0.1"/>
-    <s v="derivative"/>
-    <s v="m102.3 (PDB: 6CMI)"/>
-    <n v="2"/>
-    <s v="SISLVQSSDQTVAPGGSVTLSCTSSGGSFGNSGVAWVRQAPGGPPVYIGGIIPATGVSTYNAAFKGRVTISSDSSNNTAYLTISGLTAADTATYYCALGPAENVFASHPFAEDVNLGALSVWGQGTLVTVT"/>
-    <s v="ITVTESPSSPELSVGETAVLSCTLSSSVPQSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLEPEDFATYYCQVYGTSPSFGQGTTLKLK"/>
-    <b v="1"/>
-    <s v="GGGSGGGSGGGS"/>
+    <x v="0"/>
+    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <n v="0.7"/>
+    <s v="base"/>
+    <m/>
+    <m/>
+    <s v="VQLQESGPGLVKPSQSLSLTCTVTGYSITTGYAWNWIRQFPGNKLEWMGYISYSGSTYYPSLKSRISITRDTSKNQFFLQLSIVTTEDTATYYCARGTTLPDYVDFWGQGTSVTVSS"/>
+    <s v="DIQLTQSPSSLSASVGDRVTITCRASQTISTYLNWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYFCLQHFWTPPITFGQGTRLEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
     <x v="29"/>
-    <n v="249"/>
-    <b v="1"/>
-    <b v="1"/>
-    <b v="1"/>
-    <n v="0.32629000000000002"/>
-    <n v="0.41575699999999999"/>
-    <x v="0"/>
-    <m/>
+    <n v="241"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
   </r>
   <r>
     <x v="30"/>
-    <x v="3"/>
-    <s v="v_48_020"/>
-    <n v="0.1"/>
-    <s v="derivative"/>
-    <s v="m102.3 (PDB: 6CMI)"/>
-    <n v="2"/>
-    <s v="AVSLVESGDQTVAPGGSVTLSCTSSGGSFGNSGVAWVRQAPGGPLEFLGFIIPALGVSKVNSKYEGRVTISSDPANNTAYLTISNLTAADTATYYCGLGTGESVFASSPFDEKLLLGALSVWGQGTKVTVT"/>
-    <s v="ITVTQSPASPEKKVGETATLTCTLSSAVPKSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLQPEDFATYYCRVYGEEPSFGQGTTLKLK"/>
+    <x v="0"/>
+    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <n v="0.7"/>
+    <s v="base"/>
+    <m/>
+    <m/>
+    <s v="QVQLQESGPGLVKPSETLSVTCTVSGGSIGSNNYWSWIRQPAGKGLEWIGYIYYSGSTNYNPSLKSRVTMSVDTSKNQFSLKLSSVTAADTAVYYCVRNYYDSSDSSGYYFMDVWGQGTTVTVSS"/>
+    <s v="DIVMTQSPLSLSVTPGEPASISCRSSQSLLHSNGYNYLDWYLQKPGQSPQLLIYLGSNRASGVPDRFSGSGSGTDFTLKISRVEAEDVGVYYCMQALQTPTFGQGTRLEIK"/>
     <b v="1"/>
     <s v="GGGSGGGSGGGS"/>
     <x v="30"/>
-    <n v="249"/>
-    <b v="1"/>
-    <b v="1"/>
-    <b v="1"/>
-    <n v="0.50901600000000002"/>
-    <n v="0.56638100000000002"/>
+    <n v="248"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="31"/>
     <x v="0"/>
-    <m/>
+    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <n v="0.7"/>
+    <s v="base"/>
+    <m/>
+    <m/>
+    <s v="QVQLVQSGAEVKKPGESLKISCKGSGYRFSSYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAMYYCARQGPDYYYGMDVWGQGTTVTVSS"/>
+    <s v="DIQMTQSPSTLSASVGDRVTITCRASQSISSWLAWYQQKPGKAPKLLIYKASELQSGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQQYINSYTFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="31"/>
+    <n v="242"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="0"/>
+    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <n v="0.7"/>
+    <s v="base"/>
+    <m/>
+    <m/>
+    <s v="QVQLQQSGPELVKPGASVKLSCKASGYTFTDYYMHWVKQRPGQGLEWIGEINPNSGGTNTYDQKFKGRATLTVDKSSSTAYLQLSSLTSEDSAVYYCARSPPWYFDYWGQGTTLTVS"/>
+    <s v="DIVMTQSPSSMFASVGETVTITCRASENIYSNLAWYQQKPGQSPKLLIYWASTRHTGVPDRFTGSGSGTDFTLTISSVQAEDLALYYCQHYGSYSFTFGSGTKLEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="32"/>
+    <n v="240"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="0"/>
+    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <n v="0.7"/>
+    <s v="base"/>
+    <m/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRNYVYSSGYLDFWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSYSSPPTFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="33"/>
+    <n v="246"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="0"/>
+    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <n v="0.7"/>
+    <s v="base"/>
+    <m/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNIYYSSIHWVRQAPGKGLEWVASISPYYGSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARDYGHYYYAMDYWGQGTLVTVSS"/>
+    <s v="EIVMTQSPATLSVSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYGASTRATGIPARFSGSGSGTEFTLTISSLQSEDSAVYYCQQYNNWPPITFGQGTRLEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="34"/>
+    <n v="244"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="0"/>
+    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <n v="0.7"/>
+    <s v="base"/>
+    <m/>
+    <m/>
+    <s v="QVQLQESGPGLVKPSETLSLSCVVSGDSSSTNYYWGWIRQPPGKGLEWIGYIYGSGDTAYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARRSWGYGYNGYSTYYYYYYFDQGYFDVWGPGTLVT"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSIGSYLNWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTEFTLTISSLQPEDFATYYCQQSYSWGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGS"/>
+    <x v="35"/>
+    <n v="247"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="0"/>
+    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <n v="0.7"/>
+    <s v="base"/>
+    <m/>
+    <m/>
+    <s v="QVQLVQSGAEVKKPGASVKVSCKASGYTFTSYGISWVRQAPGQGLEWMGWISAHNGDTNYAQKFQGRVTMTRDTSITTAYMELRSDDTAVYYCARDGSVGGFYWGQGTLVTVSS"/>
+    <s v="EIVLTQSPGTLSLSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPITFGQGTRLEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="36"/>
+    <n v="237"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="0"/>
+    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <n v="0.7"/>
+    <s v="base"/>
+    <m/>
+    <m/>
+    <s v="EVQLLESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASISPYYGSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSYYWYWSGWGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSYGSPPTFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="37"/>
+    <n v="238"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="0"/>
+    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <n v="0.7"/>
+    <s v="base"/>
+    <m/>
+    <m/>
+    <s v="QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGHYAWWIRQPPGKGLEWIACIYSSSGSTYYNPSLKSRITISVDTSKNQFSLKLSSVTAADTAVYYCARRQRGYDYDYYYGMDVWGQGTTVTVSS"/>
+    <s v="DIQLTQSPSSLSASVGDRVTITCRASQGISRNLAWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSNNWPITFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="38"/>
+    <n v="248"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="0"/>
+    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <n v="0.7"/>
+    <s v="base"/>
+    <m/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNIYYSSIHWVRQAPGKGLEWVASIYSYYSSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARVYGYLSYSYFYWGLDVWGQGTLVTVS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEI"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="39"/>
+    <n v="246"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="0"/>
+    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <n v="0.7"/>
+    <s v="base"/>
+    <m/>
+    <m/>
+    <s v="EVQLQQSGAELVKPGASVKLSCTASGFNIKDTYVHWVKQRPEQGLEWIGRIDPANGYTKYDPKFQGKATITADTSSNTAYLQLSSLTSEDTAVYYCVRPLYDYYAMDYWGQGTTLTVSS"/>
+    <s v="DIVMTQSPSSLAMSAGRVSITCRTSQSISSYLNWVQQKPGKSPKLLIYWASTRESGVPDRFTGSGSGTDFTLTISRVEAEDLGVYYCMQGTHVPYTFGGGTKLEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="40"/>
+    <n v="241"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="0"/>
+    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <n v="0.7"/>
+    <s v="base"/>
+    <m/>
+    <m/>
+    <s v="EVQLVESGGGLVKPGGSLRLSCAASGFTFSSYAMHWVRQAPGKGLEWVSAISGGGGSTYYADSVKGRFTISRDNSKNTLYLQMRAEDTAVYYCAKDDADWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPFTFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="41"/>
+    <n v="233"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="0"/>
+    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <n v="0.7"/>
+    <s v="base"/>
+    <m/>
+    <m/>
+    <s v="QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGSYYWIRQSPGKGLEWIGYIYYSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARHRYYDRGQGTLVTVSS"/>
+    <s v="DIQMTQSPASLSASVGETVTITCRASENIYSNLAWYQQKQGKSPQLLVYAATDLADGVPSRFSGSGSGTQFSLKINSLQPEDFGSYYCQHFWDTPWTFGQGTRVE"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="42"/>
+    <n v="234"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="0"/>
+    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <n v="0.7"/>
+    <s v="base"/>
+    <m/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNLYSSSIHWVRQAPGKGLEWVAYISSSGTHYADSVKGRFTISADTSKNTAYLQMRAEDTAVYYCARVGHYYSSGGYYYAMDYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYSSYWTFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="43"/>
+    <n v="242"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="0"/>
+    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <n v="0.7"/>
+    <s v="base"/>
+    <m/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVVDSGISWVRQAPGKGLEWVSYISSSSGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARAHYYGSYFGSVVYYYGLDVWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYDTYPITFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGS"/>
+    <x v="44"/>
+    <n v="247"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="0"/>
+    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <n v="0.7"/>
+    <s v="base"/>
+    <m/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVYSSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSYSTYYYGYWYFDVWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSAAVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYNYYWLITFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="45"/>
+    <n v="247"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="0"/>
+    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <n v="0.7"/>
+    <s v="base"/>
+    <m/>
+    <m/>
+    <s v="QVQLQQPGAELVKPGASVKLSCKASGYTFTSDWIHWVKQRPGHGLEWIGEIIPSYGRANYNEKIQKKATLTADKSSSTAFMHLSSLTSEDSAVYYCARERGDGYFAVWGAGTTVTVSS"/>
+    <s v="DILLTQSPAILSVSPGERVSFSCRASQSIGTDIHWYQQRTNGSPRLLIKYASESISGIPSRFSGSGSGTDFTLSINSVESEDIANYYCQQSNRWPFTFGSGTKLEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="46"/>
+    <n v="241"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="0"/>
+    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <n v="0.7"/>
+    <s v="base"/>
+    <m/>
+    <m/>
+    <s v="VRLLESGGGLVQPGGSLKLSCAASGFDYSRYWMSWVRQAPGKGLKWIGEINPVSSTINYTPSLKDKFIISRDNAKDTLYLQISKVRSEDTALYYCARLYYGYGYWYFDVWGAGTTVTVSS"/>
+    <s v="DIVLTQSPAIMSAAPGDKVTMTCSASSSVSYIHWYQQKSGTSPKRWIYDTSKLTSGVPVRFSGSGSGTSYSLTINTMEAEDAATYYCQQWSSHPQTFGGGTKLEIl"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="47"/>
+    <n v="242"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="0"/>
+    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <n v="0.7"/>
+    <s v="base"/>
+    <m/>
+    <m/>
+    <s v="QVQLQESGPGLVQPSQSLSLTCTVSGFSLTSYGVHWVRQSPGKGLEWLGVIWAGGSTDYNSALKSRLSISRDTSKNQVFLKMNSLQTDDTAMYYCAKHGSSNGDYWGQGTSVTVSS"/>
+    <s v="DIVMTQSPDSLAVSLGERATINCKSSQSVLYSSNNKNYLAWYQQKPEGQPPNLLIYWASTRESGVPDRFSGSGSGTDFTLTISSLQAEDVAVYYCQQYYSAPTFGQGTKLEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="48"/>
+    <n v="245"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="49"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7EF0D312-8073-644F-BACB-C3BF6FDB30B2}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A3:C12" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="20">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{135D55CA-26D1-4FA2-9199-54D547F2C103}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A4:C13" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="19">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="31">
+      <items count="50">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -1632,14 +2148,34 @@
         <item x="28"/>
         <item x="29"/>
         <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="4">
+      <items count="5">
         <item x="1"/>
         <item x="0"/>
         <item x="2"/>
         <item x="3"/>
+        <item x="4"/>
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -1652,38 +2188,57 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="31">
-        <item x="21"/>
+      <items count="50">
+        <item x="19"/>
+        <item x="15"/>
+        <item x="23"/>
+        <item x="7"/>
+        <item x="28"/>
+        <item x="6"/>
+        <item x="11"/>
         <item x="17"/>
-        <item x="25"/>
-        <item x="9"/>
-        <item x="30"/>
-        <item x="8"/>
-        <item x="13"/>
-        <item x="19"/>
-        <item x="6"/>
         <item x="4"/>
         <item x="3"/>
+        <item x="10"/>
         <item x="12"/>
-        <item x="14"/>
-        <item x="24"/>
-        <item x="11"/>
-        <item x="20"/>
-        <item x="15"/>
+        <item x="22"/>
+        <item x="9"/>
+        <item x="18"/>
+        <item x="13"/>
         <item x="2"/>
         <item x="1"/>
-        <item x="7"/>
+        <item x="5"/>
         <item x="0"/>
+        <item x="14"/>
+        <item x="20"/>
         <item x="16"/>
-        <item x="22"/>
-        <item x="18"/>
-        <item x="10"/>
+        <item x="8"/>
+        <item x="27"/>
+        <item x="24"/>
+        <item x="26"/>
+        <item x="21"/>
+        <item x="25"/>
         <item x="29"/>
-        <item x="26"/>
-        <item x="28"/>
-        <item x="23"/>
-        <item x="27"/>
-        <item x="5"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -1692,14 +2247,13 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
+    <pivotField axis="axisPage" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="3">
-        <item h="1" x="1"/>
+        <item x="2"/>
         <item x="0"/>
-        <item h="1" x="2"/>
+        <item x="1"/>
       </items>
     </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="3">
     <field x="0"/>
@@ -1710,50 +2264,50 @@
     <i>
       <x/>
       <x v="1"/>
-      <x v="20"/>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="2"/>
+      <x v="5"/>
     </i>
     <i>
       <x v="8"/>
       <x v="2"/>
-      <x v="5"/>
+      <x v="23"/>
     </i>
     <i>
-      <x v="10"/>
+      <x v="9"/>
       <x v="2"/>
-      <x v="24"/>
+      <x v="13"/>
     </i>
     <i>
+      <x v="12"/>
+      <x v="2"/>
       <x v="11"/>
-      <x v="2"/>
-      <x v="14"/>
     </i>
     <i>
       <x v="14"/>
       <x v="2"/>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="22"/>
+      <x v="3"/>
       <x v="12"/>
     </i>
     <i>
-      <x v="16"/>
-      <x v="2"/>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="24"/>
-      <x v="3"/>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="25"/>
+      <x v="23"/>
       <x v="3"/>
       <x v="2"/>
     </i>
     <i>
-      <x v="29"/>
+      <x v="27"/>
       <x v="3"/>
-      <x v="25"/>
+      <x v="24"/>
     </i>
     <i>
-      <x v="30"/>
+      <x v="28"/>
       <x v="3"/>
       <x v="4"/>
     </i>
@@ -1762,7 +2316,226 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="18" hier="-1"/>
+    <pageField fld="18" item="1" hier="-1"/>
+  </pageFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{34D8D9BF-DD48-4B0D-B005-50CFC13EA4CA}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A4:C13" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="19">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="50">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="50">
+        <item x="19"/>
+        <item x="15"/>
+        <item x="23"/>
+        <item x="7"/>
+        <item x="28"/>
+        <item x="6"/>
+        <item x="11"/>
+        <item x="17"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="22"/>
+        <item x="9"/>
+        <item x="18"/>
+        <item x="13"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="14"/>
+        <item x="20"/>
+        <item x="16"/>
+        <item x="8"/>
+        <item x="27"/>
+        <item x="24"/>
+        <item x="26"/>
+        <item x="21"/>
+        <item x="25"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisPage" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="0"/>
+    <field x="1"/>
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x v="1"/>
+      <x v="1"/>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="1"/>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="1"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="1"/>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x/>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="2"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="10"/>
+      <x v="2"/>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+      <x v="2"/>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="13"/>
+      <x v="2"/>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="15"/>
+      <x v="2"/>
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="18" item="2" hier="-1"/>
   </pageFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2092,175 +2865,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="78.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="93.33203125" style="1" customWidth="1"/>
-    <col min="6" max="1024" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="17.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54" style="2" customWidth="1"/>
+    <col min="9" max="9" width="42.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="2" customWidth="1"/>
+    <col min="12" max="12" width="71.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="9"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="96" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.79488899999999996</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.72998799999999997</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U32"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T29" sqref="T29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54" style="2" customWidth="1"/>
-    <col min="9" max="9" width="42.1640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12" style="2" customWidth="1"/>
-    <col min="12" max="12" width="71.33203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.1640625" style="10"/>
-    <col min="22" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="L1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>141</v>
+        <v>132</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="U1" s="8"/>
-    </row>
-    <row r="2" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="T1" s="7"/>
+    </row>
+    <row r="2" spans="1:20" ht="75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -2274,7 +2973,7 @@
         <v>0.7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>21</v>
@@ -2287,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L2" s="2" t="str">
         <f>_xlfn.CONCAT(H2,K2,I2)</f>
@@ -2315,16 +3014,12 @@
       <c r="R2" s="4">
         <v>0.33503300000000003</v>
       </c>
-      <c r="S2" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="T2" s="13">
+      <c r="S2" s="12">
         <v>45968</v>
       </c>
-      <c r="U2" s="9"/>
-    </row>
-    <row r="3" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+      <c r="T2" s="8"/>
+    </row>
+    <row r="3" spans="1:20" ht="60" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -2338,7 +3033,7 @@
         <v>0.7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>24</v>
@@ -2351,10 +3046,10 @@
         <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L3" s="2" t="str">
-        <f t="shared" ref="L3:L32" si="0">_xlfn.CONCAT(H3,K3,I3)</f>
+        <f t="shared" ref="L3:L50" si="0">_xlfn.CONCAT(H3,K3,I3)</f>
         <v>QVQLVESGGGVVQPGKSLRLSCAASGFTFSSYAMSWVRQAPGKGPEWVAFISYDGSNNYYADSVKGRFTISRDNPKNTLYLQMKSLRAEDTAVYYCARWRQRFDMYWGRGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK</v>
       </c>
       <c r="M3" s="1">
@@ -2362,7 +3057,7 @@
         <v>240</v>
       </c>
       <c r="N3" s="1" t="b">
-        <f t="shared" ref="N3:N32" si="1">IF(M3&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" ref="N3:N50" si="1">IF(M3&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="O3" s="1" t="b">
@@ -2379,12 +3074,12 @@
       <c r="R3" s="4">
         <v>5.4939999999999998E-3</v>
       </c>
-      <c r="S3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U3" s="9"/>
-    </row>
-    <row r="4" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+      <c r="S3" s="12">
+        <v>45969</v>
+      </c>
+      <c r="T3" s="8"/>
+    </row>
+    <row r="4" spans="1:20" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -2398,7 +3093,7 @@
         <v>0.9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>27</v>
@@ -2411,7 +3106,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2439,12 +3134,12 @@
       <c r="R4" s="4">
         <v>0</v>
       </c>
-      <c r="S4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U4" s="9"/>
-    </row>
-    <row r="5" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+      <c r="S4" s="12">
+        <v>45969</v>
+      </c>
+      <c r="T4" s="8"/>
+    </row>
+    <row r="5" spans="1:20" ht="60" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -2458,7 +3153,7 @@
         <v>0.9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>30</v>
@@ -2471,7 +3166,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2499,12 +3194,12 @@
       <c r="R5" s="4">
         <v>8.0114000000000005E-2</v>
       </c>
-      <c r="S5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" s="9"/>
-    </row>
-    <row r="6" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+      <c r="S5" s="12">
+        <v>45969</v>
+      </c>
+      <c r="T5" s="8"/>
+    </row>
+    <row r="6" spans="1:20" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -2518,7 +3213,7 @@
         <v>0.5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>33</v>
@@ -2531,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2559,139 +3254,173 @@
       <c r="R6" s="4">
         <v>5.3489999999999996E-3</v>
       </c>
-      <c r="S6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U6" s="9"/>
-    </row>
-    <row r="7" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+      <c r="S6" s="12">
+        <v>45969</v>
+      </c>
+      <c r="T6" s="8"/>
+    </row>
+    <row r="7" spans="1:20" ht="75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="J7" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>VGPRTTLTVSLRSGASVKMSCKASGYSFTWVRQKPGQGLEWVKISYDGLKDYTNYKFQGVKATITADKSSNTAYLQISNLTSEDTAVYFCSRRAVYYDYWGQGTTLTVSSGGGSGGGSGGGSGGGSVTVALGTVSLAPGTVSLRSCRASQSVSLSYLHWYQQKPGQAPLLVYGDNSKRPSGIPDRFSGSSSGNTASLTISGVQAEDEADYYCQSSDSSNWVFGGGTKLTVL</v>
+        <v>QVQLVESGGGVVQPGRSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAIWSNGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARDYGSYGYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPLSLPVTPGEPASISCRSSQSLLYSNGNTYLEWYLQKPGQSPQLLIYLVSKLDSGVPDRFSGSGSGTDFTLKISRVEAEDLGIYYCQQSKEVPYTFGAGTKLEIK</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" ref="M7:M32" si="2">LEN(L7)</f>
-        <v>231</v>
+        <f t="shared" ref="M7:M50" si="2">LEN(L7)</f>
+        <v>247</v>
       </c>
       <c r="N7" s="1" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O7" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="P7" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4">
         <v>0</v>
       </c>
-      <c r="P7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U7" s="9"/>
-    </row>
-    <row r="8" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+      <c r="R7" s="4">
+        <v>1.302E-2</v>
+      </c>
+      <c r="S7" s="12">
+        <v>45969</v>
+      </c>
+      <c r="T7" s="8"/>
+    </row>
+    <row r="8" spans="1:20" ht="75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="J8" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>DRPSLTVKTSLTVSEPGSSISCASGIGTFSSYDFIVKQPSQGFDLEWIGGISYDSTYVNYSLKHRISRTIITNWKNTLQFTISLTSLKPASVYFDVWGAGTWISPYWGQGTTLTVSSSSAVSSFYVKNKGLDVWGHVITVNGGGSGGGSGGGSGGGSDIQLTQSPFLSLSPGSTASISCSGSSYDYTSGYRYKSSGKSPKPWMQRFLYSGSKRFSGVPERFIGSGTDFALTISRVEAEDVGFCSGWIFPFTFGPGTKVDIK</v>
+        <v>AVSLVESGGGTVKPGESVTLSCQASGFNFSKYQWVWVRQAPGKGLEWVGQISPDGSKTRYHPSVAGRFTISRDNSNSTLYLHMSNLRPEDTAVYYCGIIPQDNVHGDYSISHWGQGTLLTVSAGGGSGGGSGGGSGGGSAIKLTQSPKSLSASVGDTVTINCTASRPIGDLLSWYKQKPGKPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSSDFATYYCRQTSRFPITFGEGTTINKK</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="2"/>
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="N8" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="1" t="b">
-        <v>0</v>
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="P8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U8" s="9"/>
-    </row>
-    <row r="9" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>5.2820000000000002E-3</v>
+      </c>
+      <c r="R8" s="4">
+        <v>8.6638999999999994E-2</v>
+      </c>
+      <c r="S8" s="12">
+        <v>45968</v>
+      </c>
+      <c r="T8" s="8"/>
+    </row>
+    <row r="9" spans="1:20" ht="75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>QVQLVESGGGVVQPGRSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAIWSNGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARDYGSYGYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPLSLPVTPGEPASISCRSSQSLLYSNGNTYLEWYLQKPGQSPQLLIYLVSKLDSGVPDRFSGSGSGTDFTLKISRVEAEDLGIYYCQQSKEVPYTFGAGTKLEIK</v>
+        <v>AVSITESGGGTKAPGSSVTLSCKVSGFVFSKYSIAWVRQAPGQGLEWVSQISPDGSTTRYNPAVAGRFTISRDNSNSTAYLQMSNLTPSDTATYYCAIIPQDNEHGDYSLSHWGQGTQLTVSAGGGSGGGSGGGSGGGSAIKLTQSPKSLSAKVGDTVTINCTASAPIGDFLSWYKQKPGQPPQLLIYKSSTLAPGVSSRYSGSGSDTNFTLTISSLQEEDFATYYCQQTATLPITFGEGTTINKK</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" si="2"/>
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N9" s="1" t="b">
         <f t="shared" si="1"/>
@@ -2709,28 +3438,28 @@
         <v>0</v>
       </c>
       <c r="R9" s="4">
-        <v>1.302E-2</v>
-      </c>
-      <c r="S9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="U9" s="9"/>
-    </row>
-    <row r="10" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+      <c r="S9" s="12">
+        <v>45969</v>
+      </c>
+      <c r="T9" s="8"/>
+    </row>
+    <row r="10" spans="1:20" ht="75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D10" s="4">
         <v>0.1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>18</v>
@@ -2739,20 +3468,20 @@
         <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>AVSLVESGGGTVKPGESVTLSCQASGFNFSKYQWVWVRQAPGKGLEWVGQISPDGSKTRYHPSVAGRFTISRDNSNSTLYLHMSNLRPEDTAVYYCGIIPQDNVHGDYSISHWGQGTLLTVSAGGGSGGGSGGGSGGGSAIKLTQSPKSLSASVGDTVTINCTASRPIGDLLSWYKQKPGKPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSSDFATYYCRQTSRFPITFGEGTTINKK</v>
+        <v>SISLVESGGGTVAPGSSVTLSCQASGFNFSKYSKAWVRQPPGQPLEWVSRISPDGSTKYYHPDVAGRFTISKDNSKSTVYLAMSNLTAADTATYYCGIIPGDNTHGDYAMSHWGQGTLLTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTISCTASRPIGDKLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTSFTLTISSLQEDDFATYYCQQTYTLPITFGQGTTISKK</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="2"/>
@@ -2771,35 +3500,31 @@
         <v>1</v>
       </c>
       <c r="Q10" s="4">
-        <v>5.2820000000000002E-3</v>
+        <v>0.116301</v>
       </c>
       <c r="R10" s="4">
-        <v>8.6638999999999994E-2</v>
-      </c>
-      <c r="S10" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="T10" s="13">
+        <v>0.18454400000000001</v>
+      </c>
+      <c r="S10" s="12">
         <v>45968</v>
       </c>
-      <c r="U10" s="9"/>
-    </row>
-    <row r="11" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+      <c r="T10" s="8"/>
+    </row>
+    <row r="11" spans="1:20" ht="75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D11" s="4">
         <v>0.1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>18</v>
@@ -2817,11 +3542,11 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>AVSITESGGGTKAPGSSVTLSCKVSGFVFSKYSIAWVRQAPGQGLEWVSQISPDGSTTRYNPAVAGRFTISRDNSNSTAYLQMSNLTPSDTATYYCAIIPQDNEHGDYSLSHWGQGTQLTVSAGGGSGGGSGGGSGGGSAIKLTQSPKSLSAKVGDTVTINCTASAPIGDFLSWYKQKPGQPPQLLIYKSSTLAPGVSSRYSGSGSDTNFTLTISSLQEEDFATYYCQQTATLPITFGEGTTINKK</v>
+        <v>GVSLTESGGGTVAPGSSVTLSCKASGFNFSKYSHAWVRQAPGQGLTWVGEISPDGSKTRYASSVAGRFTISRDNSNSTVYLQMSSLTPSDTATYYCGIIPGDSVHGERSMSHWGQGTLLTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTLNCTASRPIGDRLSWYKQKPGQAPQLLIYRASTLAPGVSSRYSGSGSDTQFTLTISSLQSDDFATYYCQQTSSYPVTFGQGTTITKK</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="2"/>
@@ -2843,28 +3568,28 @@
         <v>0</v>
       </c>
       <c r="R11" s="4">
-        <v>0</v>
-      </c>
-      <c r="S11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U11" s="9"/>
-    </row>
-    <row r="12" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+        <v>4.8060000000000004E-3</v>
+      </c>
+      <c r="S11" s="12">
+        <v>45968</v>
+      </c>
+      <c r="T11" s="8"/>
+    </row>
+    <row r="12" spans="1:20" ht="75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D12" s="4">
         <v>0.1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>18</v>
@@ -2882,15 +3607,15 @@
         <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>SISLVESGGGTVAPGSSVTLSCQASGFNFSKYSKAWVRQPPGQPLEWVSRISPDGSTKYYHPDVAGRFTISKDNSKSTVYLAMSNLTAADTATYYCGIIPGDNTHGDYAMSHWGQGTLLTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTISCTASRPIGDKLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTSFTLTISSLQEDDFATYYCQQTYTLPITFGQGTTISKK</v>
+        <v xml:space="preserve">EVSLVESGGGTVKPGESVTLSCQASGFNFSKYRLAWVRQPPGQGLVWVSEISPDGTEVKYHPDVKGRFTASRDNSNSTAYLKMNNLQPSDTATYYCGIIPQDSSHGDYSISHWGQGTQLTVSAGGGSGGGSGGGSGGGSTITLTQSPSSLSASVGDTVTINCTASRPIGDFLSWYKQKPGQPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSDDFATYYCQQTYTLPITFGQGTTLTKK </v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="2"/>
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N12" s="1" t="b">
         <f t="shared" si="1"/>
@@ -2904,35 +3629,26 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q12" s="4">
-        <v>0.116301</v>
-      </c>
-      <c r="R12" s="4">
-        <v>0.18454400000000001</v>
-      </c>
-      <c r="S12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="T12" s="13">
-        <v>45968</v>
-      </c>
-      <c r="U12" s="9"/>
-    </row>
-    <row r="13" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+      <c r="S12" s="12">
+        <v>45969</v>
+      </c>
+      <c r="T12" s="8"/>
+    </row>
+    <row r="13" spans="1:20" ht="75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="D13" s="4">
         <v>0.1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>18</v>
@@ -2941,20 +3657,20 @@
         <v>1</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>GVSLTESGGGTVAPGSSVTLSCKASGFNFSKYSHAWVRQAPGQGLTWVGEISPDGSKTRYASSVAGRFTISRDNSNSTVYLQMSSLTPSDTATYYCGIIPGDSVHGERSMSHWGQGTLLTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTLNCTASRPIGDRLSWYKQKPGQAPQLLIYRASTLAPGVSSRYSGSGSDTQFTLTISSLQSDDFATYYCQQTSSYPVTFGQGTTITKK</v>
+        <v>AVSLVESGGGTYAPGSSVTLSCQGSGFNFSKVRKVWVRQPPGGPLEYVAEISPDGSTTTYASSVAGRFTISKDNSNSTLYLSMSNLTPADTATYYCGLIPGDSEHGDRSISHWGQGTLVTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTINCTASQPIGNFLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTNFTLTISSLQSEDFATYYCQQTSRLPVTFGQGTTINKK</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" si="2"/>
@@ -2976,31 +3692,28 @@
         <v>0</v>
       </c>
       <c r="R13" s="4">
-        <v>4.8060000000000004E-3</v>
-      </c>
-      <c r="S13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="T13" s="13">
-        <v>45968</v>
-      </c>
-      <c r="U13" s="9"/>
-    </row>
-    <row r="14" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="12">
+        <v>45969</v>
+      </c>
+      <c r="T13" s="8"/>
+    </row>
+    <row r="14" spans="1:20" ht="75" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D14" s="4">
         <v>0.1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>18</v>
@@ -3009,24 +3722,24 @@
         <v>1</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="J14" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">EVSLVESGGGTVKPGESVTLSCQASGFNFSKYRLAWVRQPPGQGLVWVSEISPDGTEVKYHPDVKGRFTASRDNSNSTAYLKMNNLQPSDTATYYCGIIPQDSSHGDYSISHWGQGTQLTVSAGGGSGGGSGGGSGGGSTITLTQSPSSLSASVGDTVTINCTASRPIGDFLSWYKQKPGQPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSDDFATYYCQQTYTLPITFGQGTTLTKK </v>
+        <v>GISLVESGGGTVKPGESVTLSCKASGFVFSKYSHAWVRQPPGGPLEWVSQISSDGSVTRYASSVSGRFTISRDNSNSTVYLQMNNLRPSDTATYYCGIIPQDNVHGDYAISHWGQGTLLTVTAGGGSGGGSGGGSGGGSAITLTQSPASLSAKVGDTVTLSCTASRPIGDLLSWYKQKPGQPPQLLIYRASTLAPGVDSRYSGSGSDTSFTLTISSLQPEDFATYYCQQTSRFPITFGQGTTIKQA</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="2"/>
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N14" s="1" t="b">
         <f t="shared" si="1"/>
@@ -3040,23 +3753,32 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="U14" s="9"/>
-    </row>
-    <row r="15" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+      <c r="Q14" s="4">
+        <v>5.7704999999999999E-2</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0.165157</v>
+      </c>
+      <c r="S14" s="12">
+        <v>45968</v>
+      </c>
+      <c r="T14" s="8"/>
+    </row>
+    <row r="15" spans="1:20" ht="75" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D15" s="4">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>18</v>
@@ -3065,24 +3787,24 @@
         <v>1</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J15" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>AVSLVESGGGTYAPGSSVTLSCQGSGFNFSKVRKVWVRQPPGGPLEYVAEISPDGSTTTYASSVAGRFTISKDNSNSTLYLSMSNLTPADTATYYCGLIPGDSEHGDRSISHWGQGTLVTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTINCTASQPIGNFLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTNFTLTISSLQSEDFATYYCQQTSRLPVTFGQGTTINKK</v>
+        <v xml:space="preserve">PVSLVESGGGTVAPGSSVTLTCQASGFNFSKYIVAWVRQPPGQPLRFVAMITPDGSKVWLHPEVEGRFTPSKDNSKNTSYLQLKDLQPEDTATYYCGIIPQGSTHGDYSITHWGQGVVLTVTAGGGSGGGSGGGSGGGSMVTLTQSPSSLSASVGDTVTITCTASSPVDNLMSWYQQPPGQPLRLLIYNASTRAPGVSSRFSGSGSDTNFTLTISSLQASDFATYYCQQTYRLPVTFGQGTTLSAA </v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="2"/>
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N15" s="1" t="b">
         <f t="shared" si="1"/>
@@ -3096,32 +3818,26 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q15" s="4">
-        <v>0</v>
-      </c>
-      <c r="R15" s="4">
-        <v>0</v>
-      </c>
-      <c r="S15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U15" s="9"/>
-    </row>
-    <row r="16" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+      <c r="S15" s="12">
+        <v>45969</v>
+      </c>
+      <c r="T15" s="8"/>
+    </row>
+    <row r="16" spans="1:20" ht="75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D16" s="4">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>18</v>
@@ -3130,20 +3846,20 @@
         <v>1</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="J16" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>GISLVESGGGTVKPGESVTLSCKASGFVFSKYSHAWVRQPPGGPLEWVSQISSDGSVTRYASSVSGRFTISRDNSNSTVYLQMNNLRPSDTATYYCGIIPQDNVHGDYAISHWGQGTLLTVTAGGGSGGGSGGGSGGGSAITLTQSPASLSAKVGDTVTLSCTASRPIGDLLSWYKQKPGQPPQLLIYRASTLAPGVDSRYSGSGSDTSFTLTISSLQPEDFATYYCQQTSRFPITFGQGTTIKQA</v>
+        <v>SIKLTESGGGTVKPGSSVTLSCQASGFNFSKYEVVWVMQKPGQPLQWVGSISPDGSKVRLHPKVKGRFTLSKDNSKNTAYLTMKNLQPEDTATYYCGIIPGGSVHGDRSITHWGQGVELKVVAGGGSGGGSGGGSGGGSMIKLTQSPKSVKAKVGDTVTITCTASEPVDDLVSWYQQKPGQPLRLLIYRSSTLAPGVSSRFSGSGSDTNFTLTISSLQEEDFATYYCMQTSKYPYTFGQGTTLSRA</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" si="2"/>
@@ -3162,35 +3878,31 @@
         <v>1</v>
       </c>
       <c r="Q16" s="4">
-        <v>5.7704999999999999E-2</v>
+        <v>0.15156800000000001</v>
       </c>
       <c r="R16" s="4">
-        <v>0.165157</v>
-      </c>
-      <c r="S16" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="T16" s="13">
+        <v>0.23256399999999999</v>
+      </c>
+      <c r="S16" s="12">
         <v>45968</v>
       </c>
-      <c r="U16" s="9"/>
-    </row>
-    <row r="17" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+      <c r="T16" s="8"/>
+    </row>
+    <row r="17" spans="1:20" ht="75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D17" s="4">
         <v>0.15</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>18</v>
@@ -3199,24 +3911,24 @@
         <v>1</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J17" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PVSLVESGGGTVAPGSSVTLTCQASGFNFSKYIVAWVRQPPGQPLRFVAMITPDGSKVWLHPEVEGRFTPSKDNSKNTSYLQLKDLQPEDTATYYCGIIPQGSTHGDYSITHWGQGVVLTVTAGGGSGGGSGGGSGGGSMVTLTQSPSSLSASVGDTVTITCTASSPVDNLMSWYQQPPGQPLRLLIYNASTRAPGVSSRFSGSGSDTNFTLTISSLQASDFATYYCQQTYRLPVTFGQGTTLSAA </v>
+        <v>AITLTESGGGVVAPGSSVTLTCTASGFNFSKYSMVWVRQPPGGPLQWVAQISPDNSTVRYHPAVEGRFTASKDNSKNTAYLAMSDLEPSDTATYYCGIIPQGSTHNDYSIVHWGQGTELRVVAGGGSGGGSGGGSGGGSMIKLTQSPSSLSAKVGDKVTITCTASSPVDNLVSWYKQPPGGPLQLLIYNSSTRAPGVSSRFKGSGSDTNFTLTIESLQEEDFATYYCQQTYKFPITFGQGTKLTRA</v>
       </c>
       <c r="M17" s="1">
         <f t="shared" si="2"/>
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N17" s="1" t="b">
         <f t="shared" si="1"/>
@@ -3230,23 +3942,32 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="U17" s="9"/>
-    </row>
-    <row r="18" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+      <c r="Q17" s="4">
+        <v>0</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+      <c r="S17" s="12">
+        <v>45969</v>
+      </c>
+      <c r="T17" s="8"/>
+    </row>
+    <row r="18" spans="1:20" ht="75" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D18" s="4">
         <v>0.15</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>18</v>
@@ -3255,20 +3976,20 @@
         <v>1</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J18" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>SIKLTESGGGTVKPGSSVTLSCQASGFNFSKYEVVWVMQKPGQPLQWVGSISPDGSKVRLHPKVKGRFTLSKDNSKNTAYLTMKNLQPEDTATYYCGIIPGGSVHGDRSITHWGQGVELKVVAGGGSGGGSGGGSGGGSMIKLTQSPKSVKAKVGDTVTITCTASEPVDDLVSWYQQKPGQPLRLLIYRSSTLAPGVSSRFSGSGSDTNFTLTISSLQEEDFATYYCMQTSKYPYTFGQGTTLSRA</v>
+        <v>SISLTESGGGTVAPGSSVTLTCTASGFNFSKYSVAWVRQPPGQPLQWVALISPDGSKKWYHPDVKGRATISKDNSKNTSYLTLSNLQPSDTATYYCGIIPGGNIHGDYSMTHWGQGTQLTVVAGGGSGGGSGGGSGGGSMITLTQSPLSLSAKVGDTVTITCTASSPVDDLVSWYQQKPGQPLRLLIRNASERAPGVSSRFSGSGSDTTFTLTISSVQEEDFATYYCQQTSKLPYTFGQGTTLSRA</v>
       </c>
       <c r="M18" s="1">
         <f t="shared" si="2"/>
@@ -3287,35 +4008,28 @@
         <v>1</v>
       </c>
       <c r="Q18" s="4">
-        <v>0.15156800000000001</v>
+        <v>0</v>
       </c>
       <c r="R18" s="4">
-        <v>0.23256399999999999</v>
-      </c>
-      <c r="S18" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="T18" s="13">
-        <v>45968</v>
-      </c>
-      <c r="U18" s="9"/>
-    </row>
-    <row r="19" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T18" s="8"/>
+    </row>
+    <row r="19" spans="1:20" ht="75" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D19" s="4">
         <v>0.15</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>18</v>
@@ -3324,20 +4038,20 @@
         <v>1</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J19" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>AITLTESGGGVVAPGSSVTLTCTASGFNFSKYSMVWVRQPPGGPLQWVAQISPDNSTVRYHPAVEGRFTASKDNSKNTAYLAMSDLEPSDTATYYCGIIPQGSTHNDYSIVHWGQGTELRVVAGGGSGGGSGGGSGGGSMIKLTQSPSSLSAKVGDKVTITCTASSPVDNLVSWYKQPPGGPLQLLIYNSSTRAPGVSSRFKGSGSDTNFTLTIESLQEEDFATYYCQQTYKFPITFGQGTKLTRA</v>
+        <v>AVTLTESGGGTVAPGSSVTLTCTASGFNFSKYILAWVRQAPGQPLEWVASISPDGSKTRYHPAVKGRATASKDNSKNTAYLELKDLRPEDTATYYCGIIPQGSVHGDYSMTHWGQGTELRVEAGGGSGGGSGGGSGGGSPVVLTQSPLSLSAKVGDTVTITCTASSPVDNLVSWYKQAPGQPLQLLIYNATTRAPGVPSRFTGSGSDTTFTLTISSLQPEDFAVYYCQQTYKFPITFGQGTRLTPA</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" si="2"/>
@@ -3359,28 +4073,25 @@
         <v>0</v>
       </c>
       <c r="R19" s="4">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U19" s="9"/>
-    </row>
-    <row r="20" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+        <v>6.1079999999999997E-3</v>
+      </c>
+      <c r="T19" s="8"/>
+    </row>
+    <row r="20" spans="1:20" ht="75" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D20" s="4">
         <v>0.15</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>18</v>
@@ -3389,20 +4100,20 @@
         <v>1</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J20" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>SISLTESGGGTVAPGSSVTLTCTASGFNFSKYSVAWVRQPPGQPLQWVALISPDGSKKWYHPDVKGRATISKDNSKNTSYLTLSNLQPSDTATYYCGIIPGGNIHGDYSMTHWGQGTQLTVVAGGGSGGGSGGGSGGGSMITLTQSPLSLSAKVGDTVTITCTASSPVDDLVSWYQQKPGQPLRLLIRNASERAPGVSSRFSGSGSDTTFTLTISSVQEEDFATYYCQQTSKLPYTFGQGTTLSRA</v>
+        <v>PVKLVESGGGTVAPGSSVTLTCKASGFNFSKYMVQWVRQAPGGAFQWVGLISPDGSTKWYHPDVEGRFTISKDNSKNTAYLEMRNLTPADTAVYYCGIVPQGSVHGDYSITHWGQGVTLTVTAGGGSGGGSGGGSGGGSVVQLTQSPPELSAKVGEKVTITCTASSPVDNLVSWYQQKPGGAPKLLIYNATTLAPGVPSRFSGSGSDTVFTLTIDSLQAEDFATYYCQQTSRLPFTFGQGTVLRPA</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" si="2"/>
@@ -3426,26 +4137,23 @@
       <c r="R20" s="4">
         <v>0</v>
       </c>
-      <c r="S20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U20" s="9"/>
-    </row>
-    <row r="21" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+      <c r="T20" s="8"/>
+    </row>
+    <row r="21" spans="1:20" ht="75" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D21" s="4">
         <v>0.15</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>18</v>
@@ -3454,20 +4162,20 @@
         <v>1</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J21" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>AVTLTESGGGTVAPGSSVTLTCTASGFNFSKYILAWVRQAPGQPLEWVASISPDGSKTRYHPAVKGRATASKDNSKNTAYLELKDLRPEDTATYYCGIIPQGSVHGDYSMTHWGQGTELRVEAGGGSGGGSGGGSGGGSPVVLTQSPLSLSAKVGDTVTITCTASSPVDNLVSWYKQAPGQPLQLLIYNATTRAPGVPSRFTGSGSDTTFTLTISSLQPEDFAVYYCQQTYKFPITFGQGTRLTPA</v>
+        <v>AIKLTESGGGTVKPGSSVTLTCQASGFNFSKYIMAWVRQAPGQPLQWVAQISPDNSVKRYHPEVEGRFTASKDNSKNTAYLEMKNLTPADTATYYCAIIPQGSTQGDYSMVHWGQGVELKVVAGGGSGGGSGGGSGGGSPVVLTQSPASLKAAVGDTVTITCTASAPVDNLVSWYKQAPGQPPQLLIYNASTLAPGVPSRFTGSGSDTSFTLTISSLQEEDFATYYCQETSKFPITFGQGTKLEKK</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" si="2"/>
@@ -3489,28 +4197,25 @@
         <v>0</v>
       </c>
       <c r="R21" s="4">
-        <v>6.1079999999999997E-3</v>
-      </c>
-      <c r="S21" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="U21" s="9"/>
-    </row>
-    <row r="22" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+      <c r="T21" s="8"/>
+    </row>
+    <row r="22" spans="1:20" ht="75" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D22" s="4">
         <v>0.15</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>18</v>
@@ -3519,20 +4224,20 @@
         <v>1</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J22" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>PVKLVESGGGTVAPGSSVTLTCKASGFNFSKYMVQWVRQAPGGAFQWVGLISPDGSTKWYHPDVEGRFTISKDNSKNTAYLEMRNLTPADTAVYYCGIVPQGSVHGDYSITHWGQGVTLTVTAGGGSGGGSGGGSGGGSVVQLTQSPPELSAKVGEKVTITCTASSPVDNLVSWYQQKPGGAPKLLIYNATTLAPGVPSRFSGSGSDTVFTLTIDSLQAEDFATYYCQQTSRLPFTFGQGTVLRPA</v>
+        <v>SIKLTESGGGVVAPGESVTLTCTASGFNFSKYEMAWVRQAPGGPLEFVAVISPDGSTTRYHPRVEGRATISRDNSKNTAYLTLRDLTPADTAVYYCGIIPGGSVHGDRALSHWGQGVRLEVRAGGGSGGGSGGGSGGGSMVTLTQSPSSLSAKVGDKVTISCTASEPVDDLVSWYKQAPGGPPQLLISRASTRAPGVPSRFSGSGSDTNFTLTIESLQSSDFATYYCQQTYKFPDTFGQGTTLSEA</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="2"/>
@@ -3554,54 +4259,51 @@
         <v>0</v>
       </c>
       <c r="R22" s="4">
-        <v>0</v>
-      </c>
-      <c r="S22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U22" s="9"/>
-    </row>
-    <row r="23" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+        <v>5.0870000000000004E-3</v>
+      </c>
+      <c r="T22" s="8"/>
+    </row>
+    <row r="23" spans="1:20" ht="75" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="D23" s="4">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="G23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="J23" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="L23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>AIKLTESGGGTVKPGSSVTLTCQASGFNFSKYIMAWVRQAPGQPLQWVAQISPDNSVKRYHPEVEGRFTASKDNSKNTAYLEMKNLTPADTATYYCAIIPQGSTQGDYSMVHWGQGVELKVVAGGGSGGGSGGGSGGGSPVVLTQSPASLKAAVGDTVTITCTASAPVDNLVSWYKQAPGQPPQLLIYNASTLAPGVPSRFTGSGSDTSFTLTISSLQEEDFATYYCQETSKFPITFGQGTKLEKK</v>
+        <v xml:space="preserve">SVTLVESGDQTVAPGGSVTLSCTSSGGSFGNSGVSWVKQQPGGPLQWIGGIIPSLGISKVSPEYAGRVTISSDSSNNTAYLTISNLTAADTATYYCALGEGEDVFASSPFASNVNLGALSVWGQGTKVTVSGGGSGGGSGGGSITVTQSPSSPSLKVGETATLTCTLSAPVPRSNVAWYKQQPGQPPTLLIYGGSTRAPGVPSRYSGSGSGTTFTLTITALKPEDFATYYCQVYGENPSFGQGTTLKLK </v>
       </c>
       <c r="M23" s="1">
         <f t="shared" si="2"/>
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="N23" s="1" t="b">
         <f t="shared" si="1"/>
@@ -3615,58 +4317,49 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q23" s="4">
-        <v>0</v>
-      </c>
-      <c r="R23" s="4">
-        <v>0</v>
-      </c>
-      <c r="S23" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U23" s="9"/>
-    </row>
-    <row r="24" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+      <c r="T23" s="8"/>
+    </row>
+    <row r="24" spans="1:20" ht="75" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="D24" s="4">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="G24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="J24" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="L24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>SIKLTESGGGVVAPGESVTLTCTASGFNFSKYEMAWVRQAPGGPLEFVAVISPDGSTTRYHPRVEGRATISRDNSKNTAYLTLRDLTPADTAVYYCGIIPGGSVHGDRALSHWGQGVRLEVRAGGGSGGGSGGGSGGGSMVTLTQSPSSLSAKVGDKVTISCTASEPVDDLVSWYKQAPGGPPQLLISRASTRAPGVPSRFSGSGSDTNFTLTIESLQSSDFATYYCQQTYKFPDTFGQGTTLSEA</v>
+        <v>GVKLVQSGDLTVKPGGSVTLSCKSEGGSFGNSSVAWVRQRPGGPYEYIGSIIPAYGVSRVSPEYEGRVTISADVANNTAYLTISNLTPEDTATYYCALGPGEVVYAASPFDEKLLTGALSVWGEGTLVTVTGGGSGGGSGGGSITVTQSPSSPSLSVGDTATLTCTLSSSVATSNVAWYKQLPGQPPELLISGGSTRAPGVPSRYSGSGSGTTFTLTISSLQASDFATYYCQVYGENPSFGQGTTLTLK</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" si="2"/>
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="N24" s="1" t="b">
         <f t="shared" si="1"/>
@@ -3681,57 +4374,57 @@
         <v>1</v>
       </c>
       <c r="Q24" s="4">
-        <v>0</v>
+        <v>0.31751499999999999</v>
       </c>
       <c r="R24" s="4">
-        <v>5.0870000000000004E-3</v>
-      </c>
-      <c r="S24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U24" s="9"/>
-    </row>
-    <row r="25" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+        <v>0.405559</v>
+      </c>
+      <c r="S24" s="12">
+        <v>45968</v>
+      </c>
+      <c r="T24" s="8"/>
+    </row>
+    <row r="25" spans="1:20" ht="75" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D25" s="4">
         <v>0.1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G25" s="1">
         <v>2</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J25" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="L25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">SVTLVESGDQTVAPGGSVTLSCTSSGGSFGNSGVSWVKQQPGGPLQWIGGIIPSLGISKVSPEYAGRVTISSDSSNNTAYLTISNLTAADTATYYCALGEGEDVFASSPFASNVNLGALSVWGQGTKVTVSGGGSGGGSGGGSITVTQSPSSPSLKVGETATLTCTLSAPVPRSNVAWYKQQPGQPPTLLIYGGSTRAPGVPSRYSGSGSGTTFTLTITALKPEDFATYYCQVYGENPSFGQGTTLKLK </v>
+        <v>AVKLVQSGDQTVAPGGSVTLSCTSSGGSFGNSSVAWVRQRPGGPFEFIGSIIPSLGISRYNSKYKGRVTISSDAANNTAYLTISNLTAADTATYYCALGPGESVFASHPFKEKLLTGALSVWGEGTLVTVSGGGSGGGSGGGSITVTQSPSSPSKSVGDTVTLTCTLSSSVPVSQVAWYKQHPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLQPEDFATYYCQVYGEEPSFGQGTTVTLA</v>
       </c>
       <c r="M25" s="1">
         <f t="shared" si="2"/>
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N25" s="1" t="b">
         <f t="shared" si="1"/>
@@ -3745,45 +4438,54 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="U25" s="9"/>
-    </row>
-    <row r="26" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+      <c r="Q25" s="4">
+        <v>0.64176299999999997</v>
+      </c>
+      <c r="R25" s="4">
+        <v>0.69121100000000002</v>
+      </c>
+      <c r="S25" s="12">
+        <v>45968</v>
+      </c>
+      <c r="T25" s="8"/>
+    </row>
+    <row r="26" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D26" s="4">
         <v>0.1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G26" s="1">
         <v>2</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J26" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="L26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>GVKLVQSGDLTVKPGGSVTLSCKSEGGSFGNSSVAWVRQRPGGPYEYIGSIIPAYGVSRVSPEYEGRVTISADVANNTAYLTISNLTPEDTATYYCALGPGEVVYAASPFDEKLLTGALSVWGEGTLVTVTGGGSGGGSGGGSITVTQSPSSPSLSVGDTATLTCTLSSSVATSNVAWYKQLPGQPPELLISGGSTRAPGVPSRYSGSGSGTTFTLTISSLQASDFATYYCQVYGENPSFGQGTTLTLK</v>
+        <v>SITLVQSGDVTVAPGGSVTLTCTSSGGSFGNKAVAWVRQRPGGPYEWLGFIIPAYGVSRYNPAYEGRVTISVDSASNTASLTISNLTAADTATYYCALGEGEIVYAASPFDENYKLGALYIWGQGTKVTVSGGGSGGGSGGGSITLTQSPSSPSLSVGETATLTCTASAPVPKSNVAWYKQLPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLTADDFATYYCQVYGENPSFGEGTTLTLK</v>
       </c>
       <c r="M26" s="1">
         <f t="shared" si="2"/>
@@ -3802,56 +4504,49 @@
         <v>1</v>
       </c>
       <c r="Q26" s="4">
-        <v>0.31751499999999999</v>
+        <v>5.2189999999999997E-3</v>
       </c>
       <c r="R26" s="4">
-        <v>0.405559</v>
-      </c>
-      <c r="S26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="T26" s="13">
-        <v>45968</v>
-      </c>
-      <c r="U26" s="9"/>
-    </row>
-    <row r="27" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+        <v>5.4400000000000004E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="D27" s="4">
         <v>0.1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G27" s="1">
         <v>2</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J27" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="L27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>AVKLVQSGDQTVAPGGSVTLSCTSSGGSFGNSSVAWVRQRPGGPFEFIGSIIPSLGISRYNSKYKGRVTISSDAANNTAYLTISNLTAADTATYYCALGPGESVFASHPFKEKLLTGALSVWGEGTLVTVSGGGSGGGSGGGSITVTQSPSSPSKSVGDTVTLTCTLSSSVPVSQVAWYKQHPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLQPEDFATYYCQVYGEEPSFGQGTTVTLA</v>
+        <v>SVTLVQSGDQTVPIGGSVTLSCTANGGSFGNKGVAWVRQRPGGPYEFLGFIKPAIGESRYHPKYKGRVTISSDVSSNTAYLTISNLTPEDTAVYYCALGEAEDVFAAHPFKTDLLLGALSIWGQGTRVTVTGGGSGGGSGGGSITVTQSPSSPSLSVGETAVLTCTLSQPVPQSQVAWYKQLPGQPPTLLISGGSTRASGVPSRYSGSGSGTTFTLTISSLLPEDFATYYCQVVGKEPSFGQGTTLTLK</v>
       </c>
       <c r="M27" s="1">
         <f t="shared" si="2"/>
@@ -3870,56 +4565,49 @@
         <v>1</v>
       </c>
       <c r="Q27" s="4">
-        <v>0.64176299999999997</v>
+        <v>0</v>
       </c>
       <c r="R27" s="4">
-        <v>0.69121100000000002</v>
-      </c>
-      <c r="S27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="T27" s="13">
-        <v>45968</v>
-      </c>
-      <c r="U27" s="9"/>
-    </row>
-    <row r="28" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D28" s="4">
         <v>0.1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G28" s="1">
         <v>2</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="J28" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="L28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>SITLVQSGDVTVAPGGSVTLTCTSSGGSFGNKAVAWVRQRPGGPYEWLGFIIPAYGVSRYNPAYEGRVTISVDSASNTASLTISNLTAADTATYYCALGEGEIVYAASPFDENYKLGALYIWGQGTKVTVSGGGSGGGSGGGSITLTQSPSSPSLSVGETATLTCTASAPVPKSNVAWYKQLPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLTADDFATYYCQVYGENPSFGEGTTLTLK</v>
+        <v>SVKLVQSGDQTVPVGGSVTLSCTASGGSFGNYGVAWVRQRPGGPLEYIGSIIPAYGISTVNPKYEGRVTISADPTNNTAYLTISNLTPEDTATYYCALGPGEVVFASSPFDIDVLTGALWVWGEGTKVTVTGGGSGGGSGGGSITVTQSPSSPSLKVGETATLTCTLSAPVAKSNVAWYKQLPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLQPEDFATYYCQVVGKNPSFGQGTLLKLK</v>
       </c>
       <c r="M28" s="1">
         <f t="shared" si="2"/>
@@ -3938,52 +4626,49 @@
         <v>1</v>
       </c>
       <c r="Q28" s="4">
-        <v>5.2189999999999997E-3</v>
+        <v>5.1520000000000003E-3</v>
       </c>
       <c r="R28" s="4">
-        <v>5.4400000000000004E-3</v>
-      </c>
-      <c r="S28" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+        <v>5.3605E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D29" s="4">
         <v>0.1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G29" s="1">
         <v>2</v>
       </c>
       <c r="H29" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="J29" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="L29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>SVTLVQSGDQTVPIGGSVTLSCTANGGSFGNKGVAWVRQRPGGPYEFLGFIKPAIGESRYHPKYKGRVTISSDVSSNTAYLTISNLTPEDTAVYYCALGEAEDVFAAHPFKTDLLLGALSIWGQGTRVTVTGGGSGGGSGGGSITVTQSPSSPSLSVGETAVLTCTLSQPVPQSQVAWYKQLPGQPPTLLISGGSTRASGVPSRYSGSGSGTTFTLTISSLLPEDFATYYCQVVGKEPSFGQGTTLTLK</v>
+        <v>SISLVQSSDQTVAPGGSVTLSCTSSGGSFGNSGVAWVRQAPGGPPVYIGGIIPATGVSTYNAAFKGRVTISSDSSNNTAYLTISGLTAADTATYYCALGPAENVFASHPFAEDVNLGALSVWGQGTLVTVTGGGSGGGSGGGSITVTESPSSPELSVGETAVLSCTLSSSVPQSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLEPEDFATYYCQVYGTSPSFGQGTTLKLK</v>
       </c>
       <c r="M29" s="1">
         <f t="shared" si="2"/>
@@ -4002,52 +4687,52 @@
         <v>1</v>
       </c>
       <c r="Q29" s="4">
-        <v>0</v>
+        <v>0.32629000000000002</v>
       </c>
       <c r="R29" s="4">
-        <v>0</v>
-      </c>
-      <c r="S29" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+        <v>0.41575699999999999</v>
+      </c>
+      <c r="S29" s="12">
+        <v>45968</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D30" s="4">
         <v>0.1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G30" s="1">
         <v>2</v>
       </c>
       <c r="H30" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="J30" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="L30" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>SVKLVQSGDQTVPVGGSVTLSCTASGGSFGNYGVAWVRQRPGGPLEYIGSIIPAYGISTVNPKYEGRVTISADPTNNTAYLTISNLTPEDTATYYCALGPGEVVFASSPFDIDVLTGALWVWGEGTKVTVTGGGSGGGSGGGSITVTQSPSSPSLKVGETATLTCTLSAPVAKSNVAWYKQLPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLQPEDFATYYCQVVGKNPSFGQGTLLKLK</v>
+        <v>AVSLVESGDQTVAPGGSVTLSCTSSGGSFGNSGVAWVRQAPGGPLEFLGFIIPALGVSKVNSKYEGRVTISSDPANNTAYLTISNLTAADTATYYCGLGTGESVFASSPFDEKLLLGALSVWGQGTKVTVTGGGSGGGSGGGSITVTQSPASPEKKVGETATLTCTLSSAVPKSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLQPEDFATYYCRVYGEEPSFGQGTTLKLK</v>
       </c>
       <c r="M30" s="1">
         <f t="shared" si="2"/>
@@ -4066,177 +4751,984 @@
         <v>1</v>
       </c>
       <c r="Q30" s="4">
-        <v>5.1520000000000003E-3</v>
+        <v>0.50901600000000002</v>
       </c>
       <c r="R30" s="4">
-        <v>5.3605E-2</v>
-      </c>
-      <c r="S30" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+        <v>0.56638100000000002</v>
+      </c>
+      <c r="S30" s="12">
+        <v>45968</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="D31" s="4">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G31" s="1">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="J31" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="L31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>SISLVQSSDQTVAPGGSVTLSCTSSGGSFGNSGVAWVRQAPGGPPVYIGGIIPATGVSTYNAAFKGRVTISSDSSNNTAYLTISGLTAADTATYYCALGPAENVFASHPFAEDVNLGALSVWGQGTLVTVTGGGSGGGSGGGSITVTESPSSPELSVGETAVLSCTLSSSVPQSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLEPEDFATYYCQVYGTSPSFGQGTTLKLK</v>
+        <v>VQLQESGPGLVKPSQSLSLTCTVTGYSITTGYAWNWIRQFPGNKLEWMGYISYSGSTYYPSLKSRISITRDTSKNQFFLQLSIVTTEDTATYYCARGTTLPDYVDFWGQGTSVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQTISTYLNWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYFCLQHFWTPPITFGQGTRLEIK</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="2"/>
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="N31" s="1" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O31" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q31" s="4">
-        <v>0.32629000000000002</v>
-      </c>
-      <c r="R31" s="4">
-        <v>0.41575699999999999</v>
-      </c>
-      <c r="S31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="T31" s="13">
-        <v>45968</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="64" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>116</v>
+        <v>186</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="D32" s="4">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G32" s="1">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="J32" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="L32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>AVSLVESGDQTVAPGGSVTLSCTSSGGSFGNSGVAWVRQAPGGPLEFLGFIIPALGVSKVNSKYEGRVTISSDPANNTAYLTISNLTAADTATYYCGLGTGESVFASSPFDEKLLLGALSVWGQGTKVTVTGGGSGGGSGGGSITVTQSPASPEKKVGETATLTCTLSSAVPKSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLQPEDFATYYCRVYGEEPSFGQGTTLKLK</v>
+        <v>QVQLQESGPGLVKPSETLSVTCTVSGGSIGSNNYWSWIRQPAGKGLEWIGYIYYSGSTNYNPSLKSRVTMSVDTSKNQFSLKLSSVTAADTAVYYCVRNYYDSSDSSGYYFMDVWGQGTTVTVSSGGGSGGGSGGGSDIVMTQSPLSLSVTPGEPASISCRSSQSLLHSNGYNYLDWYLQKPGQSPQLLIYLGSNRASGVPDRFSGSGSGTDFTLKISRVEAEDVGVYYCMQALQTPTFGQGTRLEIK</v>
       </c>
       <c r="M32" s="1">
         <f t="shared" si="2"/>
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N32" s="1" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O32" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" s="1" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="Q32" s="4">
-        <v>0.50901600000000002</v>
-      </c>
-      <c r="R32" s="4">
-        <v>0.56638100000000002</v>
-      </c>
-      <c r="S32" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="T32" s="13">
-        <v>45968</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>QVQLVQSGAEVKKPGESLKISCKGSGYRFSSYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAMYYCARQGPDYYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSTLSASVGDRVTITCRASQSISSWLAWYQQKPGKAPKLLIYKASELQSGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQQYINSYTFGQGTKVEIK</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="2"/>
+        <v>242</v>
+      </c>
+      <c r="N33" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P33" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>QVQLQQSGPELVKPGASVKLSCKASGYTFTDYYMHWVKQRPGQGLEWIGEINPNSGGTNTYDQKFKGRATLTVDKSSSTAYLQLSSLTSEDSAVYYCARSPPWYFDYWGQGTTLTVSGGGSGGGSGGGSGGGSDIVMTQSPSSMFASVGETVTITCRASENIYSNLAWYQQKPGQSPKLLIYWASTRHTGVPDRFTGSGSGTDFTLTISSVQAEDLALYYCQHYGSYSFTFGSGTKLEIK</v>
+      </c>
+      <c r="M34" s="1">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="N34" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRNYVYSSGYLDFWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSYSSPPTFGQGTKVEIK</v>
+      </c>
+      <c r="M35" s="1">
+        <f t="shared" si="2"/>
+        <v>246</v>
+      </c>
+      <c r="N35" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNIYYSSIHWVRQAPGKGLEWVASISPYYGSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARDYGHYYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVMTQSPATLSVSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYGASTRATGIPARFSGSGSGTEFTLTISSLQSEDSAVYYCQQYNNWPPITFGQGTRLEIK</v>
+      </c>
+      <c r="M36" s="1">
+        <f t="shared" si="2"/>
+        <v>244</v>
+      </c>
+      <c r="N36" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>QVQLQESGPGLVKPSETLSLSCVVSGDSSSTNYYWGWIRQPPGKGLEWIGYIYGSGDTAYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARRSWGYGYNGYSTYYYYYYFDQGYFDVWGPGTLVTGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSIGSYLNWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTEFTLTISSLQPEDFATYYCQQSYSWGQGTKVEIK</v>
+      </c>
+      <c r="M37" s="1">
+        <f t="shared" si="2"/>
+        <v>247</v>
+      </c>
+      <c r="N37" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P37" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>QVQLVQSGAEVKKPGASVKVSCKASGYTFTSYGISWVRQAPGQGLEWMGWISAHNGDTNYAQKFQGRVTMTRDTSITTAYMELRSDDTAVYYCARDGSVGGFYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPITFGQGTRLEIK</v>
+      </c>
+      <c r="M38" s="1">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+      <c r="N38" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J39" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLLESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASISPYYGSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSYYWYWSGWGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSYGSPPTFGQGTKVEIK</v>
+      </c>
+      <c r="M39" s="1">
+        <f t="shared" si="2"/>
+        <v>238</v>
+      </c>
+      <c r="N39" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGHYAWWIRQPPGKGLEWIACIYSSSGSTYYNPSLKSRITISVDTSKNQFSLKLSSVTAADTAVYYCARRQRGYDYDYYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISRNLAWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSNNWPITFGQGTKVEIK</v>
+      </c>
+      <c r="M40" s="1">
+        <f t="shared" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="N40" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P40" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNIYYSSIHWVRQAPGKGLEWVASIYSYYSSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARVYGYLSYSYFYWGLDVWGQGTLVTVSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEI</v>
+      </c>
+      <c r="M41" s="1">
+        <f t="shared" si="2"/>
+        <v>246</v>
+      </c>
+      <c r="N41" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P41" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLQQSGAELVKPGASVKLSCTASGFNIKDTYVHWVKQRPEQGLEWIGRIDPANGYTKYDPKFQGKATITADTSSNTAYLQLSSLTSEDTAVYYCVRPLYDYYAMDYWGQGTTLTVSSGGGSGGGSGGGSGGGSDIVMTQSPSSLAMSAGRVSITCRTSQSISSYLNWVQQKPGKSPKLLIYWASTRESGVPDRFTGSGSGTDFTLTISRVEAEDLGVYYCMQGTHVPYTFGGGTKLEIK</v>
+      </c>
+      <c r="M42" s="1">
+        <f t="shared" si="2"/>
+        <v>241</v>
+      </c>
+      <c r="N42" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P42" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLVESGGGLVKPGGSLRLSCAASGFTFSSYAMHWVRQAPGKGLEWVSAISGGGGSTYYADSVKGRFTISRDNSKNTLYLQMRAEDTAVYYCAKDDADWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPFTFGQGTKVEIK</v>
+      </c>
+      <c r="M43" s="1">
+        <f t="shared" si="2"/>
+        <v>233</v>
+      </c>
+      <c r="N43" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P43" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGSYYWIRQSPGKGLEWIGYIYYSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARHRYYDRGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPASLSASVGETVTITCRASENIYSNLAWYQQKQGKSPQLLVYAATDLADGVPSRFSGSGSGTQFSLKINSLQPEDFGSYYCQHFWDTPWTFGQGTRVE</v>
+      </c>
+      <c r="M44" s="1">
+        <f t="shared" si="2"/>
+        <v>234</v>
+      </c>
+      <c r="N44" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P44" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNLYSSSIHWVRQAPGKGLEWVAYISSSGTHYADSVKGRFTISADTSKNTAYLQMRAEDTAVYYCARVGHYYSSGGYYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYSSYWTFGQGTKVEIK</v>
+      </c>
+      <c r="M45" s="1">
+        <f t="shared" si="2"/>
+        <v>242</v>
+      </c>
+      <c r="N45" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P45" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J46" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVVDSGISWVRQAPGKGLEWVSYISSSSGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARAHYYGSYFGSVVYYYGLDVWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYDTYPITFGQGTKVEIK</v>
+      </c>
+      <c r="M46" s="1">
+        <f t="shared" si="2"/>
+        <v>247</v>
+      </c>
+      <c r="N46" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P46" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVYSSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSYSTYYYGYWYFDVWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSAAVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYNYYWLITFGQGTKVEIK</v>
+      </c>
+      <c r="M47" s="1">
+        <f t="shared" si="2"/>
+        <v>247</v>
+      </c>
+      <c r="N47" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P47" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>QVQLQQPGAELVKPGASVKLSCKASGYTFTSDWIHWVKQRPGHGLEWIGEIIPSYGRANYNEKIQKKATLTADKSSSTAFMHLSSLTSEDSAVYYCARERGDGYFAVWGAGTTVTVSSGGGSGGGSGGGSGGGSDILLTQSPAILSVSPGERVSFSCRASQSIGTDIHWYQQRTNGSPRLLIKYASESISGIPSRFSGSGSGTDFTLSINSVESEDIANYYCQQSNRWPFTFGSGTKLEIK</v>
+      </c>
+      <c r="M48" s="1">
+        <f t="shared" si="2"/>
+        <v>241</v>
+      </c>
+      <c r="N48" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P48" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J49" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>VRLLESGGGLVQPGGSLKLSCAASGFDYSRYWMSWVRQAPGKGLKWIGEINPVSSTINYTPSLKDKFIISRDNAKDTLYLQISKVRSEDTALYYCARLYYGYGYWYFDVWGAGTTVTVSSGGGSGGGSGGGSGGGSDIVLTQSPAIMSAAPGDKVTMTCSASSSVSYIHWYQQKSGTSPKRWIYDTSKLTSGVPVRFSGSGSGTSYSLTINTMEAEDAATYYCQQWSSHPQTFGGGTKLEIl</v>
+      </c>
+      <c r="M49" s="1">
+        <f t="shared" si="2"/>
+        <v>242</v>
+      </c>
+      <c r="N49" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P49" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J50" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>QVQLQESGPGLVQPSQSLSLTCTVSGFSLTSYGVHWVRQSPGKGLEWLGVIWAGGSTDYNSALKSRLSISRDTSKNQVFLKMNSLQTDDTAMYYCAKHGSSNGDYWGQGTSVTVSSGGGSGGGSGGGSGGGSDIVMTQSPDSLAVSLGERATINCKSSQSVLYSSNNKNYLAWYQQKPEGQPPNLLIYWASTRESGVPDRFSGSGSGTDFTLTISSLQAEDVAVYYCQQYYSAPTFGQGTKLEIK</v>
+      </c>
+      <c r="M50" s="1">
+        <f t="shared" si="2"/>
+        <v>245</v>
+      </c>
+      <c r="N50" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P50" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <autoFilter ref="A1:S50" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J1:K1048576">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="9" priority="10">
+    <cfRule type="containsBlanks" dxfId="5" priority="12">
       <formula>LEN(TRIM(J1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N32">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+  <conditionalFormatting sqref="N2:N50">
+    <cfRule type="containsBlanks" dxfId="4" priority="4">
       <formula>LEN(TRIM(N2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S25:S32 N2:S2 N3:P32 Q3:S24">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+  <conditionalFormatting sqref="N2:R2 N31:N50 N3:P30 Q3:R22">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="13" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:R1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -4247,218 +5739,90 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O31:P50">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ2"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="78.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="93.28515625" style="1" customWidth="1"/>
+    <col min="6" max="1024" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.79488899999999996</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.72998799999999997</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036FE0EC-FC47-C643-AAB5-7D34FF5161C9}">
-  <dimension ref="A1:C37"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="str">
-        <f>_xlfn.CONCAT("&gt;",A3,"|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ",B3,"\n",C3)</f>
-        <v>&gt;sbio-nipahgpg-001|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1\nQVQLVESGGGVVQPGRSLRLSCAASGFTFSSYGMHWVRQAPGKGLEWVAVISYDGSKKYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARSPFYDSSGYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISSYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQANSFPPTFGQGTKVEIK</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="str">
-        <f t="shared" ref="A29:A37" si="0">_xlfn.CONCAT("&gt;",A4,"|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ",B4,"\n",C4)</f>
-        <v>&gt;sbio-nipahgpg-009|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1 + ProteinMPNN\nAVSLVESGGGTVKPGESVTLSCQASGFNFSKYQWVWVRQAPGKGLEWVGQISPDGSKTRYHPSVAGRFTISRDNSNSTLYLHMSNLRPEDTAVYYCGIIPQDNVHGDYSISHWGQGTLLTVSAGGGSGGGSGGGSGGGSAIKLTQSPKSLSASVGDTVTINCTASRPIGDLLSWYKQKPGKPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSSDFATYYCRQTSRFPITFGEGTTINKK</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-011|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1 + ProteinMPNN\nSISLVESGGGTVAPGSSVTLSCQASGFNFSKYSKAWVRQPPGQPLEWVSRISPDGSTKYYHPDVAGRFTISKDNSKSTVYLAMSNLTAADTATYYCGIIPGDNTHGDYAMSHWGQGTLLTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTISCTASRPIGDKLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTSFTLTISSLQEDDFATYYCQQTYTLPITFGQGTTISKK</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-012|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1 + ProteinMPNN\nGVSLTESGGGTVAPGSSVTLSCKASGFNFSKYSHAWVRQAPGQGLTWVGEISPDGSKTRYASSVAGRFTISRDNSNSTVYLQMSSLTPSDTATYYCGIIPGDSVHGERSMSHWGQGTLLTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTLNCTASRPIGDRLSWYKQKPGQAPQLLIYRASTLAPGVSSRYSGSGSDTQFTLTISSLQSDDFATYYCQQTSSYPVTFGQGTTITKK</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-015|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1 + ProteinMPNN\nGISLVESGGGTVKPGESVTLSCKASGFVFSKYSHAWVRQPPGGPLEWVSQISSDGSVTRYASSVSGRFTISRDNSNSTVYLQMNNLRPSDTATYYCGIIPQDNVHGDYAISHWGQGTLLTVTAGGGSGGGSGGGSGGGSAITLTQSPASLSAKVGDTVTLSCTASRPIGDLLSWYKQKPGQPPQLLIYRASTLAPGVDSRYSGSGSDTSFTLTISSLQPEDFATYYCQQTSRFPITFGQGTTIKQA</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-017|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1 + ProteinMPNN\nSIKLTESGGGTVKPGSSVTLSCQASGFNFSKYEVVWVMQKPGQPLQWVGSISPDGSKVRLHPKVKGRFTLSKDNSKNTAYLTMKNLQPEDTATYYCGIIPGGSVHGDRSITHWGQGVELKVVAGGGSGGGSGGGSGGGSMIKLTQSPKSVKAKVGDTVTITCTASEPVDDLVSWYQQKPGQPLRLLIYRSSTLAPGVSSRFSGSGSDTNFTLTISSLQEEDFATYYCMQTSKYPYTFGQGTTLSRA</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-025|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ProteinMPNN\nGVKLVQSGDLTVKPGGSVTLSCKSEGGSFGNSSVAWVRQRPGGPYEYIGSIIPAYGVSRVSPEYEGRVTISADVANNTAYLTISNLTPEDTATYYCALGPGEVVYAASPFDEKLLTGALSVWGEGTLVTVTGGGSGGGSGGGSITVTQSPSSPSLSVGDTATLTCTLSSSVATSNVAWYKQLPGQPPELLISGGSTRAPGVPSRYSGSGSGTTFTLTISSLQASDFATYYCQVYGENPSFGQGTTLTLK</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-026|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ProteinMPNN\nAVKLVQSGDQTVAPGGSVTLSCTSSGGSFGNSSVAWVRQRPGGPFEFIGSIIPSLGISRYNSKYKGRVTISSDAANNTAYLTISNLTAADTATYYCALGPGESVFASHPFKEKLLTGALSVWGEGTLVTVSGGGSGGGSGGGSITVTQSPSSPSKSVGDTVTLTCTLSSSVPVSQVAWYKQHPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLQPEDFATYYCQVYGEEPSFGQGTTVTLA</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-030|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ProteinMPNN\nSISLVQSSDQTVAPGGSVTLSCTSSGGSFGNSGVAWVRQAPGGPPVYIGGIIPATGVSTYNAAFKGRVTISSDSSNNTAYLTISGLTAADTATYYCALGPAENVFASHPFAEDVNLGALSVWGQGTLVTVTGGGSGGGSGGGSITVTESPSSPELSVGETAVLSCTLSSSVPQSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLEPEDFATYYCQVYGTSPSFGQGTTLKLK</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-031|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ProteinMPNN\nAVSLVESGDQTVAPGGSVTLSCTSSGGSFGNSGVAWVRQAPGGPLEFLGFIIPALGVSKVNSKYEGRVTISSDPANNTAYLTISNLTAADTATYYCGLGTGESVFASSPFDEKLLLGALSVWGQGTKVTVTGGGSGGGSGGGSITVTQSPASPEKKVGETATLTCTLSSAVPKSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLQPEDFATYYCRVYGEEPSFGQGTTLKLK</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C06239D-77DB-4F47-9412-C7BA2E2E54B1}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -4466,38 +5830,454 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="53" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036FE0EC-FC47-C643-AAB5-7D34FF5161C9}">
+  <dimension ref="A2:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="13">
+        <v>45968</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>_xlfn.CONCAT("&gt;",A4,"|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ",B4,"\n",C4)</f>
+        <v>&gt;sbio-nipahgpg-001|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1\nQVQLVESGGGVVQPGRSLRLSCAASGFTFSSYGMHWVRQAPGKGLEWVAVISYDGSKKYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARSPFYDSSGYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISSYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQANSFPPTFGQGTKVEIK</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f t="shared" ref="A23:A31" si="0">_xlfn.CONCAT("&gt;",A5,"|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ",B5,"\n",C5)</f>
+        <v>&gt;sbio-nipahgpg-009|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1 + ProteinMPNN\nAVSLVESGGGTVKPGESVTLSCQASGFNFSKYQWVWVRQAPGKGLEWVGQISPDGSKTRYHPSVAGRFTISRDNSNSTLYLHMSNLRPEDTAVYYCGIIPQDNVHGDYSISHWGQGTLLTVSAGGGSGGGSGGGSGGGSAIKLTQSPKSLSASVGDTVTINCTASRPIGDLLSWYKQKPGKPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSSDFATYYCRQTSRFPITFGEGTTINKK</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-011|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1 + ProteinMPNN\nSISLVESGGGTVAPGSSVTLSCQASGFNFSKYSKAWVRQPPGQPLEWVSRISPDGSTKYYHPDVAGRFTISKDNSKSTVYLAMSNLTAADTATYYCGIIPGDNTHGDYAMSHWGQGTLLTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTISCTASRPIGDKLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTSFTLTISSLQEDDFATYYCQQTYTLPITFGQGTTISKK</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-012|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1 + ProteinMPNN\nGVSLTESGGGTVAPGSSVTLSCKASGFNFSKYSHAWVRQAPGQGLTWVGEISPDGSKTRYASSVAGRFTISRDNSNSTVYLQMSSLTPSDTATYYCGIIPGDSVHGERSMSHWGQGTLLTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTLNCTASRPIGDRLSWYKQKPGQAPQLLIYRASTLAPGVSSRYSGSGSDTQFTLTISSLQSDDFATYYCQQTSSYPVTFGQGTTITKK</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-015|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1 + ProteinMPNN\nGISLVESGGGTVKPGESVTLSCKASGFVFSKYSHAWVRQPPGGPLEWVSQISSDGSVTRYASSVSGRFTISRDNSNSTVYLQMNNLRPSDTATYYCGIIPQDNVHGDYAISHWGQGTLLTVTAGGGSGGGSGGGSGGGSAITLTQSPASLSAKVGDTVTLSCTASRPIGDLLSWYKQKPGQPPQLLIYRASTLAPGVDSRYSGSGSDTSFTLTISSLQPEDFATYYCQQTSRFPITFGQGTTIKQA</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-017|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1 + ProteinMPNN\nSIKLTESGGGTVKPGSSVTLSCQASGFNFSKYEVVWVMQKPGQPLQWVGSISPDGSKVRLHPKVKGRFTLSKDNSKNTAYLTMKNLQPEDTATYYCGIIPGGSVHGDRSITHWGQGVELKVVAGGGSGGGSGGGSGGGSMIKLTQSPKSVKAKVGDTVTITCTASEPVDDLVSWYQQKPGQPLRLLIYRSSTLAPGVSSRFSGSGSDTNFTLTISSLQEEDFATYYCMQTSKYPYTFGQGTTLSRA</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-025|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ProteinMPNN\nGVKLVQSGDLTVKPGGSVTLSCKSEGGSFGNSSVAWVRQRPGGPYEYIGSIIPAYGVSRVSPEYEGRVTISADVANNTAYLTISNLTPEDTATYYCALGPGEVVYAASPFDEKLLTGALSVWGEGTLVTVTGGGSGGGSGGGSITVTQSPSSPSLSVGDTATLTCTLSSSVATSNVAWYKQLPGQPPELLISGGSTRAPGVPSRYSGSGSGTTFTLTISSLQASDFATYYCQVYGENPSFGQGTTLTLK</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-026|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ProteinMPNN\nAVKLVQSGDQTVAPGGSVTLSCTSSGGSFGNSSVAWVRQRPGGPFEFIGSIIPSLGISRYNSKYKGRVTISSDAANNTAYLTISNLTAADTATYYCALGPGESVFASHPFKEKLLTGALSVWGEGTLVTVSGGGSGGGSGGGSITVTQSPSSPSKSVGDTVTLTCTLSSSVPVSQVAWYKQHPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLQPEDFATYYCQVYGEEPSFGQGTTVTLA</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-030|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ProteinMPNN\nSISLVQSSDQTVAPGGSVTLSCTSSGGSFGNSGVAWVRQAPGGPPVYIGGIIPATGVSTYNAAFKGRVTISSDSSNNTAYLTISGLTAADTATYYCALGPAENVFASHPFAEDVNLGALSVWGQGTLVTVTGGGSGGGSGGGSITVTESPSSPELSVGETAVLSCTLSSSVPQSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLEPEDFATYYCQVYGTSPSFGQGTTLKLK</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-031|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ProteinMPNN\nAVSLVESGDQTVAPGGSVTLSCTSSGGSFGNSGVAWVRQAPGGPLEFLGFIIPALGVSKVNSKYEGRVTISSDPANNTAYLTISNLTAADTATYYCGLGTGESVFASSPFDEKLLLGALSVWGQGTKVTVTGGGSGGGSGGGSITVTQSPASPEKKVGETATLTCTLSSAVPKSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLQPEDFATYYCRVYGEEPSFGQGTTLKLK</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CF9A8A-9767-46C1-B0D1-2A19AD7C2699}">
+  <dimension ref="A2:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="13">
+        <v>45969</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" t="str">
+        <f>_xlfn.CONCAT("&gt;",A10,"|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ",B10,"\n",C10)</f>
+        <v xml:space="preserve">&gt;sbio-nipahgpg-013|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1 + ProteinMPNN\nEVSLVESGGGTVKPGESVTLSCQASGFNFSKYRLAWVRQPPGQGLVWVSEISPDGTEVKYHPDVKGRFTASRDNSNSTAYLKMNNLQPSDTATYYCGIIPQDSSHGDYSISHWGQGTQLTVSAGGGSGGGSGGGSGGGSTITLTQSPSSLSASVGDTVTINCTASRPIGDFLSWYKQKPGQPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSDDFATYYCQQTYTLPITFGQGTTLTKK </v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G4" t="str">
+        <f>_xlfn.CONCAT("&gt;",A11,"|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ",B11,"\n",C11)</f>
+        <v>&gt;sbio-nipahgpg-014|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1 + ProteinMPNN\nAVSLVESGGGTYAPGSSVTLSCQGSGFNFSKVRKVWVRQPPGGPLEYVAEISPDGSTTTYASSVAGRFTISKDNSNSTLYLSMSNLTPADTATYYCGLIPGDSEHGDRSISHWGQGTLVTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTINCTASQPIGNFLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTNFTLTISSLQSEDFATYYCQQTSRLPVTFGQGTTINKK</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G5" t="str">
+        <f>_xlfn.CONCAT("&gt;",A12,"|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ",B12,"\n",C12)</f>
+        <v xml:space="preserve">&gt;sbio-nipahgpg-016|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1 + ProteinMPNN\nPVSLVESGGGTVAPGSSVTLTCQASGFNFSKYIVAWVRQPPGQPLRFVAMITPDGSKVWLHPEVEGRFTPSKDNSKNTSYLQLKDLQPEDTATYYCGIIPQGSTHGDYSITHWGQGVVLTVTAGGGSGGGSGGGSGGGSMVTLTQSPSSLSASVGDTVTITCTASSPVDNLMSWYQQPPGQPLRLLIYNASTRAPGVSSRFSGSGSDTNFTLTISSLQASDFATYYCQQTYRLPVTFGQGTTLSAA </v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>_xlfn.CONCAT("&gt;",A4,"\n",C4)</f>
+        <v>&gt;sbio-nipahgpg-002\nQVQLVESGGGVVQPGKSLRLSCAASGFTFSSYAMSWVRQAPGKGPEWVAFISYDGSNNYYADSVKGRFTISRDNPKNTLYLQMKSLRAEDTAVYYCARWRQRFDMYWGRGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f t="shared" ref="A23:A31" si="0">_xlfn.CONCAT("&gt;",A5,"\n",C5)</f>
+        <v>&gt;sbio-nipahgpg-003\nQVQLQESGPGLVKPSETLSLTCTVSGASIRGYYWSWIRQFPGKELEWIGYVYSGSTENYNPSLKSRVTVTLTDTKNSFSLKLNSVTSEDTAVYYCARGGALIYYDVWGTGTTVTVSSGGGSGGGSGGGSGGGSDIQVTQSPVSLSASVGDRVTITCRASQGIDSLNWFQQRPGKAPKLLIYAASQLTGIAPRFRSGSGSGTDFTLTISSLQPEDFATYYCQQYNIYPATFGQGTKVEIK</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-004\nEVQLVQSGAEVKKPGESLKISCKGSGYTFSYYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAMYYCARGEGVFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSYTLTQAPSVSASGQSVTISCTGTSRDVGTYWYQQIPGRAPKLLIHDKSENQGKTPGIPDRFSGSKSGNTASLVIIRGLQADDEADYYCNSYHGSGSNIFGGGTKLTVD</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-005\nEVQLVESGGGLVQPGGSLRLSCAASGFTFSSYWMNWVRQAPGKGLEWVANINQDGGEKYYVDSVKGRFTISRDNAKNSLYLQMNSLRAEDTAIYYCARDVGGGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-008\nQVQLVESGGGVVQPGRSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAIWSNGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARDYGSYGYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPLSLPVTPGEPASISCRSSQSLLYSNGNTYLEWYLQKPGQSPQLLIYLVSKLDSGVPDRFSGSGSGTDFTLKISRVEAEDLGIYYCQQSKEVPYTFGAGTKLEIK</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-010\nAVSITESGGGTKAPGSSVTLSCKVSGFVFSKYSIAWVRQAPGQGLEWVSQISPDGSTTRYNPAVAGRFTISRDNSNSTAYLQMSNLTPSDTATYYCAIIPQDNEHGDYSLSHWGQGTQLTVSAGGGSGGGSGGGSGGGSAIKLTQSPKSLSAKVGDTVTINCTASAPIGDFLSWYKQKPGQPPQLLIYKSSTLAPGVSSRYSGSGSDTNFTLTISSLQEEDFATYYCQQTATLPITFGEGTTINKK</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&gt;sbio-nipahgpg-013\nEVSLVESGGGTVKPGESVTLSCQASGFNFSKYRLAWVRQPPGQGLVWVSEISPDGTEVKYHPDVKGRFTASRDNSNSTAYLKMNNLQPSDTATYYCGIIPQDSSHGDYSISHWGQGTQLTVSAGGGSGGGSGGGSGGGSTITLTQSPSSLSASVGDTVTINCTASRPIGDFLSWYKQKPGQPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSDDFATYYCQQTYTLPITFGQGTTLTKK </v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-014\nAVSLVESGGGTYAPGSSVTLSCQGSGFNFSKVRKVWVRQPPGGPLEYVAEISPDGSTTTYASSVAGRFTISKDNSNSTLYLSMSNLTPADTATYYCGLIPGDSEHGDRSISHWGQGTLVTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTINCTASQPIGNFLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTNFTLTISSLQSEDFATYYCQQTSRLPVTFGQGTTINKK</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&gt;sbio-nipahgpg-016\nPVSLVESGGGTVAPGSSVTLTCQASGFNFSKYIVAWVRQPPGQPLRFVAMITPDGSKVWLHPEVEGRFTPSKDNSKNTSYLQLKDLQPEDTATYYCGIIPQGSTHGDYSITHWGQGVVLTVTAGGGSGGGSGGGSGGGSMVTLTQSPSSLSASVGDTVTITCTASSPVDNLMSWYQQPPGQPLRLLIYNASTRAPGVSSRFSGSGSDTNFTLTISSLQASDFATYYCQQTYRLPVTFGQGTTLSAA </v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-018\nAITLTESGGGVVAPGSSVTLTCTASGFNFSKYSMVWVRQPPGGPLQWVAQISPDNSTVRYHPAVEGRFTASKDNSKNTAYLAMSDLEPSDTATYYCGIIPQGSTHNDYSIVHWGQGTELRVVAGGGSGGGSGGGSGGGSMIKLTQSPSSLSAKVGDKVTITCTASSPVDNLVSWYKQPPGGPLQLLIYNSSTRAPGVSSRFKGSGSDTNFTLTIESLQEEDFATYYCQQTYKFPITFGQGTKLTRA</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+</worksheet>
 </file>
--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\Nipah_gpG_Fv_Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BD0159-EE67-40A2-954B-23BBF8C67905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86CCC4A-D54C-4435-9DF3-91EA1E32535C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,13 +18,14 @@
     <sheet name="Notes" sheetId="3" r:id="rId3"/>
     <sheet name="20251107 Submission FASTA" sheetId="4" r:id="rId4"/>
     <sheet name="20251108 Submission FASTA" sheetId="5" r:id="rId5"/>
+    <sheet name="20251109 Submission FASTA" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Antibody Candidates'!$A$1:$S$50</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId6"/>
+    <pivotCache cacheId="7" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="224">
   <si>
     <t>antigen_id</t>
   </si>
@@ -688,6 +689,33 @@
   </si>
   <si>
     <t>AITLTESGGGVVAPGSSVTLTCTASGFNFSKYSMVWVRQPPGGPLQWVAQISPDNSTVRYHPAVEGRFTASKDNSKNTAYLAMSDLEPSDTATYYCGIIPQGSTHNDYSIVHWGQGTELRVVAGGGSGGGSGGGSGGGSMIKLTQSPSSLSAKVGDKVTITCTASSPVDNLVSWYKQPPGGPLQLLIYNSSTRAPGVSSRFKGSGSDTNFTLTIESLQEEDFATYYCQQTYKFPITFGQGTKLTRA</t>
+  </si>
+  <si>
+    <t>SISLTESGGGTVAPGSSVTLTCTASGFNFSKYSVAWVRQPPGQPLQWVALISPDGSKKWYHPDVKGRATISKDNSKNTSYLTLSNLQPSDTATYYCGIIPGGNIHGDYSMTHWGQGTQLTVVAGGGSGGGSGGGSGGGSMITLTQSPLSLSAKVGDTVTITCTASSPVDDLVSWYQQKPGQPLRLLIRNASERAPGVSSRFSGSGSDTTFTLTISSVQEEDFATYYCQQTSKLPYTFGQGTTLSRA</t>
+  </si>
+  <si>
+    <t>AVTLTESGGGTVAPGSSVTLTCTASGFNFSKYILAWVRQAPGQPLEWVASISPDGSKTRYHPAVKGRATASKDNSKNTAYLELKDLRPEDTATYYCGIIPQGSVHGDYSMTHWGQGTELRVEAGGGSGGGSGGGSGGGSPVVLTQSPLSLSAKVGDTVTITCTASSPVDNLVSWYKQAPGQPLQLLIYNATTRAPGVPSRFTGSGSDTTFTLTISSLQPEDFAVYYCQQTYKFPITFGQGTRLTPA</t>
+  </si>
+  <si>
+    <t>PVKLVESGGGTVAPGSSVTLTCKASGFNFSKYMVQWVRQAPGGAFQWVGLISPDGSTKWYHPDVEGRFTISKDNSKNTAYLEMRNLTPADTAVYYCGIVPQGSVHGDYSITHWGQGVTLTVTAGGGSGGGSGGGSGGGSVVQLTQSPPELSAKVGEKVTITCTASSPVDNLVSWYQQKPGGAPKLLIYNATTLAPGVPSRFSGSGSDTVFTLTIDSLQAEDFATYYCQQTSRLPFTFGQGTVLRPA</t>
+  </si>
+  <si>
+    <t>AIKLTESGGGTVKPGSSVTLTCQASGFNFSKYIMAWVRQAPGQPLQWVAQISPDNSVKRYHPEVEGRFTASKDNSKNTAYLEMKNLTPADTATYYCAIIPQGSTQGDYSMVHWGQGVELKVVAGGGSGGGSGGGSGGGSPVVLTQSPASLKAAVGDTVTITCTASAPVDNLVSWYKQAPGQPPQLLIYNASTLAPGVPSRFTGSGSDTSFTLTISSLQEEDFATYYCQETSKFPITFGQGTKLEKK</t>
+  </si>
+  <si>
+    <t>SIKLTESGGGVVAPGESVTLTCTASGFNFSKYEMAWVRQAPGGPLEFVAVISPDGSTTRYHPRVEGRATISRDNSKNTAYLTLRDLTPADTAVYYCGIIPGGSVHGDRALSHWGQGVRLEVRAGGGSGGGSGGGSGGGSMVTLTQSPSSLSAKVGDKVTISCTASEPVDDLVSWYKQAPGGPPQLLISRASTRAPGVPSRFSGSGSDTNFTLTIESLQSSDFATYYCQQTYKFPDTFGQGTTLSEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SVTLVESGDQTVAPGGSVTLSCTSSGGSFGNSGVSWVKQQPGGPLQWIGGIIPSLGISKVSPEYAGRVTISSDSSNNTAYLTISNLTAADTATYYCALGEGEDVFASSPFASNVNLGALSVWGQGTKVTVSGGGSGGGSGGGSITVTQSPSSPSLKVGETATLTCTLSAPVPRSNVAWYKQQPGQPPTLLIYGGSTRAPGVPSRYSGSGSGTTFTLTITALKPEDFATYYCQVYGENPSFGQGTTLKLK </t>
+  </si>
+  <si>
+    <t>SITLVQSGDVTVAPGGSVTLTCTSSGGSFGNKAVAWVRQRPGGPYEWLGFIIPAYGVSRYNPAYEGRVTISVDSASNTASLTISNLTAADTATYYCALGEGEIVYAASPFDENYKLGALYIWGQGTKVTVSGGGSGGGSGGGSITLTQSPSSPSLSVGETATLTCTASAPVPKSNVAWYKQLPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLTADDFATYYCQVYGENPSFGEGTTLTLK</t>
+  </si>
+  <si>
+    <t>SVTLVQSGDQTVPIGGSVTLSCTANGGSFGNKGVAWVRQRPGGPYEFLGFIKPAIGESRYHPKYKGRVTISSDVSSNTAYLTISNLTPEDTAVYYCALGEAEDVFAAHPFKTDLLLGALSIWGQGTRVTVTGGGSGGGSGGGSITVTQSPSSPSLSVGETAVLTCTLSQPVPQSQVAWYKQLPGQPPTLLISGGSTRASGVPSRYSGSGSGTTFTLTISSLLPEDFATYYCQVVGKEPSFGQGTTLTLK</t>
+  </si>
+  <si>
+    <t>SVKLVQSGDQTVPVGGSVTLSCTASGGSFGNYGVAWVRQRPGGPLEYIGSIIPAYGISTVNPKYEGRVTISADPTNNTAYLTISNLTPEDTATYYCALGPGEVVFASSPFDIDVLTGALWVWGEGTKVTVTGGGSGGGSGGGSITVTQSPSSPSLKVGETATLTCTLSAPVAKSNVAWYKQLPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLQPEDFATYYCQVVGKNPSFGQGTLLKLK</t>
   </si>
 </sst>
 </file>
@@ -873,7 +901,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Colby" refreshedDate="45969.58142696759" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="50" xr:uid="{C69715DE-2A16-4198-9FD9-FAE4F60B2265}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Colby" refreshedDate="45970.662648958336" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="50" xr:uid="{C69715DE-2A16-4198-9FD9-FAE4F60B2265}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:S3000" sheet="Antibody Candidates"/>
   </cacheSource>
@@ -1041,9 +1069,10 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="0.69121100000000002"/>
     </cacheField>
     <cacheField name="submitted_to_comp" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-11-07T00:00:00" maxDate="2025-11-09T00:00:00" count="3">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-11-07T00:00:00" maxDate="2025-11-10T00:00:00" count="4">
         <d v="2025-11-07T00:00:00"/>
         <d v="2025-11-08T00:00:00"/>
+        <d v="2025-11-09T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1686,7 +1715,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="30"/>
@@ -1707,7 +1736,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="31"/>
@@ -1728,7 +1757,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="32"/>
@@ -1749,7 +1778,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="33"/>
@@ -1770,7 +1799,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="34"/>
@@ -1791,7 +1820,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="35"/>
@@ -1812,7 +1841,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="36"/>
@@ -1833,7 +1862,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="37"/>
@@ -1854,7 +1883,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="38"/>
@@ -1875,7 +1904,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="39"/>
@@ -1896,7 +1925,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="40"/>
@@ -1917,7 +1946,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="41"/>
@@ -1938,7 +1967,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="42"/>
@@ -1959,7 +1988,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="43"/>
@@ -1980,7 +2009,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="44"/>
@@ -2001,7 +2030,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="45"/>
@@ -2022,7 +2051,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="46"/>
@@ -2043,7 +2072,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="47"/>
@@ -2064,7 +2093,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="48"/>
@@ -2085,7 +2114,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="49"/>
@@ -2106,13 +2135,13 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{135D55CA-26D1-4FA2-9199-54D547F2C103}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{135D55CA-26D1-4FA2-9199-54D547F2C103}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:C13" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -2248,10 +2277,11 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="3">
-        <item x="2"/>
+      <items count="4">
+        <item x="3"/>
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -2331,7 +2361,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{34D8D9BF-DD48-4B0D-B005-50CFC13EA4CA}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{34D8D9BF-DD48-4B0D-B005-50CFC13EA4CA}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:C13" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -2467,10 +2497,11 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="3">
-        <item x="2"/>
+      <items count="4">
+        <item x="3"/>
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -2536,6 +2567,221 @@
   </colItems>
   <pageFields count="1">
     <pageField fld="18" item="2" hier="-1"/>
+  </pageFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9A30A9A-0810-4D7B-BBE4-92BE215D0229}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A4:C12" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="19">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="50">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="50">
+        <item x="19"/>
+        <item x="15"/>
+        <item x="23"/>
+        <item x="7"/>
+        <item x="28"/>
+        <item x="6"/>
+        <item x="11"/>
+        <item x="17"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="22"/>
+        <item x="9"/>
+        <item x="18"/>
+        <item x="13"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="14"/>
+        <item x="20"/>
+        <item x="16"/>
+        <item x="8"/>
+        <item x="27"/>
+        <item x="24"/>
+        <item x="26"/>
+        <item x="21"/>
+        <item x="25"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisPage" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="0"/>
+    <field x="1"/>
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="16"/>
+      <x v="2"/>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="17"/>
+      <x v="2"/>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="18"/>
+      <x v="2"/>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="19"/>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i>
+      <x v="20"/>
+      <x v="2"/>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="21"/>
+      <x v="3"/>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="24"/>
+      <x v="3"/>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="25"/>
+      <x v="3"/>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="26"/>
+      <x v="3"/>
+      <x v="26"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="18" item="3" hier="-1"/>
   </pageFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2869,10 +3115,10 @@
   <dimension ref="A1:T50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P29" sqref="P29"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4013,6 +4259,9 @@
       <c r="R18" s="4">
         <v>0</v>
       </c>
+      <c r="S18" s="12">
+        <v>45970</v>
+      </c>
       <c r="T18" s="8"/>
     </row>
     <row r="19" spans="1:20" ht="75" x14ac:dyDescent="0.2">
@@ -4075,6 +4324,9 @@
       <c r="R19" s="4">
         <v>6.1079999999999997E-3</v>
       </c>
+      <c r="S19" s="12">
+        <v>45970</v>
+      </c>
       <c r="T19" s="8"/>
     </row>
     <row r="20" spans="1:20" ht="75" x14ac:dyDescent="0.2">
@@ -4137,6 +4389,9 @@
       <c r="R20" s="4">
         <v>0</v>
       </c>
+      <c r="S20" s="12">
+        <v>45970</v>
+      </c>
       <c r="T20" s="8"/>
     </row>
     <row r="21" spans="1:20" ht="75" x14ac:dyDescent="0.2">
@@ -4199,6 +4454,9 @@
       <c r="R21" s="4">
         <v>0</v>
       </c>
+      <c r="S21" s="12">
+        <v>45970</v>
+      </c>
       <c r="T21" s="8"/>
     </row>
     <row r="22" spans="1:20" ht="75" x14ac:dyDescent="0.2">
@@ -4261,6 +4519,9 @@
       <c r="R22" s="4">
         <v>5.0870000000000004E-3</v>
       </c>
+      <c r="S22" s="12">
+        <v>45970</v>
+      </c>
       <c r="T22" s="8"/>
     </row>
     <row r="23" spans="1:20" ht="75" x14ac:dyDescent="0.2">
@@ -4317,6 +4578,9 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
+      <c r="S23" s="12">
+        <v>45970</v>
+      </c>
       <c r="T23" s="8"/>
     </row>
     <row r="24" spans="1:20" ht="75" x14ac:dyDescent="0.2">
@@ -4509,6 +4773,9 @@
       <c r="R26" s="4">
         <v>5.4400000000000004E-3</v>
       </c>
+      <c r="S26" s="12">
+        <v>45970</v>
+      </c>
     </row>
     <row r="27" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -4570,6 +4837,9 @@
       <c r="R27" s="4">
         <v>0</v>
       </c>
+      <c r="S27" s="12">
+        <v>45970</v>
+      </c>
     </row>
     <row r="28" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -4630,6 +4900,9 @@
       </c>
       <c r="R28" s="4">
         <v>5.3605E-2</v>
+      </c>
+      <c r="S28" s="12">
+        <v>45970</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="75" x14ac:dyDescent="0.25">
@@ -5719,11 +5992,19 @@
       <formula>LEN(TRIM(N2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:R2 N31:N50 N3:P30 Q3:R22">
+  <conditionalFormatting sqref="N2:R2 N3:P30 N31:N50 Q3:R22">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="13" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O31:P50">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5737,14 +6018,6 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O31:P50">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -6280,4 +6553,208 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB25C98-D213-4C3E-A62C-3D471ED52EA4}">
+  <dimension ref="A2:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="13">
+        <v>45970</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" t="str">
+        <f>_xlfn.CONCAT("&gt;",A10,"|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ",B10,"\n",C10)</f>
+        <v>&gt;sbio-nipahgpg-027|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ProteinMPNN\nSITLVQSGDVTVAPGGSVTLTCTSSGGSFGNKAVAWVRQRPGGPYEWLGFIIPAYGVSRYNPAYEGRVTISVDSASNTASLTISNLTAADTATYYCALGEGEIVYAASPFDENYKLGALYIWGQGTKVTVSGGGSGGGSGGGSITLTQSPSSPSLSVGETATLTCTASAPVPKSNVAWYKQLPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLTADDFATYYCQVYGENPSFGEGTTLTLK</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G4" t="str">
+        <f>_xlfn.CONCAT("&gt;",A11,"|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ",B11,"\n",C11)</f>
+        <v>&gt;sbio-nipahgpg-028|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ProteinMPNN\nSVTLVQSGDQTVPIGGSVTLSCTANGGSFGNKGVAWVRQRPGGPYEFLGFIKPAIGESRYHPKYKGRVTISSDVSSNTAYLTISNLTPEDTAVYYCALGEAEDVFAAHPFKTDLLLGALSIWGQGTRVTVTGGGSGGGSGGGSITVTQSPSSPSLSVGETAVLTCTLSQPVPQSQVAWYKQLPGQPPTLLISGGSTRASGVPSRYSGSGSGTTFTLTISSLLPEDFATYYCQVVGKEPSFGQGTTLTLK</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G5" t="str">
+        <f>_xlfn.CONCAT("&gt;",A12,"|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ",B12,"\n",C12)</f>
+        <v>&gt;sbio-nipahgpg-029|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ProteinMPNN\nSVKLVQSGDQTVPVGGSVTLSCTASGGSFGNYGVAWVRQRPGGPLEYIGSIIPAYGISTVNPKYEGRVTISADPTNNTAYLTISNLTPEDTATYYCALGPGEVVFASSPFDIDVLTGALWVWGEGTKVTVTGGGSGGGSGGGSITVTQSPSSPSLKVGETATLTCTLSAPVAKSNVAWYKQLPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLQPEDFATYYCQVVGKNPSFGQGTLLKLK</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>_xlfn.CONCAT("&gt;",A4,"\n",C4)</f>
+        <v>&gt;sbio-nipahgpg-019\nSISLTESGGGTVAPGSSVTLTCTASGFNFSKYSVAWVRQPPGQPLQWVALISPDGSKKWYHPDVKGRATISKDNSKNTSYLTLSNLQPSDTATYYCGIIPGGNIHGDYSMTHWGQGTQLTVVAGGGSGGGSGGGSGGGSMITLTQSPLSLSAKVGDTVTITCTASSPVDDLVSWYQQKPGQPLRLLIRNASERAPGVSSRFSGSGSDTTFTLTISSVQEEDFATYYCQQTSKLPYTFGQGTTLSRA</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f t="shared" ref="A23:A31" si="0">_xlfn.CONCAT("&gt;",A5,"\n",C5)</f>
+        <v>&gt;sbio-nipahgpg-020\nAVTLTESGGGTVAPGSSVTLTCTASGFNFSKYILAWVRQAPGQPLEWVASISPDGSKTRYHPAVKGRATASKDNSKNTAYLELKDLRPEDTATYYCGIIPQGSVHGDYSMTHWGQGTELRVEAGGGSGGGSGGGSGGGSPVVLTQSPLSLSAKVGDTVTITCTASSPVDNLVSWYKQAPGQPLQLLIYNATTRAPGVPSRFTGSGSDTTFTLTISSLQPEDFAVYYCQQTYKFPITFGQGTRLTPA</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-021\nPVKLVESGGGTVAPGSSVTLTCKASGFNFSKYMVQWVRQAPGGAFQWVGLISPDGSTKWYHPDVEGRFTISKDNSKNTAYLEMRNLTPADTAVYYCGIVPQGSVHGDYSITHWGQGVTLTVTAGGGSGGGSGGGSGGGSVVQLTQSPPELSAKVGEKVTITCTASSPVDNLVSWYQQKPGGAPKLLIYNATTLAPGVPSRFSGSGSDTVFTLTIDSLQAEDFATYYCQQTSRLPFTFGQGTVLRPA</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-022\nAIKLTESGGGTVKPGSSVTLTCQASGFNFSKYIMAWVRQAPGQPLQWVAQISPDNSVKRYHPEVEGRFTASKDNSKNTAYLEMKNLTPADTATYYCAIIPQGSTQGDYSMVHWGQGVELKVVAGGGSGGGSGGGSGGGSPVVLTQSPASLKAAVGDTVTITCTASAPVDNLVSWYKQAPGQPPQLLIYNASTLAPGVPSRFTGSGSDTSFTLTISSLQEEDFATYYCQETSKFPITFGQGTKLEKK</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-023\nSIKLTESGGGVVAPGESVTLTCTASGFNFSKYEMAWVRQAPGGPLEFVAVISPDGSTTRYHPRVEGRATISRDNSKNTAYLTLRDLTPADTAVYYCGIIPGGSVHGDRALSHWGQGVRLEVRAGGGSGGGSGGGSGGGSMVTLTQSPSSLSAKVGDKVTISCTASEPVDDLVSWYKQAPGGPPQLLISRASTRAPGVPSRFSGSGSDTNFTLTIESLQSSDFATYYCQQTYKFPDTFGQGTTLSEA</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">&gt;sbio-nipahgpg-024\nSVTLVESGDQTVAPGGSVTLSCTSSGGSFGNSGVSWVKQQPGGPLQWIGGIIPSLGISKVSPEYAGRVTISSDSSNNTAYLTISNLTAADTATYYCALGEGEDVFASSPFASNVNLGALSVWGQGTKVTVSGGGSGGGSGGGSITVTQSPSSPSLKVGETATLTCTLSAPVPRSNVAWYKQQPGQPPTLLIYGGSTRAPGVPSRYSGSGSGTTFTLTITALKPEDFATYYCQVYGENPSFGQGTTLKLK </v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-027\nSITLVQSGDVTVAPGGSVTLTCTSSGGSFGNKAVAWVRQRPGGPYEWLGFIIPAYGVSRYNPAYEGRVTISVDSASNTASLTISNLTAADTATYYCALGEGEIVYAASPFDENYKLGALYIWGQGTKVTVSGGGSGGGSGGGSITLTQSPSSPSLSVGETATLTCTASAPVPKSNVAWYKQLPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLTADDFATYYCQVYGENPSFGEGTTLTLK</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-028\nSVTLVQSGDQTVPIGGSVTLSCTANGGSFGNKGVAWVRQRPGGPYEFLGFIKPAIGESRYHPKYKGRVTISSDVSSNTAYLTISNLTPEDTAVYYCALGEAEDVFAAHPFKTDLLLGALSIWGQGTRVTVTGGGSGGGSGGGSITVTQSPSSPSLSVGETAVLTCTLSQPVPQSQVAWYKQLPGQPPTLLISGGSTRASGVPSRYSGSGSGTTFTLTISSLLPEDFATYYCQVVGKEPSFGQGTTLTLK</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-029\nSVKLVQSGDQTVPVGGSVTLSCTASGGSFGNYGVAWVRQRPGGPLEYIGSIIPAYGISTVNPKYEGRVTISADPTNNTAYLTISNLTPEDTATYYCALGPGEVVFASSPFDIDVLTGALWVWGEGTKVTVTGGGSGGGSGGGSITVTQSPSSPSLKVGETATLTCTLSAPVAKSNVAWYKQLPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLQPEDFATYYCQVVGKNPSFGQGTLLKLK</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;\n</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+</worksheet>
 </file>
--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\Nipah_gpG_Fv_Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86CCC4A-D54C-4435-9DF3-91EA1E32535C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A477CD-67BF-41E2-85AF-E96625D48633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,13 +19,15 @@
     <sheet name="20251107 Submission FASTA" sheetId="4" r:id="rId4"/>
     <sheet name="20251108 Submission FASTA" sheetId="5" r:id="rId5"/>
     <sheet name="20251109 Submission FASTA" sheetId="6" r:id="rId6"/>
+    <sheet name="20251110 Submission FASTA" sheetId="7" r:id="rId7"/>
+    <sheet name="20251111 Submission FASTA" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Antibody Candidates'!$A$1:$S$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Antibody Candidates'!$A$1:$V$50</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -44,14 +46,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="287">
   <si>
     <t>antigen_id</t>
   </si>
   <si>
-    <t>antigen_pdb_id</t>
-  </si>
-  <si>
     <t>antigen_sequence</t>
   </si>
   <si>
@@ -716,13 +715,205 @@
   </si>
   <si>
     <t>SVKLVQSGDQTVPVGGSVTLSCTASGGSFGNYGVAWVRQRPGGPLEYIGSIIPAYGISTVNPKYEGRVTISADPTNNTAYLTISNLTPEDTATYYCALGPGEVVFASSPFDIDVLTGALWVWGEGTKVTVTGGGSGGGSGGGSITVTQSPSSPSLKVGETATLTCTLSAPVAKSNVAWYKQLPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLQPEDFATYYCQVVGKNPSFGQGTLLKLK</t>
+  </si>
+  <si>
+    <t>proteinbase_name</t>
+  </si>
+  <si>
+    <t>proteinbase_ipsae</t>
+  </si>
+  <si>
+    <t>swift-swan-bronze</t>
+  </si>
+  <si>
+    <t>young-zebra-cloud</t>
+  </si>
+  <si>
+    <t>strong-shark-ember</t>
+  </si>
+  <si>
+    <t>pale-bison-leaf</t>
+  </si>
+  <si>
+    <t>noble-heron-dust</t>
+  </si>
+  <si>
+    <t>scarlet-otter-ivy</t>
+  </si>
+  <si>
+    <t>noble-lion-ruby</t>
+  </si>
+  <si>
+    <t>strong-ox-thorn</t>
+  </si>
+  <si>
+    <t>quick-quail-thorn</t>
+  </si>
+  <si>
+    <t>strong-otter-frost</t>
+  </si>
+  <si>
+    <t>shy-seal-ember</t>
+  </si>
+  <si>
+    <t>vast-yak-ember</t>
+  </si>
+  <si>
+    <t>rough-bee-opal</t>
+  </si>
+  <si>
+    <t>vast-gecko-birch</t>
+  </si>
+  <si>
+    <t>dark-dove-opal</t>
+  </si>
+  <si>
+    <t>rapid-wolf-lotus</t>
+  </si>
+  <si>
+    <t>amber-quail-granite</t>
+  </si>
+  <si>
+    <t>noble-ram-moss</t>
+  </si>
+  <si>
+    <t>wild-owl-rose</t>
+  </si>
+  <si>
+    <t>swift-ant-ivy</t>
+  </si>
+  <si>
+    <t>scarlet-eagle-ivy</t>
+  </si>
+  <si>
+    <t>strong-zebra-ice</t>
+  </si>
+  <si>
+    <t>mellow-toad-oak</t>
+  </si>
+  <si>
+    <t>silver-quail-moss</t>
+  </si>
+  <si>
+    <t>soft-cat-iron</t>
+  </si>
+  <si>
+    <t>pale-crow-stone</t>
+  </si>
+  <si>
+    <t>ivory-yak-flint</t>
+  </si>
+  <si>
+    <t>soft-bear-clay</t>
+  </si>
+  <si>
+    <t>soft-mole-cedar</t>
+  </si>
+  <si>
+    <t>IVLEPIYWNSSNSKFLPGQGLVLYPQIGDKLDIICPKVDSKTVGQYEYYKVYMVDKDQADRCTIKKENTPLLNCAKPDQDIKFTIKFQEFSPNLWGLEFQKNKDYYIISTSNGSLEGLDNQEGGVCQTRAMKILMKVGHH</t>
+  </si>
+  <si>
+    <t>QNYTRSTDNQAVIKDALQGIQQQIKGLADKIGTEIGPKVSLIDTSSTITIPANIGLLGSKISQSTASINENVNEKCKFTLPPLKIHECNISCPNPLPFREYRPQTEGVSNLVGLPNNICLQKTSNQILKPKLISYTLPVVGQSGTCITDPLLAMDEGYFAYSHLERIGSCSRGVSKQRIIGVGEVLDRGDEVPSLFMTNVWTPPNPNTVYHCSAVYNNEFYYVLCAVSTVGDPILNSTYWSGSLMMTRLAVKPKSNGGGYNQHQLALRSIEKGRYDKVMPYGPSGIKQGDTLYFPAVGFLVRTEFKYNDSNCPITKCQYSKPENCRLSMGIRPNSHYILRSGLLKYNLSDGENPKVVFIEISDQRLSIGSPSKIYDSLGQPVFYQASFSWDTMIKFGDVLTVNPLVVNWRNNTVISRPGQSQCPRFNTCPEICWEGVYNDAFLIDRINWISAGVFLDSNQTAENPVFTVFKDNEILYRAQLASEDTNAQKTITNCFLLKNKIWCISLVEIYDTGDNVIRPKLFAVKIPEQCT</t>
+  </si>
+  <si>
+    <t>ephrin_b2</t>
+  </si>
+  <si>
+    <t>receptor_seq</t>
+  </si>
+  <si>
+    <t>receptor_id</t>
+  </si>
+  <si>
+    <t>QNYTRSTDNQAVIKDALQGIQQQIKGLADKIGTEIGPKVSLIDTSSTITIPANIGLLGSKISQSTASINENVNEKCKFTLPPLKIHECNISCPNPLPFREYRPQTEGVSNLVGLPNNICLQKTSNQILKPKLISYTLGQSGTCITDPLLAMDEGYFAYSHLERIG[S][C][S][R]GVSKQRIIGVGEVLDRGDEVPSLFMTNVWTPPNPNTVYHCSAVYNNEFYYVLCAVSTVGDPI[L]NSTYWSGSLMMTRLAVKPKSNGGGYNQHQLALRSIEKGRYDKVMPYGPSGIKQGDTLYFPAVGFLVRTEFKYNDSNCPITKC[Q][Y]SKPENCRLSMG[I][R]PNSHYILRSGLLKYNLSDGENPKVVFIEISDQRLSIGSPSKIYDSLGQPVFYQAS[F]SWDTMIKFGDVLTVNPLVVNWRNNTVISR[P][G][Q][S][Q]CPRFNTCP[E]IC[W][E][G][V]YNDAFLIDRINWISAGVFLDSN[Q][T][A][E]NPVFTVFKDNEILYRAQLASE[D]T[N][A][Q]KTITNCFLLKNKIWCISLV[E][I][Y]D[T]GDNV[I]RPKLFAVKIPEQCT</t>
+  </si>
+  <si>
+    <t>VQLQESGPGLVKPSQSLSLTCTVTGYSITTGYAWNWIRQFPGNKLEWMGYISYSGSTYYPSLKSRISITRDTSKNQFFLQLSIVTTEDTATYYCARGTTLPDYVDFWGQGTSVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQTISTYLNWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYFCLQHFWTPPITFGQGTRLEIK</t>
+  </si>
+  <si>
+    <t>QVQLQESGPGLVKPSETLSVTCTVSGGSIGSNNYWSWIRQPAGKGLEWIGYIYYSGSTNYNPSLKSRVTMSVDTSKNQFSLKLSSVTAADTAVYYCVRNYYDSSDSSGYYFMDVWGQGTTVTVSSGGGSGGGSGGGSDIVMTQSPLSLSVTPGEPASISCRSSQSLLHSNGYNYLDWYLQKPGQSPQLLIYLGSNRASGVPDRFSGSGSGTDFTLKISRVEAEDVGVYYCMQALQTPTFGQGTRLEIK</t>
+  </si>
+  <si>
+    <t>QVQLVQSGAEVKKPGESLKISCKGSGYRFSSYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAMYYCARQGPDYYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSTLSASVGDRVTITCRASQSISSWLAWYQQKPGKAPKLLIYKASELQSGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQQYINSYTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>QVQLQQSGPELVKPGASVKLSCKASGYTFTDYYMHWVKQRPGQGLEWIGEINPNSGGTNTYDQKFKGRATLTVDKSSSTAYLQLSSLTSEDSAVYYCARSPPWYFDYWGQGTTLTVSGGGSGGGSGGGSGGGSDIVMTQSPSSMFASVGETVTITCRASENIYSNLAWYQQKPGQSPKLLIYWASTRHTGVPDRFTGSGSGTDFTLTISSVQAEDLALYYCQHYGSYSFTFGSGTKLEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRNYVYSSGYLDFWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSYSSPPTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNIYYSSIHWVRQAPGKGLEWVASISPYYGSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARDYGHYYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVMTQSPATLSVSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYGASTRATGIPARFSGSGSGTEFTLTISSLQSEDSAVYYCQQYNNWPPITFGQGTRLEIK</t>
+  </si>
+  <si>
+    <t>QVQLQESGPGLVKPSETLSLSCVVSGDSSSTNYYWGWIRQPPGKGLEWIGYIYGSGDTAYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARRSWGYGYNGYSTYYYYYYFDQGYFDVWGPGTLVTGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSIGSYLNWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTEFTLTISSLQPEDFATYYCQQSYSWGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>QVQLVQSGAEVKKPGASVKVSCKASGYTFTSYGISWVRQAPGQGLEWMGWISAHNGDTNYAQKFQGRVTMTRDTSITTAYMELRSDDTAVYYCARDGSVGGFYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPITFGQGTRLEIK</t>
+  </si>
+  <si>
+    <t>EVQLLESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASISPYYGSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSYYWYWSGWGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSYGSPPTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGHYAWWIRQPPGKGLEWIACIYSSSGSTYYNPSLKSRITISVDTSKNQFSLKLSSVTAADTAVYYCARRQRGYDYDYYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISRNLAWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSNNWPITFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNIYYSSIHWVRQAPGKGLEWVASIYSYYSSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARVYGYLSYSYFYWGLDVWGQGTLVTVSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEI</t>
+  </si>
+  <si>
+    <t>EVQLQQSGAELVKPGASVKLSCTASGFNIKDTYVHWVKQRPEQGLEWIGRIDPANGYTKYDPKFQGKATITADTSSNTAYLQLSSLTSEDTAVYYCVRPLYDYYAMDYWGQGTTLTVSSGGGSGGGSGGGSGGGSDIVMTQSPSSLAMSAGRVSITCRTSQSISSYLNWVQQKPGKSPKLLIYWASTRESGVPDRFTGSGSGTDFTLTISRVEAEDLGVYYCMQGTHVPYTFGGGTKLEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVKPGGSLRLSCAASGFTFSSYAMHWVRQAPGKGLEWVSAISGGGGSTYYADSVKGRFTISRDNSKNTLYLQMRAEDTAVYYCAKDDADWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPFTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGSYYWIRQSPGKGLEWIGYIYYSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARHRYYDRGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPASLSASVGETVTITCRASENIYSNLAWYQQKQGKSPQLLVYAATDLADGVPSRFSGSGSGTQFSLKINSLQPEDFGSYYCQHFWDTPWTFGQGTRVE</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNLYSSSIHWVRQAPGKGLEWVAYISSSGTHYADSVKGRFTISADTSKNTAYLQMRAEDTAVYYCARVGHYYSSGGYYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYSSYWTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVVDSGISWVRQAPGKGLEWVSYISSSSGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARAHYYGSYFGSVVYYYGLDVWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYDTYPITFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVYSSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSYSTYYYGYWYFDVWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSAAVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYNYYWLITFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>QVQLQQPGAELVKPGASVKLSCKASGYTFTSDWIHWVKQRPGHGLEWIGEIIPSYGRANYNEKIQKKATLTADKSSSTAFMHLSSLTSEDSAVYYCARERGDGYFAVWGAGTTVTVSSGGGSGGGSGGGSGGGSDILLTQSPAILSVSPGERVSFSCRASQSIGTDIHWYQQRTNGSPRLLIKYASESISGIPSRFSGSGSGTDFTLSINSVESEDIANYYCQQSNRWPFTFGSGTKLEIK</t>
+  </si>
+  <si>
+    <t>VRLLESGGGLVQPGGSLKLSCAASGFDYSRYWMSWVRQAPGKGLKWIGEINPVSSTINYTPSLKDKFIISRDNAKDTLYLQISKVRSEDTALYYCARLYYGYGYWYFDVWGAGTTVTVSSGGGSGGGSGGGSGGGSDIVLTQSPAIMSAAPGDKVTMTCSASSSVSYIHWYQQKSGTSPKRWIYDTSKLTSGVPVRFSGSGSGTSYSLTINTMEAEDAATYYCQQWSSHPQTFGGGTKLEIl</t>
+  </si>
+  <si>
+    <t>QVQLQESGPGLVQPSQSLSLTCTVSGFSLTSYGVHWVRQSPGKGLEWLGVIWAGGSTDYNSALKSRLSISRDTSKNQVFLKMNSLQTDDTAMYYCAKHGSSNGDYWGQGTSVTVSSGGGSGGGSGGGSGGGSDIVMTQSPDSLAVSLGERATINCKSSQSVLYSSNNKNYLAWYQQKPEGQPPNLLIYWASTRESGVPDRFSGSGSGTDFTLTISSLQAEDVAVYYCQQYYSAPTFGQGTKLEIK</t>
+  </si>
+  <si>
+    <t>antigen_source</t>
+  </si>
+  <si>
+    <t>proteinbase</t>
+  </si>
+  <si>
+    <t>nipah_gpG_comp</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>From Protein Data Bank entry</t>
+  </si>
+  <si>
+    <t>From Proteinbase competition evaluation logic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -744,30 +935,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -791,7 +962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -811,12 +982,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -830,7 +996,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -901,9 +1081,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Colby" refreshedDate="45970.662648958336" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="50" xr:uid="{C69715DE-2A16-4198-9FD9-FAE4F60B2265}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Colby" refreshedDate="45971.564090046297" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="50" xr:uid="{C69715DE-2A16-4198-9FD9-FAE4F60B2265}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:S3000" sheet="Antibody Candidates"/>
+    <worksheetSource ref="A1:T3000" sheet="Antibody Candidates"/>
   </cacheSource>
   <cacheFields count="19">
     <cacheField name="antibody_id" numFmtId="0">
@@ -1062,17 +1242,19 @@
     <cacheField name="status_folded_franken_boltz2" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
-    <cacheField name="max_ipsae" numFmtId="0">
+    <cacheField name="min_ipsae" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="0.64176299999999997"/>
     </cacheField>
-    <cacheField name="min_ipsae" numFmtId="0">
+    <cacheField name="max_ipsae" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="0.69121100000000002"/>
     </cacheField>
     <cacheField name="submitted_to_comp" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-11-07T00:00:00" maxDate="2025-11-10T00:00:00" count="4">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-11-07T00:00:00" maxDate="2025-11-12T00:00:00" count="6">
         <d v="2025-11-07T00:00:00"/>
         <d v="2025-11-08T00:00:00"/>
         <d v="2025-11-09T00:00:00"/>
+        <d v="2025-11-10T00:00:00"/>
+        <d v="2025-11-11T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1925,7 +2107,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="40"/>
@@ -1946,7 +2128,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="41"/>
@@ -1967,7 +2149,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="42"/>
@@ -1988,7 +2170,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="43"/>
@@ -2009,7 +2191,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="44"/>
@@ -2030,7 +2212,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="45"/>
@@ -2051,7 +2233,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="46"/>
@@ -2072,7 +2254,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="47"/>
@@ -2093,7 +2275,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="48"/>
@@ -2114,7 +2296,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="49"/>
@@ -2135,13 +2317,13 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="5"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{135D55CA-26D1-4FA2-9199-54D547F2C103}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{135D55CA-26D1-4FA2-9199-54D547F2C103}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:C13" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -2277,11 +2459,13 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="4">
-        <item x="3"/>
+      <items count="6">
+        <item x="5"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -2361,7 +2545,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{34D8D9BF-DD48-4B0D-B005-50CFC13EA4CA}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{34D8D9BF-DD48-4B0D-B005-50CFC13EA4CA}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:C13" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -2497,11 +2681,13 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="4">
-        <item x="3"/>
+      <items count="6">
+        <item x="5"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -2581,7 +2767,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9A30A9A-0810-4D7B-BBE4-92BE215D0229}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9A30A9A-0810-4D7B-BBE4-92BE215D0229}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:C12" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -2717,11 +2903,13 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="4">
-        <item x="3"/>
+      <items count="6">
+        <item x="5"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -2782,6 +2970,450 @@
   </colItems>
   <pageFields count="1">
     <pageField fld="18" item="3" hier="-1"/>
+  </pageFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4154B109-E0E8-463A-8A38-71BCCBD1ABE8}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A4:C13" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="19">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="50">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="50">
+        <item x="19"/>
+        <item x="15"/>
+        <item x="23"/>
+        <item x="7"/>
+        <item x="28"/>
+        <item x="6"/>
+        <item x="11"/>
+        <item x="17"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="22"/>
+        <item x="9"/>
+        <item x="18"/>
+        <item x="13"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="14"/>
+        <item x="20"/>
+        <item x="16"/>
+        <item x="8"/>
+        <item x="27"/>
+        <item x="24"/>
+        <item x="26"/>
+        <item x="21"/>
+        <item x="25"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisPage" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="6">
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="0"/>
+    <field x="1"/>
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x v="29"/>
+      <x v="1"/>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+      <x v="1"/>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+      <x v="1"/>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+      <x v="1"/>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+      <x v="1"/>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+      <x v="1"/>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+      <x v="1"/>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+      <x v="1"/>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+      <x v="1"/>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+      <x v="1"/>
+      <x v="38"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="18" item="4" hier="-1"/>
+  </pageFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D8BCE7CB-DCA8-443D-A73C-3A819111AB4F}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A4:C13" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="19">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="50">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="50">
+        <item x="19"/>
+        <item x="15"/>
+        <item x="23"/>
+        <item x="7"/>
+        <item x="28"/>
+        <item x="6"/>
+        <item x="11"/>
+        <item x="17"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="22"/>
+        <item x="9"/>
+        <item x="18"/>
+        <item x="13"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="14"/>
+        <item x="20"/>
+        <item x="16"/>
+        <item x="8"/>
+        <item x="27"/>
+        <item x="24"/>
+        <item x="26"/>
+        <item x="21"/>
+        <item x="25"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisPage" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="6">
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="0"/>
+    <field x="1"/>
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x v="39"/>
+      <x v="1"/>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+      <x v="1"/>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+      <x v="1"/>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+      <x v="1"/>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+      <x v="1"/>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+      <x v="1"/>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+      <x v="1"/>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+      <x v="1"/>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+      <x v="1"/>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+      <x v="1"/>
+      <x v="48"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="18" item="5" hier="-1"/>
   </pageFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -3112,13 +3744,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T50"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3129,2887 +3761,3254 @@
     <col min="4" max="4" width="11.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54" style="2" customWidth="1"/>
-    <col min="9" max="9" width="42.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12" style="2" customWidth="1"/>
-    <col min="12" max="12" width="71.28515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="9"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="18.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="54" style="2" customWidth="1"/>
+    <col min="10" max="10" width="42.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="2" customWidth="1"/>
+    <col min="13" max="13" width="71.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="U1" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="T1" s="7"/>
-    </row>
-    <row r="2" spans="1:20" ht="75" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D2" s="4">
         <v>0.7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="1" t="b">
+      <c r="K2" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L2" s="2" t="str">
-        <f>_xlfn.CONCAT(H2,K2,I2)</f>
+      <c r="L2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M2" s="2" t="str">
+        <f>_xlfn.CONCAT(I2,L2,J2)</f>
         <v>QVQLVESGGGVVQPGRSLRLSCAASGFTFSSYGMHWVRQAPGKGLEWVAVISYDGSKKYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARSPFYDSSGYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISSYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQANSFPPTFGQGTKVEIK</v>
       </c>
-      <c r="M2" s="1">
-        <f>LEN(L2)</f>
+      <c r="N2" s="1">
+        <f>LEN(M2)</f>
         <v>246</v>
       </c>
-      <c r="N2" s="1" t="b">
-        <f>IF(M2&lt;=250,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
       <c r="O2" s="1" t="b">
-        <f>TRUE()</f>
+        <f>IF(N2&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P2" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="R2" s="4">
         <v>0.25843100000000002</v>
       </c>
-      <c r="R2" s="4">
+      <c r="S2" s="4">
         <v>0.33503300000000003</v>
       </c>
-      <c r="S2" s="12">
+      <c r="T2" s="9">
         <v>45968</v>
       </c>
-      <c r="T2" s="8"/>
-    </row>
-    <row r="3" spans="1:20" ht="60" x14ac:dyDescent="0.2">
+      <c r="U2" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="V2" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D3" s="4">
         <v>0.7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="1" t="b">
+      <c r="K3" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L3" s="2" t="str">
-        <f t="shared" ref="L3:L50" si="0">_xlfn.CONCAT(H3,K3,I3)</f>
+      <c r="L3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M3" s="2" t="str">
+        <f t="shared" ref="M3:M50" si="0">_xlfn.CONCAT(I3,L3,J3)</f>
         <v>QVQLVESGGGVVQPGKSLRLSCAASGFTFSSYAMSWVRQAPGKGPEWVAFISYDGSNNYYADSVKGRFTISRDNPKNTLYLQMKSLRAEDTAVYYCARWRQRFDMYWGRGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK</v>
       </c>
-      <c r="M3" s="1">
-        <f>LEN(L3)</f>
+      <c r="N3" s="1">
+        <f>LEN(M3)</f>
         <v>240</v>
       </c>
-      <c r="N3" s="1" t="b">
-        <f t="shared" ref="N3:N50" si="1">IF(M3&lt;=250,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
       <c r="O3" s="1" t="b">
-        <f>TRUE()</f>
+        <f t="shared" ref="O3:O50" si="1">IF(N3&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P3" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="R3" s="4">
         <v>0</v>
       </c>
-      <c r="R3" s="4">
+      <c r="S3" s="4">
         <v>5.4939999999999998E-3</v>
       </c>
-      <c r="S3" s="12">
+      <c r="T3" s="9">
         <v>45969</v>
       </c>
-      <c r="T3" s="8"/>
-    </row>
-    <row r="4" spans="1:20" ht="60" x14ac:dyDescent="0.2">
+      <c r="U3" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="V3" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D4" s="4">
         <v>0.9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="1" t="b">
+      <c r="K4" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L4" s="2" t="str">
+      <c r="L4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>QVQLQESGPGLVKPSETLSLTCTVSGASIRGYYWSWIRQFPGKELEWIGYVYSGSTENYNPSLKSRVTVTLTDTKNSFSLKLNSVTSEDTAVYYCARGGALIYYDVWGTGTTVTVSSGGGSGGGSGGGSGGGSDIQVTQSPVSLSASVGDRVTITCRASQGIDSLNWFQQRPGKAPKLLIYAASQLTGIAPRFRSGSGSGTDFTLTISSLQPEDFATYYCQQYNIYPATFGQGTKVEIK</v>
       </c>
-      <c r="M4" s="1">
-        <f>LEN(L4)</f>
+      <c r="N4" s="1">
+        <f>LEN(M4)</f>
         <v>239</v>
       </c>
-      <c r="N4" s="1" t="b">
+      <c r="O4" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O4" s="1" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="P4" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q4" s="4">
-        <v>0</v>
+      <c r="Q4" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="R4" s="4">
         <v>0</v>
       </c>
-      <c r="S4" s="12">
+      <c r="S4" s="4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="9">
         <v>45969</v>
       </c>
-      <c r="T4" s="8"/>
-    </row>
-    <row r="5" spans="1:20" ht="60" x14ac:dyDescent="0.2">
+      <c r="U4" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="V4" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D5" s="4">
         <v>0.9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="1" t="b">
+      <c r="K5" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L5" s="2" t="str">
+      <c r="L5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>EVQLVQSGAEVKKPGESLKISCKGSGYTFSYYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAMYYCARGEGVFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSYTLTQAPSVSASGQSVTISCTGTSRDVGTYWYQQIPGRAPKLLIHDKSENQGKTPGIPDRFSGSKSGNTASLVIIRGLQADDEADYYCNSYHGSGSNIFGGGTKLTVD</v>
       </c>
-      <c r="M5" s="1">
-        <f>LEN(L5)</f>
+      <c r="N5" s="1">
+        <f>LEN(M5)</f>
         <v>240</v>
       </c>
-      <c r="N5" s="1" t="b">
+      <c r="O5" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O5" s="1" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="P5" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="R5" s="4">
         <v>5.2389999999999997E-3</v>
       </c>
-      <c r="R5" s="4">
+      <c r="S5" s="4">
         <v>8.0114000000000005E-2</v>
       </c>
-      <c r="S5" s="12">
+      <c r="T5" s="9">
         <v>45969</v>
       </c>
-      <c r="T5" s="8"/>
-    </row>
-    <row r="6" spans="1:20" ht="60" x14ac:dyDescent="0.2">
+      <c r="U5" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D6" s="4">
         <v>0.5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="1" t="b">
+      <c r="K6" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L6" s="2" t="str">
+      <c r="L6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYWMNWVRQAPGKGLEWVANINQDGGEKYYVDSVKGRFTISRDNAKNSLYLQMNSLRAEDTAIYYCARDVGGGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</v>
       </c>
-      <c r="M6" s="1">
-        <f>LEN(L6)</f>
+      <c r="N6" s="1">
+        <f>LEN(M6)</f>
         <v>238</v>
       </c>
-      <c r="N6" s="1" t="b">
+      <c r="O6" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O6" s="1" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="P6" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="R6" s="4">
         <v>0</v>
       </c>
-      <c r="R6" s="4">
+      <c r="S6" s="4">
         <v>5.3489999999999996E-3</v>
       </c>
-      <c r="S6" s="12">
+      <c r="T6" s="9">
         <v>45969</v>
       </c>
-      <c r="T6" s="8"/>
-    </row>
-    <row r="7" spans="1:20" ht="75" x14ac:dyDescent="0.2">
+      <c r="U6" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L7" s="2" t="str">
+      <c r="K7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>QVQLVESGGGVVQPGRSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAIWSNGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARDYGSYGYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPLSLPVTPGEPASISCRSSQSLLYSNGNTYLEWYLQKPGQSPQLLIYLVSKLDSGVPDRFSGSGSGTDFTLKISRVEAEDLGIYYCQQSKEVPYTFGAGTKLEIK</v>
       </c>
-      <c r="M7" s="1">
-        <f t="shared" ref="M7:M50" si="2">LEN(L7)</f>
+      <c r="N7" s="1">
+        <f t="shared" ref="N7:N50" si="2">LEN(M7)</f>
         <v>247</v>
       </c>
-      <c r="N7" s="1" t="b">
+      <c r="O7" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O7" s="1" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="P7" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="R7" s="4">
         <v>0</v>
       </c>
-      <c r="R7" s="4">
+      <c r="S7" s="4">
         <v>1.302E-2</v>
       </c>
-      <c r="S7" s="12">
+      <c r="T7" s="9">
         <v>45969</v>
       </c>
-      <c r="T7" s="8"/>
-    </row>
-    <row r="8" spans="1:20" ht="75" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="D8" s="4">
         <v>0.1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L8" s="2" t="str">
+      <c r="K8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>AVSLVESGGGTVKPGESVTLSCQASGFNFSKYQWVWVRQAPGKGLEWVGQISPDGSKTRYHPSVAGRFTISRDNSNSTLYLHMSNLRPEDTAVYYCGIIPQDNVHGDYSISHWGQGTLLTVSAGGGSGGGSGGGSGGGSAIKLTQSPKSLSASVGDTVTINCTASRPIGDLLSWYKQKPGKPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSSDFATYYCRQTSRFPITFGEGTTINKK</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
-      <c r="N8" s="1" t="b">
+      <c r="O8" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O8" s="1" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="P8" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="R8" s="4">
         <v>5.2820000000000002E-3</v>
       </c>
-      <c r="R8" s="4">
+      <c r="S8" s="4">
         <v>8.6638999999999994E-2</v>
       </c>
-      <c r="S8" s="12">
+      <c r="T8" s="9">
         <v>45968</v>
       </c>
-      <c r="T8" s="8"/>
-    </row>
-    <row r="9" spans="1:20" ht="75" x14ac:dyDescent="0.2">
+      <c r="U8" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="V8" s="4">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="D9" s="4">
         <v>0.1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L9" s="2" t="str">
+      <c r="K9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>AVSITESGGGTKAPGSSVTLSCKVSGFVFSKYSIAWVRQAPGQGLEWVSQISPDGSTTRYNPAVAGRFTISRDNSNSTAYLQMSNLTPSDTATYYCAIIPQDNEHGDYSLSHWGQGTQLTVSAGGGSGGGSGGGSGGGSAIKLTQSPKSLSAKVGDTVTINCTASAPIGDFLSWYKQKPGQPPQLLIYKSSTLAPGVSSRYSGSGSDTNFTLTISSLQEEDFATYYCQQTATLPITFGEGTTINKK</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
-      <c r="N9" s="1" t="b">
+      <c r="O9" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O9" s="1" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="P9" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q9" s="4">
-        <v>0</v>
+      <c r="Q9" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="R9" s="4">
         <v>0</v>
       </c>
-      <c r="S9" s="12">
+      <c r="S9" s="4">
+        <v>0</v>
+      </c>
+      <c r="T9" s="9">
         <v>45969</v>
       </c>
-      <c r="T9" s="8"/>
-    </row>
-    <row r="10" spans="1:20" ht="75" x14ac:dyDescent="0.2">
+      <c r="U9" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="D10" s="4">
         <v>0.1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L10" s="2" t="str">
+      <c r="K10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SISLVESGGGTVAPGSSVTLSCQASGFNFSKYSKAWVRQPPGQPLEWVSRISPDGSTKYYHPDVAGRFTISKDNSKSTVYLAMSNLTAADTATYYCGIIPGDNTHGDYAMSHWGQGTLLTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTISCTASRPIGDKLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTSFTLTISSLQEDDFATYYCQQTYTLPITFGQGTTISKK</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
-      <c r="N10" s="1" t="b">
+      <c r="O10" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O10" s="1" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="P10" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="R10" s="4">
         <v>0.116301</v>
       </c>
-      <c r="R10" s="4">
+      <c r="S10" s="4">
         <v>0.18454400000000001</v>
       </c>
-      <c r="S10" s="12">
+      <c r="T10" s="9">
         <v>45968</v>
       </c>
-      <c r="T10" s="8"/>
-    </row>
-    <row r="11" spans="1:20" ht="75" x14ac:dyDescent="0.2">
+      <c r="U10" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="D11" s="4">
         <v>0.1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L11" s="2" t="str">
+      <c r="K11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GVSLTESGGGTVAPGSSVTLSCKASGFNFSKYSHAWVRQAPGQGLTWVGEISPDGSKTRYASSVAGRFTISRDNSNSTVYLQMSSLTPSDTATYYCGIIPGDSVHGERSMSHWGQGTLLTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTLNCTASRPIGDRLSWYKQKPGQAPQLLIYRASTLAPGVSSRYSGSGSDTQFTLTISSLQSDDFATYYCQQTSSYPVTFGQGTTITKK</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
-      <c r="N11" s="1" t="b">
+      <c r="O11" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O11" s="1" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="P11" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="R11" s="4">
         <v>0</v>
       </c>
-      <c r="R11" s="4">
+      <c r="S11" s="4">
         <v>4.8060000000000004E-3</v>
       </c>
-      <c r="S11" s="12">
+      <c r="T11" s="9">
         <v>45968</v>
       </c>
-      <c r="T11" s="8"/>
-    </row>
-    <row r="12" spans="1:20" ht="75" x14ac:dyDescent="0.2">
+      <c r="U11" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="V11" s="4">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="D12" s="4">
         <v>0.1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L12" s="2" t="str">
+      <c r="K12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" s="2" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">EVSLVESGGGTVKPGESVTLSCQASGFNFSKYRLAWVRQPPGQGLVWVSEISPDGTEVKYHPDVKGRFTASRDNSNSTAYLKMNNLQPSDTATYYCGIIPQDSSHGDYSISHWGQGTQLTVSAGGGSGGGSGGGSGGGSTITLTQSPSSLSASVGDTVTINCTASRPIGDFLSWYKQKPGQPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSDDFATYYCQQTYTLPITFGQGTTLTKK </v>
       </c>
-      <c r="M12" s="1">
+      <c r="N12" s="1">
         <f t="shared" si="2"/>
         <v>247</v>
       </c>
-      <c r="N12" s="1" t="b">
+      <c r="O12" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O12" s="1" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="P12" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="S12" s="12">
+      <c r="Q12" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="T12" s="9">
         <v>45969</v>
       </c>
-      <c r="T12" s="8"/>
-    </row>
-    <row r="13" spans="1:20" ht="75" x14ac:dyDescent="0.2">
+      <c r="U12" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="V12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="D13" s="4">
         <v>0.1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L13" s="2" t="str">
+      <c r="K13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>AVSLVESGGGTYAPGSSVTLSCQGSGFNFSKVRKVWVRQPPGGPLEYVAEISPDGSTTTYASSVAGRFTISKDNSNSTLYLSMSNLTPADTATYYCGLIPGDSEHGDRSISHWGQGTLVTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTINCTASQPIGNFLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTNFTLTISSLQSEDFATYYCQQTSRLPVTFGQGTTINKK</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
-      <c r="N13" s="1" t="b">
+      <c r="O13" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O13" s="1" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="P13" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q13" s="4">
-        <v>0</v>
+      <c r="Q13" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="R13" s="4">
         <v>0</v>
       </c>
-      <c r="S13" s="12">
+      <c r="S13" s="4">
+        <v>0</v>
+      </c>
+      <c r="T13" s="9">
         <v>45969</v>
       </c>
-      <c r="T13" s="8"/>
-    </row>
-    <row r="14" spans="1:20" ht="75" x14ac:dyDescent="0.2">
+      <c r="U13" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="D14" s="4">
         <v>0.1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L14" s="2" t="str">
+      <c r="K14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GISLVESGGGTVKPGESVTLSCKASGFVFSKYSHAWVRQPPGGPLEWVSQISSDGSVTRYASSVSGRFTISRDNSNSTVYLQMNNLRPSDTATYYCGIIPQDNVHGDYAISHWGQGTLLTVTAGGGSGGGSGGGSGGGSAITLTQSPASLSAKVGDTVTLSCTASRPIGDLLSWYKQKPGQPPQLLIYRASTLAPGVDSRYSGSGSDTSFTLTISSLQPEDFATYYCQQTSRFPITFGQGTTIKQA</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N14" s="1">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
-      <c r="N14" s="1" t="b">
+      <c r="O14" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O14" s="1" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="P14" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="R14" s="4">
         <v>5.7704999999999999E-2</v>
       </c>
-      <c r="R14" s="4">
+      <c r="S14" s="4">
         <v>0.165157</v>
       </c>
-      <c r="S14" s="12">
+      <c r="T14" s="9">
         <v>45968</v>
       </c>
-      <c r="T14" s="8"/>
-    </row>
-    <row r="15" spans="1:20" ht="75" x14ac:dyDescent="0.2">
+      <c r="U14" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="V14" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="4">
         <v>0.15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L15" s="2" t="str">
+      <c r="K15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M15" s="2" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">PVSLVESGGGTVAPGSSVTLTCQASGFNFSKYIVAWVRQPPGQPLRFVAMITPDGSKVWLHPEVEGRFTPSKDNSKNTSYLQLKDLQPEDTATYYCGIIPQGSTHGDYSITHWGQGVVLTVTAGGGSGGGSGGGSGGGSMVTLTQSPSSLSASVGDTVTITCTASSPVDNLMSWYQQPPGQPLRLLIYNASTRAPGVSSRFSGSGSDTNFTLTISSLQASDFATYYCQQTYRLPVTFGQGTTLSAA </v>
       </c>
-      <c r="M15" s="1">
+      <c r="N15" s="1">
         <f t="shared" si="2"/>
         <v>247</v>
       </c>
-      <c r="N15" s="1" t="b">
+      <c r="O15" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O15" s="1" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="P15" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="S15" s="12">
+      <c r="Q15" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="T15" s="9">
         <v>45969</v>
       </c>
-      <c r="T15" s="8"/>
-    </row>
-    <row r="16" spans="1:20" ht="75" x14ac:dyDescent="0.2">
+      <c r="U15" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="V15" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="4">
         <v>0.15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L16" s="2" t="str">
+      <c r="K16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIKLTESGGGTVKPGSSVTLSCQASGFNFSKYEVVWVMQKPGQPLQWVGSISPDGSKVRLHPKVKGRFTLSKDNSKNTAYLTMKNLQPEDTATYYCGIIPGGSVHGDRSITHWGQGVELKVVAGGGSGGGSGGGSGGGSMIKLTQSPKSVKAKVGDTVTITCTASEPVDDLVSWYQQKPGQPLRLLIYRSSTLAPGVSSRFSGSGSDTNFTLTISSLQEEDFATYYCMQTSKYPYTFGQGTTLSRA</v>
       </c>
-      <c r="M16" s="1">
+      <c r="N16" s="1">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
-      <c r="N16" s="1" t="b">
+      <c r="O16" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O16" s="1" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="P16" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="R16" s="4">
         <v>0.15156800000000001</v>
       </c>
-      <c r="R16" s="4">
+      <c r="S16" s="4">
         <v>0.23256399999999999</v>
       </c>
-      <c r="S16" s="12">
+      <c r="T16" s="9">
         <v>45968</v>
       </c>
-      <c r="T16" s="8"/>
-    </row>
-    <row r="17" spans="1:20" ht="75" x14ac:dyDescent="0.2">
+      <c r="U16" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="V16" s="4">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="4">
         <v>0.15</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L17" s="2" t="str">
+      <c r="K17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>AITLTESGGGVVAPGSSVTLTCTASGFNFSKYSMVWVRQPPGGPLQWVAQISPDNSTVRYHPAVEGRFTASKDNSKNTAYLAMSDLEPSDTATYYCGIIPQGSTHNDYSIVHWGQGTELRVVAGGGSGGGSGGGSGGGSMIKLTQSPSSLSAKVGDKVTITCTASSPVDNLVSWYKQPPGGPLQLLIYNSSTRAPGVSSRFKGSGSDTNFTLTIESLQEEDFATYYCQQTYKFPITFGQGTKLTRA</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N17" s="1">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
-      <c r="N17" s="1" t="b">
+      <c r="O17" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O17" s="1" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="P17" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q17" s="4">
-        <v>0</v>
+      <c r="Q17" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="R17" s="4">
         <v>0</v>
       </c>
-      <c r="S17" s="12">
+      <c r="S17" s="4">
+        <v>0</v>
+      </c>
+      <c r="T17" s="9">
         <v>45969</v>
       </c>
-      <c r="T17" s="8"/>
-    </row>
-    <row r="18" spans="1:20" ht="75" x14ac:dyDescent="0.2">
+      <c r="U17" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="V17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="4">
         <v>0.15</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L18" s="2" t="str">
+      <c r="K18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SISLTESGGGTVAPGSSVTLTCTASGFNFSKYSVAWVRQPPGQPLQWVALISPDGSKKWYHPDVKGRATISKDNSKNTSYLTLSNLQPSDTATYYCGIIPGGNIHGDYSMTHWGQGTQLTVVAGGGSGGGSGGGSGGGSMITLTQSPLSLSAKVGDTVTITCTASSPVDDLVSWYQQKPGQPLRLLIRNASERAPGVSSRFSGSGSDTTFTLTISSVQEEDFATYYCQQTSKLPYTFGQGTTLSRA</v>
       </c>
-      <c r="M18" s="1">
+      <c r="N18" s="1">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
-      <c r="N18" s="1" t="b">
+      <c r="O18" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O18" s="1" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="P18" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q18" s="4">
-        <v>0</v>
+      <c r="Q18" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="R18" s="4">
         <v>0</v>
       </c>
-      <c r="S18" s="12">
+      <c r="S18" s="4">
+        <v>0</v>
+      </c>
+      <c r="T18" s="9">
         <v>45970</v>
       </c>
-      <c r="T18" s="8"/>
-    </row>
-    <row r="19" spans="1:20" ht="75" x14ac:dyDescent="0.2">
+      <c r="U18" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="V18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" s="4">
         <v>0.15</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L19" s="2" t="str">
+      <c r="K19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>AVTLTESGGGTVAPGSSVTLTCTASGFNFSKYILAWVRQAPGQPLEWVASISPDGSKTRYHPAVKGRATASKDNSKNTAYLELKDLRPEDTATYYCGIIPQGSVHGDYSMTHWGQGTELRVEAGGGSGGGSGGGSGGGSPVVLTQSPLSLSAKVGDTVTITCTASSPVDNLVSWYKQAPGQPLQLLIYNATTRAPGVPSRFTGSGSDTTFTLTISSLQPEDFAVYYCQQTYKFPITFGQGTRLTPA</v>
       </c>
-      <c r="M19" s="1">
+      <c r="N19" s="1">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
-      <c r="N19" s="1" t="b">
+      <c r="O19" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="1" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="P19" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="R19" s="4">
         <v>0</v>
       </c>
-      <c r="R19" s="4">
+      <c r="S19" s="4">
         <v>6.1079999999999997E-3</v>
       </c>
-      <c r="S19" s="12">
+      <c r="T19" s="9">
         <v>45970</v>
       </c>
-      <c r="T19" s="8"/>
-    </row>
-    <row r="20" spans="1:20" ht="75" x14ac:dyDescent="0.2">
+      <c r="U19" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="V19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="4">
         <v>0.15</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L20" s="2" t="str">
+      <c r="K20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PVKLVESGGGTVAPGSSVTLTCKASGFNFSKYMVQWVRQAPGGAFQWVGLISPDGSTKWYHPDVEGRFTISKDNSKNTAYLEMRNLTPADTAVYYCGIVPQGSVHGDYSITHWGQGVTLTVTAGGGSGGGSGGGSGGGSVVQLTQSPPELSAKVGEKVTITCTASSPVDNLVSWYQQKPGGAPKLLIYNATTLAPGVPSRFSGSGSDTVFTLTIDSLQAEDFATYYCQQTSRLPFTFGQGTVLRPA</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20" s="1">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
-      <c r="N20" s="1" t="b">
+      <c r="O20" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O20" s="1" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="P20" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q20" s="4">
-        <v>0</v>
+      <c r="Q20" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="R20" s="4">
         <v>0</v>
       </c>
-      <c r="S20" s="12">
+      <c r="S20" s="4">
+        <v>0</v>
+      </c>
+      <c r="T20" s="9">
         <v>45970</v>
       </c>
-      <c r="T20" s="8"/>
-    </row>
-    <row r="21" spans="1:20" ht="75" x14ac:dyDescent="0.2">
+      <c r="U20" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="V20" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="4">
         <v>0.15</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L21" s="2" t="str">
+      <c r="K21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>AIKLTESGGGTVKPGSSVTLTCQASGFNFSKYIMAWVRQAPGQPLQWVAQISPDNSVKRYHPEVEGRFTASKDNSKNTAYLEMKNLTPADTATYYCAIIPQGSTQGDYSMVHWGQGVELKVVAGGGSGGGSGGGSGGGSPVVLTQSPASLKAAVGDTVTITCTASAPVDNLVSWYKQAPGQPPQLLIYNASTLAPGVPSRFTGSGSDTSFTLTISSLQEEDFATYYCQETSKFPITFGQGTKLEKK</v>
       </c>
-      <c r="M21" s="1">
+      <c r="N21" s="1">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
-      <c r="N21" s="1" t="b">
+      <c r="O21" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O21" s="1" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="P21" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q21" s="4">
-        <v>0</v>
+      <c r="Q21" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="R21" s="4">
         <v>0</v>
       </c>
-      <c r="S21" s="12">
+      <c r="S21" s="4">
+        <v>0</v>
+      </c>
+      <c r="T21" s="9">
         <v>45970</v>
       </c>
-      <c r="T21" s="8"/>
-    </row>
-    <row r="22" spans="1:20" ht="75" x14ac:dyDescent="0.2">
+      <c r="U21" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="V21" s="4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="4">
         <v>0.15</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L22" s="2" t="str">
+      <c r="K22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SIKLTESGGGVVAPGESVTLTCTASGFNFSKYEMAWVRQAPGGPLEFVAVISPDGSTTRYHPRVEGRATISRDNSKNTAYLTLRDLTPADTAVYYCGIIPGGSVHGDRALSHWGQGVRLEVRAGGGSGGGSGGGSGGGSMVTLTQSPSSLSAKVGDKVTISCTASEPVDDLVSWYKQAPGGPPQLLISRASTRAPGVPSRFSGSGSDTNFTLTIESLQSSDFATYYCQQTYKFPDTFGQGTTLSEA</v>
       </c>
-      <c r="M22" s="1">
+      <c r="N22" s="1">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
-      <c r="N22" s="1" t="b">
+      <c r="O22" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O22" s="1" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="P22" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="R22" s="4">
         <v>0</v>
       </c>
-      <c r="R22" s="4">
+      <c r="S22" s="4">
         <v>5.0870000000000004E-3</v>
       </c>
-      <c r="S22" s="12">
+      <c r="T22" s="9">
         <v>45970</v>
       </c>
-      <c r="T22" s="8"/>
-    </row>
-    <row r="23" spans="1:20" ht="75" x14ac:dyDescent="0.2">
+      <c r="U22" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="V22" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="D23" s="4">
         <v>0.1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G23" s="1">
+        <v>100</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="1">
         <v>2</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="I23" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="L23" s="2" t="str">
+        <v>113</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M23" s="2" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">SVTLVESGDQTVAPGGSVTLSCTSSGGSFGNSGVSWVKQQPGGPLQWIGGIIPSLGISKVSPEYAGRVTISSDSSNNTAYLTISNLTAADTATYYCALGEGEDVFASSPFASNVNLGALSVWGQGTKVTVSGGGSGGGSGGGSITVTQSPSSPSLKVGETATLTCTLSAPVPRSNVAWYKQQPGQPPTLLIYGGSTRAPGVPSRYSGSGSGTTFTLTITALKPEDFATYYCQVYGENPSFGQGTTLKLK </v>
       </c>
-      <c r="M23" s="1">
+      <c r="N23" s="1">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="N23" s="1" t="b">
+      <c r="O23" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O23" s="1" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="P23" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="S23" s="12">
+      <c r="Q23" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="T23" s="9">
         <v>45970</v>
       </c>
-      <c r="T23" s="8"/>
-    </row>
-    <row r="24" spans="1:20" ht="75" x14ac:dyDescent="0.2">
+      <c r="U23" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="V23" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="D24" s="4">
         <v>0.1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G24" s="1">
+        <v>100</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="1">
         <v>2</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="I24" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="L24" s="2" t="str">
+        <v>116</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>GVKLVQSGDLTVKPGGSVTLSCKSEGGSFGNSSVAWVRQRPGGPYEYIGSIIPAYGVSRVSPEYEGRVTISADVANNTAYLTISNLTPEDTATYYCALGPGEVVYAASPFDEKLLTGALSVWGEGTLVTVTGGGSGGGSGGGSITVTQSPSSPSLSVGDTATLTCTLSSSVATSNVAWYKQLPGQPPELLISGGSTRAPGVPSRYSGSGSGTTFTLTISSLQASDFATYYCQVYGENPSFGQGTTLTLK</v>
       </c>
-      <c r="M24" s="1">
+      <c r="N24" s="1">
         <f t="shared" si="2"/>
         <v>249</v>
       </c>
-      <c r="N24" s="1" t="b">
+      <c r="O24" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O24" s="1" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="P24" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="R24" s="4">
         <v>0.31751499999999999</v>
       </c>
-      <c r="R24" s="4">
+      <c r="S24" s="4">
         <v>0.405559</v>
       </c>
-      <c r="S24" s="12">
+      <c r="T24" s="9">
         <v>45968</v>
       </c>
-      <c r="T24" s="8"/>
-    </row>
-    <row r="25" spans="1:20" ht="75" x14ac:dyDescent="0.2">
+      <c r="U24" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="D25" s="4">
         <v>0.1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G25" s="1">
+        <v>100</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="1">
         <v>2</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="J25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="L25" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="K25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M25" s="2" t="str">
+        <f>_xlfn.CONCAT(I25,L25,J25)</f>
         <v>AVKLVQSGDQTVAPGGSVTLSCTSSGGSFGNSSVAWVRQRPGGPFEFIGSIIPSLGISRYNSKYKGRVTISSDAANNTAYLTISNLTAADTATYYCALGPGESVFASHPFKEKLLTGALSVWGEGTLVTVSGGGSGGGSGGGSITVTQSPSSPSKSVGDTVTLTCTLSSSVPVSQVAWYKQHPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLQPEDFATYYCQVYGEEPSFGQGTTVTLA</v>
       </c>
-      <c r="M25" s="1">
+      <c r="N25" s="1">
         <f t="shared" si="2"/>
         <v>249</v>
       </c>
-      <c r="N25" s="1" t="b">
+      <c r="O25" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O25" s="1" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="P25" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q25" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="R25" s="4">
         <v>0.64176299999999997</v>
       </c>
-      <c r="R25" s="4">
+      <c r="S25" s="4">
         <v>0.69121100000000002</v>
       </c>
-      <c r="S25" s="12">
+      <c r="T25" s="9">
         <v>45968</v>
       </c>
-      <c r="T25" s="8"/>
-    </row>
-    <row r="26" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="U25" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="V25" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="D26" s="4">
         <v>0.1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G26" s="1">
+        <v>100</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="1">
         <v>2</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="I26" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="L26" s="2" t="str">
+        <v>112</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SITLVQSGDVTVAPGGSVTLTCTSSGGSFGNKAVAWVRQRPGGPYEWLGFIIPAYGVSRYNPAYEGRVTISVDSASNTASLTISNLTAADTATYYCALGEGEIVYAASPFDENYKLGALYIWGQGTKVTVSGGGSGGGSGGGSITLTQSPSSPSLSVGETATLTCTASAPVPKSNVAWYKQLPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLTADDFATYYCQVYGENPSFGEGTTLTLK</v>
       </c>
-      <c r="M26" s="1">
+      <c r="N26" s="1">
         <f t="shared" si="2"/>
         <v>249</v>
       </c>
-      <c r="N26" s="1" t="b">
+      <c r="O26" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O26" s="1" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="P26" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="Q26" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="R26" s="4">
         <v>5.2189999999999997E-3</v>
       </c>
-      <c r="R26" s="4">
+      <c r="S26" s="4">
         <v>5.4400000000000004E-3</v>
       </c>
-      <c r="S26" s="12">
+      <c r="T26" s="9">
         <v>45970</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="U26" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="V26" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="D27" s="4">
         <v>0.1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G27" s="1">
+        <v>100</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="1">
         <v>2</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="I27" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="L27" s="2" t="str">
+      <c r="K27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SVTLVQSGDQTVPIGGSVTLSCTANGGSFGNKGVAWVRQRPGGPYEFLGFIKPAIGESRYHPKYKGRVTISSDVSSNTAYLTISNLTPEDTAVYYCALGEAEDVFAAHPFKTDLLLGALSIWGQGTRVTVTGGGSGGGSGGGSITVTQSPSSPSLSVGETAVLTCTLSQPVPQSQVAWYKQLPGQPPTLLISGGSTRASGVPSRYSGSGSGTTFTLTISSLLPEDFATYYCQVVGKEPSFGQGTTLTLK</v>
       </c>
-      <c r="M27" s="1">
+      <c r="N27" s="1">
         <f t="shared" si="2"/>
         <v>249</v>
       </c>
-      <c r="N27" s="1" t="b">
+      <c r="O27" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O27" s="1" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="P27" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q27" s="4">
-        <v>0</v>
+      <c r="Q27" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="R27" s="4">
         <v>0</v>
       </c>
-      <c r="S27" s="12">
+      <c r="S27" s="4">
+        <v>0</v>
+      </c>
+      <c r="T27" s="9">
         <v>45970</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="U27" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="V27" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="D28" s="4">
         <v>0.1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" s="1">
+        <v>100</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="1">
         <v>2</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="J28" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="L28" s="2" t="str">
+      <c r="J28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SVKLVQSGDQTVPVGGSVTLSCTASGGSFGNYGVAWVRQRPGGPLEYIGSIIPAYGISTVNPKYEGRVTISADPTNNTAYLTISNLTPEDTATYYCALGPGEVVFASSPFDIDVLTGALWVWGEGTKVTVTGGGSGGGSGGGSITVTQSPSSPSLKVGETATLTCTLSAPVAKSNVAWYKQLPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLQPEDFATYYCQVVGKNPSFGQGTLLKLK</v>
       </c>
-      <c r="M28" s="1">
+      <c r="N28" s="1">
         <f t="shared" si="2"/>
         <v>249</v>
       </c>
-      <c r="N28" s="1" t="b">
+      <c r="O28" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O28" s="1" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="P28" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="Q28" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="R28" s="4">
         <v>5.1520000000000003E-3</v>
       </c>
-      <c r="R28" s="4">
+      <c r="S28" s="4">
         <v>5.3605E-2</v>
       </c>
-      <c r="S28" s="12">
+      <c r="T28" s="9">
         <v>45970</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="U28" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="V28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="D29" s="4">
         <v>0.1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G29" s="1">
+        <v>100</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="1">
         <v>2</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="J29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="L29" s="2" t="str">
+      <c r="K29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SISLVQSSDQTVAPGGSVTLSCTSSGGSFGNSGVAWVRQAPGGPPVYIGGIIPATGVSTYNAAFKGRVTISSDSSNNTAYLTISGLTAADTATYYCALGPAENVFASHPFAEDVNLGALSVWGQGTLVTVTGGGSGGGSGGGSITVTESPSSPELSVGETAVLSCTLSSSVPQSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLEPEDFATYYCQVYGTSPSFGQGTTLKLK</v>
       </c>
-      <c r="M29" s="1">
+      <c r="N29" s="1">
         <f t="shared" si="2"/>
         <v>249</v>
       </c>
-      <c r="N29" s="1" t="b">
+      <c r="O29" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O29" s="1" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="P29" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="Q29" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="R29" s="4">
         <v>0.32629000000000002</v>
       </c>
-      <c r="R29" s="4">
+      <c r="S29" s="4">
         <v>0.41575699999999999</v>
       </c>
-      <c r="S29" s="12">
+      <c r="T29" s="9">
         <v>45968</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="U29" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="V29" s="4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="D30" s="4">
         <v>0.1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G30" s="1">
+        <v>100</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="1">
         <v>2</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="I30" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J30" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="L30" s="2" t="str">
+      <c r="K30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>AVSLVESGDQTVAPGGSVTLSCTSSGGSFGNSGVAWVRQAPGGPLEFLGFIIPALGVSKVNSKYEGRVTISSDPANNTAYLTISNLTAADTATYYCGLGTGESVFASSPFDEKLLLGALSVWGQGTKVTVTGGGSGGGSGGGSITVTQSPASPEKKVGETATLTCTLSSAVPKSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLQPEDFATYYCRVYGEEPSFGQGTTLKLK</v>
       </c>
-      <c r="M30" s="1">
+      <c r="N30" s="1">
         <f t="shared" si="2"/>
         <v>249</v>
       </c>
-      <c r="N30" s="1" t="b">
+      <c r="O30" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O30" s="1" t="b">
-        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="P30" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="Q30" s="1" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="R30" s="4">
         <v>0.50901600000000002</v>
       </c>
-      <c r="R30" s="4">
+      <c r="S30" s="4">
         <v>0.56638100000000002</v>
       </c>
-      <c r="S30" s="12">
+      <c r="T30" s="9">
         <v>45968</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="U30" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="V30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="4">
         <v>0.7</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L31" s="2" t="str">
+      <c r="K31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>VQLQESGPGLVKPSQSLSLTCTVTGYSITTGYAWNWIRQFPGNKLEWMGYISYSGSTYYPSLKSRISITRDTSKNQFFLQLSIVTTEDTATYYCARGTTLPDYVDFWGQGTSVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQTISTYLNWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYFCLQHFWTPPITFGQGTRLEIK</v>
       </c>
-      <c r="M31" s="1">
+      <c r="N31" s="1">
         <f t="shared" si="2"/>
         <v>241</v>
       </c>
-      <c r="N31" s="1" t="b">
+      <c r="O31" s="1" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="O31" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="P31" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="Q31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T31" s="9">
+        <v>45971</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32" s="4">
         <v>0.7</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J32" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="L32" s="2" t="str">
+      <c r="K32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>QVQLQESGPGLVKPSETLSVTCTVSGGSIGSNNYWSWIRQPAGKGLEWIGYIYYSGSTNYNPSLKSRVTMSVDTSKNQFSLKLSSVTAADTAVYYCVRNYYDSSDSSGYYFMDVWGQGTTVTVSSGGGSGGGSGGGSDIVMTQSPLSLSVTPGEPASISCRSSQSLLHSNGYNYLDWYLQKPGQSPQLLIYLGSNRASGVPDRFSGSGSGTDFTLKISRVEAEDVGVYYCMQALQTPTFGQGTRLEIK</v>
       </c>
-      <c r="M32" s="1">
+      <c r="N32" s="1">
         <f t="shared" si="2"/>
         <v>248</v>
       </c>
-      <c r="N32" s="1" t="b">
+      <c r="O32" s="1" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="O32" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="P32" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="Q32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T32" s="9">
+        <v>45971</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" s="4">
         <v>0.7</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="I33" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="J33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L33" s="2" t="str">
+      <c r="K33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>QVQLVQSGAEVKKPGESLKISCKGSGYRFSSYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAMYYCARQGPDYYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSTLSASVGDRVTITCRASQSISSWLAWYQQKPGKAPKLLIYKASELQSGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQQYINSYTFGQGTKVEIK</v>
       </c>
-      <c r="M33" s="1">
+      <c r="N33" s="1">
         <f t="shared" si="2"/>
         <v>242</v>
       </c>
-      <c r="N33" s="1" t="b">
+      <c r="O33" s="1" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="O33" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="P33" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="Q33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T33" s="9">
+        <v>45971</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="4">
         <v>0.7</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="I34" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="J34" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L34" s="2" t="str">
+      <c r="K34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>QVQLQQSGPELVKPGASVKLSCKASGYTFTDYYMHWVKQRPGQGLEWIGEINPNSGGTNTYDQKFKGRATLTVDKSSSTAYLQLSSLTSEDSAVYYCARSPPWYFDYWGQGTTLTVSGGGSGGGSGGGSGGGSDIVMTQSPSSMFASVGETVTITCRASENIYSNLAWYQQKPGQSPKLLIYWASTRHTGVPDRFTGSGSGTDFTLTISSVQAEDLALYYCQHYGSYSFTFGSGTKLEIK</v>
       </c>
-      <c r="M34" s="1">
+      <c r="N34" s="1">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="N34" s="1" t="b">
+      <c r="O34" s="1" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="O34" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="P34" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="Q34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T34" s="9">
+        <v>45971</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" s="4">
         <v>0.7</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J35" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="J35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L35" s="2" t="str">
+      <c r="K35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRNYVYSSGYLDFWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSYSSPPTFGQGTKVEIK</v>
       </c>
-      <c r="M35" s="1">
+      <c r="N35" s="1">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
-      <c r="N35" s="1" t="b">
+      <c r="O35" s="1" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="O35" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="P35" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="Q35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T35" s="9">
+        <v>45971</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="4">
         <v>0.7</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J36" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="I36" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="J36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L36" s="2" t="str">
+      <c r="K36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNIYYSSIHWVRQAPGKGLEWVASISPYYGSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARDYGHYYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVMTQSPATLSVSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYGASTRATGIPARFSGSGSGTEFTLTISSLQSEDSAVYYCQQYNNWPPITFGQGTRLEIK</v>
       </c>
-      <c r="M36" s="1">
+      <c r="N36" s="1">
         <f t="shared" si="2"/>
         <v>244</v>
       </c>
-      <c r="N36" s="1" t="b">
+      <c r="O36" s="1" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="O36" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="P36" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="Q36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T36" s="9">
+        <v>45971</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" s="4">
         <v>0.7</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="I37" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="L37" s="2" t="str">
+      <c r="K37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>QVQLQESGPGLVKPSETLSLSCVVSGDSSSTNYYWGWIRQPPGKGLEWIGYIYGSGDTAYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARRSWGYGYNGYSTYYYYYYFDQGYFDVWGPGTLVTGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSIGSYLNWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTEFTLTISSLQPEDFATYYCQQSYSWGQGTKVEIK</v>
       </c>
-      <c r="M37" s="1">
+      <c r="N37" s="1">
         <f t="shared" si="2"/>
         <v>247</v>
       </c>
-      <c r="N37" s="1" t="b">
+      <c r="O37" s="1" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="O37" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="P37" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="Q37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T37" s="9">
+        <v>45971</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" s="4">
         <v>0.7</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="J38" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L38" s="2" t="str">
+      <c r="K38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M38" s="2" t="str">
         <f t="shared" si="0"/>
         <v>QVQLVQSGAEVKKPGASVKVSCKASGYTFTSYGISWVRQAPGQGLEWMGWISAHNGDTNYAQKFQGRVTMTRDTSITTAYMELRSDDTAVYYCARDGSVGGFYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPITFGQGTRLEIK</v>
       </c>
-      <c r="M38" s="1">
+      <c r="N38" s="1">
         <f t="shared" si="2"/>
         <v>237</v>
       </c>
-      <c r="N38" s="1" t="b">
+      <c r="O38" s="1" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="O38" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="P38" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="Q38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T38" s="9">
+        <v>45971</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" s="4">
         <v>0.7</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="J39" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L39" s="2" t="str">
+      <c r="K39" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M39" s="2" t="str">
         <f t="shared" si="0"/>
         <v>EVQLLESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASISPYYGSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSYYWYWSGWGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSYGSPPTFGQGTKVEIK</v>
       </c>
-      <c r="M39" s="1">
+      <c r="N39" s="1">
         <f t="shared" si="2"/>
         <v>238</v>
       </c>
-      <c r="N39" s="1" t="b">
+      <c r="O39" s="1" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="O39" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="P39" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="Q39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T39" s="9">
+        <v>45971</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D40" s="4">
         <v>0.7</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J40" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="I40" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J40" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L40" s="2" t="str">
+      <c r="K40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M40" s="2" t="str">
         <f t="shared" si="0"/>
         <v>QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGHYAWWIRQPPGKGLEWIACIYSSSGSTYYNPSLKSRITISVDTSKNQFSLKLSSVTAADTAVYYCARRQRGYDYDYYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISRNLAWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSNNWPITFGQGTKVEIK</v>
       </c>
-      <c r="M40" s="1">
+      <c r="N40" s="1">
         <f t="shared" si="2"/>
         <v>248</v>
       </c>
-      <c r="N40" s="1" t="b">
+      <c r="O40" s="1" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="O40" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="P40" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="Q40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T40" s="9">
+        <v>45971</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D41" s="4">
         <v>0.7</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J41" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="I41" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="J41" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L41" s="2" t="str">
+      <c r="K41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M41" s="2" t="str">
         <f t="shared" si="0"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNIYYSSIHWVRQAPGKGLEWVASIYSYYSSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARVYGYLSYSYFYWGLDVWGQGTLVTVSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEI</v>
       </c>
-      <c r="M41" s="1">
+      <c r="N41" s="1">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
-      <c r="N41" s="1" t="b">
+      <c r="O41" s="1" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="O41" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="P41" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="Q41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T41" s="9">
+        <v>45972</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D42" s="4">
         <v>0.7</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J42" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="I42" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="J42" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L42" s="2" t="str">
+      <c r="K42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M42" s="2" t="str">
         <f t="shared" si="0"/>
         <v>EVQLQQSGAELVKPGASVKLSCTASGFNIKDTYVHWVKQRPEQGLEWIGRIDPANGYTKYDPKFQGKATITADTSSNTAYLQLSSLTSEDTAVYYCVRPLYDYYAMDYWGQGTTLTVSSGGGSGGGSGGGSGGGSDIVMTQSPSSLAMSAGRVSITCRTSQSISSYLNWVQQKPGKSPKLLIYWASTRESGVPDRFTGSGSGTDFTLTISRVEAEDLGVYYCMQGTHVPYTFGGGTKLEIK</v>
       </c>
-      <c r="M42" s="1">
+      <c r="N42" s="1">
         <f t="shared" si="2"/>
         <v>241</v>
       </c>
-      <c r="N42" s="1" t="b">
+      <c r="O42" s="1" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="O42" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="P42" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="Q42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T42" s="9">
+        <v>45972</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D43" s="4">
         <v>0.7</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J43" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="I43" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="J43" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L43" s="2" t="str">
+      <c r="K43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M43" s="2" t="str">
         <f t="shared" si="0"/>
         <v>EVQLVESGGGLVKPGGSLRLSCAASGFTFSSYAMHWVRQAPGKGLEWVSAISGGGGSTYYADSVKGRFTISRDNSKNTLYLQMRAEDTAVYYCAKDDADWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPFTFGQGTKVEIK</v>
       </c>
-      <c r="M43" s="1">
+      <c r="N43" s="1">
         <f t="shared" si="2"/>
         <v>233</v>
       </c>
-      <c r="N43" s="1" t="b">
+      <c r="O43" s="1" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="O43" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="P43" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="Q43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T43" s="9">
+        <v>45972</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D44" s="4">
         <v>0.7</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J44" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="I44" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="J44" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L44" s="2" t="str">
+      <c r="K44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M44" s="2" t="str">
         <f t="shared" si="0"/>
         <v>QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGSYYWIRQSPGKGLEWIGYIYYSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARHRYYDRGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPASLSASVGETVTITCRASENIYSNLAWYQQKQGKSPQLLVYAATDLADGVPSRFSGSGSGTQFSLKINSLQPEDFGSYYCQHFWDTPWTFGQGTRVE</v>
       </c>
-      <c r="M44" s="1">
+      <c r="N44" s="1">
         <f t="shared" si="2"/>
         <v>234</v>
       </c>
-      <c r="N44" s="1" t="b">
+      <c r="O44" s="1" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="O44" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="P44" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="Q44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T44" s="9">
+        <v>45972</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D45" s="4">
         <v>0.7</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J45" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="I45" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="J45" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L45" s="2" t="str">
+      <c r="K45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M45" s="2" t="str">
         <f t="shared" si="0"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNLYSSSIHWVRQAPGKGLEWVAYISSSGTHYADSVKGRFTISADTSKNTAYLQMRAEDTAVYYCARVGHYYSSGGYYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYSSYWTFGQGTKVEIK</v>
       </c>
-      <c r="M45" s="1">
+      <c r="N45" s="1">
         <f t="shared" si="2"/>
         <v>242</v>
       </c>
-      <c r="N45" s="1" t="b">
+      <c r="O45" s="1" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="O45" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="P45" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="Q45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T45" s="9">
+        <v>45972</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D46" s="4">
         <v>0.7</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J46" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I46" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="J46" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="L46" s="2" t="str">
+      <c r="K46" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M46" s="2" t="str">
         <f t="shared" si="0"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVVDSGISWVRQAPGKGLEWVSYISSSSGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARAHYYGSYFGSVVYYYGLDVWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYDTYPITFGQGTKVEIK</v>
       </c>
-      <c r="M46" s="1">
+      <c r="N46" s="1">
         <f t="shared" si="2"/>
         <v>247</v>
       </c>
-      <c r="N46" s="1" t="b">
+      <c r="O46" s="1" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="O46" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="P46" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="Q46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T46" s="9">
+        <v>45972</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D47" s="4">
         <v>0.7</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J47" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J47" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L47" s="2" t="str">
+      <c r="K47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M47" s="2" t="str">
         <f t="shared" si="0"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVYSSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSYSTYYYGYWYFDVWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSAAVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYNYYWLITFGQGTKVEIK</v>
       </c>
-      <c r="M47" s="1">
+      <c r="N47" s="1">
         <f t="shared" si="2"/>
         <v>247</v>
       </c>
-      <c r="N47" s="1" t="b">
+      <c r="O47" s="1" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="O47" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="P47" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="Q47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T47" s="9">
+        <v>45972</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D48" s="4">
         <v>0.7</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H48" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J48" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="I48" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="J48" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L48" s="2" t="str">
+      <c r="K48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M48" s="2" t="str">
         <f t="shared" si="0"/>
         <v>QVQLQQPGAELVKPGASVKLSCKASGYTFTSDWIHWVKQRPGHGLEWIGEIIPSYGRANYNEKIQKKATLTADKSSSTAFMHLSSLTSEDSAVYYCARERGDGYFAVWGAGTTVTVSSGGGSGGGSGGGSGGGSDILLTQSPAILSVSPGERVSFSCRASQSIGTDIHWYQQRTNGSPRLLIKYASESISGIPSRFSGSGSGTDFTLSINSVESEDIANYYCQQSNRWPFTFGSGTKLEIK</v>
       </c>
-      <c r="M48" s="1">
+      <c r="N48" s="1">
         <f t="shared" si="2"/>
         <v>241</v>
       </c>
-      <c r="N48" s="1" t="b">
+      <c r="O48" s="1" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="O48" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="P48" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="Q48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T48" s="9">
+        <v>45972</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D49" s="4">
         <v>0.7</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H49" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J49" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="I49" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="J49" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L49" s="2" t="str">
+      <c r="K49" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M49" s="2" t="str">
         <f t="shared" si="0"/>
         <v>VRLLESGGGLVQPGGSLKLSCAASGFDYSRYWMSWVRQAPGKGLKWIGEINPVSSTINYTPSLKDKFIISRDNAKDTLYLQISKVRSEDTALYYCARLYYGYGYWYFDVWGAGTTVTVSSGGGSGGGSGGGSGGGSDIVLTQSPAIMSAAPGDKVTMTCSASSSVSYIHWYQQKSGTSPKRWIYDTSKLTSGVPVRFSGSGSGTSYSLTINTMEAEDAATYYCQQWSSHPQTFGGGTKLEIl</v>
       </c>
-      <c r="M49" s="1">
+      <c r="N49" s="1">
         <f t="shared" si="2"/>
         <v>242</v>
       </c>
-      <c r="N49" s="1" t="b">
+      <c r="O49" s="1" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="O49" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="P49" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="Q49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T49" s="9">
+        <v>45972</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D50" s="4">
         <v>0.7</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H50" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="I50" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J50" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L50" s="2" t="str">
+      <c r="K50" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M50" s="2" t="str">
         <f t="shared" si="0"/>
         <v>QVQLQESGPGLVQPSQSLSLTCTVSGFSLTSYGVHWVRQSPGKGLEWLGVIWAGGSTDYNSALKSRLSISRDTSKNQVFLKMNSLQTDDTAMYYCAKHGSSNGDYWGQGTSVTVSSGGGSGGGSGGGSGGGSDIVMTQSPDSLAVSLGERATINCKSSQSVLYSSNNKNYLAWYQQKPEGQPPNLLIYWASTRESGVPDRFSGSGSGTDFTLTISSLQAEDVAVYYCQQYYSAPTFGQGTKLEIK</v>
       </c>
-      <c r="M50" s="1">
+      <c r="N50" s="1">
         <f t="shared" si="2"/>
         <v>245</v>
       </c>
-      <c r="N50" s="1" t="b">
+      <c r="O50" s="1" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="O50" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="P50" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="Q50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T50" s="9">
+        <v>45972</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S50" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:V50" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J1:K1048576">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+  <conditionalFormatting sqref="K1:L1048576">
+    <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="5" priority="12">
-      <formula>LEN(TRIM(J1))=0</formula>
+    <cfRule type="containsBlanks" dxfId="7" priority="15">
+      <formula>LEN(TRIM(K1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N50">
-    <cfRule type="containsBlanks" dxfId="4" priority="4">
-      <formula>LEN(TRIM(N2))=0</formula>
+  <conditionalFormatting sqref="O2:O50">
+    <cfRule type="containsBlanks" dxfId="6" priority="7">
+      <formula>LEN(TRIM(O2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:R2 N3:P30 N31:N50 Q3:R22">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+  <conditionalFormatting sqref="O2:S2 O3:Q30 O31:O50 R3:S22">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="16" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O31:P50">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="P31:Q50">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:R1048576">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="R1:S1048576">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6020,6 +7019,26 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="V1:V1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2:V22">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -6027,80 +7046,125 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ2"/>
+  <dimension ref="A1:AMM3"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="78.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="93.28515625" style="1" customWidth="1"/>
-    <col min="6" max="1024" width="9.140625" style="1"/>
+    <col min="1" max="1" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="44.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="93.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="1027" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="G2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I2" s="1">
         <v>0.79488899999999996</v>
       </c>
-      <c r="G2" s="1">
+      <c r="J2" s="1">
         <v>0.72998799999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C06239D-77DB-4F47-9412-C7BA2E2E54B1}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6112,10 +7176,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -6123,7 +7187,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -6131,7 +7195,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -6157,121 +7237,121 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="13">
+      <c r="A2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="10">
         <v>45968</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s">
         <v>109</v>
       </c>
-      <c r="B13" t="s">
-        <v>110</v>
-      </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -6358,10 +7438,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="13">
+      <c r="A2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="10">
         <v>45969</v>
       </c>
     </row>
@@ -6373,13 +7453,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G4" t="str">
         <f>_xlfn.CONCAT("&gt;",A11,"|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ",B11,"\n",C11)</f>
@@ -6388,13 +7468,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G5" t="str">
         <f>_xlfn.CONCAT("&gt;",A12,"|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ",B12,"\n",C12)</f>
@@ -6403,90 +7483,90 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -6573,10 +7653,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="13">
+      <c r="A2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="10">
         <v>45970</v>
       </c>
     </row>
@@ -6588,13 +7668,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G4" t="str">
         <f>_xlfn.CONCAT("&gt;",A11,"|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ",B11,"\n",C11)</f>
@@ -6603,13 +7683,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G5" t="str">
         <f>_xlfn.CONCAT("&gt;",A12,"|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ",B12,"\n",C12)</f>
@@ -6618,79 +7698,79 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -6751,6 +7831,436 @@
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>&gt;\n</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C226FDEB-5BB3-48D3-9187-D05B367D0DB3}">
+  <dimension ref="A2:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="10">
+        <v>45971</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" t="str">
+        <f>_xlfn.CONCAT("&gt;",A10,"|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ",B10,"\n",C10)</f>
+        <v>&gt;sbio-nipahgpg-038|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1\nQVQLQESGPGLVKPSETLSLSCVVSGDSSSTNYYWGWIRQPPGKGLEWIGYIYGSGDTAYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARRSWGYGYNGYSTYYYYYYFDQGYFDVWGPGTLVTGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSIGSYLNWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTEFTLTISSLQPEDFATYYCQQSYSWGQGTKVEIK</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>260</v>
+      </c>
+      <c r="G4" t="str">
+        <f>_xlfn.CONCAT("&gt;",A11,"|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ",B11,"\n",C11)</f>
+        <v>&gt;sbio-nipahgpg-039|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1\nQVQLVQSGAEVKKPGASVKVSCKASGYTFTSYGISWVRQAPGQGLEWMGWISAHNGDTNYAQKFQGRVTMTRDTSITTAYMELRSDDTAVYYCARDGSVGGFYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPITFGQGTRLEIK</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G5" t="str">
+        <f>_xlfn.CONCAT("&gt;",A12,"|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ",B12,"\n",C12)</f>
+        <v>&gt;sbio-nipahgpg-040|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1\nEVQLLESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASISPYYGSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSYYWYWSGWGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSYGSPPTFGQGTKVEIK</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>_xlfn.CONCAT("&gt;",A4,"\n",C4)</f>
+        <v>&gt;sbio-nipahgpg-032\nVQLQESGPGLVKPSQSLSLTCTVTGYSITTGYAWNWIRQFPGNKLEWMGYISYSGSTYYPSLKSRISITRDTSKNQFFLQLSIVTTEDTATYYCARGTTLPDYVDFWGQGTSVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQTISTYLNWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYFCLQHFWTPPITFGQGTRLEIK</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f t="shared" ref="A23:A31" si="0">_xlfn.CONCAT("&gt;",A5,"\n",C5)</f>
+        <v>&gt;sbio-nipahgpg-033\nQVQLQESGPGLVKPSETLSVTCTVSGGSIGSNNYWSWIRQPAGKGLEWIGYIYYSGSTNYNPSLKSRVTMSVDTSKNQFSLKLSSVTAADTAVYYCVRNYYDSSDSSGYYFMDVWGQGTTVTVSSGGGSGGGSGGGSDIVMTQSPLSLSVTPGEPASISCRSSQSLLHSNGYNYLDWYLQKPGQSPQLLIYLGSNRASGVPDRFSGSGSGTDFTLKISRVEAEDVGVYYCMQALQTPTFGQGTRLEIK</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-034\nQVQLVQSGAEVKKPGESLKISCKGSGYRFSSYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAMYYCARQGPDYYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSTLSASVGDRVTITCRASQSISSWLAWYQQKPGKAPKLLIYKASELQSGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQQYINSYTFGQGTKVEIK</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-035\nQVQLQQSGPELVKPGASVKLSCKASGYTFTDYYMHWVKQRPGQGLEWIGEINPNSGGTNTYDQKFKGRATLTVDKSSSTAYLQLSSLTSEDSAVYYCARSPPWYFDYWGQGTTLTVSGGGSGGGSGGGSGGGSDIVMTQSPSSMFASVGETVTITCRASENIYSNLAWYQQKPGQSPKLLIYWASTRHTGVPDRFTGSGSGTDFTLTISSVQAEDLALYYCQHYGSYSFTFGSGTKLEIK</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-036\nEVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRNYVYSSGYLDFWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSYSSPPTFGQGTKVEIK</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-037\nEVQLVESGGGLVQPGGSLRLSCAASGFNIYYSSIHWVRQAPGKGLEWVASISPYYGSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARDYGHYYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVMTQSPATLSVSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYGASTRATGIPARFSGSGSGTEFTLTISSLQSEDSAVYYCQQYNNWPPITFGQGTRLEIK</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-038\nQVQLQESGPGLVKPSETLSLSCVVSGDSSSTNYYWGWIRQPPGKGLEWIGYIYGSGDTAYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARRSWGYGYNGYSTYYYYYYFDQGYFDVWGPGTLVTGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSIGSYLNWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTEFTLTISSLQPEDFATYYCQQSYSWGQGTKVEIK</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-039\nQVQLVQSGAEVKKPGASVKVSCKASGYTFTSYGISWVRQAPGQGLEWMGWISAHNGDTNYAQKFQGRVTMTRDTSITTAYMELRSDDTAVYYCARDGSVGGFYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPITFGQGTRLEIK</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-040\nEVQLLESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASISPYYGSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSYYWYWSGWGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSYGSPPTFGQGTKVEIK</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-041\nQVQLQESGPGLVKPSQTLSLTCTVSGGSISSGHYAWWIRQPPGKGLEWIACIYSSSGSTYYNPSLKSRITISVDTSKNQFSLKLSSVTAADTAVYYCARRQRGYDYDYYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISRNLAWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSNNWPITFGQGTKVEIK</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE4B225-7142-4022-8646-BD8C8E254557}">
+  <dimension ref="A2:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="10">
+        <v>45972</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" t="str">
+        <f>_xlfn.CONCAT("&gt;",A10,"|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ",B10,"\n",C10)</f>
+        <v>&gt;sbio-nipahgpg-048|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1\nEVQLVESGGGLVQPGGSLRLSCAASGFNVYSSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSYSTYYYGYWYFDVWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSAAVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYNYYWLITFGQGTKVEIK</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G4" t="str">
+        <f>_xlfn.CONCAT("&gt;",A11,"|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ",B11,"\n",C11)</f>
+        <v>&gt;sbio-nipahgpg-049|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1\nQVQLQQPGAELVKPGASVKLSCKASGYTFTSDWIHWVKQRPGHGLEWIGEIIPSYGRANYNEKIQKKATLTADKSSSTAFMHLSSLTSEDSAVYYCARERGDGYFAVWGAGTTVTVSSGGGSGGGSGGGSGGGSDILLTQSPAILSVSPGERVSFSCRASQSIGTDIHWYQQRTNGSPRLLIKYASESISGIPSRFSGSGSGTDFTLSINSVESEDIANYYCQQSNRWPFTFGSGTKLEIK</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>271</v>
+      </c>
+      <c r="G5" t="str">
+        <f>_xlfn.CONCAT("&gt;",A12,"|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ",B12,"\n",C12)</f>
+        <v>&gt;sbio-nipahgpg-050|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1\nVRLLESGGGLVQPGGSLKLSCAASGFDYSRYWMSWVRQAPGKGLKWIGEINPVSSTINYTPSLKDKFIISRDNAKDTLYLQISKVRSEDTALYYCARLYYGYGYWYFDVWGAGTTVTVSSGGGSGGGSGGGSGGGSDIVLTQSPAIMSAAPGDKVTMTCSASSSVSYIHWYQQKSGTSPKRWIYDTSKLTSGVPVRFSGSGSGTSYSLTINTMEAEDAATYYCQQWSSHPQTFGGGTKLEIl</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>_xlfn.CONCAT("&gt;",A4,"\n",C4)</f>
+        <v>&gt;sbio-nipahgpg-042\nEVQLVESGGGLVQPGGSLRLSCAASGFNIYYSSIHWVRQAPGKGLEWVASIYSYYSSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARVYGYLSYSYFYWGLDVWGQGTLVTVSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEI</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f t="shared" ref="A23:A31" si="0">_xlfn.CONCAT("&gt;",A5,"\n",C5)</f>
+        <v>&gt;sbio-nipahgpg-043\nEVQLQQSGAELVKPGASVKLSCTASGFNIKDTYVHWVKQRPEQGLEWIGRIDPANGYTKYDPKFQGKATITADTSSNTAYLQLSSLTSEDTAVYYCVRPLYDYYAMDYWGQGTTLTVSSGGGSGGGSGGGSGGGSDIVMTQSPSSLAMSAGRVSITCRTSQSISSYLNWVQQKPGKSPKLLIYWASTRESGVPDRFTGSGSGTDFTLTISRVEAEDLGVYYCMQGTHVPYTFGGGTKLEIK</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-044\nEVQLVESGGGLVKPGGSLRLSCAASGFTFSSYAMHWVRQAPGKGLEWVSAISGGGGSTYYADSVKGRFTISRDNSKNTLYLQMRAEDTAVYYCAKDDADWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPFTFGQGTKVEIK</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-045\nQVQLQESGPGLVKPSQTLSLTCTVSGGSISSGSYYWIRQSPGKGLEWIGYIYYSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARHRYYDRGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPASLSASVGETVTITCRASENIYSNLAWYQQKQGKSPQLLVYAATDLADGVPSRFSGSGSGTQFSLKINSLQPEDFGSYYCQHFWDTPWTFGQGTRVE</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-046\nEVQLVESGGGLVQPGGSLRLSCAASGFNLYSSSIHWVRQAPGKGLEWVAYISSSGTHYADSVKGRFTISADTSKNTAYLQMRAEDTAVYYCARVGHYYSSGGYYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYSSYWTFGQGTKVEIK</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-047\nEVQLVESGGGLVQPGGSLRLSCAASGFNVVDSGISWVRQAPGKGLEWVSYISSSSGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARAHYYGSYFGSVVYYYGLDVWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYDTYPITFGQGTKVEIK</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-048\nEVQLVESGGGLVQPGGSLRLSCAASGFNVYSSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSYSTYYYGYWYFDVWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSAAVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYNYYWLITFGQGTKVEIK</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-049\nQVQLQQPGAELVKPGASVKLSCKASGYTFTSDWIHWVKQRPGHGLEWIGEIIPSYGRANYNEKIQKKATLTADKSSSTAFMHLSSLTSEDSAVYYCARERGDGYFAVWGAGTTVTVSSGGGSGGGSGGGSGGGSDILLTQSPAILSVSPGERVSFSCRASQSIGTDIHWYQQRTNGSPRLLIKYASESISGIPSRFSGSGSGTDFTLSINSVESEDIANYYCQQSNRWPFTFGSGTKLEIK</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-050\nVRLLESGGGLVQPGGSLKLSCAASGFDYSRYWMSWVRQAPGKGLKWIGEINPVSSTINYTPSLKDKFIISRDNAKDTLYLQISKVRSEDTALYYCARLYYGYGYWYFDVWGAGTTVTVSSGGGSGGGSGGGSGGGSDIVLTQSPAIMSAAPGDKVTMTCSASSSVSYIHWYQQKSGTSPKRWIYDTSKLTSGVPVRFSGSGSGTSYSLTINTMEAEDAATYYCQQWSSHPQTFGGGTKLEIl</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-051\nQVQLQESGPGLVQPSQSLSLTCTVSGFSLTSYGVHWVRQSPGKGLEWLGVIWAGGSTDYNSALKSRLSISRDTSKNQVFLKMNSLQTDDTAMYYCAKHGSSNGDYWGQGTSVTVSSGGGSGGGSGGGSGGGSDIVMTQSPDSLAVSLGERATINCKSSQSVLYSSNNKNYLAWYQQKPEGQPPNLLIYWASTRESGVPDRFSGSGSGTDFTLTISSLQAEDVAVYYCQQYYSAPTFGQGTKLEIK</v>
       </c>
     </row>
   </sheetData>

--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\Nipah_gpG_Fv_Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A477CD-67BF-41E2-85AF-E96625D48633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D5896F-FD7C-464E-AEED-D5678376B0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="296">
   <si>
     <t>antigen_id</t>
   </si>
@@ -907,6 +907,33 @@
   </si>
   <si>
     <t>From Proteinbase competition evaluation logic</t>
+  </si>
+  <si>
+    <t>brisk-bison-clay</t>
+  </si>
+  <si>
+    <t>rough-bee-cedar</t>
+  </si>
+  <si>
+    <t>quick-ram-stone</t>
+  </si>
+  <si>
+    <t>amber-heron-granite</t>
+  </si>
+  <si>
+    <t>steady-kiwi-dust</t>
+  </si>
+  <si>
+    <t>swift-ibis-birch</t>
+  </si>
+  <si>
+    <t>bright-quail-crystal</t>
+  </si>
+  <si>
+    <t>solid-ant-cypress</t>
+  </si>
+  <si>
+    <t>vast-goat-fern</t>
   </si>
 </sst>
 </file>
@@ -987,10 +1014,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3747,10 +3774,10 @@
   <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomRight" activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3773,8 +3800,8 @@
     <col min="16" max="16" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="22.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -3905,7 +3932,7 @@
       <c r="S2" s="4">
         <v>0.33503300000000003</v>
       </c>
-      <c r="T2" s="9">
+      <c r="T2" s="10">
         <v>45968</v>
       </c>
       <c r="U2" s="2" t="s">
@@ -3973,7 +4000,7 @@
       <c r="S3" s="4">
         <v>5.4939999999999998E-3</v>
       </c>
-      <c r="T3" s="9">
+      <c r="T3" s="10">
         <v>45969</v>
       </c>
       <c r="U3" s="2" t="s">
@@ -4041,7 +4068,7 @@
       <c r="S4" s="4">
         <v>0</v>
       </c>
-      <c r="T4" s="9">
+      <c r="T4" s="10">
         <v>45969</v>
       </c>
       <c r="U4" s="2" t="s">
@@ -4109,7 +4136,7 @@
       <c r="S5" s="4">
         <v>8.0114000000000005E-2</v>
       </c>
-      <c r="T5" s="9">
+      <c r="T5" s="10">
         <v>45969</v>
       </c>
       <c r="U5" s="2" t="s">
@@ -4177,7 +4204,7 @@
       <c r="S6" s="4">
         <v>5.3489999999999996E-3</v>
       </c>
-      <c r="T6" s="9">
+      <c r="T6" s="10">
         <v>45969</v>
       </c>
       <c r="U6" s="2" t="s">
@@ -4241,7 +4268,7 @@
       <c r="S7" s="4">
         <v>1.302E-2</v>
       </c>
-      <c r="T7" s="9">
+      <c r="T7" s="10">
         <v>45969</v>
       </c>
       <c r="U7" s="2" t="s">
@@ -4314,7 +4341,7 @@
       <c r="S8" s="4">
         <v>8.6638999999999994E-2</v>
       </c>
-      <c r="T8" s="9">
+      <c r="T8" s="10">
         <v>45968</v>
       </c>
       <c r="U8" s="2" t="s">
@@ -4387,7 +4414,7 @@
       <c r="S9" s="4">
         <v>0</v>
       </c>
-      <c r="T9" s="9">
+      <c r="T9" s="10">
         <v>45969</v>
       </c>
       <c r="U9" s="2" t="s">
@@ -4460,7 +4487,7 @@
       <c r="S10" s="4">
         <v>0.18454400000000001</v>
       </c>
-      <c r="T10" s="9">
+      <c r="T10" s="10">
         <v>45968</v>
       </c>
       <c r="U10" s="2" t="s">
@@ -4533,7 +4560,7 @@
       <c r="S11" s="4">
         <v>4.8060000000000004E-3</v>
       </c>
-      <c r="T11" s="9">
+      <c r="T11" s="10">
         <v>45968</v>
       </c>
       <c r="U11" s="2" t="s">
@@ -4600,7 +4627,7 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="T12" s="9">
+      <c r="T12" s="10">
         <v>45969</v>
       </c>
       <c r="U12" s="2" t="s">
@@ -4673,7 +4700,7 @@
       <c r="S13" s="4">
         <v>0</v>
       </c>
-      <c r="T13" s="9">
+      <c r="T13" s="10">
         <v>45969</v>
       </c>
       <c r="U13" s="2" t="s">
@@ -4746,7 +4773,7 @@
       <c r="S14" s="4">
         <v>0.165157</v>
       </c>
-      <c r="T14" s="9">
+      <c r="T14" s="10">
         <v>45968</v>
       </c>
       <c r="U14" s="2" t="s">
@@ -4813,7 +4840,7 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="T15" s="9">
+      <c r="T15" s="10">
         <v>45969</v>
       </c>
       <c r="U15" s="2" t="s">
@@ -4886,7 +4913,7 @@
       <c r="S16" s="4">
         <v>0.23256399999999999</v>
       </c>
-      <c r="T16" s="9">
+      <c r="T16" s="10">
         <v>45968</v>
       </c>
       <c r="U16" s="2" t="s">
@@ -4959,7 +4986,7 @@
       <c r="S17" s="4">
         <v>0</v>
       </c>
-      <c r="T17" s="9">
+      <c r="T17" s="10">
         <v>45969</v>
       </c>
       <c r="U17" s="2" t="s">
@@ -5032,7 +5059,7 @@
       <c r="S18" s="4">
         <v>0</v>
       </c>
-      <c r="T18" s="9">
+      <c r="T18" s="10">
         <v>45970</v>
       </c>
       <c r="U18" s="2" t="s">
@@ -5105,7 +5132,7 @@
       <c r="S19" s="4">
         <v>6.1079999999999997E-3</v>
       </c>
-      <c r="T19" s="9">
+      <c r="T19" s="10">
         <v>45970</v>
       </c>
       <c r="U19" s="2" t="s">
@@ -5178,7 +5205,7 @@
       <c r="S20" s="4">
         <v>0</v>
       </c>
-      <c r="T20" s="9">
+      <c r="T20" s="10">
         <v>45970</v>
       </c>
       <c r="U20" s="2" t="s">
@@ -5251,7 +5278,7 @@
       <c r="S21" s="4">
         <v>0</v>
       </c>
-      <c r="T21" s="9">
+      <c r="T21" s="10">
         <v>45970</v>
       </c>
       <c r="U21" s="2" t="s">
@@ -5324,7 +5351,7 @@
       <c r="S22" s="4">
         <v>5.0870000000000004E-3</v>
       </c>
-      <c r="T22" s="9">
+      <c r="T22" s="10">
         <v>45970</v>
       </c>
       <c r="U22" s="2" t="s">
@@ -5391,7 +5418,7 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="T23" s="9">
+      <c r="T23" s="10">
         <v>45970</v>
       </c>
       <c r="U23" s="2" t="s">
@@ -5464,7 +5491,7 @@
       <c r="S24" s="4">
         <v>0.405559</v>
       </c>
-      <c r="T24" s="9">
+      <c r="T24" s="10">
         <v>45968</v>
       </c>
       <c r="U24" s="2" t="s">
@@ -5537,7 +5564,7 @@
       <c r="S25" s="4">
         <v>0.69121100000000002</v>
       </c>
-      <c r="T25" s="9">
+      <c r="T25" s="10">
         <v>45968</v>
       </c>
       <c r="U25" s="2" t="s">
@@ -5610,7 +5637,7 @@
       <c r="S26" s="4">
         <v>5.4400000000000004E-3</v>
       </c>
-      <c r="T26" s="9">
+      <c r="T26" s="10">
         <v>45970</v>
       </c>
       <c r="U26" s="2" t="s">
@@ -5683,7 +5710,7 @@
       <c r="S27" s="4">
         <v>0</v>
       </c>
-      <c r="T27" s="9">
+      <c r="T27" s="10">
         <v>45970</v>
       </c>
       <c r="U27" s="2" t="s">
@@ -5756,7 +5783,7 @@
       <c r="S28" s="4">
         <v>5.3605E-2</v>
       </c>
-      <c r="T28" s="9">
+      <c r="T28" s="10">
         <v>45970</v>
       </c>
       <c r="U28" s="2" t="s">
@@ -5829,7 +5856,7 @@
       <c r="S29" s="4">
         <v>0.41575699999999999</v>
       </c>
-      <c r="T29" s="9">
+      <c r="T29" s="10">
         <v>45968</v>
       </c>
       <c r="U29" s="2" t="s">
@@ -5902,7 +5929,7 @@
       <c r="S30" s="4">
         <v>0.56638100000000002</v>
       </c>
-      <c r="T30" s="9">
+      <c r="T30" s="10">
         <v>45968</v>
       </c>
       <c r="U30" s="2" t="s">
@@ -5961,7 +5988,7 @@
       <c r="Q31" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T31" s="9">
+      <c r="T31" s="10">
         <v>45971</v>
       </c>
     </row>
@@ -6014,11 +6041,17 @@
       <c r="Q32" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T32" s="9">
+      <c r="T32" s="10">
         <v>45971</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="U32" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="V32" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>186</v>
       </c>
@@ -6067,11 +6100,17 @@
       <c r="Q33" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T33" s="9">
+      <c r="T33" s="10">
         <v>45971</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="U33" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="V33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>187</v>
       </c>
@@ -6120,11 +6159,17 @@
       <c r="Q34" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T34" s="9">
+      <c r="T34" s="10">
         <v>45971</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="U34" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="V34" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>188</v>
       </c>
@@ -6173,11 +6218,17 @@
       <c r="Q35" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T35" s="9">
+      <c r="T35" s="10">
         <v>45971</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="U35" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="V35" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>189</v>
       </c>
@@ -6226,11 +6277,17 @@
       <c r="Q36" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T36" s="9">
+      <c r="T36" s="10">
         <v>45971</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="U36" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="V36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>190</v>
       </c>
@@ -6279,11 +6336,17 @@
       <c r="Q37" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T37" s="9">
+      <c r="T37" s="10">
         <v>45971</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="U37" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="V37" s="4">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>191</v>
       </c>
@@ -6332,11 +6395,17 @@
       <c r="Q38" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T38" s="9">
+      <c r="T38" s="10">
         <v>45971</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="U38" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="V38" s="4">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>192</v>
       </c>
@@ -6385,11 +6454,17 @@
       <c r="Q39" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T39" s="9">
+      <c r="T39" s="10">
         <v>45971</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="U39" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="V39" s="4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>193</v>
       </c>
@@ -6438,11 +6513,17 @@
       <c r="Q40" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T40" s="9">
+      <c r="T40" s="10">
         <v>45971</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="U40" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="V40" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>194</v>
       </c>
@@ -6491,11 +6572,11 @@
       <c r="Q41" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T41" s="9">
+      <c r="T41" s="10">
         <v>45972</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>195</v>
       </c>
@@ -6544,11 +6625,11 @@
       <c r="Q42" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T42" s="9">
+      <c r="T42" s="10">
         <v>45972</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>196</v>
       </c>
@@ -6597,11 +6678,11 @@
       <c r="Q43" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T43" s="9">
+      <c r="T43" s="10">
         <v>45972</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>197</v>
       </c>
@@ -6650,11 +6731,11 @@
       <c r="Q44" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T44" s="9">
+      <c r="T44" s="10">
         <v>45972</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>198</v>
       </c>
@@ -6703,11 +6784,11 @@
       <c r="Q45" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T45" s="9">
+      <c r="T45" s="10">
         <v>45972</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>199</v>
       </c>
@@ -6756,11 +6837,11 @@
       <c r="Q46" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T46" s="9">
+      <c r="T46" s="10">
         <v>45972</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>200</v>
       </c>
@@ -6809,11 +6890,11 @@
       <c r="Q47" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T47" s="9">
+      <c r="T47" s="10">
         <v>45972</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>201</v>
       </c>
@@ -6862,7 +6943,7 @@
       <c r="Q48" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T48" s="9">
+      <c r="T48" s="10">
         <v>45972</v>
       </c>
     </row>
@@ -6915,7 +6996,7 @@
       <c r="Q49" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T49" s="9">
+      <c r="T49" s="10">
         <v>45972</v>
       </c>
     </row>
@@ -6968,7 +7049,7 @@
       <c r="Q50" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T50" s="9">
+      <c r="T50" s="10">
         <v>45972</v>
       </c>
     </row>
@@ -7049,7 +7130,7 @@
   <dimension ref="A1:AMM3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7124,10 +7205,10 @@
         <v>254</v>
       </c>
       <c r="I2" s="1">
-        <v>0.79488899999999996</v>
+        <v>0.55449599999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.72998799999999997</v>
+        <v>0.37068000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="120" x14ac:dyDescent="0.25">
@@ -7151,6 +7232,12 @@
       </c>
       <c r="H3" s="2" t="s">
         <v>254</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.79488899999999996</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.72998799999999997</v>
       </c>
     </row>
   </sheetData>
@@ -7240,7 +7327,7 @@
       <c r="A2" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>45968</v>
       </c>
     </row>
@@ -7422,10 +7509,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CF9A8A-9767-46C1-B0D1-2A19AD7C2699}">
-  <dimension ref="A2:G31"/>
+  <dimension ref="A2:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="G3" sqref="G3:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7437,21 +7524,15 @@
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>45969</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G3" t="str">
-        <f>_xlfn.CONCAT("&gt;",A10,"|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ",B10,"\n",C10)</f>
-        <v xml:space="preserve">&gt;sbio-nipahgpg-013|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1 + ProteinMPNN\nEVSLVESGGGTVKPGESVTLSCQASGFNFSKYRLAWVRQPPGQGLVWVSEISPDGTEVKYHPDVKGRFTASRDNSNSTAYLKMNNLQPSDTATYYCGIIPQDSSHGDYSISHWGQGTQLTVSAGGGSGGGSGGGSGGGSTITLTQSPSSLSASVGDTVTINCTASRPIGDFLSWYKQKPGQPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSDDFATYYCQQTYTLPITFGQGTTLTKK </v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -7461,12 +7542,8 @@
       <c r="C4" t="s">
         <v>204</v>
       </c>
-      <c r="G4" t="str">
-        <f>_xlfn.CONCAT("&gt;",A11,"|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ",B11,"\n",C11)</f>
-        <v>&gt;sbio-nipahgpg-014|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1 + ProteinMPNN\nAVSLVESGGGTYAPGSSVTLSCQGSGFNFSKVRKVWVRQPPGGPLEYVAEISPDGSTTTYASSVAGRFTISKDNSNSTLYLSMSNLTPADTATYYCGLIPGDSEHGDRSISHWGQGTLVTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTINCTASQPIGNFLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTNFTLTISSLQSEDFATYYCQQTSRLPVTFGQGTTINKK</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -7476,12 +7553,8 @@
       <c r="C5" t="s">
         <v>205</v>
       </c>
-      <c r="G5" t="str">
-        <f>_xlfn.CONCAT("&gt;",A12,"|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ",B12,"\n",C12)</f>
-        <v xml:space="preserve">&gt;sbio-nipahgpg-016|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1 + ProteinMPNN\nPVSLVESGGGTVAPGSSVTLTCQASGFNFSKYIVAWVRQPPGQPLRFVAMITPDGSKVWLHPEVEGRFTPSKDNSKNTSYLQLKDLQPEDTATYYCGIIPQGSTHGDYSITHWGQGVVLTVTAGGGSGGGSGGGSGGGSMVTLTQSPSSLSASVGDTVTITCTASSPVDNLMSWYQQPPGQPLRLLIYNASTRAPGVSSRFSGSGSDTNFTLTISSLQASDFATYYCQQTYRLPVTFGQGTTLSAA </v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -7492,7 +7565,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -7503,7 +7576,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -7514,7 +7587,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -7525,7 +7598,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -7536,7 +7609,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -7547,7 +7620,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -7558,7 +7631,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -7637,10 +7710,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB25C98-D213-4C3E-A62C-3D471ED52EA4}">
-  <dimension ref="A2:G31"/>
+  <dimension ref="A2:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A30"/>
+      <selection activeCell="G1" sqref="G1:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7652,21 +7725,15 @@
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>45970</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G3" t="str">
-        <f>_xlfn.CONCAT("&gt;",A10,"|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ",B10,"\n",C10)</f>
-        <v>&gt;sbio-nipahgpg-027|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ProteinMPNN\nSITLVQSGDVTVAPGGSVTLTCTSSGGSFGNKAVAWVRQRPGGPYEWLGFIIPAYGVSRYNPAYEGRVTISVDSASNTASLTISNLTAADTATYYCALGEGEIVYAASPFDENYKLGALYIWGQGTKVTVSGGGSGGGSGGGSITLTQSPSSPSLSVGETATLTCTASAPVPKSNVAWYKQLPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLTADDFATYYCQVYGENPSFGEGTTLTLK</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -7676,12 +7743,8 @@
       <c r="C4" t="s">
         <v>214</v>
       </c>
-      <c r="G4" t="str">
-        <f>_xlfn.CONCAT("&gt;",A11,"|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ",B11,"\n",C11)</f>
-        <v>&gt;sbio-nipahgpg-028|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ProteinMPNN\nSVTLVQSGDQTVPIGGSVTLSCTANGGSFGNKGVAWVRQRPGGPYEFLGFIKPAIGESRYHPKYKGRVTISSDVSSNTAYLTISNLTPEDTAVYYCALGEAEDVFAAHPFKTDLLLGALSIWGQGTRVTVTGGGSGGGSGGGSITVTQSPSSPSLSVGETAVLTCTLSQPVPQSQVAWYKQLPGQPPTLLISGGSTRASGVPSRYSGSGSGTTFTLTISSLLPEDFATYYCQVVGKEPSFGQGTTLTLK</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -7691,12 +7754,8 @@
       <c r="C5" t="s">
         <v>215</v>
       </c>
-      <c r="G5" t="str">
-        <f>_xlfn.CONCAT("&gt;",A12,"|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ",B12,"\n",C12)</f>
-        <v>&gt;sbio-nipahgpg-029|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ProteinMPNN\nSVKLVQSGDQTVPVGGSVTLSCTASGGSFGNYGVAWVRQRPGGPLEYIGSIIPAYGISTVNPKYEGRVTISADPTNNTAYLTISNLTPEDTATYYCALGPGEVVFASSPFDIDVLTGALWVWGEGTKVTVTGGGSGGGSGGGSITVTQSPSSPSLKVGETATLTCTLSAPVAKSNVAWYKQLPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLQPEDFATYYCQVVGKNPSFGQGTLLKLK</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -7707,7 +7766,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -7718,7 +7777,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -7729,7 +7788,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -7740,7 +7799,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>104</v>
       </c>
@@ -7751,7 +7810,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -7762,7 +7821,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -7841,10 +7900,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C226FDEB-5BB3-48D3-9187-D05B367D0DB3}">
-  <dimension ref="A2:G31"/>
+  <dimension ref="A2:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G3" sqref="G3:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7856,21 +7915,15 @@
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>45971</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G3" t="str">
-        <f>_xlfn.CONCAT("&gt;",A10,"|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ",B10,"\n",C10)</f>
-        <v>&gt;sbio-nipahgpg-038|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1\nQVQLQESGPGLVKPSETLSLSCVVSGDSSSTNYYWGWIRQPPGKGLEWIGYIYGSGDTAYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARRSWGYGYNGYSTYYYYYYFDQGYFDVWGPGTLVTGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSIGSYLNWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTEFTLTISSLQPEDFATYYCQQSYSWGQGTKVEIK</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>184</v>
       </c>
@@ -7880,12 +7933,8 @@
       <c r="C4" t="s">
         <v>260</v>
       </c>
-      <c r="G4" t="str">
-        <f>_xlfn.CONCAT("&gt;",A11,"|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ",B11,"\n",C11)</f>
-        <v>&gt;sbio-nipahgpg-039|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1\nQVQLVQSGAEVKKPGASVKVSCKASGYTFTSYGISWVRQAPGQGLEWMGWISAHNGDTNYAQKFQGRVTMTRDTSITTAYMELRSDDTAVYYCARDGSVGGFYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPITFGQGTRLEIK</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>185</v>
       </c>
@@ -7895,12 +7944,8 @@
       <c r="C5" t="s">
         <v>261</v>
       </c>
-      <c r="G5" t="str">
-        <f>_xlfn.CONCAT("&gt;",A12,"|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ",B12,"\n",C12)</f>
-        <v>&gt;sbio-nipahgpg-040|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1\nEVQLLESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASISPYYGSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSYYWYWSGWGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSYGSPPTFGQGTKVEIK</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>186</v>
       </c>
@@ -7911,7 +7956,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>187</v>
       </c>
@@ -7922,7 +7967,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>188</v>
       </c>
@@ -7933,7 +7978,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>189</v>
       </c>
@@ -7944,7 +7989,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>190</v>
       </c>
@@ -7955,7 +8000,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>191</v>
       </c>
@@ -7966,7 +8011,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>192</v>
       </c>
@@ -7977,7 +8022,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>193</v>
       </c>
@@ -8056,10 +8101,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE4B225-7142-4022-8646-BD8C8E254557}">
-  <dimension ref="A2:G31"/>
+  <dimension ref="A2:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8071,21 +8116,15 @@
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>45972</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G3" t="str">
-        <f>_xlfn.CONCAT("&gt;",A10,"|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ",B10,"\n",C10)</f>
-        <v>&gt;sbio-nipahgpg-048|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1\nEVQLVESGGGLVQPGGSLRLSCAASGFNVYSSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSYSTYYYGYWYFDVWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSAAVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYNYYWLITFGQGTKVEIK</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>194</v>
       </c>
@@ -8095,12 +8134,8 @@
       <c r="C4" t="s">
         <v>270</v>
       </c>
-      <c r="G4" t="str">
-        <f>_xlfn.CONCAT("&gt;",A11,"|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ",B11,"\n",C11)</f>
-        <v>&gt;sbio-nipahgpg-049|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1\nQVQLQQPGAELVKPGASVKLSCKASGYTFTSDWIHWVKQRPGHGLEWIGEIIPSYGRANYNEKIQKKATLTADKSSSTAFMHLSSLTSEDSAVYYCARERGDGYFAVWGAGTTVTVSSGGGSGGGSGGGSGGGSDILLTQSPAILSVSPGERVSFSCRASQSIGTDIHWYQQRTNGSPRLLIKYASESISGIPSRFSGSGSGTDFTLSINSVESEDIANYYCQQSNRWPFTFGSGTKLEIK</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>195</v>
       </c>
@@ -8110,12 +8145,8 @@
       <c r="C5" t="s">
         <v>271</v>
       </c>
-      <c r="G5" t="str">
-        <f>_xlfn.CONCAT("&gt;",A12,"|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ",B12,"\n",C12)</f>
-        <v>&gt;sbio-nipahgpg-050|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1\nVRLLESGGGLVQPGGSLKLSCAASGFDYSRYWMSWVRQAPGKGLKWIGEINPVSSTINYTPSLKDKFIISRDNAKDTLYLQISKVRSEDTALYYCARLYYGYGYWYFDVWGAGTTVTVSSGGGSGGGSGGGSGGGSDIVLTQSPAIMSAAPGDKVTMTCSASSSVSYIHWYQQKSGTSPKRWIYDTSKLTSGVPVRFSGSGSGTSYSLTINTMEAEDAATYYCQQWSSHPQTFGGGTKLEIl</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>196</v>
       </c>
@@ -8126,7 +8157,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>197</v>
       </c>
@@ -8137,7 +8168,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>198</v>
       </c>
@@ -8148,7 +8179,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>199</v>
       </c>
@@ -8159,7 +8190,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>200</v>
       </c>
@@ -8170,7 +8201,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>201</v>
       </c>
@@ -8181,7 +8212,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>202</v>
       </c>
@@ -8192,7 +8223,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>203</v>
       </c>

--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\Nipah_gpG_Fv_Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D5896F-FD7C-464E-AEED-D5678376B0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BCD60F-52AF-43BB-931B-296916837F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,11 +23,11 @@
     <sheet name="20251111 Submission FASTA" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Antibody Candidates'!$A$1:$V$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Antibody Candidates'!$A$1:$V$110</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="312">
   <si>
     <t>antigen_id</t>
   </si>
@@ -891,9 +891,6 @@
     <t>antigen_source</t>
   </si>
   <si>
-    <t>proteinbase</t>
-  </si>
-  <si>
     <t>nipah_gpG_comp</t>
   </si>
   <si>
@@ -906,9 +903,6 @@
     <t>From Protein Data Bank entry</t>
   </si>
   <si>
-    <t>From Proteinbase competition evaluation logic</t>
-  </si>
-  <si>
     <t>brisk-bison-clay</t>
   </si>
   <si>
@@ -934,6 +928,60 @@
   </si>
   <si>
     <t>vast-goat-fern</t>
+  </si>
+  <si>
+    <t>silver-fox-marble</t>
+  </si>
+  <si>
+    <t>jade-heron-plume</t>
+  </si>
+  <si>
+    <t>soft-shark-marble</t>
+  </si>
+  <si>
+    <t>swift-cobra-lotus</t>
+  </si>
+  <si>
+    <t>calm-toad-snow</t>
+  </si>
+  <si>
+    <t>pale-deer-willow</t>
+  </si>
+  <si>
+    <t>rough-seal-oak</t>
+  </si>
+  <si>
+    <t>pale-otter-lotus</t>
+  </si>
+  <si>
+    <t>quick-yak-granite</t>
+  </si>
+  <si>
+    <t>bright-ant-jade</t>
+  </si>
+  <si>
+    <t>From Proteinbase CIF output</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>MPAENKKVRFENTTSDKGKIPSKVIKSYYGTMDIKKINEGLLDSKILSAFNTVIALLGSIVIIVMNIMIIQNYTRSTDNQAVIKDALQGIQQQIKGLADKIGTEIGPKVSLIDTSSTITIPANIGLLGSKISQSTASINENVNEKCKFTLPPLKIHECNISCPNPLPFREYRPQTEGVSNLVGLPNNICLQKTSNQILKPKLISYTLPVVGQSGTCITDPLLAMDEGYFAYSHLERIGSCSRGVSKQRIIGVGEVLDRGDEVPSLFMTNVWTPPNPNTVYHCSAVYNNEFYYVLCAVSTVGDPILNSTYWSGSLMMTRLAVKPKSNGGGYNQHQLALRSIEKGRYDKVMPYGPSGIKQGDTLYFPAVGFLVRTEFKYNDSNCPITKCQYSKPENCRLSMGIRPNSHYILRSGLLKYNLSDGENPKVVFIEISDQRLSIGSPSKIYDSLGQPVFYQASFSWDTMIKFGDVLTVNPLVVNWRNNTVISRPGQSQCPRFNTCPEICWEGVYNDAFLIDRINWISAGVFLDSNQTAENPVFTVFKDNEILYRAQLASEDTNAQKTITNCFLLKNKIWCISLVEIYDTGDNVIRPKLFAVKIPEQCT</t>
+  </si>
+  <si>
+    <t>nipah_gpG_compout</t>
+  </si>
+  <si>
+    <t>proteinbase (github)</t>
+  </si>
+  <si>
+    <t>proteinbase (output)</t>
+  </si>
+  <si>
+    <t>MPAENKKVRFENTTSDKGKIPSKVIKSYYGTMDIKKINEGLLDSKILSAFNTVIALLGSIVIIVMNIMIIQNYTRSTDNQAVIKDALQGIQQQIKGLADKIGTEIGPKVSLIDTSSTITIPANIGLLGSKISQSTASINENVNEKCKFTLPPLKIHECNISCPNPLPFREYRPQTEGVSNLVGLPNNICLQKTSNQILKPKLISYTLGQSGTCITDPLLAMDEGYFAYSHLERIG[S][C][S][R]GVSKQRIIGVGEVLDRGDEVPSLFMTNVWTPPNPNTVYHCSAVYNNEFYYVLCAVSTVGDPI[L]NSTYWSGSLMMTRLAVKPKSNGGGYNQHQLALRSIEKGRYDKVMPYGPSGIKQGDTLYFPAVGFLVRTEFKYNDSNCPITKC[Q][Y]SKPENCRLSMG[I][R]PNSHYILRSGLLKYNLSDGENPKVVFIEISDQRLSIGSPSKIYDSLGQPVFYQAS[F]SWDTMIKFGDVLTVNPLVVNWRNNTVISR[P][G][Q][S][Q]CPRFNTCP[E]IC[W][E][G][V]YNDAFLIDRINWISAGVFLDSN[Q][T][A][E]NPVFTVFKDNEILYRAQLASE[D]T[N][A][Q]KTITNCFLLKNKIWCISLV[E][I][Y]D[T]GDNV[I]RPKLFAVKIPEQCT</t>
+  </si>
+  <si>
+    <t>From Proteinbase competition evaluation logic (GitHub)</t>
   </si>
 </sst>
 </file>
@@ -2350,7 +2398,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{135D55CA-26D1-4FA2-9199-54D547F2C103}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{135D55CA-26D1-4FA2-9199-54D547F2C103}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:C13" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -2572,7 +2620,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{34D8D9BF-DD48-4B0D-B005-50CFC13EA4CA}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{34D8D9BF-DD48-4B0D-B005-50CFC13EA4CA}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:C13" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -2794,7 +2842,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9A30A9A-0810-4D7B-BBE4-92BE215D0229}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9A30A9A-0810-4D7B-BBE4-92BE215D0229}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:C12" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -3011,7 +3059,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4154B109-E0E8-463A-8A38-71BCCBD1ABE8}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4154B109-E0E8-463A-8A38-71BCCBD1ABE8}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:C13" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -3233,7 +3281,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D8BCE7CB-DCA8-443D-A73C-3A819111AB4F}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D8BCE7CB-DCA8-443D-A73C-3A819111AB4F}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:C13" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -3771,13 +3819,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V50"/>
+  <dimension ref="A1:V91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S31" sqref="S31"/>
+      <selection pane="bottomRight" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3975,7 +4023,7 @@
         <v>125</v>
       </c>
       <c r="M3" s="2" t="str">
-        <f t="shared" ref="M3:M50" si="0">_xlfn.CONCAT(I3,L3,J3)</f>
+        <f t="shared" ref="M3:M66" si="0">_xlfn.CONCAT(I3,L3,J3)</f>
         <v>QVQLVESGGGVVQPGKSLRLSCAASGFTFSSYAMSWVRQAPGKGPEWVAFISYDGSNNYYADSVKGRFTISRDNPKNTLYLQMKSLRAEDTAVYYCARWRQRFDMYWGRGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK</v>
       </c>
       <c r="N3" s="1">
@@ -3983,7 +4031,7 @@
         <v>240</v>
       </c>
       <c r="O3" s="1" t="b">
-        <f t="shared" ref="O3:O50" si="1">IF(N3&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" ref="O3:O66" si="1">IF(N3&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P3" s="1" t="b">
@@ -4247,7 +4295,7 @@
         <v>QVQLVESGGGVVQPGRSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAIWSNGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARDYGSYGYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPLSLPVTPGEPASISCRSSQSLLYSNGNTYLEWYLQKPGQSPQLLIYLVSKLDSGVPDRFSGSGSGTDFTLKISRVEAEDLGIYYCQQSKEVPYTFGAGTKLEIK</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" ref="N7:N50" si="2">LEN(M7)</f>
+        <f t="shared" ref="N7:N70" si="2">LEN(M7)</f>
         <v>247</v>
       </c>
       <c r="O7" s="1" t="b">
@@ -5991,6 +6039,9 @@
       <c r="T31" s="10">
         <v>45971</v>
       </c>
+      <c r="U31" s="2" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="32" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -6045,7 +6096,7 @@
         <v>45971</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="V32" s="4">
         <v>0.01</v>
@@ -6104,7 +6155,7 @@
         <v>45971</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="V33" s="4">
         <v>0</v>
@@ -6163,7 +6214,7 @@
         <v>45971</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="V34" s="4">
         <v>0.14000000000000001</v>
@@ -6222,7 +6273,7 @@
         <v>45971</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="V35" s="4">
         <v>0.01</v>
@@ -6281,7 +6332,7 @@
         <v>45971</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="V36" s="4">
         <v>0</v>
@@ -6340,7 +6391,7 @@
         <v>45971</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="V37" s="4">
         <v>0.12</v>
@@ -6399,7 +6450,7 @@
         <v>45971</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="V38" s="4">
         <v>0.11</v>
@@ -6458,7 +6509,7 @@
         <v>45971</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="V39" s="4">
         <v>0.05</v>
@@ -6517,7 +6568,7 @@
         <v>45971</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="V40" s="4">
         <v>0.01</v>
@@ -6575,6 +6626,12 @@
       <c r="T41" s="10">
         <v>45972</v>
       </c>
+      <c r="U41" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="V41" s="4">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="42" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -6628,6 +6685,12 @@
       <c r="T42" s="10">
         <v>45972</v>
       </c>
+      <c r="U42" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="V42" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -6681,6 +6744,12 @@
       <c r="T43" s="10">
         <v>45972</v>
       </c>
+      <c r="U43" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="V43" s="4">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="44" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
@@ -6734,6 +6803,12 @@
       <c r="T44" s="10">
         <v>45972</v>
       </c>
+      <c r="U44" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="V44" s="4">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="45" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -6787,6 +6862,12 @@
       <c r="T45" s="10">
         <v>45972</v>
       </c>
+      <c r="U45" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="V45" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -6840,6 +6921,12 @@
       <c r="T46" s="10">
         <v>45972</v>
       </c>
+      <c r="U46" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="V46" s="4">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="47" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -6893,6 +6980,12 @@
       <c r="T47" s="10">
         <v>45972</v>
       </c>
+      <c r="U47" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="V47" s="4">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="48" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -6946,8 +7039,14 @@
       <c r="T48" s="10">
         <v>45972</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="U48" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="V48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>202</v>
       </c>
@@ -6999,8 +7098,14 @@
       <c r="T49" s="10">
         <v>45972</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="U49" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="V49" s="4">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>203</v>
       </c>
@@ -7052,9 +7157,138 @@
       <c r="T50" s="10">
         <v>45972</v>
       </c>
+      <c r="U50" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="V50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T51" s="10"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T52" s="10"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T53" s="10"/>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T54" s="10"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T55" s="10"/>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T56" s="10"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T57" s="10"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T58" s="10"/>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T59" s="10"/>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T60" s="10"/>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T61" s="10"/>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T62" s="10"/>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T63" s="10"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T64" s="10"/>
+    </row>
+    <row r="65" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T65" s="10"/>
+    </row>
+    <row r="66" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T66" s="10"/>
+    </row>
+    <row r="67" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T67" s="10"/>
+    </row>
+    <row r="68" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T68" s="10"/>
+    </row>
+    <row r="69" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T69" s="10"/>
+    </row>
+    <row r="70" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T70" s="10"/>
+    </row>
+    <row r="71" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T71" s="10"/>
+    </row>
+    <row r="72" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T72" s="10"/>
+    </row>
+    <row r="73" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T73" s="10"/>
+    </row>
+    <row r="74" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T74" s="10"/>
+    </row>
+    <row r="75" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T75" s="10"/>
+    </row>
+    <row r="76" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T76" s="10"/>
+    </row>
+    <row r="77" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T77" s="10"/>
+    </row>
+    <row r="78" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T78" s="10"/>
+    </row>
+    <row r="79" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T79" s="10"/>
+    </row>
+    <row r="80" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T80" s="10"/>
+    </row>
+    <row r="81" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T81" s="10"/>
+    </row>
+    <row r="82" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T82" s="10"/>
+    </row>
+    <row r="83" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T83" s="10"/>
+    </row>
+    <row r="84" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T84" s="10"/>
+    </row>
+    <row r="85" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T85" s="10"/>
+    </row>
+    <row r="86" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T86" s="10"/>
+    </row>
+    <row r="87" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T87" s="10"/>
+    </row>
+    <row r="88" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T88" s="10"/>
+    </row>
+    <row r="89" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T89" s="10"/>
+    </row>
+    <row r="90" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T90" s="10"/>
+    </row>
+    <row r="91" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T91" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V50" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:V110" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K1:L1048576">
     <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
@@ -7067,12 +7301,12 @@
       <formula>LEN(TRIM(K1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O50">
+  <conditionalFormatting sqref="O2:O110">
     <cfRule type="containsBlanks" dxfId="6" priority="7">
       <formula>LEN(TRIM(O2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:S2 O3:Q30 O31:O50 R3:S22">
+  <conditionalFormatting sqref="O2:S2 O3:Q30 R3:S22 O31:O110">
     <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -7080,7 +7314,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P31:Q50">
+  <conditionalFormatting sqref="P31:Q110">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -7127,17 +7361,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMM3"/>
+  <dimension ref="A1:AMM4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="78.42578125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="122.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="44.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="93.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -7154,7 +7388,7 @@
       <c r="B1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -7186,8 +7420,8 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>283</v>
+      <c r="C2" s="4" t="s">
+        <v>282</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -7213,13 +7447,13 @@
     </row>
     <row r="3" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>284</v>
+        <v>308</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>283</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>255</v>
@@ -7238,6 +7472,29 @@
       </c>
       <c r="J3" s="1">
         <v>0.72998799999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -7248,10 +7505,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C06239D-77DB-4F47-9412-C7BA2E2E54B1}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7287,18 +7544,26 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>286</v>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\Nipah_gpG_Fv_Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BCD60F-52AF-43BB-931B-296916837F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64627721-720A-4A1E-9D05-B9EA16A961DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,13 +21,14 @@
     <sheet name="20251109 Submission FASTA" sheetId="6" r:id="rId6"/>
     <sheet name="20251110 Submission FASTA" sheetId="7" r:id="rId7"/>
     <sheet name="20251111 Submission FASTA" sheetId="8" r:id="rId8"/>
+    <sheet name="20251112 Submission FASTA" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Antibody Candidates'!$A$1:$V$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Antibody Candidates'!$A$1:$V$80</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId9"/>
+    <pivotCache cacheId="14" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="404">
   <si>
     <t>antigen_id</t>
   </si>
@@ -982,6 +983,282 @@
   </si>
   <si>
     <t>From Proteinbase competition evaluation logic (GitHub)</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-052</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-053</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-054</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-055</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-056</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-057</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-058</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-059</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-060</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-061</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-062</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-063</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-064</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-065</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-066</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-067</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-068</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-069</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-070</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-071</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-072</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-073</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-074</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-075</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-076</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-077</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-078</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-079</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-080</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-081</t>
+  </si>
+  <si>
+    <t>QVQLQESGPGLVKPSETLSLTCTVSGGSVSSGGYFWSWIRQPPGKGLEWIGCIYYSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARVDSFYYGMDVWGQGTTVTVSS</t>
+  </si>
+  <si>
+    <t>DIQMTQSPSSLSASVGDRVTITCRASQGIRNDLGWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAISGSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARQVWFGGFDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSYIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRQFWYSGLDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGSSYFGYYAMDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYSISWVRQAPGQGLEWMGGIIIFGTANYAQKFQGRVTITADESTSTAYMELSSLRSEDTAVYYCARGQGTLVDFYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>DIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASIYPYSGYTNYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGYGYWGYAMDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAISGSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARGYQVYFDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSYIHWVRQAPGKGLEWVASISSYYGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGWSYSWSYSWSYSGLDVWGQGTTVTVSS</t>
+  </si>
+  <si>
+    <t>DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGWYYGSSYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSYIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGTYYGSSYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>QMQLVQSGAEVKKPGESLKISCKGSGYSFTSYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAIYYCARHYYGGQYFDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>DIQMTQSPSSLSASVGDRVTITCRASQGIRNDLGWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKLEIK</t>
+  </si>
+  <si>
+    <t>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYAISWVRQAPGQGLEWMGGIIPIFGTANYAQKFQGRVTITADESTSTAYMELSSLRSEDTAVYYCARWYDGYFVYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRQFWYSGLDYWGQGTLVTVFN</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYYGSTYYADSVKGRFTISADTSKNTAYLQMRAEDTAVYYCARGWRSYAMDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYSFIWVRQAPGQGLEWMGGIIPIFGTANYAQKFQGRVTITADESTSTAYMELSSLRSEDTAVYYCARSSYSGVYYSWYFDVWGAGTTVTVSS</t>
+  </si>
+  <si>
+    <t>DIQMTQSPSSLSASVGDRVTITCRASQGISNYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLQESGPGLVKPSQTLSLTCTVSGGSISSYAAWSWIRQPPGKGLEWIGYIYSSSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARGDYSYSYYGLDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>DIQMTQSPSSLSASVGDRVTITCRASQGIRNDLGWYQQKPGKAPKLLIYAASNLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRYTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLQQSGPELVKPGASVKMSCKASGYTFTSYNIHWVKQTPVHGLEWIGAIVSGGDTNYNENFKDKATLTVDKSSSTAYMQLTSEDSAVYYCARGGFYGDYWGQGTSVTVSS</t>
+  </si>
+  <si>
+    <t>DIVLTQSPATLSVTPGDSVSLSCRASQSVTNNIHWYQQKSHESPRLLIKYASQSISGIPSRFSGSGSGTDFTLSINSVETEDFGMYFCQQSNSWPYTFGGGTKLEIK</t>
+  </si>
+  <si>
+    <t>QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGDYYWIRQHPGKGLEWIGYIYYSGSTYYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARQLWLRGRFDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>DIQMTQSPSSLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFTVSSNYMSWVRQAPGKGLEWVSVIYSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCAREAGVWVFDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNLYSSSIHWVRQAPGKGLEWVASISSYYGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRQFWLWFGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>VQLVQSGAEVKKPGASVKVSCKASGYTFTTYTISWVRQAPGQGLEWMGWINNSGGTNYAQKFQGRVTMTRDTSTSTVSAYMELRSEDTAVYYCATFVYGYSAYQPLTDDYGQMDVWGQGTTVTVSS</t>
+  </si>
+  <si>
+    <t>DIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWFQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSLLYPLTFGGGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSSSGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARHRWWAHPYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSYYITPYTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGVVQPGRSLRLSCAASGFTFSSYAMHWVRQAPGKGLEWVAVIWYDGSNKYYADSVKGRFTISRDNSKNTLFLQMNSLRPEDTAVYYCARDTPMYYDVWGQGTTVTVSS</t>
+  </si>
+  <si>
+    <t>DIQLTQSPSSLSASVGDRVTITCRTSQDIDNYLNWYQQKPGKAPKLLIYYTSSLHSGVPSRFSGSGSGTDFTFTISSLQPEDIATYYCQQYDNLPITFGQGTKLEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFTFSNYAMSWVRQAPGKGLEWVSAISGSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARLSPYNGSMDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>VTQPASVSGSPGQSITISCTGTSSDIGAYNYVSWYQQHPGKAPKLMIYEVSKRPSGVSNRFSGSKSGNTASLTISGLQTEDEADYYCSSYTRSGSVVFGGGTKLTVL</t>
+  </si>
+  <si>
+    <t>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYTISWVRQAPGQGLEWMGGIIPILGIANYAQKFQGRVTITADKSTSTAYMELSSLRSEDTAVYYCARGDSSYVDSWDYWGQGTLVTVS</t>
+  </si>
+  <si>
+    <t>EIVLTQSPGTLSLSPGERATLSCRASQSVSSSYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPWTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>QVQLVESGGGVVQPGRSLRLSCAASGFTFSNYGMHWVRQAPGKGLEWVAVISDGSNKYYADSVKGRFTISRDNSKNTLYLQMRAEDTAVYYCARGSHSSRDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>DIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPPYTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>VQLVQSGAEVKRPGSSVKVSCKTSGGTIFSTYVFWVRQAPGQGLEWMGGFPPKAGYIYAQKFQGRVTFTADESSSTTVYMEDLRSEDTAVYFCARFPYFVYDVWGQGTTVTVSS</t>
+  </si>
+  <si>
+    <t>DIQMTQSPSSLSASVGDRVTITCRASQSIGGYLAWYQQKPGKVPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>VQLQESGPGLVKPSQSLSLTCTVTGFSIDYNIYWGWIRQPPGKGLEWIGYIYSGSDTYNPSLKSRVTISVDTSKNQFSLKVNSVTAADTAVYYCARVVDLWYDDGKYASCVKGAIDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>SVLTQPPSVSGAPGQRVTISCTGSSGAGYDVHWYQQLPGTAPKLLIYGNSNRPSGVPDRFSGSKSGTSASLAITGLQAEDEADYYCQSYDSSLSGWVFGGGTKLTVL</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVVDFSLHWVRQAPGKGLEWVASIYPYDGSAYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARWGYWPGEGWLGKYWGQGTLVTVS</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSSYGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARWEGYRGDLWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYYEWLRTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-082</t>
+  </si>
+  <si>
+    <t>Humanized using Abysis (Chothia scheme and CDR regions)</t>
+  </si>
+  <si>
+    <t>QVQLQESGPGLVKPSQTLSLTCTVSGGSVSSGSYYWSWIRQPPGKGLEWIGYIYYSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARVDSFYYGMDVWGQGTTVTVSS</t>
+  </si>
+  <si>
+    <t>DIQMTQSPSSLSASVGDRVTITCRASSGSSYDNGWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYLQDSNYTPRTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>QVQLQESGPGLVKPSETLSLTCTVSGGSVSSGGYFWSWIRQPPGKGLEWIGCIYYSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARVDSFYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGIRNDLGWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAISGSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARQVWFGGFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSYIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRQFWYSGLDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>QMQLVQSGAEVKKPGESLKISCKGSGYSFTSYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAIYYCARHYYGGQYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGIRNDLGWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKLEIK</t>
+  </si>
+  <si>
+    <t>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYAISWVRQAPGQGLEWMGGIIPIFGTANYAQKFQGRVTITADESTSTAYMELSSLRSEDTAVYYCARWYDGYFVYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRQFWYSGLDYWGQGTLVTVFNGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>VQLVQSGAEVKKPGASVKVSCKASGYTFTTYTISWVRQAPGQGLEWMGWINNSGGTNYAQKFQGRVTMTRDTSTSTVSAYMELRSEDTAVYYCATFVYGYSAYQPLTDDYGQMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWFQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSLLYPLTFGGGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSSSGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARHRWWAHPYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSYYITPYTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGVVQPGRSLRLSCAASGFTFSSYAMHWVRQAPGKGLEWVAVIWYDGSNKYYADSVKGRFTISRDNSKNTLFLQMNSLRPEDTAVYYCARDTPMYYDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRTSQDIDNYLNWYQQKPGKAPKLLIYYTSSLHSGVPSRFSGSGSGTDFTFTISSLQPEDIATYYCQQYDNLPITFGQGTKLEIK</t>
+  </si>
+  <si>
+    <t>QVQLQESGPGLVKPSQTLSLTCTVSGGSVSSGSYYWSWIRQPPGKGLEWIGYIYYSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARVDSFYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASSGSSYDNGWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYLQDSNYTPRTFGQGTKVEIK</t>
   </si>
 </sst>
 </file>
@@ -1071,21 +1348,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -1156,13 +1419,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Colby" refreshedDate="45971.564090046297" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="50" xr:uid="{C69715DE-2A16-4198-9FD9-FAE4F60B2265}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Colby" refreshedDate="45973.952925115744" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="81" xr:uid="{C69715DE-2A16-4198-9FD9-FAE4F60B2265}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:T3000" sheet="Antibody Candidates"/>
+    <worksheetSource ref="A1:T2970" sheet="Antibody Candidates"/>
   </cacheSource>
-  <cacheFields count="19">
+  <cacheFields count="20">
     <cacheField name="antibody_id" numFmtId="0">
-      <sharedItems containsBlank="1" count="50">
+      <sharedItems containsBlank="1" count="81">
         <s v="sbio-nipahgpg-001"/>
         <s v="sbio-nipahgpg-002"/>
         <s v="sbio-nipahgpg-003"/>
@@ -1212,6 +1475,37 @@
         <s v="sbio-nipahgpg-049"/>
         <s v="sbio-nipahgpg-050"/>
         <s v="sbio-nipahgpg-051"/>
+        <s v="sbio-nipahgpg-052"/>
+        <s v="sbio-nipahgpg-053"/>
+        <s v="sbio-nipahgpg-054"/>
+        <s v="sbio-nipahgpg-055"/>
+        <s v="sbio-nipahgpg-056"/>
+        <s v="sbio-nipahgpg-057"/>
+        <s v="sbio-nipahgpg-058"/>
+        <s v="sbio-nipahgpg-059"/>
+        <s v="sbio-nipahgpg-060"/>
+        <s v="sbio-nipahgpg-061"/>
+        <s v="sbio-nipahgpg-062"/>
+        <s v="sbio-nipahgpg-063"/>
+        <s v="sbio-nipahgpg-064"/>
+        <s v="sbio-nipahgpg-065"/>
+        <s v="sbio-nipahgpg-066"/>
+        <s v="sbio-nipahgpg-067"/>
+        <s v="sbio-nipahgpg-068"/>
+        <s v="sbio-nipahgpg-069"/>
+        <s v="sbio-nipahgpg-070"/>
+        <s v="sbio-nipahgpg-071"/>
+        <s v="sbio-nipahgpg-072"/>
+        <s v="sbio-nipahgpg-073"/>
+        <s v="sbio-nipahgpg-074"/>
+        <s v="sbio-nipahgpg-075"/>
+        <s v="sbio-nipahgpg-076"/>
+        <s v="sbio-nipahgpg-077"/>
+        <s v="sbio-nipahgpg-078"/>
+        <s v="sbio-nipahgpg-079"/>
+        <s v="sbio-nipahgpg-080"/>
+        <s v="sbio-nipahgpg-081"/>
+        <s v="sbio-nipahgpg-082"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1236,8 +1530,11 @@
     <cacheField name="parent_antibody_id" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
+    <cacheField name="antigen_id" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
     <cacheField name="note_ids" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="2"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="3"/>
     </cacheField>
     <cacheField name="h_chain" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -1252,7 +1549,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="franken_chain" numFmtId="0">
-      <sharedItems containsBlank="1" count="50">
+      <sharedItems containsBlank="1" count="81">
         <s v="QVQLVESGGGVVQPGRSLRLSCAASGFTFSSYGMHWVRQAPGKGLEWVAVISYDGSKKYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARSPFYDSSGYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISSYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQANSFPPTFGQGTKVEIK"/>
         <s v="QVQLVESGGGVVQPGKSLRLSCAASGFTFSSYAMSWVRQAPGKGPEWVAFISYDGSNNYYADSVKGRFTISRDNPKNTLYLQMKSLRAEDTAVYYCARWRQRFDMYWGRGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK"/>
         <s v="QVQLQESGPGLVKPSETLSLTCTVSGASIRGYYWSWIRQFPGKELEWIGYVYSGSTENYNPSLKSRVTVTLTDTKNSFSLKLNSVTSEDTAVYYCARGGALIYYDVWGTGTTVTVSSGGGSGGGSGGGSGGGSDIQVTQSPVSLSASVGDRVTITCRASQGIDSLNWFQQRPGKAPKLLIYAASQLTGIAPRFRSGSGSGTDFTLTISSLQPEDFATYYCQQYNIYPATFGQGTKVEIK"/>
@@ -1302,6 +1599,37 @@
         <s v="QVQLQQPGAELVKPGASVKLSCKASGYTFTSDWIHWVKQRPGHGLEWIGEIIPSYGRANYNEKIQKKATLTADKSSSTAFMHLSSLTSEDSAVYYCARERGDGYFAVWGAGTTVTVSSGGGSGGGSGGGSGGGSDILLTQSPAILSVSPGERVSFSCRASQSIGTDIHWYQQRTNGSPRLLIKYASESISGIPSRFSGSGSGTDFTLSINSVESEDIANYYCQQSNRWPFTFGSGTKLEIK"/>
         <s v="VRLLESGGGLVQPGGSLKLSCAASGFDYSRYWMSWVRQAPGKGLKWIGEINPVSSTINYTPSLKDKFIISRDNAKDTLYLQISKVRSEDTALYYCARLYYGYGYWYFDVWGAGTTVTVSSGGGSGGGSGGGSGGGSDIVLTQSPAIMSAAPGDKVTMTCSASSSVSYIHWYQQKSGTSPKRWIYDTSKLTSGVPVRFSGSGSGTSYSLTINTMEAEDAATYYCQQWSSHPQTFGGGTKLEIl"/>
         <s v="QVQLQESGPGLVQPSQSLSLTCTVSGFSLTSYGVHWVRQSPGKGLEWLGVIWAGGSTDYNSALKSRLSISRDTSKNQVFLKMNSLQTDDTAMYYCAKHGSSNGDYWGQGTSVTVSSGGGSGGGSGGGSGGGSDIVMTQSPDSLAVSLGERATINCKSSQSVLYSSNNKNYLAWYQQKPEGQPPNLLIYWASTRESGVPDRFSGSGSGTDFTLTISSLQAEDVAVYYCQQYYSAPTFGQGTKLEIK"/>
+        <s v="QVQLQESGPGLVKPSETLSLTCTVSGGSVSSGGYFWSWIRQPPGKGLEWIGCIYYSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARVDSFYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGIRNDLGWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAISGSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARQVWFGGFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSYIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRQFWYSGLDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGSSYFGYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+        <s v="QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYSISWVRQAPGQGLEWMGGIIIFGTANYAQKFQGRVTITADESTSTAYMELSSLRSEDTAVYYCARGQGTLVDFYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASIYPYSGYTNYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGYGYWGYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAISGSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARGYQVYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSYIHWVRQAPGKGLEWVASISSYYGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGWSYSWSYSWSYSGLDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGWYYGSSYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSYIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGTYYGSSYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+        <s v="QMQLVQSGAEVKKPGESLKISCKGSGYSFTSYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAIYYCARHYYGGQYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGIRNDLGWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKLEIK"/>
+        <s v="QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYAISWVRQAPGQGLEWMGGIIPIFGTANYAQKFQGRVTITADESTSTAYMELSSLRSEDTAVYYCARWYDGYFVYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRQFWYSGLDYWGQGTLVTVFNGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYYGSTYYADSVKGRFTISADTSKNTAYLQMRAEDTAVYYCARGWRSYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK"/>
+        <s v="QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYSFIWVRQAPGQGLEWMGGIIPIFGTANYAQKFQGRVTITADESTSTAYMELSSLRSEDTAVYYCARSSYSGVYYSWYFDVWGAGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGISNYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK"/>
+        <s v="EVQLQESGPGLVKPSQTLSLTCTVSGGSISSYAAWSWIRQPPGKGLEWIGYIYSSSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARGDYSYSYYGLDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGIRNDLGWYQQKPGKAPKLLIYAASNLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRYTFGQGTKVEIK"/>
+        <s v="EVQLQQSGPELVKPGASVKMSCKASGYTFTSYNIHWVKQTPVHGLEWIGAIVSGGDTNYNENFKDKATLTVDKSSSTAYMQLTSEDSAVYYCARGGFYGDYWGQGTSVTVSSGGGSGGGSGGGSGGGSDIVLTQSPATLSVTPGDSVSLSCRASQSVTNNIHWYQQKSHESPRLLIKYASQSISGIPSRFSGSGSGTDFTLSINSVETEDFGMYFCQQSNSWPYTFGGGTKLEIK"/>
+        <s v="QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGDYYWIRQHPGKGLEWIGYIYYSGSTYYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARQLWLRGRFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFTVSSNYMSWVRQAPGKGLEWVSVIYSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCAREAGVWVFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNLYSSSIHWVRQAPGKGLEWVASISSYYGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRQFWLWFGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+        <s v="VQLVQSGAEVKKPGASVKVSCKASGYTFTTYTISWVRQAPGQGLEWMGWINNSGGTNYAQKFQGRVTMTRDTSTSTVSAYMELRSEDTAVYYCATFVYGYSAYQPLTDDYGQMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWFQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSLLYPLTFGGGTKVEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSSSGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARHRWWAHPYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSYYITPYTFGQGTKVEIK"/>
+        <s v="EVQLVESGGGVVQPGRSLRLSCAASGFTFSSYAMHWVRQAPGKGLEWVAVIWYDGSNKYYADSVKGRFTISRDNSKNTLFLQMNSLRPEDTAVYYCARDTPMYYDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRTSQDIDNYLNWYQQKPGKAPKLLIYYTSSLHSGVPSRFSGSGSGTDFTFTISSLQPEDIATYYCQQYDNLPITFGQGTKLEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFTFSNYAMSWVRQAPGKGLEWVSAISGSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARLSPYNGSMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSVTQPASVSGSPGQSITISCTGTSSDIGAYNYVSWYQQHPGKAPKLMIYEVSKRPSGVSNRFSGSKSGNTASLTISGLQTEDEADYYCSSYTRSGSVVFGGGTKLTVL"/>
+        <s v="QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYTISWVRQAPGQGLEWMGGIIPILGIANYAQKFQGRVTITADKSTSTAYMELSSLRSEDTAVYYCARGDSSYVDSWDYWGQGTLVTVSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSVSSSYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPWTFGQGTKVEIK"/>
+        <s v="QVQLVESGGGVVQPGRSLRLSCAASGFTFSNYGMHWVRQAPGKGLEWVAVISDGSNKYYADSVKGRFTISRDNSKNTLYLQMRAEDTAVYYCARGSHSSRDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPPYTFGQGTKVEIK"/>
+        <s v="VQLVQSGAEVKRPGSSVKVSCKTSGGTIFSTYVFWVRQAPGQGLEWMGGFPPKAGYIYAQKFQGRVTFTADESSSTTVYMEDLRSEDTAVYFCARFPYFVYDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSIGGYLAWYQQKPGKVPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK"/>
+        <s v="VQLQESGPGLVKPSQSLSLTCTVTGFSIDYNIYWGWIRQPPGKGLEWIGYIYSGSDTYNPSLKSRVTISVDTSKNQFSLKVNSVTAADTAVYYCARVVDLWYDDGKYASCVKGAIDYWGQGTLVTVSSGGGSGGGSGGGSSVLTQPPSVSGAPGQRVTISCTGSSGAGYDVHWYQQLPGTAPKLLIYGNSNRPSGVPDRFSGSKSGTSASLAITGLQAEDEADYYCQSYDSSLSGWVFGGGTKLTVL"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVVDFSLHWVRQAPGKGLEWVASIYPYDGSAYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARWGYWPGEGWLGKYWGQGTLVTVSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEI"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSSYGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARWEGYRGDLWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYYEWLRTFGQGTKVEIK"/>
+        <s v="QVQLQESGPGLVKPSQTLSLTCTVSGGSVSSGSYYWSWIRQPPGKGLEWIGYIYYSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARVDSFYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASSGSSYDNGWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYLQDSNYTPRTFGQGTKVEIK"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1324,13 +1652,15 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="0.69121100000000002"/>
     </cacheField>
     <cacheField name="submitted_to_comp" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-11-07T00:00:00" maxDate="2025-11-12T00:00:00" count="6">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-11-12T00:00:00" maxDate="2025-11-13T00:00:00" count="8">
         <d v="2025-11-07T00:00:00"/>
         <d v="2025-11-08T00:00:00"/>
         <d v="2025-11-09T00:00:00"/>
         <d v="2025-11-10T00:00:00"/>
         <d v="2025-11-11T00:00:00"/>
+        <d v="2025-11-12T00:00:00"/>
         <m/>
+        <d v="2023-11-12T00:00:00" u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -1343,7 +1673,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="50">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="81">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -1351,6 +1681,7 @@
     <n v="0.7"/>
     <s v="base"/>
     <m/>
+    <s v="nipah_gpG"/>
     <m/>
     <s v="QVQLVESGGGVVQPGRSLRLSCAASGFTFSSYGMHWVRQAPGKGLEWVAVISYDGSKKYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARSPFYDSSGYYAMDYWGQGTLVTVSS"/>
     <s v="DIQLTQSPSSLSASVGDRVTITCRASQGISSYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQANSFPPTFGQGTKVEIK"/>
@@ -1372,6 +1703,7 @@
     <n v="0.7"/>
     <s v="base"/>
     <m/>
+    <s v="nipah_gpG"/>
     <m/>
     <s v="QVQLVESGGGVVQPGKSLRLSCAASGFTFSSYAMSWVRQAPGKGPEWVAFISYDGSNNYYADSVKGRFTISRDNPKNTLYLQMKSLRAEDTAVYYCARWRQRFDMYWGRGTLVTVSS"/>
     <s v="DIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK"/>
@@ -1393,6 +1725,7 @@
     <n v="0.9"/>
     <s v="base"/>
     <m/>
+    <s v="nipah_gpG"/>
     <m/>
     <s v="QVQLQESGPGLVKPSETLSLTCTVSGASIRGYYWSWIRQFPGKELEWIGYVYSGSTENYNPSLKSRVTVTLTDTKNSFSLKLNSVTSEDTAVYYCARGGALIYYDVWGTGTTVTVSS"/>
     <s v="DIQVTQSPVSLSASVGDRVTITCRASQGIDSLNWFQQRPGKAPKLLIYAASQLTGIAPRFRSGSGSGTDFTLTISSLQPEDFATYYCQQYNIYPATFGQGTKVEIK"/>
@@ -1414,6 +1747,7 @@
     <n v="0.9"/>
     <s v="base"/>
     <m/>
+    <s v="nipah_gpG"/>
     <m/>
     <s v="EVQLVQSGAEVKKPGESLKISCKGSGYTFSYYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAMYYCARGEGVFDYWGQGTLVTVSS"/>
     <s v="YTLTQAPSVSASGQSVTISCTGTSRDVGTYWYQQIPGRAPKLLIHDKSENQGKTPGIPDRFSGSKSGNTASLVIIRGLQADDEADYYCNSYHGSGSNIFGGGTKLTVD"/>
@@ -1435,6 +1769,7 @@
     <n v="0.5"/>
     <s v="base"/>
     <m/>
+    <s v="nipah_gpG"/>
     <m/>
     <s v="EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYWMNWVRQAPGKGLEWVANINQDGGEKYYVDSVKGRFTISRDNAKNSLYLQMNSLRAEDTAIYYCARDVGGGMDVWGQGTTVTVSS"/>
     <s v="QMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK"/>
@@ -1456,6 +1791,7 @@
     <m/>
     <s v="base"/>
     <m/>
+    <s v="nipah_gpG"/>
     <m/>
     <s v="QVQLVESGGGVVQPGRSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAIWSNGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARDYGSYGYFDYWGQGTLVTVSS"/>
     <s v="DIVMTQSPLSLPVTPGEPASISCRSSQSLLYSNGNTYLEWYLQKPGQSPQLLIYLVSKLDSGVPDRFSGSGSGTDFTLKISRVEAEDLGIYYCQQSKEVPYTFGAGTKLEIK"/>
@@ -1477,6 +1813,7 @@
     <n v="0.1"/>
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
+    <s v="nipah_gpG"/>
     <n v="1"/>
     <s v="AVSLVESGGGTVKPGESVTLSCQASGFNFSKYQWVWVRQAPGKGLEWVGQISPDGSKTRYHPSVAGRFTISRDNSNSTLYLHMSNLRPEDTAVYYCGIIPQDNVHGDYSISHWGQGTLLTVSA"/>
     <s v="AIKLTQSPKSLSASVGDTVTINCTASRPIGDLLSWYKQKPGKPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSSDFATYYCRQTSRFPITFGEGTTINKK"/>
@@ -1498,6 +1835,7 @@
     <n v="0.1"/>
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
+    <s v="nipah_gpG"/>
     <n v="1"/>
     <s v="AVSITESGGGTKAPGSSVTLSCKVSGFVFSKYSIAWVRQAPGQGLEWVSQISPDGSTTRYNPAVAGRFTISRDNSNSTAYLQMSNLTPSDTATYYCAIIPQDNEHGDYSLSHWGQGTQLTVSA"/>
     <s v="AIKLTQSPKSLSAKVGDTVTINCTASAPIGDFLSWYKQKPGQPPQLLIYKSSTLAPGVSSRYSGSGSDTNFTLTISSLQEEDFATYYCQQTATLPITFGEGTTINKK"/>
@@ -1519,6 +1857,7 @@
     <n v="0.1"/>
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
+    <s v="nipah_gpG"/>
     <n v="1"/>
     <s v="SISLVESGGGTVAPGSSVTLSCQASGFNFSKYSKAWVRQPPGQPLEWVSRISPDGSTKYYHPDVAGRFTISKDNSKSTVYLAMSNLTAADTATYYCGIIPGDNTHGDYAMSHWGQGTLLTVSA"/>
     <s v="AITLTQSPSSLSASVGDTVTISCTASRPIGDKLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTSFTLTISSLQEDDFATYYCQQTYTLPITFGQGTTISKK"/>
@@ -1540,6 +1879,7 @@
     <n v="0.1"/>
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
+    <s v="nipah_gpG"/>
     <n v="1"/>
     <s v="GVSLTESGGGTVAPGSSVTLSCKASGFNFSKYSHAWVRQAPGQGLTWVGEISPDGSKTRYASSVAGRFTISRDNSNSTVYLQMSSLTPSDTATYYCGIIPGDSVHGERSMSHWGQGTLLTVSA"/>
     <s v="AITLTQSPSSLSASVGDTVTLNCTASRPIGDRLSWYKQKPGQAPQLLIYRASTLAPGVSSRYSGSGSDTQFTLTISSLQSDDFATYYCQQTSSYPVTFGQGTTITKK"/>
@@ -1561,6 +1901,7 @@
     <n v="0.1"/>
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
+    <s v="nipah_gpG"/>
     <n v="1"/>
     <s v="EVSLVESGGGTVKPGESVTLSCQASGFNFSKYRLAWVRQPPGQGLVWVSEISPDGTEVKYHPDVKGRFTASRDNSNSTAYLKMNNLQPSDTATYYCGIIPQDSSHGDYSISHWGQGTQLTVSA"/>
     <s v="TITLTQSPSSLSASVGDTVTINCTASRPIGDFLSWYKQKPGQPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSDDFATYYCQQTYTLPITFGQGTTLTKK "/>
@@ -1582,6 +1923,7 @@
     <n v="0.1"/>
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
+    <s v="nipah_gpG"/>
     <n v="1"/>
     <s v="AVSLVESGGGTYAPGSSVTLSCQGSGFNFSKVRKVWVRQPPGGPLEYVAEISPDGSTTTYASSVAGRFTISKDNSNSTLYLSMSNLTPADTATYYCGLIPGDSEHGDRSISHWGQGTLVTVSA"/>
     <s v="AITLTQSPSSLSASVGDTVTINCTASQPIGNFLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTNFTLTISSLQSEDFATYYCQQTSRLPVTFGQGTTINKK"/>
@@ -1603,6 +1945,7 @@
     <n v="0.1"/>
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
+    <s v="nipah_gpG"/>
     <n v="1"/>
     <s v="GISLVESGGGTVKPGESVTLSCKASGFVFSKYSHAWVRQPPGGPLEWVSQISSDGSVTRYASSVSGRFTISRDNSNSTVYLQMNNLRPSDTATYYCGIIPQDNVHGDYAISHWGQGTLLTVTA"/>
     <s v="AITLTQSPASLSAKVGDTVTLSCTASRPIGDLLSWYKQKPGQPPQLLIYRASTLAPGVDSRYSGSGSDTSFTLTISSLQPEDFATYYCQQTSRFPITFGQGTTIKQA"/>
@@ -1624,6 +1967,7 @@
     <n v="0.15"/>
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
+    <s v="nipah_gpG"/>
     <n v="1"/>
     <s v="PVSLVESGGGTVAPGSSVTLTCQASGFNFSKYIVAWVRQPPGQPLRFVAMITPDGSKVWLHPEVEGRFTPSKDNSKNTSYLQLKDLQPEDTATYYCGIIPQGSTHGDYSITHWGQGVVLTVTA"/>
     <s v="MVTLTQSPSSLSASVGDTVTITCTASSPVDNLMSWYQQPPGQPLRLLIYNASTRAPGVSSRFSGSGSDTNFTLTISSLQASDFATYYCQQTYRLPVTFGQGTTLSAA "/>
@@ -1645,6 +1989,7 @@
     <n v="0.15"/>
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
+    <s v="nipah_gpG"/>
     <n v="1"/>
     <s v="SIKLTESGGGTVKPGSSVTLSCQASGFNFSKYEVVWVMQKPGQPLQWVGSISPDGSKVRLHPKVKGRFTLSKDNSKNTAYLTMKNLQPEDTATYYCGIIPGGSVHGDRSITHWGQGVELKVVA"/>
     <s v="MIKLTQSPKSVKAKVGDTVTITCTASEPVDDLVSWYQQKPGQPLRLLIYRSSTLAPGVSSRFSGSGSDTNFTLTISSLQEEDFATYYCMQTSKYPYTFGQGTTLSRA"/>
@@ -1666,6 +2011,7 @@
     <n v="0.15"/>
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
+    <s v="nipah_gpG"/>
     <n v="1"/>
     <s v="AITLTESGGGVVAPGSSVTLTCTASGFNFSKYSMVWVRQPPGGPLQWVAQISPDNSTVRYHPAVEGRFTASKDNSKNTAYLAMSDLEPSDTATYYCGIIPQGSTHNDYSIVHWGQGTELRVVA"/>
     <s v="MIKLTQSPSSLSAKVGDKVTITCTASSPVDNLVSWYKQPPGGPLQLLIYNSSTRAPGVSSRFKGSGSDTNFTLTIESLQEEDFATYYCQQTYKFPITFGQGTKLTRA"/>
@@ -1687,6 +2033,7 @@
     <n v="0.15"/>
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
+    <s v="nipah_gpG"/>
     <n v="1"/>
     <s v="SISLTESGGGTVAPGSSVTLTCTASGFNFSKYSVAWVRQPPGQPLQWVALISPDGSKKWYHPDVKGRATISKDNSKNTSYLTLSNLQPSDTATYYCGIIPGGNIHGDYSMTHWGQGTQLTVVA"/>
     <s v="MITLTQSPLSLSAKVGDTVTITCTASSPVDDLVSWYQQKPGQPLRLLIRNASERAPGVSSRFSGSGSDTTFTLTISSVQEEDFATYYCQQTSKLPYTFGQGTTLSRA"/>
@@ -1708,6 +2055,7 @@
     <n v="0.15"/>
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
+    <s v="nipah_gpG"/>
     <n v="1"/>
     <s v="AVTLTESGGGTVAPGSSVTLTCTASGFNFSKYILAWVRQAPGQPLEWVASISPDGSKTRYHPAVKGRATASKDNSKNTAYLELKDLRPEDTATYYCGIIPQGSVHGDYSMTHWGQGTELRVEA"/>
     <s v="PVVLTQSPLSLSAKVGDTVTITCTASSPVDNLVSWYKQAPGQPLQLLIYNATTRAPGVPSRFTGSGSDTTFTLTISSLQPEDFAVYYCQQTYKFPITFGQGTRLTPA"/>
@@ -1729,6 +2077,7 @@
     <n v="0.15"/>
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
+    <s v="nipah_gpG"/>
     <n v="1"/>
     <s v="PVKLVESGGGTVAPGSSVTLTCKASGFNFSKYMVQWVRQAPGGAFQWVGLISPDGSTKWYHPDVEGRFTISKDNSKNTAYLEMRNLTPADTAVYYCGIVPQGSVHGDYSITHWGQGVTLTVTA"/>
     <s v="VVQLTQSPPELSAKVGEKVTITCTASSPVDNLVSWYQQKPGGAPKLLIYNATTLAPGVPSRFSGSGSDTVFTLTIDSLQAEDFATYYCQQTSRLPFTFGQGTVLRPA"/>
@@ -1750,6 +2099,7 @@
     <n v="0.15"/>
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
+    <s v="nipah_gpG"/>
     <n v="1"/>
     <s v="AIKLTESGGGTVKPGSSVTLTCQASGFNFSKYIMAWVRQAPGQPLQWVAQISPDNSVKRYHPEVEGRFTASKDNSKNTAYLEMKNLTPADTATYYCAIIPQGSTQGDYSMVHWGQGVELKVVA"/>
     <s v="PVVLTQSPASLKAAVGDTVTITCTASAPVDNLVSWYKQAPGQPPQLLIYNASTLAPGVPSRFTGSGSDTSFTLTISSLQEEDFATYYCQETSKFPITFGQGTKLEKK"/>
@@ -1771,6 +2121,7 @@
     <n v="0.15"/>
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
+    <s v="nipah_gpG"/>
     <n v="1"/>
     <s v="SIKLTESGGGVVAPGESVTLTCTASGFNFSKYEMAWVRQAPGGPLEFVAVISPDGSTTRYHPRVEGRATISRDNSKNTAYLTLRDLTPADTAVYYCGIIPGGSVHGDRALSHWGQGVRLEVRA"/>
     <s v="MVTLTQSPSSLSAKVGDKVTISCTASEPVDDLVSWYKQAPGGPPQLLISRASTRAPGVPSRFSGSGSDTNFTLTIESLQSSDFATYYCQQTYKFPDTFGQGTTLSEA"/>
@@ -1792,6 +2143,7 @@
     <n v="0.1"/>
     <s v="derivative"/>
     <s v="m102.3 (PDB: 6CMI)"/>
+    <s v="nipah_gpG"/>
     <n v="2"/>
     <s v="SVTLVESGDQTVAPGGSVTLSCTSSGGSFGNSGVSWVKQQPGGPLQWIGGIIPSLGISKVSPEYAGRVTISSDSSNNTAYLTISNLTAADTATYYCALGEGEDVFASSPFASNVNLGALSVWGQGTKVTVS"/>
     <s v="ITVTQSPSSPSLKVGETATLTCTLSAPVPRSNVAWYKQQPGQPPTLLIYGGSTRAPGVPSRYSGSGSGTTFTLTITALKPEDFATYYCQVYGENPSFGQGTTLKLK "/>
@@ -1813,6 +2165,7 @@
     <n v="0.1"/>
     <s v="derivative"/>
     <s v="m102.3 (PDB: 6CMI)"/>
+    <s v="nipah_gpG"/>
     <n v="2"/>
     <s v="GVKLVQSGDLTVKPGGSVTLSCKSEGGSFGNSSVAWVRQRPGGPYEYIGSIIPAYGVSRVSPEYEGRVTISADVANNTAYLTISNLTPEDTATYYCALGPGEVVYAASPFDEKLLTGALSVWGEGTLVTVT"/>
     <s v="ITVTQSPSSPSLSVGDTATLTCTLSSSVATSNVAWYKQLPGQPPELLISGGSTRAPGVPSRYSGSGSGTTFTLTISSLQASDFATYYCQVYGENPSFGQGTTLTLK"/>
@@ -1834,6 +2187,7 @@
     <n v="0.1"/>
     <s v="derivative"/>
     <s v="m102.3 (PDB: 6CMI)"/>
+    <s v="nipah_gpG"/>
     <n v="2"/>
     <s v="AVKLVQSGDQTVAPGGSVTLSCTSSGGSFGNSSVAWVRQRPGGPFEFIGSIIPSLGISRYNSKYKGRVTISSDAANNTAYLTISNLTAADTATYYCALGPGESVFASHPFKEKLLTGALSVWGEGTLVTVS"/>
     <s v="ITVTQSPSSPSKSVGDTVTLTCTLSSSVPVSQVAWYKQHPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLQPEDFATYYCQVYGEEPSFGQGTTVTLA"/>
@@ -1855,6 +2209,7 @@
     <n v="0.1"/>
     <s v="derivative"/>
     <s v="m102.3 (PDB: 6CMI)"/>
+    <s v="nipah_gpG"/>
     <n v="2"/>
     <s v="SITLVQSGDVTVAPGGSVTLTCTSSGGSFGNKAVAWVRQRPGGPYEWLGFIIPAYGVSRYNPAYEGRVTISVDSASNTASLTISNLTAADTATYYCALGEGEIVYAASPFDENYKLGALYIWGQGTKVTVS"/>
     <s v="ITLTQSPSSPSLSVGETATLTCTASAPVPKSNVAWYKQLPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLTADDFATYYCQVYGENPSFGEGTTLTLK"/>
@@ -1876,6 +2231,7 @@
     <n v="0.1"/>
     <s v="derivative"/>
     <s v="m102.3 (PDB: 6CMI)"/>
+    <s v="nipah_gpG"/>
     <n v="2"/>
     <s v="SVTLVQSGDQTVPIGGSVTLSCTANGGSFGNKGVAWVRQRPGGPYEFLGFIKPAIGESRYHPKYKGRVTISSDVSSNTAYLTISNLTPEDTAVYYCALGEAEDVFAAHPFKTDLLLGALSIWGQGTRVTVT"/>
     <s v="ITVTQSPSSPSLSVGETAVLTCTLSQPVPQSQVAWYKQLPGQPPTLLISGGSTRASGVPSRYSGSGSGTTFTLTISSLLPEDFATYYCQVVGKEPSFGQGTTLTLK"/>
@@ -1897,6 +2253,7 @@
     <n v="0.1"/>
     <s v="derivative"/>
     <s v="m102.3 (PDB: 6CMI)"/>
+    <s v="nipah_gpG"/>
     <n v="2"/>
     <s v="SVKLVQSGDQTVPVGGSVTLSCTASGGSFGNYGVAWVRQRPGGPLEYIGSIIPAYGISTVNPKYEGRVTISADPTNNTAYLTISNLTPEDTATYYCALGPGEVVFASSPFDIDVLTGALWVWGEGTKVTVT"/>
     <s v="ITVTQSPSSPSLKVGETATLTCTLSAPVAKSNVAWYKQLPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLQPEDFATYYCQVVGKNPSFGQGTLLKLK"/>
@@ -1918,6 +2275,7 @@
     <n v="0.1"/>
     <s v="derivative"/>
     <s v="m102.3 (PDB: 6CMI)"/>
+    <s v="nipah_gpG"/>
     <n v="2"/>
     <s v="SISLVQSSDQTVAPGGSVTLSCTSSGGSFGNSGVAWVRQAPGGPPVYIGGIIPATGVSTYNAAFKGRVTISSDSSNNTAYLTISGLTAADTATYYCALGPAENVFASHPFAEDVNLGALSVWGQGTLVTVT"/>
     <s v="ITVTESPSSPELSVGETAVLSCTLSSSVPQSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLEPEDFATYYCQVYGTSPSFGQGTTLKLK"/>
@@ -1939,6 +2297,7 @@
     <n v="0.1"/>
     <s v="derivative"/>
     <s v="m102.3 (PDB: 6CMI)"/>
+    <s v="nipah_gpG"/>
     <n v="2"/>
     <s v="AVSLVESGDQTVAPGGSVTLSCTSSGGSFGNSGVAWVRQAPGGPLEFLGFIIPALGVSKVNSKYEGRVTISSDPANNTAYLTISNLTAADTATYYCGLGTGESVFASSPFDEKLLLGALSVWGQGTKVTVT"/>
     <s v="ITVTQSPASPEKKVGETATLTCTLSSAVPKSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLQPEDFATYYCRVYGEEPSFGQGTTLKLK"/>
@@ -1960,6 +2319,7 @@
     <n v="0.7"/>
     <s v="base"/>
     <m/>
+    <s v="nipah_gpG"/>
     <m/>
     <s v="VQLQESGPGLVKPSQSLSLTCTVTGYSITTGYAWNWIRQFPGNKLEWMGYISYSGSTYYPSLKSRISITRDTSKNQFFLQLSIVTTEDTATYYCARGTTLPDYVDFWGQGTSVTVSS"/>
     <s v="DIQLTQSPSSLSASVGDRVTITCRASQTISTYLNWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYFCLQHFWTPPITFGQGTRLEIK"/>
@@ -1981,6 +2341,7 @@
     <n v="0.7"/>
     <s v="base"/>
     <m/>
+    <s v="nipah_gpG"/>
     <m/>
     <s v="QVQLQESGPGLVKPSETLSVTCTVSGGSIGSNNYWSWIRQPAGKGLEWIGYIYYSGSTNYNPSLKSRVTMSVDTSKNQFSLKLSSVTAADTAVYYCVRNYYDSSDSSGYYFMDVWGQGTTVTVSS"/>
     <s v="DIVMTQSPLSLSVTPGEPASISCRSSQSLLHSNGYNYLDWYLQKPGQSPQLLIYLGSNRASGVPDRFSGSGSGTDFTLKISRVEAEDVGVYYCMQALQTPTFGQGTRLEIK"/>
@@ -2002,6 +2363,7 @@
     <n v="0.7"/>
     <s v="base"/>
     <m/>
+    <s v="nipah_gpG"/>
     <m/>
     <s v="QVQLVQSGAEVKKPGESLKISCKGSGYRFSSYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAMYYCARQGPDYYYGMDVWGQGTTVTVSS"/>
     <s v="DIQMTQSPSTLSASVGDRVTITCRASQSISSWLAWYQQKPGKAPKLLIYKASELQSGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQQYINSYTFGQGTKVEIK"/>
@@ -2023,6 +2385,7 @@
     <n v="0.7"/>
     <s v="base"/>
     <m/>
+    <s v="nipah_gpG"/>
     <m/>
     <s v="QVQLQQSGPELVKPGASVKLSCKASGYTFTDYYMHWVKQRPGQGLEWIGEINPNSGGTNTYDQKFKGRATLTVDKSSSTAYLQLSSLTSEDSAVYYCARSPPWYFDYWGQGTTLTVS"/>
     <s v="DIVMTQSPSSMFASVGETVTITCRASENIYSNLAWYQQKPGQSPKLLIYWASTRHTGVPDRFTGSGSGTDFTLTISSVQAEDLALYYCQHYGSYSFTFGSGTKLEIK"/>
@@ -2044,6 +2407,7 @@
     <n v="0.7"/>
     <s v="base"/>
     <m/>
+    <s v="nipah_gpG"/>
     <m/>
     <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRNYVYSSGYLDFWGQGTLVTVSS"/>
     <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSYSSPPTFGQGTKVEIK"/>
@@ -2065,6 +2429,7 @@
     <n v="0.7"/>
     <s v="base"/>
     <m/>
+    <s v="nipah_gpG"/>
     <m/>
     <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNIYYSSIHWVRQAPGKGLEWVASISPYYGSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARDYGHYYYAMDYWGQGTLVTVSS"/>
     <s v="EIVMTQSPATLSVSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYGASTRATGIPARFSGSGSGTEFTLTISSLQSEDSAVYYCQQYNNWPPITFGQGTRLEIK"/>
@@ -2086,6 +2451,7 @@
     <n v="0.7"/>
     <s v="base"/>
     <m/>
+    <s v="nipah_gpG"/>
     <m/>
     <s v="QVQLQESGPGLVKPSETLSLSCVVSGDSSSTNYYWGWIRQPPGKGLEWIGYIYGSGDTAYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARRSWGYGYNGYSTYYYYYYFDQGYFDVWGPGTLVT"/>
     <s v="DIQMTQSPSSLSASVGDRVTITCRASQSIGSYLNWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTEFTLTISSLQPEDFATYYCQQSYSWGQGTKVEIK"/>
@@ -2107,6 +2473,7 @@
     <n v="0.7"/>
     <s v="base"/>
     <m/>
+    <s v="nipah_gpG"/>
     <m/>
     <s v="QVQLVQSGAEVKKPGASVKVSCKASGYTFTSYGISWVRQAPGQGLEWMGWISAHNGDTNYAQKFQGRVTMTRDTSITTAYMELRSDDTAVYYCARDGSVGGFYWGQGTLVTVSS"/>
     <s v="EIVLTQSPGTLSLSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPITFGQGTRLEIK"/>
@@ -2128,6 +2495,7 @@
     <n v="0.7"/>
     <s v="base"/>
     <m/>
+    <s v="nipah_gpG"/>
     <m/>
     <s v="EVQLLESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASISPYYGSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSYYWYWSGWGTLVTVSS"/>
     <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSYGSPPTFGQGTKVEIK"/>
@@ -2149,6 +2517,7 @@
     <n v="0.7"/>
     <s v="base"/>
     <m/>
+    <s v="nipah_gpG"/>
     <m/>
     <s v="QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGHYAWWIRQPPGKGLEWIACIYSSSGSTYYNPSLKSRITISVDTSKNQFSLKLSSVTAADTAVYYCARRQRGYDYDYYYGMDVWGQGTTVTVSS"/>
     <s v="DIQLTQSPSSLSASVGDRVTITCRASQGISRNLAWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSNNWPITFGQGTKVEIK"/>
@@ -2170,6 +2539,7 @@
     <n v="0.7"/>
     <s v="base"/>
     <m/>
+    <s v="nipah_gpG"/>
     <m/>
     <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNIYYSSIHWVRQAPGKGLEWVASIYSYYSSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARVYGYLSYSYFYWGLDVWGQGTLVTVS"/>
     <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEI"/>
@@ -2191,6 +2561,7 @@
     <n v="0.7"/>
     <s v="base"/>
     <m/>
+    <s v="nipah_gpG"/>
     <m/>
     <s v="EVQLQQSGAELVKPGASVKLSCTASGFNIKDTYVHWVKQRPEQGLEWIGRIDPANGYTKYDPKFQGKATITADTSSNTAYLQLSSLTSEDTAVYYCVRPLYDYYAMDYWGQGTTLTVSS"/>
     <s v="DIVMTQSPSSLAMSAGRVSITCRTSQSISSYLNWVQQKPGKSPKLLIYWASTRESGVPDRFTGSGSGTDFTLTISRVEAEDLGVYYCMQGTHVPYTFGGGTKLEIK"/>
@@ -2212,6 +2583,7 @@
     <n v="0.7"/>
     <s v="base"/>
     <m/>
+    <s v="nipah_gpG"/>
     <m/>
     <s v="EVQLVESGGGLVKPGGSLRLSCAASGFTFSSYAMHWVRQAPGKGLEWVSAISGGGGSTYYADSVKGRFTISRDNSKNTLYLQMRAEDTAVYYCAKDDADWGQGTLVTVSS"/>
     <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPFTFGQGTKVEIK"/>
@@ -2233,6 +2605,7 @@
     <n v="0.7"/>
     <s v="base"/>
     <m/>
+    <s v="nipah_gpG"/>
     <m/>
     <s v="QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGSYYWIRQSPGKGLEWIGYIYYSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARHRYYDRGQGTLVTVSS"/>
     <s v="DIQMTQSPASLSASVGETVTITCRASENIYSNLAWYQQKQGKSPQLLVYAATDLADGVPSRFSGSGSGTQFSLKINSLQPEDFGSYYCQHFWDTPWTFGQGTRVE"/>
@@ -2254,6 +2627,7 @@
     <n v="0.7"/>
     <s v="base"/>
     <m/>
+    <s v="nipah_gpG"/>
     <m/>
     <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNLYSSSIHWVRQAPGKGLEWVAYISSSGTHYADSVKGRFTISADTSKNTAYLQMRAEDTAVYYCARVGHYYSSGGYYYAMDYWGQGTLVTVSS"/>
     <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYSSYWTFGQGTKVEIK"/>
@@ -2275,6 +2649,7 @@
     <n v="0.7"/>
     <s v="base"/>
     <m/>
+    <s v="nipah_gpG"/>
     <m/>
     <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVVDSGISWVRQAPGKGLEWVSYISSSSGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARAHYYGSYFGSVVYYYGLDVWGQGTLVTVSS"/>
     <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYDTYPITFGQGTKVEIK"/>
@@ -2296,6 +2671,7 @@
     <n v="0.7"/>
     <s v="base"/>
     <m/>
+    <s v="nipah_gpG"/>
     <m/>
     <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVYSSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSYSTYYYGYWYFDVWGQGTLVTVSS"/>
     <s v="DIQMTQSPSSLSAAVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYNYYWLITFGQGTKVEIK"/>
@@ -2317,6 +2693,7 @@
     <n v="0.7"/>
     <s v="base"/>
     <m/>
+    <s v="nipah_gpG"/>
     <m/>
     <s v="QVQLQQPGAELVKPGASVKLSCKASGYTFTSDWIHWVKQRPGHGLEWIGEIIPSYGRANYNEKIQKKATLTADKSSSTAFMHLSSLTSEDSAVYYCARERGDGYFAVWGAGTTVTVSS"/>
     <s v="DILLTQSPAILSVSPGERVSFSCRASQSIGTDIHWYQQRTNGSPRLLIKYASESISGIPSRFSGSGSGTDFTLSINSVESEDIANYYCQQSNRWPFTFGSGTKLEIK"/>
@@ -2338,6 +2715,7 @@
     <n v="0.7"/>
     <s v="base"/>
     <m/>
+    <s v="nipah_gpG"/>
     <m/>
     <s v="VRLLESGGGLVQPGGSLKLSCAASGFDYSRYWMSWVRQAPGKGLKWIGEINPVSSTINYTPSLKDKFIISRDNAKDTLYLQISKVRSEDTALYYCARLYYGYGYWYFDVWGAGTTVTVSS"/>
     <s v="DIVLTQSPAIMSAAPGDKVTMTCSASSSVSYIHWYQQKSGTSPKRWIYDTSKLTSGVPVRFSGSGSGTSYSLTINTMEAEDAATYYCQQWSSHPQTFGGGTKLEIl"/>
@@ -2359,6 +2737,7 @@
     <n v="0.7"/>
     <s v="base"/>
     <m/>
+    <s v="nipah_gpG"/>
     <m/>
     <s v="QVQLQESGPGLVQPSQSLSLTCTVSGFSLTSYGVHWVRQSPGKGLEWLGVIWAGGSTDYNSALKSRLSISRDTSKNQVFLKMNSLQTDDTAMYYCAKHGSSNGDYWGQGTSVTVSS"/>
     <s v="DIVMTQSPDSLAVSLGERATINCKSSQSVLYSSNNKNYLAWYQQKPEGQPPNLLIYWASTRESGVPDRFSGSGSGTDFTLTISSLQAEDVAVYYCQQYYSAPTFGQGTKLEIK"/>
@@ -2375,6 +2754,688 @@
   </r>
   <r>
     <x v="49"/>
+    <x v="0"/>
+    <s v="peleke-phi-4"/>
+    <n v="0.2"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="QVQLQESGPGLVKPSETLSLTCTVSGGSVSSGGYFWSWIRQPPGKGLEWIGCIYYSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARVDSFYYGMDVWGQGTTVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQGIRNDLGWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK"/>
+    <m/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="49"/>
+    <n v="243"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="0"/>
+    <s v="peleke-phi-4"/>
+    <n v="0.2"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAISGSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARQVWFGGFDYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+    <m/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="50"/>
+    <n v="241"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <x v="0"/>
+    <s v="peleke-phi-4"/>
+    <n v="0.2"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSYIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRQFWYSGLDYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+    <m/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="51"/>
+    <n v="243"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="0"/>
+    <s v="peleke-phi-4"/>
+    <n v="0.2"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGSSYFGYYAMDYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+    <m/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="52"/>
+    <n v="245"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="0"/>
+    <s v="peleke-phi-4"/>
+    <n v="0.2"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYSISWVRQAPGQGLEWMGGIIIFGTANYAQKFQGRVTITADESTSTAYMELSSLRSEDTAVYYCARGQGTLVDFYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK"/>
+    <m/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="53"/>
+    <n v="240"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="0"/>
+    <s v="peleke-phi-4"/>
+    <n v="0.2"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASIYPYSGYTNYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGYGYWGYAMDYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+    <m/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="54"/>
+    <n v="245"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="0"/>
+    <s v="peleke-phi-4"/>
+    <n v="0.2"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAISGSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARGYQVYFDYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+    <m/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="55"/>
+    <n v="240"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <s v="peleke-phi-4"/>
+    <n v="0.2"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSYIHWVRQAPGKGLEWVASISSYYGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGWSYSWSYSWSYSGLDVWGQGTTVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK"/>
+    <m/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="56"/>
+    <n v="249"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="0"/>
+    <s v="peleke-phi-4"/>
+    <n v="0.2"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGWYYGSSYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+    <m/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="57"/>
+    <n v="240"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <x v="0"/>
+    <s v="peleke-phi-4"/>
+    <n v="0.2"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSYIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGTYYGSSYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+    <m/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="58"/>
+    <n v="242"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="0"/>
+    <s v="peleke-phi-4"/>
+    <n v="0.5"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="QMQLVQSGAEVKKPGESLKISCKGSGYSFTSYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAIYYCARHYYGGQYFDYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQGIRNDLGWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKLEIK"/>
+    <m/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="59"/>
+    <n v="242"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="0"/>
+    <s v="peleke-phi-4"/>
+    <n v="0.5"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYAISWVRQAPGQGLEWMGGIIPIFGTANYAQKFQGRVTITADESTSTAYMELSSLRSEDTAVYYCARWYDGYFVYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK"/>
+    <m/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="60"/>
+    <n v="240"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="0"/>
+    <s v="peleke-phi-4"/>
+    <n v="0.5"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRQFWYSGLDYWGQGTLVTVFN"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+    <m/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="61"/>
+    <n v="243"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="0"/>
+    <s v="peleke-phi-4"/>
+    <n v="0.5"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYYGSTYYADSVKGRFTISADTSKNTAYLQMRAEDTAVYYCARGWRSYAMDYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK"/>
+    <m/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="62"/>
+    <n v="238"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="0"/>
+    <s v="peleke-phi-4"/>
+    <n v="0.5"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYSFIWVRQAPGQGLEWMGGIIPIFGTANYAQKFQGRVTITADESTSTAYMELSSLRSEDTAVYYCARSSYSGVYYSWYFDVWGAGTTVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQGISNYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK"/>
+    <m/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="63"/>
+    <n v="246"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="0"/>
+    <s v="peleke-phi-4"/>
+    <n v="0.5"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLQESGPGLVKPSQTLSLTCTVSGGSISSYAAWSWIRQPPGKGLEWIGYIYSSSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARGDYSYSYYGLDYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQGIRNDLGWYQQKPGKAPKLLIYAASNLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRYTFGQGTKVEIK"/>
+    <m/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="64"/>
+    <n v="246"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <x v="0"/>
+    <s v="peleke-phi-4"/>
+    <n v="0.5"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLQQSGPELVKPGASVKMSCKASGYTFTSYNIHWVKQTPVHGLEWIGAIVSGGDTNYNENFKDKATLTVDKSSSTAYMQLTSEDSAVYYCARGGFYGDYWGQGTSVTVSS"/>
+    <s v="DIVLTQSPATLSVTPGDSVSLSCRASQSVTNNIHWYQQKSHESPRLLIKYASQSISGIPSRFSGSGSGTDFTLSINSVETEDFGMYFCQQSNSWPYTFGGGTKLEIK"/>
+    <m/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="65"/>
+    <n v="235"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <x v="0"/>
+    <s v="peleke-phi-4"/>
+    <n v="0.5"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGDYYWIRQHPGKGLEWIGYIYYSGSTYYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARQLWLRGRFDYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK"/>
+    <m/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="66"/>
+    <n v="241"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <x v="0"/>
+    <s v="peleke-phi-4"/>
+    <n v="0.5"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFTVSSNYMSWVRQAPGKGLEWVSVIYSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCAREAGVWVFDYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+    <m/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="67"/>
+    <n v="240"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <x v="0"/>
+    <s v="peleke-phi-4"/>
+    <n v="0.5"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNLYSSSIHWVRQAPGKGLEWVASISSYYGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRQFWLWFGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+    <m/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="68"/>
+    <n v="239"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <x v="0"/>
+    <s v="peleke-phi-4"/>
+    <n v="0.7"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="VQLVQSGAEVKKPGASVKVSCKASGYTFTTYTISWVRQAPGQGLEWMGWINNSGGTNYAQKFQGRVTMTRDTSTSTVSAYMELRSEDTAVYYCATFVYGYSAYQPLTDDYGQMDVWGQGTTVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWFQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSLLYPLTFGGGTKVEIK"/>
+    <m/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="69"/>
+    <n v="249"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <x v="0"/>
+    <s v="peleke-phi-4"/>
+    <n v="0.7"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSSSGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARHRWWAHPYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSYYITPYTFGQGTKVEIK"/>
+    <m/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="70"/>
+    <n v="241"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <x v="0"/>
+    <s v="peleke-phi-4"/>
+    <n v="0.7"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGVVQPGRSLRLSCAASGFTFSSYAMHWVRQAPGKGLEWVAVIWYDGSNKYYADSVKGRFTISRDNSKNTLFLQMNSLRPEDTAVYYCARDTPMYYDVWGQGTTVTVSS"/>
+    <s v="DIQLTQSPSSLSASVGDRVTITCRTSQDIDNYLNWYQQKPGKAPKLLIYYTSSLHSGVPSRFSGSGSGTDFTFTISSLQPEDIATYYCQQYDNLPITFGQGTKLEIK"/>
+    <m/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="71"/>
+    <n v="240"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <x v="0"/>
+    <s v="peleke-phi-4"/>
+    <n v="0.7"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFTFSNYAMSWVRQAPGKGLEWVSAISGSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARLSPYNGSMDYWGQGTLVTVSS"/>
+    <s v="VTQPASVSGSPGQSITISCTGTSSDIGAYNYVSWYQQHPGKAPKLMIYEVSKRPSGVSNRFSGSKSGNTASLTISGLQTEDEADYYCSSYTRSGSVVFGGGTKLTVL"/>
+    <m/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="72"/>
+    <n v="242"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <x v="0"/>
+    <s v="peleke-phi-4"/>
+    <n v="0.7"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYTISWVRQAPGQGLEWMGGIIPILGIANYAQKFQGRVTITADKSTSTAYMELSSLRSEDTAVYYCARGDSSYVDSWDYWGQGTLVTVS"/>
+    <s v="EIVLTQSPGTLSLSPGERATLSCRASQSVSSSYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPWTFGQGTKVEIK"/>
+    <m/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="73"/>
+    <n v="243"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <x v="0"/>
+    <s v="peleke-phi-4"/>
+    <n v="0.7"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="QVQLVESGGGVVQPGRSLRLSCAASGFTFSNYGMHWVRQAPGKGLEWVAVISDGSNKYYADSVKGRFTISRDNSKNTLYLQMRAEDTAVYYCARGSHSSRDYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPPYTFGQGTKVEIK"/>
+    <m/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="74"/>
+    <n v="237"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <x v="0"/>
+    <s v="peleke-phi-4"/>
+    <n v="0.7"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="VQLVQSGAEVKRPGSSVKVSCKTSGGTIFSTYVFWVRQAPGQGLEWMGGFPPKAGYIYAQKFQGRVTFTADESSSTTVYMEDLRSEDTAVYFCARFPYFVYDVWGQGTTVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSIGGYLAWYQQKPGKVPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK"/>
+    <m/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="75"/>
+    <n v="237"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="76"/>
+    <x v="0"/>
+    <s v="peleke-phi-4"/>
+    <n v="0.7"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="VQLQESGPGLVKPSQSLSLTCTVTGFSIDYNIYWGWIRQPPGKGLEWIGYIYSGSDTYNPSLKSRVTISVDTSKNQFSLKVNSVTAADTAVYYCARVVDLWYDDGKYASCVKGAIDYWGQGTLVTVSS"/>
+    <s v="SVLTQPPSVSGAPGQRVTISCTGSSGAGYDVHWYQQLPGTAPKLLIYGNSNRPSGVPDRFSGSKSGTSASLAITGLQAEDEADYYCQSYDSSLSGWVFGGGTKLTVL"/>
+    <m/>
+    <s v="GGGSGGGSGGGS"/>
+    <x v="76"/>
+    <n v="247"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <x v="0"/>
+    <s v="peleke-phi-4"/>
+    <n v="0.7"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVVDFSLHWVRQAPGKGLEWVASIYPYDGSAYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARWGYWPGEGWLGKYWGQGTLVTVS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEI"/>
+    <m/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="77"/>
+    <n v="243"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="78"/>
+    <x v="0"/>
+    <s v="peleke-phi-4"/>
+    <n v="0.7"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSSYGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARWEGYRGDLWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYYEWLRTFGQGTKVEIK"/>
+    <m/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="78"/>
+    <n v="240"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="79"/>
+    <x v="0"/>
+    <s v="peleke-phi-4"/>
+    <n v="0.2"/>
+    <s v="derivative"/>
+    <s v="sbio-nipahgpg-052"/>
+    <s v="nipah_gpG_compout"/>
+    <n v="3"/>
+    <s v="QVQLQESGPGLVKPSQTLSLTCTVSGGSVSSGSYYWSWIRQPPGKGLEWIGYIYYSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARVDSFYYGMDVWGQGTTVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASSGSSYDNGWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYLQDSNYTPRTFGQGTKVEIK"/>
+    <m/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="79"/>
+    <n v="243"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="80"/>
     <x v="4"/>
     <m/>
     <m/>
@@ -2385,24 +3446,25 @@
     <m/>
     <m/>
     <m/>
-    <x v="49"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="5"/>
+    <m/>
+    <x v="80"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="6"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{135D55CA-26D1-4FA2-9199-54D547F2C103}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{135D55CA-26D1-4FA2-9199-54D547F2C103}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:C13" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="19">
+  <pivotFields count="20">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="50">
+      <items count="81">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -2452,7 +3514,38 @@
         <item x="46"/>
         <item x="47"/>
         <item x="48"/>
+        <item x="80"/>
         <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -2468,13 +3561,14 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="50">
+      <items count="81">
         <item x="19"/>
         <item x="15"/>
         <item x="23"/>
@@ -2524,7 +3618,38 @@
         <item x="46"/>
         <item x="47"/>
         <item x="48"/>
+        <item x="80"/>
         <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -2534,20 +3659,22 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="6">
-        <item x="5"/>
+      <items count="8">
+        <item x="6"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
+        <item x="5"/>
+        <item m="1" x="7"/>
       </items>
     </pivotField>
   </pivotFields>
   <rowFields count="3">
     <field x="0"/>
     <field x="1"/>
-    <field x="11"/>
+    <field x="12"/>
   </rowFields>
   <rowItems count="10">
     <i>
@@ -2605,7 +3732,7 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="18" item="1" hier="-1"/>
+    <pageField fld="19" item="1" hier="-1"/>
   </pageFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2620,11 +3747,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{34D8D9BF-DD48-4B0D-B005-50CFC13EA4CA}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{34D8D9BF-DD48-4B0D-B005-50CFC13EA4CA}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:C13" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="19">
+  <pivotFields count="20">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="50">
+      <items count="81">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -2674,7 +3801,38 @@
         <item x="46"/>
         <item x="47"/>
         <item x="48"/>
+        <item x="80"/>
         <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -2690,13 +3848,14 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="50">
+      <items count="81">
         <item x="19"/>
         <item x="15"/>
         <item x="23"/>
@@ -2746,7 +3905,38 @@
         <item x="46"/>
         <item x="47"/>
         <item x="48"/>
+        <item x="80"/>
         <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -2756,20 +3946,22 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="6">
-        <item x="5"/>
+      <items count="8">
+        <item x="6"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
+        <item x="5"/>
+        <item m="1" x="7"/>
       </items>
     </pivotField>
   </pivotFields>
   <rowFields count="3">
     <field x="0"/>
     <field x="1"/>
-    <field x="11"/>
+    <field x="12"/>
   </rowFields>
   <rowItems count="10">
     <i>
@@ -2827,7 +4019,7 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="18" item="2" hier="-1"/>
+    <pageField fld="19" item="2" hier="-1"/>
   </pageFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2842,11 +4034,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9A30A9A-0810-4D7B-BBE4-92BE215D0229}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9A30A9A-0810-4D7B-BBE4-92BE215D0229}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:C12" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="19">
+  <pivotFields count="20">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="50">
+      <items count="81">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -2896,7 +4088,38 @@
         <item x="46"/>
         <item x="47"/>
         <item x="48"/>
+        <item x="80"/>
         <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -2912,13 +4135,14 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="50">
+      <items count="81">
         <item x="19"/>
         <item x="15"/>
         <item x="23"/>
@@ -2968,7 +4192,38 @@
         <item x="46"/>
         <item x="47"/>
         <item x="48"/>
+        <item x="80"/>
         <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -2978,20 +4233,22 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="6">
-        <item x="5"/>
+      <items count="8">
+        <item x="6"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
+        <item x="5"/>
+        <item m="1" x="7"/>
       </items>
     </pivotField>
   </pivotFields>
   <rowFields count="3">
     <field x="0"/>
     <field x="1"/>
-    <field x="11"/>
+    <field x="12"/>
   </rowFields>
   <rowItems count="9">
     <i>
@@ -3044,7 +4301,7 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="18" item="3" hier="-1"/>
+    <pageField fld="19" item="3" hier="-1"/>
   </pageFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -3059,11 +4316,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4154B109-E0E8-463A-8A38-71BCCBD1ABE8}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4154B109-E0E8-463A-8A38-71BCCBD1ABE8}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:C13" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="19">
+  <pivotFields count="20">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="50">
+      <items count="81">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -3113,7 +4370,38 @@
         <item x="46"/>
         <item x="47"/>
         <item x="48"/>
+        <item x="80"/>
         <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -3129,13 +4417,14 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="50">
+      <items count="81">
         <item x="19"/>
         <item x="15"/>
         <item x="23"/>
@@ -3185,7 +4474,38 @@
         <item x="46"/>
         <item x="47"/>
         <item x="48"/>
+        <item x="80"/>
         <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -3195,20 +4515,22 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="6">
-        <item x="5"/>
+      <items count="8">
+        <item x="6"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
+        <item x="5"/>
+        <item m="1" x="7"/>
       </items>
     </pivotField>
   </pivotFields>
   <rowFields count="3">
     <field x="0"/>
     <field x="1"/>
-    <field x="11"/>
+    <field x="12"/>
   </rowFields>
   <rowItems count="10">
     <i>
@@ -3266,7 +4588,7 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="18" item="4" hier="-1"/>
+    <pageField fld="19" item="4" hier="-1"/>
   </pageFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -3281,11 +4603,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D8BCE7CB-DCA8-443D-A73C-3A819111AB4F}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D8BCE7CB-DCA8-443D-A73C-3A819111AB4F}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:C13" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="19">
+  <pivotFields count="20">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="50">
+      <items count="81">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -3335,7 +4657,38 @@
         <item x="46"/>
         <item x="47"/>
         <item x="48"/>
+        <item x="80"/>
         <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -3351,13 +4704,14 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="50">
+      <items count="81">
         <item x="19"/>
         <item x="15"/>
         <item x="23"/>
@@ -3407,7 +4761,38 @@
         <item x="46"/>
         <item x="47"/>
         <item x="48"/>
+        <item x="80"/>
         <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -3417,20 +4802,22 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="6">
-        <item x="5"/>
+      <items count="8">
+        <item x="6"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
+        <item x="5"/>
+        <item m="1" x="7"/>
       </items>
     </pivotField>
   </pivotFields>
   <rowFields count="3">
     <field x="0"/>
     <field x="1"/>
-    <field x="11"/>
+    <field x="12"/>
   </rowFields>
   <rowItems count="10">
     <i>
@@ -3488,7 +4875,294 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="18" item="5" hier="-1"/>
+    <pageField fld="19" item="5" hier="-1"/>
+  </pageFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{13C295D7-E972-4944-97A7-E1A4AD5CF827}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A4:C13" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="20">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="81">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="80"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="81">
+        <item x="19"/>
+        <item x="15"/>
+        <item x="23"/>
+        <item x="7"/>
+        <item x="28"/>
+        <item x="6"/>
+        <item x="11"/>
+        <item x="17"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="22"/>
+        <item x="9"/>
+        <item x="18"/>
+        <item x="13"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="14"/>
+        <item x="20"/>
+        <item x="16"/>
+        <item x="8"/>
+        <item x="27"/>
+        <item x="24"/>
+        <item x="26"/>
+        <item x="21"/>
+        <item x="25"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="80"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisPage" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="8">
+        <item x="6"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item m="1" x="7"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="0"/>
+    <field x="1"/>
+    <field x="12"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x v="50"/>
+      <x v="1"/>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+      <x v="1"/>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+      <x v="1"/>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="60"/>
+      <x v="1"/>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+      <x v="1"/>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+      <x v="1"/>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="70"/>
+      <x v="1"/>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="71"/>
+      <x v="1"/>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="72"/>
+      <x v="1"/>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="80"/>
+      <x v="1"/>
+      <x v="80"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="19" item="6" hier="-1"/>
   </pageFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -3819,13 +5493,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:V81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F44" sqref="F44"/>
+      <selection pane="bottomRight" activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3836,14 +5510,14 @@
     <col min="4" max="4" width="11.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="54" style="2" customWidth="1"/>
     <col min="10" max="10" width="42.140625" style="2" customWidth="1"/>
     <col min="11" max="11" width="16" style="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="2" customWidth="1"/>
     <col min="13" max="13" width="71.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.42578125" style="1" customWidth="1"/>
     <col min="16" max="16" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -3958,7 +5632,7 @@
         <f>_xlfn.CONCAT(I2,L2,J2)</f>
         <v>QVQLVESGGGVVQPGRSLRLSCAASGFTFSSYGMHWVRQAPGKGLEWVAVISYDGSKKYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARSPFYDSSGYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISSYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQANSFPPTFGQGTKVEIK</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="4">
         <f>LEN(M2)</f>
         <v>246</v>
       </c>
@@ -4026,7 +5700,7 @@
         <f t="shared" ref="M3:M66" si="0">_xlfn.CONCAT(I3,L3,J3)</f>
         <v>QVQLVESGGGVVQPGKSLRLSCAASGFTFSSYAMSWVRQAPGKGPEWVAFISYDGSNNYYADSVKGRFTISRDNPKNTLYLQMKSLRAEDTAVYYCARWRQRFDMYWGRGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="4">
         <f>LEN(M3)</f>
         <v>240</v>
       </c>
@@ -4094,7 +5768,7 @@
         <f t="shared" si="0"/>
         <v>QVQLQESGPGLVKPSETLSLTCTVSGASIRGYYWSWIRQFPGKELEWIGYVYSGSTENYNPSLKSRVTVTLTDTKNSFSLKLNSVTSEDTAVYYCARGGALIYYDVWGTGTTVTVSSGGGSGGGSGGGSGGGSDIQVTQSPVSLSASVGDRVTITCRASQGIDSLNWFQQRPGKAPKLLIYAASQLTGIAPRFRSGSGSGTDFTLTISSLQPEDFATYYCQQYNIYPATFGQGTKVEIK</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="4">
         <f>LEN(M4)</f>
         <v>239</v>
       </c>
@@ -4162,7 +5836,7 @@
         <f t="shared" si="0"/>
         <v>EVQLVQSGAEVKKPGESLKISCKGSGYTFSYYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAMYYCARGEGVFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSYTLTQAPSVSASGQSVTISCTGTSRDVGTYWYQQIPGRAPKLLIHDKSENQGKTPGIPDRFSGSKSGNTASLVIIRGLQADDEADYYCNSYHGSGSNIFGGGTKLTVD</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="4">
         <f>LEN(M5)</f>
         <v>240</v>
       </c>
@@ -4230,7 +5904,7 @@
         <f t="shared" si="0"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYWMNWVRQAPGKGLEWVANINQDGGEKYYVDSVKGRFTISRDNAKNSLYLQMNSLRAEDTAIYYCARDVGGGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="4">
         <f>LEN(M6)</f>
         <v>238</v>
       </c>
@@ -4294,7 +5968,7 @@
         <f t="shared" si="0"/>
         <v>QVQLVESGGGVVQPGRSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAIWSNGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARDYGSYGYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPLSLPVTPGEPASISCRSSQSLLYSNGNTYLEWYLQKPGQSPQLLIYLVSKLDSGVPDRFSGSGSGTDFTLKISRVEAEDLGIYYCQQSKEVPYTFGAGTKLEIK</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="4">
         <f t="shared" ref="N7:N70" si="2">LEN(M7)</f>
         <v>247</v>
       </c>
@@ -4367,7 +6041,7 @@
         <f t="shared" si="0"/>
         <v>AVSLVESGGGTVKPGESVTLSCQASGFNFSKYQWVWVRQAPGKGLEWVGQISPDGSKTRYHPSVAGRFTISRDNSNSTLYLHMSNLRPEDTAVYYCGIIPQDNVHGDYSISHWGQGTLLTVSAGGGSGGGSGGGSGGGSAIKLTQSPKSLSASVGDTVTINCTASRPIGDLLSWYKQKPGKPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSSDFATYYCRQTSRFPITFGEGTTINKK</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="4">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
@@ -4440,7 +6114,7 @@
         <f t="shared" si="0"/>
         <v>AVSITESGGGTKAPGSSVTLSCKVSGFVFSKYSIAWVRQAPGQGLEWVSQISPDGSTTRYNPAVAGRFTISRDNSNSTAYLQMSNLTPSDTATYYCAIIPQDNEHGDYSLSHWGQGTQLTVSAGGGSGGGSGGGSGGGSAIKLTQSPKSLSAKVGDTVTINCTASAPIGDFLSWYKQKPGQPPQLLIYKSSTLAPGVSSRYSGSGSDTNFTLTISSLQEEDFATYYCQQTATLPITFGEGTTINKK</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="4">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
@@ -4513,7 +6187,7 @@
         <f t="shared" si="0"/>
         <v>SISLVESGGGTVAPGSSVTLSCQASGFNFSKYSKAWVRQPPGQPLEWVSRISPDGSTKYYHPDVAGRFTISKDNSKSTVYLAMSNLTAADTATYYCGIIPGDNTHGDYAMSHWGQGTLLTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTISCTASRPIGDKLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTSFTLTISSLQEDDFATYYCQQTYTLPITFGQGTTISKK</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="4">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
@@ -4586,7 +6260,7 @@
         <f t="shared" si="0"/>
         <v>GVSLTESGGGTVAPGSSVTLSCKASGFNFSKYSHAWVRQAPGQGLTWVGEISPDGSKTRYASSVAGRFTISRDNSNSTVYLQMSSLTPSDTATYYCGIIPGDSVHGERSMSHWGQGTLLTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTLNCTASRPIGDRLSWYKQKPGQAPQLLIYRASTLAPGVSSRYSGSGSDTQFTLTISSLQSDDFATYYCQQTSSYPVTFGQGTTITKK</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="4">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
@@ -4659,7 +6333,7 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">EVSLVESGGGTVKPGESVTLSCQASGFNFSKYRLAWVRQPPGQGLVWVSEISPDGTEVKYHPDVKGRFTASRDNSNSTAYLKMNNLQPSDTATYYCGIIPQDSSHGDYSISHWGQGTQLTVSAGGGSGGGSGGGSGGGSTITLTQSPSSLSASVGDTVTINCTASRPIGDFLSWYKQKPGQPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSDDFATYYCQQTYTLPITFGQGTTLTKK </v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="4">
         <f t="shared" si="2"/>
         <v>247</v>
       </c>
@@ -4726,7 +6400,7 @@
         <f t="shared" si="0"/>
         <v>AVSLVESGGGTYAPGSSVTLSCQGSGFNFSKVRKVWVRQPPGGPLEYVAEISPDGSTTTYASSVAGRFTISKDNSNSTLYLSMSNLTPADTATYYCGLIPGDSEHGDRSISHWGQGTLVTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTINCTASQPIGNFLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTNFTLTISSLQSEDFATYYCQQTSRLPVTFGQGTTINKK</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="4">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
@@ -4799,7 +6473,7 @@
         <f t="shared" si="0"/>
         <v>GISLVESGGGTVKPGESVTLSCKASGFVFSKYSHAWVRQPPGGPLEWVSQISSDGSVTRYASSVSGRFTISRDNSNSTVYLQMNNLRPSDTATYYCGIIPQDNVHGDYAISHWGQGTLLTVTAGGGSGGGSGGGSGGGSAITLTQSPASLSAKVGDTVTLSCTASRPIGDLLSWYKQKPGQPPQLLIYRASTLAPGVDSRYSGSGSDTSFTLTISSLQPEDFATYYCQQTSRFPITFGQGTTIKQA</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="4">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
@@ -4872,7 +6546,7 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">PVSLVESGGGTVAPGSSVTLTCQASGFNFSKYIVAWVRQPPGQPLRFVAMITPDGSKVWLHPEVEGRFTPSKDNSKNTSYLQLKDLQPEDTATYYCGIIPQGSTHGDYSITHWGQGVVLTVTAGGGSGGGSGGGSGGGSMVTLTQSPSSLSASVGDTVTITCTASSPVDNLMSWYQQPPGQPLRLLIYNASTRAPGVSSRFSGSGSDTNFTLTISSLQASDFATYYCQQTYRLPVTFGQGTTLSAA </v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="4">
         <f t="shared" si="2"/>
         <v>247</v>
       </c>
@@ -4939,7 +6613,7 @@
         <f t="shared" si="0"/>
         <v>SIKLTESGGGTVKPGSSVTLSCQASGFNFSKYEVVWVMQKPGQPLQWVGSISPDGSKVRLHPKVKGRFTLSKDNSKNTAYLTMKNLQPEDTATYYCGIIPGGSVHGDRSITHWGQGVELKVVAGGGSGGGSGGGSGGGSMIKLTQSPKSVKAKVGDTVTITCTASEPVDDLVSWYQQKPGQPLRLLIYRSSTLAPGVSSRFSGSGSDTNFTLTISSLQEEDFATYYCMQTSKYPYTFGQGTTLSRA</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="4">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
@@ -5012,7 +6686,7 @@
         <f t="shared" si="0"/>
         <v>AITLTESGGGVVAPGSSVTLTCTASGFNFSKYSMVWVRQPPGGPLQWVAQISPDNSTVRYHPAVEGRFTASKDNSKNTAYLAMSDLEPSDTATYYCGIIPQGSTHNDYSIVHWGQGTELRVVAGGGSGGGSGGGSGGGSMIKLTQSPSSLSAKVGDKVTITCTASSPVDNLVSWYKQPPGGPLQLLIYNSSTRAPGVSSRFKGSGSDTNFTLTIESLQEEDFATYYCQQTYKFPITFGQGTKLTRA</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17" s="4">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
@@ -5085,7 +6759,7 @@
         <f t="shared" si="0"/>
         <v>SISLTESGGGTVAPGSSVTLTCTASGFNFSKYSVAWVRQPPGQPLQWVALISPDGSKKWYHPDVKGRATISKDNSKNTSYLTLSNLQPSDTATYYCGIIPGGNIHGDYSMTHWGQGTQLTVVAGGGSGGGSGGGSGGGSMITLTQSPLSLSAKVGDTVTITCTASSPVDDLVSWYQQKPGQPLRLLIRNASERAPGVSSRFSGSGSDTTFTLTISSVQEEDFATYYCQQTSKLPYTFGQGTTLSRA</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18" s="4">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
@@ -5158,7 +6832,7 @@
         <f t="shared" si="0"/>
         <v>AVTLTESGGGTVAPGSSVTLTCTASGFNFSKYILAWVRQAPGQPLEWVASISPDGSKTRYHPAVKGRATASKDNSKNTAYLELKDLRPEDTATYYCGIIPQGSVHGDYSMTHWGQGTELRVEAGGGSGGGSGGGSGGGSPVVLTQSPLSLSAKVGDTVTITCTASSPVDNLVSWYKQAPGQPLQLLIYNATTRAPGVPSRFTGSGSDTTFTLTISSLQPEDFAVYYCQQTYKFPITFGQGTRLTPA</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19" s="4">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
@@ -5231,7 +6905,7 @@
         <f t="shared" si="0"/>
         <v>PVKLVESGGGTVAPGSSVTLTCKASGFNFSKYMVQWVRQAPGGAFQWVGLISPDGSTKWYHPDVEGRFTISKDNSKNTAYLEMRNLTPADTAVYYCGIVPQGSVHGDYSITHWGQGVTLTVTAGGGSGGGSGGGSGGGSVVQLTQSPPELSAKVGEKVTITCTASSPVDNLVSWYQQKPGGAPKLLIYNATTLAPGVPSRFSGSGSDTVFTLTIDSLQAEDFATYYCQQTSRLPFTFGQGTVLRPA</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20" s="4">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
@@ -5304,7 +6978,7 @@
         <f t="shared" si="0"/>
         <v>AIKLTESGGGTVKPGSSVTLTCQASGFNFSKYIMAWVRQAPGQPLQWVAQISPDNSVKRYHPEVEGRFTASKDNSKNTAYLEMKNLTPADTATYYCAIIPQGSTQGDYSMVHWGQGVELKVVAGGGSGGGSGGGSGGGSPVVLTQSPASLKAAVGDTVTITCTASAPVDNLVSWYKQAPGQPPQLLIYNASTLAPGVPSRFTGSGSDTSFTLTISSLQEEDFATYYCQETSKFPITFGQGTKLEKK</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21" s="4">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
@@ -5377,7 +7051,7 @@
         <f t="shared" si="0"/>
         <v>SIKLTESGGGVVAPGESVTLTCTASGFNFSKYEMAWVRQAPGGPLEFVAVISPDGSTTRYHPRVEGRATISRDNSKNTAYLTLRDLTPADTAVYYCGIIPGGSVHGDRALSHWGQGVRLEVRAGGGSGGGSGGGSGGGSMVTLTQSPSSLSAKVGDKVTISCTASEPVDDLVSWYKQAPGGPPQLLISRASTRAPGVPSRFSGSGSDTNFTLTIESLQSSDFATYYCQQTYKFPDTFGQGTTLSEA</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22" s="4">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
@@ -5450,7 +7124,7 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">SVTLVESGDQTVAPGGSVTLSCTSSGGSFGNSGVSWVKQQPGGPLQWIGGIIPSLGISKVSPEYAGRVTISSDSSNNTAYLTISNLTAADTATYYCALGEGEDVFASSPFASNVNLGALSVWGQGTKVTVSGGGSGGGSGGGSITVTQSPSSPSLKVGETATLTCTLSAPVPRSNVAWYKQQPGQPPTLLIYGGSTRAPGVPSRYSGSGSGTTFTLTITALKPEDFATYYCQVYGENPSFGQGTTLKLK </v>
       </c>
-      <c r="N23" s="1">
+      <c r="N23" s="4">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
@@ -5517,7 +7191,7 @@
         <f t="shared" si="0"/>
         <v>GVKLVQSGDLTVKPGGSVTLSCKSEGGSFGNSSVAWVRQRPGGPYEYIGSIIPAYGVSRVSPEYEGRVTISADVANNTAYLTISNLTPEDTATYYCALGPGEVVYAASPFDEKLLTGALSVWGEGTLVTVTGGGSGGGSGGGSITVTQSPSSPSLSVGDTATLTCTLSSSVATSNVAWYKQLPGQPPELLISGGSTRAPGVPSRYSGSGSGTTFTLTISSLQASDFATYYCQVYGENPSFGQGTTLTLK</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N24" s="4">
         <f t="shared" si="2"/>
         <v>249</v>
       </c>
@@ -5590,7 +7264,7 @@
         <f>_xlfn.CONCAT(I25,L25,J25)</f>
         <v>AVKLVQSGDQTVAPGGSVTLSCTSSGGSFGNSSVAWVRQRPGGPFEFIGSIIPSLGISRYNSKYKGRVTISSDAANNTAYLTISNLTAADTATYYCALGPGESVFASHPFKEKLLTGALSVWGEGTLVTVSGGGSGGGSGGGSITVTQSPSSPSKSVGDTVTLTCTLSSSVPVSQVAWYKQHPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLQPEDFATYYCQVYGEEPSFGQGTTVTLA</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N25" s="4">
         <f t="shared" si="2"/>
         <v>249</v>
       </c>
@@ -5663,7 +7337,7 @@
         <f t="shared" si="0"/>
         <v>SITLVQSGDVTVAPGGSVTLTCTSSGGSFGNKAVAWVRQRPGGPYEWLGFIIPAYGVSRYNPAYEGRVTISVDSASNTASLTISNLTAADTATYYCALGEGEIVYAASPFDENYKLGALYIWGQGTKVTVSGGGSGGGSGGGSITLTQSPSSPSLSVGETATLTCTASAPVPKSNVAWYKQLPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLTADDFATYYCQVYGENPSFGEGTTLTLK</v>
       </c>
-      <c r="N26" s="1">
+      <c r="N26" s="4">
         <f t="shared" si="2"/>
         <v>249</v>
       </c>
@@ -5736,7 +7410,7 @@
         <f t="shared" si="0"/>
         <v>SVTLVQSGDQTVPIGGSVTLSCTANGGSFGNKGVAWVRQRPGGPYEFLGFIKPAIGESRYHPKYKGRVTISSDVSSNTAYLTISNLTPEDTAVYYCALGEAEDVFAAHPFKTDLLLGALSIWGQGTRVTVTGGGSGGGSGGGSITVTQSPSSPSLSVGETAVLTCTLSQPVPQSQVAWYKQLPGQPPTLLISGGSTRASGVPSRYSGSGSGTTFTLTISSLLPEDFATYYCQVVGKEPSFGQGTTLTLK</v>
       </c>
-      <c r="N27" s="1">
+      <c r="N27" s="4">
         <f t="shared" si="2"/>
         <v>249</v>
       </c>
@@ -5809,7 +7483,7 @@
         <f t="shared" si="0"/>
         <v>SVKLVQSGDQTVPVGGSVTLSCTASGGSFGNYGVAWVRQRPGGPLEYIGSIIPAYGISTVNPKYEGRVTISADPTNNTAYLTISNLTPEDTATYYCALGPGEVVFASSPFDIDVLTGALWVWGEGTKVTVTGGGSGGGSGGGSITVTQSPSSPSLKVGETATLTCTLSAPVAKSNVAWYKQLPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLQPEDFATYYCQVVGKNPSFGQGTLLKLK</v>
       </c>
-      <c r="N28" s="1">
+      <c r="N28" s="4">
         <f t="shared" si="2"/>
         <v>249</v>
       </c>
@@ -5882,7 +7556,7 @@
         <f t="shared" si="0"/>
         <v>SISLVQSSDQTVAPGGSVTLSCTSSGGSFGNSGVAWVRQAPGGPPVYIGGIIPATGVSTYNAAFKGRVTISSDSSNNTAYLTISGLTAADTATYYCALGPAENVFASHPFAEDVNLGALSVWGQGTLVTVTGGGSGGGSGGGSITVTESPSSPELSVGETAVLSCTLSSSVPQSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLEPEDFATYYCQVYGTSPSFGQGTTLKLK</v>
       </c>
-      <c r="N29" s="1">
+      <c r="N29" s="4">
         <f t="shared" si="2"/>
         <v>249</v>
       </c>
@@ -5955,7 +7629,7 @@
         <f t="shared" si="0"/>
         <v>AVSLVESGDQTVAPGGSVTLSCTSSGGSFGNSGVAWVRQAPGGPLEFLGFIIPALGVSKVNSKYEGRVTISSDPANNTAYLTISNLTAADTATYYCGLGTGESVFASSPFDEKLLLGALSVWGQGTKVTVTGGGSGGGSGGGSITVTQSPASPEKKVGETATLTCTLSSAVPKSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLQPEDFATYYCRVYGEEPSFGQGTTLKLK</v>
       </c>
-      <c r="N30" s="1">
+      <c r="N30" s="4">
         <f t="shared" si="2"/>
         <v>249</v>
       </c>
@@ -6022,7 +7696,7 @@
         <f t="shared" si="0"/>
         <v>VQLQESGPGLVKPSQSLSLTCTVTGYSITTGYAWNWIRQFPGNKLEWMGYISYSGSTYYPSLKSRISITRDTSKNQFFLQLSIVTTEDTATYYCARGTTLPDYVDFWGQGTSVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQTISTYLNWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYFCLQHFWTPPITFGQGTRLEIK</v>
       </c>
-      <c r="N31" s="1">
+      <c r="N31" s="4">
         <f t="shared" si="2"/>
         <v>241</v>
       </c>
@@ -6078,7 +7752,7 @@
         <f t="shared" si="0"/>
         <v>QVQLQESGPGLVKPSETLSVTCTVSGGSIGSNNYWSWIRQPAGKGLEWIGYIYYSGSTNYNPSLKSRVTMSVDTSKNQFSLKLSSVTAADTAVYYCVRNYYDSSDSSGYYFMDVWGQGTTVTVSSGGGSGGGSGGGSDIVMTQSPLSLSVTPGEPASISCRSSQSLLHSNGYNYLDWYLQKPGQSPQLLIYLGSNRASGVPDRFSGSGSGTDFTLKISRVEAEDVGVYYCMQALQTPTFGQGTRLEIK</v>
       </c>
-      <c r="N32" s="1">
+      <c r="N32" s="4">
         <f t="shared" si="2"/>
         <v>248</v>
       </c>
@@ -6137,7 +7811,7 @@
         <f t="shared" si="0"/>
         <v>QVQLVQSGAEVKKPGESLKISCKGSGYRFSSYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAMYYCARQGPDYYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSTLSASVGDRVTITCRASQSISSWLAWYQQKPGKAPKLLIYKASELQSGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQQYINSYTFGQGTKVEIK</v>
       </c>
-      <c r="N33" s="1">
+      <c r="N33" s="4">
         <f t="shared" si="2"/>
         <v>242</v>
       </c>
@@ -6196,7 +7870,7 @@
         <f t="shared" si="0"/>
         <v>QVQLQQSGPELVKPGASVKLSCKASGYTFTDYYMHWVKQRPGQGLEWIGEINPNSGGTNTYDQKFKGRATLTVDKSSSTAYLQLSSLTSEDSAVYYCARSPPWYFDYWGQGTTLTVSGGGSGGGSGGGSGGGSDIVMTQSPSSMFASVGETVTITCRASENIYSNLAWYQQKPGQSPKLLIYWASTRHTGVPDRFTGSGSGTDFTLTISSVQAEDLALYYCQHYGSYSFTFGSGTKLEIK</v>
       </c>
-      <c r="N34" s="1">
+      <c r="N34" s="4">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
@@ -6255,7 +7929,7 @@
         <f t="shared" si="0"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRNYVYSSGYLDFWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSYSSPPTFGQGTKVEIK</v>
       </c>
-      <c r="N35" s="1">
+      <c r="N35" s="4">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
@@ -6314,7 +7988,7 @@
         <f t="shared" si="0"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNIYYSSIHWVRQAPGKGLEWVASISPYYGSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARDYGHYYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVMTQSPATLSVSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYGASTRATGIPARFSGSGSGTEFTLTISSLQSEDSAVYYCQQYNNWPPITFGQGTRLEIK</v>
       </c>
-      <c r="N36" s="1">
+      <c r="N36" s="4">
         <f t="shared" si="2"/>
         <v>244</v>
       </c>
@@ -6373,7 +8047,7 @@
         <f t="shared" si="0"/>
         <v>QVQLQESGPGLVKPSETLSLSCVVSGDSSSTNYYWGWIRQPPGKGLEWIGYIYGSGDTAYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARRSWGYGYNGYSTYYYYYYFDQGYFDVWGPGTLVTGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSIGSYLNWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTEFTLTISSLQPEDFATYYCQQSYSWGQGTKVEIK</v>
       </c>
-      <c r="N37" s="1">
+      <c r="N37" s="4">
         <f t="shared" si="2"/>
         <v>247</v>
       </c>
@@ -6432,7 +8106,7 @@
         <f t="shared" si="0"/>
         <v>QVQLVQSGAEVKKPGASVKVSCKASGYTFTSYGISWVRQAPGQGLEWMGWISAHNGDTNYAQKFQGRVTMTRDTSITTAYMELRSDDTAVYYCARDGSVGGFYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPITFGQGTRLEIK</v>
       </c>
-      <c r="N38" s="1">
+      <c r="N38" s="4">
         <f t="shared" si="2"/>
         <v>237</v>
       </c>
@@ -6491,7 +8165,7 @@
         <f t="shared" si="0"/>
         <v>EVQLLESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASISPYYGSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSYYWYWSGWGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSYGSPPTFGQGTKVEIK</v>
       </c>
-      <c r="N39" s="1">
+      <c r="N39" s="4">
         <f t="shared" si="2"/>
         <v>238</v>
       </c>
@@ -6550,7 +8224,7 @@
         <f t="shared" si="0"/>
         <v>QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGHYAWWIRQPPGKGLEWIACIYSSSGSTYYNPSLKSRITISVDTSKNQFSLKLSSVTAADTAVYYCARRQRGYDYDYYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISRNLAWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSNNWPITFGQGTKVEIK</v>
       </c>
-      <c r="N40" s="1">
+      <c r="N40" s="4">
         <f t="shared" si="2"/>
         <v>248</v>
       </c>
@@ -6609,7 +8283,7 @@
         <f t="shared" si="0"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNIYYSSIHWVRQAPGKGLEWVASIYSYYSSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARVYGYLSYSYFYWGLDVWGQGTLVTVSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEI</v>
       </c>
-      <c r="N41" s="1">
+      <c r="N41" s="4">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
@@ -6668,7 +8342,7 @@
         <f t="shared" si="0"/>
         <v>EVQLQQSGAELVKPGASVKLSCTASGFNIKDTYVHWVKQRPEQGLEWIGRIDPANGYTKYDPKFQGKATITADTSSNTAYLQLSSLTSEDTAVYYCVRPLYDYYAMDYWGQGTTLTVSSGGGSGGGSGGGSGGGSDIVMTQSPSSLAMSAGRVSITCRTSQSISSYLNWVQQKPGKSPKLLIYWASTRESGVPDRFTGSGSGTDFTLTISRVEAEDLGVYYCMQGTHVPYTFGGGTKLEIK</v>
       </c>
-      <c r="N42" s="1">
+      <c r="N42" s="4">
         <f t="shared" si="2"/>
         <v>241</v>
       </c>
@@ -6727,7 +8401,7 @@
         <f t="shared" si="0"/>
         <v>EVQLVESGGGLVKPGGSLRLSCAASGFTFSSYAMHWVRQAPGKGLEWVSAISGGGGSTYYADSVKGRFTISRDNSKNTLYLQMRAEDTAVYYCAKDDADWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPFTFGQGTKVEIK</v>
       </c>
-      <c r="N43" s="1">
+      <c r="N43" s="4">
         <f t="shared" si="2"/>
         <v>233</v>
       </c>
@@ -6786,7 +8460,7 @@
         <f t="shared" si="0"/>
         <v>QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGSYYWIRQSPGKGLEWIGYIYYSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARHRYYDRGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPASLSASVGETVTITCRASENIYSNLAWYQQKQGKSPQLLVYAATDLADGVPSRFSGSGSGTQFSLKINSLQPEDFGSYYCQHFWDTPWTFGQGTRVE</v>
       </c>
-      <c r="N44" s="1">
+      <c r="N44" s="4">
         <f t="shared" si="2"/>
         <v>234</v>
       </c>
@@ -6845,7 +8519,7 @@
         <f t="shared" si="0"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNLYSSSIHWVRQAPGKGLEWVAYISSSGTHYADSVKGRFTISADTSKNTAYLQMRAEDTAVYYCARVGHYYSSGGYYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYSSYWTFGQGTKVEIK</v>
       </c>
-      <c r="N45" s="1">
+      <c r="N45" s="4">
         <f t="shared" si="2"/>
         <v>242</v>
       </c>
@@ -6904,7 +8578,7 @@
         <f t="shared" si="0"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVVDSGISWVRQAPGKGLEWVSYISSSSGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARAHYYGSYFGSVVYYYGLDVWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYDTYPITFGQGTKVEIK</v>
       </c>
-      <c r="N46" s="1">
+      <c r="N46" s="4">
         <f t="shared" si="2"/>
         <v>247</v>
       </c>
@@ -6963,7 +8637,7 @@
         <f t="shared" si="0"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVYSSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSYSTYYYGYWYFDVWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSAAVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYNYYWLITFGQGTKVEIK</v>
       </c>
-      <c r="N47" s="1">
+      <c r="N47" s="4">
         <f t="shared" si="2"/>
         <v>247</v>
       </c>
@@ -7022,7 +8696,7 @@
         <f t="shared" si="0"/>
         <v>QVQLQQPGAELVKPGASVKLSCKASGYTFTSDWIHWVKQRPGHGLEWIGEIIPSYGRANYNEKIQKKATLTADKSSSTAFMHLSSLTSEDSAVYYCARERGDGYFAVWGAGTTVTVSSGGGSGGGSGGGSGGGSDILLTQSPAILSVSPGERVSFSCRASQSIGTDIHWYQQRTNGSPRLLIKYASESISGIPSRFSGSGSGTDFTLSINSVESEDIANYYCQQSNRWPFTFGSGTKLEIK</v>
       </c>
-      <c r="N48" s="1">
+      <c r="N48" s="4">
         <f t="shared" si="2"/>
         <v>241</v>
       </c>
@@ -7081,7 +8755,7 @@
         <f t="shared" si="0"/>
         <v>VRLLESGGGLVQPGGSLKLSCAASGFDYSRYWMSWVRQAPGKGLKWIGEINPVSSTINYTPSLKDKFIISRDNAKDTLYLQISKVRSEDTALYYCARLYYGYGYWYFDVWGAGTTVTVSSGGGSGGGSGGGSGGGSDIVLTQSPAIMSAAPGDKVTMTCSASSSVSYIHWYQQKSGTSPKRWIYDTSKLTSGVPVRFSGSGSGTSYSLTINTMEAEDAATYYCQQWSSHPQTFGGGTKLEIl</v>
       </c>
-      <c r="N49" s="1">
+      <c r="N49" s="4">
         <f t="shared" si="2"/>
         <v>242</v>
       </c>
@@ -7140,7 +8814,7 @@
         <f t="shared" si="0"/>
         <v>QVQLQESGPGLVQPSQSLSLTCTVSGFSLTSYGVHWVRQSPGKGLEWLGVIWAGGSTDYNSALKSRLSISRDTSKNQVFLKMNSLQTDDTAMYYCAKHGSSNGDYWGQGTSVTVSSGGGSGGGSGGGSGGGSDIVMTQSPDSLAVSLGERATINCKSSQSVLYSSNNKNYLAWYQQKPEGQPPNLLIYWASTRESGVPDRFSGSGSGTDFTLTISSLQAEDVAVYYCQQYYSAPTFGQGTKLEIK</v>
       </c>
-      <c r="N50" s="1">
+      <c r="N50" s="4">
         <f t="shared" si="2"/>
         <v>245</v>
       </c>
@@ -7164,178 +8838,1549 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="T51" s="10"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="T52" s="10"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="T53" s="10"/>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>QVQLQESGPGLVKPSETLSLTCTVSGGSVSSGGYFWSWIRQPPGKGLEWIGCIYYSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARVDSFYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGIRNDLGWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK</v>
+      </c>
+      <c r="N51" s="4">
+        <f t="shared" si="2"/>
+        <v>243</v>
+      </c>
+      <c r="O51" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T51" s="10">
+        <v>45973</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAISGSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARQVWFGGFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+      </c>
+      <c r="N52" s="4">
+        <f t="shared" si="2"/>
+        <v>241</v>
+      </c>
+      <c r="O52" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T52" s="10">
+        <v>45973</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSYIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRQFWYSGLDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+      </c>
+      <c r="N53" s="4">
+        <f t="shared" si="2"/>
+        <v>243</v>
+      </c>
+      <c r="O53" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T53" s="10">
+        <v>45973</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M54" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGSSYFGYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+      </c>
+      <c r="N54" s="4">
+        <f t="shared" si="2"/>
+        <v>245</v>
+      </c>
+      <c r="O54" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="T54" s="10"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYSISWVRQAPGQGLEWMGGIIIFGTANYAQKFQGRVTITADESTSTAYMELSSLRSEDTAVYYCARGQGTLVDFYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK</v>
+      </c>
+      <c r="N55" s="4">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="O55" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="T55" s="10"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASIYPYSGYTNYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGYGYWGYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+      </c>
+      <c r="N56" s="4">
+        <f t="shared" si="2"/>
+        <v>245</v>
+      </c>
+      <c r="O56" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="T56" s="10"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAISGSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARGYQVYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+      </c>
+      <c r="N57" s="4">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="O57" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="T57" s="10"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M58" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSYIHWVRQAPGKGLEWVASISSYYGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGWSYSWSYSWSYSGLDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</v>
+      </c>
+      <c r="N58" s="4">
+        <f t="shared" si="2"/>
+        <v>249</v>
+      </c>
+      <c r="O58" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="T58" s="10"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M59" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGWYYGSSYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+      </c>
+      <c r="N59" s="4">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="O59" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="T59" s="10"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M60" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSYIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGTYYGSSYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+      </c>
+      <c r="N60" s="4">
+        <f t="shared" si="2"/>
+        <v>242</v>
+      </c>
+      <c r="O60" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="T60" s="10"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="T61" s="10"/>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="T62" s="10"/>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="T63" s="10"/>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M61" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>QMQLVQSGAEVKKPGESLKISCKGSGYSFTSYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAIYYCARHYYGGQYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGIRNDLGWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKLEIK</v>
+      </c>
+      <c r="N61" s="4">
+        <f t="shared" si="2"/>
+        <v>242</v>
+      </c>
+      <c r="O61" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T61" s="10">
+        <v>45973</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M62" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYAISWVRQAPGQGLEWMGGIIPIFGTANYAQKFQGRVTITADESTSTAYMELSSLRSEDTAVYYCARWYDGYFVYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK</v>
+      </c>
+      <c r="N62" s="4">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="O62" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T62" s="10">
+        <v>45973</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRQFWYSGLDYWGQGTLVTVFNGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+      </c>
+      <c r="N63" s="4">
+        <f t="shared" si="2"/>
+        <v>243</v>
+      </c>
+      <c r="O63" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T63" s="10">
+        <v>45973</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M64" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYYGSTYYADSVKGRFTISADTSKNTAYLQMRAEDTAVYYCARGWRSYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</v>
+      </c>
+      <c r="N64" s="4">
+        <f t="shared" si="2"/>
+        <v>238</v>
+      </c>
+      <c r="O64" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="T64" s="10"/>
     </row>
-    <row r="65" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M65" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYSFIWVRQAPGQGLEWMGGIIPIFGTANYAQKFQGRVTITADESTSTAYMELSSLRSEDTAVYYCARSSYSGVYYSWYFDVWGAGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGISNYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK</v>
+      </c>
+      <c r="N65" s="4">
+        <f t="shared" si="2"/>
+        <v>246</v>
+      </c>
+      <c r="O65" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P65" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="T65" s="10"/>
     </row>
-    <row r="66" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M66" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLQESGPGLVKPSQTLSLTCTVSGGSISSYAAWSWIRQPPGKGLEWIGYIYSSSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARGDYSYSYYGLDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGIRNDLGWYQQKPGKAPKLLIYAASNLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRYTFGQGTKVEIK</v>
+      </c>
+      <c r="N66" s="4">
+        <f t="shared" si="2"/>
+        <v>246</v>
+      </c>
+      <c r="O66" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="T66" s="10"/>
     </row>
-    <row r="67" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M67" s="2" t="str">
+        <f t="shared" ref="M67:M81" si="3">_xlfn.CONCAT(I67,L67,J67)</f>
+        <v>EVQLQQSGPELVKPGASVKMSCKASGYTFTSYNIHWVKQTPVHGLEWIGAIVSGGDTNYNENFKDKATLTVDKSSSTAYMQLTSEDSAVYYCARGGFYGDYWGQGTSVTVSSGGGSGGGSGGGSGGGSDIVLTQSPATLSVTPGDSVSLSCRASQSVTNNIHWYQQKSHESPRLLIKYASQSISGIPSRFSGSGSGTDFTLSINSVETEDFGMYFCQQSNSWPYTFGGGTKLEIK</v>
+      </c>
+      <c r="N67" s="4">
+        <f t="shared" si="2"/>
+        <v>235</v>
+      </c>
+      <c r="O67" s="1" t="b">
+        <f t="shared" ref="O67:O81" si="4">IF(N67&lt;=250,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="T67" s="10"/>
     </row>
-    <row r="68" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M68" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGDYYWIRQHPGKGLEWIGYIYYSGSTYYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARQLWLRGRFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK</v>
+      </c>
+      <c r="N68" s="4">
+        <f t="shared" si="2"/>
+        <v>241</v>
+      </c>
+      <c r="O68" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P68" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="T68" s="10"/>
     </row>
-    <row r="69" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M69" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFTVSSNYMSWVRQAPGKGLEWVSVIYSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCAREAGVWVFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+      </c>
+      <c r="N69" s="4">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="O69" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P69" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="T69" s="10"/>
     </row>
-    <row r="70" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M70" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNLYSSSIHWVRQAPGKGLEWVASISSYYGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRQFWLWFGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+      </c>
+      <c r="N70" s="4">
+        <f t="shared" si="2"/>
+        <v>239</v>
+      </c>
+      <c r="O70" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="T70" s="10"/>
     </row>
-    <row r="71" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T71" s="10"/>
-    </row>
-    <row r="72" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T72" s="10"/>
-    </row>
-    <row r="73" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T73" s="10"/>
-    </row>
-    <row r="74" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M71" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>VQLVQSGAEVKKPGASVKVSCKASGYTFTTYTISWVRQAPGQGLEWMGWINNSGGTNYAQKFQGRVTMTRDTSTSTVSAYMELRSEDTAVYYCATFVYGYSAYQPLTDDYGQMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWFQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSLLYPLTFGGGTKVEIK</v>
+      </c>
+      <c r="N71" s="4">
+        <f t="shared" ref="N71:N81" si="5">LEN(M71)</f>
+        <v>249</v>
+      </c>
+      <c r="O71" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T71" s="10">
+        <v>45973</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M72" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSSSGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARHRWWAHPYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSYYITPYTFGQGTKVEIK</v>
+      </c>
+      <c r="N72" s="4">
+        <f t="shared" si="5"/>
+        <v>241</v>
+      </c>
+      <c r="O72" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T72" s="10">
+        <v>45973</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M73" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>EVQLVESGGGVVQPGRSLRLSCAASGFTFSSYAMHWVRQAPGKGLEWVAVIWYDGSNKYYADSVKGRFTISRDNSKNTLFLQMNSLRPEDTAVYYCARDTPMYYDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRTSQDIDNYLNWYQQKPGKAPKLLIYYTSSLHSGVPSRFSGSGSGTDFTFTISSLQPEDIATYYCQQYDNLPITFGQGTKLEIK</v>
+      </c>
+      <c r="N73" s="4">
+        <f t="shared" si="5"/>
+        <v>240</v>
+      </c>
+      <c r="O73" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T73" s="10">
+        <v>45973</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M74" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFTFSNYAMSWVRQAPGKGLEWVSAISGSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARLSPYNGSMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSVTQPASVSGSPGQSITISCTGTSSDIGAYNYVSWYQQHPGKAPKLMIYEVSKRPSGVSNRFSGSKSGNTASLTISGLQTEDEADYYCSSYTRSGSVVFGGGTKLTVL</v>
+      </c>
+      <c r="N74" s="4">
+        <f t="shared" si="5"/>
+        <v>242</v>
+      </c>
+      <c r="O74" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="T74" s="10"/>
     </row>
-    <row r="75" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M75" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYTISWVRQAPGQGLEWMGGIIPILGIANYAQKFQGRVTITADKSTSTAYMELSSLRSEDTAVYYCARGDSSYVDSWDYWGQGTLVTVSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSVSSSYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPWTFGQGTKVEIK</v>
+      </c>
+      <c r="N75" s="4">
+        <f t="shared" si="5"/>
+        <v>243</v>
+      </c>
+      <c r="O75" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P75" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="T75" s="10"/>
     </row>
-    <row r="76" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M76" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>QVQLVESGGGVVQPGRSLRLSCAASGFTFSNYGMHWVRQAPGKGLEWVAVISDGSNKYYADSVKGRFTISRDNSKNTLYLQMRAEDTAVYYCARGSHSSRDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPPYTFGQGTKVEIK</v>
+      </c>
+      <c r="N76" s="4">
+        <f t="shared" si="5"/>
+        <v>237</v>
+      </c>
+      <c r="O76" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P76" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="T76" s="10"/>
     </row>
-    <row r="77" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M77" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>VQLVQSGAEVKRPGSSVKVSCKTSGGTIFSTYVFWVRQAPGQGLEWMGGFPPKAGYIYAQKFQGRVTFTADESSSTTVYMEDLRSEDTAVYFCARFPYFVYDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSIGGYLAWYQQKPGKVPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK</v>
+      </c>
+      <c r="N77" s="4">
+        <f t="shared" si="5"/>
+        <v>237</v>
+      </c>
+      <c r="O77" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P77" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="T77" s="10"/>
     </row>
-    <row r="78" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M78" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>VQLQESGPGLVKPSQSLSLTCTVTGFSIDYNIYWGWIRQPPGKGLEWIGYIYSGSDTYNPSLKSRVTISVDTSKNQFSLKVNSVTAADTAVYYCARVVDLWYDDGKYASCVKGAIDYWGQGTLVTVSSGGGSGGGSGGGSSVLTQPPSVSGAPGQRVTISCTGSSGAGYDVHWYQQLPGTAPKLLIYGNSNRPSGVPDRFSGSKSGTSASLAITGLQAEDEADYYCQSYDSSLSGWVFGGGTKLTVL</v>
+      </c>
+      <c r="N78" s="4">
+        <f t="shared" si="5"/>
+        <v>247</v>
+      </c>
+      <c r="O78" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P78" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="T78" s="10"/>
     </row>
-    <row r="79" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M79" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVVDFSLHWVRQAPGKGLEWVASIYPYDGSAYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARWGYWPGEGWLGKYWGQGTLVTVSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEI</v>
+      </c>
+      <c r="N79" s="4">
+        <f t="shared" si="5"/>
+        <v>243</v>
+      </c>
+      <c r="O79" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P79" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="T79" s="10"/>
     </row>
-    <row r="80" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M80" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSSYGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARWEGYRGDLWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYYEWLRTFGQGTKVEIK</v>
+      </c>
+      <c r="N80" s="4">
+        <f t="shared" si="5"/>
+        <v>240</v>
+      </c>
+      <c r="O80" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P80" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="T80" s="10"/>
     </row>
-    <row r="81" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T81" s="10"/>
-    </row>
-    <row r="82" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T82" s="10"/>
-    </row>
-    <row r="83" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T83" s="10"/>
-    </row>
-    <row r="84" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T84" s="10"/>
-    </row>
-    <row r="85" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T85" s="10"/>
-    </row>
-    <row r="86" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T86" s="10"/>
-    </row>
-    <row r="87" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T87" s="10"/>
-    </row>
-    <row r="88" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T88" s="10"/>
-    </row>
-    <row r="89" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T89" s="10"/>
-    </row>
-    <row r="90" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T90" s="10"/>
-    </row>
-    <row r="91" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T91" s="10"/>
+    <row r="81" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H81" s="1">
+        <v>3</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M81" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>QVQLQESGPGLVKPSQTLSLTCTVSGGSVSSGSYYWSWIRQPPGKGLEWIGYIYYSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARVDSFYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASSGSSYDNGWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYLQDSNYTPRTFGQGTKVEIK</v>
+      </c>
+      <c r="N81" s="4">
+        <f t="shared" si="5"/>
+        <v>243</v>
+      </c>
+      <c r="O81" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P81" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T81" s="10">
+        <v>45973</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V110" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:V80" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K1:L1048576">
-    <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="7" priority="15">
+    <cfRule type="containsBlanks" dxfId="5" priority="15">
       <formula>LEN(TRIM(K1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O110">
-    <cfRule type="containsBlanks" dxfId="6" priority="7">
+  <conditionalFormatting sqref="O2:O81">
+    <cfRule type="containsBlanks" dxfId="4" priority="7">
       <formula>LEN(TRIM(O2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:S2 O3:Q30 R3:S22 O31:O110">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+  <conditionalFormatting sqref="O2:S2 R3:S22 O3:Q81">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="16" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P31:Q110">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:S1048576">
+  <conditionalFormatting sqref="R1:S1048576 V1:V1048576">
     <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7363,8 +10408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMM4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7413,7 +10458,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -7445,7 +10490,7 @@
         <v>0.37068000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>281</v>
       </c>
@@ -7505,10 +10550,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C06239D-77DB-4F47-9412-C7BA2E2E54B1}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7542,27 +10587,35 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>282</v>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>284</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>304</v>
       </c>
     </row>
@@ -8563,4 +11616,205 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A407C179-F265-452E-A6F1-4E864C51A103}">
+  <dimension ref="A2:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="9">
+        <v>45973</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>332</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>333</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>334</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>390</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>_xlfn.CONCAT("&gt;",A4,"\n",C4)</f>
+        <v>&gt;sbio-nipahgpg-052\nQVQLQESGPGLVKPSETLSLTCTVSGGSVSSGGYFWSWIRQPPGKGLEWIGCIYYSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARVDSFYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGIRNDLGWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f t="shared" ref="A23:A31" si="0">_xlfn.CONCAT("&gt;",A5,"\n",C5)</f>
+        <v>&gt;sbio-nipahgpg-053\nEVQLVESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAISGSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARQVWFGGFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-054\nEVQLVESGGGLVQPGGSLRLSCAASGFNVSSSYIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRQFWYSGLDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-062\nQMQLVQSGAEVKKPGESLKISCKGSGYSFTSYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAIYYCARHYYGGQYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGIRNDLGWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKLEIK</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-063\nQVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYAISWVRQAPGQGLEWMGGIIPIFGTANYAQKFQGRVTITADESTSTAYMELSSLRSEDTAVYYCARWYDGYFVYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-064\nEVQLVESGGGLVQPGGSLRLSCAASGFNVSSSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRQFWYSGLDYWGQGTLVTVFNGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-072\nVQLVQSGAEVKKPGASVKVSCKASGYTFTTYTISWVRQAPGQGLEWMGWINNSGGTNYAQKFQGRVTMTRDTSTSTVSAYMELRSEDTAVYYCATFVYGYSAYQPLTDDYGQMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWFQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSLLYPLTFGGGTKVEIK</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-073\nEVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSSSGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARHRWWAHPYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSYYITPYTFGQGTKVEIK</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-074\nEVQLVESGGGVVQPGRSLRLSCAASGFTFSSYAMHWVRQAPGKGLEWVAVIWYDGSNKYYADSVKGRFTISRDNSKNTLFLQMNSLRPEDTAVYYCARDTPMYYDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRTSQDIDNYLNWYQQKPGKAPKLLIYYTSSLHSGVPSRFSGSGSGTDFTFTISSLQPEDIATYYCQQYDNLPITFGQGTKLEIK</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;sbio-nipahgpg-082\nQVQLQESGPGLVKPSQTLSLTCTVSGGSVSSGSYYWSWIRQPPGKGLEWIGYIYYSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARVDSFYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASSGSSYDNGWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYLQDSNYTPRTFGQGTKVEIK</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+</worksheet>
 </file>
--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -8,27 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\Nipah_gpG_Fv_Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64627721-720A-4A1E-9D05-B9EA16A961DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7993FC63-5565-4744-96F4-12ABF73F28DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Antibody Candidates" sheetId="2" r:id="rId1"/>
     <sheet name="Antigens" sheetId="1" r:id="rId2"/>
-    <sheet name="Notes" sheetId="3" r:id="rId3"/>
-    <sheet name="20251107 Submission FASTA" sheetId="4" r:id="rId4"/>
-    <sheet name="20251108 Submission FASTA" sheetId="5" r:id="rId5"/>
-    <sheet name="20251109 Submission FASTA" sheetId="6" r:id="rId6"/>
-    <sheet name="20251110 Submission FASTA" sheetId="7" r:id="rId7"/>
-    <sheet name="20251111 Submission FASTA" sheetId="8" r:id="rId8"/>
-    <sheet name="20251112 Submission FASTA" sheetId="9" r:id="rId9"/>
+    <sheet name="Reference Antibodies" sheetId="11" r:id="rId3"/>
+    <sheet name="Notes" sheetId="3" r:id="rId4"/>
+    <sheet name="FASTA Generation" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Antibody Candidates'!$A$1:$V$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Antibody Candidates'!$A$1:$V$81</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -47,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="382">
   <si>
     <t>antigen_id</t>
   </si>
@@ -451,36 +447,6 @@
     <t>min_ipsae</t>
   </si>
   <si>
-    <t>QVQLVESGGGVVQPGRSLRLSCAASGFTFSSYGMHWVRQAPGKGLEWVAVISYDGSKKYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARSPFYDSSGYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISSYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQANSFPPTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>AVSLVESGGGTVKPGESVTLSCQASGFNFSKYQWVWVRQAPGKGLEWVGQISPDGSKTRYHPSVAGRFTISRDNSNSTLYLHMSNLRPEDTAVYYCGIIPQDNVHGDYSISHWGQGTLLTVSAGGGSGGGSGGGSGGGSAIKLTQSPKSLSASVGDTVTINCTASRPIGDLLSWYKQKPGKPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSSDFATYYCRQTSRFPITFGEGTTINKK</t>
-  </si>
-  <si>
-    <t>SISLVESGGGTVAPGSSVTLSCQASGFNFSKYSKAWVRQPPGQPLEWVSRISPDGSTKYYHPDVAGRFTISKDNSKSTVYLAMSNLTAADTATYYCGIIPGDNTHGDYAMSHWGQGTLLTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTISCTASRPIGDKLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTSFTLTISSLQEDDFATYYCQQTYTLPITFGQGTTISKK</t>
-  </si>
-  <si>
-    <t>GVSLTESGGGTVAPGSSVTLSCKASGFNFSKYSHAWVRQAPGQGLTWVGEISPDGSKTRYASSVAGRFTISRDNSNSTVYLQMSSLTPSDTATYYCGIIPGDSVHGERSMSHWGQGTLLTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTLNCTASRPIGDRLSWYKQKPGQAPQLLIYRASTLAPGVSSRYSGSGSDTQFTLTISSLQSDDFATYYCQQTSSYPVTFGQGTTITKK</t>
-  </si>
-  <si>
-    <t>GISLVESGGGTVKPGESVTLSCKASGFVFSKYSHAWVRQPPGGPLEWVSQISSDGSVTRYASSVSGRFTISRDNSNSTVYLQMNNLRPSDTATYYCGIIPQDNVHGDYAISHWGQGTLLTVTAGGGSGGGSGGGSGGGSAITLTQSPASLSAKVGDTVTLSCTASRPIGDLLSWYKQKPGQPPQLLIYRASTLAPGVDSRYSGSGSDTSFTLTISSLQPEDFATYYCQQTSRFPITFGQGTTIKQA</t>
-  </si>
-  <si>
-    <t>SIKLTESGGGTVKPGSSVTLSCQASGFNFSKYEVVWVMQKPGQPLQWVGSISPDGSKVRLHPKVKGRFTLSKDNSKNTAYLTMKNLQPEDTATYYCGIIPGGSVHGDRSITHWGQGVELKVVAGGGSGGGSGGGSGGGSMIKLTQSPKSVKAKVGDTVTITCTASEPVDDLVSWYQQKPGQPLRLLIYRSSTLAPGVSSRFSGSGSDTNFTLTISSLQEEDFATYYCMQTSKYPYTFGQGTTLSRA</t>
-  </si>
-  <si>
-    <t>GVKLVQSGDLTVKPGGSVTLSCKSEGGSFGNSSVAWVRQRPGGPYEYIGSIIPAYGVSRVSPEYEGRVTISADVANNTAYLTISNLTPEDTATYYCALGPGEVVYAASPFDEKLLTGALSVWGEGTLVTVTGGGSGGGSGGGSITVTQSPSSPSLSVGDTATLTCTLSSSVATSNVAWYKQLPGQPPELLISGGSTRAPGVPSRYSGSGSGTTFTLTISSLQASDFATYYCQVYGENPSFGQGTTLTLK</t>
-  </si>
-  <si>
-    <t>AVKLVQSGDQTVAPGGSVTLSCTSSGGSFGNSSVAWVRQRPGGPFEFIGSIIPSLGISRYNSKYKGRVTISSDAANNTAYLTISNLTAADTATYYCALGPGESVFASHPFKEKLLTGALSVWGEGTLVTVSGGGSGGGSGGGSITVTQSPSSPSKSVGDTVTLTCTLSSSVPVSQVAWYKQHPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLQPEDFATYYCQVYGEEPSFGQGTTVTLA</t>
-  </si>
-  <si>
-    <t>SISLVQSSDQTVAPGGSVTLSCTSSGGSFGNSGVAWVRQAPGGPPVYIGGIIPATGVSTYNAAFKGRVTISSDSSNNTAYLTISGLTAADTATYYCALGPAENVFASHPFAEDVNLGALSVWGQGTLVTVTGGGSGGGSGGGSITVTESPSSPELSVGETAVLSCTLSSSVPQSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLEPEDFATYYCQVYGTSPSFGQGTTLKLK</t>
-  </si>
-  <si>
-    <t>AVSLVESGDQTVAPGGSVTLSCTSSGGSFGNSGVAWVRQAPGGPLEFLGFIIPALGVSKVNSKYEGRVTISSDPANNTAYLTISNLTAADTATYYCGLGTGESVFASSPFDEKLLLGALSVWGQGTKVTVTGGGSGGGSGGGSITVTQSPASPEKKVGETATLTCTLSSAVPKSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLQPEDFATYYCRVYGEEPSFGQGTTLKLK</t>
-  </si>
-  <si>
     <t>VQLQESGPGLVKPSQSLSLTCTVTGYSITTGYAWNWIRQFPGNKLEWMGYISYSGSTYYPSLKSRISITRDTSKNQFFLQLSIVTTEDTATYYCARGTTLPDYVDFWGQGTSVTVSS</t>
   </si>
   <si>
@@ -661,63 +627,6 @@
     <t>sbio-nipahgpg-051</t>
   </si>
   <si>
-    <t>QVQLVESGGGVVQPGKSLRLSCAASGFTFSSYAMSWVRQAPGKGPEWVAFISYDGSNNYYADSVKGRFTISRDNPKNTLYLQMKSLRAEDTAVYYCARWRQRFDMYWGRGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>QVQLQESGPGLVKPSETLSLTCTVSGASIRGYYWSWIRQFPGKELEWIGYVYSGSTENYNPSLKSRVTVTLTDTKNSFSLKLNSVTSEDTAVYYCARGGALIYYDVWGTGTTVTVSSGGGSGGGSGGGSGGGSDIQVTQSPVSLSASVGDRVTITCRASQGIDSLNWFQQRPGKAPKLLIYAASQLTGIAPRFRSGSGSGTDFTLTISSLQPEDFATYYCQQYNIYPATFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>EVQLVQSGAEVKKPGESLKISCKGSGYTFSYYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAMYYCARGEGVFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSYTLTQAPSVSASGQSVTISCTGTSRDVGTYWYQQIPGRAPKLLIHDKSENQGKTPGIPDRFSGSKSGNTASLVIIRGLQADDEADYYCNSYHGSGSNIFGGGTKLTVD</t>
-  </si>
-  <si>
-    <t>EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYWMNWVRQAPGKGLEWVANINQDGGEKYYVDSVKGRFTISRDNAKNSLYLQMNSLRAEDTAIYYCARDVGGGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>QVQLVESGGGVVQPGRSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAIWSNGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARDYGSYGYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPLSLPVTPGEPASISCRSSQSLLYSNGNTYLEWYLQKPGQSPQLLIYLVSKLDSGVPDRFSGSGSGTDFTLKISRVEAEDLGIYYCQQSKEVPYTFGAGTKLEIK</t>
-  </si>
-  <si>
-    <t>AVSITESGGGTKAPGSSVTLSCKVSGFVFSKYSIAWVRQAPGQGLEWVSQISPDGSTTRYNPAVAGRFTISRDNSNSTAYLQMSNLTPSDTATYYCAIIPQDNEHGDYSLSHWGQGTQLTVSAGGGSGGGSGGGSGGGSAIKLTQSPKSLSAKVGDTVTINCTASAPIGDFLSWYKQKPGQPPQLLIYKSSTLAPGVSSRYSGSGSDTNFTLTISSLQEEDFATYYCQQTATLPITFGEGTTINKK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVSLVESGGGTVKPGESVTLSCQASGFNFSKYRLAWVRQPPGQGLVWVSEISPDGTEVKYHPDVKGRFTASRDNSNSTAYLKMNNLQPSDTATYYCGIIPQDSSHGDYSISHWGQGTQLTVSAGGGSGGGSGGGSGGGSTITLTQSPSSLSASVGDTVTINCTASRPIGDFLSWYKQKPGQPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSDDFATYYCQQTYTLPITFGQGTTLTKK </t>
-  </si>
-  <si>
-    <t>AVSLVESGGGTYAPGSSVTLSCQGSGFNFSKVRKVWVRQPPGGPLEYVAEISPDGSTTTYASSVAGRFTISKDNSNSTLYLSMSNLTPADTATYYCGLIPGDSEHGDRSISHWGQGTLVTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTINCTASQPIGNFLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTNFTLTISSLQSEDFATYYCQQTSRLPVTFGQGTTINKK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PVSLVESGGGTVAPGSSVTLTCQASGFNFSKYIVAWVRQPPGQPLRFVAMITPDGSKVWLHPEVEGRFTPSKDNSKNTSYLQLKDLQPEDTATYYCGIIPQGSTHGDYSITHWGQGVVLTVTAGGGSGGGSGGGSGGGSMVTLTQSPSSLSASVGDTVTITCTASSPVDNLMSWYQQPPGQPLRLLIYNASTRAPGVSSRFSGSGSDTNFTLTISSLQASDFATYYCQQTYRLPVTFGQGTTLSAA </t>
-  </si>
-  <si>
-    <t>AITLTESGGGVVAPGSSVTLTCTASGFNFSKYSMVWVRQPPGGPLQWVAQISPDNSTVRYHPAVEGRFTASKDNSKNTAYLAMSDLEPSDTATYYCGIIPQGSTHNDYSIVHWGQGTELRVVAGGGSGGGSGGGSGGGSMIKLTQSPSSLSAKVGDKVTITCTASSPVDNLVSWYKQPPGGPLQLLIYNSSTRAPGVSSRFKGSGSDTNFTLTIESLQEEDFATYYCQQTYKFPITFGQGTKLTRA</t>
-  </si>
-  <si>
-    <t>SISLTESGGGTVAPGSSVTLTCTASGFNFSKYSVAWVRQPPGQPLQWVALISPDGSKKWYHPDVKGRATISKDNSKNTSYLTLSNLQPSDTATYYCGIIPGGNIHGDYSMTHWGQGTQLTVVAGGGSGGGSGGGSGGGSMITLTQSPLSLSAKVGDTVTITCTASSPVDDLVSWYQQKPGQPLRLLIRNASERAPGVSSRFSGSGSDTTFTLTISSVQEEDFATYYCQQTSKLPYTFGQGTTLSRA</t>
-  </si>
-  <si>
-    <t>AVTLTESGGGTVAPGSSVTLTCTASGFNFSKYILAWVRQAPGQPLEWVASISPDGSKTRYHPAVKGRATASKDNSKNTAYLELKDLRPEDTATYYCGIIPQGSVHGDYSMTHWGQGTELRVEAGGGSGGGSGGGSGGGSPVVLTQSPLSLSAKVGDTVTITCTASSPVDNLVSWYKQAPGQPLQLLIYNATTRAPGVPSRFTGSGSDTTFTLTISSLQPEDFAVYYCQQTYKFPITFGQGTRLTPA</t>
-  </si>
-  <si>
-    <t>PVKLVESGGGTVAPGSSVTLTCKASGFNFSKYMVQWVRQAPGGAFQWVGLISPDGSTKWYHPDVEGRFTISKDNSKNTAYLEMRNLTPADTAVYYCGIVPQGSVHGDYSITHWGQGVTLTVTAGGGSGGGSGGGSGGGSVVQLTQSPPELSAKVGEKVTITCTASSPVDNLVSWYQQKPGGAPKLLIYNATTLAPGVPSRFSGSGSDTVFTLTIDSLQAEDFATYYCQQTSRLPFTFGQGTVLRPA</t>
-  </si>
-  <si>
-    <t>AIKLTESGGGTVKPGSSVTLTCQASGFNFSKYIMAWVRQAPGQPLQWVAQISPDNSVKRYHPEVEGRFTASKDNSKNTAYLEMKNLTPADTATYYCAIIPQGSTQGDYSMVHWGQGVELKVVAGGGSGGGSGGGSGGGSPVVLTQSPASLKAAVGDTVTITCTASAPVDNLVSWYKQAPGQPPQLLIYNASTLAPGVPSRFTGSGSDTSFTLTISSLQEEDFATYYCQETSKFPITFGQGTKLEKK</t>
-  </si>
-  <si>
-    <t>SIKLTESGGGVVAPGESVTLTCTASGFNFSKYEMAWVRQAPGGPLEFVAVISPDGSTTRYHPRVEGRATISRDNSKNTAYLTLRDLTPADTAVYYCGIIPGGSVHGDRALSHWGQGVRLEVRAGGGSGGGSGGGSGGGSMVTLTQSPSSLSAKVGDKVTISCTASEPVDDLVSWYKQAPGGPPQLLISRASTRAPGVPSRFSGSGSDTNFTLTIESLQSSDFATYYCQQTYKFPDTFGQGTTLSEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SVTLVESGDQTVAPGGSVTLSCTSSGGSFGNSGVSWVKQQPGGPLQWIGGIIPSLGISKVSPEYAGRVTISSDSSNNTAYLTISNLTAADTATYYCALGEGEDVFASSPFASNVNLGALSVWGQGTKVTVSGGGSGGGSGGGSITVTQSPSSPSLKVGETATLTCTLSAPVPRSNVAWYKQQPGQPPTLLIYGGSTRAPGVPSRYSGSGSGTTFTLTITALKPEDFATYYCQVYGENPSFGQGTTLKLK </t>
-  </si>
-  <si>
-    <t>SITLVQSGDVTVAPGGSVTLTCTSSGGSFGNKAVAWVRQRPGGPYEWLGFIIPAYGVSRYNPAYEGRVTISVDSASNTASLTISNLTAADTATYYCALGEGEIVYAASPFDENYKLGALYIWGQGTKVTVSGGGSGGGSGGGSITLTQSPSSPSLSVGETATLTCTASAPVPKSNVAWYKQLPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLTADDFATYYCQVYGENPSFGEGTTLTLK</t>
-  </si>
-  <si>
-    <t>SVTLVQSGDQTVPIGGSVTLSCTANGGSFGNKGVAWVRQRPGGPYEFLGFIKPAIGESRYHPKYKGRVTISSDVSSNTAYLTISNLTPEDTAVYYCALGEAEDVFAAHPFKTDLLLGALSIWGQGTRVTVTGGGSGGGSGGGSITVTQSPSSPSLSVGETAVLTCTLSQPVPQSQVAWYKQLPGQPPTLLISGGSTRASGVPSRYSGSGSGTTFTLTISSLLPEDFATYYCQVVGKEPSFGQGTTLTLK</t>
-  </si>
-  <si>
-    <t>SVKLVQSGDQTVPVGGSVTLSCTASGGSFGNYGVAWVRQRPGGPLEYIGSIIPAYGISTVNPKYEGRVTISADPTNNTAYLTISNLTPEDTATYYCALGPGEVVFASSPFDIDVLTGALWVWGEGTKVTVTGGGSGGGSGGGSITVTQSPSSPSLKVGETATLTCTLSAPVAKSNVAWYKQLPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLQPEDFATYYCQVVGKNPSFGQGTLLKLK</t>
-  </si>
-  <si>
     <t>proteinbase_name</t>
   </si>
   <si>
@@ -829,66 +738,6 @@
     <t>QNYTRSTDNQAVIKDALQGIQQQIKGLADKIGTEIGPKVSLIDTSSTITIPANIGLLGSKISQSTASINENVNEKCKFTLPPLKIHECNISCPNPLPFREYRPQTEGVSNLVGLPNNICLQKTSNQILKPKLISYTLGQSGTCITDPLLAMDEGYFAYSHLERIG[S][C][S][R]GVSKQRIIGVGEVLDRGDEVPSLFMTNVWTPPNPNTVYHCSAVYNNEFYYVLCAVSTVGDPI[L]NSTYWSGSLMMTRLAVKPKSNGGGYNQHQLALRSIEKGRYDKVMPYGPSGIKQGDTLYFPAVGFLVRTEFKYNDSNCPITKC[Q][Y]SKPENCRLSMG[I][R]PNSHYILRSGLLKYNLSDGENPKVVFIEISDQRLSIGSPSKIYDSLGQPVFYQAS[F]SWDTMIKFGDVLTVNPLVVNWRNNTVISR[P][G][Q][S][Q]CPRFNTCP[E]IC[W][E][G][V]YNDAFLIDRINWISAGVFLDSN[Q][T][A][E]NPVFTVFKDNEILYRAQLASE[D]T[N][A][Q]KTITNCFLLKNKIWCISLV[E][I][Y]D[T]GDNV[I]RPKLFAVKIPEQCT</t>
   </si>
   <si>
-    <t>VQLQESGPGLVKPSQSLSLTCTVTGYSITTGYAWNWIRQFPGNKLEWMGYISYSGSTYYPSLKSRISITRDTSKNQFFLQLSIVTTEDTATYYCARGTTLPDYVDFWGQGTSVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQTISTYLNWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYFCLQHFWTPPITFGQGTRLEIK</t>
-  </si>
-  <si>
-    <t>QVQLQESGPGLVKPSETLSVTCTVSGGSIGSNNYWSWIRQPAGKGLEWIGYIYYSGSTNYNPSLKSRVTMSVDTSKNQFSLKLSSVTAADTAVYYCVRNYYDSSDSSGYYFMDVWGQGTTVTVSSGGGSGGGSGGGSDIVMTQSPLSLSVTPGEPASISCRSSQSLLHSNGYNYLDWYLQKPGQSPQLLIYLGSNRASGVPDRFSGSGSGTDFTLKISRVEAEDVGVYYCMQALQTPTFGQGTRLEIK</t>
-  </si>
-  <si>
-    <t>QVQLVQSGAEVKKPGESLKISCKGSGYRFSSYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAMYYCARQGPDYYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSTLSASVGDRVTITCRASQSISSWLAWYQQKPGKAPKLLIYKASELQSGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQQYINSYTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>QVQLQQSGPELVKPGASVKLSCKASGYTFTDYYMHWVKQRPGQGLEWIGEINPNSGGTNTYDQKFKGRATLTVDKSSSTAYLQLSSLTSEDSAVYYCARSPPWYFDYWGQGTTLTVSGGGSGGGSGGGSGGGSDIVMTQSPSSMFASVGETVTITCRASENIYSNLAWYQQKPGQSPKLLIYWASTRHTGVPDRFTGSGSGTDFTLTISSVQAEDLALYYCQHYGSYSFTFGSGTKLEIK</t>
-  </si>
-  <si>
-    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRNYVYSSGYLDFWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSYSSPPTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNIYYSSIHWVRQAPGKGLEWVASISPYYGSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARDYGHYYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVMTQSPATLSVSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYGASTRATGIPARFSGSGSGTEFTLTISSLQSEDSAVYYCQQYNNWPPITFGQGTRLEIK</t>
-  </si>
-  <si>
-    <t>QVQLQESGPGLVKPSETLSLSCVVSGDSSSTNYYWGWIRQPPGKGLEWIGYIYGSGDTAYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARRSWGYGYNGYSTYYYYYYFDQGYFDVWGPGTLVTGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSIGSYLNWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTEFTLTISSLQPEDFATYYCQQSYSWGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>QVQLVQSGAEVKKPGASVKVSCKASGYTFTSYGISWVRQAPGQGLEWMGWISAHNGDTNYAQKFQGRVTMTRDTSITTAYMELRSDDTAVYYCARDGSVGGFYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPITFGQGTRLEIK</t>
-  </si>
-  <si>
-    <t>EVQLLESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASISPYYGSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSYYWYWSGWGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSYGSPPTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGHYAWWIRQPPGKGLEWIACIYSSSGSTYYNPSLKSRITISVDTSKNQFSLKLSSVTAADTAVYYCARRQRGYDYDYYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISRNLAWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSNNWPITFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNIYYSSIHWVRQAPGKGLEWVASIYSYYSSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARVYGYLSYSYFYWGLDVWGQGTLVTVSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEI</t>
-  </si>
-  <si>
-    <t>EVQLQQSGAELVKPGASVKLSCTASGFNIKDTYVHWVKQRPEQGLEWIGRIDPANGYTKYDPKFQGKATITADTSSNTAYLQLSSLTSEDTAVYYCVRPLYDYYAMDYWGQGTTLTVSSGGGSGGGSGGGSGGGSDIVMTQSPSSLAMSAGRVSITCRTSQSISSYLNWVQQKPGKSPKLLIYWASTRESGVPDRFTGSGSGTDFTLTISRVEAEDLGVYYCMQGTHVPYTFGGGTKLEIK</t>
-  </si>
-  <si>
-    <t>EVQLVESGGGLVKPGGSLRLSCAASGFTFSSYAMHWVRQAPGKGLEWVSAISGGGGSTYYADSVKGRFTISRDNSKNTLYLQMRAEDTAVYYCAKDDADWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPFTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGSYYWIRQSPGKGLEWIGYIYYSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARHRYYDRGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPASLSASVGETVTITCRASENIYSNLAWYQQKQGKSPQLLVYAATDLADGVPSRFSGSGSGTQFSLKINSLQPEDFGSYYCQHFWDTPWTFGQGTRVE</t>
-  </si>
-  <si>
-    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNLYSSSIHWVRQAPGKGLEWVAYISSSGTHYADSVKGRFTISADTSKNTAYLQMRAEDTAVYYCARVGHYYSSGGYYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYSSYWTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVVDSGISWVRQAPGKGLEWVSYISSSSGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARAHYYGSYFGSVVYYYGLDVWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYDTYPITFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVYSSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSYSTYYYGYWYFDVWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSAAVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYNYYWLITFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>QVQLQQPGAELVKPGASVKLSCKASGYTFTSDWIHWVKQRPGHGLEWIGEIIPSYGRANYNEKIQKKATLTADKSSSTAFMHLSSLTSEDSAVYYCARERGDGYFAVWGAGTTVTVSSGGGSGGGSGGGSGGGSDILLTQSPAILSVSPGERVSFSCRASQSIGTDIHWYQQRTNGSPRLLIKYASESISGIPSRFSGSGSGTDFTLSINSVESEDIANYYCQQSNRWPFTFGSGTKLEIK</t>
-  </si>
-  <si>
-    <t>VRLLESGGGLVQPGGSLKLSCAASGFDYSRYWMSWVRQAPGKGLKWIGEINPVSSTINYTPSLKDKFIISRDNAKDTLYLQISKVRSEDTALYYCARLYYGYGYWYFDVWGAGTTVTVSSGGGSGGGSGGGSGGGSDIVLTQSPAIMSAAPGDKVTMTCSASSSVSYIHWYQQKSGTSPKRWIYDTSKLTSGVPVRFSGSGSGTSYSLTINTMEAEDAATYYCQQWSSHPQTFGGGTKLEIl</t>
-  </si>
-  <si>
-    <t>QVQLQESGPGLVQPSQSLSLTCTVSGFSLTSYGVHWVRQSPGKGLEWLGVIWAGGSTDYNSALKSRLSISRDTSKNQVFLKMNSLQTDDTAMYYCAKHGSSNGDYWGQGTSVTVSSGGGSGGGSGGGSGGGSDIVMTQSPDSLAVSLGERATINCKSSQSVLYSSNNKNYLAWYQQKPEGQPPNLLIYWASTRESGVPDRFSGSGSGTDFTLTISSLQAEDVAVYYCQQYYSAPTFGQGTKLEIK</t>
-  </si>
-  <si>
     <t>antigen_source</t>
   </si>
   <si>
@@ -1231,34 +1080,115 @@
     <t>DIQMTQSPSSLSASVGDRVTITCRASSGSSYDNGWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYLQDSNYTPRTFGQGTKVEIK</t>
   </si>
   <si>
-    <t>QVQLQESGPGLVKPSETLSLTCTVSGGSVSSGGYFWSWIRQPPGKGLEWIGCIYYSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARVDSFYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGIRNDLGWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAISGSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARQVWFGGFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSYIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRQFWYSGLDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>QMQLVQSGAEVKKPGESLKISCKGSGYSFTSYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAIYYCARHYYGGQYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGIRNDLGWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKLEIK</t>
-  </si>
-  <si>
-    <t>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYAISWVRQAPGQGLEWMGGIIPIFGTANYAQKFQGRVTITADESTSTAYMELSSLRSEDTAVYYCARWYDGYFVYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRQFWYSGLDYWGQGTLVTVFNGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>VQLVQSGAEVKKPGASVKVSCKASGYTFTTYTISWVRQAPGQGLEWMGWINNSGGTNYAQKFQGRVTMTRDTSTSTVSAYMELRSEDTAVYYCATFVYGYSAYQPLTDDYGQMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWFQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSLLYPLTFGGGTKVEIK</t>
-  </si>
-  <si>
-    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSSSGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARHRWWAHPYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSYYITPYTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>EVQLVESGGGVVQPGRSLRLSCAASGFTFSSYAMHWVRQAPGKGLEWVAVIWYDGSNKYYADSVKGRFTISRDNSKNTLFLQMNSLRPEDTAVYYCARDTPMYYDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRTSQDIDNYLNWYQQKPGKAPKLLIYYTSSLHSGVPSRFSGSGSGTDFTFTISSLQPEDIATYYCQQYDNLPITFGQGTKLEIK</t>
-  </si>
-  <si>
-    <t>QVQLQESGPGLVKPSQTLSLTCTVSGGSVSSGSYYWSWIRQPPGKGLEWIGYIYYSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARVDSFYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASSGSSYDNGWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYLQDSNYTPRTFGQGTKVEIK</t>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGSSYFGYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYSISWVRQAPGQGLEWMGGIIIFGTANYAQKFQGRVTITADESTSTAYMELSSLRSEDTAVYYCARGQGTLVDFYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASIYPYSGYTNYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGYGYWGYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYYGSTYYADSVKGRFTISADTSKNTAYLQMRAEDTAVYYCARGWRSYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYSFIWVRQAPGQGLEWMGGIIPIFGTANYAQKFQGRVTITADESTSTAYMELSSLRSEDTAVYYCARSSYSGVYYSWYFDVWGAGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGISNYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLQESGPGLVKPSQTLSLTCTVSGGSISSYAAWSWIRQPPGKGLEWIGYIYSSSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARGDYSYSYYGLDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGIRNDLGWYQQKPGKAPKLLIYAASNLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRYTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFTFSNYAMSWVRQAPGKGLEWVSAISGSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARLSPYNGSMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSVTQPASVSGSPGQSITISCTGTSSDIGAYNYVSWYQQHPGKAPKLMIYEVSKRPSGVSNRFSGSKSGNTASLTISGLQTEDEADYYCSSYTRSGSVVFGGGTKLTVL</t>
+  </si>
+  <si>
+    <t>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYTISWVRQAPGQGLEWMGGIIPILGIANYAQKFQGRVTITADKSTSTAYMELSSLRSEDTAVYYCARGDSSYVDSWDYWGQGTLVTVSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSVSSSYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPWTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>QVQLVESGGGVVQPGRSLRLSCAASGFTFSNYGMHWVRQAPGKGLEWVAVISDGSNKYYADSVKGRFTISRDNSKNTLYLQMRAEDTAVYYCARGSHSSRDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPPYTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>gentle-quail-fern</t>
+  </si>
+  <si>
+    <t>swift-wolf-marble</t>
+  </si>
+  <si>
+    <t>crimson-kiwi-pine</t>
+  </si>
+  <si>
+    <t>solid-bee-ivy</t>
+  </si>
+  <si>
+    <t>vast-goat-clay</t>
+  </si>
+  <si>
+    <t>quick-panda-iron</t>
+  </si>
+  <si>
+    <t>brisk-panther-marble</t>
+  </si>
+  <si>
+    <t>wild-tiger-jade</t>
+  </si>
+  <si>
+    <t>ivory-cat-ivy</t>
+  </si>
+  <si>
+    <t>violet-quail-maple</t>
+  </si>
+  <si>
+    <t>ref_antibody_id</t>
+  </si>
+  <si>
+    <t>pdb_id</t>
+  </si>
+  <si>
+    <t>QSLEESGGRLVTPGTPLTLTCTASGFSLSSYYMMWVRQAPGKGLEWIGIINTGGNAYYASWTKGRFTISKTSTTVDLKITSPTTEDTATYFCARAVPSGAGYSAGGLWGPGTLVTVSS</t>
+  </si>
+  <si>
+    <t>DQVLTQTPASVEAAVGGTVTIKCQASQSVGFYLSWYQQKPGQPPKLLIYRASTLESGVPSRFKGSGSGTEFTLTISDLECADAATYYCQTNDYLASSAFGGGTEVVVRGDP</t>
+  </si>
+  <si>
+    <t>fab92_1</t>
+  </si>
+  <si>
+    <t>8RVN_fasta</t>
+  </si>
+  <si>
+    <t>fab92_2</t>
+  </si>
+  <si>
+    <t>8VRN_JI</t>
+  </si>
+  <si>
+    <t>EVQLQQSGAELVKPGASVKLSCTASGFNIKDTYMYWVKQRPEQGLEWIGRIDPANGDTKYDPKFQGKATITTDTFSNTAYLQLSSLTSEDTAVYYCARKGLRWAMDYWGQGTSVTVST</t>
+  </si>
+  <si>
+    <t>NIVMTQSPKSMSMSVGERVTLSCKASEYVGTYVSWYQQKPEQSPKLLIYGASNRYTGVPDRFTGSGSATDFTLTIGSVQAEDLADYHCGQSYSYPTFGAGTKLELKRA</t>
+  </si>
+  <si>
+    <t>1f5</t>
+  </si>
+  <si>
+    <t>7KI6_CB</t>
+  </si>
+  <si>
+    <t>QIVLTQSPAIMSASLGEAITLTCSASSSVSYMHWYQQKSGTSPKLLIYSTSNLASGVPSRFSGSGSGTFYSLTISSVEAEDAADYYCHQWYSYPWTFGGGTKLEIK</t>
+  </si>
+  <si>
+    <t>DVQLQESGPGLVKPSQSLSLTCSVTGYSITSDYYWNWIRQFPGNKLEWMGYVTYDGSNNYNPSLKNRISITRDSSKNQFFLKLNSVISEDTATYYCARFGSSYWAMDYWGQGTSLTVSS</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-083</t>
+  </si>
+  <si>
+    <t>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYTISWVRQAPGQGLEWMGRIIPIFGTANYAQKFQGRVTITADKSTSTAYMELSSLRSEDTAVYYCARYYDSYFDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>DIQMTQSPSSLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQCGNSFPWTFGGGTKLEIK</t>
+  </si>
+  <si>
+    <t>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYTISWVRQAPGQGLEWMGRIIPIFGTANYAQKFQGRVTITADKSTSTAYMELSSLRSEDTAVYYCARYYDSYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQCGNSFPWTFGGGTKLEIK</t>
   </si>
 </sst>
 </file>
@@ -1348,7 +1278,84 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1419,13 +1426,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Colby" refreshedDate="45973.952925115744" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="81" xr:uid="{C69715DE-2A16-4198-9FD9-FAE4F60B2265}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Colby" refreshedDate="45974.450344675926" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="82" xr:uid="{C69715DE-2A16-4198-9FD9-FAE4F60B2265}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:T2970" sheet="Antibody Candidates"/>
   </cacheSource>
   <cacheFields count="20">
     <cacheField name="antibody_id" numFmtId="0">
-      <sharedItems containsBlank="1" count="81">
+      <sharedItems containsBlank="1" count="82">
         <s v="sbio-nipahgpg-001"/>
         <s v="sbio-nipahgpg-002"/>
         <s v="sbio-nipahgpg-003"/>
@@ -1506,6 +1513,7 @@
         <s v="sbio-nipahgpg-080"/>
         <s v="sbio-nipahgpg-081"/>
         <s v="sbio-nipahgpg-082"/>
+        <s v="sbio-nipahgpg-083"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1549,7 +1557,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="franken_chain" numFmtId="0">
-      <sharedItems containsBlank="1" count="81">
+      <sharedItems containsBlank="1" count="82">
         <s v="QVQLVESGGGVVQPGRSLRLSCAASGFTFSSYGMHWVRQAPGKGLEWVAVISYDGSKKYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARSPFYDSSGYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISSYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQANSFPPTFGQGTKVEIK"/>
         <s v="QVQLVESGGGVVQPGKSLRLSCAASGFTFSSYAMSWVRQAPGKGPEWVAFISYDGSNNYYADSVKGRFTISRDNPKNTLYLQMKSLRAEDTAVYYCARWRQRFDMYWGRGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK"/>
         <s v="QVQLQESGPGLVKPSETLSLTCTVSGASIRGYYWSWIRQFPGKELEWIGYVYSGSTENYNPSLKSRVTVTLTDTKNSFSLKLNSVTSEDTAVYYCARGGALIYYDVWGTGTTVTVSSGGGSGGGSGGGSGGGSDIQVTQSPVSLSASVGDRVTITCRASQGIDSLNWFQQRPGKAPKLLIYAASQLTGIAPRFRSGSGSGTDFTLTISSLQPEDFATYYCQQYNIYPATFGQGTKVEIK"/>
@@ -1630,6 +1638,7 @@
         <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVVDFSLHWVRQAPGKGLEWVASIYPYDGSAYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARWGYWPGEGWLGKYWGQGTLVTVSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEI"/>
         <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSSYGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARWEGYRGDLWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYYEWLRTFGQGTKVEIK"/>
         <s v="QVQLQESGPGLVKPSQTLSLTCTVSGGSVSSGSYYWSWIRQPPGKGLEWIGYIYYSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARVDSFYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASSGSSYDNGWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYLQDSNYTPRTFGQGTKVEIK"/>
+        <s v="QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYTISWVRQAPGQGLEWMGRIIPIFGTANYAQKFQGRVTITADKSTSTAYMELSSLRSEDTAVYYCARYYDSYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQCGNSFPWTFGGGTKLEIK"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1652,13 +1661,14 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="0.69121100000000002"/>
     </cacheField>
     <cacheField name="submitted_to_comp" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-11-12T00:00:00" maxDate="2025-11-13T00:00:00" count="8">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-11-12T00:00:00" maxDate="2025-11-14T00:00:00" count="9">
         <d v="2025-11-07T00:00:00"/>
         <d v="2025-11-08T00:00:00"/>
         <d v="2025-11-09T00:00:00"/>
         <d v="2025-11-10T00:00:00"/>
         <d v="2025-11-11T00:00:00"/>
         <d v="2025-11-12T00:00:00"/>
+        <d v="2025-11-13T00:00:00"/>
         <m/>
         <d v="2023-11-12T00:00:00" u="1"/>
       </sharedItems>
@@ -1673,7 +1683,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="81">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="82">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -2763,7 +2773,7 @@
     <m/>
     <s v="QVQLQESGPGLVKPSETLSLTCTVSGGSVSSGGYFWSWIRQPPGKGLEWIGCIYYSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARVDSFYYGMDVWGQGTTVTVSS"/>
     <s v="DIQMTQSPSSLSASVGDRVTITCRASQGIRNDLGWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK"/>
-    <m/>
+    <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="49"/>
     <n v="243"/>
@@ -2785,7 +2795,7 @@
     <m/>
     <s v="EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAISGSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARQVWFGGFDYWGQGTLVTVSS"/>
     <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
-    <m/>
+    <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="50"/>
     <n v="241"/>
@@ -2807,7 +2817,7 @@
     <m/>
     <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSYIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRQFWYSGLDYWGQGTLVTVSS"/>
     <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
-    <m/>
+    <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="51"/>
     <n v="243"/>
@@ -2829,7 +2839,7 @@
     <m/>
     <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGSSYFGYYAMDYWGQGTLVTVSS"/>
     <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
-    <m/>
+    <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="52"/>
     <n v="245"/>
@@ -2851,7 +2861,7 @@
     <m/>
     <s v="QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYSISWVRQAPGQGLEWMGGIIIFGTANYAQKFQGRVTITADESTSTAYMELSSLRSEDTAVYYCARGQGTLVDFYWGQGTLVTVSS"/>
     <s v="DIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK"/>
-    <m/>
+    <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="53"/>
     <n v="240"/>
@@ -2873,7 +2883,7 @@
     <m/>
     <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASIYPYSGYTNYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGYGYWGYAMDYWGQGTLVTVSS"/>
     <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
-    <m/>
+    <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="54"/>
     <n v="245"/>
@@ -2895,7 +2905,7 @@
     <m/>
     <s v="EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAISGSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARGYQVYFDYWGQGTLVTVSS"/>
     <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
-    <m/>
+    <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="55"/>
     <n v="240"/>
@@ -2904,7 +2914,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="56"/>
@@ -2917,7 +2927,7 @@
     <m/>
     <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSYIHWVRQAPGKGLEWVASISSYYGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGWSYSWSYSWSYSGLDVWGQGTTVTVSS"/>
     <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK"/>
-    <m/>
+    <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="56"/>
     <n v="249"/>
@@ -2926,7 +2936,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="57"/>
@@ -2939,7 +2949,7 @@
     <m/>
     <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGWYYGSSYWGQGTLVTVSS"/>
     <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
-    <m/>
+    <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="57"/>
     <n v="240"/>
@@ -2948,7 +2958,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="58"/>
@@ -2961,7 +2971,7 @@
     <m/>
     <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSYIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGTYYGSSYWGQGTLVTVSS"/>
     <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
-    <m/>
+    <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="58"/>
     <n v="242"/>
@@ -2970,7 +2980,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="59"/>
@@ -2983,7 +2993,7 @@
     <m/>
     <s v="QMQLVQSGAEVKKPGESLKISCKGSGYSFTSYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAIYYCARHYYGGQYFDYWGQGTLVTVSS"/>
     <s v="DIQMTQSPSSLSASVGDRVTITCRASQGIRNDLGWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKLEIK"/>
-    <m/>
+    <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="59"/>
     <n v="242"/>
@@ -3005,7 +3015,7 @@
     <m/>
     <s v="QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYAISWVRQAPGQGLEWMGGIIPIFGTANYAQKFQGRVTITADESTSTAYMELSSLRSEDTAVYYCARWYDGYFVYWGQGTLVTVSS"/>
     <s v="DIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK"/>
-    <m/>
+    <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="60"/>
     <n v="240"/>
@@ -3027,7 +3037,7 @@
     <m/>
     <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRQFWYSGLDYWGQGTLVTVFN"/>
     <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
-    <m/>
+    <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="61"/>
     <n v="243"/>
@@ -3049,7 +3059,7 @@
     <m/>
     <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYYGSTYYADSVKGRFTISADTSKNTAYLQMRAEDTAVYYCARGWRSYAMDYWGQGTLVTVSS"/>
     <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK"/>
-    <m/>
+    <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="62"/>
     <n v="238"/>
@@ -3071,7 +3081,7 @@
     <m/>
     <s v="QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYSFIWVRQAPGQGLEWMGGIIPIFGTANYAQKFQGRVTITADESTSTAYMELSSLRSEDTAVYYCARSSYSGVYYSWYFDVWGAGTTVTVSS"/>
     <s v="DIQMTQSPSSLSASVGDRVTITCRASQGISNYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK"/>
-    <m/>
+    <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="63"/>
     <n v="246"/>
@@ -3093,7 +3103,7 @@
     <m/>
     <s v="EVQLQESGPGLVKPSQTLSLTCTVSGGSISSYAAWSWIRQPPGKGLEWIGYIYSSSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARGDYSYSYYGLDYWGQGTLVTVSS"/>
     <s v="DIQMTQSPSSLSASVGDRVTITCRASQGIRNDLGWYQQKPGKAPKLLIYAASNLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRYTFGQGTKVEIK"/>
-    <m/>
+    <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="64"/>
     <n v="246"/>
@@ -3115,7 +3125,7 @@
     <m/>
     <s v="EVQLQQSGPELVKPGASVKMSCKASGYTFTSYNIHWVKQTPVHGLEWIGAIVSGGDTNYNENFKDKATLTVDKSSSTAYMQLTSEDSAVYYCARGGFYGDYWGQGTSVTVSS"/>
     <s v="DIVLTQSPATLSVTPGDSVSLSCRASQSVTNNIHWYQQKSHESPRLLIKYASQSISGIPSRFSGSGSGTDFTLSINSVETEDFGMYFCQQSNSWPYTFGGGTKLEIK"/>
-    <m/>
+    <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="65"/>
     <n v="235"/>
@@ -3124,7 +3134,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="66"/>
@@ -3137,7 +3147,7 @@
     <m/>
     <s v="QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGDYYWIRQHPGKGLEWIGYIYYSGSTYYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARQLWLRGRFDYWGQGTLVTVSS"/>
     <s v="DIQMTQSPSSLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK"/>
-    <m/>
+    <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="66"/>
     <n v="241"/>
@@ -3146,7 +3156,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="67"/>
@@ -3159,7 +3169,7 @@
     <m/>
     <s v="EVQLVESGGGLVQPGGSLRLSCAASGFTVSSNYMSWVRQAPGKGLEWVSVIYSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCAREAGVWVFDYWGQGTLVTVSS"/>
     <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
-    <m/>
+    <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="67"/>
     <n v="240"/>
@@ -3168,7 +3178,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="68"/>
@@ -3181,7 +3191,7 @@
     <m/>
     <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNLYSSSIHWVRQAPGKGLEWVASISSYYGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRQFWLWFGQGTLVTVSS"/>
     <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
-    <m/>
+    <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="68"/>
     <n v="239"/>
@@ -3190,7 +3200,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="69"/>
@@ -3203,7 +3213,7 @@
     <m/>
     <s v="VQLVQSGAEVKKPGASVKVSCKASGYTFTTYTISWVRQAPGQGLEWMGWINNSGGTNYAQKFQGRVTMTRDTSTSTVSAYMELRSEDTAVYYCATFVYGYSAYQPLTDDYGQMDVWGQGTTVTVSS"/>
     <s v="DIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWFQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSLLYPLTFGGGTKVEIK"/>
-    <m/>
+    <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="69"/>
     <n v="249"/>
@@ -3225,7 +3235,7 @@
     <m/>
     <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSSSGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARHRWWAHPYWGQGTLVTVSS"/>
     <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSYYITPYTFGQGTKVEIK"/>
-    <m/>
+    <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="70"/>
     <n v="241"/>
@@ -3247,7 +3257,7 @@
     <m/>
     <s v="EVQLVESGGGVVQPGRSLRLSCAASGFTFSSYAMHWVRQAPGKGLEWVAVIWYDGSNKYYADSVKGRFTISRDNSKNTLFLQMNSLRPEDTAVYYCARDTPMYYDVWGQGTTVTVSS"/>
     <s v="DIQLTQSPSSLSASVGDRVTITCRTSQDIDNYLNWYQQKPGKAPKLLIYYTSSLHSGVPSRFSGSGSGTDFTFTISSLQPEDIATYYCQQYDNLPITFGQGTKLEIK"/>
-    <m/>
+    <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="71"/>
     <n v="240"/>
@@ -3269,7 +3279,7 @@
     <m/>
     <s v="EVQLVESGGGLVQPGGSLRLSCAASGFTFSNYAMSWVRQAPGKGLEWVSAISGSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARLSPYNGSMDYWGQGTLVTVSS"/>
     <s v="VTQPASVSGSPGQSITISCTGTSSDIGAYNYVSWYQQHPGKAPKLMIYEVSKRPSGVSNRFSGSKSGNTASLTISGLQTEDEADYYCSSYTRSGSVVFGGGTKLTVL"/>
-    <m/>
+    <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="72"/>
     <n v="242"/>
@@ -3291,7 +3301,7 @@
     <m/>
     <s v="QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYTISWVRQAPGQGLEWMGGIIPILGIANYAQKFQGRVTITADKSTSTAYMELSSLRSEDTAVYYCARGDSSYVDSWDYWGQGTLVTVS"/>
     <s v="EIVLTQSPGTLSLSPGERATLSCRASQSVSSSYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPWTFGQGTKVEIK"/>
-    <m/>
+    <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="73"/>
     <n v="243"/>
@@ -3313,7 +3323,7 @@
     <m/>
     <s v="QVQLVESGGGVVQPGRSLRLSCAASGFTFSNYGMHWVRQAPGKGLEWVAVISDGSNKYYADSVKGRFTISRDNSKNTLYLQMRAEDTAVYYCARGSHSSRDYWGQGTLVTVSS"/>
     <s v="DIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPPYTFGQGTKVEIK"/>
-    <m/>
+    <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="74"/>
     <n v="237"/>
@@ -3335,7 +3345,7 @@
     <m/>
     <s v="VQLVQSGAEVKRPGSSVKVSCKTSGGTIFSTYVFWVRQAPGQGLEWMGGFPPKAGYIYAQKFQGRVTFTADESSSTTVYMEDLRSEDTAVYFCARFPYFVYDVWGQGTTVTVSS"/>
     <s v="DIQMTQSPSSLSASVGDRVTITCRASQSIGGYLAWYQQKPGKVPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK"/>
-    <m/>
+    <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="75"/>
     <n v="237"/>
@@ -3344,7 +3354,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="76"/>
@@ -3357,7 +3367,7 @@
     <m/>
     <s v="VQLQESGPGLVKPSQSLSLTCTVTGFSIDYNIYWGWIRQPPGKGLEWIGYIYSGSDTYNPSLKSRVTISVDTSKNQFSLKVNSVTAADTAVYYCARVVDLWYDDGKYASCVKGAIDYWGQGTLVTVSS"/>
     <s v="SVLTQPPSVSGAPGQRVTISCTGSSGAGYDVHWYQQLPGTAPKLLIYGNSNRPSGVPDRFSGSKSGTSASLAITGLQAEDEADYYCQSYDSSLSGWVFGGGTKLTVL"/>
-    <m/>
+    <b v="1"/>
     <s v="GGGSGGGSGGGS"/>
     <x v="76"/>
     <n v="247"/>
@@ -3366,7 +3376,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="77"/>
@@ -3379,7 +3389,7 @@
     <m/>
     <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVVDFSLHWVRQAPGKGLEWVASIYPYDGSAYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARWGYWPGEGWLGKYWGQGTLVTVS"/>
     <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEI"/>
-    <m/>
+    <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="77"/>
     <n v="243"/>
@@ -3388,7 +3398,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="78"/>
@@ -3401,7 +3411,7 @@
     <m/>
     <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSSYGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARWEGYRGDLWGQGTLVTVSS"/>
     <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYYEWLRTFGQGTKVEIK"/>
-    <m/>
+    <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="78"/>
     <n v="240"/>
@@ -3410,7 +3420,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="6"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="79"/>
@@ -3423,7 +3433,7 @@
     <n v="3"/>
     <s v="QVQLQESGPGLVKPSQTLSLTCTVSGGSVSSGSYYWSWIRQPPGKGLEWIGYIYYSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARVDSFYYGMDVWGQGTTVTVSS"/>
     <s v="DIQMTQSPSSLSASVGDRVTITCRASSGSSYDNGWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYLQDSNYTPRTFGQGTKVEIK"/>
-    <m/>
+    <b v="1"/>
     <s v="GGGSGGGSGGGSGGGS"/>
     <x v="79"/>
     <n v="243"/>
@@ -3436,6 +3446,28 @@
   </r>
   <r>
     <x v="80"/>
+    <x v="0"/>
+    <s v="peleke-phi-4"/>
+    <n v="0.5"/>
+    <s v="derivative"/>
+    <s v="sbio-nipahgpg-063"/>
+    <s v="nipah_gpG_compout"/>
+    <n v="3"/>
+    <s v="QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYTISWVRQAPGQGLEWMGRIIPIFGTANYAQKFQGRVTITADKSTSTAYMELSSLRSEDTAVYYCARYYDSYFDYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQCGNSFPWTFGGGTKLEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="80"/>
+    <n v="240"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="81"/>
     <x v="4"/>
     <m/>
     <m/>
@@ -3447,24 +3479,24 @@
     <m/>
     <m/>
     <m/>
-    <x v="80"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="6"/>
+    <x v="81"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="7"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{135D55CA-26D1-4FA2-9199-54D547F2C103}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{135D55CA-26D1-4FA2-9199-54D547F2C103}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:C13" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="81">
+      <items count="82">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -3514,7 +3546,7 @@
         <item x="46"/>
         <item x="47"/>
         <item x="48"/>
-        <item x="80"/>
+        <item x="81"/>
         <item x="49"/>
         <item x="50"/>
         <item x="51"/>
@@ -3546,6 +3578,7 @@
         <item x="77"/>
         <item x="78"/>
         <item x="79"/>
+        <item x="80"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -3568,7 +3601,7 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="81">
+      <items count="82">
         <item x="19"/>
         <item x="15"/>
         <item x="23"/>
@@ -3618,7 +3651,7 @@
         <item x="46"/>
         <item x="47"/>
         <item x="48"/>
-        <item x="80"/>
+        <item x="81"/>
         <item x="49"/>
         <item x="50"/>
         <item x="51"/>
@@ -3650,6 +3683,7 @@
         <item x="77"/>
         <item x="78"/>
         <item x="79"/>
+        <item x="80"/>
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -3659,15 +3693,16 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="8">
-        <item x="6"/>
+      <items count="9">
+        <item x="7"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
-        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item x="6"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -3678,1491 +3713,61 @@
   </rowFields>
   <rowItems count="10">
     <i>
-      <x/>
+      <x v="53"/>
       <x v="1"/>
-      <x v="19"/>
+      <x v="53"/>
     </i>
     <i>
-      <x v="6"/>
-      <x v="2"/>
-      <x v="5"/>
+      <x v="54"/>
+      <x v="1"/>
+      <x v="54"/>
     </i>
     <i>
-      <x v="8"/>
-      <x v="2"/>
-      <x v="23"/>
+      <x v="55"/>
+      <x v="1"/>
+      <x v="55"/>
     </i>
     <i>
-      <x v="9"/>
-      <x v="2"/>
-      <x v="13"/>
+      <x v="63"/>
+      <x v="1"/>
+      <x v="63"/>
     </i>
     <i>
-      <x v="12"/>
-      <x v="2"/>
-      <x v="11"/>
+      <x v="64"/>
+      <x v="1"/>
+      <x v="64"/>
     </i>
     <i>
-      <x v="14"/>
-      <x v="2"/>
-      <x v="20"/>
+      <x v="65"/>
+      <x v="1"/>
+      <x v="65"/>
     </i>
     <i>
-      <x v="22"/>
-      <x v="3"/>
-      <x v="12"/>
+      <x v="73"/>
+      <x v="1"/>
+      <x v="73"/>
     </i>
     <i>
-      <x v="23"/>
-      <x v="3"/>
-      <x v="2"/>
+      <x v="74"/>
+      <x v="1"/>
+      <x v="74"/>
     </i>
     <i>
-      <x v="27"/>
-      <x v="3"/>
-      <x v="24"/>
+      <x v="75"/>
+      <x v="1"/>
+      <x v="75"/>
     </i>
     <i>
-      <x v="28"/>
-      <x v="3"/>
-      <x v="4"/>
+      <x v="81"/>
+      <x v="1"/>
+      <x v="81"/>
     </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="19" item="1" hier="-1"/>
-  </pageFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{34D8D9BF-DD48-4B0D-B005-50CFC13EA4CA}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A4:C13" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="20">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="81">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="80"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="81">
-        <item x="19"/>
-        <item x="15"/>
-        <item x="23"/>
-        <item x="7"/>
-        <item x="28"/>
-        <item x="6"/>
-        <item x="11"/>
-        <item x="17"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="10"/>
-        <item x="12"/>
-        <item x="22"/>
-        <item x="9"/>
-        <item x="18"/>
-        <item x="13"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="14"/>
-        <item x="20"/>
-        <item x="16"/>
-        <item x="8"/>
-        <item x="27"/>
-        <item x="24"/>
-        <item x="26"/>
-        <item x="21"/>
-        <item x="25"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="80"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisPage" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="8">
-        <item x="6"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item m="1" x="7"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="3">
-    <field x="0"/>
-    <field x="1"/>
-    <field x="12"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x v="1"/>
-      <x v="1"/>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="1"/>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="1"/>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="1"/>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x/>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x v="2"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="10"/>
-      <x v="2"/>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-      <x v="2"/>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="13"/>
-      <x v="2"/>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="15"/>
-      <x v="2"/>
-      <x v="1"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="19" item="2" hier="-1"/>
-  </pageFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9A30A9A-0810-4D7B-BBE4-92BE215D0229}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A4:C12" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="20">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="81">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="80"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="81">
-        <item x="19"/>
-        <item x="15"/>
-        <item x="23"/>
-        <item x="7"/>
-        <item x="28"/>
-        <item x="6"/>
-        <item x="11"/>
-        <item x="17"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="10"/>
-        <item x="12"/>
-        <item x="22"/>
-        <item x="9"/>
-        <item x="18"/>
-        <item x="13"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="14"/>
-        <item x="20"/>
-        <item x="16"/>
-        <item x="8"/>
-        <item x="27"/>
-        <item x="24"/>
-        <item x="26"/>
-        <item x="21"/>
-        <item x="25"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="80"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisPage" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="8">
-        <item x="6"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item m="1" x="7"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="3">
-    <field x="0"/>
-    <field x="1"/>
-    <field x="12"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="16"/>
-      <x v="2"/>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="17"/>
-      <x v="2"/>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="18"/>
-      <x v="2"/>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="19"/>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i>
-      <x v="20"/>
-      <x v="2"/>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="21"/>
-      <x v="3"/>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="24"/>
-      <x v="3"/>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="25"/>
-      <x v="3"/>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="26"/>
-      <x v="3"/>
-      <x v="26"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="19" item="3" hier="-1"/>
-  </pageFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4154B109-E0E8-463A-8A38-71BCCBD1ABE8}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A4:C13" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="20">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="81">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="80"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="81">
-        <item x="19"/>
-        <item x="15"/>
-        <item x="23"/>
-        <item x="7"/>
-        <item x="28"/>
-        <item x="6"/>
-        <item x="11"/>
-        <item x="17"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="10"/>
-        <item x="12"/>
-        <item x="22"/>
-        <item x="9"/>
-        <item x="18"/>
-        <item x="13"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="14"/>
-        <item x="20"/>
-        <item x="16"/>
-        <item x="8"/>
-        <item x="27"/>
-        <item x="24"/>
-        <item x="26"/>
-        <item x="21"/>
-        <item x="25"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="80"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisPage" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="8">
-        <item x="6"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item m="1" x="7"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="3">
-    <field x="0"/>
-    <field x="1"/>
-    <field x="12"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x v="29"/>
-      <x v="1"/>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-      <x v="1"/>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-      <x v="1"/>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-      <x v="1"/>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="33"/>
-      <x v="1"/>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-      <x v="1"/>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-      <x v="1"/>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-      <x v="1"/>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-      <x v="1"/>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-      <x v="1"/>
-      <x v="38"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="19" item="4" hier="-1"/>
-  </pageFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D8BCE7CB-DCA8-443D-A73C-3A819111AB4F}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A4:C13" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="20">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="81">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="80"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="81">
-        <item x="19"/>
-        <item x="15"/>
-        <item x="23"/>
-        <item x="7"/>
-        <item x="28"/>
-        <item x="6"/>
-        <item x="11"/>
-        <item x="17"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="10"/>
-        <item x="12"/>
-        <item x="22"/>
-        <item x="9"/>
-        <item x="18"/>
-        <item x="13"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="14"/>
-        <item x="20"/>
-        <item x="16"/>
-        <item x="8"/>
-        <item x="27"/>
-        <item x="24"/>
-        <item x="26"/>
-        <item x="21"/>
-        <item x="25"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="80"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisPage" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="8">
-        <item x="6"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item m="1" x="7"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="3">
-    <field x="0"/>
-    <field x="1"/>
-    <field x="12"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x v="39"/>
-      <x v="1"/>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-      <x v="1"/>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="41"/>
-      <x v="1"/>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-      <x v="1"/>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-      <x v="1"/>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-      <x v="1"/>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="45"/>
-      <x v="1"/>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="46"/>
-      <x v="1"/>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-      <x v="1"/>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="48"/>
-      <x v="1"/>
-      <x v="48"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="19" item="5" hier="-1"/>
-  </pageFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{13C295D7-E972-4944-97A7-E1A4AD5CF827}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A4:C13" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="20">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="81">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="80"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="81">
-        <item x="19"/>
-        <item x="15"/>
-        <item x="23"/>
-        <item x="7"/>
-        <item x="28"/>
-        <item x="6"/>
-        <item x="11"/>
-        <item x="17"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="10"/>
-        <item x="12"/>
-        <item x="22"/>
-        <item x="9"/>
-        <item x="18"/>
-        <item x="13"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="14"/>
-        <item x="20"/>
-        <item x="16"/>
-        <item x="8"/>
-        <item x="27"/>
-        <item x="24"/>
-        <item x="26"/>
-        <item x="21"/>
-        <item x="25"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="80"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisPage" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="8">
-        <item x="6"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item m="1" x="7"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="3">
-    <field x="0"/>
-    <field x="1"/>
-    <field x="12"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x v="50"/>
-      <x v="1"/>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="51"/>
-      <x v="1"/>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="52"/>
-      <x v="1"/>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="60"/>
-      <x v="1"/>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="61"/>
-      <x v="1"/>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="62"/>
-      <x v="1"/>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="70"/>
-      <x v="1"/>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="71"/>
-      <x v="1"/>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="72"/>
-      <x v="1"/>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="80"/>
-      <x v="1"/>
-      <x v="80"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="19" item="6" hier="-1"/>
+    <pageField fld="19" item="8" hier="-1"/>
   </pageFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -5493,13 +4098,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V81"/>
+  <dimension ref="A1:V82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F83" sqref="F83"/>
+      <selection pane="bottomRight" activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5513,7 +4118,7 @@
     <col min="7" max="7" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="54" style="2" customWidth="1"/>
-    <col min="10" max="10" width="42.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="46.42578125" style="2" customWidth="1"/>
     <col min="11" max="11" width="16" style="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="2" customWidth="1"/>
     <col min="13" max="13" width="71.28515625" style="2" customWidth="1"/>
@@ -5590,10 +4195,10 @@
         <v>98</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="75" x14ac:dyDescent="0.25">
@@ -5658,7 +4263,7 @@
         <v>45968</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="V2" s="4">
         <v>0.01</v>
@@ -5726,7 +4331,7 @@
         <v>45969</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="V3" s="4">
         <v>0.01</v>
@@ -5794,7 +4399,7 @@
         <v>45969</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="V4" s="4">
         <v>0.01</v>
@@ -5862,7 +4467,7 @@
         <v>45969</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="V5" s="4">
         <v>0.01</v>
@@ -5930,7 +4535,7 @@
         <v>45969</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="V6" s="4">
         <v>0.23</v>
@@ -5994,7 +4599,7 @@
         <v>45969</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="V7" s="4">
         <v>0.39</v>
@@ -6067,7 +4672,7 @@
         <v>45968</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="V8" s="4">
         <v>0.09</v>
@@ -6140,7 +4745,7 @@
         <v>45969</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="V9" s="4">
         <v>0.11</v>
@@ -6213,7 +4818,7 @@
         <v>45968</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="V10" s="4">
         <v>0</v>
@@ -6286,7 +4891,7 @@
         <v>45968</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="V11" s="4">
         <v>0.26</v>
@@ -6353,7 +4958,7 @@
         <v>45969</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="V12" s="4">
         <v>0</v>
@@ -6426,7 +5031,7 @@
         <v>45969</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="V13" s="4">
         <v>0</v>
@@ -6499,7 +5104,7 @@
         <v>45968</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="V14" s="4">
         <v>0.08</v>
@@ -6566,7 +5171,7 @@
         <v>45969</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="V15" s="4">
         <v>0.01</v>
@@ -6639,7 +5244,7 @@
         <v>45968</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="V16" s="4">
         <v>0.13</v>
@@ -6712,7 +5317,7 @@
         <v>45969</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="V17" s="4">
         <v>0</v>
@@ -6785,7 +5390,7 @@
         <v>45970</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="V18" s="4">
         <v>0</v>
@@ -6858,7 +5463,7 @@
         <v>45970</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="V19" s="4">
         <v>0</v>
@@ -6931,7 +5536,7 @@
         <v>45970</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="V20" s="4">
         <v>0.01</v>
@@ -7004,7 +5609,7 @@
         <v>45970</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="V21" s="4">
         <v>0.02</v>
@@ -7077,7 +5682,7 @@
         <v>45970</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="V22" s="4">
         <v>0.01</v>
@@ -7144,7 +5749,7 @@
         <v>45970</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="V23" s="4">
         <v>0.01</v>
@@ -7217,7 +5822,7 @@
         <v>45968</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="V24" s="4">
         <v>0</v>
@@ -7290,7 +5895,7 @@
         <v>45968</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="V25" s="4">
         <v>0.01</v>
@@ -7363,7 +5968,7 @@
         <v>45970</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="V26" s="4">
         <v>0.01</v>
@@ -7436,7 +6041,7 @@
         <v>45970</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="V27" s="4">
         <v>0.01</v>
@@ -7509,7 +6114,7 @@
         <v>45970</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="V28" s="4">
         <v>0</v>
@@ -7582,7 +6187,7 @@
         <v>45968</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="V29" s="4">
         <v>0.05</v>
@@ -7655,7 +6260,7 @@
         <v>45968</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="V30" s="4">
         <v>0</v>
@@ -7663,7 +6268,7 @@
     </row>
     <row r="31" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>18</v>
@@ -7681,10 +6286,10 @@
         <v>4</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="K31" s="1" t="b">
         <v>1</v>
@@ -7714,12 +6319,12 @@
         <v>45971</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>294</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>18</v>
@@ -7737,10 +6342,10 @@
         <v>4</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="K32" s="1" t="b">
         <v>1</v>
@@ -7770,7 +6375,7 @@
         <v>45971</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="V32" s="4">
         <v>0.01</v>
@@ -7778,7 +6383,7 @@
     </row>
     <row r="33" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>18</v>
@@ -7796,10 +6401,10 @@
         <v>4</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="K33" s="1" t="b">
         <v>1</v>
@@ -7829,7 +6434,7 @@
         <v>45971</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>293</v>
+        <v>244</v>
       </c>
       <c r="V33" s="4">
         <v>0</v>
@@ -7837,7 +6442,7 @@
     </row>
     <row r="34" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>18</v>
@@ -7855,10 +6460,10 @@
         <v>4</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="K34" s="1" t="b">
         <v>1</v>
@@ -7888,7 +6493,7 @@
         <v>45971</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>285</v>
+        <v>236</v>
       </c>
       <c r="V34" s="4">
         <v>0.14000000000000001</v>
@@ -7896,7 +6501,7 @@
     </row>
     <row r="35" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>18</v>
@@ -7914,10 +6519,10 @@
         <v>4</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K35" s="1" t="b">
         <v>1</v>
@@ -7947,7 +6552,7 @@
         <v>45971</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="V35" s="4">
         <v>0.01</v>
@@ -7955,7 +6560,7 @@
     </row>
     <row r="36" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>18</v>
@@ -7973,10 +6578,10 @@
         <v>4</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="K36" s="1" t="b">
         <v>1</v>
@@ -8006,7 +6611,7 @@
         <v>45971</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>287</v>
+        <v>238</v>
       </c>
       <c r="V36" s="4">
         <v>0</v>
@@ -8014,7 +6619,7 @@
     </row>
     <row r="37" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>18</v>
@@ -8032,10 +6637,10 @@
         <v>4</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="K37" s="1" t="b">
         <v>1</v>
@@ -8065,7 +6670,7 @@
         <v>45971</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>288</v>
+        <v>239</v>
       </c>
       <c r="V37" s="4">
         <v>0.12</v>
@@ -8073,7 +6678,7 @@
     </row>
     <row r="38" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>18</v>
@@ -8091,10 +6696,10 @@
         <v>4</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="K38" s="1" t="b">
         <v>1</v>
@@ -8124,7 +6729,7 @@
         <v>45971</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="V38" s="4">
         <v>0.11</v>
@@ -8132,7 +6737,7 @@
     </row>
     <row r="39" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>18</v>
@@ -8150,10 +6755,10 @@
         <v>4</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="K39" s="1" t="b">
         <v>1</v>
@@ -8183,7 +6788,7 @@
         <v>45971</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>289</v>
+        <v>240</v>
       </c>
       <c r="V39" s="4">
         <v>0.05</v>
@@ -8191,7 +6796,7 @@
     </row>
     <row r="40" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>18</v>
@@ -8209,10 +6814,10 @@
         <v>4</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="K40" s="1" t="b">
         <v>1</v>
@@ -8242,7 +6847,7 @@
         <v>45971</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="V40" s="4">
         <v>0.01</v>
@@ -8250,7 +6855,7 @@
     </row>
     <row r="41" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>18</v>
@@ -8268,10 +6873,10 @@
         <v>4</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="K41" s="1" t="b">
         <v>1</v>
@@ -8301,7 +6906,7 @@
         <v>45972</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>295</v>
+        <v>246</v>
       </c>
       <c r="V41" s="4">
         <v>0.02</v>
@@ -8309,7 +6914,7 @@
     </row>
     <row r="42" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>18</v>
@@ -8327,10 +6932,10 @@
         <v>4</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="K42" s="1" t="b">
         <v>1</v>
@@ -8360,7 +6965,7 @@
         <v>45972</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>297</v>
+        <v>248</v>
       </c>
       <c r="V42" s="4">
         <v>0</v>
@@ -8368,7 +6973,7 @@
     </row>
     <row r="43" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>18</v>
@@ -8386,10 +6991,10 @@
         <v>4</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="K43" s="1" t="b">
         <v>1</v>
@@ -8419,7 +7024,7 @@
         <v>45972</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>296</v>
+        <v>247</v>
       </c>
       <c r="V43" s="4">
         <v>0.01</v>
@@ -8427,7 +7032,7 @@
     </row>
     <row r="44" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>18</v>
@@ -8445,10 +7050,10 @@
         <v>4</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="K44" s="1" t="b">
         <v>1</v>
@@ -8478,7 +7083,7 @@
         <v>45972</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>299</v>
+        <v>250</v>
       </c>
       <c r="V44" s="4">
         <v>0.01</v>
@@ -8486,7 +7091,7 @@
     </row>
     <row r="45" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>18</v>
@@ -8504,10 +7109,10 @@
         <v>4</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="K45" s="1" t="b">
         <v>1</v>
@@ -8537,7 +7142,7 @@
         <v>45972</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>298</v>
+        <v>249</v>
       </c>
       <c r="V45" s="4">
         <v>0</v>
@@ -8545,7 +7150,7 @@
     </row>
     <row r="46" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>18</v>
@@ -8563,10 +7168,10 @@
         <v>4</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="K46" s="1" t="b">
         <v>1</v>
@@ -8596,7 +7201,7 @@
         <v>45972</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="V46" s="4">
         <v>0.12</v>
@@ -8604,7 +7209,7 @@
     </row>
     <row r="47" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>18</v>
@@ -8622,10 +7227,10 @@
         <v>4</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="K47" s="1" t="b">
         <v>1</v>
@@ -8655,7 +7260,7 @@
         <v>45972</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
       <c r="V47" s="4">
         <v>0.16</v>
@@ -8663,7 +7268,7 @@
     </row>
     <row r="48" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>18</v>
@@ -8681,10 +7286,10 @@
         <v>4</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="K48" s="1" t="b">
         <v>1</v>
@@ -8714,7 +7319,7 @@
         <v>45972</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="V48" s="4">
         <v>0</v>
@@ -8722,7 +7327,7 @@
     </row>
     <row r="49" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>18</v>
@@ -8740,10 +7345,10 @@
         <v>4</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="K49" s="1" t="b">
         <v>1</v>
@@ -8773,7 +7378,7 @@
         <v>45972</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="V49" s="4">
         <v>0.09</v>
@@ -8781,7 +7386,7 @@
     </row>
     <row r="50" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>18</v>
@@ -8799,10 +7404,10 @@
         <v>4</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="K50" s="1" t="b">
         <v>1</v>
@@ -8832,7 +7437,7 @@
         <v>45972</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="V50" s="4">
         <v>0</v>
@@ -8840,7 +7445,7 @@
     </row>
     <row r="51" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>18</v>
@@ -8855,13 +7460,16 @@
         <v>42</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>343</v>
+        <v>294</v>
+      </c>
+      <c r="K51" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>125</v>
@@ -8887,10 +7495,16 @@
       <c r="T51" s="10">
         <v>45973</v>
       </c>
+      <c r="U51" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="V51" s="4">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="52" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>313</v>
+        <v>264</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>18</v>
@@ -8905,13 +7519,16 @@
         <v>42</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>345</v>
+        <v>296</v>
+      </c>
+      <c r="K52" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>125</v>
@@ -8937,10 +7554,16 @@
       <c r="T52" s="10">
         <v>45973</v>
       </c>
+      <c r="U52" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="V52" s="4">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="53" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>314</v>
+        <v>265</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>18</v>
@@ -8955,13 +7578,16 @@
         <v>42</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>345</v>
+        <v>296</v>
+      </c>
+      <c r="K53" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>125</v>
@@ -8987,10 +7613,16 @@
       <c r="T53" s="10">
         <v>45973</v>
       </c>
+      <c r="U53" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="V53" s="4">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="54" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>315</v>
+        <v>266</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>18</v>
@@ -9005,13 +7637,16 @@
         <v>42</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>345</v>
+        <v>296</v>
+      </c>
+      <c r="K54" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>125</v>
@@ -9034,11 +7669,13 @@
       <c r="Q54" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T54" s="10"/>
+      <c r="T54" s="10">
+        <v>45974</v>
+      </c>
     </row>
     <row r="55" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>316</v>
+        <v>267</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>18</v>
@@ -9053,13 +7690,16 @@
         <v>42</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>349</v>
+        <v>300</v>
+      </c>
+      <c r="K55" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>125</v>
@@ -9082,11 +7722,13 @@
       <c r="Q55" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T55" s="10"/>
+      <c r="T55" s="10">
+        <v>45974</v>
+      </c>
     </row>
     <row r="56" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>18</v>
@@ -9101,13 +7743,16 @@
         <v>42</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>345</v>
+        <v>296</v>
+      </c>
+      <c r="K56" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L56" s="2" t="s">
         <v>125</v>
@@ -9130,11 +7775,13 @@
       <c r="Q56" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T56" s="10"/>
+      <c r="T56" s="10">
+        <v>45974</v>
+      </c>
     </row>
     <row r="57" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>18</v>
@@ -9149,13 +7796,16 @@
         <v>42</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>345</v>
+        <v>296</v>
+      </c>
+      <c r="K57" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>125</v>
@@ -9182,7 +7832,7 @@
     </row>
     <row r="58" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>18</v>
@@ -9197,13 +7847,16 @@
         <v>42</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>353</v>
+        <v>304</v>
+      </c>
+      <c r="K58" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>125</v>
@@ -9230,7 +7883,7 @@
     </row>
     <row r="59" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>18</v>
@@ -9245,13 +7898,16 @@
         <v>42</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>345</v>
+        <v>296</v>
+      </c>
+      <c r="K59" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>125</v>
@@ -9278,7 +7934,7 @@
     </row>
     <row r="60" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>321</v>
+        <v>272</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>18</v>
@@ -9293,13 +7949,16 @@
         <v>42</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>345</v>
+        <v>296</v>
+      </c>
+      <c r="K60" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>125</v>
@@ -9326,7 +7985,7 @@
     </row>
     <row r="61" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>18</v>
@@ -9341,13 +8000,16 @@
         <v>42</v>
       </c>
       <c r="G61" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I61" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="I61" s="2" t="s">
-        <v>356</v>
-      </c>
       <c r="J61" s="2" t="s">
-        <v>357</v>
+        <v>308</v>
+      </c>
+      <c r="K61" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>125</v>
@@ -9373,10 +8035,16 @@
       <c r="T61" s="10">
         <v>45973</v>
       </c>
+      <c r="U61" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="V61" s="4">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="62" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>323</v>
+        <v>274</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>18</v>
@@ -9391,13 +8059,16 @@
         <v>42</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="K62" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>125</v>
@@ -9423,10 +8094,16 @@
       <c r="T62" s="10">
         <v>45973</v>
       </c>
+      <c r="U62" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="V62" s="4">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="63" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>18</v>
@@ -9441,13 +8118,16 @@
         <v>42</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>359</v>
+        <v>310</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>345</v>
+        <v>296</v>
+      </c>
+      <c r="K63" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>125</v>
@@ -9473,10 +8153,16 @@
       <c r="T63" s="10">
         <v>45973</v>
       </c>
+      <c r="U63" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="V63" s="4">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="64" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>325</v>
+        <v>276</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>18</v>
@@ -9491,13 +8177,16 @@
         <v>42</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>353</v>
+        <v>304</v>
+      </c>
+      <c r="K64" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>125</v>
@@ -9520,11 +8209,13 @@
       <c r="Q64" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T64" s="10"/>
-    </row>
-    <row r="65" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="T64" s="10">
+        <v>45974</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>326</v>
+        <v>277</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>18</v>
@@ -9539,13 +8230,16 @@
         <v>42</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>362</v>
+        <v>313</v>
+      </c>
+      <c r="K65" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>125</v>
@@ -9568,11 +8262,13 @@
       <c r="Q65" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T65" s="10"/>
-    </row>
-    <row r="66" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="T65" s="10">
+        <v>45974</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>327</v>
+        <v>278</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>18</v>
@@ -9587,13 +8283,16 @@
         <v>42</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>363</v>
+        <v>314</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>364</v>
+        <v>315</v>
+      </c>
+      <c r="K66" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>125</v>
@@ -9616,11 +8315,13 @@
       <c r="Q66" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T66" s="10"/>
-    </row>
-    <row r="67" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="T66" s="10">
+        <v>45974</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>328</v>
+        <v>279</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>18</v>
@@ -9635,19 +8336,22 @@
         <v>42</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>365</v>
+        <v>316</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>366</v>
+        <v>317</v>
+      </c>
+      <c r="K67" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>125</v>
       </c>
       <c r="M67" s="2" t="str">
-        <f t="shared" ref="M67:M81" si="3">_xlfn.CONCAT(I67,L67,J67)</f>
+        <f t="shared" ref="M67:M82" si="3">_xlfn.CONCAT(I67,L67,J67)</f>
         <v>EVQLQQSGPELVKPGASVKMSCKASGYTFTSYNIHWVKQTPVHGLEWIGAIVSGGDTNYNENFKDKATLTVDKSSSTAYMQLTSEDSAVYYCARGGFYGDYWGQGTSVTVSSGGGSGGGSGGGSGGGSDIVLTQSPATLSVTPGDSVSLSCRASQSVTNNIHWYQQKSHESPRLLIKYASQSISGIPSRFSGSGSGTDFTLSINSVETEDFGMYFCQQSNSWPYTFGGGTKLEIK</v>
       </c>
       <c r="N67" s="4">
@@ -9655,7 +8359,7 @@
         <v>235</v>
       </c>
       <c r="O67" s="1" t="b">
-        <f t="shared" ref="O67:O81" si="4">IF(N67&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" ref="O67:O82" si="4">IF(N67&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P67" s="1" t="b">
@@ -9666,9 +8370,9 @@
       </c>
       <c r="T67" s="10"/>
     </row>
-    <row r="68" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>18</v>
@@ -9683,13 +8387,16 @@
         <v>42</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>368</v>
+        <v>319</v>
+      </c>
+      <c r="K68" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>125</v>
@@ -9714,9 +8421,9 @@
       </c>
       <c r="T68" s="10"/>
     </row>
-    <row r="69" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>18</v>
@@ -9731,13 +8438,16 @@
         <v>42</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>345</v>
+        <v>296</v>
+      </c>
+      <c r="K69" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>125</v>
@@ -9762,9 +8472,9 @@
       </c>
       <c r="T69" s="10"/>
     </row>
-    <row r="70" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>18</v>
@@ -9779,13 +8489,16 @@
         <v>42</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>370</v>
+        <v>321</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>345</v>
+        <v>296</v>
+      </c>
+      <c r="K70" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>125</v>
@@ -9810,9 +8523,9 @@
       </c>
       <c r="T70" s="10"/>
     </row>
-    <row r="71" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>18</v>
@@ -9827,13 +8540,16 @@
         <v>42</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>371</v>
+        <v>322</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>372</v>
+        <v>323</v>
+      </c>
+      <c r="K71" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>125</v>
@@ -9843,7 +8559,7 @@
         <v>VQLVQSGAEVKKPGASVKVSCKASGYTFTTYTISWVRQAPGQGLEWMGWINNSGGTNYAQKFQGRVTMTRDTSTSTVSAYMELRSEDTAVYYCATFVYGYSAYQPLTDDYGQMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWFQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSLLYPLTFGGGTKVEIK</v>
       </c>
       <c r="N71" s="4">
-        <f t="shared" ref="N71:N81" si="5">LEN(M71)</f>
+        <f t="shared" ref="N71:N82" si="5">LEN(M71)</f>
         <v>249</v>
       </c>
       <c r="O71" s="1" t="b">
@@ -9859,10 +8575,16 @@
       <c r="T71" s="10">
         <v>45973</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="U71" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="V71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>18</v>
@@ -9877,13 +8599,16 @@
         <v>42</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>373</v>
+        <v>324</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>374</v>
+        <v>325</v>
+      </c>
+      <c r="K72" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>125</v>
@@ -9909,10 +8634,16 @@
       <c r="T72" s="10">
         <v>45973</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="U72" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="V72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>18</v>
@@ -9927,13 +8658,16 @@
         <v>42</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>375</v>
+        <v>326</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>376</v>
+        <v>327</v>
+      </c>
+      <c r="K73" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>125</v>
@@ -9959,10 +8693,16 @@
       <c r="T73" s="10">
         <v>45973</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="U73" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="V73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>18</v>
@@ -9977,13 +8717,16 @@
         <v>42</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>377</v>
+        <v>328</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>378</v>
+        <v>329</v>
+      </c>
+      <c r="K74" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>125</v>
@@ -10006,11 +8749,13 @@
       <c r="Q74" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T74" s="10"/>
-    </row>
-    <row r="75" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="T74" s="10">
+        <v>45974</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>18</v>
@@ -10025,13 +8770,16 @@
         <v>42</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>379</v>
+        <v>330</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>380</v>
+        <v>331</v>
+      </c>
+      <c r="K75" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>125</v>
@@ -10054,11 +8802,13 @@
       <c r="Q75" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T75" s="10"/>
-    </row>
-    <row r="76" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="T75" s="10">
+        <v>45974</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>337</v>
+        <v>288</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>18</v>
@@ -10073,13 +8823,16 @@
         <v>42</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>382</v>
+        <v>333</v>
+      </c>
+      <c r="K76" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>125</v>
@@ -10102,11 +8855,13 @@
       <c r="Q76" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T76" s="10"/>
-    </row>
-    <row r="77" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="T76" s="10">
+        <v>45974</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>18</v>
@@ -10121,13 +8876,16 @@
         <v>42</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>383</v>
+        <v>334</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>384</v>
+        <v>335</v>
+      </c>
+      <c r="K77" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>125</v>
@@ -10152,9 +8910,9 @@
       </c>
       <c r="T77" s="10"/>
     </row>
-    <row r="78" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>18</v>
@@ -10169,13 +8927,16 @@
         <v>42</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>385</v>
+        <v>336</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>386</v>
+        <v>337</v>
+      </c>
+      <c r="K78" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>126</v>
@@ -10200,9 +8961,9 @@
       </c>
       <c r="T78" s="10"/>
     </row>
-    <row r="79" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>18</v>
@@ -10217,13 +8978,16 @@
         <v>42</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
+      </c>
+      <c r="K79" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>125</v>
@@ -10248,9 +9012,9 @@
       </c>
       <c r="T79" s="10"/>
     </row>
-    <row r="80" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>18</v>
@@ -10265,13 +9029,16 @@
         <v>42</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>389</v>
+        <v>340</v>
+      </c>
+      <c r="K80" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>125</v>
@@ -10296,9 +9063,9 @@
       </c>
       <c r="T80" s="10"/>
     </row>
-    <row r="81" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>18</v>
@@ -10313,19 +9080,22 @@
         <v>49</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="H81" s="1">
         <v>3</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>392</v>
+        <v>343</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>393</v>
+        <v>344</v>
+      </c>
+      <c r="K81" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="L81" s="2" t="s">
         <v>125</v>
@@ -10351,31 +9121,96 @@
       <c r="T81" s="10">
         <v>45973</v>
       </c>
+      <c r="U81" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="V81" s="4">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H82" s="1">
+        <v>3</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="K82" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M82" s="2" t="str">
+        <f>_xlfn.CONCAT(I82,L82,J82)</f>
+        <v>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYTISWVRQAPGQGLEWMGRIIPIFGTANYAQKFQGRVTITADKSTSTAYMELSSLRSEDTAVYYCARYYDSYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQCGNSFPWTFGGGTKLEIK</v>
+      </c>
+      <c r="N82" s="4">
+        <f t="shared" si="5"/>
+        <v>240</v>
+      </c>
+      <c r="O82" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P82" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T82" s="10">
+        <v>45974</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V80" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:V81" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K1:L1048576">
-    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="5" priority="15">
+    <cfRule type="containsBlanks" dxfId="16" priority="15">
       <formula>LEN(TRIM(K1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O81">
-    <cfRule type="containsBlanks" dxfId="4" priority="7">
+  <conditionalFormatting sqref="O2:O82">
+    <cfRule type="containsBlanks" dxfId="15" priority="7">
       <formula>LEN(TRIM(O2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:S2 R3:S22 O3:Q81">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+  <conditionalFormatting sqref="O2:S2 O3:Q82 R3:S22">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10392,10 +9227,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V22">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10409,7 +9244,7 @@
   <dimension ref="A1:AMM4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10431,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>280</v>
+        <v>231</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>97</v>
@@ -10446,10 +9281,10 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>132</v>
@@ -10466,7 +9301,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>282</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -10478,10 +9313,10 @@
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="I2" s="1">
         <v>0.55449599999999999</v>
@@ -10492,25 +9327,25 @@
     </row>
     <row r="3" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>283</v>
+        <v>234</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="I3" s="1">
         <v>0.79488899999999996</v>
@@ -10521,25 +9356,25 @@
     </row>
     <row r="4" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -10549,6 +9384,247 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F39314-0648-4D13-9FBE-8D5595154332}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="48.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="74" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f>_xlfn.CONCAT(C2,E2,D2)</f>
+        <v>QSLEESGGRLVTPGTPLTLTCTASGFSLSSYYMMWVRQAPGKGLEWIGIINTGGNAYYASWTKGRFTISKTSTTVDLKITSPTTEDTATYFCARAVPSGAGYSAGGLWGPGTLVTVSSGGGSGGGSGGGSGGGSDQVLTQTPASVEAAVGGTVTIKCQASQSVGFYLSWYQQKPGQPPKLLIYRASTLESGVPSRFKGSGSGTEFTLTISDLECADAATYYCQTNDYLASSAFGGGTEVVVRGDP</v>
+      </c>
+      <c r="G2" s="4">
+        <f>LEN(F2)</f>
+        <v>245</v>
+      </c>
+      <c r="H2" s="1" t="b">
+        <f>IF(G2&lt;=250,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.15832499999999999</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.23402200000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f>_xlfn.CONCAT(C3,E3,D3)</f>
+        <v>EVQLQQSGAELVKPGASVKLSCTASGFNIKDTYMYWVKQRPEQGLEWIGRIDPANGDTKYDPKFQGKATITTDTFSNTAYLQLSSLTSEDTAVYYCARKGLRWAMDYWGQGTSVTVSTGGGSGGGSGGGSGGGSNIVMTQSPKSMSMSVGERVTLSCKASEYVGTYVSWYQQKPEQSPKLLIYGASNRYTGVPDRFTGSGSATDFTLTIGSVQAEDLADYHCGQSYSYPTFGAGTKLELKRA</v>
+      </c>
+      <c r="G3" s="4">
+        <f>LEN(F3)</f>
+        <v>242</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <f>IF(G3&lt;=250,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>4.9750000000000003E-3</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f>_xlfn.CONCAT(C4,E4,D4)</f>
+        <v>DVQLQESGPGLVKPSQSLSLTCSVTGYSITSDYYWNWIRQFPGNKLEWMGYVTYDGSNNYNPSLKNRISITRDSSKNQFFLKLNSVISEDTATYYCARFGSSYWAMDYWGQGTSLTVSSGGGSGGGSGGGSGGGSQIVLTQSPAIMSASLGEAITLTCSASSSVSYMHWYQQKSGTSPKLLIYSTSNLASGVPSRFSGSGSGTFYSLTISSVEAEDAADYYCHQWYSYPWTFGGGTKLEIK</v>
+      </c>
+      <c r="G4" s="4">
+        <f>LEN(F4)</f>
+        <v>241</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <f>IF(G4&lt;=250,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
+        <v>5.2248000000000003E-2</v>
+      </c>
+      <c r="J4" s="4">
+        <v>5.3319999999999999E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E1:E4">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H4">
+    <cfRule type="containsBlanks" dxfId="8" priority="10">
+      <formula>LEN(TRIM(H2))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:J2">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:J2">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:J3">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:J4">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C06239D-77DB-4F47-9412-C7BA2E2E54B1}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -10592,31 +9668,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>391</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>282</v>
+        <v>233</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>283</v>
+        <v>234</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>311</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>304</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -10624,17 +9700,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036FE0EC-FC47-C643-AAB5-7D34FF5161C9}">
-  <dimension ref="A2:C31"/>
+  <dimension ref="A2:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A29" sqref="A29:A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -10646,1171 +9722,177 @@
         <v>98</v>
       </c>
       <c r="B2" s="9">
-        <v>45968</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>266</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>267</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>268</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>276</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>277</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>278</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>286</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>287</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>288</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>378</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f>_xlfn.CONCAT("&gt;",A4,"|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ",B4,"\n",C4)</f>
-        <v>&gt;sbio-nipahgpg-001|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1\nQVQLVESGGGVVQPGRSLRLSCAASGFTFSSYGMHWVRQAPGKGLEWVAVISYDGSKKYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARSPFYDSSGYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISSYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQANSFPPTFGQGTKVEIK</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <f t="shared" ref="A23:A31" si="0">_xlfn.CONCAT("&gt;",A5,"|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ",B5,"\n",C5)</f>
-        <v>&gt;sbio-nipahgpg-009|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1 + ProteinMPNN\nAVSLVESGGGTVKPGESVTLSCQASGFNFSKYQWVWVRQAPGKGLEWVGQISPDGSKTRYHPSVAGRFTISRDNSNSTLYLHMSNLRPEDTAVYYCGIIPQDNVHGDYSISHWGQGTLLTVSAGGGSGGGSGGGSGGGSAIKLTQSPKSLSASVGDTVTINCTASRPIGDLLSWYKQKPGKPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSSDFATYYCRQTSRFPITFGEGTTINKK</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-011|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1 + ProteinMPNN\nSISLVESGGGTVAPGSSVTLSCQASGFNFSKYSKAWVRQPPGQPLEWVSRISPDGSTKYYHPDVAGRFTISKDNSKSTVYLAMSNLTAADTATYYCGIIPGDNTHGDYAMSHWGQGTLLTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTISCTASRPIGDKLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTSFTLTISSLQEDDFATYYCQQTYTLPITFGQGTTISKK</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-012|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1 + ProteinMPNN\nGVSLTESGGGTVAPGSSVTLSCKASGFNFSKYSHAWVRQAPGQGLTWVGEISPDGSKTRYASSVAGRFTISRDNSNSTVYLQMSSLTPSDTATYYCGIIPGDSVHGERSMSHWGQGTLLTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTLNCTASRPIGDRLSWYKQKPGQAPQLLIYRASTLAPGVSSRYSGSGSDTQFTLTISSLQSDDFATYYCQQTSSYPVTFGQGTTITKK</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-015|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1 + ProteinMPNN\nGISLVESGGGTVKPGESVTLSCKASGFVFSKYSHAWVRQPPGGPLEWVSQISSDGSVTRYASSVSGRFTISRDNSNSTVYLQMNNLRPSDTATYYCGIIPQDNVHGDYAISHWGQGTLLTVTAGGGSGGGSGGGSGGGSAITLTQSPASLSAKVGDTVTLSCTASRPIGDLLSWYKQKPGQPPQLLIYRASTLAPGVDSRYSGSGSDTSFTLTISSLQPEDFATYYCQQTSRFPITFGQGTTIKQA</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-017|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: peleke-1 + ProteinMPNN\nSIKLTESGGGTVKPGSSVTLSCQASGFNFSKYEVVWVMQKPGQPLQWVGSISPDGSKVRLHPKVKGRFTLSKDNSKNTAYLTMKNLQPEDTATYYCGIIPGGSVHGDRSITHWGQGVELKVVAGGGSGGGSGGGSGGGSMIKLTQSPKSVKAKVGDTVTITCTASEPVDDLVSWYQQKPGQPLRLLIYRSSTLAPGVSSRFSGSGSDTNFTLTISSLQEEDFATYYCMQTSKYPYTFGQGTTLSRA</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-025|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ProteinMPNN\nGVKLVQSGDLTVKPGGSVTLSCKSEGGSFGNSSVAWVRQRPGGPYEYIGSIIPAYGVSRVSPEYEGRVTISADVANNTAYLTISNLTPEDTATYYCALGPGEVVYAASPFDEKLLTGALSVWGEGTLVTVTGGGSGGGSGGGSITVTQSPSSPSLSVGDTATLTCTLSSSVATSNVAWYKQLPGQPPELLISGGSTRAPGVPSRYSGSGSGTTFTLTISSLQASDFATYYCQVYGENPSFGQGTTLTLK</v>
+        <v>381</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-026|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ProteinMPNN\nAVKLVQSGDQTVAPGGSVTLSCTSSGGSFGNSSVAWVRQRPGGPFEFIGSIIPSLGISRYNSKYKGRVTISSDAANNTAYLTISNLTAADTATYYCALGPGESVFASHPFKEKLLTGALSVWGEGTLVTVSGGGSGGGSGGGSITVTQSPSSPSKSVGDTVTLTCTLSSSVPVSQVAWYKQHPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLQPEDFATYYCQVYGEEPSFGQGTTVTLA</v>
+        <f>_xlfn.CONCAT("&gt;",A4,"\n",C4)</f>
+        <v>&gt;sbio-nipahgpg-055\nEVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGSSYFGYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-030|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ProteinMPNN\nSISLVQSSDQTVAPGGSVTLSCTSSGGSFGNSGVAWVRQAPGGPPVYIGGIIPATGVSTYNAAFKGRVTISSDSSNNTAYLTISGLTAADTATYYCALGPAENVFASHPFAEDVNLGALSVWGQGTLVTVTGGGSGGGSGGGSITVTESPSSPELSVGETAVLSCTLSSSVPQSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLEPEDFATYYCQVYGTSPSFGQGTTLKLK</v>
+        <f t="shared" ref="A30:A38" si="0">_xlfn.CONCAT("&gt;",A5,"\n",C5)</f>
+        <v>&gt;sbio-nipahgpg-056\nQVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYSISWVRQAPGQGLEWMGGIIIFGTANYAQKFQGRVTITADESTSTAYMELSSLRSEDTAVYYCARGQGTLVDFYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-031|anti-Nipha virus glycoprotein G Fv sequence|Designed by Silico Biosciences using: ProteinMPNN\nAVSLVESGDQTVAPGGSVTLSCTSSGGSFGNSGVAWVRQAPGGPLEFLGFIIPALGVSKVNSKYEGRVTISSDPANNTAYLTISNLTAADTATYYCGLGTGESVFASSPFDEKLLLGALSVWGQGTKVTVTGGGSGGGSGGGSITVTQSPASPEKKVGETATLTCTLSSAVPKSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLQPEDFATYYCRVYGEEPSFGQGTTLKLK</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CF9A8A-9767-46C1-B0D1-2A19AD7C2699}">
-  <dimension ref="A2:C31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="9">
-        <v>45969</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f>_xlfn.CONCAT("&gt;",A4,"\n",C4)</f>
-        <v>&gt;sbio-nipahgpg-002\nQVQLVESGGGVVQPGKSLRLSCAASGFTFSSYAMSWVRQAPGKGPEWVAFISYDGSNNYYADSVKGRFTISRDNPKNTLYLQMKSLRAEDTAVYYCARWRQRFDMYWGRGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <f t="shared" ref="A23:A31" si="0">_xlfn.CONCAT("&gt;",A5,"\n",C5)</f>
-        <v>&gt;sbio-nipahgpg-003\nQVQLQESGPGLVKPSETLSLTCTVSGASIRGYYWSWIRQFPGKELEWIGYVYSGSTENYNPSLKSRVTVTLTDTKNSFSLKLNSVTSEDTAVYYCARGGALIYYDVWGTGTTVTVSSGGGSGGGSGGGSGGGSDIQVTQSPVSLSASVGDRVTITCRASQGIDSLNWFQQRPGKAPKLLIYAASQLTGIAPRFRSGSGSGTDFTLTISSLQPEDFATYYCQQYNIYPATFGQGTKVEIK</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
+        <v>&gt;sbio-nipahgpg-057\nEVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASIYPYSGYTNYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGYGYWGYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-004\nEVQLVQSGAEVKKPGESLKISCKGSGYTFSYYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAMYYCARGEGVFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSYTLTQAPSVSASGQSVTISCTGTSRDVGTYWYQQIPGRAPKLLIHDKSENQGKTPGIPDRFSGSKSGNTASLVIIRGLQADDEADYYCNSYHGSGSNIFGGGTKLTVD</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
+        <v>&gt;sbio-nipahgpg-065\nEVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYYGSTYYADSVKGRFTISADTSKNTAYLQMRAEDTAVYYCARGWRSYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-005\nEVQLVESGGGLVQPGGSLRLSCAASGFTFSSYWMNWVRQAPGKGLEWVANINQDGGEKYYVDSVKGRFTISRDNAKNSLYLQMNSLRAEDTAIYYCARDVGGGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
+        <v>&gt;sbio-nipahgpg-066\nQVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYSFIWVRQAPGQGLEWMGGIIPIFGTANYAQKFQGRVTITADESTSTAYMELSSLRSEDTAVYYCARSSYSGVYYSWYFDVWGAGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGISNYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-008\nQVQLVESGGGVVQPGRSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAIWSNGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARDYGSYGYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPLSLPVTPGEPASISCRSSQSLLYSNGNTYLEWYLQKPGQSPQLLIYLVSKLDSGVPDRFSGSGSGTDFTLKISRVEAEDLGIYYCQQSKEVPYTFGAGTKLEIK</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
+        <v>&gt;sbio-nipahgpg-067\nEVQLQESGPGLVKPSQTLSLTCTVSGGSISSYAAWSWIRQPPGKGLEWIGYIYSSSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARGDYSYSYYGLDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGIRNDLGWYQQKPGKAPKLLIYAASNLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRYTFGQGTKVEIK</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-010\nAVSITESGGGTKAPGSSVTLSCKVSGFVFSKYSIAWVRQAPGQGLEWVSQISPDGSTTRYNPAVAGRFTISRDNSNSTAYLQMSNLTPSDTATYYCAIIPQDNEHGDYSLSHWGQGTQLTVSAGGGSGGGSGGGSGGGSAIKLTQSPKSLSAKVGDTVTINCTASAPIGDFLSWYKQKPGQPPQLLIYKSSTLAPGVSSRYSGSGSDTNFTLTISSLQEEDFATYYCQQTATLPITFGEGTTINKK</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
+        <v>&gt;sbio-nipahgpg-075\nEVQLVESGGGLVQPGGSLRLSCAASGFTFSNYAMSWVRQAPGKGLEWVSAISGSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARLSPYNGSMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSVTQPASVSGSPGQSITISCTGTSSDIGAYNYVSWYQQHPGKAPKLMIYEVSKRPSGVSNRFSGSKSGNTASLTISGLQTEDEADYYCSSYTRSGSVVFGGGTKLTVL</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">&gt;sbio-nipahgpg-013\nEVSLVESGGGTVKPGESVTLSCQASGFNFSKYRLAWVRQPPGQGLVWVSEISPDGTEVKYHPDVKGRFTASRDNSNSTAYLKMNNLQPSDTATYYCGIIPQDSSHGDYSISHWGQGTQLTVSAGGGSGGGSGGGSGGGSTITLTQSPSSLSASVGDTVTINCTASRPIGDFLSWYKQKPGQPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSDDFATYYCQQTYTLPITFGQGTTLTKK </v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
+        <v>&gt;sbio-nipahgpg-076\nQVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYTISWVRQAPGQGLEWMGGIIPILGIANYAQKFQGRVTITADKSTSTAYMELSSLRSEDTAVYYCARGDSSYVDSWDYWGQGTLVTVSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSVSSSYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPWTFGQGTKVEIK</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-014\nAVSLVESGGGTYAPGSSVTLSCQGSGFNFSKVRKVWVRQPPGGPLEYVAEISPDGSTTTYASSVAGRFTISKDNSNSTLYLSMSNLTPADTATYYCGLIPGDSEHGDRSISHWGQGTLVTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTINCTASQPIGNFLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTNFTLTISSLQSEDFATYYCQQTSRLPVTFGQGTTINKK</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
+        <v>&gt;sbio-nipahgpg-077\nQVQLVESGGGVVQPGRSLRLSCAASGFTFSNYGMHWVRQAPGKGLEWVAVISDGSNKYYADSVKGRFTISRDNSKNTLYLQMRAEDTAVYYCARGSHSSRDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPPYTFGQGTKVEIK</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">&gt;sbio-nipahgpg-016\nPVSLVESGGGTVAPGSSVTLTCQASGFNFSKYIVAWVRQPPGQPLRFVAMITPDGSKVWLHPEVEGRFTPSKDNSKNTSYLQLKDLQPEDTATYYCGIIPQGSTHGDYSITHWGQGVVLTVTAGGGSGGGSGGGSGGGSMVTLTQSPSSLSASVGDTVTITCTASSPVDNLMSWYQQPPGQPLRLLIYNASTRAPGVSSRFSGSGSDTNFTLTISSLQASDFATYYCQQTYRLPVTFGQGTTLSAA </v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-018\nAITLTESGGGVVAPGSSVTLTCTASGFNFSKYSMVWVRQPPGGPLQWVAQISPDNSTVRYHPAVEGRFTASKDNSKNTAYLAMSDLEPSDTATYYCGIIPQGSTHNDYSIVHWGQGTELRVVAGGGSGGGSGGGSGGGSMIKLTQSPSSLSAKVGDKVTITCTASSPVDNLVSWYKQPPGGPLQLLIYNSSTRAPGVSSRFKGSGSDTNFTLTIESLQEEDFATYYCQQTYKFPITFGQGTKLTRA</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB25C98-D213-4C3E-A62C-3D471ED52EA4}">
-  <dimension ref="A2:C31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="9">
-        <v>45970</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f>_xlfn.CONCAT("&gt;",A4,"\n",C4)</f>
-        <v>&gt;sbio-nipahgpg-019\nSISLTESGGGTVAPGSSVTLTCTASGFNFSKYSVAWVRQPPGQPLQWVALISPDGSKKWYHPDVKGRATISKDNSKNTSYLTLSNLQPSDTATYYCGIIPGGNIHGDYSMTHWGQGTQLTVVAGGGSGGGSGGGSGGGSMITLTQSPLSLSAKVGDTVTITCTASSPVDDLVSWYQQKPGQPLRLLIRNASERAPGVSSRFSGSGSDTTFTLTISSVQEEDFATYYCQQTSKLPYTFGQGTTLSRA</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <f t="shared" ref="A23:A31" si="0">_xlfn.CONCAT("&gt;",A5,"\n",C5)</f>
-        <v>&gt;sbio-nipahgpg-020\nAVTLTESGGGTVAPGSSVTLTCTASGFNFSKYILAWVRQAPGQPLEWVASISPDGSKTRYHPAVKGRATASKDNSKNTAYLELKDLRPEDTATYYCGIIPQGSVHGDYSMTHWGQGTELRVEAGGGSGGGSGGGSGGGSPVVLTQSPLSLSAKVGDTVTITCTASSPVDNLVSWYKQAPGQPLQLLIYNATTRAPGVPSRFTGSGSDTTFTLTISSLQPEDFAVYYCQQTYKFPITFGQGTRLTPA</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-021\nPVKLVESGGGTVAPGSSVTLTCKASGFNFSKYMVQWVRQAPGGAFQWVGLISPDGSTKWYHPDVEGRFTISKDNSKNTAYLEMRNLTPADTAVYYCGIVPQGSVHGDYSITHWGQGVTLTVTAGGGSGGGSGGGSGGGSVVQLTQSPPELSAKVGEKVTITCTASSPVDNLVSWYQQKPGGAPKLLIYNATTLAPGVPSRFSGSGSDTVFTLTIDSLQAEDFATYYCQQTSRLPFTFGQGTVLRPA</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-022\nAIKLTESGGGTVKPGSSVTLTCQASGFNFSKYIMAWVRQAPGQPLQWVAQISPDNSVKRYHPEVEGRFTASKDNSKNTAYLEMKNLTPADTATYYCAIIPQGSTQGDYSMVHWGQGVELKVVAGGGSGGGSGGGSGGGSPVVLTQSPASLKAAVGDTVTITCTASAPVDNLVSWYKQAPGQPPQLLIYNASTLAPGVPSRFTGSGSDTSFTLTISSLQEEDFATYYCQETSKFPITFGQGTKLEKK</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-023\nSIKLTESGGGVVAPGESVTLTCTASGFNFSKYEMAWVRQAPGGPLEFVAVISPDGSTTRYHPRVEGRATISRDNSKNTAYLTLRDLTPADTAVYYCGIIPGGSVHGDRALSHWGQGVRLEVRAGGGSGGGSGGGSGGGSMVTLTQSPSSLSAKVGDKVTISCTASEPVDDLVSWYKQAPGGPPQLLISRASTRAPGVPSRFSGSGSDTNFTLTIESLQSSDFATYYCQQTYKFPDTFGQGTTLSEA</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">&gt;sbio-nipahgpg-024\nSVTLVESGDQTVAPGGSVTLSCTSSGGSFGNSGVSWVKQQPGGPLQWIGGIIPSLGISKVSPEYAGRVTISSDSSNNTAYLTISNLTAADTATYYCALGEGEDVFASSPFASNVNLGALSVWGQGTKVTVSGGGSGGGSGGGSITVTQSPSSPSLKVGETATLTCTLSAPVPRSNVAWYKQQPGQPPTLLIYGGSTRAPGVPSRYSGSGSGTTFTLTITALKPEDFATYYCQVYGENPSFGQGTTLKLK </v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-027\nSITLVQSGDVTVAPGGSVTLTCTSSGGSFGNKAVAWVRQRPGGPYEWLGFIIPAYGVSRYNPAYEGRVTISVDSASNTASLTISNLTAADTATYYCALGEGEIVYAASPFDENYKLGALYIWGQGTKVTVSGGGSGGGSGGGSITLTQSPSSPSLSVGETATLTCTASAPVPKSNVAWYKQLPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLTADDFATYYCQVYGENPSFGEGTTLTLK</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-028\nSVTLVQSGDQTVPIGGSVTLSCTANGGSFGNKGVAWVRQRPGGPYEFLGFIKPAIGESRYHPKYKGRVTISSDVSSNTAYLTISNLTPEDTAVYYCALGEAEDVFAAHPFKTDLLLGALSIWGQGTRVTVTGGGSGGGSGGGSITVTQSPSSPSLSVGETAVLTCTLSQPVPQSQVAWYKQLPGQPPTLLISGGSTRASGVPSRYSGSGSGTTFTLTISSLLPEDFATYYCQVVGKEPSFGQGTTLTLK</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-029\nSVKLVQSGDQTVPVGGSVTLSCTASGGSFGNYGVAWVRQRPGGPLEYIGSIIPAYGISTVNPKYEGRVTISADPTNNTAYLTISNLTPEDTATYYCALGPGEVVFASSPFDIDVLTGALWVWGEGTKVTVTGGGSGGGSGGGSITVTQSPSSPSLKVGETATLTCTLSAPVAKSNVAWYKQLPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLQPEDFATYYCQVVGKNPSFGQGTLLKLK</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;\n</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C226FDEB-5BB3-48D3-9187-D05B367D0DB3}">
-  <dimension ref="A2:C31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="9">
-        <v>45971</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>189</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>191</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>193</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f>_xlfn.CONCAT("&gt;",A4,"\n",C4)</f>
-        <v>&gt;sbio-nipahgpg-032\nVQLQESGPGLVKPSQSLSLTCTVTGYSITTGYAWNWIRQFPGNKLEWMGYISYSGSTYYPSLKSRISITRDTSKNQFFLQLSIVTTEDTATYYCARGTTLPDYVDFWGQGTSVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQTISTYLNWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYFCLQHFWTPPITFGQGTRLEIK</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <f t="shared" ref="A23:A31" si="0">_xlfn.CONCAT("&gt;",A5,"\n",C5)</f>
-        <v>&gt;sbio-nipahgpg-033\nQVQLQESGPGLVKPSETLSVTCTVSGGSIGSNNYWSWIRQPAGKGLEWIGYIYYSGSTNYNPSLKSRVTMSVDTSKNQFSLKLSSVTAADTAVYYCVRNYYDSSDSSGYYFMDVWGQGTTVTVSSGGGSGGGSGGGSDIVMTQSPLSLSVTPGEPASISCRSSQSLLHSNGYNYLDWYLQKPGQSPQLLIYLGSNRASGVPDRFSGSGSGTDFTLKISRVEAEDVGVYYCMQALQTPTFGQGTRLEIK</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-034\nQVQLVQSGAEVKKPGESLKISCKGSGYRFSSYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAMYYCARQGPDYYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSTLSASVGDRVTITCRASQSISSWLAWYQQKPGKAPKLLIYKASELQSGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQQYINSYTFGQGTKVEIK</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-035\nQVQLQQSGPELVKPGASVKLSCKASGYTFTDYYMHWVKQRPGQGLEWIGEINPNSGGTNTYDQKFKGRATLTVDKSSSTAYLQLSSLTSEDSAVYYCARSPPWYFDYWGQGTTLTVSGGGSGGGSGGGSGGGSDIVMTQSPSSMFASVGETVTITCRASENIYSNLAWYQQKPGQSPKLLIYWASTRHTGVPDRFTGSGSGTDFTLTISSVQAEDLALYYCQHYGSYSFTFGSGTKLEIK</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-036\nEVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRNYVYSSGYLDFWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSYSSPPTFGQGTKVEIK</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-037\nEVQLVESGGGLVQPGGSLRLSCAASGFNIYYSSIHWVRQAPGKGLEWVASISPYYGSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARDYGHYYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVMTQSPATLSVSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYGASTRATGIPARFSGSGSGTEFTLTISSLQSEDSAVYYCQQYNNWPPITFGQGTRLEIK</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-038\nQVQLQESGPGLVKPSETLSLSCVVSGDSSSTNYYWGWIRQPPGKGLEWIGYIYGSGDTAYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARRSWGYGYNGYSTYYYYYYFDQGYFDVWGPGTLVTGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSIGSYLNWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTEFTLTISSLQPEDFATYYCQQSYSWGQGTKVEIK</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-039\nQVQLVQSGAEVKKPGASVKVSCKASGYTFTSYGISWVRQAPGQGLEWMGWISAHNGDTNYAQKFQGRVTMTRDTSITTAYMELRSDDTAVYYCARDGSVGGFYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPITFGQGTRLEIK</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-040\nEVQLLESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASISPYYGSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSYYWYWSGWGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSYGSPPTFGQGTKVEIK</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-041\nQVQLQESGPGLVKPSQTLSLTCTVSGGSISSGHYAWWIRQPPGKGLEWIACIYSSSGSTYYNPSLKSRITISVDTSKNQFSLKLSSVTAADTAVYYCARRQRGYDYDYYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISRNLAWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSNNWPITFGQGTKVEIK</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE4B225-7142-4022-8646-BD8C8E254557}">
-  <dimension ref="A2:C31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="9">
-        <v>45972</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>201</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>202</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>203</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f>_xlfn.CONCAT("&gt;",A4,"\n",C4)</f>
-        <v>&gt;sbio-nipahgpg-042\nEVQLVESGGGLVQPGGSLRLSCAASGFNIYYSSIHWVRQAPGKGLEWVASIYSYYSSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARVYGYLSYSYFYWGLDVWGQGTLVTVSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEI</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <f t="shared" ref="A23:A31" si="0">_xlfn.CONCAT("&gt;",A5,"\n",C5)</f>
-        <v>&gt;sbio-nipahgpg-043\nEVQLQQSGAELVKPGASVKLSCTASGFNIKDTYVHWVKQRPEQGLEWIGRIDPANGYTKYDPKFQGKATITADTSSNTAYLQLSSLTSEDTAVYYCVRPLYDYYAMDYWGQGTTLTVSSGGGSGGGSGGGSGGGSDIVMTQSPSSLAMSAGRVSITCRTSQSISSYLNWVQQKPGKSPKLLIYWASTRESGVPDRFTGSGSGTDFTLTISRVEAEDLGVYYCMQGTHVPYTFGGGTKLEIK</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-044\nEVQLVESGGGLVKPGGSLRLSCAASGFTFSSYAMHWVRQAPGKGLEWVSAISGGGGSTYYADSVKGRFTISRDNSKNTLYLQMRAEDTAVYYCAKDDADWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPFTFGQGTKVEIK</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-045\nQVQLQESGPGLVKPSQTLSLTCTVSGGSISSGSYYWIRQSPGKGLEWIGYIYYSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARHRYYDRGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPASLSASVGETVTITCRASENIYSNLAWYQQKQGKSPQLLVYAATDLADGVPSRFSGSGSGTQFSLKINSLQPEDFGSYYCQHFWDTPWTFGQGTRVE</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-046\nEVQLVESGGGLVQPGGSLRLSCAASGFNLYSSSIHWVRQAPGKGLEWVAYISSSGTHYADSVKGRFTISADTSKNTAYLQMRAEDTAVYYCARVGHYYSSGGYYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYSSYWTFGQGTKVEIK</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-047\nEVQLVESGGGLVQPGGSLRLSCAASGFNVVDSGISWVRQAPGKGLEWVSYISSSSGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARAHYYGSYFGSVVYYYGLDVWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYDTYPITFGQGTKVEIK</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-048\nEVQLVESGGGLVQPGGSLRLSCAASGFNVYSSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSYSTYYYGYWYFDVWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSAAVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYNYYWLITFGQGTKVEIK</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-049\nQVQLQQPGAELVKPGASVKLSCKASGYTFTSDWIHWVKQRPGHGLEWIGEIIPSYGRANYNEKIQKKATLTADKSSSTAFMHLSSLTSEDSAVYYCARERGDGYFAVWGAGTTVTVSSGGGSGGGSGGGSGGGSDILLTQSPAILSVSPGERVSFSCRASQSIGTDIHWYQQRTNGSPRLLIKYASESISGIPSRFSGSGSGTDFTLSINSVESEDIANYYCQQSNRWPFTFGSGTKLEIK</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-050\nVRLLESGGGLVQPGGSLKLSCAASGFDYSRYWMSWVRQAPGKGLKWIGEINPVSSTINYTPSLKDKFIISRDNAKDTLYLQISKVRSEDTALYYCARLYYGYGYWYFDVWGAGTTVTVSSGGGSGGGSGGGSGGGSDIVLTQSPAIMSAAPGDKVTMTCSASSSVSYIHWYQQKSGTSPKRWIYDTSKLTSGVPVRFSGSGSGTSYSLTINTMEAEDAATYYCQQWSSHPQTFGGGTKLEIl</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-051\nQVQLQESGPGLVQPSQSLSLTCTVSGFSLTSYGVHWVRQSPGKGLEWLGVIWAGGSTDYNSALKSRLSISRDTSKNQVFLKMNSLQTDDTAMYYCAKHGSSNGDYWGQGTSVTVSSGGGSGGGSGGGSGGGSDIVMTQSPDSLAVSLGERATINCKSSQSVLYSSNNKNYLAWYQQKPEGQPPNLLIYWASTRESGVPDRFSGSGSGTDFTLTISSLQAEDVAVYYCQQYYSAPTFGQGTKLEIK</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A407C179-F265-452E-A6F1-4E864C51A103}">
-  <dimension ref="A2:C31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="9">
-        <v>45973</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>312</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>314</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>322</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>324</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>332</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>333</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>334</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>390</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f>_xlfn.CONCAT("&gt;",A4,"\n",C4)</f>
-        <v>&gt;sbio-nipahgpg-052\nQVQLQESGPGLVKPSETLSLTCTVSGGSVSSGGYFWSWIRQPPGKGLEWIGCIYYSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARVDSFYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGIRNDLGWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <f t="shared" ref="A23:A31" si="0">_xlfn.CONCAT("&gt;",A5,"\n",C5)</f>
-        <v>&gt;sbio-nipahgpg-053\nEVQLVESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAISGSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARQVWFGGFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-054\nEVQLVESGGGLVQPGGSLRLSCAASGFNVSSSYIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRQFWYSGLDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-062\nQMQLVQSGAEVKKPGESLKISCKGSGYSFTSYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAIYYCARHYYGGQYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGIRNDLGWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKLEIK</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-063\nQVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYAISWVRQAPGQGLEWMGGIIPIFGTANYAQKFQGRVTITADESTSTAYMELSSLRSEDTAVYYCARWYDGYFVYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-064\nEVQLVESGGGLVQPGGSLRLSCAASGFNVSSSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRQFWYSGLDYWGQGTLVTVFNGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-072\nVQLVQSGAEVKKPGASVKVSCKASGYTFTTYTISWVRQAPGQGLEWMGWINNSGGTNYAQKFQGRVTMTRDTSTSTVSAYMELRSEDTAVYYCATFVYGYSAYQPLTDDYGQMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWFQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSLLYPLTFGGGTKVEIK</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-073\nEVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSSSGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARHRWWAHPYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSYYITPYTFGQGTKVEIK</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-074\nEVQLVESGGGVVQPGRSLRLSCAASGFTFSSYAMHWVRQAPGKGLEWVAVIWYDGSNKYYADSVKGRFTISRDNSKNTLFLQMNSLRPEDTAVYYCARDTPMYYDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRTSQDIDNYLNWYQQKPGKAPKLLIYYTSSLHSGVPSRFSGSGSGTDFTFTISSLQPEDIATYYCQQYDNLPITFGQGTKLEIK</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-082\nQVQLQESGPGLVKPSQTLSLTCTVSGGSVSSGSYYWSWIRQPPGKGLEWIGYIYYSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARVDSFYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASSGSSYDNGWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYLQDSNYTPRTFGQGTKVEIK</v>
+        <v>&gt;sbio-nipahgpg-083\nQVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYTISWVRQAPGQGLEWMGRIIPIFGTANYAQKFQGRVTITADKSTSTAYMELSSLRSEDTAVYYCARYYDSYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQCGNSFPWTFGGGTKLEIK</v>
       </c>
     </row>
   </sheetData>

--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\Nipah_gpG_Fv_Generation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colbyford/Documents/GitHub/Nipah_gpG_Fv_Generation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7993FC63-5565-4744-96F4-12ABF73F28DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51114124-C46E-DB4D-A5BD-318F8088B91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="620" windowWidth="23320" windowHeight="22520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Antibody Candidates" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="8" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="406">
   <si>
     <t>antigen_id</t>
   </si>
@@ -1189,6 +1189,78 @@
   </si>
   <si>
     <t>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYTISWVRQAPGQGLEWMGRIIPIFGTANYAQKFQGRVTITADKSTSTAYMELSSLRSEDTAVYYCARYYDSYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQCGNSFPWTFGGGTKLEIK</t>
+  </si>
+  <si>
+    <t>frozen-goat-snow</t>
+  </si>
+  <si>
+    <t>vast-shark-iron</t>
+  </si>
+  <si>
+    <t>quiet-ant-vine</t>
+  </si>
+  <si>
+    <t>crimson-boar-moss</t>
+  </si>
+  <si>
+    <t>swift-panther-sand</t>
+  </si>
+  <si>
+    <t>deep-otter-oak</t>
+  </si>
+  <si>
+    <t>carlet-moth-plume</t>
+  </si>
+  <si>
+    <t>swift-heron-dust</t>
+  </si>
+  <si>
+    <t>violet-panda-ash</t>
+  </si>
+  <si>
+    <t>FAILED SIMILARITY TEST</t>
+  </si>
+  <si>
+    <t>GPT-4o</t>
+  </si>
+  <si>
+    <t>DVQLQESGPGLVKPSQTLSLTCTVSGYSITSDYYWNWIRQFPGNKLEWMGYISYDGSSNYNPSLKNRISITRDNSKNQFFLQLNSVTTEDTATYYCARSCSRRGYAMDYWGQGTSVTVSS</t>
+  </si>
+  <si>
+    <t>QIVLTQSPAIMSASLGEKVTLTCSASSSVSYMHWYQQKPGTSPKLLIYSCNLLSGVPDRFSGSGSGTDFTLSISNVETEDAATYYCYQYRIRFGGGTKLTVLQ</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-084</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-085</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-086</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSSISRSGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARSCSSRGYFDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>DIVMTQSPDSLAVSLGERATINCRASQSVSSYLAWYQQKPGQSPKLLIYSCNLQSGVPDRFSGSGSGTDFTLTISSLQPEDFATYYCQPYIRFGGGGTKLEIK</t>
+  </si>
+  <si>
+    <t>QVQLQESGPGLVKPSQTLSLTCTVSGFSFSSYAMSWVRQAPGKGLEWVSSISRSGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARSCSSRGYLFDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>GPT-4o /  v_48_030</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-087</t>
+  </si>
+  <si>
+    <t>General LLM + ProteinMPNN</t>
+  </si>
+  <si>
+    <t>QVKLTQSPKEVTAKIGDTVTLTCTASQPVSTVSWYMQKPGQPPQLLISNNKLVEGVPERFSASGSGTEFTLTIKDVQKEDEAIYYCEVNGQVFGQGTKLTVLE</t>
+  </si>
+  <si>
+    <t>SIKLTESGPTSVAPGSTLNLTCTVTGDNITSSGWYWWVKQAPDNKLTWIGGIDKNGNTWLNVAYIDRATLTRDPAANTVYLSIRNVTSSDTATYYCAKSSDDNGSYLDVWGQGLKVTVSG</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1350,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill>
@@ -1353,6 +1425,34 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3492,7 +3592,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{135D55CA-26D1-4FA2-9199-54D547F2C103}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{135D55CA-26D1-4FA2-9199-54D547F2C103}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:C13" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -4098,42 +4198,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V82"/>
+  <dimension ref="A1:V86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J82" sqref="J82"/>
+      <selection pane="bottomRight" activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="54" style="2" customWidth="1"/>
-    <col min="10" max="10" width="46.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="46.5" style="2" customWidth="1"/>
     <col min="11" max="11" width="16" style="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="2" customWidth="1"/>
-    <col min="13" max="13" width="71.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="71.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="20" max="20" width="23.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -4201,7 +4301,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -4269,7 +4369,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -4337,7 +4437,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -4405,7 +4505,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -4473,7 +4573,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -4541,7 +4641,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -4605,7 +4705,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
@@ -4678,7 +4778,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
@@ -4751,7 +4851,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -4824,7 +4924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -4897,7 +4997,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -4964,7 +5064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -5037,7 +5137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
@@ -5110,7 +5210,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>69</v>
       </c>
@@ -5177,7 +5277,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>70</v>
       </c>
@@ -5250,7 +5350,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -5323,7 +5423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>72</v>
       </c>
@@ -5396,7 +5496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>73</v>
       </c>
@@ -5469,7 +5569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>74</v>
       </c>
@@ -5542,7 +5642,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>75</v>
       </c>
@@ -5615,7 +5715,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>76</v>
       </c>
@@ -5688,7 +5788,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>101</v>
       </c>
@@ -5755,7 +5855,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>102</v>
       </c>
@@ -5828,7 +5928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
@@ -5901,7 +6001,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>104</v>
       </c>
@@ -5974,7 +6074,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>105</v>
       </c>
@@ -6047,7 +6147,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>106</v>
       </c>
@@ -6120,7 +6220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>107</v>
       </c>
@@ -6193,7 +6293,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>108</v>
       </c>
@@ -6266,7 +6366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>174</v>
       </c>
@@ -6322,7 +6422,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>175</v>
       </c>
@@ -6381,7 +6481,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>176</v>
       </c>
@@ -6440,7 +6540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>177</v>
       </c>
@@ -6499,7 +6599,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>178</v>
       </c>
@@ -6558,7 +6658,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>179</v>
       </c>
@@ -6617,7 +6717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>180</v>
       </c>
@@ -6676,7 +6776,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>181</v>
       </c>
@@ -6735,7 +6835,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>182</v>
       </c>
@@ -6794,7 +6894,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>183</v>
       </c>
@@ -6853,7 +6953,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>184</v>
       </c>
@@ -6912,7 +7012,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>185</v>
       </c>
@@ -6971,7 +7071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>186</v>
       </c>
@@ -7030,7 +7130,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>187</v>
       </c>
@@ -7089,7 +7189,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>188</v>
       </c>
@@ -7148,7 +7248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>189</v>
       </c>
@@ -7207,7 +7307,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>190</v>
       </c>
@@ -7266,7 +7366,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>191</v>
       </c>
@@ -7325,7 +7425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>192</v>
       </c>
@@ -7384,7 +7484,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>193</v>
       </c>
@@ -7443,7 +7543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>263</v>
       </c>
@@ -7502,7 +7602,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>264</v>
       </c>
@@ -7561,7 +7661,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>265</v>
       </c>
@@ -7620,7 +7720,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>266</v>
       </c>
@@ -7672,8 +7772,14 @@
       <c r="T54" s="10">
         <v>45974</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="U54" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="V54" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>267</v>
       </c>
@@ -7725,8 +7831,11 @@
       <c r="T55" s="10">
         <v>45974</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="U55" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>268</v>
       </c>
@@ -7778,8 +7887,14 @@
       <c r="T56" s="10">
         <v>45974</v>
       </c>
-    </row>
-    <row r="57" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="U56" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="V56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>269</v>
       </c>
@@ -7828,9 +7943,11 @@
       <c r="Q57" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T57" s="10"/>
-    </row>
-    <row r="58" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="T57" s="10">
+        <v>45975</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>270</v>
       </c>
@@ -7879,9 +7996,11 @@
       <c r="Q58" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T58" s="10"/>
-    </row>
-    <row r="59" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="T58" s="10">
+        <v>45975</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>271</v>
       </c>
@@ -7932,7 +8051,7 @@
       </c>
       <c r="T59" s="10"/>
     </row>
-    <row r="60" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>272</v>
       </c>
@@ -7983,7 +8102,7 @@
       </c>
       <c r="T60" s="10"/>
     </row>
-    <row r="61" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>273</v>
       </c>
@@ -8042,7 +8161,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>274</v>
       </c>
@@ -8101,7 +8220,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>275</v>
       </c>
@@ -8160,7 +8279,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>276</v>
       </c>
@@ -8212,8 +8331,14 @@
       <c r="T64" s="10">
         <v>45974</v>
       </c>
-    </row>
-    <row r="65" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="U64" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="V64" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>277</v>
       </c>
@@ -8265,8 +8390,14 @@
       <c r="T65" s="10">
         <v>45974</v>
       </c>
-    </row>
-    <row r="66" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="U65" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="V65" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>278</v>
       </c>
@@ -8318,8 +8449,14 @@
       <c r="T66" s="10">
         <v>45974</v>
       </c>
-    </row>
-    <row r="67" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="U66" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="V66" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>279</v>
       </c>
@@ -8351,7 +8488,7 @@
         <v>125</v>
       </c>
       <c r="M67" s="2" t="str">
-        <f t="shared" ref="M67:M82" si="3">_xlfn.CONCAT(I67,L67,J67)</f>
+        <f t="shared" ref="M67:M81" si="3">_xlfn.CONCAT(I67,L67,J67)</f>
         <v>EVQLQQSGPELVKPGASVKMSCKASGYTFTSYNIHWVKQTPVHGLEWIGAIVSGGDTNYNENFKDKATLTVDKSSSTAYMQLTSEDSAVYYCARGGFYGDYWGQGTSVTVSSGGGSGGGSGGGSGGGSDIVLTQSPATLSVTPGDSVSLSCRASQSVTNNIHWYQQKSHESPRLLIKYASQSISGIPSRFSGSGSGTDFTLSINSVETEDFGMYFCQQSNSWPYTFGGGTKLEIK</v>
       </c>
       <c r="N67" s="4">
@@ -8359,7 +8496,7 @@
         <v>235</v>
       </c>
       <c r="O67" s="1" t="b">
-        <f t="shared" ref="O67:O82" si="4">IF(N67&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" ref="O67:O83" si="4">IF(N67&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P67" s="1" t="b">
@@ -8368,9 +8505,11 @@
       <c r="Q67" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T67" s="10"/>
-    </row>
-    <row r="68" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="T67" s="10">
+        <v>45975</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>280</v>
       </c>
@@ -8419,9 +8558,11 @@
       <c r="Q68" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T68" s="10"/>
-    </row>
-    <row r="69" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="T68" s="10">
+        <v>45975</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>281</v>
       </c>
@@ -8472,7 +8613,7 @@
       </c>
       <c r="T69" s="10"/>
     </row>
-    <row r="70" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>282</v>
       </c>
@@ -8523,7 +8664,7 @@
       </c>
       <c r="T70" s="10"/>
     </row>
-    <row r="71" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>283</v>
       </c>
@@ -8559,7 +8700,7 @@
         <v>VQLVQSGAEVKKPGASVKVSCKASGYTFTTYTISWVRQAPGQGLEWMGWINNSGGTNYAQKFQGRVTMTRDTSTSTVSAYMELRSEDTAVYYCATFVYGYSAYQPLTDDYGQMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWFQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSLLYPLTFGGGTKVEIK</v>
       </c>
       <c r="N71" s="4">
-        <f t="shared" ref="N71:N82" si="5">LEN(M71)</f>
+        <f t="shared" ref="N71:N83" si="5">LEN(M71)</f>
         <v>249</v>
       </c>
       <c r="O71" s="1" t="b">
@@ -8582,7 +8723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>284</v>
       </c>
@@ -8641,7 +8782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>285</v>
       </c>
@@ -8700,7 +8841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>286</v>
       </c>
@@ -8752,8 +8893,14 @@
       <c r="T74" s="10">
         <v>45974</v>
       </c>
-    </row>
-    <row r="75" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="U74" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="V74" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>287</v>
       </c>
@@ -8805,8 +8952,14 @@
       <c r="T75" s="10">
         <v>45974</v>
       </c>
-    </row>
-    <row r="76" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="U75" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="V75" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>288</v>
       </c>
@@ -8858,8 +9011,14 @@
       <c r="T76" s="10">
         <v>45974</v>
       </c>
-    </row>
-    <row r="77" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="U76" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="V76" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>289</v>
       </c>
@@ -8908,9 +9067,11 @@
       <c r="Q77" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T77" s="10"/>
-    </row>
-    <row r="78" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="T77" s="10">
+        <v>45975</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>290</v>
       </c>
@@ -8959,9 +9120,11 @@
       <c r="Q78" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T78" s="10"/>
-    </row>
-    <row r="79" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="T78" s="10">
+        <v>45975</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>291</v>
       </c>
@@ -9012,7 +9175,7 @@
       </c>
       <c r="T79" s="10"/>
     </row>
-    <row r="80" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>292</v>
       </c>
@@ -9063,7 +9226,7 @@
       </c>
       <c r="T80" s="10"/>
     </row>
-    <row r="81" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>341</v>
       </c>
@@ -9128,7 +9291,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>378</v>
       </c>
@@ -9185,37 +9348,258 @@
       </c>
       <c r="T82" s="10">
         <v>45974</v>
+      </c>
+      <c r="U82" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="V82" s="4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="K83" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M83" s="2" t="str">
+        <f>_xlfn.CONCAT(I83,L83,J83)</f>
+        <v>DVQLQESGPGLVKPSQTLSLTCTVSGYSITSDYYWNWIRQFPGNKLEWMGYISYDGSSNYNPSLKNRISITRDNSKNQFFLQLNSVTTEDTATYYCARSCSRRGYAMDYWGQGTSVTVSSGGGSGGGSGGGSGGGSQIVLTQSPAIMSASLGEKVTLTCSASSSVSYMHWYQQKPGTSPKLLIYSCNLLSGVPDRFSGSGSGTDFTLSISNVETEDAATYYCYQYRIRFGGGTKLTVLQ</v>
+      </c>
+      <c r="N83" s="4">
+        <f t="shared" si="5"/>
+        <v>239</v>
+      </c>
+      <c r="O83" s="1" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P83" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T83" s="10">
+        <v>45975</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="K84" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M84" s="2" t="str">
+        <f>_xlfn.CONCAT(I84,L84,J84)</f>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSSISRSGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARSCSSRGYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPDSLAVSLGERATINCRASQSVSSYLAWYQQKPGQSPKLLIYSCNLQSGVPDRFSGSGSGTDFTLTISSLQPEDFATYYCQPYIRFGGGGTKLEIK</v>
+      </c>
+      <c r="N84" s="4">
+        <f t="shared" ref="N84:N85" si="6">LEN(M84)</f>
+        <v>238</v>
+      </c>
+      <c r="O84" s="1" t="b">
+        <f t="shared" ref="O84:O85" si="7">IF(N84&lt;=250,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P84" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T84" s="10">
+        <v>45975</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="K85" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M85" s="2" t="str">
+        <f>_xlfn.CONCAT(I85,L85,J85)</f>
+        <v>QVQLQESGPGLVKPSQTLSLTCTVSGFSFSSYAMSWVRQAPGKGLEWVSSISRSGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARSCSSRGYLFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPDSLAVSLGERATINCRASQSVSSYLAWYQQKPGQSPKLLIYSCNLQSGVPDRFSGSGSGTDFTLTISSLQPEDFATYYCQPYIRFGGGGTKLEIK</v>
+      </c>
+      <c r="N85" s="4">
+        <f t="shared" si="6"/>
+        <v>239</v>
+      </c>
+      <c r="O85" s="1" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P85" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T85" s="10">
+        <v>45975</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D86" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="K86" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M86" s="2" t="str">
+        <f>_xlfn.CONCAT(I86,L86,J86)</f>
+        <v>SIKLTESGPTSVAPGSTLNLTCTVTGDNITSSGWYWWVKQAPDNKLTWIGGIDKNGNTWLNVAYIDRATLTRDPAANTVYLSIRNVTSSDTATYYCAKSSDDNGSYLDVWGQGLKVTVSGGGGSGGGSGGGSGGGSQVKLTQSPKEVTAKIGDTVTLTCTASQPVSTVSWYMQKPGQPPQLLISNNKLVEGVPERFSASGSGTEFTLTIKDVQKEDEAIYYCEVNGQVFGQGTKLTVLE</v>
+      </c>
+      <c r="N86" s="4">
+        <f t="shared" ref="N86" si="8">LEN(M86)</f>
+        <v>239</v>
+      </c>
+      <c r="O86" s="1" t="b">
+        <f t="shared" ref="O86" si="9">IF(N86&lt;=250,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P86" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T86" s="10">
+        <v>45975</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:V81" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K1:L1048576">
-    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="16" priority="15">
+    <cfRule type="containsBlanks" dxfId="20" priority="19">
       <formula>LEN(TRIM(K1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O82">
-    <cfRule type="containsBlanks" dxfId="15" priority="7">
+  <conditionalFormatting sqref="O2:O86">
+    <cfRule type="containsBlanks" dxfId="19" priority="11">
       <formula>LEN(TRIM(O2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:S2 O3:Q82 R3:S22">
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+  <conditionalFormatting sqref="O2:S2 R3:S22 O3:Q83">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:S1048576 V1:V1048576">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -9227,10 +9611,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V22">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O84:Q84">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O85:Q86">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9244,24 +9644,24 @@
   <dimension ref="A1:AMM4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="122.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="44.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="93.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="122.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="44.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="93.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="1027" width="9.140625" style="1"/>
+    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="1027" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9293,7 +9693,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -9325,7 +9725,7 @@
         <v>0.37068000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>232</v>
       </c>
@@ -9354,7 +9754,7 @@
         <v>0.72998799999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>258</v>
       </c>
@@ -9388,25 +9788,25 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="48.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="74" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>364</v>
       </c>
@@ -9438,7 +9838,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>368</v>
       </c>
@@ -9473,7 +9873,7 @@
         <v>0.23402200000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>370</v>
       </c>
@@ -9508,7 +9908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>374</v>
       </c>
@@ -9632,14 +10032,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.1640625" style="4"/>
     <col min="2" max="2" width="53" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>94</v>
       </c>
@@ -9647,7 +10047,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -9655,7 +10055,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -9663,7 +10063,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -9671,7 +10071,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>233</v>
       </c>
@@ -9679,7 +10079,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>234</v>
       </c>
@@ -9687,7 +10087,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>256</v>
       </c>
@@ -9708,16 +10108,16 @@
       <selection activeCell="A29" sqref="A29:A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>98</v>
       </c>
@@ -9725,7 +10125,7 @@
         <v>45974</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>266</v>
       </c>
@@ -9736,7 +10136,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>267</v>
       </c>
@@ -9747,7 +10147,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>268</v>
       </c>
@@ -9758,7 +10158,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>276</v>
       </c>
@@ -9769,7 +10169,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>277</v>
       </c>
@@ -9780,7 +10180,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>278</v>
       </c>
@@ -9791,7 +10191,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>286</v>
       </c>
@@ -9802,7 +10202,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>287</v>
       </c>
@@ -9813,7 +10213,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>288</v>
       </c>
@@ -9824,7 +10224,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>378</v>
       </c>
@@ -9835,61 +10235,61 @@
         <v>381</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>_xlfn.CONCAT("&gt;",A4,"\n",C4)</f>
         <v>&gt;sbio-nipahgpg-055\nEVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGSSYFGYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" ref="A30:A38" si="0">_xlfn.CONCAT("&gt;",A5,"\n",C5)</f>
         <v>&gt;sbio-nipahgpg-056\nQVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYSISWVRQAPGQGLEWMGGIIIFGTANYAQKFQGRVTITADESTSTAYMELSSLRSEDTAVYYCARGQGTLVDFYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>&gt;sbio-nipahgpg-057\nEVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASIYPYSGYTNYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGYGYWGYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>&gt;sbio-nipahgpg-065\nEVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYYGSTYYADSVKGRFTISADTSKNTAYLQMRAEDTAVYYCARGWRSYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>&gt;sbio-nipahgpg-066\nQVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYSFIWVRQAPGQGLEWMGGIIPIFGTANYAQKFQGRVTITADESTSTAYMELSSLRSEDTAVYYCARSSYSGVYYSWYFDVWGAGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGISNYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>&gt;sbio-nipahgpg-067\nEVQLQESGPGLVKPSQTLSLTCTVSGGSISSYAAWSWIRQPPGKGLEWIGYIYSSSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARGDYSYSYYGLDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGIRNDLGWYQQKPGKAPKLLIYAASNLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRYTFGQGTKVEIK</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>&gt;sbio-nipahgpg-075\nEVQLVESGGGLVQPGGSLRLSCAASGFTFSNYAMSWVRQAPGKGLEWVSAISGSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARLSPYNGSMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSVTQPASVSGSPGQSITISCTGTSSDIGAYNYVSWYQQHPGKAPKLMIYEVSKRPSGVSNRFSGSKSGNTASLTISGLQTEDEADYYCSSYTRSGSVVFGGGTKLTVL</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>&gt;sbio-nipahgpg-076\nQVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYTISWVRQAPGQGLEWMGGIIPILGIANYAQKFQGRVTITADKSTSTAYMELSSLRSEDTAVYYCARGDSSYVDSWDYWGQGTLVTVSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSVSSSYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPWTFGQGTKVEIK</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>&gt;sbio-nipahgpg-077\nQVQLVESGGGVVQPGRSLRLSCAASGFTFSNYGMHWVRQAPGKGLEWVAVISDGSNKYYADSVKGRFTISRDNSKNTLYLQMRAEDTAVYYCARGSHSSRDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPPYTFGQGTKVEIK</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>&gt;sbio-nipahgpg-083\nQVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYTISWVRQAPGQGLEWMGRIIPIFGTANYAQKFQGRVTITADKSTSTAYMELSSLRSEDTAVYYCARYYDSYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQCGNSFPWTFGGGTKLEIK</v>

--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colbyford/Documents/GitHub/Nipah_gpG_Fv_Generation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\Nipah_gpG_Fv_Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51114124-C46E-DB4D-A5BD-318F8088B91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28895712-FC7E-4E5F-972F-99D2C434C973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="620" windowWidth="23320" windowHeight="22520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Antibody Candidates" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId6"/>
+    <pivotCache cacheId="14" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="484">
   <si>
     <t>antigen_id</t>
   </si>
@@ -1080,33 +1080,6 @@
     <t>DIQMTQSPSSLSASVGDRVTITCRASSGSSYDNGWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYLQDSNYTPRTFGQGTKVEIK</t>
   </si>
   <si>
-    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGSSYFGYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYSISWVRQAPGQGLEWMGGIIIFGTANYAQKFQGRVTITADESTSTAYMELSSLRSEDTAVYYCARGQGTLVDFYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASIYPYSGYTNYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGYGYWGYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYYGSTYYADSVKGRFTISADTSKNTAYLQMRAEDTAVYYCARGWRSYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYSFIWVRQAPGQGLEWMGGIIPIFGTANYAQKFQGRVTITADESTSTAYMELSSLRSEDTAVYYCARSSYSGVYYSWYFDVWGAGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGISNYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>EVQLQESGPGLVKPSQTLSLTCTVSGGSISSYAAWSWIRQPPGKGLEWIGYIYSSSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARGDYSYSYYGLDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGIRNDLGWYQQKPGKAPKLLIYAASNLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRYTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>EVQLVESGGGLVQPGGSLRLSCAASGFTFSNYAMSWVRQAPGKGLEWVSAISGSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARLSPYNGSMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSVTQPASVSGSPGQSITISCTGTSSDIGAYNYVSWYQQHPGKAPKLMIYEVSKRPSGVSNRFSGSKSGNTASLTISGLQTEDEADYYCSSYTRSGSVVFGGGTKLTVL</t>
-  </si>
-  <si>
-    <t>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYTISWVRQAPGQGLEWMGGIIPILGIANYAQKFQGRVTITADKSTSTAYMELSSLRSEDTAVYYCARGDSSYVDSWDYWGQGTLVTVSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSVSSSYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPWTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>QVQLVESGGGVVQPGRSLRLSCAASGFTFSNYGMHWVRQAPGKGLEWVAVISDGSNKYYADSVKGRFTISRDNSKNTLYLQMRAEDTAVYYCARGSHSSRDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPPYTFGQGTKVEIK</t>
-  </si>
-  <si>
     <t>gentle-quail-fern</t>
   </si>
   <si>
@@ -1188,9 +1161,6 @@
     <t>DIQMTQSPSSLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQCGNSFPWTFGGGTKLEIK</t>
   </si>
   <si>
-    <t>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYTISWVRQAPGQGLEWMGRIIPIFGTANYAQKFQGRVTITADKSTSTAYMELSSLRSEDTAVYYCARYYDSYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQCGNSFPWTFGGGTKLEIK</t>
-  </si>
-  <si>
     <t>frozen-goat-snow</t>
   </si>
   <si>
@@ -1261,13 +1231,277 @@
   </si>
   <si>
     <t>SIKLTESGPTSVAPGSTLNLTCTVTGDNITSSGWYWWVKQAPDNKLTWIGGIDKNGNTWLNVAYIDRATLTRDPAANTVYLSIRNVTSSDTATYYCAKSSDDNGSYLDVWGQGLKVTVSG</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAISGSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARGYQVYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSYIHWVRQAPGKGLEWVASISSYYGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGWSYSWSYSWSYSGLDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLQQSGPELVKPGASVKMSCKASGYTFTSYNIHWVKQTPVHGLEWIGAIVSGGDTNYNENFKDKATLTVDKSSSTAYMQLTSEDSAVYYCARGGFYGDYWGQGTSVTVSSGGGSGGGSGGGSGGGSDIVLTQSPATLSVTPGDSVSLSCRASQSVTNNIHWYQQKSHESPRLLIKYASQSISGIPSRFSGSGSGTDFTLSINSVETEDFGMYFCQQSNSWPYTFGGGTKLEIK</t>
+  </si>
+  <si>
+    <t>QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGDYYWIRQHPGKGLEWIGYIYYSGSTYYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARQLWLRGRFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>VQLVQSGAEVKRPGSSVKVSCKTSGGTIFSTYVFWVRQAPGQGLEWMGGFPPKAGYIYAQKFQGRVTFTADESSSTTVYMEDLRSEDTAVYFCARFPYFVYDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSIGGYLAWYQQKPGKVPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>VQLQESGPGLVKPSQSLSLTCTVTGFSIDYNIYWGWIRQPPGKGLEWIGYIYSGSDTYNPSLKSRVTISVDTSKNQFSLKVNSVTAADTAVYYCARVVDLWYDDGKYASCVKGAIDYWGQGTLVTVSSGGGSGGGSGGGSSVLTQPPSVSGAPGQRVTISCTGSSGAGYDVHWYQQLPGTAPKLLIYGNSNRPSGVPDRFSGSKSGTSASLAITGLQAEDEADYYCQSYDSSLSGWVFGGGTKLTVL</t>
+  </si>
+  <si>
+    <t>DVQLQESGPGLVKPSQTLSLTCTVSGYSITSDYYWNWIRQFPGNKLEWMGYISYDGSSNYNPSLKNRISITRDNSKNQFFLQLNSVTTEDTATYYCARSCSRRGYAMDYWGQGTSVTVSSGGGSGGGSGGGSGGGSQIVLTQSPAIMSASLGEKVTLTCSASSSVSYMHWYQQKPGTSPKLLIYSCNLLSGVPDRFSGSGSGTDFTLSISNVETEDAATYYCYQYRIRFGGGTKLTVLQ</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSSISRSGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARSCSSRGYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPDSLAVSLGERATINCRASQSVSSYLAWYQQKPGQSPKLLIYSCNLQSGVPDRFSGSGSGTDFTLTISSLQPEDFATYYCQPYIRFGGGGTKLEIK</t>
+  </si>
+  <si>
+    <t>QVQLQESGPGLVKPSQTLSLTCTVSGFSFSSYAMSWVRQAPGKGLEWVSSISRSGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARSCSSRGYLFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPDSLAVSLGERATINCRASQSVSSYLAWYQQKPGQSPKLLIYSCNLQSGVPDRFSGSGSGTDFTLTISSLQPEDFATYYCQPYIRFGGGGTKLEIK</t>
+  </si>
+  <si>
+    <t>SIKLTESGPTSVAPGSTLNLTCTVTGDNITSSGWYWWVKQAPDNKLTWIGGIDKNGNTWLNVAYIDRATLTRDPAANTVYLSIRNVTSSDTATYYCAKSSDDNGSYLDVWGQGLKVTVSGGGGSGGGSGGGSGGGSQVKLTQSPKEVTAKIGDTVTLTCTASQPVSTVSWYMQKPGQPPQLLISNNKLVEGVPERFSASGSGTEFTLTIKDVQKEDEAIYYCEVNGQVFGQGTKLTVLE</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-088</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-089</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-090</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-091</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-092</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-093</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-094</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-095</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-096</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-097</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-098</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-099</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-100</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-101</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-102</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-103</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-104</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-105</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-106</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-107</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-108</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-109</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-110</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-111</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-112</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-113</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-114</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-115</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-116</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-117</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASIYSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGWYSYFDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYAISWVRQAPGQGLEWMGGIIIFGTANYAQKFQGRVTITADKSTSTAYMELRSEDTAVYYCAREGTTGWDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>EIVLTQSPGTLSLSPGERATLSCRASQSVSSSYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPRTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYVYYGAMDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASIYSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGWVRGSSYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASIYSYSGYTNYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGGYGGYFDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASIYPYSGYTNYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGYWYFDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGGYGGWYFDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGYWYFDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGTYYGHSYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASIYSYSGYTNYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYWYFGYFDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVKPGGSLRLSCAASGFTFRNYAMSWVRQAPGKGLEWVSSISSKSKSTSYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARESGSFSYEGVWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>SVLTQPPSVSGAPGQRVTISCTGSSSNIGAGYDVHWYQQLPGTAPKLLIYDNNKRPSGVPDRFSGSKSGTSASLAITGLQAEDEADYYCQSYDSSLSGLVFGGGTKLTVL</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYYSSGYTHYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARWGYWPGQVWLWFAYWGQGTLVTVS</t>
+  </si>
+  <si>
+    <t>QVQLVQSGAEVKKPGSSVKVSCKSSGGTSNNYAISWVRQAPGQGLEWMGGIIPILGIANYAQKFQGRVTITADKSTSTAYMELSSLRSEDTAVYYCAREDAVVDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>DIQMTQSPSTLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYKASSLESGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQQYNSYPLTFGQGTKVQVK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARHWGYCSWFAYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGSHYFGYFDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGDYYWIRQHPGKGLEWIGYIYYSGSTDYNPSLKSRVTISVDTSKNQFSLKVTAADTAVYYCARTWFGSDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>DIQMTQSPSSLSASVGDRVTITCRASQGISNYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQAHSFPYTFGGGTKLEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYWMNWVRQAPGKGLEWVAFIRYDGGNKYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARWSYSGGSGSYYVYFDYWGQGTLVTVS</t>
+  </si>
+  <si>
+    <t>SVLTQPPSVSGAPGQRVTISCTGSSSNIGAGYDVHWYQQLPGTAPKLLIYGNSNRPSGVPDRFSGSKSGTSASLAITGLQAEDEADYYCQSYDSSLSGSVFGGGTKLTVL</t>
+  </si>
+  <si>
+    <t>QVQLVQSGAEVKKPGASVKVSCKASGYTFTNYYIHWVRQAPGQGLEWMGWIYPGGNTNYAQKFQGRVTMTRDTSISTAYMELSRLRSDDTAVYYCARVRTEFDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>DIVMTQSPSSLAMSAGAETITCRSSQSVHSNGYLNWYQQKPGQPPKLLIYWASTRESGVPDRFTGSGSGTDFTLTITNVQSEDLAEYFCQQYSSYPLTFGAGTKLELR</t>
+  </si>
+  <si>
+    <t>QVQLQESGPGLVKPSETLSLTCTVSGGSVSSGGYFWSWIRQPPGKGLEWIGYVSGSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARWDVWISDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>EIVLTQSPATLSLSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYDASNRATGIPARFSGSGSGTDFTLTISSLEPEDFAVYYCQHSWDQPPWTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>QVQLQESGPGLVKPSQTLSLTCTVTGSSITSGYWNWIRQFPGNKLEWMGYISYSGTITYNPSLKSRISITRDTSKNQFFLQLNSVTTEDTATYYCARVYDGFYDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>DIVMTQSPSSLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYKASSLESGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQQYNSYPLTFGGGTKVEIK</t>
+  </si>
+  <si>
+    <t>QVQLVESGGGVVQPGRSLRLSCAASGFTFSNYAMHWVRQAPGKGLEWVAVISYNSGNPYADSVKGRFTISRDNSKNTLYLQMRVEDTAVYYCSRTTIGYGGDIWGNMFDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>DIVMTQSPATLSVSPGDRATLSCRASQSISTNLAWYQQKPGQAPRLLIYTASTLESGVPSRFSGSGSGTEFTLTISNLQSEDFATYFCQQYSAPLTFGGGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFASSSSNYVHWVRQAPGKGLEWVATIYPYSSSEYAASVQGRFTISRDDSKNTLYLQMNSLRGEDTAVYYCARYGYYSSRSGYGYYFNYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>DIVMTQSPASLAVSLGQRATISCRASESVDSYGNSFLAWYQQKPGQPPKLLIYWASTRQSGVPARFSGSGSGTDFTLNIHPVEEEDAATYYCQQHNYPLTFGAGTKLEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGAEVKKPGSSVKVSCKASGGPFTSYVISWVRQAPGQGLEWMGRIIPIRGTTYAQKFQGRVTITADKSTSTAYMELRSEDTAVYYCARGSHVFGYYDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>EIVLTQSPGTLSLSPGERATLSCRASQSISGNYLAWYQQKPGQAPRLLIYGASIRAAGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPRTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVETGGGLVQPGGSLKLSCRASGYTFTDYAMHWVRQAPLGLGLYTGGVNYARHFMKSRISITRDNSKNTLYLQMTKVDDTATYFCARRGLFDSDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>SVTQPPSVSGSTSVGDRVTTCRASQSISSNWLAWYQQFPGTAPKLLIYENSSRPSGVPDRFSGSGSGTDFTLKISRVEAEDVGVYYCLQALSPRFTFGSGTKLEIK</t>
+  </si>
+  <si>
+    <t>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSNYGISWVRQAPGQGLEWMGGIIPILGIANYAQKFQGRVTITADKSTSTAYMELRSLRSDDTAVYYCAREGHAYFHNGLDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>EIVLTQSPGTLSLSPGERATLSCRASQSVSSSYFAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPPATFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>QVQLVESGGGVVQPGRSLRLSCAASGFTFSSFGMHWVRQAPGKGLEWVAIIWDGSNKYYADSVKGRFTISRDNSKNTLYLQMRAEDTAVYYCALDGGSFDDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>DIQMTQSPSTLSTSVGDRVTITCRASQSISSWLAWYQQKPGKAPKLLIYKASTLESGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQHFYGTPITFGPGTKVD</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVKPGGSLKVSCAASGFTFSDYSMNWVRQAPGKGLEWVSSITSGYTSIYYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARVSDNFDYWGQGTAVTVSS</t>
+  </si>
+  <si>
+    <t>DIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK</t>
+  </si>
+  <si>
+    <t>EVQLQQSGAELVKPGASVKLSCKASGYTFLDYYMYWVKQRPEQGLEWIGRIDPANGNTIYAPKFQDKATLTLTTDTTSSNTAYMQLSSLTSEDSAVYYCAREGNYGYRDLAWFAYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>AIRMTQSPSSLSASVGDTVTITCRASQSISSYLNWYQQKPGKAPKLLIYTASNLESGVPSRFSGSGSGTDYTLTISSLQPEDIATYYCQQYDNPPLTFGGGTKVEIK</t>
+  </si>
+  <si>
+    <t>QVQLQESGPGLVKPSETLSLTCTVSGGSVSSGGYFWSWIRQRPGKGLEWIGHIYYSGTTNYNPSLRSRVTISRDTSKSQFSLKMDSLTSEDTALYYCARQLGLRFDIWGQGTMVTVSS</t>
+  </si>
+  <si>
+    <t>DIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYTTPPTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>QVQLVESGGGLVQPGGSLRLSCAASGFNLYSSSIHWVRQAPGKGLEWVARIYPSGATYYADSVKGRFTISADTSKNTAYLQMRAEDTAVYYCARSYYGDDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASFLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYSYYPFTFGQGTKVEIK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1295,6 +1529,13 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1316,7 +1557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1346,11 +1587,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="21">
     <dxf>
       <fill>
         <patternFill>
@@ -1472,20 +1716,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
         </patternFill>
@@ -1526,13 +1756,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Colby" refreshedDate="45974.450344675926" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="82" xr:uid="{C69715DE-2A16-4198-9FD9-FAE4F60B2265}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Colby" refreshedDate="45976.484084027776" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="86" xr:uid="{C69715DE-2A16-4198-9FD9-FAE4F60B2265}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:T2970" sheet="Antibody Candidates"/>
   </cacheSource>
   <cacheFields count="20">
     <cacheField name="antibody_id" numFmtId="0">
-      <sharedItems containsBlank="1" count="82">
+      <sharedItems containsBlank="1" count="86">
         <s v="sbio-nipahgpg-001"/>
         <s v="sbio-nipahgpg-002"/>
         <s v="sbio-nipahgpg-003"/>
@@ -1614,15 +1844,20 @@
         <s v="sbio-nipahgpg-081"/>
         <s v="sbio-nipahgpg-082"/>
         <s v="sbio-nipahgpg-083"/>
+        <s v="sbio-nipahgpg-084"/>
+        <s v="sbio-nipahgpg-085"/>
+        <s v="sbio-nipahgpg-086"/>
+        <s v="sbio-nipahgpg-087"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="method" numFmtId="0">
-      <sharedItems containsBlank="1" count="5">
+      <sharedItems containsBlank="1" count="6">
         <s v="peleke-1"/>
         <s v="General LLM"/>
         <s v="peleke-1 + ProteinMPNN"/>
         <s v="ProteinMPNN"/>
+        <s v="General LLM + ProteinMPNN"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1657,7 +1892,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="franken_chain" numFmtId="0">
-      <sharedItems containsBlank="1" count="82">
+      <sharedItems containsBlank="1" count="86">
         <s v="QVQLVESGGGVVQPGRSLRLSCAASGFTFSSYGMHWVRQAPGKGLEWVAVISYDGSKKYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARSPFYDSSGYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISSYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQANSFPPTFGQGTKVEIK"/>
         <s v="QVQLVESGGGVVQPGKSLRLSCAASGFTFSSYAMSWVRQAPGKGPEWVAFISYDGSNNYYADSVKGRFTISRDNPKNTLYLQMKSLRAEDTAVYYCARWRQRFDMYWGRGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK"/>
         <s v="QVQLQESGPGLVKPSETLSLTCTVSGASIRGYYWSWIRQFPGKELEWIGYVYSGSTENYNPSLKSRVTVTLTDTKNSFSLKLNSVTSEDTAVYYCARGGALIYYDVWGTGTTVTVSSGGGSGGGSGGGSGGGSDIQVTQSPVSLSASVGDRVTITCRASQGIDSLNWFQQRPGKAPKLLIYAASQLTGIAPRFRSGSGSGTDFTLTISSLQPEDFATYYCQQYNIYPATFGQGTKVEIK"/>
@@ -1739,6 +1974,10 @@
         <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSSYGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARWEGYRGDLWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYYEWLRTFGQGTKVEIK"/>
         <s v="QVQLQESGPGLVKPSQTLSLTCTVSGGSVSSGSYYWSWIRQPPGKGLEWIGYIYYSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARVDSFYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASSGSSYDNGWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYLQDSNYTPRTFGQGTKVEIK"/>
         <s v="QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYTISWVRQAPGQGLEWMGRIIPIFGTANYAQKFQGRVTITADKSTSTAYMELSSLRSEDTAVYYCARYYDSYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQCGNSFPWTFGGGTKLEIK"/>
+        <s v="DVQLQESGPGLVKPSQTLSLTCTVSGYSITSDYYWNWIRQFPGNKLEWMGYISYDGSSNYNPSLKNRISITRDNSKNQFFLQLNSVTTEDTATYYCARSCSRRGYAMDYWGQGTSVTVSSGGGSGGGSGGGSGGGSQIVLTQSPAIMSASLGEKVTLTCSASSSVSYMHWYQQKPGTSPKLLIYSCNLLSGVPDRFSGSGSGTDFTLSISNVETEDAATYYCYQYRIRFGGGTKLTVLQ"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSSISRSGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARSCSSRGYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPDSLAVSLGERATINCRASQSVSSYLAWYQQKPGQSPKLLIYSCNLQSGVPDRFSGSGSGTDFTLTISSLQPEDFATYYCQPYIRFGGGGTKLEIK"/>
+        <s v="QVQLQESGPGLVKPSQTLSLTCTVSGFSFSSYAMSWVRQAPGKGLEWVSSISRSGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARSCSSRGYLFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPDSLAVSLGERATINCRASQSVSSYLAWYQQKPGQSPKLLIYSCNLQSGVPDRFSGSGSGTDFTLTISSLQPEDFATYYCQPYIRFGGGGTKLEIK"/>
+        <s v="SIKLTESGPTSVAPGSTLNLTCTVTGDNITSSGWYWWVKQAPDNKLTWIGGIDKNGNTWLNVAYIDRATLTRDPAANTVYLSIRNVTSSDTATYYCAKSSDDNGSYLDVWGQGLKVTVSGGGGSGGGSGGGSGGGSQVKLTQSPKEVTAKIGDTVTLTCTASQPVSTVSWYMQKPGQPPQLLISNNKLVEGVPERFSASGSGTEFTLTIKDVQKEDEAIYYCEVNGQVFGQGTKLTVLE"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1761,7 +2000,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="0.69121100000000002"/>
     </cacheField>
     <cacheField name="submitted_to_comp" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-11-12T00:00:00" maxDate="2025-11-14T00:00:00" count="9">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-11-12T00:00:00" maxDate="2025-11-16T00:00:00" count="11">
         <d v="2025-11-07T00:00:00"/>
         <d v="2025-11-08T00:00:00"/>
         <d v="2025-11-09T00:00:00"/>
@@ -1769,7 +2008,9 @@
         <d v="2025-11-11T00:00:00"/>
         <d v="2025-11-12T00:00:00"/>
         <d v="2025-11-13T00:00:00"/>
+        <d v="2025-11-15T00:00:00"/>
         <m/>
+        <d v="2025-11-14T00:00:00" u="1"/>
         <d v="2023-11-12T00:00:00" u="1"/>
       </sharedItems>
     </cacheField>
@@ -1783,7 +2024,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="82">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="86">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -3058,7 +3299,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="7"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="58"/>
@@ -3080,7 +3321,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="7"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="59"/>
@@ -3278,7 +3519,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="7"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="68"/>
@@ -3300,7 +3541,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="7"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="69"/>
@@ -3498,7 +3739,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="7"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="78"/>
@@ -3520,7 +3761,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="7"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="79"/>
@@ -3568,35 +3809,123 @@
   </r>
   <r>
     <x v="81"/>
+    <x v="1"/>
+    <s v="GPT-4o"/>
+    <n v="0.7"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="DVQLQESGPGLVKPSQTLSLTCTVSGYSITSDYYWNWIRQFPGNKLEWMGYISYDGSSNYNPSLKNRISITRDNSKNQFFLQLNSVTTEDTATYYCARSCSRRGYAMDYWGQGTSVTVSS"/>
+    <s v="QIVLTQSPAIMSASLGEKVTLTCSASSSVSYMHWYQQKPGTSPKLLIYSCNLLSGVPDRFSGSGSGTDFTLSISNVETEDAATYYCYQYRIRFGGGTKLTVLQ"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="81"/>
+    <n v="239"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="82"/>
+    <x v="1"/>
+    <s v="GPT-4o"/>
+    <n v="0.1"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSSISRSGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARSCSSRGYFDYWGQGTLVTVSS"/>
+    <s v="DIVMTQSPDSLAVSLGERATINCRASQSVSSYLAWYQQKPGQSPKLLIYSCNLQSGVPDRFSGSGSGTDFTLTISSLQPEDFATYYCQPYIRFGGGGTKLEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="82"/>
+    <n v="238"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="83"/>
+    <x v="1"/>
+    <s v="GPT-4o"/>
+    <n v="0.9"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="QVQLQESGPGLVKPSQTLSLTCTVSGFSFSSYAMSWVRQAPGKGLEWVSSISRSGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARSCSSRGYLFDYWGQGTLVTVSS"/>
+    <s v="DIVMTQSPDSLAVSLGERATINCRASQSVSSYLAWYQQKPGQSPKLLIYSCNLQSGVPDRFSGSGSGTDFTLTISSLQPEDFATYYCQPYIRFGGGGTKLEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="83"/>
+    <n v="239"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="84"/>
     <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="81"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="GPT-4o /  v_48_030"/>
+    <n v="0.2"/>
+    <s v="derivative"/>
+    <s v="sbio-nipahgpg-084"/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="SIKLTESGPTSVAPGSTLNLTCTVTGDNITSSGWYWWVKQAPDNKLTWIGGIDKNGNTWLNVAYIDRATLTRDPAANTVYLSIRNVTSSDTATYYCAKSSDDNGSYLDVWGQGLKVTVSG"/>
+    <s v="QVKLTQSPKEVTAKIGDTVTLTCTASQPVSTVSWYMQKPGQPPQLLISNNKLVEGVPERFSASGSGTEFTLTIKDVQKEDEAIYYCEVNGQVFGQGTKLTVLE"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="84"/>
+    <n v="239"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
     <m/>
     <m/>
     <x v="7"/>
+  </r>
+  <r>
+    <x v="85"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="85"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{135D55CA-26D1-4FA2-9199-54D547F2C103}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{135D55CA-26D1-4FA2-9199-54D547F2C103}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:C13" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="82">
+      <items count="86">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -3646,7 +3975,7 @@
         <item x="46"/>
         <item x="47"/>
         <item x="48"/>
-        <item x="81"/>
+        <item x="85"/>
         <item x="49"/>
         <item x="50"/>
         <item x="51"/>
@@ -3679,14 +4008,19 @@
         <item x="78"/>
         <item x="79"/>
         <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="5">
+      <items count="6">
         <item x="1"/>
         <item x="0"/>
         <item x="2"/>
         <item x="3"/>
+        <item x="5"/>
         <item x="4"/>
       </items>
     </pivotField>
@@ -3701,7 +4035,7 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="82">
+      <items count="86">
         <item x="19"/>
         <item x="15"/>
         <item x="23"/>
@@ -3751,7 +4085,7 @@
         <item x="46"/>
         <item x="47"/>
         <item x="48"/>
-        <item x="81"/>
+        <item x="85"/>
         <item x="49"/>
         <item x="50"/>
         <item x="51"/>
@@ -3784,6 +4118,10 @@
         <item x="78"/>
         <item x="79"/>
         <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -3793,16 +4131,18 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="9">
-        <item x="7"/>
+      <items count="11">
+        <item x="8"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
-        <item m="1" x="8"/>
+        <item m="1" x="10"/>
         <item x="6"/>
+        <item m="1" x="9"/>
+        <item x="7"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -3813,61 +4153,61 @@
   </rowFields>
   <rowItems count="10">
     <i>
-      <x v="53"/>
+      <x v="56"/>
       <x v="1"/>
-      <x v="53"/>
+      <x v="56"/>
     </i>
     <i>
-      <x v="54"/>
+      <x v="57"/>
       <x v="1"/>
-      <x v="54"/>
+      <x v="57"/>
     </i>
     <i>
-      <x v="55"/>
+      <x v="66"/>
       <x v="1"/>
-      <x v="55"/>
+      <x v="66"/>
     </i>
     <i>
-      <x v="63"/>
+      <x v="67"/>
       <x v="1"/>
-      <x v="63"/>
+      <x v="67"/>
     </i>
     <i>
-      <x v="64"/>
+      <x v="76"/>
       <x v="1"/>
-      <x v="64"/>
+      <x v="76"/>
     </i>
     <i>
-      <x v="65"/>
+      <x v="77"/>
       <x v="1"/>
-      <x v="65"/>
+      <x v="77"/>
     </i>
     <i>
-      <x v="73"/>
-      <x v="1"/>
-      <x v="73"/>
+      <x v="82"/>
+      <x/>
+      <x v="82"/>
     </i>
     <i>
-      <x v="74"/>
-      <x v="1"/>
-      <x v="74"/>
+      <x v="83"/>
+      <x/>
+      <x v="83"/>
     </i>
     <i>
-      <x v="75"/>
-      <x v="1"/>
-      <x v="75"/>
+      <x v="84"/>
+      <x/>
+      <x v="84"/>
     </i>
     <i>
-      <x v="81"/>
-      <x v="1"/>
-      <x v="81"/>
+      <x v="85"/>
+      <x v="5"/>
+      <x v="85"/>
     </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="19" item="8" hier="-1"/>
+    <pageField fld="19" item="10" hier="-1"/>
   </pageFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -4198,42 +4538,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V86"/>
+  <dimension ref="A1:V116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B108" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I86" sqref="I86"/>
+      <selection pane="bottomRight" activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="54" style="2" customWidth="1"/>
-    <col min="10" max="10" width="46.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="46.42578125" style="2" customWidth="1"/>
     <col min="11" max="11" width="16" style="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="2" customWidth="1"/>
-    <col min="13" max="13" width="71.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="71.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.1640625" style="1"/>
+    <col min="20" max="20" width="23.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -4301,7 +4641,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -4369,7 +4709,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -4437,7 +4777,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -4505,7 +4845,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -4573,7 +4913,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -4641,7 +4981,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -4705,7 +5045,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
@@ -4778,7 +5118,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
@@ -4851,7 +5191,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -4924,7 +5264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -4997,7 +5337,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -5064,7 +5404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -5137,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
@@ -5210,7 +5550,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>69</v>
       </c>
@@ -5277,7 +5617,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>70</v>
       </c>
@@ -5350,7 +5690,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -5423,7 +5763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>72</v>
       </c>
@@ -5496,7 +5836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>73</v>
       </c>
@@ -5569,7 +5909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>74</v>
       </c>
@@ -5642,7 +5982,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>75</v>
       </c>
@@ -5715,7 +6055,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>76</v>
       </c>
@@ -5788,7 +6128,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>101</v>
       </c>
@@ -5855,7 +6195,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>102</v>
       </c>
@@ -5928,7 +6268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
@@ -6001,7 +6341,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>104</v>
       </c>
@@ -6074,7 +6414,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>105</v>
       </c>
@@ -6147,7 +6487,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>106</v>
       </c>
@@ -6220,7 +6560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>107</v>
       </c>
@@ -6293,7 +6633,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>108</v>
       </c>
@@ -6366,7 +6706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>174</v>
       </c>
@@ -6422,7 +6762,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>175</v>
       </c>
@@ -6481,7 +6821,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>176</v>
       </c>
@@ -6540,7 +6880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>177</v>
       </c>
@@ -6599,7 +6939,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>178</v>
       </c>
@@ -6658,7 +6998,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>179</v>
       </c>
@@ -6717,7 +7057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>180</v>
       </c>
@@ -6776,7 +7116,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>181</v>
       </c>
@@ -6835,7 +7175,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>182</v>
       </c>
@@ -6894,7 +7234,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>183</v>
       </c>
@@ -6953,7 +7293,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>184</v>
       </c>
@@ -7012,7 +7352,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>185</v>
       </c>
@@ -7071,7 +7411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>186</v>
       </c>
@@ -7130,7 +7470,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>187</v>
       </c>
@@ -7189,7 +7529,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>188</v>
       </c>
@@ -7248,7 +7588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>189</v>
       </c>
@@ -7307,7 +7647,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>190</v>
       </c>
@@ -7366,7 +7706,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>191</v>
       </c>
@@ -7425,7 +7765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>192</v>
       </c>
@@ -7484,7 +7824,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>193</v>
       </c>
@@ -7543,7 +7883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>263</v>
       </c>
@@ -7596,13 +7936,13 @@
         <v>45973</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="V51" s="4">
         <v>0.16</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>264</v>
       </c>
@@ -7655,13 +7995,13 @@
         <v>45973</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="V52" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>265</v>
       </c>
@@ -7714,13 +8054,13 @@
         <v>45973</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="V53" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>266</v>
       </c>
@@ -7773,13 +8113,13 @@
         <v>45974</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="V54" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>267</v>
       </c>
@@ -7831,11 +8171,11 @@
       <c r="T55" s="10">
         <v>45974</v>
       </c>
-      <c r="U55" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+      <c r="U55" s="11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>268</v>
       </c>
@@ -7888,13 +8228,13 @@
         <v>45974</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="V56" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>269</v>
       </c>
@@ -7944,10 +8284,13 @@
         <v>0</v>
       </c>
       <c r="T57" s="10">
-        <v>45975</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+        <v>45976</v>
+      </c>
+      <c r="U57" s="11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>270</v>
       </c>
@@ -7997,10 +8340,10 @@
         <v>0</v>
       </c>
       <c r="T58" s="10">
-        <v>45975</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+        <v>45976</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>271</v>
       </c>
@@ -8051,7 +8394,7 @@
       </c>
       <c r="T59" s="10"/>
     </row>
-    <row r="60" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>272</v>
       </c>
@@ -8102,7 +8445,7 @@
       </c>
       <c r="T60" s="10"/>
     </row>
-    <row r="61" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>273</v>
       </c>
@@ -8155,13 +8498,13 @@
         <v>45973</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="V61" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>274</v>
       </c>
@@ -8214,13 +8557,13 @@
         <v>45973</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="V62" s="4">
         <v>0.33</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>275</v>
       </c>
@@ -8273,13 +8616,13 @@
         <v>45973</v>
       </c>
       <c r="U63" s="2" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="V63" s="4">
         <v>0.06</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>276</v>
       </c>
@@ -8332,13 +8675,13 @@
         <v>45974</v>
       </c>
       <c r="U64" s="2" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="V64" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>277</v>
       </c>
@@ -8391,13 +8734,13 @@
         <v>45974</v>
       </c>
       <c r="U65" s="2" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="V65" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>278</v>
       </c>
@@ -8450,13 +8793,13 @@
         <v>45974</v>
       </c>
       <c r="U66" s="2" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="V66" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>279</v>
       </c>
@@ -8506,10 +8849,10 @@
         <v>0</v>
       </c>
       <c r="T67" s="10">
-        <v>45975</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+        <v>45976</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>280</v>
       </c>
@@ -8559,10 +8902,10 @@
         <v>0</v>
       </c>
       <c r="T68" s="10">
-        <v>45975</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+        <v>45976</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>281</v>
       </c>
@@ -8613,7 +8956,7 @@
       </c>
       <c r="T69" s="10"/>
     </row>
-    <row r="70" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>282</v>
       </c>
@@ -8664,7 +9007,7 @@
       </c>
       <c r="T70" s="10"/>
     </row>
-    <row r="71" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>283</v>
       </c>
@@ -8717,13 +9060,13 @@
         <v>45973</v>
       </c>
       <c r="U71" s="2" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="V71" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>284</v>
       </c>
@@ -8776,13 +9119,13 @@
         <v>45973</v>
       </c>
       <c r="U72" s="2" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="V72" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>285</v>
       </c>
@@ -8835,13 +9178,13 @@
         <v>45973</v>
       </c>
       <c r="U73" s="2" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="V73" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>286</v>
       </c>
@@ -8894,13 +9237,13 @@
         <v>45974</v>
       </c>
       <c r="U74" s="2" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="V74" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>287</v>
       </c>
@@ -8953,13 +9296,13 @@
         <v>45974</v>
       </c>
       <c r="U75" s="2" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="V75" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>288</v>
       </c>
@@ -9012,13 +9355,13 @@
         <v>45974</v>
       </c>
       <c r="U76" s="2" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="V76" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>289</v>
       </c>
@@ -9068,10 +9411,10 @@
         <v>0</v>
       </c>
       <c r="T77" s="10">
-        <v>45975</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+        <v>45976</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>290</v>
       </c>
@@ -9121,10 +9464,10 @@
         <v>0</v>
       </c>
       <c r="T78" s="10">
-        <v>45975</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+        <v>45976</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>291</v>
       </c>
@@ -9175,7 +9518,7 @@
       </c>
       <c r="T79" s="10"/>
     </row>
-    <row r="80" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>292</v>
       </c>
@@ -9226,7 +9569,7 @@
       </c>
       <c r="T80" s="10"/>
     </row>
-    <row r="81" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>341</v>
       </c>
@@ -9285,15 +9628,15 @@
         <v>45973</v>
       </c>
       <c r="U81" s="2" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="V81" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>18</v>
@@ -9317,10 +9660,10 @@
         <v>3</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="K82" s="1" t="b">
         <v>1</v>
@@ -9350,21 +9693,21 @@
         <v>45974</v>
       </c>
       <c r="U82" s="2" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="V82" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D83" s="4">
         <v>0.7</v>
@@ -9376,10 +9719,10 @@
         <v>258</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="K83" s="1" t="b">
         <v>1</v>
@@ -9406,18 +9749,18 @@
         <v>0</v>
       </c>
       <c r="T83" s="10">
-        <v>45975</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+        <v>45976</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D84" s="4">
         <v>0.1</v>
@@ -9429,10 +9772,10 @@
         <v>258</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="K84" s="1" t="b">
         <v>1</v>
@@ -9459,18 +9802,18 @@
         <v>0</v>
       </c>
       <c r="T84" s="10">
-        <v>45975</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+        <v>45976</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D85" s="4">
         <v>0.9</v>
@@ -9482,10 +9825,10 @@
         <v>258</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="K85" s="1" t="b">
         <v>1</v>
@@ -9512,18 +9855,18 @@
         <v>0</v>
       </c>
       <c r="T85" s="10">
-        <v>45975</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+        <v>45976</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="D86" s="4">
         <v>0.2</v>
@@ -9532,16 +9875,16 @@
         <v>49</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>258</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="K86" s="1" t="b">
         <v>1</v>
@@ -9554,11 +9897,11 @@
         <v>SIKLTESGPTSVAPGSTLNLTCTVTGDNITSSGWYWWVKQAPDNKLTWIGGIDKNGNTWLNVAYIDRATLTRDPAANTVYLSIRNVTSSDTATYYCAKSSDDNGSYLDVWGQGLKVTVSGGGGSGGGSGGGSGGGSQVKLTQSPKEVTAKIGDTVTLTCTASQPVSTVSWYMQKPGQPPQLLISNNKLVEGVPERFSASGSGTEFTLTIKDVQKEDEAIYYCEVNGQVFGQGTKLTVLE</v>
       </c>
       <c r="N86" s="4">
-        <f t="shared" ref="N86" si="8">LEN(M86)</f>
+        <f>LEN(M86)</f>
         <v>239</v>
       </c>
       <c r="O86" s="1" t="b">
-        <f t="shared" ref="O86" si="9">IF(N86&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" ref="O86:O116" si="8">IF(N86&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P86" s="1" t="b">
@@ -9568,33 +9911,1541 @@
         <v>0</v>
       </c>
       <c r="T86" s="10">
-        <v>45975</v>
+        <v>45976</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K87" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M87" s="2" t="str">
+        <f t="shared" ref="M87:M116" si="9">_xlfn.CONCAT(I87,L87,J87)</f>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASIYSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGWYSYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+      </c>
+      <c r="N87" s="4">
+        <f t="shared" ref="N87:N116" si="10">LEN(M87)</f>
+        <v>240</v>
+      </c>
+      <c r="O87" s="1" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P87" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="K88" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M88" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYAISWVRQAPGQGLEWMGGIIIFGTANYAQKFQGRVTITADKSTSTAYMELRSEDTAVYYCAREGTTGWDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSVSSSYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPRTFGQGTKVEIK</v>
+      </c>
+      <c r="N88" s="4">
+        <f t="shared" si="10"/>
+        <v>237</v>
+      </c>
+      <c r="O88" s="1" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P88" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K89" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M89" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYVYYGAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+      </c>
+      <c r="N89" s="4">
+        <f t="shared" si="10"/>
+        <v>242</v>
+      </c>
+      <c r="O89" s="1" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P89" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K90" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M90" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASIYSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGWVRGSSYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+      </c>
+      <c r="N90" s="4">
+        <f t="shared" si="10"/>
+        <v>240</v>
+      </c>
+      <c r="O90" s="1" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P90" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K91" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M91" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASIYSYSGYTNYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGGYGGYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+      </c>
+      <c r="N91" s="4">
+        <f t="shared" si="10"/>
+        <v>243</v>
+      </c>
+      <c r="O91" s="1" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P91" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K92" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M92" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASIYPYSGYTNYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGYWYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+      </c>
+      <c r="N92" s="4">
+        <f t="shared" si="10"/>
+        <v>241</v>
+      </c>
+      <c r="O92" s="1" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P92" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K93" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M93" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGGYGGWYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+      </c>
+      <c r="N93" s="4">
+        <f t="shared" si="10"/>
+        <v>244</v>
+      </c>
+      <c r="O93" s="1" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P93" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K94" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M94" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGYWYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+      </c>
+      <c r="N94" s="4">
+        <f t="shared" si="10"/>
+        <v>241</v>
+      </c>
+      <c r="O94" s="1" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K95" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M95" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGTYYGHSYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+      </c>
+      <c r="N95" s="4">
+        <f t="shared" si="10"/>
+        <v>242</v>
+      </c>
+      <c r="O95" s="1" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P95" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K96" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M96" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASIYSYSGYTNYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYWYFGYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+      </c>
+      <c r="N96" s="4">
+        <f t="shared" si="10"/>
+        <v>241</v>
+      </c>
+      <c r="O96" s="1" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P96" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="K97" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M97" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>EVQLVESGGGLVKPGGSLRLSCAASGFTFRNYAMSWVRQAPGKGLEWVSSISSKSKSTSYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARESGSFSYEGVWGQGTLVTVSSGGGSGGGSGGGSGGGSSVLTQPPSVSGAPGQRVTISCTGSSSNIGAGYDVHWYQQLPGTAPKLLIYDNNKRPSGVPDRFSGSKSGTSASLAITGLQAEDEADYYCQSYDSSLSGLVFGGGTKLTVL</v>
+      </c>
+      <c r="N97" s="4">
+        <f t="shared" si="10"/>
+        <v>245</v>
+      </c>
+      <c r="O97" s="1" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P97" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K98" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M98" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYYSSGYTHYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARWGYWPGQVWLWFAYWGQGTLVTVSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</v>
+      </c>
+      <c r="N98" s="4">
+        <f t="shared" si="10"/>
+        <v>245</v>
+      </c>
+      <c r="O98" s="1" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P98" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="K99" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M99" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>QVQLVQSGAEVKKPGSSVKVSCKSSGGTSNNYAISWVRQAPGQGLEWMGGIIPILGIANYAQKFQGRVTITADKSTSTAYMELSSLRSEDTAVYYCAREDAVVDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSTLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYKASSLESGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQQYNSYPLTFGQGTKVQVK</v>
+      </c>
+      <c r="N99" s="4">
+        <f t="shared" si="10"/>
+        <v>239</v>
+      </c>
+      <c r="O99" s="1" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P99" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K100" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M100" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARHWGYCSWFAYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+      </c>
+      <c r="N100" s="4">
+        <f t="shared" si="10"/>
+        <v>242</v>
+      </c>
+      <c r="O100" s="1" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P100" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K101" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M101" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGSHYFGYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</v>
+      </c>
+      <c r="N101" s="4">
+        <f t="shared" si="10"/>
+        <v>242</v>
+      </c>
+      <c r="O101" s="1" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P101" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="K102" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M102" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGDYYWIRQHPGKGLEWIGYIYYSGSTDYNPSLKSRVTISVDTSKNQFSLKVTAADTAVYYCARTWFGSDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGISNYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQAHSFPYTFGGGTKLEIK</v>
+      </c>
+      <c r="N102" s="4">
+        <f t="shared" si="10"/>
+        <v>235</v>
+      </c>
+      <c r="O102" s="1" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P102" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D103" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="K103" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M103" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYWMNWVRQAPGKGLEWVAFIRYDGGNKYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARWSYSGGSGSYYVYFDYWGQGTLVTVSGGGSGGGSGGGSGGGSSVLTQPPSVSGAPGQRVTISCTGSSSNIGAGYDVHWYQQLPGTAPKLLIYGNSNRPSGVPDRFSGSKSGTSASLAITGLQAEDEADYYCQSYDSSLSGSVFGGGTKLTVL</v>
+      </c>
+      <c r="N103" s="4">
+        <f t="shared" si="10"/>
+        <v>250</v>
+      </c>
+      <c r="O103" s="1" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P103" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D104" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="K104" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M104" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>QVQLVQSGAEVKKPGASVKVSCKASGYTFTNYYIHWVRQAPGQGLEWMGWIYPGGNTNYAQKFQGRVTMTRDTSISTAYMELSRLRSDDTAVYYCARVRTEFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPSSLAMSAGAETITCRSSQSVHSNGYLNWYQQKPGQPPKLLIYWASTRESGVPDRFTGSGSGTDFTLTITNVQSEDLAEYFCQQYSSYPLTFGAGTKLELR</v>
+      </c>
+      <c r="N104" s="4">
+        <f t="shared" si="10"/>
+        <v>239</v>
+      </c>
+      <c r="O104" s="1" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P104" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="K105" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M105" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>QVQLQESGPGLVKPSETLSLTCTVSGGSVSSGGYFWSWIRQPPGKGLEWIGYVSGSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARWDVWISDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPATLSLSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYDASNRATGIPARFSGSGSGTDFTLTISSLEPEDFAVYYCQHSWDQPPWTFGQGTKVEIK</v>
+      </c>
+      <c r="N105" s="4">
+        <f t="shared" si="10"/>
+        <v>242</v>
+      </c>
+      <c r="O105" s="1" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P105" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="K106" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M106" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>QVQLQESGPGLVKPSQTLSLTCTVTGSSITSGYWNWIRQFPGNKLEWMGYISYSGTITYNPSLKSRISITRDTSKNQFFLQLNSVTTEDTATYYCARVYDGFYDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPSSLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYKASSLESGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQQYNSYPLTFGGGTKVEIK</v>
+      </c>
+      <c r="N106" s="4">
+        <f t="shared" si="10"/>
+        <v>239</v>
+      </c>
+      <c r="O106" s="1" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P106" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="K107" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M107" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>QVQLVESGGGVVQPGRSLRLSCAASGFTFSNYAMHWVRQAPGKGLEWVAVISYNSGNPYADSVKGRFTISRDNSKNTLYLQMRVEDTAVYYCSRTTIGYGGDIWGNMFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPATLSVSPGDRATLSCRASQSISTNLAWYQQKPGQAPRLLIYTASTLESGVPSRFSGSGSGTEFTLTISNLQSEDFATYFCQQYSAPLTFGGGTKVEIK</v>
+      </c>
+      <c r="N107" s="4">
+        <f t="shared" si="10"/>
+        <v>243</v>
+      </c>
+      <c r="O107" s="1" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P107" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D108" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="K108" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M108" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFASSSSNYVHWVRQAPGKGLEWVATIYPYSSSEYAASVQGRFTISRDDSKNTLYLQMNSLRGEDTAVYYCARYGYYSSRSGYGYYFNYWGQGTLVTVSSGGGSGGGSGGGSDIVMTQSPASLAVSLGQRATISCRASESVDSYGNSFLAWYQQKPGQPPKLLIYWASTRQSGVPARFSGSGSGTDFTLNIHPVEEEDAATYYCQQHNYPLTFGAGTKLEIK</v>
+      </c>
+      <c r="N108" s="4">
+        <f t="shared" si="10"/>
+        <v>247</v>
+      </c>
+      <c r="O108" s="1" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P108" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="K109" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M109" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>EVQLVESGAEVKKPGSSVKVSCKASGGPFTSYVISWVRQAPGQGLEWMGRIIPIRGTTYAQKFQGRVTITADKSTSTAYMELRSEDTAVYYCARGSHVFGYYDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSISGNYLAWYQQKPGQAPRLLIYGASIRAAGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPRTFGQGTKVEIK</v>
+      </c>
+      <c r="N109" s="4">
+        <f t="shared" si="10"/>
+        <v>239</v>
+      </c>
+      <c r="O109" s="1" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P109" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="K110" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M110" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>EVQLVETGGGLVQPGGSLKLSCRASGYTFTDYAMHWVRQAPLGLGLYTGGVNYARHFMKSRISITRDNSKNTLYLQMTKVDDTATYFCARRGLFDSDYWGQGTLVTVSSGGGSGGGSGGGSGGGSSVTQPPSVSGSTSVGDRVTTCRASQSISSNWLAWYQQFPGTAPKLLIYENSSRPSGVPDRFSGSGSGTDFTLKISRVEAEDVGVYYCLQALSPRFTFGSGTKLEIK</v>
+      </c>
+      <c r="N110" s="4">
+        <f t="shared" si="10"/>
+        <v>231</v>
+      </c>
+      <c r="O110" s="1" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P110" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="K111" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M111" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSNYGISWVRQAPGQGLEWMGGIIPILGIANYAQKFQGRVTITADKSTSTAYMELRSLRSDDTAVYYCAREGHAYFHNGLDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSVSSSYFAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPPATFGQGTKVEIK</v>
+      </c>
+      <c r="N111" s="4">
+        <f t="shared" si="10"/>
+        <v>246</v>
+      </c>
+      <c r="O111" s="1" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P111" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D112" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="K112" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M112" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>QVQLVESGGGVVQPGRSLRLSCAASGFTFSSFGMHWVRQAPGKGLEWVAIIWDGSNKYYADSVKGRFTISRDNSKNTLYLQMRAEDTAVYYCALDGGSFDDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSTLSTSVGDRVTITCRASQSISSWLAWYQQKPGKAPKLLIYKASTLESGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQHFYGTPITFGPGTKVD</v>
+      </c>
+      <c r="N112" s="4">
+        <f t="shared" si="10"/>
+        <v>234</v>
+      </c>
+      <c r="O112" s="1" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P112" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D113" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="K113" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M113" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>EVQLVESGGGLVKPGGSLKVSCAASGFTFSDYSMNWVRQAPGKGLEWVSSITSGYTSIYYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARVSDNFDYWGQGTAVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK</v>
+      </c>
+      <c r="N113" s="4">
+        <f t="shared" si="10"/>
+        <v>238</v>
+      </c>
+      <c r="O113" s="1" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P113" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="K114" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M114" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>EVQLQQSGAELVKPGASVKLSCKASGYTFLDYYMYWVKQRPEQGLEWIGRIDPANGNTIYAPKFQDKATLTLTTDTTSSNTAYMQLSSLTSEDSAVYYCAREGNYGYRDLAWFAYWGQGTLVTVSSGGGSGGGSGGGSGGGSAIRMTQSPSSLSASVGDTVTITCRASQSISSYLNWYQQKPGKAPKLLIYTASNLESGVPSRFSGSGSGTDYTLTISSLQPEDIATYYCQQYDNPPLTFGGGTKVEIK</v>
+      </c>
+      <c r="N114" s="4">
+        <f t="shared" si="10"/>
+        <v>249</v>
+      </c>
+      <c r="O114" s="1" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P114" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D115" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="K115" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M115" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>QVQLQESGPGLVKPSETLSLTCTVSGGSVSSGGYFWSWIRQRPGKGLEWIGHIYYSGTTNYNPSLRSRVTISRDTSKSQFSLKMDSLTSEDTALYYCARQLGLRFDIWGQGTMVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYTTPPTFGQGTKVEIK</v>
+      </c>
+      <c r="N115" s="4">
+        <f t="shared" si="10"/>
+        <v>241</v>
+      </c>
+      <c r="O115" s="1" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P115" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D116" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="K116" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L116" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M116" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>QVQLVESGGGLVQPGGSLRLSCAASGFNLYSSSIHWVRQAPGKGLEWVARIYPSGATYYADSVKGRFTISADTSKNTAYLQMRAEDTAVYYCARSYYGDDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASFLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYSYYPFTFGQGTKVEIK</v>
+      </c>
+      <c r="N116" s="4">
+        <f t="shared" si="10"/>
+        <v>235</v>
+      </c>
+      <c r="O116" s="1" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P116" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:V81" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K1:L1048576">
-    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="20" priority="19">
+    <cfRule type="containsBlanks" dxfId="18" priority="19">
       <formula>LEN(TRIM(K1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O86">
-    <cfRule type="containsBlanks" dxfId="19" priority="11">
+  <conditionalFormatting sqref="O2:O116">
+    <cfRule type="containsBlanks" dxfId="17" priority="11">
       <formula>LEN(TRIM(O2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:S2 R3:S22 O3:Q83">
-    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
+  <conditionalFormatting sqref="O84:Q116">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:S2 O3:Q83 R3:S22">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9611,26 +11462,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V22">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O84:Q84">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O85:Q86">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9644,24 +11479,24 @@
   <dimension ref="A1:AMM4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="122.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="44.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="93.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="122.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="44.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="93.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="1027" width="9.1640625" style="1"/>
+    <col min="9" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="1027" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9693,7 +11528,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -9725,7 +11560,7 @@
         <v>0.37068000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>232</v>
       </c>
@@ -9754,7 +11589,7 @@
         <v>0.72998799999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>258</v>
       </c>
@@ -9791,27 +11626,27 @@
       <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="48.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="48.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="74" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" style="1"/>
+    <col min="9" max="9" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>13</v>
@@ -9838,18 +11673,18 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>125</v>
@@ -9873,18 +11708,18 @@
         <v>0.23402200000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>125</v>
@@ -9908,18 +11743,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>125</v>
@@ -10032,14 +11867,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="53" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>94</v>
       </c>
@@ -10047,7 +11882,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -10055,7 +11890,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -10063,7 +11898,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -10071,7 +11906,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>233</v>
       </c>
@@ -10079,7 +11914,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>234</v>
       </c>
@@ -10087,7 +11922,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>256</v>
       </c>
@@ -10108,191 +11943,191 @@
       <selection activeCell="A29" sqref="A29:A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>98</v>
       </c>
       <c r="B2" s="9">
-        <v>45974</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>45976</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>287</v>
+        <v>386</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>288</v>
+        <v>387</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>393</v>
       </c>
       <c r="C13" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>_xlfn.CONCAT("&gt;",A4,"\n",C4)</f>
-        <v>&gt;sbio-nipahgpg-055\nEVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGSSYFGYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+        <v>&gt;sbio-nipahgpg-058\nEVQLVESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAISGSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARGYQVYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" ref="A30:A38" si="0">_xlfn.CONCAT("&gt;",A5,"\n",C5)</f>
-        <v>&gt;sbio-nipahgpg-056\nQVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYSISWVRQAPGQGLEWMGGIIIFGTANYAQKFQGRVTITADESTSTAYMELSSLRSEDTAVYYCARGQGTLVDFYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+        <v>&gt;sbio-nipahgpg-059\nEVQLVESGGGLVQPGGSLRLSCAASGFNVSSSYIHWVRQAPGKGLEWVASISSYYGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGWSYSWSYSWSYSGLDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-057\nEVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASIYPYSGYTNYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGYGYWGYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+        <v>&gt;sbio-nipahgpg-068\nEVQLQQSGPELVKPGASVKMSCKASGYTFTSYNIHWVKQTPVHGLEWIGAIVSGGDTNYNENFKDKATLTVDKSSSTAYMQLTSEDSAVYYCARGGFYGDYWGQGTSVTVSSGGGSGGGSGGGSGGGSDIVLTQSPATLSVTPGDSVSLSCRASQSVTNNIHWYQQKSHESPRLLIKYASQSISGIPSRFSGSGSGTDFTLSINSVETEDFGMYFCQQSNSWPYTFGGGTKLEIK</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-065\nEVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYYGSTYYADSVKGRFTISADTSKNTAYLQMRAEDTAVYYCARGWRSYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+        <v>&gt;sbio-nipahgpg-069\nQVQLQESGPGLVKPSQTLSLTCTVSGGSISSGDYYWIRQHPGKGLEWIGYIYYSGSTYYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARQLWLRGRFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-066\nQVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYSFIWVRQAPGQGLEWMGGIIPIFGTANYAQKFQGRVTITADESTSTAYMELSSLRSEDTAVYYCARSSYSGVYYSWYFDVWGAGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGISNYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+        <v>&gt;sbio-nipahgpg-078\nVQLVQSGAEVKRPGSSVKVSCKTSGGTIFSTYVFWVRQAPGQGLEWMGGFPPKAGYIYAQKFQGRVTFTADESSSTTVYMEDLRSEDTAVYFCARFPYFVYDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSIGGYLAWYQQKPGKVPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-067\nEVQLQESGPGLVKPSQTLSLTCTVSGGSISSYAAWSWIRQPPGKGLEWIGYIYSSSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARGDYSYSYYGLDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGIRNDLGWYQQKPGKAPKLLIYAASNLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRYTFGQGTKVEIK</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+        <v>&gt;sbio-nipahgpg-079\nVQLQESGPGLVKPSQSLSLTCTVTGFSIDYNIYWGWIRQPPGKGLEWIGYIYSGSDTYNPSLKSRVTISVDTSKNQFSLKVNSVTAADTAVYYCARVVDLWYDDGKYASCVKGAIDYWGQGTLVTVSSGGGSGGGSGGGSSVLTQPPSVSGAPGQRVTISCTGSSGAGYDVHWYQQLPGTAPKLLIYGNSNRPSGVPDRFSGSKSGTSASLAITGLQAEDEADYYCQSYDSSLSGWVFGGGTKLTVL</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-075\nEVQLVESGGGLVQPGGSLRLSCAASGFTFSNYAMSWVRQAPGKGLEWVSAISGSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARLSPYNGSMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSVTQPASVSGSPGQSITISCTGTSSDIGAYNYVSWYQQHPGKAPKLMIYEVSKRPSGVSNRFSGSKSGNTASLTISGLQTEDEADYYCSSYTRSGSVVFGGGTKLTVL</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+        <v>&gt;sbio-nipahgpg-084\nDVQLQESGPGLVKPSQTLSLTCTVSGYSITSDYYWNWIRQFPGNKLEWMGYISYDGSSNYNPSLKNRISITRDNSKNQFFLQLNSVTTEDTATYYCARSCSRRGYAMDYWGQGTSVTVSSGGGSGGGSGGGSGGGSQIVLTQSPAIMSASLGEKVTLTCSASSSVSYMHWYQQKPGTSPKLLIYSCNLLSGVPDRFSGSGSGTDFTLSISNVETEDAATYYCYQYRIRFGGGTKLTVLQ</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-076\nQVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYTISWVRQAPGQGLEWMGGIIPILGIANYAQKFQGRVTITADKSTSTAYMELSSLRSEDTAVYYCARGDSSYVDSWDYWGQGTLVTVSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSVSSSYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPWTFGQGTKVEIK</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+        <v>&gt;sbio-nipahgpg-085\nEVQLVESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSSISRSGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARSCSSRGYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPDSLAVSLGERATINCRASQSVSSYLAWYQQKPGQSPKLLIYSCNLQSGVPDRFSGSGSGTDFTLTISSLQPEDFATYYCQPYIRFGGGGTKLEIK</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-077\nQVQLVESGGGVVQPGRSLRLSCAASGFTFSNYGMHWVRQAPGKGLEWVAVISDGSNKYYADSVKGRFTISRDNSKNTLYLQMRAEDTAVYYCARGSHSSRDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPPYTFGQGTKVEIK</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+        <v>&gt;sbio-nipahgpg-086\nQVQLQESGPGLVKPSQTLSLTCTVSGFSFSSYAMSWVRQAPGKGLEWVSSISRSGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARSCSSRGYLFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPDSLAVSLGERATINCRASQSVSSYLAWYQQKPGQSPKLLIYSCNLQSGVPDRFSGSGSGTDFTLTISSLQPEDFATYYCQPYIRFGGGGTKLEIK</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-083\nQVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYTISWVRQAPGQGLEWMGRIIPIFGTANYAQKFQGRVTITADKSTSTAYMELSSLRSEDTAVYYCARYYDSYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQCGNSFPWTFGGGTKLEIK</v>
+        <v>&gt;sbio-nipahgpg-087\nSIKLTESGPTSVAPGSTLNLTCTVTGDNITSSGWYWWVKQAPDNKLTWIGGIDKNGNTWLNVAYIDRATLTRDPAANTVYLSIRNVTSSDTATYYCAKSSDDNGSYLDVWGQGLKVTVSGGGGSGGGSGGGSGGGSQVKLTQSPKEVTAKIGDTVTLTCTASQPVSTVSWYMQKPGQPPQLLISNNKLVEGVPERFSASGSGTEFTLTIKDVQKEDEAIYYCEVNGQVFGQGTKLTVLE</v>
       </c>
     </row>
   </sheetData>

--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\Nipah_gpG_Fv_Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28895712-FC7E-4E5F-972F-99D2C434C973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CFE9BE-5DE3-418E-8825-5CD8620E6BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,11 +20,11 @@
     <sheet name="FASTA Generation" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Antibody Candidates'!$A$1:$V$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Antibody Candidates'!$A$1:$V$116</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId6"/>
+    <pivotCache cacheId="7" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="493">
   <si>
     <t>antigen_id</t>
   </si>
@@ -1233,36 +1233,6 @@
     <t>SIKLTESGPTSVAPGSTLNLTCTVTGDNITSSGWYWWVKQAPDNKLTWIGGIDKNGNTWLNVAYIDRATLTRDPAANTVYLSIRNVTSSDTATYYCAKSSDDNGSYLDVWGQGLKVTVSG</t>
   </si>
   <si>
-    <t>EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAISGSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARGYQVYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSYIHWVRQAPGKGLEWVASISSYYGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGWSYSWSYSWSYSGLDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>EVQLQQSGPELVKPGASVKMSCKASGYTFTSYNIHWVKQTPVHGLEWIGAIVSGGDTNYNENFKDKATLTVDKSSSTAYMQLTSEDSAVYYCARGGFYGDYWGQGTSVTVSSGGGSGGGSGGGSGGGSDIVLTQSPATLSVTPGDSVSLSCRASQSVTNNIHWYQQKSHESPRLLIKYASQSISGIPSRFSGSGSGTDFTLSINSVETEDFGMYFCQQSNSWPYTFGGGTKLEIK</t>
-  </si>
-  <si>
-    <t>QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGDYYWIRQHPGKGLEWIGYIYYSGSTYYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARQLWLRGRFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>VQLVQSGAEVKRPGSSVKVSCKTSGGTIFSTYVFWVRQAPGQGLEWMGGFPPKAGYIYAQKFQGRVTFTADESSSTTVYMEDLRSEDTAVYFCARFPYFVYDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSIGGYLAWYQQKPGKVPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>VQLQESGPGLVKPSQSLSLTCTVTGFSIDYNIYWGWIRQPPGKGLEWIGYIYSGSDTYNPSLKSRVTISVDTSKNQFSLKVNSVTAADTAVYYCARVVDLWYDDGKYASCVKGAIDYWGQGTLVTVSSGGGSGGGSGGGSSVLTQPPSVSGAPGQRVTISCTGSSGAGYDVHWYQQLPGTAPKLLIYGNSNRPSGVPDRFSGSKSGTSASLAITGLQAEDEADYYCQSYDSSLSGWVFGGGTKLTVL</t>
-  </si>
-  <si>
-    <t>DVQLQESGPGLVKPSQTLSLTCTVSGYSITSDYYWNWIRQFPGNKLEWMGYISYDGSSNYNPSLKNRISITRDNSKNQFFLQLNSVTTEDTATYYCARSCSRRGYAMDYWGQGTSVTVSSGGGSGGGSGGGSGGGSQIVLTQSPAIMSASLGEKVTLTCSASSSVSYMHWYQQKPGTSPKLLIYSCNLLSGVPDRFSGSGSGTDFTLSISNVETEDAATYYCYQYRIRFGGGTKLTVLQ</t>
-  </si>
-  <si>
-    <t>EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSSISRSGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARSCSSRGYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPDSLAVSLGERATINCRASQSVSSYLAWYQQKPGQSPKLLIYSCNLQSGVPDRFSGSGSGTDFTLTISSLQPEDFATYYCQPYIRFGGGGTKLEIK</t>
-  </si>
-  <si>
-    <t>QVQLQESGPGLVKPSQTLSLTCTVSGFSFSSYAMSWVRQAPGKGLEWVSSISRSGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARSCSSRGYLFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPDSLAVSLGERATINCRASQSVSSYLAWYQQKPGQSPKLLIYSCNLQSGVPDRFSGSGSGTDFTLTISSLQPEDFATYYCQPYIRFGGGGTKLEIK</t>
-  </si>
-  <si>
-    <t>SIKLTESGPTSVAPGSTLNLTCTVTGDNITSSGWYWWVKQAPDNKLTWIGGIDKNGNTWLNVAYIDRATLTRDPAANTVYLSIRNVTSSDTATYYCAKSSDDNGSYLDVWGQGLKVTVSGGGGSGGGSGGGSGGGSQVKLTQSPKEVTAKIGDTVTLTCTASQPVSTVSWYMQKPGQPPQLLISNNKLVEGVPERFSASGSGTEFTLTIKDVQKEDEAIYYCEVNGQVFGQGTKLTVLE</t>
-  </si>
-  <si>
     <t>sbio-nipahgpg-088</t>
   </si>
   <si>
@@ -1495,6 +1465,63 @@
   </si>
   <si>
     <t>DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASFLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYSYYPFTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>bright-moth-reed</t>
+  </si>
+  <si>
+    <t>calm-tiger-flint</t>
+  </si>
+  <si>
+    <t>silver-dove-moss</t>
+  </si>
+  <si>
+    <t>silent-seal-marble</t>
+  </si>
+  <si>
+    <t>radiant-quail-lotus</t>
+  </si>
+  <si>
+    <t>young-fox-flint</t>
+  </si>
+  <si>
+    <t>steady-ant-cloud</t>
+  </si>
+  <si>
+    <t>azure-falcon-cypress</t>
+  </si>
+  <si>
+    <t>calm-moth-ivy</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFTVSSNYMSWVRQAPGKGLEWVSVIYSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCAREAGVWVFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVVDFSLHWVRQAPGKGLEWVASIYPYDGSAYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARWGYWPGEGWLGKYWGQGTLVTVSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEI</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSSYGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARWEGYRGDLWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYYEWLRTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVKPGGSLRLSCAASGFTFRNYAMSWVRQAPGKGLEWVSSISSKSKSTSYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARESGSFSYEGVWGQGTLVTVSSGGGSGGGSGGGSGGGSSVLTQPPSVSGAPGQRVTISCTGSSSNIGAGYDVHWYQQLPGTAPKLLIYDNNKRPSGVPDRFSGSKSGTSASLAITGLQAEDEADYYCQSYDSSLSGLVFGGGTKLTVL</t>
+  </si>
+  <si>
+    <t>QVQLVESGGGVVQPGRSLRLSCAASGFTFSNYAMHWVRQAPGKGLEWVAVISYNSGNPYADSVKGRFTISRDNSKNTLYLQMRVEDTAVYYCSRTTIGYGGDIWGNMFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPATLSVSPGDRATLSCRASQSISTNLAWYQQKPGQAPRLLIYTASTLESGVPSRFSGSGSGTEFTLTISNLQSEDFATYFCQQYSAPLTFGGGTKVEIK</t>
+  </si>
+  <si>
+    <t>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYAISWVRQAPGQGLEWMGGIIIFGTANYAQKFQGRVTITADKSTSTAYMELRSEDTAVYYCAREGTTGWDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSVSSSYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPRTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYVYYGAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASIYSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGWVRGSSYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYYSSGYTHYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARWGYWPGQVWLWFAYWGQGTLVTVSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFASSSSNYVHWVRQAPGKGLEWVATIYPYSSSEYAASVQGRFTISRDDSKNTLYLQMNSLRGEDTAVYYCARYGYYSSRSGYGYYFNYWGQGTLVTVSSGGGSGGGSGGGSDIVMTQSPASLAVSLGQRATISCRASESVDSYGNSFLAWYQQKPGQPPKLLIYWASTRQSGVPARFSGSGSGTDFTLNIHPVEEEDAATYYCQQHNYPLTFGAGTKLEIK</t>
   </si>
 </sst>
 </file>
@@ -1756,13 +1783,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Colby" refreshedDate="45976.484084027776" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="86" xr:uid="{C69715DE-2A16-4198-9FD9-FAE4F60B2265}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Colby" refreshedDate="45977.529723842592" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="116" xr:uid="{C69715DE-2A16-4198-9FD9-FAE4F60B2265}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:T2970" sheet="Antibody Candidates"/>
   </cacheSource>
   <cacheFields count="20">
     <cacheField name="antibody_id" numFmtId="0">
-      <sharedItems containsBlank="1" count="86">
+      <sharedItems containsBlank="1" count="116">
         <s v="sbio-nipahgpg-001"/>
         <s v="sbio-nipahgpg-002"/>
         <s v="sbio-nipahgpg-003"/>
@@ -1848,21 +1875,54 @@
         <s v="sbio-nipahgpg-085"/>
         <s v="sbio-nipahgpg-086"/>
         <s v="sbio-nipahgpg-087"/>
+        <s v="sbio-nipahgpg-088"/>
+        <s v="sbio-nipahgpg-089"/>
+        <s v="sbio-nipahgpg-090"/>
+        <s v="sbio-nipahgpg-091"/>
+        <s v="sbio-nipahgpg-092"/>
+        <s v="sbio-nipahgpg-093"/>
+        <s v="sbio-nipahgpg-094"/>
+        <s v="sbio-nipahgpg-095"/>
+        <s v="sbio-nipahgpg-096"/>
+        <s v="sbio-nipahgpg-097"/>
+        <s v="sbio-nipahgpg-098"/>
+        <s v="sbio-nipahgpg-099"/>
+        <s v="sbio-nipahgpg-100"/>
+        <s v="sbio-nipahgpg-101"/>
+        <s v="sbio-nipahgpg-102"/>
+        <s v="sbio-nipahgpg-103"/>
+        <s v="sbio-nipahgpg-104"/>
+        <s v="sbio-nipahgpg-105"/>
+        <s v="sbio-nipahgpg-106"/>
+        <s v="sbio-nipahgpg-107"/>
+        <s v="sbio-nipahgpg-108"/>
+        <s v="sbio-nipahgpg-109"/>
+        <s v="sbio-nipahgpg-110"/>
+        <s v="sbio-nipahgpg-111"/>
+        <s v="sbio-nipahgpg-112"/>
+        <s v="sbio-nipahgpg-113"/>
+        <s v="sbio-nipahgpg-114"/>
+        <s v="sbio-nipahgpg-115"/>
+        <s v="sbio-nipahgpg-116"/>
+        <s v="sbio-nipahgpg-117"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="method" numFmtId="0">
-      <sharedItems containsBlank="1" count="6">
-        <s v="peleke-1"/>
-        <s v="General LLM"/>
-        <s v="peleke-1 + ProteinMPNN"/>
-        <s v="ProteinMPNN"/>
-        <s v="General LLM + ProteinMPNN"/>
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="model_version" numFmtId="0">
+      <sharedItems containsBlank="1" count="9">
+        <s v="peleke-phi-4"/>
+        <s v="Qwen3-235B-A22B-Instruct-2507"/>
+        <s v="peleke-phi-4 / v_48_020"/>
+        <s v="peleke-phi-4 / v_48_030"/>
+        <s v="v_48_020"/>
+        <s v="peleke-mistral-7b-instruct-v0.2"/>
+        <s v="GPT-4o"/>
+        <s v="GPT-4o /  v_48_030"/>
         <m/>
       </sharedItems>
-    </cacheField>
-    <cacheField name="model_version" numFmtId="0">
-      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="temperature" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.1" maxValue="0.9"/>
@@ -1892,7 +1952,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="franken_chain" numFmtId="0">
-      <sharedItems containsBlank="1" count="86">
+      <sharedItems containsBlank="1" count="116">
         <s v="QVQLVESGGGVVQPGRSLRLSCAASGFTFSSYGMHWVRQAPGKGLEWVAVISYDGSKKYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARSPFYDSSGYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISSYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQANSFPPTFGQGTKVEIK"/>
         <s v="QVQLVESGGGVVQPGKSLRLSCAASGFTFSSYAMSWVRQAPGKGPEWVAFISYDGSNNYYADSVKGRFTISRDNPKNTLYLQMKSLRAEDTAVYYCARWRQRFDMYWGRGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK"/>
         <s v="QVQLQESGPGLVKPSETLSLTCTVSGASIRGYYWSWIRQFPGKELEWIGYVYSGSTENYNPSLKSRVTVTLTDTKNSFSLKLNSVTSEDTAVYYCARGGALIYYDVWGTGTTVTVSSGGGSGGGSGGGSGGGSDIQVTQSPVSLSASVGDRVTITCRASQGIDSLNWFQQRPGKAPKLLIYAASQLTGIAPRFRSGSGSGTDFTLTISSLQPEDFATYYCQQYNIYPATFGQGTKVEIK"/>
@@ -1978,11 +2038,41 @@
         <s v="EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSSISRSGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARSCSSRGYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPDSLAVSLGERATINCRASQSVSSYLAWYQQKPGQSPKLLIYSCNLQSGVPDRFSGSGSGTDFTLTISSLQPEDFATYYCQPYIRFGGGGTKLEIK"/>
         <s v="QVQLQESGPGLVKPSQTLSLTCTVSGFSFSSYAMSWVRQAPGKGLEWVSSISRSGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARSCSSRGYLFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPDSLAVSLGERATINCRASQSVSSYLAWYQQKPGQSPKLLIYSCNLQSGVPDRFSGSGSGTDFTLTISSLQPEDFATYYCQPYIRFGGGGTKLEIK"/>
         <s v="SIKLTESGPTSVAPGSTLNLTCTVTGDNITSSGWYWWVKQAPDNKLTWIGGIDKNGNTWLNVAYIDRATLTRDPAANTVYLSIRNVTSSDTATYYCAKSSDDNGSYLDVWGQGLKVTVSGGGGSGGGSGGGSGGGSQVKLTQSPKEVTAKIGDTVTLTCTASQPVSTVSWYMQKPGQPPQLLISNNKLVEGVPERFSASGSGTEFTLTIKDVQKEDEAIYYCEVNGQVFGQGTKLTVLE"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASIYSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGWYSYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+        <s v="QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYAISWVRQAPGQGLEWMGGIIIFGTANYAQKFQGRVTITADKSTSTAYMELRSEDTAVYYCAREGTTGWDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSVSSSYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPRTFGQGTKVEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYVYYGAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASIYSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGWVRGSSYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASIYSYSGYTNYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGGYGGYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASIYPYSGYTNYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGYWYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGGYGGWYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGYWYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGTYYGHSYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASIYSYSGYTNYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYWYFGYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+        <s v="EVQLVESGGGLVKPGGSLRLSCAASGFTFRNYAMSWVRQAPGKGLEWVSSISSKSKSTSYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARESGSFSYEGVWGQGTLVTVSSGGGSGGGSGGGSGGGSSVLTQPPSVSGAPGQRVTISCTGSSSNIGAGYDVHWYQQLPGTAPKLLIYDNNKRPSGVPDRFSGSKSGTSASLAITGLQAEDEADYYCQSYDSSLSGLVFGGGTKLTVL"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYYSSGYTHYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARWGYWPGQVWLWFAYWGQGTLVTVSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK"/>
+        <s v="QVQLVQSGAEVKKPGSSVKVSCKSSGGTSNNYAISWVRQAPGQGLEWMGGIIPILGIANYAQKFQGRVTITADKSTSTAYMELSSLRSEDTAVYYCAREDAVVDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSTLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYKASSLESGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQQYNSYPLTFGQGTKVQVK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARHWGYCSWFAYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGSHYFGYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK"/>
+        <s v="QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGDYYWIRQHPGKGLEWIGYIYYSGSTDYNPSLKSRVTISVDTSKNQFSLKVTAADTAVYYCARTWFGSDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGISNYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQAHSFPYTFGGGTKLEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYWMNWVRQAPGKGLEWVAFIRYDGGNKYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARWSYSGGSGSYYVYFDYWGQGTLVTVSGGGSGGGSGGGSGGGSSVLTQPPSVSGAPGQRVTISCTGSSSNIGAGYDVHWYQQLPGTAPKLLIYGNSNRPSGVPDRFSGSKSGTSASLAITGLQAEDEADYYCQSYDSSLSGSVFGGGTKLTVL"/>
+        <s v="QVQLVQSGAEVKKPGASVKVSCKASGYTFTNYYIHWVRQAPGQGLEWMGWIYPGGNTNYAQKFQGRVTMTRDTSISTAYMELSRLRSDDTAVYYCARVRTEFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPSSLAMSAGAETITCRSSQSVHSNGYLNWYQQKPGQPPKLLIYWASTRESGVPDRFTGSGSGTDFTLTITNVQSEDLAEYFCQQYSSYPLTFGAGTKLELR"/>
+        <s v="QVQLQESGPGLVKPSETLSLTCTVSGGSVSSGGYFWSWIRQPPGKGLEWIGYVSGSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARWDVWISDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPATLSLSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYDASNRATGIPARFSGSGSGTDFTLTISSLEPEDFAVYYCQHSWDQPPWTFGQGTKVEIK"/>
+        <s v="QVQLQESGPGLVKPSQTLSLTCTVTGSSITSGYWNWIRQFPGNKLEWMGYISYSGTITYNPSLKSRISITRDTSKNQFFLQLNSVTTEDTATYYCARVYDGFYDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPSSLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYKASSLESGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQQYNSYPLTFGGGTKVEIK"/>
+        <s v="QVQLVESGGGVVQPGRSLRLSCAASGFTFSNYAMHWVRQAPGKGLEWVAVISYNSGNPYADSVKGRFTISRDNSKNTLYLQMRVEDTAVYYCSRTTIGYGGDIWGNMFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPATLSVSPGDRATLSCRASQSISTNLAWYQQKPGQAPRLLIYTASTLESGVPSRFSGSGSGTEFTLTISNLQSEDFATYFCQQYSAPLTFGGGTKVEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFASSSSNYVHWVRQAPGKGLEWVATIYPYSSSEYAASVQGRFTISRDDSKNTLYLQMNSLRGEDTAVYYCARYGYYSSRSGYGYYFNYWGQGTLVTVSSGGGSGGGSGGGSDIVMTQSPASLAVSLGQRATISCRASESVDSYGNSFLAWYQQKPGQPPKLLIYWASTRQSGVPARFSGSGSGTDFTLNIHPVEEEDAATYYCQQHNYPLTFGAGTKLEIK"/>
+        <s v="EVQLVESGAEVKKPGSSVKVSCKASGGPFTSYVISWVRQAPGQGLEWMGRIIPIRGTTYAQKFQGRVTITADKSTSTAYMELRSEDTAVYYCARGSHVFGYYDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSISGNYLAWYQQKPGQAPRLLIYGASIRAAGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPRTFGQGTKVEIK"/>
+        <s v="EVQLVETGGGLVQPGGSLKLSCRASGYTFTDYAMHWVRQAPLGLGLYTGGVNYARHFMKSRISITRDNSKNTLYLQMTKVDDTATYFCARRGLFDSDYWGQGTLVTVSSGGGSGGGSGGGSGGGSSVTQPPSVSGSTSVGDRVTTCRASQSISSNWLAWYQQFPGTAPKLLIYENSSRPSGVPDRFSGSGSGTDFTLKISRVEAEDVGVYYCLQALSPRFTFGSGTKLEIK"/>
+        <s v="QVQLVQSGAEVKKPGSSVKVSCKASGGTFSNYGISWVRQAPGQGLEWMGGIIPILGIANYAQKFQGRVTITADKSTSTAYMELRSLRSDDTAVYYCAREGHAYFHNGLDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSVSSSYFAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPPATFGQGTKVEIK"/>
+        <s v="QVQLVESGGGVVQPGRSLRLSCAASGFTFSSFGMHWVRQAPGKGLEWVAIIWDGSNKYYADSVKGRFTISRDNSKNTLYLQMRAEDTAVYYCALDGGSFDDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSTLSTSVGDRVTITCRASQSISSWLAWYQQKPGKAPKLLIYKASTLESGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQHFYGTPITFGPGTKVD"/>
+        <s v="EVQLVESGGGLVKPGGSLKVSCAASGFTFSDYSMNWVRQAPGKGLEWVSSITSGYTSIYYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARVSDNFDYWGQGTAVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK"/>
+        <s v="EVQLQQSGAELVKPGASVKLSCKASGYTFLDYYMYWVKQRPEQGLEWIGRIDPANGNTIYAPKFQDKATLTLTTDTTSSNTAYMQLSSLTSEDSAVYYCAREGNYGYRDLAWFAYWGQGTLVTVSSGGGSGGGSGGGSGGGSAIRMTQSPSSLSASVGDTVTITCRASQSISSYLNWYQQKPGKAPKLLIYTASNLESGVPSRFSGSGSGTDYTLTISSLQPEDIATYYCQQYDNPPLTFGGGTKVEIK"/>
+        <s v="QVQLQESGPGLVKPSETLSLTCTVSGGSVSSGGYFWSWIRQRPGKGLEWIGHIYYSGTTNYNPSLRSRVTISRDTSKSQFSLKMDSLTSEDTALYYCARQLGLRFDIWGQGTMVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYTTPPTFGQGTKVEIK"/>
+        <s v="QVQLVESGGGLVQPGGSLRLSCAASGFNLYSSSIHWVRQAPGKGLEWVARIYPSGATYYADSVKGRFTISADTSKNTAYLQMRAEDTAVYYCARSYYGDDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASFLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYSYYPFTFGQGTKVEIK"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="len_franken_chain" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="233" maxValue="250"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="231" maxValue="250"/>
     </cacheField>
     <cacheField name="len_lte_250" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -2000,7 +2090,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="0.69121100000000002"/>
     </cacheField>
     <cacheField name="submitted_to_comp" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-11-12T00:00:00" maxDate="2025-11-16T00:00:00" count="11">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-11-12T00:00:00" maxDate="2025-11-17T00:00:00" count="12">
         <d v="2025-11-07T00:00:00"/>
         <d v="2025-11-08T00:00:00"/>
         <d v="2025-11-09T00:00:00"/>
@@ -2010,6 +2100,7 @@
         <d v="2025-11-13T00:00:00"/>
         <d v="2025-11-15T00:00:00"/>
         <m/>
+        <d v="2025-11-16T00:00:00"/>
         <d v="2025-11-14T00:00:00" u="1"/>
         <d v="2023-11-12T00:00:00" u="1"/>
       </sharedItems>
@@ -2024,11 +2115,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="86">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="116">
   <r>
     <x v="0"/>
+    <s v="peleke-1"/>
     <x v="0"/>
-    <s v="peleke-phi-4"/>
     <n v="0.7"/>
     <s v="base"/>
     <m/>
@@ -2049,8 +2140,8 @@
   </r>
   <r>
     <x v="1"/>
+    <s v="peleke-1"/>
     <x v="0"/>
-    <s v="peleke-phi-4"/>
     <n v="0.7"/>
     <s v="base"/>
     <m/>
@@ -2071,8 +2162,8 @@
   </r>
   <r>
     <x v="2"/>
+    <s v="peleke-1"/>
     <x v="0"/>
-    <s v="peleke-phi-4"/>
     <n v="0.9"/>
     <s v="base"/>
     <m/>
@@ -2093,8 +2184,8 @@
   </r>
   <r>
     <x v="3"/>
+    <s v="peleke-1"/>
     <x v="0"/>
-    <s v="peleke-phi-4"/>
     <n v="0.9"/>
     <s v="base"/>
     <m/>
@@ -2115,8 +2206,8 @@
   </r>
   <r>
     <x v="4"/>
+    <s v="peleke-1"/>
     <x v="0"/>
-    <s v="peleke-phi-4"/>
     <n v="0.5"/>
     <s v="base"/>
     <m/>
@@ -2137,8 +2228,8 @@
   </r>
   <r>
     <x v="5"/>
+    <s v="General LLM"/>
     <x v="1"/>
-    <s v="Qwen3-235B-A22B-Instruct-2507"/>
     <m/>
     <s v="base"/>
     <m/>
@@ -2159,8 +2250,8 @@
   </r>
   <r>
     <x v="6"/>
+    <s v="peleke-1 + ProteinMPNN"/>
     <x v="2"/>
-    <s v="peleke-phi-4 / v_48_020"/>
     <n v="0.1"/>
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
@@ -2181,8 +2272,8 @@
   </r>
   <r>
     <x v="7"/>
+    <s v="peleke-1 + ProteinMPNN"/>
     <x v="2"/>
-    <s v="peleke-phi-4 / v_48_020"/>
     <n v="0.1"/>
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
@@ -2203,8 +2294,8 @@
   </r>
   <r>
     <x v="8"/>
+    <s v="peleke-1 + ProteinMPNN"/>
     <x v="2"/>
-    <s v="peleke-phi-4 / v_48_020"/>
     <n v="0.1"/>
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
@@ -2225,8 +2316,8 @@
   </r>
   <r>
     <x v="9"/>
+    <s v="peleke-1 + ProteinMPNN"/>
     <x v="2"/>
-    <s v="peleke-phi-4 / v_48_020"/>
     <n v="0.1"/>
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
@@ -2247,8 +2338,8 @@
   </r>
   <r>
     <x v="10"/>
+    <s v="peleke-1 + ProteinMPNN"/>
     <x v="2"/>
-    <s v="peleke-phi-4 / v_48_020"/>
     <n v="0.1"/>
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
@@ -2269,8 +2360,8 @@
   </r>
   <r>
     <x v="11"/>
+    <s v="peleke-1 + ProteinMPNN"/>
     <x v="2"/>
-    <s v="peleke-phi-4 / v_48_020"/>
     <n v="0.1"/>
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
@@ -2291,8 +2382,8 @@
   </r>
   <r>
     <x v="12"/>
+    <s v="peleke-1 + ProteinMPNN"/>
     <x v="2"/>
-    <s v="peleke-phi-4 / v_48_020"/>
     <n v="0.1"/>
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
@@ -2313,8 +2404,8 @@
   </r>
   <r>
     <x v="13"/>
-    <x v="2"/>
-    <s v="peleke-phi-4 / v_48_030"/>
+    <s v="peleke-1 + ProteinMPNN"/>
+    <x v="3"/>
     <n v="0.15"/>
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
@@ -2335,8 +2426,8 @@
   </r>
   <r>
     <x v="14"/>
-    <x v="2"/>
-    <s v="peleke-phi-4 / v_48_030"/>
+    <s v="peleke-1 + ProteinMPNN"/>
+    <x v="3"/>
     <n v="0.15"/>
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
@@ -2357,8 +2448,8 @@
   </r>
   <r>
     <x v="15"/>
-    <x v="2"/>
-    <s v="peleke-phi-4 / v_48_030"/>
+    <s v="peleke-1 + ProteinMPNN"/>
+    <x v="3"/>
     <n v="0.15"/>
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
@@ -2379,8 +2470,8 @@
   </r>
   <r>
     <x v="16"/>
-    <x v="2"/>
-    <s v="peleke-phi-4 / v_48_030"/>
+    <s v="peleke-1 + ProteinMPNN"/>
+    <x v="3"/>
     <n v="0.15"/>
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
@@ -2401,8 +2492,8 @@
   </r>
   <r>
     <x v="17"/>
-    <x v="2"/>
-    <s v="peleke-phi-4 / v_48_030"/>
+    <s v="peleke-1 + ProteinMPNN"/>
+    <x v="3"/>
     <n v="0.15"/>
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
@@ -2423,8 +2514,8 @@
   </r>
   <r>
     <x v="18"/>
-    <x v="2"/>
-    <s v="peleke-phi-4 / v_48_030"/>
+    <s v="peleke-1 + ProteinMPNN"/>
+    <x v="3"/>
     <n v="0.15"/>
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
@@ -2445,8 +2536,8 @@
   </r>
   <r>
     <x v="19"/>
-    <x v="2"/>
-    <s v="peleke-phi-4 / v_48_030"/>
+    <s v="peleke-1 + ProteinMPNN"/>
+    <x v="3"/>
     <n v="0.15"/>
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
@@ -2467,8 +2558,8 @@
   </r>
   <r>
     <x v="20"/>
-    <x v="2"/>
-    <s v="peleke-phi-4 / v_48_030"/>
+    <s v="peleke-1 + ProteinMPNN"/>
+    <x v="3"/>
     <n v="0.15"/>
     <s v="derivative"/>
     <s v="sbio-nipahgpg-001"/>
@@ -2489,8 +2580,8 @@
   </r>
   <r>
     <x v="21"/>
-    <x v="3"/>
-    <s v="v_48_020"/>
+    <s v="ProteinMPNN"/>
+    <x v="4"/>
     <n v="0.1"/>
     <s v="derivative"/>
     <s v="m102.3 (PDB: 6CMI)"/>
@@ -2511,8 +2602,8 @@
   </r>
   <r>
     <x v="22"/>
-    <x v="3"/>
-    <s v="v_48_020"/>
+    <s v="ProteinMPNN"/>
+    <x v="4"/>
     <n v="0.1"/>
     <s v="derivative"/>
     <s v="m102.3 (PDB: 6CMI)"/>
@@ -2533,8 +2624,8 @@
   </r>
   <r>
     <x v="23"/>
-    <x v="3"/>
-    <s v="v_48_020"/>
+    <s v="ProteinMPNN"/>
+    <x v="4"/>
     <n v="0.1"/>
     <s v="derivative"/>
     <s v="m102.3 (PDB: 6CMI)"/>
@@ -2555,8 +2646,8 @@
   </r>
   <r>
     <x v="24"/>
-    <x v="3"/>
-    <s v="v_48_020"/>
+    <s v="ProteinMPNN"/>
+    <x v="4"/>
     <n v="0.1"/>
     <s v="derivative"/>
     <s v="m102.3 (PDB: 6CMI)"/>
@@ -2577,8 +2668,8 @@
   </r>
   <r>
     <x v="25"/>
-    <x v="3"/>
-    <s v="v_48_020"/>
+    <s v="ProteinMPNN"/>
+    <x v="4"/>
     <n v="0.1"/>
     <s v="derivative"/>
     <s v="m102.3 (PDB: 6CMI)"/>
@@ -2599,8 +2690,8 @@
   </r>
   <r>
     <x v="26"/>
-    <x v="3"/>
-    <s v="v_48_020"/>
+    <s v="ProteinMPNN"/>
+    <x v="4"/>
     <n v="0.1"/>
     <s v="derivative"/>
     <s v="m102.3 (PDB: 6CMI)"/>
@@ -2621,8 +2712,8 @@
   </r>
   <r>
     <x v="27"/>
-    <x v="3"/>
-    <s v="v_48_020"/>
+    <s v="ProteinMPNN"/>
+    <x v="4"/>
     <n v="0.1"/>
     <s v="derivative"/>
     <s v="m102.3 (PDB: 6CMI)"/>
@@ -2643,8 +2734,8 @@
   </r>
   <r>
     <x v="28"/>
-    <x v="3"/>
-    <s v="v_48_020"/>
+    <s v="ProteinMPNN"/>
+    <x v="4"/>
     <n v="0.1"/>
     <s v="derivative"/>
     <s v="m102.3 (PDB: 6CMI)"/>
@@ -2665,8 +2756,8 @@
   </r>
   <r>
     <x v="29"/>
-    <x v="0"/>
-    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <s v="peleke-1"/>
+    <x v="5"/>
     <n v="0.7"/>
     <s v="base"/>
     <m/>
@@ -2687,8 +2778,8 @@
   </r>
   <r>
     <x v="30"/>
-    <x v="0"/>
-    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <s v="peleke-1"/>
+    <x v="5"/>
     <n v="0.7"/>
     <s v="base"/>
     <m/>
@@ -2709,8 +2800,8 @@
   </r>
   <r>
     <x v="31"/>
-    <x v="0"/>
-    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <s v="peleke-1"/>
+    <x v="5"/>
     <n v="0.7"/>
     <s v="base"/>
     <m/>
@@ -2731,8 +2822,8 @@
   </r>
   <r>
     <x v="32"/>
-    <x v="0"/>
-    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <s v="peleke-1"/>
+    <x v="5"/>
     <n v="0.7"/>
     <s v="base"/>
     <m/>
@@ -2753,8 +2844,8 @@
   </r>
   <r>
     <x v="33"/>
-    <x v="0"/>
-    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <s v="peleke-1"/>
+    <x v="5"/>
     <n v="0.7"/>
     <s v="base"/>
     <m/>
@@ -2775,8 +2866,8 @@
   </r>
   <r>
     <x v="34"/>
-    <x v="0"/>
-    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <s v="peleke-1"/>
+    <x v="5"/>
     <n v="0.7"/>
     <s v="base"/>
     <m/>
@@ -2797,8 +2888,8 @@
   </r>
   <r>
     <x v="35"/>
-    <x v="0"/>
-    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <s v="peleke-1"/>
+    <x v="5"/>
     <n v="0.7"/>
     <s v="base"/>
     <m/>
@@ -2819,8 +2910,8 @@
   </r>
   <r>
     <x v="36"/>
-    <x v="0"/>
-    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <s v="peleke-1"/>
+    <x v="5"/>
     <n v="0.7"/>
     <s v="base"/>
     <m/>
@@ -2841,8 +2932,8 @@
   </r>
   <r>
     <x v="37"/>
-    <x v="0"/>
-    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <s v="peleke-1"/>
+    <x v="5"/>
     <n v="0.7"/>
     <s v="base"/>
     <m/>
@@ -2863,8 +2954,8 @@
   </r>
   <r>
     <x v="38"/>
-    <x v="0"/>
-    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <s v="peleke-1"/>
+    <x v="5"/>
     <n v="0.7"/>
     <s v="base"/>
     <m/>
@@ -2885,8 +2976,8 @@
   </r>
   <r>
     <x v="39"/>
-    <x v="0"/>
-    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <s v="peleke-1"/>
+    <x v="5"/>
     <n v="0.7"/>
     <s v="base"/>
     <m/>
@@ -2907,8 +2998,8 @@
   </r>
   <r>
     <x v="40"/>
-    <x v="0"/>
-    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <s v="peleke-1"/>
+    <x v="5"/>
     <n v="0.7"/>
     <s v="base"/>
     <m/>
@@ -2929,8 +3020,8 @@
   </r>
   <r>
     <x v="41"/>
-    <x v="0"/>
-    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <s v="peleke-1"/>
+    <x v="5"/>
     <n v="0.7"/>
     <s v="base"/>
     <m/>
@@ -2951,8 +3042,8 @@
   </r>
   <r>
     <x v="42"/>
-    <x v="0"/>
-    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <s v="peleke-1"/>
+    <x v="5"/>
     <n v="0.7"/>
     <s v="base"/>
     <m/>
@@ -2973,8 +3064,8 @@
   </r>
   <r>
     <x v="43"/>
-    <x v="0"/>
-    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <s v="peleke-1"/>
+    <x v="5"/>
     <n v="0.7"/>
     <s v="base"/>
     <m/>
@@ -2995,8 +3086,8 @@
   </r>
   <r>
     <x v="44"/>
-    <x v="0"/>
-    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <s v="peleke-1"/>
+    <x v="5"/>
     <n v="0.7"/>
     <s v="base"/>
     <m/>
@@ -3017,8 +3108,8 @@
   </r>
   <r>
     <x v="45"/>
-    <x v="0"/>
-    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <s v="peleke-1"/>
+    <x v="5"/>
     <n v="0.7"/>
     <s v="base"/>
     <m/>
@@ -3039,8 +3130,8 @@
   </r>
   <r>
     <x v="46"/>
-    <x v="0"/>
-    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <s v="peleke-1"/>
+    <x v="5"/>
     <n v="0.7"/>
     <s v="base"/>
     <m/>
@@ -3061,8 +3152,8 @@
   </r>
   <r>
     <x v="47"/>
-    <x v="0"/>
-    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <s v="peleke-1"/>
+    <x v="5"/>
     <n v="0.7"/>
     <s v="base"/>
     <m/>
@@ -3083,8 +3174,8 @@
   </r>
   <r>
     <x v="48"/>
-    <x v="0"/>
-    <s v="peleke-mistral-7b-instruct-v0.2"/>
+    <s v="peleke-1"/>
+    <x v="5"/>
     <n v="0.7"/>
     <s v="base"/>
     <m/>
@@ -3105,8 +3196,8 @@
   </r>
   <r>
     <x v="49"/>
+    <s v="peleke-1"/>
     <x v="0"/>
-    <s v="peleke-phi-4"/>
     <n v="0.2"/>
     <s v="base"/>
     <m/>
@@ -3127,8 +3218,8 @@
   </r>
   <r>
     <x v="50"/>
+    <s v="peleke-1"/>
     <x v="0"/>
-    <s v="peleke-phi-4"/>
     <n v="0.2"/>
     <s v="base"/>
     <m/>
@@ -3149,8 +3240,8 @@
   </r>
   <r>
     <x v="51"/>
+    <s v="peleke-1"/>
     <x v="0"/>
-    <s v="peleke-phi-4"/>
     <n v="0.2"/>
     <s v="base"/>
     <m/>
@@ -3171,8 +3262,8 @@
   </r>
   <r>
     <x v="52"/>
+    <s v="peleke-1"/>
     <x v="0"/>
-    <s v="peleke-phi-4"/>
     <n v="0.2"/>
     <s v="base"/>
     <m/>
@@ -3193,8 +3284,8 @@
   </r>
   <r>
     <x v="53"/>
+    <s v="peleke-1"/>
     <x v="0"/>
-    <s v="peleke-phi-4"/>
     <n v="0.2"/>
     <s v="base"/>
     <m/>
@@ -3215,8 +3306,8 @@
   </r>
   <r>
     <x v="54"/>
+    <s v="peleke-1"/>
     <x v="0"/>
-    <s v="peleke-phi-4"/>
     <n v="0.2"/>
     <s v="base"/>
     <m/>
@@ -3237,8 +3328,8 @@
   </r>
   <r>
     <x v="55"/>
+    <s v="peleke-1"/>
     <x v="0"/>
-    <s v="peleke-phi-4"/>
     <n v="0.2"/>
     <s v="base"/>
     <m/>
@@ -3259,8 +3350,8 @@
   </r>
   <r>
     <x v="56"/>
+    <s v="peleke-1"/>
     <x v="0"/>
-    <s v="peleke-phi-4"/>
     <n v="0.2"/>
     <s v="base"/>
     <m/>
@@ -3281,8 +3372,8 @@
   </r>
   <r>
     <x v="57"/>
+    <s v="peleke-1"/>
     <x v="0"/>
-    <s v="peleke-phi-4"/>
     <n v="0.2"/>
     <s v="base"/>
     <m/>
@@ -3303,8 +3394,8 @@
   </r>
   <r>
     <x v="58"/>
+    <s v="peleke-1"/>
     <x v="0"/>
-    <s v="peleke-phi-4"/>
     <n v="0.2"/>
     <s v="base"/>
     <m/>
@@ -3325,8 +3416,8 @@
   </r>
   <r>
     <x v="59"/>
+    <s v="peleke-1"/>
     <x v="0"/>
-    <s v="peleke-phi-4"/>
     <n v="0.5"/>
     <s v="base"/>
     <m/>
@@ -3347,8 +3438,8 @@
   </r>
   <r>
     <x v="60"/>
+    <s v="peleke-1"/>
     <x v="0"/>
-    <s v="peleke-phi-4"/>
     <n v="0.5"/>
     <s v="base"/>
     <m/>
@@ -3369,8 +3460,8 @@
   </r>
   <r>
     <x v="61"/>
+    <s v="peleke-1"/>
     <x v="0"/>
-    <s v="peleke-phi-4"/>
     <n v="0.5"/>
     <s v="base"/>
     <m/>
@@ -3391,8 +3482,8 @@
   </r>
   <r>
     <x v="62"/>
+    <s v="peleke-1"/>
     <x v="0"/>
-    <s v="peleke-phi-4"/>
     <n v="0.5"/>
     <s v="base"/>
     <m/>
@@ -3413,8 +3504,8 @@
   </r>
   <r>
     <x v="63"/>
+    <s v="peleke-1"/>
     <x v="0"/>
-    <s v="peleke-phi-4"/>
     <n v="0.5"/>
     <s v="base"/>
     <m/>
@@ -3435,8 +3526,8 @@
   </r>
   <r>
     <x v="64"/>
+    <s v="peleke-1"/>
     <x v="0"/>
-    <s v="peleke-phi-4"/>
     <n v="0.5"/>
     <s v="base"/>
     <m/>
@@ -3457,8 +3548,8 @@
   </r>
   <r>
     <x v="65"/>
+    <s v="peleke-1"/>
     <x v="0"/>
-    <s v="peleke-phi-4"/>
     <n v="0.5"/>
     <s v="base"/>
     <m/>
@@ -3479,8 +3570,8 @@
   </r>
   <r>
     <x v="66"/>
+    <s v="peleke-1"/>
     <x v="0"/>
-    <s v="peleke-phi-4"/>
     <n v="0.5"/>
     <s v="base"/>
     <m/>
@@ -3501,8 +3592,8 @@
   </r>
   <r>
     <x v="67"/>
+    <s v="peleke-1"/>
     <x v="0"/>
-    <s v="peleke-phi-4"/>
     <n v="0.5"/>
     <s v="base"/>
     <m/>
@@ -3519,12 +3610,12 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="8"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="68"/>
+    <s v="peleke-1"/>
     <x v="0"/>
-    <s v="peleke-phi-4"/>
     <n v="0.5"/>
     <s v="base"/>
     <m/>
@@ -3545,8 +3636,8 @@
   </r>
   <r>
     <x v="69"/>
+    <s v="peleke-1"/>
     <x v="0"/>
-    <s v="peleke-phi-4"/>
     <n v="0.7"/>
     <s v="base"/>
     <m/>
@@ -3567,8 +3658,8 @@
   </r>
   <r>
     <x v="70"/>
+    <s v="peleke-1"/>
     <x v="0"/>
-    <s v="peleke-phi-4"/>
     <n v="0.7"/>
     <s v="base"/>
     <m/>
@@ -3589,8 +3680,8 @@
   </r>
   <r>
     <x v="71"/>
+    <s v="peleke-1"/>
     <x v="0"/>
-    <s v="peleke-phi-4"/>
     <n v="0.7"/>
     <s v="base"/>
     <m/>
@@ -3611,8 +3702,8 @@
   </r>
   <r>
     <x v="72"/>
+    <s v="peleke-1"/>
     <x v="0"/>
-    <s v="peleke-phi-4"/>
     <n v="0.7"/>
     <s v="base"/>
     <m/>
@@ -3633,8 +3724,8 @@
   </r>
   <r>
     <x v="73"/>
+    <s v="peleke-1"/>
     <x v="0"/>
-    <s v="peleke-phi-4"/>
     <n v="0.7"/>
     <s v="base"/>
     <m/>
@@ -3655,8 +3746,8 @@
   </r>
   <r>
     <x v="74"/>
+    <s v="peleke-1"/>
     <x v="0"/>
-    <s v="peleke-phi-4"/>
     <n v="0.7"/>
     <s v="base"/>
     <m/>
@@ -3677,8 +3768,8 @@
   </r>
   <r>
     <x v="75"/>
+    <s v="peleke-1"/>
     <x v="0"/>
-    <s v="peleke-phi-4"/>
     <n v="0.7"/>
     <s v="base"/>
     <m/>
@@ -3699,8 +3790,8 @@
   </r>
   <r>
     <x v="76"/>
+    <s v="peleke-1"/>
     <x v="0"/>
-    <s v="peleke-phi-4"/>
     <n v="0.7"/>
     <s v="base"/>
     <m/>
@@ -3721,8 +3812,8 @@
   </r>
   <r>
     <x v="77"/>
+    <s v="peleke-1"/>
     <x v="0"/>
-    <s v="peleke-phi-4"/>
     <n v="0.7"/>
     <s v="base"/>
     <m/>
@@ -3739,12 +3830,12 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="8"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="78"/>
+    <s v="peleke-1"/>
     <x v="0"/>
-    <s v="peleke-phi-4"/>
     <n v="0.7"/>
     <s v="base"/>
     <m/>
@@ -3761,12 +3852,12 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="8"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="79"/>
+    <s v="peleke-1"/>
     <x v="0"/>
-    <s v="peleke-phi-4"/>
     <n v="0.2"/>
     <s v="derivative"/>
     <s v="sbio-nipahgpg-052"/>
@@ -3787,8 +3878,8 @@
   </r>
   <r>
     <x v="80"/>
+    <s v="peleke-1"/>
     <x v="0"/>
-    <s v="peleke-phi-4"/>
     <n v="0.5"/>
     <s v="derivative"/>
     <s v="sbio-nipahgpg-063"/>
@@ -3809,8 +3900,8 @@
   </r>
   <r>
     <x v="81"/>
-    <x v="1"/>
-    <s v="GPT-4o"/>
+    <s v="General LLM"/>
+    <x v="6"/>
     <n v="0.7"/>
     <s v="base"/>
     <m/>
@@ -3831,8 +3922,8 @@
   </r>
   <r>
     <x v="82"/>
-    <x v="1"/>
-    <s v="GPT-4o"/>
+    <s v="General LLM"/>
+    <x v="6"/>
     <n v="0.1"/>
     <s v="base"/>
     <m/>
@@ -3853,8 +3944,8 @@
   </r>
   <r>
     <x v="83"/>
-    <x v="1"/>
-    <s v="GPT-4o"/>
+    <s v="General LLM"/>
+    <x v="6"/>
     <n v="0.9"/>
     <s v="base"/>
     <m/>
@@ -3875,8 +3966,8 @@
   </r>
   <r>
     <x v="84"/>
-    <x v="4"/>
-    <s v="GPT-4o /  v_48_030"/>
+    <s v="General LLM + ProteinMPNN"/>
+    <x v="7"/>
     <n v="0.2"/>
     <s v="derivative"/>
     <s v="sbio-nipahgpg-084"/>
@@ -3897,18 +3988,678 @@
   </r>
   <r>
     <x v="85"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="peleke-1"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASIYSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGWYSYFDYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
     <x v="85"/>
+    <n v="240"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="86"/>
+    <s v="peleke-1"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYAISWVRQAPGQGLEWMGGIIIFGTANYAQKFQGRVTITADKSTSTAYMELRSEDTAVYYCAREGTTGWDYWGQGTLVTVSS"/>
+    <s v="EIVLTQSPGTLSLSPGERATLSCRASQSVSSSYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPRTFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="86"/>
+    <n v="237"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <s v="peleke-1"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYVYYGAMDYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="87"/>
+    <n v="242"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="88"/>
+    <s v="peleke-1"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASIYSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGWVRGSSYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="88"/>
+    <n v="240"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="89"/>
+    <s v="peleke-1"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASIYSYSGYTNYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGGYGGYFDYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="89"/>
+    <n v="243"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="90"/>
+    <s v="peleke-1"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASIYPYSGYTNYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGYWYFDYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="90"/>
+    <n v="241"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="91"/>
+    <s v="peleke-1"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGGYGGWYFDYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="91"/>
+    <n v="244"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="92"/>
+    <s v="peleke-1"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGYWYFDYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="92"/>
+    <n v="241"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="93"/>
+    <s v="peleke-1"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGTYYGHSYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="93"/>
+    <n v="242"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="94"/>
+    <s v="peleke-1"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASIYSYSGYTNYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYWYFGYFDYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="94"/>
+    <n v="241"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="95"/>
+    <s v="peleke-1"/>
+    <x v="0"/>
+    <n v="0.6"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVKPGGSLRLSCAASGFTFRNYAMSWVRQAPGKGLEWVSSISSKSKSTSYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARESGSFSYEGVWGQGTLVTVSS"/>
+    <s v="SVLTQPPSVSGAPGQRVTISCTGSSSNIGAGYDVHWYQQLPGTAPKLLIYDNNKRPSGVPDRFSGSKSGTSASLAITGLQAEDEADYYCQSYDSSLSGLVFGGGTKLTVL"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="95"/>
+    <n v="245"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="96"/>
+    <s v="peleke-1"/>
+    <x v="0"/>
+    <n v="0.6"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYYSSGYTHYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARWGYWPGQVWLWFAYWGQGTLVTVS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="96"/>
+    <n v="245"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="97"/>
+    <s v="peleke-1"/>
+    <x v="0"/>
+    <n v="0.6"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="QVQLVQSGAEVKKPGSSVKVSCKSSGGTSNNYAISWVRQAPGQGLEWMGGIIPILGIANYAQKFQGRVTITADKSTSTAYMELSSLRSEDTAVYYCAREDAVVDYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSTLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYKASSLESGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQQYNSYPLTFGQGTKVQVK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="97"/>
+    <n v="239"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="98"/>
+    <s v="peleke-1"/>
+    <x v="0"/>
+    <n v="0.6"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARHWGYCSWFAYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="98"/>
+    <n v="242"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="99"/>
+    <s v="peleke-1"/>
+    <x v="0"/>
+    <n v="0.6"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGSHYFGYFDYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="99"/>
+    <n v="242"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="100"/>
+    <s v="peleke-1"/>
+    <x v="0"/>
+    <n v="0.6"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGDYYWIRQHPGKGLEWIGYIYYSGSTDYNPSLKSRVTISVDTSKNQFSLKVTAADTAVYYCARTWFGSDYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQGISNYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQAHSFPYTFGGGTKLEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="100"/>
+    <n v="235"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="101"/>
+    <s v="peleke-1"/>
+    <x v="0"/>
+    <n v="0.6"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYWMNWVRQAPGKGLEWVAFIRYDGGNKYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARWSYSGGSGSYYVYFDYWGQGTLVTVS"/>
+    <s v="SVLTQPPSVSGAPGQRVTISCTGSSSNIGAGYDVHWYQQLPGTAPKLLIYGNSNRPSGVPDRFSGSKSGTSASLAITGLQAEDEADYYCQSYDSSLSGSVFGGGTKLTVL"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="101"/>
+    <n v="250"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="102"/>
+    <s v="peleke-1"/>
+    <x v="0"/>
+    <n v="0.6"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="QVQLVQSGAEVKKPGASVKVSCKASGYTFTNYYIHWVRQAPGQGLEWMGWIYPGGNTNYAQKFQGRVTMTRDTSISTAYMELSRLRSDDTAVYYCARVRTEFDYWGQGTLVTVSS"/>
+    <s v="DIVMTQSPSSLAMSAGAETITCRSSQSVHSNGYLNWYQQKPGQPPKLLIYWASTRESGVPDRFTGSGSGTDFTLTITNVQSEDLAEYFCQQYSSYPLTFGAGTKLELR"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="102"/>
+    <n v="239"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="103"/>
+    <s v="peleke-1"/>
+    <x v="0"/>
+    <n v="0.6"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="QVQLQESGPGLVKPSETLSLTCTVSGGSVSSGGYFWSWIRQPPGKGLEWIGYVSGSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARWDVWISDYWGQGTLVTVSS"/>
+    <s v="EIVLTQSPATLSLSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYDASNRATGIPARFSGSGSGTDFTLTISSLEPEDFAVYYCQHSWDQPPWTFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="103"/>
+    <n v="242"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="104"/>
+    <s v="peleke-1"/>
+    <x v="0"/>
+    <n v="0.6"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="QVQLQESGPGLVKPSQTLSLTCTVTGSSITSGYWNWIRQFPGNKLEWMGYISYSGTITYNPSLKSRISITRDTSKNQFFLQLNSVTTEDTATYYCARVYDGFYDYWGQGTLVTVSS"/>
+    <s v="DIVMTQSPSSLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYKASSLESGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQQYNSYPLTFGGGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="104"/>
+    <n v="239"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="105"/>
+    <s v="peleke-1"/>
+    <x v="0"/>
+    <n v="0.9"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="QVQLVESGGGVVQPGRSLRLSCAASGFTFSNYAMHWVRQAPGKGLEWVAVISYNSGNPYADSVKGRFTISRDNSKNTLYLQMRVEDTAVYYCSRTTIGYGGDIWGNMFDYWGQGTLVTVSS"/>
+    <s v="DIVMTQSPATLSVSPGDRATLSCRASQSISTNLAWYQQKPGQAPRLLIYTASTLESGVPSRFSGSGSGTEFTLTISNLQSEDFATYFCQQYSAPLTFGGGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="105"/>
+    <n v="243"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="106"/>
+    <s v="peleke-1"/>
+    <x v="0"/>
+    <n v="0.9"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFASSSSNYVHWVRQAPGKGLEWVATIYPYSSSEYAASVQGRFTISRDDSKNTLYLQMNSLRGEDTAVYYCARYGYYSSRSGYGYYFNYWGQGTLVTVSS"/>
+    <s v="DIVMTQSPASLAVSLGQRATISCRASESVDSYGNSFLAWYQQKPGQPPKLLIYWASTRQSGVPARFSGSGSGTDFTLNIHPVEEEDAATYYCQQHNYPLTFGAGTKLEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGS"/>
+    <x v="106"/>
+    <n v="247"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="107"/>
+    <s v="peleke-1"/>
+    <x v="0"/>
+    <n v="0.9"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGAEVKKPGSSVKVSCKASGGPFTSYVISWVRQAPGQGLEWMGRIIPIRGTTYAQKFQGRVTITADKSTSTAYMELRSEDTAVYYCARGSHVFGYYDYWGQGTLVTVSS"/>
+    <s v="EIVLTQSPGTLSLSPGERATLSCRASQSISGNYLAWYQQKPGQAPRLLIYGASIRAAGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPRTFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="107"/>
+    <n v="239"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="108"/>
+    <s v="peleke-1"/>
+    <x v="0"/>
+    <n v="0.9"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVETGGGLVQPGGSLKLSCRASGYTFTDYAMHWVRQAPLGLGLYTGGVNYARHFMKSRISITRDNSKNTLYLQMTKVDDTATYFCARRGLFDSDYWGQGTLVTVSS"/>
+    <s v="SVTQPPSVSGSTSVGDRVTTCRASQSISSNWLAWYQQFPGTAPKLLIYENSSRPSGVPDRFSGSGSGTDFTLKISRVEAEDVGVYYCLQALSPRFTFGSGTKLEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="108"/>
+    <n v="231"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="109"/>
+    <s v="peleke-1"/>
+    <x v="0"/>
+    <n v="0.9"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="QVQLVQSGAEVKKPGSSVKVSCKASGGTFSNYGISWVRQAPGQGLEWMGGIIPILGIANYAQKFQGRVTITADKSTSTAYMELRSLRSDDTAVYYCAREGHAYFHNGLDYWGQGTLVTVSS"/>
+    <s v="EIVLTQSPGTLSLSPGERATLSCRASQSVSSSYFAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPPATFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="109"/>
+    <n v="246"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="110"/>
+    <s v="peleke-1"/>
+    <x v="0"/>
+    <n v="0.9"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="QVQLVESGGGVVQPGRSLRLSCAASGFTFSSFGMHWVRQAPGKGLEWVAIIWDGSNKYYADSVKGRFTISRDNSKNTLYLQMRAEDTAVYYCALDGGSFDDYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSTLSTSVGDRVTITCRASQSISSWLAWYQQKPGKAPKLLIYKASTLESGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQHFYGTPITFGPGTKVD"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="110"/>
+    <n v="234"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="111"/>
+    <s v="peleke-1"/>
+    <x v="0"/>
+    <n v="0.9"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVKPGGSLKVSCAASGFTFSDYSMNWVRQAPGKGLEWVSSITSGYTSIYYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARVSDNFDYWGQGTAVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="111"/>
+    <n v="238"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="112"/>
+    <s v="peleke-1"/>
+    <x v="0"/>
+    <n v="0.9"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLQQSGAELVKPGASVKLSCKASGYTFLDYYMYWVKQRPEQGLEWIGRIDPANGNTIYAPKFQDKATLTLTTDTTSSNTAYMQLSSLTSEDSAVYYCAREGNYGYRDLAWFAYWGQGTLVTVSS"/>
+    <s v="AIRMTQSPSSLSASVGDTVTITCRASQSISSYLNWYQQKPGKAPKLLIYTASNLESGVPSRFSGSGSGTDYTLTISSLQPEDIATYYCQQYDNPPLTFGGGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="112"/>
+    <n v="249"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="113"/>
+    <s v="peleke-1"/>
+    <x v="0"/>
+    <n v="0.9"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="QVQLQESGPGLVKPSETLSLTCTVSGGSVSSGGYFWSWIRQRPGKGLEWIGHIYYSGTTNYNPSLRSRVTISRDTSKSQFSLKMDSLTSEDTALYYCARQLGLRFDIWGQGTMVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYTTPPTFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="113"/>
+    <n v="241"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="114"/>
+    <s v="peleke-1"/>
+    <x v="0"/>
+    <n v="0.9"/>
+    <s v="base"/>
+    <m/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="QVQLVESGGGLVQPGGSLRLSCAASGFNLYSSSIHWVRQAPGKGLEWVARIYPSGATYYADSVKGRFTISADTSKNTAYLQMRAEDTAVYYCARSYYGDDYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASFLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYSYYPFTFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
+    <x v="114"/>
+    <n v="235"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <m/>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="115"/>
     <m/>
     <m/>
     <m/>
@@ -3921,11 +4672,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{135D55CA-26D1-4FA2-9199-54D547F2C103}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{135D55CA-26D1-4FA2-9199-54D547F2C103}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:C13" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="86">
+      <items count="116">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -3975,7 +4726,7 @@
         <item x="46"/>
         <item x="47"/>
         <item x="48"/>
-        <item x="85"/>
+        <item x="115"/>
         <item x="49"/>
         <item x="50"/>
         <item x="51"/>
@@ -4012,19 +4763,52 @@
         <item x="82"/>
         <item x="83"/>
         <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
       </items>
     </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="6">
-        <item x="1"/>
+      <items count="9">
+        <item x="6"/>
+        <item x="7"/>
+        <item x="5"/>
         <item x="0"/>
         <item x="2"/>
         <item x="3"/>
-        <item x="5"/>
+        <item x="1"/>
         <item x="4"/>
+        <item x="8"/>
       </items>
     </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -4035,7 +4819,7 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="86">
+      <items count="116">
         <item x="19"/>
         <item x="15"/>
         <item x="23"/>
@@ -4085,7 +4869,7 @@
         <item x="46"/>
         <item x="47"/>
         <item x="48"/>
-        <item x="85"/>
+        <item x="115"/>
         <item x="49"/>
         <item x="50"/>
         <item x="51"/>
@@ -4122,6 +4906,36 @@
         <item x="82"/>
         <item x="83"/>
         <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -4131,7 +4945,7 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="11">
+      <items count="12">
         <item x="8"/>
         <item x="0"/>
         <item x="1"/>
@@ -4139,75 +4953,76 @@
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
+        <item m="1" x="11"/>
+        <item x="6"/>
         <item m="1" x="10"/>
-        <item x="6"/>
-        <item m="1" x="9"/>
         <item x="7"/>
+        <item x="9"/>
       </items>
     </pivotField>
   </pivotFields>
   <rowFields count="3">
     <field x="0"/>
-    <field x="1"/>
+    <field x="2"/>
     <field x="12"/>
   </rowFields>
   <rowItems count="10">
     <i>
-      <x v="56"/>
-      <x v="1"/>
-      <x v="56"/>
+      <x v="68"/>
+      <x v="3"/>
+      <x v="68"/>
     </i>
     <i>
-      <x v="57"/>
-      <x v="1"/>
-      <x v="57"/>
+      <x v="78"/>
+      <x v="3"/>
+      <x v="78"/>
     </i>
     <i>
-      <x v="66"/>
-      <x v="1"/>
-      <x v="66"/>
+      <x v="79"/>
+      <x v="3"/>
+      <x v="79"/>
     </i>
     <i>
-      <x v="67"/>
-      <x v="1"/>
-      <x v="67"/>
+      <x v="87"/>
+      <x v="3"/>
+      <x v="87"/>
     </i>
     <i>
-      <x v="76"/>
-      <x v="1"/>
-      <x v="76"/>
+      <x v="88"/>
+      <x v="3"/>
+      <x v="88"/>
     </i>
     <i>
-      <x v="77"/>
-      <x v="1"/>
-      <x v="77"/>
+      <x v="89"/>
+      <x v="3"/>
+      <x v="89"/>
     </i>
     <i>
-      <x v="82"/>
-      <x/>
-      <x v="82"/>
+      <x v="96"/>
+      <x v="3"/>
+      <x v="96"/>
     </i>
     <i>
-      <x v="83"/>
-      <x/>
-      <x v="83"/>
+      <x v="97"/>
+      <x v="3"/>
+      <x v="97"/>
     </i>
     <i>
-      <x v="84"/>
-      <x/>
-      <x v="84"/>
+      <x v="106"/>
+      <x v="3"/>
+      <x v="106"/>
     </i>
     <i>
-      <x v="85"/>
-      <x v="5"/>
-      <x v="85"/>
+      <x v="107"/>
+      <x v="3"/>
+      <x v="107"/>
     </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="19" item="10" hier="-1"/>
+    <pageField fld="19" item="11" hier="-1"/>
   </pageFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -4541,10 +5356,10 @@
   <dimension ref="A1:V116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B108" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F116" sqref="F116"/>
+      <selection pane="bottomRight" activeCell="U59" sqref="U59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8342,6 +9157,12 @@
       <c r="T58" s="10">
         <v>45976</v>
       </c>
+      <c r="U58" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="V58" s="4">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="59" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -8393,6 +9214,9 @@
         <v>0</v>
       </c>
       <c r="T59" s="10"/>
+      <c r="U59" s="11" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="60" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -8444,6 +9268,9 @@
         <v>0</v>
       </c>
       <c r="T60" s="10"/>
+      <c r="U60" s="11" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="61" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
@@ -8851,6 +9678,12 @@
       <c r="T67" s="10">
         <v>45976</v>
       </c>
+      <c r="U67" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="V67" s="4">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="68" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
@@ -8904,6 +9737,12 @@
       <c r="T68" s="10">
         <v>45976</v>
       </c>
+      <c r="U68" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="V68" s="4">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="69" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
@@ -8954,7 +9793,9 @@
       <c r="Q69" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T69" s="10"/>
+      <c r="T69" s="10">
+        <v>45977</v>
+      </c>
     </row>
     <row r="70" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
@@ -9006,6 +9847,9 @@
         <v>0</v>
       </c>
       <c r="T70" s="10"/>
+      <c r="U70" s="11" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="71" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
@@ -9413,6 +10257,12 @@
       <c r="T77" s="10">
         <v>45976</v>
       </c>
+      <c r="U77" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="V77" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
@@ -9466,6 +10316,12 @@
       <c r="T78" s="10">
         <v>45976</v>
       </c>
+      <c r="U78" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="V78" s="4">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="79" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
@@ -9516,7 +10372,9 @@
       <c r="Q79" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T79" s="10"/>
+      <c r="T79" s="10">
+        <v>45977</v>
+      </c>
     </row>
     <row r="80" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
@@ -9567,7 +10425,9 @@
       <c r="Q80" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T80" s="10"/>
+      <c r="T80" s="10">
+        <v>45977</v>
+      </c>
     </row>
     <row r="81" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
@@ -9751,6 +10611,12 @@
       <c r="T83" s="10">
         <v>45976</v>
       </c>
+      <c r="U83" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="V83" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
@@ -9804,6 +10670,12 @@
       <c r="T84" s="10">
         <v>45976</v>
       </c>
+      <c r="U84" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="V84" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
@@ -9857,6 +10729,12 @@
       <c r="T85" s="10">
         <v>45976</v>
       </c>
+      <c r="U85" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="V85" s="4">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="86" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
@@ -9913,10 +10791,16 @@
       <c r="T86" s="10">
         <v>45976</v>
       </c>
+      <c r="U86" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="V86" s="4">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="87" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>18</v>
@@ -9934,7 +10818,7 @@
         <v>258</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>296</v>
@@ -9963,10 +10847,14 @@
       <c r="Q87" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="T87" s="10"/>
+      <c r="U87" s="11" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="88" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>18</v>
@@ -9984,10 +10872,10 @@
         <v>258</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="K88" s="1" t="b">
         <v>1</v>
@@ -10013,10 +10901,13 @@
       <c r="Q88" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="T88" s="10">
+        <v>45977</v>
+      </c>
     </row>
     <row r="89" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>18</v>
@@ -10034,7 +10925,7 @@
         <v>258</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>296</v>
@@ -10063,10 +10954,16 @@
       <c r="Q89" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="T89" s="10">
+        <v>45977</v>
+      </c>
+      <c r="U89" s="11" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="90" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>18</v>
@@ -10084,7 +10981,7 @@
         <v>258</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>296</v>
@@ -10113,10 +11010,13 @@
       <c r="Q90" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="T90" s="10">
+        <v>45977</v>
+      </c>
     </row>
     <row r="91" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>18</v>
@@ -10134,7 +11034,7 @@
         <v>258</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>296</v>
@@ -10166,7 +11066,7 @@
     </row>
     <row r="92" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>18</v>
@@ -10184,7 +11084,7 @@
         <v>258</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>296</v>
@@ -10216,7 +11116,7 @@
     </row>
     <row r="93" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>18</v>
@@ -10234,7 +11134,7 @@
         <v>258</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>296</v>
@@ -10266,7 +11166,7 @@
     </row>
     <row r="94" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>18</v>
@@ -10284,7 +11184,7 @@
         <v>258</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>296</v>
@@ -10316,7 +11216,7 @@
     </row>
     <row r="95" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>18</v>
@@ -10334,7 +11234,7 @@
         <v>258</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>296</v>
@@ -10366,7 +11266,7 @@
     </row>
     <row r="96" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>18</v>
@@ -10384,7 +11284,7 @@
         <v>258</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>296</v>
@@ -10414,9 +11314,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>18</v>
@@ -10434,10 +11334,10 @@
         <v>258</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="K97" s="1" t="b">
         <v>1</v>
@@ -10463,10 +11363,13 @@
       <c r="Q97" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="T97" s="10">
+        <v>45977</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>18</v>
@@ -10484,7 +11387,7 @@
         <v>258</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>304</v>
@@ -10513,10 +11416,13 @@
       <c r="Q98" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="T98" s="10">
+        <v>45977</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>18</v>
@@ -10534,10 +11440,10 @@
         <v>258</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="K99" s="1" t="b">
         <v>1</v>
@@ -10564,9 +11470,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>18</v>
@@ -10584,7 +11490,7 @@
         <v>258</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>296</v>
@@ -10614,9 +11520,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>18</v>
@@ -10634,7 +11540,7 @@
         <v>258</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>304</v>
@@ -10664,9 +11570,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>18</v>
@@ -10684,10 +11590,10 @@
         <v>258</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="K102" s="1" t="b">
         <v>1</v>
@@ -10714,9 +11620,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>18</v>
@@ -10734,10 +11640,10 @@
         <v>258</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="K103" s="1" t="b">
         <v>1</v>
@@ -10764,9 +11670,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>18</v>
@@ -10784,10 +11690,10 @@
         <v>258</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="K104" s="1" t="b">
         <v>1</v>
@@ -10814,9 +11720,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>18</v>
@@ -10834,10 +11740,10 @@
         <v>258</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="K105" s="1" t="b">
         <v>1</v>
@@ -10864,9 +11770,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>18</v>
@@ -10884,10 +11790,10 @@
         <v>258</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="K106" s="1" t="b">
         <v>1</v>
@@ -10914,9 +11820,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>18</v>
@@ -10934,10 +11840,10 @@
         <v>258</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="K107" s="1" t="b">
         <v>1</v>
@@ -10963,10 +11869,13 @@
       <c r="Q107" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="T107" s="10">
+        <v>45977</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>18</v>
@@ -10984,10 +11893,10 @@
         <v>258</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="K108" s="1" t="b">
         <v>1</v>
@@ -11013,10 +11922,13 @@
       <c r="Q108" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="T108" s="10">
+        <v>45977</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>18</v>
@@ -11034,10 +11946,10 @@
         <v>258</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="K109" s="1" t="b">
         <v>1</v>
@@ -11064,9 +11976,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>18</v>
@@ -11084,10 +11996,10 @@
         <v>258</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="K110" s="1" t="b">
         <v>1</v>
@@ -11114,9 +12026,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>18</v>
@@ -11134,10 +12046,10 @@
         <v>258</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="K111" s="1" t="b">
         <v>1</v>
@@ -11164,9 +12076,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>18</v>
@@ -11184,10 +12096,10 @@
         <v>258</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="K112" s="1" t="b">
         <v>1</v>
@@ -11216,7 +12128,7 @@
     </row>
     <row r="113" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>18</v>
@@ -11234,10 +12146,10 @@
         <v>258</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="K113" s="1" t="b">
         <v>1</v>
@@ -11266,7 +12178,7 @@
     </row>
     <row r="114" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>18</v>
@@ -11284,10 +12196,10 @@
         <v>258</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="K114" s="1" t="b">
         <v>1</v>
@@ -11316,7 +12228,7 @@
     </row>
     <row r="115" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>18</v>
@@ -11334,10 +12246,10 @@
         <v>258</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="K115" s="1" t="b">
         <v>1</v>
@@ -11366,7 +12278,7 @@
     </row>
     <row r="116" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>18</v>
@@ -11384,10 +12296,10 @@
         <v>258</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="K116" s="1" t="b">
         <v>1</v>
@@ -11415,7 +12327,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V81" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:V116" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K1:L1048576">
     <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
@@ -11449,7 +12361,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:S1048576 V1:V1048576">
+  <conditionalFormatting sqref="R1:S1048576 V1:V84 V86:V1048576">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -11947,8 +12859,7 @@
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11957,177 +12868,177 @@
         <v>98</v>
       </c>
       <c r="B2" s="9">
-        <v>45976</v>
+        <v>45977</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>396</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>397</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>398</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>280</v>
+        <v>397</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>399</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>289</v>
+        <v>398</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>400</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>290</v>
+        <v>399</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>401</v>
+        <v>490</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>402</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>403</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>387</v>
+        <v>416</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>404</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="B13" t="s">
-        <v>393</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>405</v>
+        <v>492</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>_xlfn.CONCAT("&gt;",A4,"\n",C4)</f>
-        <v>&gt;sbio-nipahgpg-058\nEVQLVESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAISGSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARGYQVYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+        <v>&gt;sbio-nipahgpg-070\nEVQLVESGGGLVQPGGSLRLSCAASGFTVSSNYMSWVRQAPGKGLEWVSVIYSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCAREAGVWVFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" ref="A30:A38" si="0">_xlfn.CONCAT("&gt;",A5,"\n",C5)</f>
-        <v>&gt;sbio-nipahgpg-059\nEVQLVESGGGLVQPGGSLRLSCAASGFNVSSSYIHWVRQAPGKGLEWVASISSYYGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGWSYSWSYSWSYSGLDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</v>
+        <v>&gt;sbio-nipahgpg-080\nEVQLVESGGGLVQPGGSLRLSCAASGFNVVDFSLHWVRQAPGKGLEWVASIYPYDGSAYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARWGYWPGEGWLGKYWGQGTLVTVSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEI</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-068\nEVQLQQSGPELVKPGASVKMSCKASGYTFTSYNIHWVKQTPVHGLEWIGAIVSGGDTNYNENFKDKATLTVDKSSSTAYMQLTSEDSAVYYCARGGFYGDYWGQGTSVTVSSGGGSGGGSGGGSGGGSDIVLTQSPATLSVTPGDSVSLSCRASQSVTNNIHWYQQKSHESPRLLIKYASQSISGIPSRFSGSGSGTDFTLSINSVETEDFGMYFCQQSNSWPYTFGGGTKLEIK</v>
+        <v>&gt;sbio-nipahgpg-081\nEVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSSYGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARWEGYRGDLWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYYEWLRTFGQGTKVEIK</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-069\nQVQLQESGPGLVKPSQTLSLTCTVSGGSISSGDYYWIRQHPGKGLEWIGYIYYSGSTYYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARQLWLRGRFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK</v>
+        <v>&gt;sbio-nipahgpg-089\nQVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYAISWVRQAPGQGLEWMGGIIIFGTANYAQKFQGRVTITADKSTSTAYMELRSEDTAVYYCAREGTTGWDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSVSSSYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPRTFGQGTKVEIK</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-078\nVQLVQSGAEVKRPGSSVKVSCKTSGGTIFSTYVFWVRQAPGQGLEWMGGFPPKAGYIYAQKFQGRVTFTADESSSTTVYMEDLRSEDTAVYFCARFPYFVYDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSIGGYLAWYQQKPGKVPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK</v>
+        <v>&gt;sbio-nipahgpg-090\nEVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYVYYGAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-079\nVQLQESGPGLVKPSQSLSLTCTVTGFSIDYNIYWGWIRQPPGKGLEWIGYIYSGSDTYNPSLKSRVTISVDTSKNQFSLKVNSVTAADTAVYYCARVVDLWYDDGKYASCVKGAIDYWGQGTLVTVSSGGGSGGGSGGGSSVLTQPPSVSGAPGQRVTISCTGSSGAGYDVHWYQQLPGTAPKLLIYGNSNRPSGVPDRFSGSKSGTSASLAITGLQAEDEADYYCQSYDSSLSGWVFGGGTKLTVL</v>
+        <v>&gt;sbio-nipahgpg-091\nEVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASIYSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGWVRGSSYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-084\nDVQLQESGPGLVKPSQTLSLTCTVSGYSITSDYYWNWIRQFPGNKLEWMGYISYDGSSNYNPSLKNRISITRDNSKNQFFLQLNSVTTEDTATYYCARSCSRRGYAMDYWGQGTSVTVSSGGGSGGGSGGGSGGGSQIVLTQSPAIMSASLGEKVTLTCSASSSVSYMHWYQQKPGTSPKLLIYSCNLLSGVPDRFSGSGSGTDFTLSISNVETEDAATYYCYQYRIRFGGGTKLTVLQ</v>
+        <v>&gt;sbio-nipahgpg-098\nEVQLVESGGGLVKPGGSLRLSCAASGFTFRNYAMSWVRQAPGKGLEWVSSISSKSKSTSYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARESGSFSYEGVWGQGTLVTVSSGGGSGGGSGGGSGGGSSVLTQPPSVSGAPGQRVTISCTGSSSNIGAGYDVHWYQQLPGTAPKLLIYDNNKRPSGVPDRFSGSKSGTSASLAITGLQAEDEADYYCQSYDSSLSGLVFGGGTKLTVL</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-085\nEVQLVESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSSISRSGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARSCSSRGYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPDSLAVSLGERATINCRASQSVSSYLAWYQQKPGQSPKLLIYSCNLQSGVPDRFSGSGSGTDFTLTISSLQPEDFATYYCQPYIRFGGGGTKLEIK</v>
+        <v>&gt;sbio-nipahgpg-099\nEVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYYSSGYTHYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARWGYWPGQVWLWFAYWGQGTLVTVSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-086\nQVQLQESGPGLVKPSQTLSLTCTVSGFSFSSYAMSWVRQAPGKGLEWVSSISRSGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARSCSSRGYLFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPDSLAVSLGERATINCRASQSVSSYLAWYQQKPGQSPKLLIYSCNLQSGVPDRFSGSGSGTDFTLTISSLQPEDFATYYCQPYIRFGGGGTKLEIK</v>
+        <v>&gt;sbio-nipahgpg-108\nQVQLVESGGGVVQPGRSLRLSCAASGFTFSNYAMHWVRQAPGKGLEWVAVISYNSGNPYADSVKGRFTISRDNSKNTLYLQMRVEDTAVYYCSRTTIGYGGDIWGNMFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPATLSVSPGDRATLSCRASQSISTNLAWYQQKPGQAPRLLIYTASTLESGVPSRFSGSGSGTEFTLTISNLQSEDFATYFCQQYSAPLTFGGGTKVEIK</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-087\nSIKLTESGPTSVAPGSTLNLTCTVTGDNITSSGWYWWVKQAPDNKLTWIGGIDKNGNTWLNVAYIDRATLTRDPAANTVYLSIRNVTSSDTATYYCAKSSDDNGSYLDVWGQGLKVTVSGGGGSGGGSGGGSGGGSQVKLTQSPKEVTAKIGDTVTLTCTASQPVSTVSWYMQKPGQPPQLLISNNKLVEGVPERFSASGSGTEFTLTIKDVQKEDEAIYYCEVNGQVFGQGTKLTVLE</v>
+        <v>&gt;sbio-nipahgpg-109\nEVQLVESGGGLVQPGGSLRLSCAASGFASSSSNYVHWVRQAPGKGLEWVATIYPYSSSEYAASVQGRFTISRDDSKNTLYLQMNSLRGEDTAVYYCARYGYYSSRSGYGYYFNYWGQGTLVTVSSGGGSGGGSGGGSDIVMTQSPASLAVSLGQRATISCRASESVDSYGNSFLAWYQQKPGQPPKLLIYWASTRQSGVPARFSGSGSGTDFTLNIHPVEEEDAATYYCQQHNYPLTFGAGTKLEIK</v>
       </c>
     </row>
   </sheetData>

--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\Nipah_gpG_Fv_Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CFE9BE-5DE3-418E-8825-5CD8620E6BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B038D2-3B33-4DF6-999B-59EE0674CBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="501">
   <si>
     <t>antigen_id</t>
   </si>
@@ -1522,6 +1522,30 @@
   </si>
   <si>
     <t>EVQLVESGGGLVQPGGSLRLSCAASGFASSSSNYVHWVRQAPGKGLEWVATIYPYSSSEYAASVQGRFTISRDDSKNTLYLQMNSLRGEDTAVYYCARYGYYSSRSGYGYYFNYWGQGTLVTVSSGGGSGGGSGGGSDIVMTQSPASLAVSLGQRATISCRASESVDSYGNSFLAWYQQKPGQPPKLLIYWASTRQSGVPARFSGSGSGTDFTLNIHPVEEEDAATYYCQQHNYPLTFGAGTKLEIK</t>
+  </si>
+  <si>
+    <t>young-wolf-cedar</t>
+  </si>
+  <si>
+    <t>silver-raven-granite</t>
+  </si>
+  <si>
+    <t>amber-boar-ice</t>
+  </si>
+  <si>
+    <t>wild-cat-jade</t>
+  </si>
+  <si>
+    <t>violet-ant-onyx</t>
+  </si>
+  <si>
+    <t>young-dove-rose</t>
+  </si>
+  <si>
+    <t>misty-ibis-clay</t>
+  </si>
+  <si>
+    <t>scarlet-panther-opal</t>
   </si>
 </sst>
 </file>
@@ -4672,7 +4696,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{135D55CA-26D1-4FA2-9199-54D547F2C103}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{135D55CA-26D1-4FA2-9199-54D547F2C103}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:C13" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -5353,13 +5377,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:V116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U59" sqref="U59"/>
+      <selection pane="bottomRight" activeCell="U79" sqref="U79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5456,7 +5481,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -5524,7 +5549,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -5592,7 +5617,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -5660,7 +5685,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -5728,7 +5753,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -5796,7 +5821,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -5860,7 +5885,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
@@ -5933,7 +5958,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
@@ -6006,7 +6031,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -6079,7 +6104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -6152,7 +6177,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -6219,7 +6244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -6292,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
@@ -6365,7 +6390,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>69</v>
       </c>
@@ -6432,7 +6457,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>70</v>
       </c>
@@ -6505,7 +6530,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -6578,7 +6603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>72</v>
       </c>
@@ -6651,7 +6676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>73</v>
       </c>
@@ -6724,7 +6749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>74</v>
       </c>
@@ -6797,7 +6822,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>75</v>
       </c>
@@ -6870,7 +6895,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>76</v>
       </c>
@@ -6943,7 +6968,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>101</v>
       </c>
@@ -7010,7 +7035,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>102</v>
       </c>
@@ -7083,7 +7108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
@@ -7156,7 +7181,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>104</v>
       </c>
@@ -7229,7 +7254,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>105</v>
       </c>
@@ -7302,7 +7327,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>106</v>
       </c>
@@ -7375,7 +7400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>107</v>
       </c>
@@ -7448,7 +7473,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>108</v>
       </c>
@@ -7521,7 +7546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>174</v>
       </c>
@@ -7577,7 +7602,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>175</v>
       </c>
@@ -7636,7 +7661,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>176</v>
       </c>
@@ -7695,7 +7720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>177</v>
       </c>
@@ -7754,7 +7779,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>178</v>
       </c>
@@ -7813,7 +7838,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>179</v>
       </c>
@@ -7872,7 +7897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>180</v>
       </c>
@@ -7931,7 +7956,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>181</v>
       </c>
@@ -7990,7 +8015,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>182</v>
       </c>
@@ -8049,7 +8074,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>183</v>
       </c>
@@ -8108,7 +8133,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>184</v>
       </c>
@@ -8167,7 +8192,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>185</v>
       </c>
@@ -8226,7 +8251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>186</v>
       </c>
@@ -8285,7 +8310,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>187</v>
       </c>
@@ -8344,7 +8369,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>188</v>
       </c>
@@ -8403,7 +8428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>189</v>
       </c>
@@ -8462,7 +8487,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>190</v>
       </c>
@@ -8521,7 +8546,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>191</v>
       </c>
@@ -8580,7 +8605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>192</v>
       </c>
@@ -8639,7 +8664,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>193</v>
       </c>
@@ -8698,7 +8723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>263</v>
       </c>
@@ -8757,7 +8782,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>264</v>
       </c>
@@ -8816,7 +8841,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>265</v>
       </c>
@@ -8875,7 +8900,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>266</v>
       </c>
@@ -8934,7 +8959,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>267</v>
       </c>
@@ -8990,7 +9015,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>268</v>
       </c>
@@ -9049,7 +9074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>269</v>
       </c>
@@ -9105,7 +9130,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>270</v>
       </c>
@@ -9164,7 +9189,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>271</v>
       </c>
@@ -9218,7 +9243,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>272</v>
       </c>
@@ -9272,7 +9297,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>273</v>
       </c>
@@ -9331,7 +9356,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>274</v>
       </c>
@@ -9390,7 +9415,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>275</v>
       </c>
@@ -9449,7 +9474,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>276</v>
       </c>
@@ -9508,7 +9533,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>277</v>
       </c>
@@ -9567,7 +9592,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>278</v>
       </c>
@@ -9626,7 +9651,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>279</v>
       </c>
@@ -9685,7 +9710,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>280</v>
       </c>
@@ -9796,8 +9821,14 @@
       <c r="T69" s="10">
         <v>45977</v>
       </c>
-    </row>
-    <row r="70" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="U69" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="V69" s="4">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>282</v>
       </c>
@@ -9851,7 +9882,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>283</v>
       </c>
@@ -9910,7 +9941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>284</v>
       </c>
@@ -9969,7 +10000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>285</v>
       </c>
@@ -10028,7 +10059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>286</v>
       </c>
@@ -10087,7 +10118,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>287</v>
       </c>
@@ -10146,7 +10177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>288</v>
       </c>
@@ -10205,7 +10236,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>289</v>
       </c>
@@ -10264,7 +10295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>290</v>
       </c>
@@ -10428,8 +10459,14 @@
       <c r="T80" s="10">
         <v>45977</v>
       </c>
-    </row>
-    <row r="81" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="U80" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="V80" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>341</v>
       </c>
@@ -10494,7 +10531,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>369</v>
       </c>
@@ -10559,7 +10596,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>385</v>
       </c>
@@ -10618,7 +10655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>386</v>
       </c>
@@ -10677,7 +10714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>387</v>
       </c>
@@ -10736,7 +10773,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>392</v>
       </c>
@@ -10798,7 +10835,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>396</v>
       </c>
@@ -10904,6 +10941,12 @@
       <c r="T88" s="10">
         <v>45977</v>
       </c>
+      <c r="U88" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="V88" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
@@ -11013,8 +11056,14 @@
       <c r="T90" s="10">
         <v>45977</v>
       </c>
-    </row>
-    <row r="91" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="U90" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="V90" s="4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>400</v>
       </c>
@@ -11064,7 +11113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>401</v>
       </c>
@@ -11114,7 +11163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>402</v>
       </c>
@@ -11164,7 +11213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>403</v>
       </c>
@@ -11214,7 +11263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>404</v>
       </c>
@@ -11264,7 +11313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>405</v>
       </c>
@@ -11314,7 +11363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>406</v>
       </c>
@@ -11366,8 +11415,14 @@
       <c r="T97" s="10">
         <v>45977</v>
       </c>
-    </row>
-    <row r="98" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="U97" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="V97" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>407</v>
       </c>
@@ -11419,8 +11474,14 @@
       <c r="T98" s="10">
         <v>45977</v>
       </c>
-    </row>
-    <row r="99" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="U98" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="V98" s="4">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>408</v>
       </c>
@@ -11470,7 +11531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>409</v>
       </c>
@@ -11520,7 +11581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>410</v>
       </c>
@@ -11570,7 +11631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>411</v>
       </c>
@@ -11620,7 +11681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>412</v>
       </c>
@@ -11670,7 +11731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>413</v>
       </c>
@@ -11720,7 +11781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>414</v>
       </c>
@@ -11770,7 +11831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>415</v>
       </c>
@@ -11820,7 +11881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>416</v>
       </c>
@@ -11872,8 +11933,14 @@
       <c r="T107" s="10">
         <v>45977</v>
       </c>
-    </row>
-    <row r="108" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="U107" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="V107" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>417</v>
       </c>
@@ -11925,8 +11992,14 @@
       <c r="T108" s="10">
         <v>45977</v>
       </c>
-    </row>
-    <row r="109" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="U108" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="V108" s="4">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>418</v>
       </c>
@@ -11976,7 +12049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>419</v>
       </c>
@@ -12026,7 +12099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>420</v>
       </c>
@@ -12076,7 +12149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>421</v>
       </c>
@@ -12126,7 +12199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>422</v>
       </c>
@@ -12176,7 +12249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>423</v>
       </c>
@@ -12226,7 +12299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>424</v>
       </c>
@@ -12276,7 +12349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>425</v>
       </c>
@@ -12327,7 +12400,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V116" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:V116" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="19">
+      <filters>
+        <dateGroupItem year="2025" month="11" day="16" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K1:L1048576">
     <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">

--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\Nipah_gpG_Fv_Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B038D2-3B33-4DF6-999B-59EE0674CBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF8DC2C-E861-4F27-A8C9-DF6F231BB4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="502">
   <si>
     <t>antigen_id</t>
   </si>
@@ -1546,6 +1546,9 @@
   </si>
   <si>
     <t>scarlet-panther-opal</t>
+  </si>
+  <si>
+    <t>azure-toad-ice</t>
   </si>
 </sst>
 </file>
@@ -5377,14 +5380,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:V116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U79" sqref="U79"/>
+      <selection pane="bottomRight" activeCell="T91" sqref="T91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5481,7 +5483,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -5549,7 +5551,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -5617,7 +5619,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -5685,7 +5687,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -5753,7 +5755,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -5821,7 +5823,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -5885,7 +5887,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
@@ -5958,7 +5960,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
@@ -6031,7 +6033,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -6104,7 +6106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -6177,7 +6179,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -6244,7 +6246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -6317,7 +6319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
@@ -6390,7 +6392,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>69</v>
       </c>
@@ -6457,7 +6459,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>70</v>
       </c>
@@ -6530,7 +6532,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -6603,7 +6605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>72</v>
       </c>
@@ -6676,7 +6678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>73</v>
       </c>
@@ -6749,7 +6751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>74</v>
       </c>
@@ -6822,7 +6824,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>75</v>
       </c>
@@ -6895,7 +6897,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>76</v>
       </c>
@@ -6968,7 +6970,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>101</v>
       </c>
@@ -7035,7 +7037,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>102</v>
       </c>
@@ -7108,7 +7110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
@@ -7181,7 +7183,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>104</v>
       </c>
@@ -7254,7 +7256,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>105</v>
       </c>
@@ -7327,7 +7329,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>106</v>
       </c>
@@ -7400,7 +7402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>107</v>
       </c>
@@ -7473,7 +7475,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>108</v>
       </c>
@@ -7546,7 +7548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>174</v>
       </c>
@@ -7602,7 +7604,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>175</v>
       </c>
@@ -7661,7 +7663,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>176</v>
       </c>
@@ -7720,7 +7722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>177</v>
       </c>
@@ -7779,7 +7781,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>178</v>
       </c>
@@ -7838,7 +7840,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>179</v>
       </c>
@@ -7897,7 +7899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>180</v>
       </c>
@@ -7956,7 +7958,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>181</v>
       </c>
@@ -8015,7 +8017,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>182</v>
       </c>
@@ -8074,7 +8076,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>183</v>
       </c>
@@ -8133,7 +8135,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>184</v>
       </c>
@@ -8192,7 +8194,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>185</v>
       </c>
@@ -8251,7 +8253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>186</v>
       </c>
@@ -8310,7 +8312,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>187</v>
       </c>
@@ -8369,7 +8371,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>188</v>
       </c>
@@ -8428,7 +8430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>189</v>
       </c>
@@ -8487,7 +8489,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>190</v>
       </c>
@@ -8546,7 +8548,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>191</v>
       </c>
@@ -8605,7 +8607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>192</v>
       </c>
@@ -8664,7 +8666,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>193</v>
       </c>
@@ -8723,7 +8725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>263</v>
       </c>
@@ -8782,7 +8784,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>264</v>
       </c>
@@ -8841,7 +8843,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>265</v>
       </c>
@@ -8900,7 +8902,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>266</v>
       </c>
@@ -8959,7 +8961,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>267</v>
       </c>
@@ -9015,7 +9017,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>268</v>
       </c>
@@ -9074,7 +9076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>269</v>
       </c>
@@ -9130,7 +9132,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>270</v>
       </c>
@@ -9189,7 +9191,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>271</v>
       </c>
@@ -9243,7 +9245,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>272</v>
       </c>
@@ -9297,7 +9299,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>273</v>
       </c>
@@ -9356,7 +9358,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>274</v>
       </c>
@@ -9415,7 +9417,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>275</v>
       </c>
@@ -9474,7 +9476,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>276</v>
       </c>
@@ -9533,7 +9535,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>277</v>
       </c>
@@ -9592,7 +9594,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>278</v>
       </c>
@@ -9651,7 +9653,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>279</v>
       </c>
@@ -9710,7 +9712,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>280</v>
       </c>
@@ -9828,7 +9830,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>282</v>
       </c>
@@ -9882,7 +9884,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>283</v>
       </c>
@@ -9941,7 +9943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>284</v>
       </c>
@@ -10000,7 +10002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>285</v>
       </c>
@@ -10059,7 +10061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>286</v>
       </c>
@@ -10118,7 +10120,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>287</v>
       </c>
@@ -10177,7 +10179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>288</v>
       </c>
@@ -10236,7 +10238,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>289</v>
       </c>
@@ -10295,7 +10297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>290</v>
       </c>
@@ -10406,6 +10408,12 @@
       <c r="T79" s="10">
         <v>45977</v>
       </c>
+      <c r="U79" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="V79" s="4">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="80" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
@@ -10466,7 +10474,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>341</v>
       </c>
@@ -10531,7 +10539,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>369</v>
       </c>
@@ -10596,7 +10604,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>385</v>
       </c>
@@ -10655,7 +10663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>386</v>
       </c>
@@ -10714,7 +10722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>387</v>
       </c>
@@ -10773,7 +10781,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>392</v>
       </c>
@@ -10835,7 +10843,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>396</v>
       </c>
@@ -11063,7 +11071,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>400</v>
       </c>
@@ -11113,7 +11121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>401</v>
       </c>
@@ -11163,7 +11171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>402</v>
       </c>
@@ -11213,7 +11221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>403</v>
       </c>
@@ -11263,7 +11271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>404</v>
       </c>
@@ -11313,7 +11321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>405</v>
       </c>
@@ -11481,7 +11489,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="99" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>408</v>
       </c>
@@ -11531,7 +11539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>409</v>
       </c>
@@ -11581,7 +11589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>410</v>
       </c>
@@ -11631,7 +11639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>411</v>
       </c>
@@ -11681,7 +11689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>412</v>
       </c>
@@ -11731,7 +11739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>413</v>
       </c>
@@ -11781,7 +11789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>414</v>
       </c>
@@ -11831,7 +11839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>415</v>
       </c>
@@ -11999,7 +12007,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="109" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>418</v>
       </c>
@@ -12049,7 +12057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>419</v>
       </c>
@@ -12099,7 +12107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>420</v>
       </c>
@@ -12149,7 +12157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>421</v>
       </c>
@@ -12199,7 +12207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>422</v>
       </c>
@@ -12249,7 +12257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>423</v>
       </c>
@@ -12299,7 +12307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>424</v>
       </c>
@@ -12349,7 +12357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>425</v>
       </c>
@@ -12400,13 +12408,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V116" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="19">
-      <filters>
-        <dateGroupItem year="2025" month="11" day="16" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:V116" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K1:L1048576">
     <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
@@ -12440,7 +12442,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:S1048576 V1:V84 V86:V1048576">
+  <conditionalFormatting sqref="R1:S1048576 V1:V1048576">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\Nipah_gpG_Fv_Generation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/Nipah_gpG_Fv_Generation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF8DC2C-E861-4F27-A8C9-DF6F231BB4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04386FC2-D69D-0742-B817-03FB96C84264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22700" yWindow="500" windowWidth="15420" windowHeight="20200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Antibody Candidates" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="94" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="502">
   <si>
     <t>antigen_id</t>
   </si>
@@ -1494,36 +1494,6 @@
     <t>calm-moth-ivy</t>
   </si>
   <si>
-    <t>EVQLVESGGGLVQPGGSLRLSCAASGFTVSSNYMSWVRQAPGKGLEWVSVIYSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCAREAGVWVFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVVDFSLHWVRQAPGKGLEWVASIYPYDGSAYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARWGYWPGEGWLGKYWGQGTLVTVSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEI</t>
-  </si>
-  <si>
-    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSSYGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARWEGYRGDLWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYYEWLRTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>EVQLVESGGGLVKPGGSLRLSCAASGFTFRNYAMSWVRQAPGKGLEWVSSISSKSKSTSYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARESGSFSYEGVWGQGTLVTVSSGGGSGGGSGGGSGGGSSVLTQPPSVSGAPGQRVTISCTGSSSNIGAGYDVHWYQQLPGTAPKLLIYDNNKRPSGVPDRFSGSKSGTSASLAITGLQAEDEADYYCQSYDSSLSGLVFGGGTKLTVL</t>
-  </si>
-  <si>
-    <t>QVQLVESGGGVVQPGRSLRLSCAASGFTFSNYAMHWVRQAPGKGLEWVAVISYNSGNPYADSVKGRFTISRDNSKNTLYLQMRVEDTAVYYCSRTTIGYGGDIWGNMFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPATLSVSPGDRATLSCRASQSISTNLAWYQQKPGQAPRLLIYTASTLESGVPSRFSGSGSGTEFTLTISNLQSEDFATYFCQQYSAPLTFGGGTKVEIK</t>
-  </si>
-  <si>
-    <t>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYAISWVRQAPGQGLEWMGGIIIFGTANYAQKFQGRVTITADKSTSTAYMELRSEDTAVYYCAREGTTGWDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSVSSSYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPRTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYVYYGAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASIYSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGWVRGSSYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYYSSGYTHYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARWGYWPGQVWLWFAYWGQGTLVTVSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>EVQLVESGGGLVQPGGSLRLSCAASGFASSSSNYVHWVRQAPGKGLEWVATIYPYSSSEYAASVQGRFTISRDDSKNTLYLQMNSLRGEDTAVYYCARYGYYSSRSGYGYYFNYWGQGTLVTVSSGGGSGGGSGGGSDIVMTQSPASLAVSLGQRATISCRASESVDSYGNSFLAWYQQKPGQPPKLLIYWASTRQSGVPARFSGSGSGTDFTLNIHPVEEEDAATYYCQQHNYPLTFGAGTKLEIK</t>
-  </si>
-  <si>
     <t>young-wolf-cedar</t>
   </si>
   <si>
@@ -1549,6 +1519,36 @@
   </si>
   <si>
     <t>azure-toad-ice</t>
+  </si>
+  <si>
+    <t>QVQLVQSGAEVKKPGSSVKVSCKSSGGTSNNYAISWVRQAPGQGLEWMGGIIPILGIANYAQKFQGRVTITADKSTSTAYMELSSLRSEDTAVYYCAREDAVVDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSTLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYKASSLESGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQQYNSYPLTFGQGTKVQVK</t>
+  </si>
+  <si>
+    <t>EVQLVESGAEVKKPGSSVKVSCKASGGPFTSYVISWVRQAPGQGLEWMGRIIPIRGTTYAQKFQGRVTITADKSTSTAYMELRSEDTAVYYCARGSHVFGYYDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSISGNYLAWYQQKPGQAPRLLIYGASIRAAGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPRTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVETGGGLVQPGGSLKLSCRASGYTFTDYAMHWVRQAPLGLGLYTGGVNYARHFMKSRISITRDNSKNTLYLQMTKVDDTATYFCARRGLFDSDYWGQGTLVTVSSGGGSGGGSGGGSGGGSSVTQPPSVSGSTSVGDRVTTCRASQSISSNWLAWYQQFPGTAPKLLIYENSSRPSGVPDRFSGSGSGTDFTLKISRVEAEDVGVYYCLQALSPRFTFGSGTKLEIK</t>
+  </si>
+  <si>
+    <t>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSNYGISWVRQAPGQGLEWMGGIIPILGIANYAQKFQGRVTITADKSTSTAYMELRSLRSDDTAVYYCAREGHAYFHNGLDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSVSSSYFAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPPATFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGDYYWIRQHPGKGLEWIGYIYYSGSTDYNPSLKSRVTISVDTSKNQFSLKVTAADTAVYYCARTWFGSDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGISNYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQAHSFPYTFGGGTKLEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYWMNWVRQAPGKGLEWVAFIRYDGGNKYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARWSYSGGSGSYYVYFDYWGQGTLVTVSGGGSGGGSGGGSGGGSSVLTQPPSVSGAPGQRVTISCTGSSSNIGAGYDVHWYQQLPGTAPKLLIYGNSNRPSGVPDRFSGSKSGTSASLAITGLQAEDEADYYCQSYDSSLSGSVFGGGTKLTVL</t>
+  </si>
+  <si>
+    <t>QVQLVQSGAEVKKPGASVKVSCKASGYTFTNYYIHWVRQAPGQGLEWMGWIYPGGNTNYAQKFQGRVTMTRDTSISTAYMELSRLRSDDTAVYYCARVRTEFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPSSLAMSAGAETITCRSSQSVHSNGYLNWYQQKPGQPPKLLIYWASTRESGVPDRFTGSGSGTDFTLTITNVQSEDLAEYFCQQYSSYPLTFGAGTKLELR</t>
+  </si>
+  <si>
+    <t>QVQLQESGPGLVKPSETLSLTCTVSGGSVSSGGYFWSWIRQPPGKGLEWIGYVSGSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARWDVWISDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPATLSLSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYDASNRATGIPARFSGSGSGTDFTLTISSLEPEDFAVYYCQHSWDQPPWTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>QVQLQESGPGLVKPSQTLSLTCTVTGSSITSGYWNWIRQFPGNKLEWMGYISYSGTITYNPSLKSRISITRDTSKNQFFLQLNSVTTEDTATYYCARVYDGFYDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPSSLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYKASSLESGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQQYNSYPLTFGGGTKVEIK</t>
+  </si>
+  <si>
+    <t>QVQLVESGGGVVQPGRSLRLSCAASGFTFSSFGMHWVRQAPGKGLEWVAIIWDGSNKYYADSVKGRFTISRDNSKNTLYLQMRAEDTAVYYCALDGGSFDDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSTLSTSVGDRVTITCRASQSISSWLAWYQQKPGKAPKLLIYKASTLESGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQHFYGTPITFGPGTKVD</t>
   </si>
 </sst>
 </file>
@@ -1810,7 +1810,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Colby" refreshedDate="45977.529723842592" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="116" xr:uid="{C69715DE-2A16-4198-9FD9-FAE4F60B2265}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Colby Ford" refreshedDate="45978.899762152774" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="116" xr:uid="{C69715DE-2A16-4198-9FD9-FAE4F60B2265}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:T2970" sheet="Antibody Candidates"/>
   </cacheSource>
@@ -2117,7 +2117,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="0.69121100000000002"/>
     </cacheField>
     <cacheField name="submitted_to_comp" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-11-12T00:00:00" maxDate="2025-11-17T00:00:00" count="12">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-11-12T00:00:00" maxDate="2025-11-18T00:00:00" count="13">
         <d v="2025-11-07T00:00:00"/>
         <d v="2025-11-08T00:00:00"/>
         <d v="2025-11-09T00:00:00"/>
@@ -2128,6 +2128,7 @@
         <d v="2025-11-15T00:00:00"/>
         <m/>
         <d v="2025-11-16T00:00:00"/>
+        <d v="2025-11-17T00:00:00"/>
         <d v="2025-11-14T00:00:00" u="1"/>
         <d v="2023-11-12T00:00:00" u="1"/>
       </sharedItems>
@@ -4297,7 +4298,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="8"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="98"/>
@@ -4363,7 +4364,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="8"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="101"/>
@@ -4385,7 +4386,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="8"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="102"/>
@@ -4407,7 +4408,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="8"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="103"/>
@@ -4429,7 +4430,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="8"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="104"/>
@@ -4451,7 +4452,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="8"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="105"/>
@@ -4517,7 +4518,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="8"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="108"/>
@@ -4539,7 +4540,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="8"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="109"/>
@@ -4561,7 +4562,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="8"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="110"/>
@@ -4583,7 +4584,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="8"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="111"/>
@@ -4699,7 +4700,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{135D55CA-26D1-4FA2-9199-54D547F2C103}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{135D55CA-26D1-4FA2-9199-54D547F2C103}" name="PivotTable1" cacheId="94" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:C13" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -4971,20 +4972,21 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisPage" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="12">
-        <item x="8"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item m="1" x="11"/>
-        <item x="6"/>
-        <item m="1" x="10"/>
-        <item x="7"/>
-        <item x="9"/>
+    <pivotField axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
+      <items count="13">
+        <item h="1" x="8"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" x="6"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" x="7"/>
+        <item h="1" x="9"/>
+        <item x="10"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -4995,61 +4997,61 @@
   </rowFields>
   <rowItems count="10">
     <i>
-      <x v="68"/>
+      <x v="98"/>
       <x v="3"/>
-      <x v="68"/>
+      <x v="98"/>
     </i>
     <i>
-      <x v="78"/>
+      <x v="101"/>
       <x v="3"/>
-      <x v="78"/>
+      <x v="101"/>
     </i>
     <i>
-      <x v="79"/>
+      <x v="102"/>
       <x v="3"/>
-      <x v="79"/>
+      <x v="102"/>
     </i>
     <i>
-      <x v="87"/>
+      <x v="103"/>
       <x v="3"/>
-      <x v="87"/>
+      <x v="103"/>
     </i>
     <i>
-      <x v="88"/>
+      <x v="104"/>
       <x v="3"/>
-      <x v="88"/>
+      <x v="104"/>
     </i>
     <i>
-      <x v="89"/>
+      <x v="105"/>
       <x v="3"/>
-      <x v="89"/>
+      <x v="105"/>
     </i>
     <i>
-      <x v="96"/>
+      <x v="108"/>
       <x v="3"/>
-      <x v="96"/>
+      <x v="108"/>
     </i>
     <i>
-      <x v="97"/>
+      <x v="109"/>
       <x v="3"/>
-      <x v="97"/>
+      <x v="109"/>
     </i>
     <i>
-      <x v="106"/>
+      <x v="110"/>
       <x v="3"/>
-      <x v="106"/>
+      <x v="110"/>
     </i>
     <i>
-      <x v="107"/>
+      <x v="111"/>
       <x v="3"/>
-      <x v="107"/>
+      <x v="111"/>
     </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="19" item="11" hier="-1"/>
+    <pageField fld="19" hier="-1"/>
   </pageFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -5383,39 +5385,39 @@
   <dimension ref="A1:V116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T91" sqref="T91"/>
+      <selection pane="bottomRight" activeCell="T113" sqref="T113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="54" style="2" customWidth="1"/>
-    <col min="10" max="10" width="46.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="46.5" style="2" customWidth="1"/>
     <col min="11" max="11" width="16" style="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="2" customWidth="1"/>
-    <col min="13" max="13" width="71.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="71.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="20" max="20" width="23.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -5483,7 +5485,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -5551,7 +5553,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -5619,7 +5621,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -5687,7 +5689,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -5755,7 +5757,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -5823,7 +5825,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -5887,7 +5889,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
@@ -5960,7 +5962,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
@@ -6033,7 +6035,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -6106,7 +6108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -6179,7 +6181,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -6246,7 +6248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -6319,7 +6321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
@@ -6392,7 +6394,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>69</v>
       </c>
@@ -6459,7 +6461,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>70</v>
       </c>
@@ -6532,7 +6534,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -6605,7 +6607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>72</v>
       </c>
@@ -6678,7 +6680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>73</v>
       </c>
@@ -6751,7 +6753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>74</v>
       </c>
@@ -6824,7 +6826,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>75</v>
       </c>
@@ -6897,7 +6899,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>76</v>
       </c>
@@ -6970,7 +6972,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>101</v>
       </c>
@@ -7037,7 +7039,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>102</v>
       </c>
@@ -7110,7 +7112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
@@ -7183,7 +7185,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>104</v>
       </c>
@@ -7256,7 +7258,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>105</v>
       </c>
@@ -7329,7 +7331,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>106</v>
       </c>
@@ -7402,7 +7404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>107</v>
       </c>
@@ -7475,7 +7477,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>108</v>
       </c>
@@ -7548,7 +7550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>174</v>
       </c>
@@ -7604,7 +7606,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>175</v>
       </c>
@@ -7663,7 +7665,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>176</v>
       </c>
@@ -7722,7 +7724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>177</v>
       </c>
@@ -7781,7 +7783,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>178</v>
       </c>
@@ -7840,7 +7842,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>179</v>
       </c>
@@ -7899,7 +7901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>180</v>
       </c>
@@ -7958,7 +7960,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>181</v>
       </c>
@@ -8017,7 +8019,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>182</v>
       </c>
@@ -8076,7 +8078,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>183</v>
       </c>
@@ -8135,7 +8137,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>184</v>
       </c>
@@ -8194,7 +8196,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>185</v>
       </c>
@@ -8253,7 +8255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>186</v>
       </c>
@@ -8312,7 +8314,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>187</v>
       </c>
@@ -8371,7 +8373,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>188</v>
       </c>
@@ -8430,7 +8432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>189</v>
       </c>
@@ -8489,7 +8491,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>190</v>
       </c>
@@ -8548,7 +8550,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>191</v>
       </c>
@@ -8607,7 +8609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>192</v>
       </c>
@@ -8666,7 +8668,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>193</v>
       </c>
@@ -8725,7 +8727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>263</v>
       </c>
@@ -8784,7 +8786,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>264</v>
       </c>
@@ -8843,7 +8845,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>265</v>
       </c>
@@ -8902,7 +8904,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>266</v>
       </c>
@@ -8961,7 +8963,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>267</v>
       </c>
@@ -9017,7 +9019,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>268</v>
       </c>
@@ -9076,7 +9078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>269</v>
       </c>
@@ -9132,7 +9134,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>270</v>
       </c>
@@ -9191,7 +9193,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>271</v>
       </c>
@@ -9245,7 +9247,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>272</v>
       </c>
@@ -9299,7 +9301,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>273</v>
       </c>
@@ -9358,7 +9360,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>274</v>
       </c>
@@ -9417,7 +9419,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>275</v>
       </c>
@@ -9476,7 +9478,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>276</v>
       </c>
@@ -9535,7 +9537,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>277</v>
       </c>
@@ -9594,7 +9596,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>278</v>
       </c>
@@ -9653,7 +9655,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>279</v>
       </c>
@@ -9712,7 +9714,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>280</v>
       </c>
@@ -9771,7 +9773,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>281</v>
       </c>
@@ -9824,13 +9826,13 @@
         <v>45977</v>
       </c>
       <c r="U69" s="2" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="V69" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>282</v>
       </c>
@@ -9884,7 +9886,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>283</v>
       </c>
@@ -9943,7 +9945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>284</v>
       </c>
@@ -10002,7 +10004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>285</v>
       </c>
@@ -10061,7 +10063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>286</v>
       </c>
@@ -10120,7 +10122,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>287</v>
       </c>
@@ -10179,7 +10181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>288</v>
       </c>
@@ -10238,7 +10240,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>289</v>
       </c>
@@ -10297,7 +10299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>290</v>
       </c>
@@ -10356,7 +10358,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>291</v>
       </c>
@@ -10409,13 +10411,13 @@
         <v>45977</v>
       </c>
       <c r="U79" s="2" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="V79" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>292</v>
       </c>
@@ -10468,13 +10470,13 @@
         <v>45977</v>
       </c>
       <c r="U80" s="2" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="V80" s="4">
         <v>0.7</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>341</v>
       </c>
@@ -10539,7 +10541,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>369</v>
       </c>
@@ -10604,7 +10606,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>385</v>
       </c>
@@ -10663,7 +10665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>386</v>
       </c>
@@ -10722,7 +10724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>387</v>
       </c>
@@ -10781,7 +10783,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>392</v>
       </c>
@@ -10843,7 +10845,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>396</v>
       </c>
@@ -10897,7 +10899,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="88" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>397</v>
       </c>
@@ -10950,13 +10952,13 @@
         <v>45977</v>
       </c>
       <c r="U88" s="2" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="V88" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>398</v>
       </c>
@@ -11012,7 +11014,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>399</v>
       </c>
@@ -11065,13 +11067,13 @@
         <v>45977</v>
       </c>
       <c r="U90" s="2" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="V90" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>400</v>
       </c>
@@ -11120,8 +11122,12 @@
       <c r="Q91" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="T91" s="10"/>
+      <c r="U91" s="11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>401</v>
       </c>
@@ -11170,8 +11176,12 @@
       <c r="Q92" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="T92" s="10"/>
+      <c r="U92" s="11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>402</v>
       </c>
@@ -11220,8 +11230,12 @@
       <c r="Q93" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="T93" s="10"/>
+      <c r="U93" s="11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>403</v>
       </c>
@@ -11270,8 +11284,12 @@
       <c r="Q94" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="T94" s="10"/>
+      <c r="U94" s="11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>404</v>
       </c>
@@ -11320,8 +11338,12 @@
       <c r="Q95" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="T95" s="10"/>
+      <c r="U95" s="11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>405</v>
       </c>
@@ -11370,8 +11392,12 @@
       <c r="Q96" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="T96" s="10"/>
+      <c r="U96" s="11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>406</v>
       </c>
@@ -11424,13 +11450,13 @@
         <v>45977</v>
       </c>
       <c r="U97" s="2" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="V97" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>407</v>
       </c>
@@ -11483,13 +11509,13 @@
         <v>45977</v>
       </c>
       <c r="U98" s="2" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="V98" s="4">
         <v>0.36</v>
       </c>
     </row>
-    <row r="99" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>408</v>
       </c>
@@ -11538,8 +11564,11 @@
       <c r="Q99" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="T99" s="10">
+        <v>45978</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>409</v>
       </c>
@@ -11588,8 +11617,12 @@
       <c r="Q100" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="T100" s="10"/>
+      <c r="U100" s="11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>410</v>
       </c>
@@ -11638,8 +11671,12 @@
       <c r="Q101" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="T101" s="10"/>
+      <c r="U101" s="11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>411</v>
       </c>
@@ -11688,8 +11725,11 @@
       <c r="Q102" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="T102" s="10">
+        <v>45978</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>412</v>
       </c>
@@ -11738,8 +11778,11 @@
       <c r="Q103" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="T103" s="10">
+        <v>45978</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>413</v>
       </c>
@@ -11788,8 +11831,11 @@
       <c r="Q104" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="T104" s="10">
+        <v>45978</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>414</v>
       </c>
@@ -11838,8 +11884,11 @@
       <c r="Q105" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="T105" s="10">
+        <v>45978</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>415</v>
       </c>
@@ -11888,8 +11937,11 @@
       <c r="Q106" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="T106" s="10">
+        <v>45978</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>416</v>
       </c>
@@ -11942,13 +11994,13 @@
         <v>45977</v>
       </c>
       <c r="U107" s="2" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="V107" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>417</v>
       </c>
@@ -12001,13 +12053,13 @@
         <v>45977</v>
       </c>
       <c r="U108" s="2" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="V108" s="4">
         <v>0.59</v>
       </c>
     </row>
-    <row r="109" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>418</v>
       </c>
@@ -12056,8 +12108,11 @@
       <c r="Q109" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="T109" s="10">
+        <v>45978</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>419</v>
       </c>
@@ -12106,8 +12161,11 @@
       <c r="Q110" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="T110" s="10">
+        <v>45978</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>420</v>
       </c>
@@ -12156,8 +12214,11 @@
       <c r="Q111" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="T111" s="10">
+        <v>45978</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>421</v>
       </c>
@@ -12206,8 +12267,11 @@
       <c r="Q112" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="T112" s="10">
+        <v>45978</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" ht="64" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>422</v>
       </c>
@@ -12257,7 +12321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" ht="64" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>423</v>
       </c>
@@ -12307,7 +12371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" ht="64" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>424</v>
       </c>
@@ -12357,7 +12421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" ht="64" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>425</v>
       </c>
@@ -12475,21 +12539,21 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="122.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="44.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="93.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="122.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="44.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="93.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="1027" width="9.140625" style="1"/>
+    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="1027" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12521,7 +12585,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -12553,7 +12617,7 @@
         <v>0.37068000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>232</v>
       </c>
@@ -12582,7 +12646,7 @@
         <v>0.72998799999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>258</v>
       </c>
@@ -12619,22 +12683,22 @@
       <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="48.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="74" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>355</v>
       </c>
@@ -12666,7 +12730,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>359</v>
       </c>
@@ -12701,7 +12765,7 @@
         <v>0.23402200000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>361</v>
       </c>
@@ -12736,7 +12800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>365</v>
       </c>
@@ -12860,14 +12924,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.1640625" style="4"/>
     <col min="2" max="2" width="53" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>94</v>
       </c>
@@ -12875,7 +12939,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -12883,7 +12947,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -12891,7 +12955,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -12899,7 +12963,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>233</v>
       </c>
@@ -12907,7 +12971,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>234</v>
       </c>
@@ -12915,7 +12979,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>256</v>
       </c>
@@ -12932,194 +12996,195 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036FE0EC-FC47-C643-AAB5-7D34FF5161C9}">
   <dimension ref="A2:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A29" sqref="A29:A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>98</v>
       </c>
       <c r="B2" s="9">
-        <v>45977</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45978</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>408</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>291</v>
+        <v>411</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>292</v>
+        <v>412</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>_xlfn.CONCAT("&gt;",A4,"\n",C4)</f>
-        <v>&gt;sbio-nipahgpg-070\nEVQLVESGGGLVQPGGSLRLSCAASGFTVSSNYMSWVRQAPGKGLEWVSVIYSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCAREAGVWVFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>&gt;sbio-nipahgpg-100\nQVQLVQSGAEVKKPGSSVKVSCKSSGGTSNNYAISWVRQAPGQGLEWMGGIIPILGIANYAQKFQGRVTITADKSTSTAYMELSSLRSEDTAVYYCAREDAVVDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSTLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYKASSLESGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQQYNSYPLTFGQGTKVQVK</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" ref="A30:A38" si="0">_xlfn.CONCAT("&gt;",A5,"\n",C5)</f>
-        <v>&gt;sbio-nipahgpg-080\nEVQLVESGGGLVQPGGSLRLSCAASGFNVVDFSLHWVRQAPGKGLEWVASIYPYDGSAYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARWGYWPGEGWLGKYWGQGTLVTVSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEI</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+        <v>&gt;sbio-nipahgpg-103\nQVQLQESGPGLVKPSQTLSLTCTVSGGSISSGDYYWIRQHPGKGLEWIGYIYYSGSTDYNPSLKSRVTISVDTSKNQFSLKVTAADTAVYYCARTWFGSDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGISNYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQAHSFPYTFGGGTKLEIK</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-081\nEVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSSYGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARWEGYRGDLWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYYEWLRTFGQGTKVEIK</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>&gt;sbio-nipahgpg-104\nEVQLVESGGGLVQPGGSLRLSCAASGFTFSSYWMNWVRQAPGKGLEWVAFIRYDGGNKYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARWSYSGGSGSYYVYFDYWGQGTLVTVSGGGSGGGSGGGSGGGSSVLTQPPSVSGAPGQRVTISCTGSSSNIGAGYDVHWYQQLPGTAPKLLIYGNSNRPSGVPDRFSGSKSGTSASLAITGLQAEDEADYYCQSYDSSLSGSVFGGGTKLTVL</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-089\nQVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYAISWVRQAPGQGLEWMGGIIIFGTANYAQKFQGRVTITADKSTSTAYMELRSEDTAVYYCAREGTTGWDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSVSSSYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPRTFGQGTKVEIK</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>&gt;sbio-nipahgpg-105\nQVQLVQSGAEVKKPGASVKVSCKASGYTFTNYYIHWVRQAPGQGLEWMGWIYPGGNTNYAQKFQGRVTMTRDTSISTAYMELSRLRSDDTAVYYCARVRTEFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPSSLAMSAGAETITCRSSQSVHSNGYLNWYQQKPGQPPKLLIYWASTRESGVPDRFTGSGSGTDFTLTITNVQSEDLAEYFCQQYSSYPLTFGAGTKLELR</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-090\nEVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYVYYGAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>&gt;sbio-nipahgpg-106\nQVQLQESGPGLVKPSETLSLTCTVSGGSVSSGGYFWSWIRQPPGKGLEWIGYVSGSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARWDVWISDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPATLSLSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYDASNRATGIPARFSGSGSGTDFTLTISSLEPEDFAVYYCQHSWDQPPWTFGQGTKVEIK</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-091\nEVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASIYSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGWVRGSSYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+        <v>&gt;sbio-nipahgpg-107\nQVQLQESGPGLVKPSQTLSLTCTVTGSSITSGYWNWIRQFPGNKLEWMGYISYSGTITYNPSLKSRISITRDTSKNQFFLQLNSVTTEDTATYYCARVYDGFYDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPSSLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYKASSLESGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQQYNSYPLTFGGGTKVEIK</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-098\nEVQLVESGGGLVKPGGSLRLSCAASGFTFRNYAMSWVRQAPGKGLEWVSSISSKSKSTSYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARESGSFSYEGVWGQGTLVTVSSGGGSGGGSGGGSGGGSSVLTQPPSVSGAPGQRVTISCTGSSSNIGAGYDVHWYQQLPGTAPKLLIYDNNKRPSGVPDRFSGSKSGTSASLAITGLQAEDEADYYCQSYDSSLSGLVFGGGTKLTVL</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <v>&gt;sbio-nipahgpg-110\nEVQLVESGAEVKKPGSSVKVSCKASGGPFTSYVISWVRQAPGQGLEWMGRIIPIRGTTYAQKFQGRVTITADKSTSTAYMELRSEDTAVYYCARGSHVFGYYDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSISGNYLAWYQQKPGQAPRLLIYGASIRAAGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPRTFGQGTKVEIK</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-099\nEVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYYSSGYTHYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARWGYWPGQVWLWFAYWGQGTLVTVSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+        <v>&gt;sbio-nipahgpg-111\nEVQLVETGGGLVQPGGSLKLSCRASGYTFTDYAMHWVRQAPLGLGLYTGGVNYARHFMKSRISITRDNSKNTLYLQMTKVDDTATYFCARRGLFDSDYWGQGTLVTVSSGGGSGGGSGGGSGGGSSVTQPPSVSGSTSVGDRVTTCRASQSISSNWLAWYQQFPGTAPKLLIYENSSRPSGVPDRFSGSGSGTDFTLKISRVEAEDVGVYYCLQALSPRFTFGSGTKLEIK</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-108\nQVQLVESGGGVVQPGRSLRLSCAASGFTFSNYAMHWVRQAPGKGLEWVAVISYNSGNPYADSVKGRFTISRDNSKNTLYLQMRVEDTAVYYCSRTTIGYGGDIWGNMFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPATLSVSPGDRATLSCRASQSISTNLAWYQQKPGQAPRLLIYTASTLESGVPSRFSGSGSGTEFTLTISNLQSEDFATYFCQQYSAPLTFGGGTKVEIK</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+        <v>&gt;sbio-nipahgpg-112\nQVQLVQSGAEVKKPGSSVKVSCKASGGTFSNYGISWVRQAPGQGLEWMGGIIPILGIANYAQKFQGRVTITADKSTSTAYMELRSLRSDDTAVYYCAREGHAYFHNGLDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSVSSSYFAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPPATFGQGTKVEIK</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-109\nEVQLVESGGGLVQPGGSLRLSCAASGFASSSSNYVHWVRQAPGKGLEWVATIYPYSSSEYAASVQGRFTISRDDSKNTLYLQMNSLRGEDTAVYYCARYGYYSSRSGYGYYFNYWGQGTLVTVSSGGGSGGGSGGGSDIVMTQSPASLAVSLGQRATISCRASESVDSYGNSFLAWYQQKPGQPPKLLIYWASTRQSGVPARFSGSGSGTDFTLNIHPVEEEDAATYYCQQHNYPLTFGAGTKLEIK</v>
+        <v>&gt;sbio-nipahgpg-113\nQVQLVESGGGVVQPGRSLRLSCAASGFTFSSFGMHWVRQAPGKGLEWVAIIWDGSNKYYADSVKGRFTISRDNSKNTLYLQMRAEDTAVYYCALDGGSFDDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSTLSTSVGDRVTITCRASQSISSWLAWYQQKPGKAPKLLIYKASTLESGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQHFYGTPITFGPGTKVD</v>
       </c>
     </row>
   </sheetData>

--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/Nipah_gpG_Fv_Generation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04386FC2-D69D-0742-B817-03FB96C84264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4BE3D0-C45F-3E47-8421-CF7AAD64E3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22700" yWindow="500" windowWidth="15420" windowHeight="20200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20420" yWindow="500" windowWidth="15420" windowHeight="20200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Antibody Candidates" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="94" r:id="rId6"/>
+    <pivotCache cacheId="95" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="511">
   <si>
     <t>antigen_id</t>
   </si>
@@ -1549,6 +1549,33 @@
   </si>
   <si>
     <t>QVQLVESGGGVVQPGRSLRLSCAASGFTFSSFGMHWVRQAPGKGLEWVAIIWDGSNKYYADSVKGRFTISRDNSKNTLYLQMRAEDTAVYYCALDGGSFDDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSTLSTSVGDRVTITCRASQSISSWLAWYQQKPGKAPKLLIYKASTLESGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQHFYGTPITFGPGTKVD</t>
+  </si>
+  <si>
+    <t>noble-heron-rose</t>
+  </si>
+  <si>
+    <t>solid-fox-crystal</t>
+  </si>
+  <si>
+    <t>wild-crane-lotus</t>
+  </si>
+  <si>
+    <t>mellow-bison-reed</t>
+  </si>
+  <si>
+    <t>misty-lynx-snow</t>
+  </si>
+  <si>
+    <t>green-ant-granite</t>
+  </si>
+  <si>
+    <t>steady-fox-ash</t>
+  </si>
+  <si>
+    <t>strong-eagle-crystal</t>
+  </si>
+  <si>
+    <t>rapid-dove-frost</t>
   </si>
 </sst>
 </file>
@@ -4700,7 +4727,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{135D55CA-26D1-4FA2-9199-54D547F2C103}" name="PivotTable1" cacheId="94" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{135D55CA-26D1-4FA2-9199-54D547F2C103}" name="PivotTable1" cacheId="95" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:C13" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -5385,7 +5412,7 @@
   <dimension ref="A1:V116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q107" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q108" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="T113" sqref="T113"/>
@@ -11567,6 +11594,12 @@
       <c r="T99" s="10">
         <v>45978</v>
       </c>
+      <c r="U99" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="V99" s="4">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="100" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
@@ -11728,6 +11761,12 @@
       <c r="T102" s="10">
         <v>45978</v>
       </c>
+      <c r="U102" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="V102" s="4">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="103" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
@@ -11834,6 +11873,12 @@
       <c r="T104" s="10">
         <v>45978</v>
       </c>
+      <c r="U104" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="V104" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
@@ -11887,6 +11932,12 @@
       <c r="T105" s="10">
         <v>45978</v>
       </c>
+      <c r="U105" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="V105" s="4">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="106" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
@@ -11940,6 +11991,12 @@
       <c r="T106" s="10">
         <v>45978</v>
       </c>
+      <c r="U106" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="V106" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
@@ -12111,6 +12168,12 @@
       <c r="T109" s="10">
         <v>45978</v>
       </c>
+      <c r="U109" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="V109" s="4">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="110" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
@@ -12164,6 +12227,12 @@
       <c r="T110" s="10">
         <v>45978</v>
       </c>
+      <c r="U110" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="V110" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
@@ -12217,6 +12286,12 @@
       <c r="T111" s="10">
         <v>45978</v>
       </c>
+      <c r="U111" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="V111" s="4">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="112" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
@@ -12269,6 +12344,12 @@
       </c>
       <c r="T112" s="10">
         <v>45978</v>
+      </c>
+      <c r="U112" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="V112" s="4">
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="113" spans="1:17" ht="64" x14ac:dyDescent="0.2">

--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/Nipah_gpG_Fv_Generation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4BE3D0-C45F-3E47-8421-CF7AAD64E3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAC5AA1-2E2D-9240-A9BB-D949456E1035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20420" yWindow="500" windowWidth="15420" windowHeight="20200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Antibody Candidates" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="95" r:id="rId6"/>
+    <pivotCache cacheId="103" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="514">
   <si>
     <t>antigen_id</t>
   </si>
@@ -1521,36 +1521,6 @@
     <t>azure-toad-ice</t>
   </si>
   <si>
-    <t>QVQLVQSGAEVKKPGSSVKVSCKSSGGTSNNYAISWVRQAPGQGLEWMGGIIPILGIANYAQKFQGRVTITADKSTSTAYMELSSLRSEDTAVYYCAREDAVVDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSTLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYKASSLESGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQQYNSYPLTFGQGTKVQVK</t>
-  </si>
-  <si>
-    <t>EVQLVESGAEVKKPGSSVKVSCKASGGPFTSYVISWVRQAPGQGLEWMGRIIPIRGTTYAQKFQGRVTITADKSTSTAYMELRSEDTAVYYCARGSHVFGYYDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSISGNYLAWYQQKPGQAPRLLIYGASIRAAGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPRTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>EVQLVETGGGLVQPGGSLKLSCRASGYTFTDYAMHWVRQAPLGLGLYTGGVNYARHFMKSRISITRDNSKNTLYLQMTKVDDTATYFCARRGLFDSDYWGQGTLVTVSSGGGSGGGSGGGSGGGSSVTQPPSVSGSTSVGDRVTTCRASQSISSNWLAWYQQFPGTAPKLLIYENSSRPSGVPDRFSGSGSGTDFTLKISRVEAEDVGVYYCLQALSPRFTFGSGTKLEIK</t>
-  </si>
-  <si>
-    <t>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSNYGISWVRQAPGQGLEWMGGIIPILGIANYAQKFQGRVTITADKSTSTAYMELRSLRSDDTAVYYCAREGHAYFHNGLDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSVSSSYFAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPPATFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGDYYWIRQHPGKGLEWIGYIYYSGSTDYNPSLKSRVTISVDTSKNQFSLKVTAADTAVYYCARTWFGSDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGISNYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQAHSFPYTFGGGTKLEIK</t>
-  </si>
-  <si>
-    <t>EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYWMNWVRQAPGKGLEWVAFIRYDGGNKYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARWSYSGGSGSYYVYFDYWGQGTLVTVSGGGSGGGSGGGSGGGSSVLTQPPSVSGAPGQRVTISCTGSSSNIGAGYDVHWYQQLPGTAPKLLIYGNSNRPSGVPDRFSGSKSGTSASLAITGLQAEDEADYYCQSYDSSLSGSVFGGGTKLTVL</t>
-  </si>
-  <si>
-    <t>QVQLVQSGAEVKKPGASVKVSCKASGYTFTNYYIHWVRQAPGQGLEWMGWIYPGGNTNYAQKFQGRVTMTRDTSISTAYMELSRLRSDDTAVYYCARVRTEFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPSSLAMSAGAETITCRSSQSVHSNGYLNWYQQKPGQPPKLLIYWASTRESGVPDRFTGSGSGTDFTLTITNVQSEDLAEYFCQQYSSYPLTFGAGTKLELR</t>
-  </si>
-  <si>
-    <t>QVQLQESGPGLVKPSETLSLTCTVSGGSVSSGGYFWSWIRQPPGKGLEWIGYVSGSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARWDVWISDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPATLSLSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYDASNRATGIPARFSGSGSGTDFTLTISSLEPEDFAVYYCQHSWDQPPWTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>QVQLQESGPGLVKPSQTLSLTCTVTGSSITSGYWNWIRQFPGNKLEWMGYISYSGTITYNPSLKSRISITRDTSKNQFFLQLNSVTTEDTATYYCARVYDGFYDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPSSLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYKASSLESGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQQYNSYPLTFGGGTKVEIK</t>
-  </si>
-  <si>
-    <t>QVQLVESGGGVVQPGRSLRLSCAASGFTFSSFGMHWVRQAPGKGLEWVAIIWDGSNKYYADSVKGRFTISRDNSKNTLYLQMRAEDTAVYYCALDGGSFDDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSTLSTSVGDRVTITCRASQSISSWLAWYQQKPGKAPKLLIYKASTLESGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQHFYGTPITFGPGTKVD</t>
-  </si>
-  <si>
     <t>noble-heron-rose</t>
   </si>
   <si>
@@ -1576,6 +1546,45 @@
   </si>
   <si>
     <t>rapid-dove-frost</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFATVSSNYMSWVRQAPGKGLEWVSVIYSCGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARYYYDSSRSGYYYYFDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-118</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-119</t>
+  </si>
+  <si>
+    <t>DIVLTQSPASLAVSLGQRATISCKASQSVDYDGDSYMHWYQQKPGQPPKLLIYRASNLESGIPARFSGSGSRTDFTLTINPVEADDVATYYCQQSNYPLTFGSGTKVEIK</t>
+  </si>
+  <si>
+    <t>peleke-phi-4 (humanized)</t>
+  </si>
+  <si>
+    <t>EVQLLESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSYISSSSSTIYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCAKYSSYDYDYWGRGTMVTVSS</t>
+  </si>
+  <si>
+    <t>DIQLTQSPSSLSASVGDRVTITCRASQGISSYLNWYQQKPGKAPKLLIYDASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQFYEWLRTFGQGTRLEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVKPGGSLKVSCAASGFTFSDYSMNWVRQAPGKGLEWVSSITSGYTSIYYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARVSDNFDYWGQGTAVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK</t>
+  </si>
+  <si>
+    <t>EVQLQQSGAELVKPGASVKLSCKASGYTFLDYYMYWVKQRPEQGLEWIGRIDPANGNTIYAPKFQDKATLTLTTDTTSSNTAYMQLSSLTSEDSAVYYCAREGNYGYRDLAWFAYWGQGTLVTVSSGGGSGGGSGGGSGGGSAIRMTQSPSSLSASVGDTVTITCRASQSISSYLNWYQQKPGKAPKLLIYTASNLESGVPSRFSGSGSGTDYTLTISSLQPEDIATYYCQQYDNPPLTFGGGTKVEIK</t>
+  </si>
+  <si>
+    <t>QVQLQESGPGLVKPSETLSLTCTVSGGSVSSGGYFWSWIRQRPGKGLEWIGHIYYSGTTNYNPSLRSRVTISRDTSKSQFSLKMDSLTSEDTALYYCARQLGLRFDIWGQGTMVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYTTPPTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>QVQLVESGGGLVQPGGSLRLSCAASGFNLYSSSIHWVRQAPGKGLEWVARIYPSGATYYADSVKGRFTISADTSKNTAYLQMRAEDTAVYYCARSYYGDDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASFLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYSYYPFTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLLESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSYISSSSSTIYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCAKYSSYDYDYWGRGTMVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISSYLNWYQQKPGKAPKLLIYDASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQFYEWLRTFGQGTRLEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFATVSSNYMSWVRQAPGKGLEWVSVIYSCGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARYYYDSSRSGYYYYFDYWGQGTLVTVSSGGGSGGGSGGGSDIVLTQSPASLAVSLGQRATISCKASQSVDYDGDSYMHWYQQKPGQPPKLLIYRASNLESGIPARFSGSGSRTDFTLTINPVEADDVATYYCQQSNYPLTFGSGTKVEIK</t>
   </si>
 </sst>
 </file>
@@ -1837,13 +1846,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Colby Ford" refreshedDate="45978.899762152774" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="116" xr:uid="{C69715DE-2A16-4198-9FD9-FAE4F60B2265}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Colby Ford" refreshedDate="45979.957133217591" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="118" xr:uid="{C69715DE-2A16-4198-9FD9-FAE4F60B2265}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:T2970" sheet="Antibody Candidates"/>
   </cacheSource>
   <cacheFields count="20">
     <cacheField name="antibody_id" numFmtId="0">
-      <sharedItems containsBlank="1" count="116">
+      <sharedItems containsBlank="1" count="118">
         <s v="sbio-nipahgpg-001"/>
         <s v="sbio-nipahgpg-002"/>
         <s v="sbio-nipahgpg-003"/>
@@ -1959,6 +1968,8 @@
         <s v="sbio-nipahgpg-115"/>
         <s v="sbio-nipahgpg-116"/>
         <s v="sbio-nipahgpg-117"/>
+        <s v="sbio-nipahgpg-118"/>
+        <s v="sbio-nipahgpg-119"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1966,7 +1977,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="model_version" numFmtId="0">
-      <sharedItems containsBlank="1" count="9">
+      <sharedItems containsBlank="1" count="10">
         <s v="peleke-phi-4"/>
         <s v="Qwen3-235B-A22B-Instruct-2507"/>
         <s v="peleke-phi-4 / v_48_020"/>
@@ -1975,6 +1986,7 @@
         <s v="peleke-mistral-7b-instruct-v0.2"/>
         <s v="GPT-4o"/>
         <s v="GPT-4o /  v_48_030"/>
+        <s v="peleke-phi-4 (humanized)"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -2006,7 +2018,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="franken_chain" numFmtId="0">
-      <sharedItems containsBlank="1" count="116">
+      <sharedItems containsBlank="1" count="118">
         <s v="QVQLVESGGGVVQPGRSLRLSCAASGFTFSSYGMHWVRQAPGKGLEWVAVISYDGSKKYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARSPFYDSSGYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISSYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQANSFPPTFGQGTKVEIK"/>
         <s v="QVQLVESGGGVVQPGKSLRLSCAASGFTFSSYAMSWVRQAPGKGPEWVAFISYDGSNNYYADSVKGRFTISRDNPKNTLYLQMKSLRAEDTAVYYCARWRQRFDMYWGRGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK"/>
         <s v="QVQLQESGPGLVKPSETLSLTCTVSGASIRGYYWSWIRQFPGKELEWIGYVYSGSTENYNPSLKSRVTVTLTDTKNSFSLKLNSVTSEDTAVYYCARGGALIYYDVWGTGTTVTVSSGGGSGGGSGGGSGGGSDIQVTQSPVSLSASVGDRVTITCRASQGIDSLNWFQQRPGKAPKLLIYAASQLTGIAPRFRSGSGSGTDFTLTISSLQPEDFATYYCQQYNIYPATFGQGTKVEIK"/>
@@ -2122,6 +2134,8 @@
         <s v="EVQLQQSGAELVKPGASVKLSCKASGYTFLDYYMYWVKQRPEQGLEWIGRIDPANGNTIYAPKFQDKATLTLTTDTTSSNTAYMQLSSLTSEDSAVYYCAREGNYGYRDLAWFAYWGQGTLVTVSSGGGSGGGSGGGSGGGSAIRMTQSPSSLSASVGDTVTITCRASQSISSYLNWYQQKPGKAPKLLIYTASNLESGVPSRFSGSGSGTDYTLTISSLQPEDIATYYCQQYDNPPLTFGGGTKVEIK"/>
         <s v="QVQLQESGPGLVKPSETLSLTCTVSGGSVSSGGYFWSWIRQRPGKGLEWIGHIYYSGTTNYNPSLRSRVTISRDTSKSQFSLKMDSLTSEDTALYYCARQLGLRFDIWGQGTMVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYTTPPTFGQGTKVEIK"/>
         <s v="QVQLVESGGGLVQPGGSLRLSCAASGFNLYSSSIHWVRQAPGKGLEWVARIYPSGATYYADSVKGRFTISADTSKNTAYLQMRAEDTAVYYCARSYYGDDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASFLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYSYYPFTFGQGTKVEIK"/>
+        <s v="EVQLLESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSYISSSSSTIYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCAKYSSYDYDYWGRGTMVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISSYLNWYQQKPGKAPKLLIYDASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQFYEWLRTFGQGTRLEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFATVSSNYMSWVRQAPGKGLEWVSVIYSCGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARYYYDSSRSGYYYYFDYWGQGTLVTVSSGGGSGGGSGGGSDIVLTQSPASLAVSLGQRATISCKASQSVDYDGDSYMHWYQQKPGQPPKLLIYRASNLESGIPARFSGSGSRTDFTLTINPVEADDVATYYCQQSNYPLTFGSGTKVEIK"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -2144,7 +2158,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="0.69121100000000002"/>
     </cacheField>
     <cacheField name="submitted_to_comp" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-11-12T00:00:00" maxDate="2025-11-18T00:00:00" count="13">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-11-12T00:00:00" maxDate="2025-11-19T00:00:00" count="14">
         <d v="2025-11-07T00:00:00"/>
         <d v="2025-11-08T00:00:00"/>
         <d v="2025-11-09T00:00:00"/>
@@ -2156,6 +2170,7 @@
         <m/>
         <d v="2025-11-16T00:00:00"/>
         <d v="2025-11-17T00:00:00"/>
+        <d v="2025-11-18T00:00:00"/>
         <d v="2025-11-14T00:00:00" u="1"/>
         <d v="2023-11-12T00:00:00" u="1"/>
       </sharedItems>
@@ -2170,7 +2185,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="116">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="118">
   <r>
     <x v="0"/>
     <s v="peleke-1"/>
@@ -4633,7 +4648,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="8"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="112"/>
@@ -4655,7 +4670,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="8"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="113"/>
@@ -4677,7 +4692,7 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="8"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="114"/>
@@ -4699,22 +4714,66 @@
     <b v="0"/>
     <m/>
     <m/>
-    <x v="8"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="115"/>
-    <m/>
+    <s v="peleke-1"/>
     <x v="8"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="0.7"/>
+    <s v="derivative"/>
+    <s v="sbio-nipahgpg-081"/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLLESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSYISSSSSTIYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCAKYSSYDYDYWGRGTMVTVSS"/>
+    <s v="DIQLTQSPSSLSASVGDRVTITCRASQGISSYLNWYQQKPGKAPKLLIYDASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQFYEWLRTFGQGTRLEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGSGGGS"/>
     <x v="115"/>
+    <n v="240"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="116"/>
+    <s v="peleke-1"/>
+    <x v="8"/>
+    <n v="0.9"/>
+    <s v="derivative"/>
+    <s v="sbio-nipahgpg-109"/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFATVSSNYMSWVRQAPGKGLEWVSVIYSCGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARYYYDSSRSGYYYYFDYWGQGTLVTVSS"/>
+    <s v="DIVLTQSPASLAVSLGQRATISCKASQSVDYDGDSYMHWYQQKPGQPPKLLIYRASNLESGIPARFSGSGSRTDFTLTINPVEADDVATYYCQQSNYPLTFGSGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGS"/>
+    <x v="116"/>
+    <n v="247"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="117"/>
+    <m/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="117"/>
     <m/>
     <m/>
     <m/>
@@ -4727,11 +4786,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{135D55CA-26D1-4FA2-9199-54D547F2C103}" name="PivotTable1" cacheId="95" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A4:C13" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{135D55CA-26D1-4FA2-9199-54D547F2C103}" name="PivotTable1" cacheId="103" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A4:C9" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="116">
+      <items count="118">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -4781,7 +4840,7 @@
         <item x="46"/>
         <item x="47"/>
         <item x="48"/>
-        <item x="115"/>
+        <item x="117"/>
         <item x="49"/>
         <item x="50"/>
         <item x="51"/>
@@ -4848,11 +4907,13 @@
         <item x="112"/>
         <item x="113"/>
         <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="9">
+      <items count="10">
         <item x="6"/>
         <item x="7"/>
         <item x="5"/>
@@ -4861,6 +4922,7 @@
         <item x="3"/>
         <item x="1"/>
         <item x="4"/>
+        <item x="9"/>
         <item x="8"/>
       </items>
     </pivotField>
@@ -4874,7 +4936,7 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="116">
+      <items count="118">
         <item x="19"/>
         <item x="15"/>
         <item x="23"/>
@@ -4924,7 +4986,7 @@
         <item x="46"/>
         <item x="47"/>
         <item x="48"/>
-        <item x="115"/>
+        <item x="117"/>
         <item x="49"/>
         <item x="50"/>
         <item x="51"/>
@@ -4991,6 +5053,8 @@
         <item x="112"/>
         <item x="113"/>
         <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -5000,7 +5064,7 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
-      <items count="13">
+      <items count="14">
         <item h="1" x="8"/>
         <item h="1" x="0"/>
         <item h="1" x="1"/>
@@ -5008,12 +5072,13 @@
         <item h="1" x="3"/>
         <item h="1" x="4"/>
         <item h="1" x="5"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" x="6"/>
         <item h="1" m="1" x="12"/>
-        <item h="1" x="6"/>
-        <item h="1" m="1" x="11"/>
         <item h="1" x="7"/>
         <item h="1" x="9"/>
-        <item x="10"/>
+        <item h="1" x="10"/>
+        <item x="11"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -5022,56 +5087,36 @@
     <field x="2"/>
     <field x="12"/>
   </rowFields>
-  <rowItems count="10">
+  <rowItems count="6">
     <i>
-      <x v="98"/>
+      <x v="112"/>
       <x v="3"/>
-      <x v="98"/>
+      <x v="112"/>
     </i>
     <i>
-      <x v="101"/>
+      <x v="113"/>
       <x v="3"/>
-      <x v="101"/>
+      <x v="113"/>
     </i>
     <i>
-      <x v="102"/>
+      <x v="114"/>
       <x v="3"/>
-      <x v="102"/>
+      <x v="114"/>
     </i>
     <i>
-      <x v="103"/>
+      <x v="115"/>
       <x v="3"/>
-      <x v="103"/>
+      <x v="115"/>
     </i>
     <i>
-      <x v="104"/>
-      <x v="3"/>
-      <x v="104"/>
+      <x v="116"/>
+      <x v="9"/>
+      <x v="116"/>
     </i>
     <i>
-      <x v="105"/>
-      <x v="3"/>
-      <x v="105"/>
-    </i>
-    <i>
-      <x v="108"/>
-      <x v="3"/>
-      <x v="108"/>
-    </i>
-    <i>
-      <x v="109"/>
-      <x v="3"/>
-      <x v="109"/>
-    </i>
-    <i>
-      <x v="110"/>
-      <x v="3"/>
-      <x v="110"/>
-    </i>
-    <i>
-      <x v="111"/>
-      <x v="3"/>
-      <x v="111"/>
+      <x v="117"/>
+      <x v="9"/>
+      <x v="117"/>
     </i>
   </rowItems>
   <colItems count="1">
@@ -5409,13 +5454,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V116"/>
+  <dimension ref="A1:V118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q108" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T113" sqref="T113"/>
+      <selection pane="bottomRight" activeCell="L119" sqref="L119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10904,11 +10949,11 @@
         <v>125</v>
       </c>
       <c r="M87" s="2" t="str">
-        <f t="shared" ref="M87:M116" si="9">_xlfn.CONCAT(I87,L87,J87)</f>
+        <f t="shared" ref="M87:M118" si="9">_xlfn.CONCAT(I87,L87,J87)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASIYSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGWYSYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N87" s="4">
-        <f t="shared" ref="N87:N116" si="10">LEN(M87)</f>
+        <f t="shared" ref="N87:N118" si="10">LEN(M87)</f>
         <v>240</v>
       </c>
       <c r="O87" s="1" t="b">
@@ -11595,7 +11640,7 @@
         <v>45978</v>
       </c>
       <c r="U99" s="2" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="V99" s="4">
         <v>0.12</v>
@@ -11762,7 +11807,7 @@
         <v>45978</v>
       </c>
       <c r="U102" s="2" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="V102" s="4">
         <v>0.26</v>
@@ -11874,7 +11919,7 @@
         <v>45978</v>
       </c>
       <c r="U104" s="2" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="V104" s="4">
         <v>0</v>
@@ -11933,7 +11978,7 @@
         <v>45978</v>
       </c>
       <c r="U105" s="2" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="V105" s="4">
         <v>0.01</v>
@@ -11992,7 +12037,7 @@
         <v>45978</v>
       </c>
       <c r="U106" s="2" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="V106" s="4">
         <v>0</v>
@@ -12169,7 +12214,7 @@
         <v>45978</v>
       </c>
       <c r="U109" s="2" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="V109" s="4">
         <v>0.01</v>
@@ -12228,7 +12273,7 @@
         <v>45978</v>
       </c>
       <c r="U110" s="2" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="V110" s="4">
         <v>0</v>
@@ -12287,7 +12332,7 @@
         <v>45978</v>
       </c>
       <c r="U111" s="2" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="V111" s="4">
         <v>0.27</v>
@@ -12346,13 +12391,13 @@
         <v>45978</v>
       </c>
       <c r="U112" s="2" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="V112" s="4">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="64" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>422</v>
       </c>
@@ -12401,8 +12446,11 @@
       <c r="Q113" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:17" ht="64" x14ac:dyDescent="0.2">
+      <c r="T113" s="10">
+        <v>45979</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>423</v>
       </c>
@@ -12451,8 +12499,11 @@
       <c r="Q114" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:17" ht="64" x14ac:dyDescent="0.2">
+      <c r="T114" s="10">
+        <v>45979</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>424</v>
       </c>
@@ -12501,8 +12552,11 @@
       <c r="Q115" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:17" ht="64" x14ac:dyDescent="0.2">
+      <c r="T115" s="10">
+        <v>45979</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>425</v>
       </c>
@@ -12550,6 +12604,121 @@
       </c>
       <c r="Q116" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="T116" s="10">
+        <v>45979</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D117" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="K117" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M117" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>EVQLLESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSYISSSSSTIYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCAKYSSYDYDYWGRGTMVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISSYLNWYQQKPGKAPKLLIYDASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQFYEWLRTFGQGTRLEIK</v>
+      </c>
+      <c r="N117" s="4">
+        <f t="shared" si="10"/>
+        <v>240</v>
+      </c>
+      <c r="O117" s="1" t="b">
+        <f t="shared" ref="O117:O118" si="11">IF(N117&lt;=250,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P117" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T117" s="10">
+        <v>45979</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D118" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="K118" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M118" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFATVSSNYMSWVRQAPGKGLEWVSVIYSCGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARYYYDSSRSGYYYYFDYWGQGTLVTVSSGGGSGGGSGGGSDIVLTQSPASLAVSLGQRATISCKASQSVDYDGDSYMHWYQQKPGQPPKLLIYRASNLESGIPARFSGSGSRTDFTLTINPVEADDVATYYCQQSNYPLTFGSGTKVEIK</v>
+      </c>
+      <c r="N118" s="4">
+        <f t="shared" si="10"/>
+        <v>247</v>
+      </c>
+      <c r="O118" s="1" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="P118" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T118" s="10">
+        <v>45979</v>
       </c>
     </row>
   </sheetData>
@@ -12566,12 +12735,12 @@
       <formula>LEN(TRIM(K1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O116">
+  <conditionalFormatting sqref="O2:O118">
     <cfRule type="containsBlanks" dxfId="17" priority="11">
       <formula>LEN(TRIM(O2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O84:Q116">
+  <conditionalFormatting sqref="O84:Q118">
     <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -13077,8 +13246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036FE0EC-FC47-C643-AAB5-7D34FF5161C9}">
   <dimension ref="A2:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:A38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13095,177 +13264,133 @@
         <v>98</v>
       </c>
       <c r="B2" s="9">
-        <v>45978</v>
+        <v>45979</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>414</v>
+        <v>502</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>505</v>
       </c>
       <c r="C8" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>415</v>
+        <v>503</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>505</v>
       </c>
       <c r="C9" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>418</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>419</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>420</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>421</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>_xlfn.CONCAT("&gt;",A4,"\n",C4)</f>
-        <v>&gt;sbio-nipahgpg-100\nQVQLVQSGAEVKKPGSSVKVSCKSSGGTSNNYAISWVRQAPGQGLEWMGGIIPILGIANYAQKFQGRVTITADKSTSTAYMELSSLRSEDTAVYYCAREDAVVDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSTLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYKASSLESGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQQYNSYPLTFGQGTKVQVK</v>
+        <v>&gt;sbio-nipahgpg-114\nEVQLVESGGGLVKPGGSLKVSCAASGFTFSDYSMNWVRQAPGKGLEWVSSITSGYTSIYYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARVSDNFDYWGQGTAVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" ref="A30:A38" si="0">_xlfn.CONCAT("&gt;",A5,"\n",C5)</f>
-        <v>&gt;sbio-nipahgpg-103\nQVQLQESGPGLVKPSQTLSLTCTVSGGSISSGDYYWIRQHPGKGLEWIGYIYYSGSTDYNPSLKSRVTISVDTSKNQFSLKVTAADTAVYYCARTWFGSDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGISNYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQAHSFPYTFGGGTKLEIK</v>
+        <v>&gt;sbio-nipahgpg-115\nEVQLQQSGAELVKPGASVKLSCKASGYTFLDYYMYWVKQRPEQGLEWIGRIDPANGNTIYAPKFQDKATLTLTTDTTSSNTAYMQLSSLTSEDSAVYYCAREGNYGYRDLAWFAYWGQGTLVTVSSGGGSGGGSGGGSGGGSAIRMTQSPSSLSASVGDTVTITCRASQSISSYLNWYQQKPGKAPKLLIYTASNLESGVPSRFSGSGSGTDYTLTISSLQPEDIATYYCQQYDNPPLTFGGGTKVEIK</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-104\nEVQLVESGGGLVQPGGSLRLSCAASGFTFSSYWMNWVRQAPGKGLEWVAFIRYDGGNKYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARWSYSGGSGSYYVYFDYWGQGTLVTVSGGGSGGGSGGGSGGGSSVLTQPPSVSGAPGQRVTISCTGSSSNIGAGYDVHWYQQLPGTAPKLLIYGNSNRPSGVPDRFSGSKSGTSASLAITGLQAEDEADYYCQSYDSSLSGSVFGGGTKLTVL</v>
+        <v>&gt;sbio-nipahgpg-116\nQVQLQESGPGLVKPSETLSLTCTVSGGSVSSGGYFWSWIRQRPGKGLEWIGHIYYSGTTNYNPSLRSRVTISRDTSKSQFSLKMDSLTSEDTALYYCARQLGLRFDIWGQGTMVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYTTPPTFGQGTKVEIK</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-105\nQVQLVQSGAEVKKPGASVKVSCKASGYTFTNYYIHWVRQAPGQGLEWMGWIYPGGNTNYAQKFQGRVTMTRDTSISTAYMELSRLRSDDTAVYYCARVRTEFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPSSLAMSAGAETITCRSSQSVHSNGYLNWYQQKPGQPPKLLIYWASTRESGVPDRFTGSGSGTDFTLTITNVQSEDLAEYFCQQYSSYPLTFGAGTKLELR</v>
+        <v>&gt;sbio-nipahgpg-117\nQVQLVESGGGLVQPGGSLRLSCAASGFNLYSSSIHWVRQAPGKGLEWVARIYPSGATYYADSVKGRFTISADTSKNTAYLQMRAEDTAVYYCARSYYGDDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASFLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYSYYPFTFGQGTKVEIK</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-106\nQVQLQESGPGLVKPSETLSLTCTVSGGSVSSGGYFWSWIRQPPGKGLEWIGYVSGSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARWDVWISDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPATLSLSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYDASNRATGIPARFSGSGSGTDFTLTISSLEPEDFAVYYCQHSWDQPPWTFGQGTKVEIK</v>
+        <v>&gt;sbio-nipahgpg-118\nEVQLLESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSYISSSSSTIYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCAKYSSYDYDYWGRGTMVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISSYLNWYQQKPGKAPKLLIYDASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQFYEWLRTFGQGTRLEIK</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-107\nQVQLQESGPGLVKPSQTLSLTCTVTGSSITSGYWNWIRQFPGNKLEWMGYISYSGTITYNPSLKSRISITRDTSKNQFFLQLNSVTTEDTATYYCARVYDGFYDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPSSLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYKASSLESGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQQYNSYPLTFGGGTKVEIK</v>
+        <v>&gt;sbio-nipahgpg-119\nEVQLVESGGGLVQPGGSLRLSCAASGFATVSSNYMSWVRQAPGKGLEWVSVIYSCGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARYYYDSSRSGYYYYFDYWGQGTLVTVSSGGGSGGGSGGGSDIVLTQSPASLAVSLGQRATISCKASQSVDYDGDSYMHWYQQKPGQPPKLLIYRASNLESGIPARFSGSGSRTDFTLTINPVEADDVATYYCQQSNYPLTFGSGTKVEIK</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-110\nEVQLVESGAEVKKPGSSVKVSCKASGGPFTSYVISWVRQAPGQGLEWMGRIIPIRGTTYAQKFQGRVTITADKSTSTAYMELRSEDTAVYYCARGSHVFGYYDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSISGNYLAWYQQKPGQAPRLLIYGASIRAAGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPRTFGQGTKVEIK</v>
+        <v>&gt;\n</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-111\nEVQLVETGGGLVQPGGSLKLSCRASGYTFTDYAMHWVRQAPLGLGLYTGGVNYARHFMKSRISITRDNSKNTLYLQMTKVDDTATYFCARRGLFDSDYWGQGTLVTVSSGGGSGGGSGGGSGGGSSVTQPPSVSGSTSVGDRVTTCRASQSISSNWLAWYQQFPGTAPKLLIYENSSRPSGVPDRFSGSGSGTDFTLKISRVEAEDVGVYYCLQALSPRFTFGSGTKLEIK</v>
+        <v>&gt;\n</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-112\nQVQLVQSGAEVKKPGSSVKVSCKASGGTFSNYGISWVRQAPGQGLEWMGGIIPILGIANYAQKFQGRVTITADKSTSTAYMELRSLRSDDTAVYYCAREGHAYFHNGLDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSVSSSYFAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPPATFGQGTKVEIK</v>
+        <v>&gt;\n</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-113\nQVQLVESGGGVVQPGRSLRLSCAASGFTFSSFGMHWVRQAPGKGLEWVAIIWDGSNKYYADSVKGRFTISRDNSKNTLYLQMRAEDTAVYYCALDGGSFDDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSTLSTSVGDRVTITCRASQSISSWLAWYQQKPGKAPKLLIYKASTLESGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQHFYGTPITFGPGTKVD</v>
+        <v>&gt;\n</v>
       </c>
     </row>
   </sheetData>

--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/Nipah_gpG_Fv_Generation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAC5AA1-2E2D-9240-A9BB-D949456E1035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCE69B4-F5DB-A546-B5B0-7741F6877BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21900" yWindow="500" windowWidth="13940" windowHeight="20200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Antibody Candidates" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="FASTA Generation" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Antibody Candidates'!$A$1:$V$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Antibody Candidates'!$A$1:$V$118</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="520">
   <si>
     <t>antigen_id</t>
   </si>
@@ -1585,6 +1585,24 @@
   </si>
   <si>
     <t>EVQLVESGGGLVQPGGSLRLSCAASGFATVSSNYMSWVRQAPGKGLEWVSVIYSCGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARYYYDSSRSGYYYYFDYWGQGTLVTVSSGGGSGGGSGGGSDIVLTQSPASLAVSLGQRATISCKASQSVDYDGDSYMHWYQQKPGQPPKLLIYRASNLESGIPARFSGSGSRTDFTLTINPVEADDVATYYCQQSNYPLTFGSGTKVEIK</t>
+  </si>
+  <si>
+    <t>brisk-vole-plume</t>
+  </si>
+  <si>
+    <t>hollow-hawk-iron</t>
+  </si>
+  <si>
+    <t>misty-quail-pearl</t>
+  </si>
+  <si>
+    <t>gentle-fox-plume</t>
+  </si>
+  <si>
+    <t>silver-quail-maple</t>
+  </si>
+  <si>
+    <t>frozen-boar-ruby</t>
   </si>
 </sst>
 </file>
@@ -5457,10 +5475,10 @@
   <dimension ref="A1:V118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I109" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L119" sqref="L119"/>
+      <selection pane="bottomRight" activeCell="V80" sqref="V80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12397,7 +12415,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>422</v>
       </c>
@@ -12449,8 +12467,14 @@
       <c r="T113" s="10">
         <v>45979</v>
       </c>
-    </row>
-    <row r="114" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="U113" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="V113" s="4">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>423</v>
       </c>
@@ -12502,8 +12526,14 @@
       <c r="T114" s="10">
         <v>45979</v>
       </c>
-    </row>
-    <row r="115" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="U114" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="V114" s="4">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>424</v>
       </c>
@@ -12555,8 +12585,14 @@
       <c r="T115" s="10">
         <v>45979</v>
       </c>
-    </row>
-    <row r="116" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="U115" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="V115" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>425</v>
       </c>
@@ -12608,8 +12644,14 @@
       <c r="T116" s="10">
         <v>45979</v>
       </c>
-    </row>
-    <row r="117" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="U116" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="V116" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>502</v>
       </c>
@@ -12664,8 +12706,14 @@
       <c r="T117" s="10">
         <v>45979</v>
       </c>
-    </row>
-    <row r="118" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="U117" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="V117" s="4">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>503</v>
       </c>
@@ -12720,9 +12768,15 @@
       <c r="T118" s="10">
         <v>45979</v>
       </c>
+      <c r="U118" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="V118" s="4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V116" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:V118" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K1:L1048576">
     <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">

--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/Nipah_gpG_Fv_Generation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCE69B4-F5DB-A546-B5B0-7741F6877BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523D8F04-0905-814F-BFF0-38AEEF099E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21900" yWindow="500" windowWidth="13940" windowHeight="20200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Antibody Candidates" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="103" r:id="rId6"/>
+    <pivotCache cacheId="104" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="521">
   <si>
     <t>antigen_id</t>
   </si>
@@ -1603,6 +1603,9 @@
   </si>
   <si>
     <t>frozen-boar-ruby</t>
+  </si>
+  <si>
+    <t>small-wolf-oak</t>
   </si>
 </sst>
 </file>
@@ -4804,7 +4807,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{135D55CA-26D1-4FA2-9199-54D547F2C103}" name="PivotTable1" cacheId="103" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{135D55CA-26D1-4FA2-9199-54D547F2C103}" name="PivotTable1" cacheId="104" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:C9" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -5475,10 +5478,10 @@
   <dimension ref="A1:V118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V80" sqref="V80"/>
+      <selection pane="bottomRight" activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5640,7 +5643,7 @@
         <v>215</v>
       </c>
       <c r="V2" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -5708,7 +5711,7 @@
         <v>205</v>
       </c>
       <c r="V3" s="4">
-        <v>0.01</v>
+        <v>0.25329299999999999</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -5776,7 +5779,7 @@
         <v>208</v>
       </c>
       <c r="V4" s="4">
-        <v>0.01</v>
+        <v>0.530196</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -5844,7 +5847,7 @@
         <v>206</v>
       </c>
       <c r="V5" s="4">
-        <v>0.01</v>
+        <v>0.233075</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -5912,7 +5915,7 @@
         <v>207</v>
       </c>
       <c r="V6" s="4">
-        <v>0.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -5976,7 +5979,7 @@
         <v>211</v>
       </c>
       <c r="V7" s="4">
-        <v>0.39</v>
+        <v>5.9117999999999997E-2</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -6049,7 +6052,7 @@
         <v>216</v>
       </c>
       <c r="V8" s="4">
-        <v>0.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -6122,7 +6125,7 @@
         <v>209</v>
       </c>
       <c r="V9" s="4">
-        <v>0.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -6268,7 +6271,7 @@
         <v>217</v>
       </c>
       <c r="V11" s="4">
-        <v>0.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -6335,7 +6338,7 @@
         <v>210</v>
       </c>
       <c r="V12" s="4">
-        <v>0</v>
+        <v>4.8820000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -6481,7 +6484,7 @@
         <v>219</v>
       </c>
       <c r="V14" s="4">
-        <v>0.08</v>
+        <v>0.330536</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -6548,7 +6551,7 @@
         <v>213</v>
       </c>
       <c r="V15" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -6621,7 +6624,7 @@
         <v>222</v>
       </c>
       <c r="V16" s="4">
-        <v>0.13</v>
+        <v>5.1409999999999997E-3</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -6840,7 +6843,7 @@
         <v>197</v>
       </c>
       <c r="V19" s="4">
-        <v>0</v>
+        <v>0.10117900000000001</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -6913,7 +6916,7 @@
         <v>198</v>
       </c>
       <c r="V20" s="4">
-        <v>0.01</v>
+        <v>5.2560000000000003E-3</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -6986,7 +6989,7 @@
         <v>200</v>
       </c>
       <c r="V21" s="4">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -7059,7 +7062,7 @@
         <v>199</v>
       </c>
       <c r="V22" s="4">
-        <v>0.01</v>
+        <v>0.33924399999999999</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -7126,7 +7129,7 @@
         <v>204</v>
       </c>
       <c r="V23" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -7199,7 +7202,7 @@
         <v>220</v>
       </c>
       <c r="V24" s="4">
-        <v>0</v>
+        <v>5.3039999999999997E-3</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -7272,7 +7275,7 @@
         <v>221</v>
       </c>
       <c r="V25" s="4">
-        <v>0.01</v>
+        <v>3.4557999999999998E-2</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -7345,7 +7348,7 @@
         <v>202</v>
       </c>
       <c r="V26" s="4">
-        <v>0.01</v>
+        <v>0.177148</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -7418,7 +7421,7 @@
         <v>201</v>
       </c>
       <c r="V27" s="4">
-        <v>0.01</v>
+        <v>0.18701400000000001</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -7564,7 +7567,7 @@
         <v>223</v>
       </c>
       <c r="V29" s="4">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -7695,6 +7698,9 @@
       <c r="U31" s="2" t="s">
         <v>245</v>
       </c>
+      <c r="V31" s="4">
+        <v>5.6360000000000004E-3</v>
+      </c>
     </row>
     <row r="32" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
@@ -7752,7 +7758,7 @@
         <v>243</v>
       </c>
       <c r="V32" s="4">
-        <v>0.01</v>
+        <v>4.999E-3</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -7811,7 +7817,7 @@
         <v>244</v>
       </c>
       <c r="V33" s="4">
-        <v>0</v>
+        <v>0.17957600000000001</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -7870,7 +7876,7 @@
         <v>236</v>
       </c>
       <c r="V34" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.120976</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -7929,7 +7935,7 @@
         <v>237</v>
       </c>
       <c r="V35" s="4">
-        <v>0.01</v>
+        <v>0.44340800000000002</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -7988,7 +7994,7 @@
         <v>238</v>
       </c>
       <c r="V36" s="4">
-        <v>0</v>
+        <v>1.5703000000000002E-2</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -8047,7 +8053,7 @@
         <v>239</v>
       </c>
       <c r="V37" s="4">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -8106,7 +8112,7 @@
         <v>241</v>
       </c>
       <c r="V38" s="4">
-        <v>0.11</v>
+        <v>5.2269999999999999E-3</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -8165,7 +8171,7 @@
         <v>240</v>
       </c>
       <c r="V39" s="4">
-        <v>0.05</v>
+        <v>5.0480000000000004E-3</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -8224,7 +8230,7 @@
         <v>242</v>
       </c>
       <c r="V40" s="4">
-        <v>0.01</v>
+        <v>0.11568299999999999</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -8283,7 +8289,7 @@
         <v>246</v>
       </c>
       <c r="V41" s="4">
-        <v>0.02</v>
+        <v>0.152167</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -8342,7 +8348,7 @@
         <v>248</v>
       </c>
       <c r="V42" s="4">
-        <v>0</v>
+        <v>0.28608699999999998</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -8401,7 +8407,7 @@
         <v>247</v>
       </c>
       <c r="V43" s="4">
-        <v>0.01</v>
+        <v>0.35572100000000001</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -8460,7 +8466,7 @@
         <v>250</v>
       </c>
       <c r="V44" s="4">
-        <v>0.01</v>
+        <v>0.29531000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -8519,7 +8525,7 @@
         <v>249</v>
       </c>
       <c r="V45" s="4">
-        <v>0</v>
+        <v>0.27838000000000002</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -8578,7 +8584,7 @@
         <v>189</v>
       </c>
       <c r="V46" s="4">
-        <v>0.12</v>
+        <v>0.35131800000000002</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -8637,7 +8643,7 @@
         <v>253</v>
       </c>
       <c r="V47" s="4">
-        <v>0.16</v>
+        <v>7.9927999999999999E-2</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -8696,7 +8702,7 @@
         <v>254</v>
       </c>
       <c r="V48" s="4">
-        <v>0</v>
+        <v>4.8339999999999998E-3</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -8755,7 +8761,7 @@
         <v>251</v>
       </c>
       <c r="V49" s="4">
-        <v>0.09</v>
+        <v>0.51755099999999998</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -8814,7 +8820,7 @@
         <v>252</v>
       </c>
       <c r="V50" s="4">
-        <v>0</v>
+        <v>0.40934900000000002</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -8873,7 +8879,7 @@
         <v>345</v>
       </c>
       <c r="V51" s="4">
-        <v>0.16</v>
+        <v>0.46119900000000003</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -8932,7 +8938,7 @@
         <v>346</v>
       </c>
       <c r="V52" s="4">
-        <v>0.01</v>
+        <v>0.43406800000000001</v>
       </c>
     </row>
     <row r="53" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -8991,7 +8997,7 @@
         <v>347</v>
       </c>
       <c r="V53" s="4">
-        <v>0.04</v>
+        <v>4.9569999999999996E-3</v>
       </c>
     </row>
     <row r="54" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -9050,7 +9056,7 @@
         <v>372</v>
       </c>
       <c r="V54" s="4">
-        <v>0.01</v>
+        <v>0.63002499999999995</v>
       </c>
     </row>
     <row r="55" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -9165,7 +9171,7 @@
         <v>373</v>
       </c>
       <c r="V56" s="4">
-        <v>0</v>
+        <v>0.33044200000000001</v>
       </c>
     </row>
     <row r="57" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -9280,7 +9286,7 @@
         <v>474</v>
       </c>
       <c r="V58" s="4">
-        <v>0.3</v>
+        <v>0.49204199999999998</v>
       </c>
     </row>
     <row r="59" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -9447,7 +9453,7 @@
         <v>349</v>
       </c>
       <c r="V61" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -9506,7 +9512,7 @@
         <v>348</v>
       </c>
       <c r="V62" s="4">
-        <v>0.33</v>
+        <v>5.9379999999999997E-3</v>
       </c>
     </row>
     <row r="63" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -9565,7 +9571,7 @@
         <v>351</v>
       </c>
       <c r="V63" s="4">
-        <v>0.06</v>
+        <v>9.3369999999999998E-3</v>
       </c>
     </row>
     <row r="64" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -9624,7 +9630,7 @@
         <v>374</v>
       </c>
       <c r="V64" s="4">
-        <v>0.01</v>
+        <v>0.29275600000000002</v>
       </c>
     </row>
     <row r="65" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -9683,7 +9689,7 @@
         <v>377</v>
       </c>
       <c r="V65" s="4">
-        <v>0.01</v>
+        <v>0.112092</v>
       </c>
     </row>
     <row r="66" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -9742,7 +9748,7 @@
         <v>375</v>
       </c>
       <c r="V66" s="4">
-        <v>0.1</v>
+        <v>0.498143</v>
       </c>
     </row>
     <row r="67" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -9801,7 +9807,7 @@
         <v>475</v>
       </c>
       <c r="V67" s="4">
-        <v>0.1</v>
+        <v>5.3290000000000004E-3</v>
       </c>
     </row>
     <row r="68" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -9860,7 +9866,7 @@
         <v>476</v>
       </c>
       <c r="V68" s="4">
-        <v>0.01</v>
+        <v>0.20996500000000001</v>
       </c>
     </row>
     <row r="69" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -9919,7 +9925,7 @@
         <v>483</v>
       </c>
       <c r="V69" s="4">
-        <v>0.04</v>
+        <v>0.293068</v>
       </c>
     </row>
     <row r="70" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -10032,7 +10038,7 @@
         <v>354</v>
       </c>
       <c r="V71" s="4">
-        <v>0</v>
+        <v>5.2950000000000002E-3</v>
       </c>
     </row>
     <row r="72" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -10150,7 +10156,7 @@
         <v>350</v>
       </c>
       <c r="V73" s="4">
-        <v>0</v>
+        <v>5.0549999999999996E-3</v>
       </c>
     </row>
     <row r="74" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -10209,7 +10215,7 @@
         <v>376</v>
       </c>
       <c r="V74" s="4">
-        <v>0.01</v>
+        <v>0.17583499999999999</v>
       </c>
     </row>
     <row r="75" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -10327,7 +10333,7 @@
         <v>379</v>
       </c>
       <c r="V76" s="4">
-        <v>0.01</v>
+        <v>5.666E-3</v>
       </c>
     </row>
     <row r="77" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -10445,7 +10451,7 @@
         <v>478</v>
       </c>
       <c r="V78" s="4">
-        <v>0.22</v>
+        <v>4.9170000000000004E-3</v>
       </c>
     </row>
     <row r="79" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -10504,7 +10510,7 @@
         <v>491</v>
       </c>
       <c r="V79" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -10563,7 +10569,7 @@
         <v>484</v>
       </c>
       <c r="V80" s="4">
-        <v>0.7</v>
+        <v>0.33998800000000001</v>
       </c>
     </row>
     <row r="81" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -10628,7 +10634,7 @@
         <v>353</v>
       </c>
       <c r="V81" s="4">
-        <v>0.04</v>
+        <v>0.204621</v>
       </c>
     </row>
     <row r="82" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -10693,7 +10699,7 @@
         <v>378</v>
       </c>
       <c r="V82" s="4">
-        <v>0.02</v>
+        <v>0.53450500000000001</v>
       </c>
     </row>
     <row r="83" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -10752,7 +10758,7 @@
         <v>479</v>
       </c>
       <c r="V83" s="4">
-        <v>0</v>
+        <v>5.4400000000000004E-3</v>
       </c>
     </row>
     <row r="84" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -10870,7 +10876,7 @@
         <v>482</v>
       </c>
       <c r="V85" s="4">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -10932,7 +10938,7 @@
         <v>481</v>
       </c>
       <c r="V86" s="4">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -11045,7 +11051,7 @@
         <v>487</v>
       </c>
       <c r="V88" s="4">
-        <v>0</v>
+        <v>9.7619999999999998E-3</v>
       </c>
     </row>
     <row r="89" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -11160,7 +11166,7 @@
         <v>486</v>
       </c>
       <c r="V90" s="4">
-        <v>0.03</v>
+        <v>0.218168</v>
       </c>
     </row>
     <row r="91" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -11543,7 +11549,7 @@
         <v>485</v>
       </c>
       <c r="V97" s="4">
-        <v>0</v>
+        <v>4.9849999999999998E-3</v>
       </c>
     </row>
     <row r="98" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -11602,7 +11608,7 @@
         <v>490</v>
       </c>
       <c r="V98" s="4">
-        <v>0.36</v>
+        <v>0.12482500000000001</v>
       </c>
     </row>
     <row r="99" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -11661,7 +11667,7 @@
         <v>492</v>
       </c>
       <c r="V99" s="4">
-        <v>0.12</v>
+        <v>0.119756</v>
       </c>
     </row>
     <row r="100" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -11828,7 +11834,7 @@
         <v>493</v>
       </c>
       <c r="V102" s="4">
-        <v>0.26</v>
+        <v>0.25569399999999998</v>
       </c>
     </row>
     <row r="103" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -11883,6 +11889,12 @@
       <c r="T103" s="10">
         <v>45978</v>
       </c>
+      <c r="U103" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="V103" s="4">
+        <v>0.225609</v>
+      </c>
     </row>
     <row r="104" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
@@ -11999,7 +12011,7 @@
         <v>496</v>
       </c>
       <c r="V105" s="4">
-        <v>0.01</v>
+        <v>5.1900000000000002E-3</v>
       </c>
     </row>
     <row r="106" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -12117,7 +12129,7 @@
         <v>489</v>
       </c>
       <c r="V107" s="4">
-        <v>0</v>
+        <v>6.4222000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -12176,7 +12188,7 @@
         <v>488</v>
       </c>
       <c r="V108" s="4">
-        <v>0.59</v>
+        <v>0.136903</v>
       </c>
     </row>
     <row r="109" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -12235,7 +12247,7 @@
         <v>498</v>
       </c>
       <c r="V109" s="4">
-        <v>0.01</v>
+        <v>5.313E-3</v>
       </c>
     </row>
     <row r="110" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -12353,7 +12365,7 @@
         <v>499</v>
       </c>
       <c r="V111" s="4">
-        <v>0.27</v>
+        <v>0.274924</v>
       </c>
     </row>
     <row r="112" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -12412,7 +12424,7 @@
         <v>500</v>
       </c>
       <c r="V112" s="4">
-        <v>0.28000000000000003</v>
+        <v>0.27380900000000002</v>
       </c>
     </row>
     <row r="113" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -12471,7 +12483,7 @@
         <v>514</v>
       </c>
       <c r="V113" s="4">
-        <v>0.61</v>
+        <v>0.61102100000000004</v>
       </c>
     </row>
     <row r="114" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -12530,7 +12542,7 @@
         <v>516</v>
       </c>
       <c r="V114" s="4">
-        <v>0.09</v>
+        <v>8.9335999999999999E-2</v>
       </c>
     </row>
     <row r="115" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -12589,7 +12601,7 @@
         <v>517</v>
       </c>
       <c r="V115" s="4">
-        <v>0.01</v>
+        <v>5.3220000000000003E-3</v>
       </c>
     </row>
     <row r="116" spans="1:22" ht="64" x14ac:dyDescent="0.2">
@@ -12710,7 +12722,7 @@
         <v>518</v>
       </c>
       <c r="V117" s="4">
-        <v>0.15</v>
+        <v>0.1542</v>
       </c>
     </row>
     <row r="118" spans="1:22" ht="64" x14ac:dyDescent="0.2">

--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/Nipah_gpG_Fv_Generation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523D8F04-0905-814F-BFF0-38AEEF099E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BA5D2B-DFB4-534B-8D45-34C2BB232395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="104" r:id="rId6"/>
+    <pivotCache cacheId="111" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="547">
   <si>
     <t>antigen_id</t>
   </si>
@@ -1569,24 +1569,6 @@
     <t>DIQLTQSPSSLSASVGDRVTITCRASQGISSYLNWYQQKPGKAPKLLIYDASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQFYEWLRTFGQGTRLEIK</t>
   </si>
   <si>
-    <t>EVQLVESGGGLVKPGGSLKVSCAASGFTFSDYSMNWVRQAPGKGLEWVSSITSGYTSIYYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARVSDNFDYWGQGTAVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK</t>
-  </si>
-  <si>
-    <t>EVQLQQSGAELVKPGASVKLSCKASGYTFLDYYMYWVKQRPEQGLEWIGRIDPANGNTIYAPKFQDKATLTLTTDTTSSNTAYMQLSSLTSEDSAVYYCAREGNYGYRDLAWFAYWGQGTLVTVSSGGGSGGGSGGGSGGGSAIRMTQSPSSLSASVGDTVTITCRASQSISSYLNWYQQKPGKAPKLLIYTASNLESGVPSRFSGSGSGTDYTLTISSLQPEDIATYYCQQYDNPPLTFGGGTKVEIK</t>
-  </si>
-  <si>
-    <t>QVQLQESGPGLVKPSETLSLTCTVSGGSVSSGGYFWSWIRQRPGKGLEWIGHIYYSGTTNYNPSLRSRVTISRDTSKSQFSLKMDSLTSEDTALYYCARQLGLRFDIWGQGTMVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYTTPPTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>QVQLVESGGGLVQPGGSLRLSCAASGFNLYSSSIHWVRQAPGKGLEWVARIYPSGATYYADSVKGRFTISADTSKNTAYLQMRAEDTAVYYCARSYYGDDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASFLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYSYYPFTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>EVQLLESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSYISSSSSTIYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCAKYSSYDYDYWGRGTMVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISSYLNWYQQKPGKAPKLLIYDASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQFYEWLRTFGQGTRLEIK</t>
-  </si>
-  <si>
-    <t>EVQLVESGGGLVQPGGSLRLSCAASGFATVSSNYMSWVRQAPGKGLEWVSVIYSCGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARYYYDSSRSGYYYYFDYWGQGTLVTVSSGGGSGGGSGGGSDIVLTQSPASLAVSLGQRATISCKASQSVDYDGDSYMHWYQQKPGQPPKLLIYRASNLESGIPARFSGSGSRTDFTLTINPVEADDVATYYCQQSNYPLTFGSGTKVEIK</t>
-  </si>
-  <si>
     <t>brisk-vole-plume</t>
   </si>
   <si>
@@ -1606,6 +1588,102 @@
   </si>
   <si>
     <t>small-wolf-oak</t>
+  </si>
+  <si>
+    <t>peleke-1 + AntiBMPNN</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-120</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-121</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-122</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-123</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-124</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-125</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-126</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-127</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-128</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-129</t>
+  </si>
+  <si>
+    <t>peleke-phi-4 / 000</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISDSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGRDLFGLDALDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGLTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGYYLDGLYALDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGATYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGNHLDGLYALDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGRYLDGLFALDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGSLLRGLSALDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISDSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGRYLDGLYALDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGSYLDGLSALDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISDSSIHWVRQAPGKGLEWVASIYNYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGYYLDGLDALDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISDYSIHWVRQAPGKGLEWVASIYNRSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGYYLDGLYALDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGHDLDGLYALDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISDSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGRDLFGLDALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGLTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGYYLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGATYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGNHLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGRYLDGLFALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGSLLRGLSALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISDSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGRYLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGSYLDGLSALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISDSSIHWVRQAPGKGLEWVASIYNYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGYYLDGLDALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISDYSIHWVRQAPGKGLEWVASIYNRSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGYYLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGHDLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
   </si>
 </sst>
 </file>
@@ -1867,13 +1945,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Colby Ford" refreshedDate="45979.957133217591" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="118" xr:uid="{C69715DE-2A16-4198-9FD9-FAE4F60B2265}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Colby Ford" refreshedDate="45982.908866782411" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="128" xr:uid="{C69715DE-2A16-4198-9FD9-FAE4F60B2265}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:T2970" sheet="Antibody Candidates"/>
   </cacheSource>
   <cacheFields count="20">
     <cacheField name="antibody_id" numFmtId="0">
-      <sharedItems containsBlank="1" count="118">
+      <sharedItems containsBlank="1" count="128">
         <s v="sbio-nipahgpg-001"/>
         <s v="sbio-nipahgpg-002"/>
         <s v="sbio-nipahgpg-003"/>
@@ -1991,6 +2069,16 @@
         <s v="sbio-nipahgpg-117"/>
         <s v="sbio-nipahgpg-118"/>
         <s v="sbio-nipahgpg-119"/>
+        <s v="sbio-nipahgpg-120"/>
+        <s v="sbio-nipahgpg-121"/>
+        <s v="sbio-nipahgpg-122"/>
+        <s v="sbio-nipahgpg-123"/>
+        <s v="sbio-nipahgpg-124"/>
+        <s v="sbio-nipahgpg-125"/>
+        <s v="sbio-nipahgpg-126"/>
+        <s v="sbio-nipahgpg-127"/>
+        <s v="sbio-nipahgpg-128"/>
+        <s v="sbio-nipahgpg-129"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1998,7 +2086,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="model_version" numFmtId="0">
-      <sharedItems containsBlank="1" count="10">
+      <sharedItems containsBlank="1" count="11">
         <s v="peleke-phi-4"/>
         <s v="Qwen3-235B-A22B-Instruct-2507"/>
         <s v="peleke-phi-4 / v_48_020"/>
@@ -2008,6 +2096,7 @@
         <s v="GPT-4o"/>
         <s v="GPT-4o /  v_48_030"/>
         <s v="peleke-phi-4 (humanized)"/>
+        <s v="peleke-phi-4 / 000"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -2039,7 +2128,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="franken_chain" numFmtId="0">
-      <sharedItems containsBlank="1" count="118">
+      <sharedItems containsBlank="1" count="128">
         <s v="QVQLVESGGGVVQPGRSLRLSCAASGFTFSSYGMHWVRQAPGKGLEWVAVISYDGSKKYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARSPFYDSSGYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISSYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQANSFPPTFGQGTKVEIK"/>
         <s v="QVQLVESGGGVVQPGKSLRLSCAASGFTFSSYAMSWVRQAPGKGPEWVAFISYDGSNNYYADSVKGRFTISRDNPKNTLYLQMKSLRAEDTAVYYCARWRQRFDMYWGRGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK"/>
         <s v="QVQLQESGPGLVKPSETLSLTCTVSGASIRGYYWSWIRQFPGKELEWIGYVYSGSTENYNPSLKSRVTVTLTDTKNSFSLKLNSVTSEDTAVYYCARGGALIYYDVWGTGTTVTVSSGGGSGGGSGGGSGGGSDIQVTQSPVSLSASVGDRVTITCRASQGIDSLNWFQQRPGKAPKLLIYAASQLTGIAPRFRSGSGSGTDFTLTISSLQPEDFATYYCQQYNIYPATFGQGTKVEIK"/>
@@ -2157,6 +2246,16 @@
         <s v="QVQLVESGGGLVQPGGSLRLSCAASGFNLYSSSIHWVRQAPGKGLEWVARIYPSGATYYADSVKGRFTISADTSKNTAYLQMRAEDTAVYYCARSYYGDDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASFLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYSYYPFTFGQGTKVEIK"/>
         <s v="EVQLLESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSYISSSSSTIYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCAKYSSYDYDYWGRGTMVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISSYLNWYQQKPGKAPKLLIYDASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQFYEWLRTFGQGTRLEIK"/>
         <s v="EVQLVESGGGLVQPGGSLRLSCAASGFATVSSNYMSWVRQAPGKGLEWVSVIYSCGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARYYYDSSRSGYYYYFDYWGQGTLVTVSSGGGSGGGSGGGSDIVLTQSPASLAVSLGQRATISCKASQSVDYDGDSYMHWYQQKPGQPPKLLIYRASNLESGIPARFSGSGSRTDFTLTINPVEADDVATYYCQQSNYPLTFGSGTKVEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISDSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGRDLFGLDALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGLTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGYYLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGATYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGNHLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGRYLDGLFALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGSLLRGLSALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISDSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGRYLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGSYLDGLSALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISDSSIHWVRQAPGKGLEWVASIYNYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGYYLDGLDALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISDYSIHWVRQAPGKGLEWVASIYNRSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGYYLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+        <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGHDLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -2179,7 +2278,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="0.69121100000000002"/>
     </cacheField>
     <cacheField name="submitted_to_comp" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-11-12T00:00:00" maxDate="2025-11-19T00:00:00" count="14">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-11-12T00:00:00" maxDate="2025-11-22T00:00:00" count="15">
         <d v="2025-11-07T00:00:00"/>
         <d v="2025-11-08T00:00:00"/>
         <d v="2025-11-09T00:00:00"/>
@@ -2192,6 +2291,7 @@
         <d v="2025-11-16T00:00:00"/>
         <d v="2025-11-17T00:00:00"/>
         <d v="2025-11-18T00:00:00"/>
+        <d v="2025-11-21T00:00:00"/>
         <d v="2025-11-14T00:00:00" u="1"/>
         <d v="2023-11-12T00:00:00" u="1"/>
       </sharedItems>
@@ -2206,7 +2306,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="118">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="128">
   <r>
     <x v="0"/>
     <s v="peleke-1"/>
@@ -4783,18 +4883,238 @@
   </r>
   <r>
     <x v="117"/>
-    <m/>
+    <s v="peleke-1 + AntiBMPNN"/>
     <x v="9"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="0.2"/>
+    <m/>
+    <s v="sbio-nipahgpg-055"/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISDSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGRDLFGLDALDYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGS"/>
     <x v="117"/>
+    <n v="241"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="118"/>
+    <s v="peleke-1 + AntiBMPNN"/>
+    <x v="9"/>
+    <n v="0.2"/>
+    <m/>
+    <s v="sbio-nipahgpg-055"/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGLTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGYYLDGLYALDYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGS"/>
+    <x v="118"/>
+    <n v="241"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="119"/>
+    <s v="peleke-1 + AntiBMPNN"/>
+    <x v="9"/>
+    <n v="0.2"/>
+    <m/>
+    <s v="sbio-nipahgpg-055"/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGATYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGNHLDGLYALDYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGS"/>
+    <x v="119"/>
+    <n v="241"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="120"/>
+    <s v="peleke-1 + AntiBMPNN"/>
+    <x v="9"/>
+    <n v="0.2"/>
+    <m/>
+    <s v="sbio-nipahgpg-055"/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGRYLDGLFALDYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGS"/>
+    <x v="120"/>
+    <n v="241"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="121"/>
+    <s v="peleke-1 + AntiBMPNN"/>
+    <x v="9"/>
+    <n v="0.2"/>
+    <m/>
+    <s v="sbio-nipahgpg-055"/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGSLLRGLSALDYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGS"/>
+    <x v="121"/>
+    <n v="241"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="122"/>
+    <s v="peleke-1 + AntiBMPNN"/>
+    <x v="9"/>
+    <n v="0.2"/>
+    <m/>
+    <s v="sbio-nipahgpg-055"/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISDSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGRYLDGLYALDYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGS"/>
+    <x v="122"/>
+    <n v="241"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="123"/>
+    <s v="peleke-1 + AntiBMPNN"/>
+    <x v="9"/>
+    <n v="0.2"/>
+    <m/>
+    <s v="sbio-nipahgpg-055"/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGSYLDGLSALDYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGS"/>
+    <x v="123"/>
+    <n v="241"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="124"/>
+    <s v="peleke-1 + AntiBMPNN"/>
+    <x v="9"/>
+    <n v="0.2"/>
+    <m/>
+    <s v="sbio-nipahgpg-055"/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISDSSIHWVRQAPGKGLEWVASIYNYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGYYLDGLDALDYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGS"/>
+    <x v="124"/>
+    <n v="241"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="125"/>
+    <s v="peleke-1 + AntiBMPNN"/>
+    <x v="9"/>
+    <n v="0.2"/>
+    <m/>
+    <s v="sbio-nipahgpg-055"/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISDYSIHWVRQAPGKGLEWVASIYNRSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGYYLDGLYALDYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGS"/>
+    <x v="125"/>
+    <n v="241"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="126"/>
+    <s v="peleke-1 + AntiBMPNN"/>
+    <x v="9"/>
+    <n v="0.2"/>
+    <m/>
+    <s v="sbio-nipahgpg-055"/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGHDLDGLYALDYWGQGTLVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGS"/>
+    <x v="126"/>
+    <n v="241"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="127"/>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="127"/>
     <m/>
     <m/>
     <m/>
@@ -4807,11 +5127,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{135D55CA-26D1-4FA2-9199-54D547F2C103}" name="PivotTable1" cacheId="104" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A4:C9" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{135D55CA-26D1-4FA2-9199-54D547F2C103}" name="PivotTable1" cacheId="111" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A4:C13" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="118">
+      <items count="128">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -4861,7 +5181,7 @@
         <item x="46"/>
         <item x="47"/>
         <item x="48"/>
-        <item x="117"/>
+        <item x="127"/>
         <item x="49"/>
         <item x="50"/>
         <item x="51"/>
@@ -4930,11 +5250,21 @@
         <item x="114"/>
         <item x="115"/>
         <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="10">
+      <items count="11">
         <item x="6"/>
         <item x="7"/>
         <item x="5"/>
@@ -4943,8 +5273,9 @@
         <item x="3"/>
         <item x="1"/>
         <item x="4"/>
+        <item x="10"/>
+        <item x="8"/>
         <item x="9"/>
-        <item x="8"/>
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -4957,7 +5288,7 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="118">
+      <items count="128">
         <item x="19"/>
         <item x="15"/>
         <item x="23"/>
@@ -5007,7 +5338,7 @@
         <item x="46"/>
         <item x="47"/>
         <item x="48"/>
-        <item x="117"/>
+        <item x="127"/>
         <item x="49"/>
         <item x="50"/>
         <item x="51"/>
@@ -5076,6 +5407,16 @@
         <item x="114"/>
         <item x="115"/>
         <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -5085,7 +5426,7 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
-      <items count="14">
+      <items count="15">
         <item h="1" x="8"/>
         <item h="1" x="0"/>
         <item h="1" x="1"/>
@@ -5093,13 +5434,14 @@
         <item h="1" x="3"/>
         <item h="1" x="4"/>
         <item h="1" x="5"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" x="6"/>
         <item h="1" m="1" x="13"/>
-        <item h="1" x="6"/>
-        <item h="1" m="1" x="12"/>
         <item h="1" x="7"/>
         <item h="1" x="9"/>
         <item h="1" x="10"/>
-        <item x="11"/>
+        <item h="1" x="11"/>
+        <item x="12"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -5108,36 +5450,56 @@
     <field x="2"/>
     <field x="12"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="10">
     <i>
-      <x v="112"/>
-      <x v="3"/>
-      <x v="112"/>
+      <x v="118"/>
+      <x v="10"/>
+      <x v="118"/>
     </i>
     <i>
-      <x v="113"/>
-      <x v="3"/>
-      <x v="113"/>
+      <x v="119"/>
+      <x v="10"/>
+      <x v="119"/>
     </i>
     <i>
-      <x v="114"/>
-      <x v="3"/>
-      <x v="114"/>
+      <x v="120"/>
+      <x v="10"/>
+      <x v="120"/>
     </i>
     <i>
-      <x v="115"/>
-      <x v="3"/>
-      <x v="115"/>
+      <x v="121"/>
+      <x v="10"/>
+      <x v="121"/>
     </i>
     <i>
-      <x v="116"/>
-      <x v="9"/>
-      <x v="116"/>
+      <x v="122"/>
+      <x v="10"/>
+      <x v="122"/>
     </i>
     <i>
-      <x v="117"/>
-      <x v="9"/>
-      <x v="117"/>
+      <x v="123"/>
+      <x v="10"/>
+      <x v="123"/>
+    </i>
+    <i>
+      <x v="124"/>
+      <x v="10"/>
+      <x v="124"/>
+    </i>
+    <i>
+      <x v="125"/>
+      <x v="10"/>
+      <x v="125"/>
+    </i>
+    <i>
+      <x v="126"/>
+      <x v="10"/>
+      <x v="126"/>
+    </i>
+    <i>
+      <x v="127"/>
+      <x v="10"/>
+      <x v="127"/>
     </i>
   </rowItems>
   <colItems count="1">
@@ -5475,13 +5837,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V118"/>
+  <dimension ref="A1:V128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W37" sqref="W37"/>
+      <selection pane="bottomRight" activeCell="M121" sqref="M121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5679,7 +6041,7 @@
         <v>125</v>
       </c>
       <c r="M3" s="2" t="str">
-        <f t="shared" ref="M3:M66" si="0">_xlfn.CONCAT(I3,L3,J3)</f>
+        <f>_xlfn.CONCAT(I3,L3,J3)</f>
         <v>QVQLVESGGGVVQPGKSLRLSCAASGFTFSSYAMSWVRQAPGKGPEWVAFISYDGSNNYYADSVKGRFTISRDNPKNTLYLQMKSLRAEDTAVYYCARWRQRFDMYWGRGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK</v>
       </c>
       <c r="N3" s="4">
@@ -5687,7 +6049,7 @@
         <v>240</v>
       </c>
       <c r="O3" s="1" t="b">
-        <f t="shared" ref="O3:O66" si="1">IF(N3&lt;=250,TRUE,FALSE)</f>
+        <f>IF(N3&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P3" s="1" t="b">
@@ -5747,7 +6109,7 @@
         <v>125</v>
       </c>
       <c r="M4" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I4,L4,J4)</f>
         <v>QVQLQESGPGLVKPSETLSLTCTVSGASIRGYYWSWIRQFPGKELEWIGYVYSGSTENYNPSLKSRVTVTLTDTKNSFSLKLNSVTSEDTAVYYCARGGALIYYDVWGTGTTVTVSSGGGSGGGSGGGSGGGSDIQVTQSPVSLSASVGDRVTITCRASQGIDSLNWFQQRPGKAPKLLIYAASQLTGIAPRFRSGSGSGTDFTLTISSLQPEDFATYYCQQYNIYPATFGQGTKVEIK</v>
       </c>
       <c r="N4" s="4">
@@ -5755,7 +6117,7 @@
         <v>239</v>
       </c>
       <c r="O4" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N4&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P4" s="1" t="b">
@@ -5815,7 +6177,7 @@
         <v>125</v>
       </c>
       <c r="M5" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I5,L5,J5)</f>
         <v>EVQLVQSGAEVKKPGESLKISCKGSGYTFSYYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAMYYCARGEGVFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSYTLTQAPSVSASGQSVTISCTGTSRDVGTYWYQQIPGRAPKLLIHDKSENQGKTPGIPDRFSGSKSGNTASLVIIRGLQADDEADYYCNSYHGSGSNIFGGGTKLTVD</v>
       </c>
       <c r="N5" s="4">
@@ -5823,7 +6185,7 @@
         <v>240</v>
       </c>
       <c r="O5" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N5&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P5" s="1" t="b">
@@ -5883,7 +6245,7 @@
         <v>125</v>
       </c>
       <c r="M6" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I6,L6,J6)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYWMNWVRQAPGKGLEWVANINQDGGEKYYVDSVKGRFTISRDNAKNSLYLQMNSLRAEDTAIYYCARDVGGGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</v>
       </c>
       <c r="N6" s="4">
@@ -5891,7 +6253,7 @@
         <v>238</v>
       </c>
       <c r="O6" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N6&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P6" s="1" t="b">
@@ -5947,15 +6309,15 @@
         <v>125</v>
       </c>
       <c r="M7" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I7,L7,J7)</f>
         <v>QVQLVESGGGVVQPGRSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAIWSNGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARDYGSYGYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPLSLPVTPGEPASISCRSSQSLLYSNGNTYLEWYLQKPGQSPQLLIYLVSKLDSGVPDRFSGSGSGTDFTLKISRVEAEDLGIYYCQQSKEVPYTFGAGTKLEIK</v>
       </c>
       <c r="N7" s="4">
-        <f t="shared" ref="N7:N70" si="2">LEN(M7)</f>
+        <f>LEN(M7)</f>
         <v>247</v>
       </c>
       <c r="O7" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N7&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P7" s="1" t="b">
@@ -6020,15 +6382,15 @@
         <v>125</v>
       </c>
       <c r="M8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I8,L8,J8)</f>
         <v>AVSLVESGGGTVKPGESVTLSCQASGFNFSKYQWVWVRQAPGKGLEWVGQISPDGSKTRYHPSVAGRFTISRDNSNSTLYLHMSNLRPEDTAVYYCGIIPQDNVHGDYSISHWGQGTLLTVSAGGGSGGGSGGGSGGGSAIKLTQSPKSLSASVGDTVTINCTASRPIGDLLSWYKQKPGKPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSSDFATYYCRQTSRFPITFGEGTTINKK</v>
       </c>
       <c r="N8" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M8)</f>
         <v>246</v>
       </c>
       <c r="O8" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N8&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P8" s="1" t="b">
@@ -6093,15 +6455,15 @@
         <v>125</v>
       </c>
       <c r="M9" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I9,L9,J9)</f>
         <v>AVSITESGGGTKAPGSSVTLSCKVSGFVFSKYSIAWVRQAPGQGLEWVSQISPDGSTTRYNPAVAGRFTISRDNSNSTAYLQMSNLTPSDTATYYCAIIPQDNEHGDYSLSHWGQGTQLTVSAGGGSGGGSGGGSGGGSAIKLTQSPKSLSAKVGDTVTINCTASAPIGDFLSWYKQKPGQPPQLLIYKSSTLAPGVSSRYSGSGSDTNFTLTISSLQEEDFATYYCQQTATLPITFGEGTTINKK</v>
       </c>
       <c r="N9" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M9)</f>
         <v>246</v>
       </c>
       <c r="O9" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N9&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P9" s="1" t="b">
@@ -6166,15 +6528,15 @@
         <v>125</v>
       </c>
       <c r="M10" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I10,L10,J10)</f>
         <v>SISLVESGGGTVAPGSSVTLSCQASGFNFSKYSKAWVRQPPGQPLEWVSRISPDGSTKYYHPDVAGRFTISKDNSKSTVYLAMSNLTAADTATYYCGIIPGDNTHGDYAMSHWGQGTLLTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTISCTASRPIGDKLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTSFTLTISSLQEDDFATYYCQQTYTLPITFGQGTTISKK</v>
       </c>
       <c r="N10" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M10)</f>
         <v>246</v>
       </c>
       <c r="O10" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N10&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P10" s="1" t="b">
@@ -6239,15 +6601,15 @@
         <v>125</v>
       </c>
       <c r="M11" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I11,L11,J11)</f>
         <v>GVSLTESGGGTVAPGSSVTLSCKASGFNFSKYSHAWVRQAPGQGLTWVGEISPDGSKTRYASSVAGRFTISRDNSNSTVYLQMSSLTPSDTATYYCGIIPGDSVHGERSMSHWGQGTLLTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTLNCTASRPIGDRLSWYKQKPGQAPQLLIYRASTLAPGVSSRYSGSGSDTQFTLTISSLQSDDFATYYCQQTSSYPVTFGQGTTITKK</v>
       </c>
       <c r="N11" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M11)</f>
         <v>246</v>
       </c>
       <c r="O11" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N11&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P11" s="1" t="b">
@@ -6312,15 +6674,15 @@
         <v>125</v>
       </c>
       <c r="M12" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I12,L12,J12)</f>
         <v xml:space="preserve">EVSLVESGGGTVKPGESVTLSCQASGFNFSKYRLAWVRQPPGQGLVWVSEISPDGTEVKYHPDVKGRFTASRDNSNSTAYLKMNNLQPSDTATYYCGIIPQDSSHGDYSISHWGQGTQLTVSAGGGSGGGSGGGSGGGSTITLTQSPSSLSASVGDTVTINCTASRPIGDFLSWYKQKPGQPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSDDFATYYCQQTYTLPITFGQGTTLTKK </v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M12)</f>
         <v>247</v>
       </c>
       <c r="O12" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N12&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P12" s="1" t="b">
@@ -6379,15 +6741,15 @@
         <v>125</v>
       </c>
       <c r="M13" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I13,L13,J13)</f>
         <v>AVSLVESGGGTYAPGSSVTLSCQGSGFNFSKVRKVWVRQPPGGPLEYVAEISPDGSTTTYASSVAGRFTISKDNSNSTLYLSMSNLTPADTATYYCGLIPGDSEHGDRSISHWGQGTLVTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTINCTASQPIGNFLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTNFTLTISSLQSEDFATYYCQQTSRLPVTFGQGTTINKK</v>
       </c>
       <c r="N13" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M13)</f>
         <v>246</v>
       </c>
       <c r="O13" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N13&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P13" s="1" t="b">
@@ -6452,15 +6814,15 @@
         <v>125</v>
       </c>
       <c r="M14" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I14,L14,J14)</f>
         <v>GISLVESGGGTVKPGESVTLSCKASGFVFSKYSHAWVRQPPGGPLEWVSQISSDGSVTRYASSVSGRFTISRDNSNSTVYLQMNNLRPSDTATYYCGIIPQDNVHGDYAISHWGQGTLLTVTAGGGSGGGSGGGSGGGSAITLTQSPASLSAKVGDTVTLSCTASRPIGDLLSWYKQKPGQPPQLLIYRASTLAPGVDSRYSGSGSDTSFTLTISSLQPEDFATYYCQQTSRFPITFGQGTTIKQA</v>
       </c>
       <c r="N14" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M14)</f>
         <v>246</v>
       </c>
       <c r="O14" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N14&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P14" s="1" t="b">
@@ -6525,15 +6887,15 @@
         <v>125</v>
       </c>
       <c r="M15" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I15,L15,J15)</f>
         <v xml:space="preserve">PVSLVESGGGTVAPGSSVTLTCQASGFNFSKYIVAWVRQPPGQPLRFVAMITPDGSKVWLHPEVEGRFTPSKDNSKNTSYLQLKDLQPEDTATYYCGIIPQGSTHGDYSITHWGQGVVLTVTAGGGSGGGSGGGSGGGSMVTLTQSPSSLSASVGDTVTITCTASSPVDNLMSWYQQPPGQPLRLLIYNASTRAPGVSSRFSGSGSDTNFTLTISSLQASDFATYYCQQTYRLPVTFGQGTTLSAA </v>
       </c>
       <c r="N15" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M15)</f>
         <v>247</v>
       </c>
       <c r="O15" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N15&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P15" s="1" t="b">
@@ -6592,15 +6954,15 @@
         <v>125</v>
       </c>
       <c r="M16" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I16,L16,J16)</f>
         <v>SIKLTESGGGTVKPGSSVTLSCQASGFNFSKYEVVWVMQKPGQPLQWVGSISPDGSKVRLHPKVKGRFTLSKDNSKNTAYLTMKNLQPEDTATYYCGIIPGGSVHGDRSITHWGQGVELKVVAGGGSGGGSGGGSGGGSMIKLTQSPKSVKAKVGDTVTITCTASEPVDDLVSWYQQKPGQPLRLLIYRSSTLAPGVSSRFSGSGSDTNFTLTISSLQEEDFATYYCMQTSKYPYTFGQGTTLSRA</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M16)</f>
         <v>246</v>
       </c>
       <c r="O16" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N16&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P16" s="1" t="b">
@@ -6665,15 +7027,15 @@
         <v>125</v>
       </c>
       <c r="M17" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I17,L17,J17)</f>
         <v>AITLTESGGGVVAPGSSVTLTCTASGFNFSKYSMVWVRQPPGGPLQWVAQISPDNSTVRYHPAVEGRFTASKDNSKNTAYLAMSDLEPSDTATYYCGIIPQGSTHNDYSIVHWGQGTELRVVAGGGSGGGSGGGSGGGSMIKLTQSPSSLSAKVGDKVTITCTASSPVDNLVSWYKQPPGGPLQLLIYNSSTRAPGVSSRFKGSGSDTNFTLTIESLQEEDFATYYCQQTYKFPITFGQGTKLTRA</v>
       </c>
       <c r="N17" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M17)</f>
         <v>246</v>
       </c>
       <c r="O17" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N17&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P17" s="1" t="b">
@@ -6738,15 +7100,15 @@
         <v>125</v>
       </c>
       <c r="M18" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I18,L18,J18)</f>
         <v>SISLTESGGGTVAPGSSVTLTCTASGFNFSKYSVAWVRQPPGQPLQWVALISPDGSKKWYHPDVKGRATISKDNSKNTSYLTLSNLQPSDTATYYCGIIPGGNIHGDYSMTHWGQGTQLTVVAGGGSGGGSGGGSGGGSMITLTQSPLSLSAKVGDTVTITCTASSPVDDLVSWYQQKPGQPLRLLIRNASERAPGVSSRFSGSGSDTTFTLTISSVQEEDFATYYCQQTSKLPYTFGQGTTLSRA</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M18)</f>
         <v>246</v>
       </c>
       <c r="O18" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N18&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P18" s="1" t="b">
@@ -6811,15 +7173,15 @@
         <v>125</v>
       </c>
       <c r="M19" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I19,L19,J19)</f>
         <v>AVTLTESGGGTVAPGSSVTLTCTASGFNFSKYILAWVRQAPGQPLEWVASISPDGSKTRYHPAVKGRATASKDNSKNTAYLELKDLRPEDTATYYCGIIPQGSVHGDYSMTHWGQGTELRVEAGGGSGGGSGGGSGGGSPVVLTQSPLSLSAKVGDTVTITCTASSPVDNLVSWYKQAPGQPLQLLIYNATTRAPGVPSRFTGSGSDTTFTLTISSLQPEDFAVYYCQQTYKFPITFGQGTRLTPA</v>
       </c>
       <c r="N19" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M19)</f>
         <v>246</v>
       </c>
       <c r="O19" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N19&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P19" s="1" t="b">
@@ -6884,15 +7246,15 @@
         <v>125</v>
       </c>
       <c r="M20" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I20,L20,J20)</f>
         <v>PVKLVESGGGTVAPGSSVTLTCKASGFNFSKYMVQWVRQAPGGAFQWVGLISPDGSTKWYHPDVEGRFTISKDNSKNTAYLEMRNLTPADTAVYYCGIVPQGSVHGDYSITHWGQGVTLTVTAGGGSGGGSGGGSGGGSVVQLTQSPPELSAKVGEKVTITCTASSPVDNLVSWYQQKPGGAPKLLIYNATTLAPGVPSRFSGSGSDTVFTLTIDSLQAEDFATYYCQQTSRLPFTFGQGTVLRPA</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M20)</f>
         <v>246</v>
       </c>
       <c r="O20" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N20&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P20" s="1" t="b">
@@ -6957,15 +7319,15 @@
         <v>125</v>
       </c>
       <c r="M21" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I21,L21,J21)</f>
         <v>AIKLTESGGGTVKPGSSVTLTCQASGFNFSKYIMAWVRQAPGQPLQWVAQISPDNSVKRYHPEVEGRFTASKDNSKNTAYLEMKNLTPADTATYYCAIIPQGSTQGDYSMVHWGQGVELKVVAGGGSGGGSGGGSGGGSPVVLTQSPASLKAAVGDTVTITCTASAPVDNLVSWYKQAPGQPPQLLIYNASTLAPGVPSRFTGSGSDTSFTLTISSLQEEDFATYYCQETSKFPITFGQGTKLEKK</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M21)</f>
         <v>246</v>
       </c>
       <c r="O21" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N21&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P21" s="1" t="b">
@@ -7030,15 +7392,15 @@
         <v>125</v>
       </c>
       <c r="M22" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I22,L22,J22)</f>
         <v>SIKLTESGGGVVAPGESVTLTCTASGFNFSKYEMAWVRQAPGGPLEFVAVISPDGSTTRYHPRVEGRATISRDNSKNTAYLTLRDLTPADTAVYYCGIIPGGSVHGDRALSHWGQGVRLEVRAGGGSGGGSGGGSGGGSMVTLTQSPSSLSAKVGDKVTISCTASEPVDDLVSWYKQAPGGPPQLLISRASTRAPGVPSRFSGSGSDTNFTLTIESLQSSDFATYYCQQTYKFPDTFGQGTTLSEA</v>
       </c>
       <c r="N22" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M22)</f>
         <v>246</v>
       </c>
       <c r="O22" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N22&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P22" s="1" t="b">
@@ -7103,15 +7465,15 @@
         <v>126</v>
       </c>
       <c r="M23" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I23,L23,J23)</f>
         <v xml:space="preserve">SVTLVESGDQTVAPGGSVTLSCTSSGGSFGNSGVSWVKQQPGGPLQWIGGIIPSLGISKVSPEYAGRVTISSDSSNNTAYLTISNLTAADTATYYCALGEGEDVFASSPFASNVNLGALSVWGQGTKVTVSGGGSGGGSGGGSITVTQSPSSPSLKVGETATLTCTLSAPVPRSNVAWYKQQPGQPPTLLIYGGSTRAPGVPSRYSGSGSGTTFTLTITALKPEDFATYYCQVYGENPSFGQGTTLKLK </v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M23)</f>
         <v>250</v>
       </c>
       <c r="O23" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N23&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P23" s="1" t="b">
@@ -7170,15 +7532,15 @@
         <v>126</v>
       </c>
       <c r="M24" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I24,L24,J24)</f>
         <v>GVKLVQSGDLTVKPGGSVTLSCKSEGGSFGNSSVAWVRQRPGGPYEYIGSIIPAYGVSRVSPEYEGRVTISADVANNTAYLTISNLTPEDTATYYCALGPGEVVYAASPFDEKLLTGALSVWGEGTLVTVTGGGSGGGSGGGSITVTQSPSSPSLSVGDTATLTCTLSSSVATSNVAWYKQLPGQPPELLISGGSTRAPGVPSRYSGSGSGTTFTLTISSLQASDFATYYCQVYGENPSFGQGTTLTLK</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M24)</f>
         <v>249</v>
       </c>
       <c r="O24" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N24&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P24" s="1" t="b">
@@ -7247,11 +7609,11 @@
         <v>AVKLVQSGDQTVAPGGSVTLSCTSSGGSFGNSSVAWVRQRPGGPFEFIGSIIPSLGISRYNSKYKGRVTISSDAANNTAYLTISNLTAADTATYYCALGPGESVFASHPFKEKLLTGALSVWGEGTLVTVSGGGSGGGSGGGSITVTQSPSSPSKSVGDTVTLTCTLSSSVPVSQVAWYKQHPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLQPEDFATYYCQVYGEEPSFGQGTTVTLA</v>
       </c>
       <c r="N25" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M25)</f>
         <v>249</v>
       </c>
       <c r="O25" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N25&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P25" s="1" t="b">
@@ -7316,15 +7678,15 @@
         <v>126</v>
       </c>
       <c r="M26" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I26,L26,J26)</f>
         <v>SITLVQSGDVTVAPGGSVTLTCTSSGGSFGNKAVAWVRQRPGGPYEWLGFIIPAYGVSRYNPAYEGRVTISVDSASNTASLTISNLTAADTATYYCALGEGEIVYAASPFDENYKLGALYIWGQGTKVTVSGGGSGGGSGGGSITLTQSPSSPSLSVGETATLTCTASAPVPKSNVAWYKQLPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLTADDFATYYCQVYGENPSFGEGTTLTLK</v>
       </c>
       <c r="N26" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M26)</f>
         <v>249</v>
       </c>
       <c r="O26" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N26&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P26" s="1" t="b">
@@ -7389,15 +7751,15 @@
         <v>126</v>
       </c>
       <c r="M27" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I27,L27,J27)</f>
         <v>SVTLVQSGDQTVPIGGSVTLSCTANGGSFGNKGVAWVRQRPGGPYEFLGFIKPAIGESRYHPKYKGRVTISSDVSSNTAYLTISNLTPEDTAVYYCALGEAEDVFAAHPFKTDLLLGALSIWGQGTRVTVTGGGSGGGSGGGSITVTQSPSSPSLSVGETAVLTCTLSQPVPQSQVAWYKQLPGQPPTLLISGGSTRASGVPSRYSGSGSGTTFTLTISSLLPEDFATYYCQVVGKEPSFGQGTTLTLK</v>
       </c>
       <c r="N27" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M27)</f>
         <v>249</v>
       </c>
       <c r="O27" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N27&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P27" s="1" t="b">
@@ -7462,15 +7824,15 @@
         <v>126</v>
       </c>
       <c r="M28" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I28,L28,J28)</f>
         <v>SVKLVQSGDQTVPVGGSVTLSCTASGGSFGNYGVAWVRQRPGGPLEYIGSIIPAYGISTVNPKYEGRVTISADPTNNTAYLTISNLTPEDTATYYCALGPGEVVFASSPFDIDVLTGALWVWGEGTKVTVTGGGSGGGSGGGSITVTQSPSSPSLKVGETATLTCTLSAPVAKSNVAWYKQLPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLQPEDFATYYCQVVGKNPSFGQGTLLKLK</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M28)</f>
         <v>249</v>
       </c>
       <c r="O28" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N28&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P28" s="1" t="b">
@@ -7535,15 +7897,15 @@
         <v>126</v>
       </c>
       <c r="M29" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I29,L29,J29)</f>
         <v>SISLVQSSDQTVAPGGSVTLSCTSSGGSFGNSGVAWVRQAPGGPPVYIGGIIPATGVSTYNAAFKGRVTISSDSSNNTAYLTISGLTAADTATYYCALGPAENVFASHPFAEDVNLGALSVWGQGTLVTVTGGGSGGGSGGGSITVTESPSSPELSVGETAVLSCTLSSSVPQSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLEPEDFATYYCQVYGTSPSFGQGTTLKLK</v>
       </c>
       <c r="N29" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M29)</f>
         <v>249</v>
       </c>
       <c r="O29" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N29&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P29" s="1" t="b">
@@ -7608,15 +7970,15 @@
         <v>126</v>
       </c>
       <c r="M30" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I30,L30,J30)</f>
         <v>AVSLVESGDQTVAPGGSVTLSCTSSGGSFGNSGVAWVRQAPGGPLEFLGFIIPALGVSKVNSKYEGRVTISSDPANNTAYLTISNLTAADTATYYCGLGTGESVFASSPFDEKLLLGALSVWGQGTKVTVTGGGSGGGSGGGSITVTQSPASPEKKVGETATLTCTLSSAVPKSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLQPEDFATYYCRVYGEEPSFGQGTTLKLK</v>
       </c>
       <c r="N30" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M30)</f>
         <v>249</v>
       </c>
       <c r="O30" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N30&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P30" s="1" t="b">
@@ -7675,15 +8037,15 @@
         <v>125</v>
       </c>
       <c r="M31" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I31,L31,J31)</f>
         <v>VQLQESGPGLVKPSQSLSLTCTVTGYSITTGYAWNWIRQFPGNKLEWMGYISYSGSTYYPSLKSRISITRDTSKNQFFLQLSIVTTEDTATYYCARGTTLPDYVDFWGQGTSVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQTISTYLNWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYFCLQHFWTPPITFGQGTRLEIK</v>
       </c>
       <c r="N31" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M31)</f>
         <v>241</v>
       </c>
       <c r="O31" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N31&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P31" s="1" t="b">
@@ -7734,15 +8096,15 @@
         <v>126</v>
       </c>
       <c r="M32" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I32,L32,J32)</f>
         <v>QVQLQESGPGLVKPSETLSVTCTVSGGSIGSNNYWSWIRQPAGKGLEWIGYIYYSGSTNYNPSLKSRVTMSVDTSKNQFSLKLSSVTAADTAVYYCVRNYYDSSDSSGYYFMDVWGQGTTVTVSSGGGSGGGSGGGSDIVMTQSPLSLSVTPGEPASISCRSSQSLLHSNGYNYLDWYLQKPGQSPQLLIYLGSNRASGVPDRFSGSGSGTDFTLKISRVEAEDVGVYYCMQALQTPTFGQGTRLEIK</v>
       </c>
       <c r="N32" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M32)</f>
         <v>248</v>
       </c>
       <c r="O32" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N32&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P32" s="1" t="b">
@@ -7793,15 +8155,15 @@
         <v>125</v>
       </c>
       <c r="M33" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I33,L33,J33)</f>
         <v>QVQLVQSGAEVKKPGESLKISCKGSGYRFSSYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAMYYCARQGPDYYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSTLSASVGDRVTITCRASQSISSWLAWYQQKPGKAPKLLIYKASELQSGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQQYINSYTFGQGTKVEIK</v>
       </c>
       <c r="N33" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M33)</f>
         <v>242</v>
       </c>
       <c r="O33" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N33&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P33" s="1" t="b">
@@ -7852,15 +8214,15 @@
         <v>125</v>
       </c>
       <c r="M34" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I34,L34,J34)</f>
         <v>QVQLQQSGPELVKPGASVKLSCKASGYTFTDYYMHWVKQRPGQGLEWIGEINPNSGGTNTYDQKFKGRATLTVDKSSSTAYLQLSSLTSEDSAVYYCARSPPWYFDYWGQGTTLTVSGGGSGGGSGGGSGGGSDIVMTQSPSSMFASVGETVTITCRASENIYSNLAWYQQKPGQSPKLLIYWASTRHTGVPDRFTGSGSGTDFTLTISSVQAEDLALYYCQHYGSYSFTFGSGTKLEIK</v>
       </c>
       <c r="N34" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M34)</f>
         <v>240</v>
       </c>
       <c r="O34" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N34&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P34" s="1" t="b">
@@ -7911,15 +8273,15 @@
         <v>125</v>
       </c>
       <c r="M35" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I35,L35,J35)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRNYVYSSGYLDFWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSYSSPPTFGQGTKVEIK</v>
       </c>
       <c r="N35" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M35)</f>
         <v>246</v>
       </c>
       <c r="O35" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N35&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P35" s="1" t="b">
@@ -7970,15 +8332,15 @@
         <v>125</v>
       </c>
       <c r="M36" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I36,L36,J36)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNIYYSSIHWVRQAPGKGLEWVASISPYYGSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARDYGHYYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVMTQSPATLSVSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYGASTRATGIPARFSGSGSGTEFTLTISSLQSEDSAVYYCQQYNNWPPITFGQGTRLEIK</v>
       </c>
       <c r="N36" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M36)</f>
         <v>244</v>
       </c>
       <c r="O36" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N36&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P36" s="1" t="b">
@@ -8029,15 +8391,15 @@
         <v>126</v>
       </c>
       <c r="M37" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I37,L37,J37)</f>
         <v>QVQLQESGPGLVKPSETLSLSCVVSGDSSSTNYYWGWIRQPPGKGLEWIGYIYGSGDTAYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARRSWGYGYNGYSTYYYYYYFDQGYFDVWGPGTLVTGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSIGSYLNWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTEFTLTISSLQPEDFATYYCQQSYSWGQGTKVEIK</v>
       </c>
       <c r="N37" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M37)</f>
         <v>247</v>
       </c>
       <c r="O37" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N37&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P37" s="1" t="b">
@@ -8088,15 +8450,15 @@
         <v>125</v>
       </c>
       <c r="M38" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I38,L38,J38)</f>
         <v>QVQLVQSGAEVKKPGASVKVSCKASGYTFTSYGISWVRQAPGQGLEWMGWISAHNGDTNYAQKFQGRVTMTRDTSITTAYMELRSDDTAVYYCARDGSVGGFYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPITFGQGTRLEIK</v>
       </c>
       <c r="N38" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M38)</f>
         <v>237</v>
       </c>
       <c r="O38" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N38&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P38" s="1" t="b">
@@ -8147,15 +8509,15 @@
         <v>125</v>
       </c>
       <c r="M39" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I39,L39,J39)</f>
         <v>EVQLLESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASISPYYGSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSYYWYWSGWGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSYGSPPTFGQGTKVEIK</v>
       </c>
       <c r="N39" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M39)</f>
         <v>238</v>
       </c>
       <c r="O39" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N39&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P39" s="1" t="b">
@@ -8206,15 +8568,15 @@
         <v>125</v>
       </c>
       <c r="M40" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I40,L40,J40)</f>
         <v>QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGHYAWWIRQPPGKGLEWIACIYSSSGSTYYNPSLKSRITISVDTSKNQFSLKLSSVTAADTAVYYCARRQRGYDYDYYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISRNLAWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSNNWPITFGQGTKVEIK</v>
       </c>
       <c r="N40" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M40)</f>
         <v>248</v>
       </c>
       <c r="O40" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N40&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P40" s="1" t="b">
@@ -8265,15 +8627,15 @@
         <v>125</v>
       </c>
       <c r="M41" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I41,L41,J41)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNIYYSSIHWVRQAPGKGLEWVASIYSYYSSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARVYGYLSYSYFYWGLDVWGQGTLVTVSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEI</v>
       </c>
       <c r="N41" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M41)</f>
         <v>246</v>
       </c>
       <c r="O41" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N41&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P41" s="1" t="b">
@@ -8324,15 +8686,15 @@
         <v>125</v>
       </c>
       <c r="M42" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I42,L42,J42)</f>
         <v>EVQLQQSGAELVKPGASVKLSCTASGFNIKDTYVHWVKQRPEQGLEWIGRIDPANGYTKYDPKFQGKATITADTSSNTAYLQLSSLTSEDTAVYYCVRPLYDYYAMDYWGQGTTLTVSSGGGSGGGSGGGSGGGSDIVMTQSPSSLAMSAGRVSITCRTSQSISSYLNWVQQKPGKSPKLLIYWASTRESGVPDRFTGSGSGTDFTLTISRVEAEDLGVYYCMQGTHVPYTFGGGTKLEIK</v>
       </c>
       <c r="N42" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M42)</f>
         <v>241</v>
       </c>
       <c r="O42" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N42&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P42" s="1" t="b">
@@ -8383,15 +8745,15 @@
         <v>125</v>
       </c>
       <c r="M43" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I43,L43,J43)</f>
         <v>EVQLVESGGGLVKPGGSLRLSCAASGFTFSSYAMHWVRQAPGKGLEWVSAISGGGGSTYYADSVKGRFTISRDNSKNTLYLQMRAEDTAVYYCAKDDADWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPFTFGQGTKVEIK</v>
       </c>
       <c r="N43" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M43)</f>
         <v>233</v>
       </c>
       <c r="O43" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N43&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P43" s="1" t="b">
@@ -8442,15 +8804,15 @@
         <v>125</v>
       </c>
       <c r="M44" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I44,L44,J44)</f>
         <v>QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGSYYWIRQSPGKGLEWIGYIYYSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARHRYYDRGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPASLSASVGETVTITCRASENIYSNLAWYQQKQGKSPQLLVYAATDLADGVPSRFSGSGSGTQFSLKINSLQPEDFGSYYCQHFWDTPWTFGQGTRVE</v>
       </c>
       <c r="N44" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M44)</f>
         <v>234</v>
       </c>
       <c r="O44" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N44&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P44" s="1" t="b">
@@ -8501,15 +8863,15 @@
         <v>125</v>
       </c>
       <c r="M45" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I45,L45,J45)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNLYSSSIHWVRQAPGKGLEWVAYISSSGTHYADSVKGRFTISADTSKNTAYLQMRAEDTAVYYCARVGHYYSSGGYYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYSSYWTFGQGTKVEIK</v>
       </c>
       <c r="N45" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M45)</f>
         <v>242</v>
       </c>
       <c r="O45" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N45&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P45" s="1" t="b">
@@ -8560,15 +8922,15 @@
         <v>126</v>
       </c>
       <c r="M46" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I46,L46,J46)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVVDSGISWVRQAPGKGLEWVSYISSSSGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARAHYYGSYFGSVVYYYGLDVWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYDTYPITFGQGTKVEIK</v>
       </c>
       <c r="N46" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M46)</f>
         <v>247</v>
       </c>
       <c r="O46" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N46&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P46" s="1" t="b">
@@ -8619,15 +8981,15 @@
         <v>125</v>
       </c>
       <c r="M47" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I47,L47,J47)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVYSSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSYSTYYYGYWYFDVWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSAAVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYNYYWLITFGQGTKVEIK</v>
       </c>
       <c r="N47" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M47)</f>
         <v>247</v>
       </c>
       <c r="O47" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N47&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P47" s="1" t="b">
@@ -8678,15 +9040,15 @@
         <v>125</v>
       </c>
       <c r="M48" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I48,L48,J48)</f>
         <v>QVQLQQPGAELVKPGASVKLSCKASGYTFTSDWIHWVKQRPGHGLEWIGEIIPSYGRANYNEKIQKKATLTADKSSSTAFMHLSSLTSEDSAVYYCARERGDGYFAVWGAGTTVTVSSGGGSGGGSGGGSGGGSDILLTQSPAILSVSPGERVSFSCRASQSIGTDIHWYQQRTNGSPRLLIKYASESISGIPSRFSGSGSGTDFTLSINSVESEDIANYYCQQSNRWPFTFGSGTKLEIK</v>
       </c>
       <c r="N48" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M48)</f>
         <v>241</v>
       </c>
       <c r="O48" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N48&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P48" s="1" t="b">
@@ -8737,15 +9099,15 @@
         <v>125</v>
       </c>
       <c r="M49" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I49,L49,J49)</f>
         <v>VRLLESGGGLVQPGGSLKLSCAASGFDYSRYWMSWVRQAPGKGLKWIGEINPVSSTINYTPSLKDKFIISRDNAKDTLYLQISKVRSEDTALYYCARLYYGYGYWYFDVWGAGTTVTVSSGGGSGGGSGGGSGGGSDIVLTQSPAIMSAAPGDKVTMTCSASSSVSYIHWYQQKSGTSPKRWIYDTSKLTSGVPVRFSGSGSGTSYSLTINTMEAEDAATYYCQQWSSHPQTFGGGTKLEIl</v>
       </c>
       <c r="N49" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M49)</f>
         <v>242</v>
       </c>
       <c r="O49" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N49&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P49" s="1" t="b">
@@ -8796,15 +9158,15 @@
         <v>125</v>
       </c>
       <c r="M50" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I50,L50,J50)</f>
         <v>QVQLQESGPGLVQPSQSLSLTCTVSGFSLTSYGVHWVRQSPGKGLEWLGVIWAGGSTDYNSALKSRLSISRDTSKNQVFLKMNSLQTDDTAMYYCAKHGSSNGDYWGQGTSVTVSSGGGSGGGSGGGSGGGSDIVMTQSPDSLAVSLGERATINCKSSQSVLYSSNNKNYLAWYQQKPEGQPPNLLIYWASTRESGVPDRFSGSGSGTDFTLTISSLQAEDVAVYYCQQYYSAPTFGQGTKLEIK</v>
       </c>
       <c r="N50" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M50)</f>
         <v>245</v>
       </c>
       <c r="O50" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N50&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P50" s="1" t="b">
@@ -8855,15 +9217,15 @@
         <v>125</v>
       </c>
       <c r="M51" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I51,L51,J51)</f>
         <v>QVQLQESGPGLVKPSETLSLTCTVSGGSVSSGGYFWSWIRQPPGKGLEWIGCIYYSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARVDSFYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGIRNDLGWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK</v>
       </c>
       <c r="N51" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M51)</f>
         <v>243</v>
       </c>
       <c r="O51" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N51&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P51" s="1" t="b">
@@ -8914,15 +9276,15 @@
         <v>125</v>
       </c>
       <c r="M52" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I52,L52,J52)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAISGSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARQVWFGGFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N52" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M52)</f>
         <v>241</v>
       </c>
       <c r="O52" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N52&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P52" s="1" t="b">
@@ -8973,15 +9335,15 @@
         <v>125</v>
       </c>
       <c r="M53" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I53,L53,J53)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSYIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRQFWYSGLDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N53" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M53)</f>
         <v>243</v>
       </c>
       <c r="O53" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N53&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P53" s="1" t="b">
@@ -9032,15 +9394,15 @@
         <v>125</v>
       </c>
       <c r="M54" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I54,L54,J54)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGSSYFGYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N54" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M54)</f>
         <v>245</v>
       </c>
       <c r="O54" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N54&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P54" s="1" t="b">
@@ -9091,15 +9453,15 @@
         <v>125</v>
       </c>
       <c r="M55" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I55,L55,J55)</f>
         <v>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYSISWVRQAPGQGLEWMGGIIIFGTANYAQKFQGRVTITADESTSTAYMELSSLRSEDTAVYYCARGQGTLVDFYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK</v>
       </c>
       <c r="N55" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M55)</f>
         <v>240</v>
       </c>
       <c r="O55" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N55&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P55" s="1" t="b">
@@ -9147,15 +9509,15 @@
         <v>125</v>
       </c>
       <c r="M56" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I56,L56,J56)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASIYPYSGYTNYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGYGYWGYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N56" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M56)</f>
         <v>245</v>
       </c>
       <c r="O56" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N56&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P56" s="1" t="b">
@@ -9206,15 +9568,15 @@
         <v>125</v>
       </c>
       <c r="M57" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I57,L57,J57)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAISGSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARGYQVYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N57" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M57)</f>
         <v>240</v>
       </c>
       <c r="O57" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N57&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P57" s="1" t="b">
@@ -9262,15 +9624,15 @@
         <v>125</v>
       </c>
       <c r="M58" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I58,L58,J58)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSYIHWVRQAPGKGLEWVASISSYYGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGWSYSWSYSWSYSGLDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</v>
       </c>
       <c r="N58" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M58)</f>
         <v>249</v>
       </c>
       <c r="O58" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N58&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P58" s="1" t="b">
@@ -9321,15 +9683,15 @@
         <v>125</v>
       </c>
       <c r="M59" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I59,L59,J59)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGWYYGSSYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N59" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M59)</f>
         <v>240</v>
       </c>
       <c r="O59" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N59&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P59" s="1" t="b">
@@ -9375,15 +9737,15 @@
         <v>125</v>
       </c>
       <c r="M60" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I60,L60,J60)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSYIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGTYYGSSYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N60" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M60)</f>
         <v>242</v>
       </c>
       <c r="O60" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N60&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P60" s="1" t="b">
@@ -9429,15 +9791,15 @@
         <v>125</v>
       </c>
       <c r="M61" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I61,L61,J61)</f>
         <v>QMQLVQSGAEVKKPGESLKISCKGSGYSFTSYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAIYYCARHYYGGQYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGIRNDLGWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKLEIK</v>
       </c>
       <c r="N61" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M61)</f>
         <v>242</v>
       </c>
       <c r="O61" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N61&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P61" s="1" t="b">
@@ -9488,15 +9850,15 @@
         <v>125</v>
       </c>
       <c r="M62" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I62,L62,J62)</f>
         <v>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYAISWVRQAPGQGLEWMGGIIPIFGTANYAQKFQGRVTITADESTSTAYMELSSLRSEDTAVYYCARWYDGYFVYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK</v>
       </c>
       <c r="N62" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M62)</f>
         <v>240</v>
       </c>
       <c r="O62" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N62&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P62" s="1" t="b">
@@ -9547,15 +9909,15 @@
         <v>125</v>
       </c>
       <c r="M63" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I63,L63,J63)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRQFWYSGLDYWGQGTLVTVFNGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N63" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M63)</f>
         <v>243</v>
       </c>
       <c r="O63" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N63&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P63" s="1" t="b">
@@ -9606,15 +9968,15 @@
         <v>125</v>
       </c>
       <c r="M64" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I64,L64,J64)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYYGSTYYADSVKGRFTISADTSKNTAYLQMRAEDTAVYYCARGWRSYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</v>
       </c>
       <c r="N64" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M64)</f>
         <v>238</v>
       </c>
       <c r="O64" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N64&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P64" s="1" t="b">
@@ -9665,15 +10027,15 @@
         <v>125</v>
       </c>
       <c r="M65" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I65,L65,J65)</f>
         <v>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYSFIWVRQAPGQGLEWMGGIIPIFGTANYAQKFQGRVTITADESTSTAYMELSSLRSEDTAVYYCARSSYSGVYYSWYFDVWGAGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGISNYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK</v>
       </c>
       <c r="N65" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M65)</f>
         <v>246</v>
       </c>
       <c r="O65" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N65&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P65" s="1" t="b">
@@ -9724,15 +10086,15 @@
         <v>125</v>
       </c>
       <c r="M66" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I66,L66,J66)</f>
         <v>EVQLQESGPGLVKPSQTLSLTCTVSGGSISSYAAWSWIRQPPGKGLEWIGYIYSSSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARGDYSYSYYGLDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGIRNDLGWYQQKPGKAPKLLIYAASNLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRYTFGQGTKVEIK</v>
       </c>
       <c r="N66" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M66)</f>
         <v>246</v>
       </c>
       <c r="O66" s="1" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(N66&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P66" s="1" t="b">
@@ -9783,15 +10145,15 @@
         <v>125</v>
       </c>
       <c r="M67" s="2" t="str">
-        <f t="shared" ref="M67:M81" si="3">_xlfn.CONCAT(I67,L67,J67)</f>
+        <f>_xlfn.CONCAT(I67,L67,J67)</f>
         <v>EVQLQQSGPELVKPGASVKMSCKASGYTFTSYNIHWVKQTPVHGLEWIGAIVSGGDTNYNENFKDKATLTVDKSSSTAYMQLTSEDSAVYYCARGGFYGDYWGQGTSVTVSSGGGSGGGSGGGSGGGSDIVLTQSPATLSVTPGDSVSLSCRASQSVTNNIHWYQQKSHESPRLLIKYASQSISGIPSRFSGSGSGTDFTLSINSVETEDFGMYFCQQSNSWPYTFGGGTKLEIK</v>
       </c>
       <c r="N67" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M67)</f>
         <v>235</v>
       </c>
       <c r="O67" s="1" t="b">
-        <f t="shared" ref="O67:O83" si="4">IF(N67&lt;=250,TRUE,FALSE)</f>
+        <f>IF(N67&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P67" s="1" t="b">
@@ -9842,15 +10204,15 @@
         <v>125</v>
       </c>
       <c r="M68" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(I68,L68,J68)</f>
         <v>QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGDYYWIRQHPGKGLEWIGYIYYSGSTYYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARQLWLRGRFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK</v>
       </c>
       <c r="N68" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M68)</f>
         <v>241</v>
       </c>
       <c r="O68" s="1" t="b">
-        <f t="shared" si="4"/>
+        <f>IF(N68&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P68" s="1" t="b">
@@ -9901,15 +10263,15 @@
         <v>125</v>
       </c>
       <c r="M69" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(I69,L69,J69)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFTVSSNYMSWVRQAPGKGLEWVSVIYSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCAREAGVWVFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N69" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M69)</f>
         <v>240</v>
       </c>
       <c r="O69" s="1" t="b">
-        <f t="shared" si="4"/>
+        <f>IF(N69&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P69" s="1" t="b">
@@ -9960,15 +10322,15 @@
         <v>125</v>
       </c>
       <c r="M70" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(I70,L70,J70)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNLYSSSIHWVRQAPGKGLEWVASISSYYGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRQFWLWFGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N70" s="4">
-        <f t="shared" si="2"/>
+        <f>LEN(M70)</f>
         <v>239</v>
       </c>
       <c r="O70" s="1" t="b">
-        <f t="shared" si="4"/>
+        <f>IF(N70&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P70" s="1" t="b">
@@ -10014,15 +10376,15 @@
         <v>125</v>
       </c>
       <c r="M71" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(I71,L71,J71)</f>
         <v>VQLVQSGAEVKKPGASVKVSCKASGYTFTTYTISWVRQAPGQGLEWMGWINNSGGTNYAQKFQGRVTMTRDTSTSTVSAYMELRSEDTAVYYCATFVYGYSAYQPLTDDYGQMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWFQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSLLYPLTFGGGTKVEIK</v>
       </c>
       <c r="N71" s="4">
-        <f t="shared" ref="N71:N83" si="5">LEN(M71)</f>
+        <f>LEN(M71)</f>
         <v>249</v>
       </c>
       <c r="O71" s="1" t="b">
-        <f t="shared" si="4"/>
+        <f>IF(N71&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P71" s="1" t="b">
@@ -10073,15 +10435,15 @@
         <v>125</v>
       </c>
       <c r="M72" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(I72,L72,J72)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSSSGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARHRWWAHPYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSYYITPYTFGQGTKVEIK</v>
       </c>
       <c r="N72" s="4">
-        <f t="shared" si="5"/>
+        <f>LEN(M72)</f>
         <v>241</v>
       </c>
       <c r="O72" s="1" t="b">
-        <f t="shared" si="4"/>
+        <f>IF(N72&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P72" s="1" t="b">
@@ -10132,15 +10494,15 @@
         <v>125</v>
       </c>
       <c r="M73" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(I73,L73,J73)</f>
         <v>EVQLVESGGGVVQPGRSLRLSCAASGFTFSSYAMHWVRQAPGKGLEWVAVIWYDGSNKYYADSVKGRFTISRDNSKNTLFLQMNSLRPEDTAVYYCARDTPMYYDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRTSQDIDNYLNWYQQKPGKAPKLLIYYTSSLHSGVPSRFSGSGSGTDFTFTISSLQPEDIATYYCQQYDNLPITFGQGTKLEIK</v>
       </c>
       <c r="N73" s="4">
-        <f t="shared" si="5"/>
+        <f>LEN(M73)</f>
         <v>240</v>
       </c>
       <c r="O73" s="1" t="b">
-        <f t="shared" si="4"/>
+        <f>IF(N73&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P73" s="1" t="b">
@@ -10191,15 +10553,15 @@
         <v>125</v>
       </c>
       <c r="M74" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(I74,L74,J74)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFTFSNYAMSWVRQAPGKGLEWVSAISGSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARLSPYNGSMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSVTQPASVSGSPGQSITISCTGTSSDIGAYNYVSWYQQHPGKAPKLMIYEVSKRPSGVSNRFSGSKSGNTASLTISGLQTEDEADYYCSSYTRSGSVVFGGGTKLTVL</v>
       </c>
       <c r="N74" s="4">
-        <f t="shared" si="5"/>
+        <f>LEN(M74)</f>
         <v>242</v>
       </c>
       <c r="O74" s="1" t="b">
-        <f t="shared" si="4"/>
+        <f>IF(N74&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P74" s="1" t="b">
@@ -10250,15 +10612,15 @@
         <v>125</v>
       </c>
       <c r="M75" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(I75,L75,J75)</f>
         <v>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYTISWVRQAPGQGLEWMGGIIPILGIANYAQKFQGRVTITADKSTSTAYMELSSLRSEDTAVYYCARGDSSYVDSWDYWGQGTLVTVSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSVSSSYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPWTFGQGTKVEIK</v>
       </c>
       <c r="N75" s="4">
-        <f t="shared" si="5"/>
+        <f>LEN(M75)</f>
         <v>243</v>
       </c>
       <c r="O75" s="1" t="b">
-        <f t="shared" si="4"/>
+        <f>IF(N75&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P75" s="1" t="b">
@@ -10309,15 +10671,15 @@
         <v>125</v>
       </c>
       <c r="M76" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(I76,L76,J76)</f>
         <v>QVQLVESGGGVVQPGRSLRLSCAASGFTFSNYGMHWVRQAPGKGLEWVAVISDGSNKYYADSVKGRFTISRDNSKNTLYLQMRAEDTAVYYCARGSHSSRDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPPYTFGQGTKVEIK</v>
       </c>
       <c r="N76" s="4">
-        <f t="shared" si="5"/>
+        <f>LEN(M76)</f>
         <v>237</v>
       </c>
       <c r="O76" s="1" t="b">
-        <f t="shared" si="4"/>
+        <f>IF(N76&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P76" s="1" t="b">
@@ -10368,15 +10730,15 @@
         <v>125</v>
       </c>
       <c r="M77" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(I77,L77,J77)</f>
         <v>VQLVQSGAEVKRPGSSVKVSCKTSGGTIFSTYVFWVRQAPGQGLEWMGGFPPKAGYIYAQKFQGRVTFTADESSSTTVYMEDLRSEDTAVYFCARFPYFVYDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSIGGYLAWYQQKPGKVPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK</v>
       </c>
       <c r="N77" s="4">
-        <f t="shared" si="5"/>
+        <f>LEN(M77)</f>
         <v>237</v>
       </c>
       <c r="O77" s="1" t="b">
-        <f t="shared" si="4"/>
+        <f>IF(N77&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P77" s="1" t="b">
@@ -10427,15 +10789,15 @@
         <v>126</v>
       </c>
       <c r="M78" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(I78,L78,J78)</f>
         <v>VQLQESGPGLVKPSQSLSLTCTVTGFSIDYNIYWGWIRQPPGKGLEWIGYIYSGSDTYNPSLKSRVTISVDTSKNQFSLKVNSVTAADTAVYYCARVVDLWYDDGKYASCVKGAIDYWGQGTLVTVSSGGGSGGGSGGGSSVLTQPPSVSGAPGQRVTISCTGSSGAGYDVHWYQQLPGTAPKLLIYGNSNRPSGVPDRFSGSKSGTSASLAITGLQAEDEADYYCQSYDSSLSGWVFGGGTKLTVL</v>
       </c>
       <c r="N78" s="4">
-        <f t="shared" si="5"/>
+        <f>LEN(M78)</f>
         <v>247</v>
       </c>
       <c r="O78" s="1" t="b">
-        <f t="shared" si="4"/>
+        <f>IF(N78&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P78" s="1" t="b">
@@ -10486,15 +10848,15 @@
         <v>125</v>
       </c>
       <c r="M79" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(I79,L79,J79)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVVDFSLHWVRQAPGKGLEWVASIYPYDGSAYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARWGYWPGEGWLGKYWGQGTLVTVSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEI</v>
       </c>
       <c r="N79" s="4">
-        <f t="shared" si="5"/>
+        <f>LEN(M79)</f>
         <v>243</v>
       </c>
       <c r="O79" s="1" t="b">
-        <f t="shared" si="4"/>
+        <f>IF(N79&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P79" s="1" t="b">
@@ -10545,15 +10907,15 @@
         <v>125</v>
       </c>
       <c r="M80" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(I80,L80,J80)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSSYGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARWEGYRGDLWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYYEWLRTFGQGTKVEIK</v>
       </c>
       <c r="N80" s="4">
-        <f t="shared" si="5"/>
+        <f>LEN(M80)</f>
         <v>240</v>
       </c>
       <c r="O80" s="1" t="b">
-        <f t="shared" si="4"/>
+        <f>IF(N80&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P80" s="1" t="b">
@@ -10610,15 +10972,15 @@
         <v>125</v>
       </c>
       <c r="M81" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(I81,L81,J81)</f>
         <v>QVQLQESGPGLVKPSQTLSLTCTVSGGSVSSGSYYWSWIRQPPGKGLEWIGYIYYSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARVDSFYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASSGSSYDNGWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYLQDSNYTPRTFGQGTKVEIK</v>
       </c>
       <c r="N81" s="4">
-        <f t="shared" si="5"/>
+        <f>LEN(M81)</f>
         <v>243</v>
       </c>
       <c r="O81" s="1" t="b">
-        <f t="shared" si="4"/>
+        <f>IF(N81&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P81" s="1" t="b">
@@ -10679,11 +11041,11 @@
         <v>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYTISWVRQAPGQGLEWMGRIIPIFGTANYAQKFQGRVTITADKSTSTAYMELSSLRSEDTAVYYCARYYDSYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQCGNSFPWTFGGGTKLEIK</v>
       </c>
       <c r="N82" s="4">
-        <f t="shared" si="5"/>
+        <f>LEN(M82)</f>
         <v>240</v>
       </c>
       <c r="O82" s="1" t="b">
-        <f t="shared" si="4"/>
+        <f>IF(N82&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P82" s="1" t="b">
@@ -10738,11 +11100,11 @@
         <v>DVQLQESGPGLVKPSQTLSLTCTVSGYSITSDYYWNWIRQFPGNKLEWMGYISYDGSSNYNPSLKNRISITRDNSKNQFFLQLNSVTTEDTATYYCARSCSRRGYAMDYWGQGTSVTVSSGGGSGGGSGGGSGGGSQIVLTQSPAIMSASLGEKVTLTCSASSSVSYMHWYQQKPGTSPKLLIYSCNLLSGVPDRFSGSGSGTDFTLSISNVETEDAATYYCYQYRIRFGGGTKLTVLQ</v>
       </c>
       <c r="N83" s="4">
-        <f t="shared" si="5"/>
+        <f>LEN(M83)</f>
         <v>239</v>
       </c>
       <c r="O83" s="1" t="b">
-        <f t="shared" si="4"/>
+        <f>IF(N83&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P83" s="1" t="b">
@@ -10797,11 +11159,11 @@
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSSISRSGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARSCSSRGYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPDSLAVSLGERATINCRASQSVSSYLAWYQQKPGQSPKLLIYSCNLQSGVPDRFSGSGSGTDFTLTISSLQPEDFATYYCQPYIRFGGGGTKLEIK</v>
       </c>
       <c r="N84" s="4">
-        <f t="shared" ref="N84:N85" si="6">LEN(M84)</f>
+        <f>LEN(M84)</f>
         <v>238</v>
       </c>
       <c r="O84" s="1" t="b">
-        <f t="shared" ref="O84:O85" si="7">IF(N84&lt;=250,TRUE,FALSE)</f>
+        <f>IF(N84&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P84" s="1" t="b">
@@ -10856,11 +11218,11 @@
         <v>QVQLQESGPGLVKPSQTLSLTCTVSGFSFSSYAMSWVRQAPGKGLEWVSSISRSGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARSCSSRGYLFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPDSLAVSLGERATINCRASQSVSSYLAWYQQKPGQSPKLLIYSCNLQSGVPDRFSGSGSGTDFTLTISSLQPEDFATYYCQPYIRFGGGGTKLEIK</v>
       </c>
       <c r="N85" s="4">
-        <f t="shared" si="6"/>
+        <f>LEN(M85)</f>
         <v>239</v>
       </c>
       <c r="O85" s="1" t="b">
-        <f t="shared" si="7"/>
+        <f>IF(N85&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P85" s="1" t="b">
@@ -10922,7 +11284,7 @@
         <v>239</v>
       </c>
       <c r="O86" s="1" t="b">
-        <f t="shared" ref="O86:O116" si="8">IF(N86&lt;=250,TRUE,FALSE)</f>
+        <f>IF(N86&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P86" s="1" t="b">
@@ -10973,15 +11335,15 @@
         <v>125</v>
       </c>
       <c r="M87" s="2" t="str">
-        <f t="shared" ref="M87:M118" si="9">_xlfn.CONCAT(I87,L87,J87)</f>
+        <f>_xlfn.CONCAT(I87,L87,J87)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASIYSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGWYSYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N87" s="4">
-        <f t="shared" ref="N87:N118" si="10">LEN(M87)</f>
+        <f>LEN(M87)</f>
         <v>240</v>
       </c>
       <c r="O87" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f>IF(N87&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P87" s="1" t="b">
@@ -11027,15 +11389,15 @@
         <v>125</v>
       </c>
       <c r="M88" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT(I88,L88,J88)</f>
         <v>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYAISWVRQAPGQGLEWMGGIIIFGTANYAQKFQGRVTITADKSTSTAYMELRSEDTAVYYCAREGTTGWDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSVSSSYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPRTFGQGTKVEIK</v>
       </c>
       <c r="N88" s="4">
-        <f t="shared" si="10"/>
+        <f>LEN(M88)</f>
         <v>237</v>
       </c>
       <c r="O88" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f>IF(N88&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P88" s="1" t="b">
@@ -11086,15 +11448,15 @@
         <v>125</v>
       </c>
       <c r="M89" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT(I89,L89,J89)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYVYYGAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N89" s="4">
-        <f t="shared" si="10"/>
+        <f>LEN(M89)</f>
         <v>242</v>
       </c>
       <c r="O89" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f>IF(N89&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P89" s="1" t="b">
@@ -11142,15 +11504,15 @@
         <v>125</v>
       </c>
       <c r="M90" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT(I90,L90,J90)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASIYSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGWVRGSSYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N90" s="4">
-        <f t="shared" si="10"/>
+        <f>LEN(M90)</f>
         <v>240</v>
       </c>
       <c r="O90" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f>IF(N90&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P90" s="1" t="b">
@@ -11201,15 +11563,15 @@
         <v>125</v>
       </c>
       <c r="M91" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT(I91,L91,J91)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASIYSYSGYTNYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGGYGGYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N91" s="4">
-        <f t="shared" si="10"/>
+        <f>LEN(M91)</f>
         <v>243</v>
       </c>
       <c r="O91" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f>IF(N91&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P91" s="1" t="b">
@@ -11255,15 +11617,15 @@
         <v>125</v>
       </c>
       <c r="M92" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT(I92,L92,J92)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASIYPYSGYTNYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGYWYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N92" s="4">
-        <f t="shared" si="10"/>
+        <f>LEN(M92)</f>
         <v>241</v>
       </c>
       <c r="O92" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f>IF(N92&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P92" s="1" t="b">
@@ -11309,15 +11671,15 @@
         <v>125</v>
       </c>
       <c r="M93" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT(I93,L93,J93)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGGYGGWYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N93" s="4">
-        <f t="shared" si="10"/>
+        <f>LEN(M93)</f>
         <v>244</v>
       </c>
       <c r="O93" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f>IF(N93&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P93" s="1" t="b">
@@ -11363,15 +11725,15 @@
         <v>125</v>
       </c>
       <c r="M94" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT(I94,L94,J94)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGYWYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N94" s="4">
-        <f t="shared" si="10"/>
+        <f>LEN(M94)</f>
         <v>241</v>
       </c>
       <c r="O94" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f>IF(N94&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P94" s="1" t="b">
@@ -11417,15 +11779,15 @@
         <v>125</v>
       </c>
       <c r="M95" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT(I95,L95,J95)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGTYYGHSYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N95" s="4">
-        <f t="shared" si="10"/>
+        <f>LEN(M95)</f>
         <v>242</v>
       </c>
       <c r="O95" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f>IF(N95&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P95" s="1" t="b">
@@ -11471,15 +11833,15 @@
         <v>125</v>
       </c>
       <c r="M96" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT(I96,L96,J96)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASIYSYSGYTNYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYWYFGYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N96" s="4">
-        <f t="shared" si="10"/>
+        <f>LEN(M96)</f>
         <v>241</v>
       </c>
       <c r="O96" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f>IF(N96&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P96" s="1" t="b">
@@ -11525,15 +11887,15 @@
         <v>125</v>
       </c>
       <c r="M97" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT(I97,L97,J97)</f>
         <v>EVQLVESGGGLVKPGGSLRLSCAASGFTFRNYAMSWVRQAPGKGLEWVSSISSKSKSTSYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARESGSFSYEGVWGQGTLVTVSSGGGSGGGSGGGSGGGSSVLTQPPSVSGAPGQRVTISCTGSSSNIGAGYDVHWYQQLPGTAPKLLIYDNNKRPSGVPDRFSGSKSGTSASLAITGLQAEDEADYYCQSYDSSLSGLVFGGGTKLTVL</v>
       </c>
       <c r="N97" s="4">
-        <f t="shared" si="10"/>
+        <f>LEN(M97)</f>
         <v>245</v>
       </c>
       <c r="O97" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f>IF(N97&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P97" s="1" t="b">
@@ -11584,15 +11946,15 @@
         <v>125</v>
       </c>
       <c r="M98" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT(I98,L98,J98)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYYSSGYTHYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARWGYWPGQVWLWFAYWGQGTLVTVSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</v>
       </c>
       <c r="N98" s="4">
-        <f t="shared" si="10"/>
+        <f>LEN(M98)</f>
         <v>245</v>
       </c>
       <c r="O98" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f>IF(N98&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P98" s="1" t="b">
@@ -11643,15 +12005,15 @@
         <v>125</v>
       </c>
       <c r="M99" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT(I99,L99,J99)</f>
         <v>QVQLVQSGAEVKKPGSSVKVSCKSSGGTSNNYAISWVRQAPGQGLEWMGGIIPILGIANYAQKFQGRVTITADKSTSTAYMELSSLRSEDTAVYYCAREDAVVDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSTLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYKASSLESGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQQYNSYPLTFGQGTKVQVK</v>
       </c>
       <c r="N99" s="4">
-        <f t="shared" si="10"/>
+        <f>LEN(M99)</f>
         <v>239</v>
       </c>
       <c r="O99" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f>IF(N99&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P99" s="1" t="b">
@@ -11702,15 +12064,15 @@
         <v>125</v>
       </c>
       <c r="M100" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT(I100,L100,J100)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARHWGYCSWFAYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N100" s="4">
-        <f t="shared" si="10"/>
+        <f>LEN(M100)</f>
         <v>242</v>
       </c>
       <c r="O100" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f>IF(N100&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P100" s="1" t="b">
@@ -11756,15 +12118,15 @@
         <v>125</v>
       </c>
       <c r="M101" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT(I101,L101,J101)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGSHYFGYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</v>
       </c>
       <c r="N101" s="4">
-        <f t="shared" si="10"/>
+        <f>LEN(M101)</f>
         <v>242</v>
       </c>
       <c r="O101" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f>IF(N101&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P101" s="1" t="b">
@@ -11810,15 +12172,15 @@
         <v>125</v>
       </c>
       <c r="M102" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT(I102,L102,J102)</f>
         <v>QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGDYYWIRQHPGKGLEWIGYIYYSGSTDYNPSLKSRVTISVDTSKNQFSLKVTAADTAVYYCARTWFGSDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGISNYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQAHSFPYTFGGGTKLEIK</v>
       </c>
       <c r="N102" s="4">
-        <f t="shared" si="10"/>
+        <f>LEN(M102)</f>
         <v>235</v>
       </c>
       <c r="O102" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f>IF(N102&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P102" s="1" t="b">
@@ -11869,15 +12231,15 @@
         <v>125</v>
       </c>
       <c r="M103" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT(I103,L103,J103)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYWMNWVRQAPGKGLEWVAFIRYDGGNKYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARWSYSGGSGSYYVYFDYWGQGTLVTVSGGGSGGGSGGGSGGGSSVLTQPPSVSGAPGQRVTISCTGSSSNIGAGYDVHWYQQLPGTAPKLLIYGNSNRPSGVPDRFSGSKSGTSASLAITGLQAEDEADYYCQSYDSSLSGSVFGGGTKLTVL</v>
       </c>
       <c r="N103" s="4">
-        <f t="shared" si="10"/>
+        <f>LEN(M103)</f>
         <v>250</v>
       </c>
       <c r="O103" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f>IF(N103&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P103" s="1" t="b">
@@ -11890,7 +12252,7 @@
         <v>45978</v>
       </c>
       <c r="U103" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="V103" s="4">
         <v>0.225609</v>
@@ -11928,15 +12290,15 @@
         <v>125</v>
       </c>
       <c r="M104" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT(I104,L104,J104)</f>
         <v>QVQLVQSGAEVKKPGASVKVSCKASGYTFTNYYIHWVRQAPGQGLEWMGWIYPGGNTNYAQKFQGRVTMTRDTSISTAYMELSRLRSDDTAVYYCARVRTEFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPSSLAMSAGAETITCRSSQSVHSNGYLNWYQQKPGQPPKLLIYWASTRESGVPDRFTGSGSGTDFTLTITNVQSEDLAEYFCQQYSSYPLTFGAGTKLELR</v>
       </c>
       <c r="N104" s="4">
-        <f t="shared" si="10"/>
+        <f>LEN(M104)</f>
         <v>239</v>
       </c>
       <c r="O104" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f>IF(N104&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P104" s="1" t="b">
@@ -11987,15 +12349,15 @@
         <v>125</v>
       </c>
       <c r="M105" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT(I105,L105,J105)</f>
         <v>QVQLQESGPGLVKPSETLSLTCTVSGGSVSSGGYFWSWIRQPPGKGLEWIGYVSGSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARWDVWISDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPATLSLSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYDASNRATGIPARFSGSGSGTDFTLTISSLEPEDFAVYYCQHSWDQPPWTFGQGTKVEIK</v>
       </c>
       <c r="N105" s="4">
-        <f t="shared" si="10"/>
+        <f>LEN(M105)</f>
         <v>242</v>
       </c>
       <c r="O105" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f>IF(N105&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P105" s="1" t="b">
@@ -12046,15 +12408,15 @@
         <v>125</v>
       </c>
       <c r="M106" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT(I106,L106,J106)</f>
         <v>QVQLQESGPGLVKPSQTLSLTCTVTGSSITSGYWNWIRQFPGNKLEWMGYISYSGTITYNPSLKSRISITRDTSKNQFFLQLNSVTTEDTATYYCARVYDGFYDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPSSLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYKASSLESGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQQYNSYPLTFGGGTKVEIK</v>
       </c>
       <c r="N106" s="4">
-        <f t="shared" si="10"/>
+        <f>LEN(M106)</f>
         <v>239</v>
       </c>
       <c r="O106" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f>IF(N106&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P106" s="1" t="b">
@@ -12105,15 +12467,15 @@
         <v>125</v>
       </c>
       <c r="M107" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT(I107,L107,J107)</f>
         <v>QVQLVESGGGVVQPGRSLRLSCAASGFTFSNYAMHWVRQAPGKGLEWVAVISYNSGNPYADSVKGRFTISRDNSKNTLYLQMRVEDTAVYYCSRTTIGYGGDIWGNMFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPATLSVSPGDRATLSCRASQSISTNLAWYQQKPGQAPRLLIYTASTLESGVPSRFSGSGSGTEFTLTISNLQSEDFATYFCQQYSAPLTFGGGTKVEIK</v>
       </c>
       <c r="N107" s="4">
-        <f t="shared" si="10"/>
+        <f>LEN(M107)</f>
         <v>243</v>
       </c>
       <c r="O107" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f>IF(N107&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P107" s="1" t="b">
@@ -12164,15 +12526,15 @@
         <v>126</v>
       </c>
       <c r="M108" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT(I108,L108,J108)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFASSSSNYVHWVRQAPGKGLEWVATIYPYSSSEYAASVQGRFTISRDDSKNTLYLQMNSLRGEDTAVYYCARYGYYSSRSGYGYYFNYWGQGTLVTVSSGGGSGGGSGGGSDIVMTQSPASLAVSLGQRATISCRASESVDSYGNSFLAWYQQKPGQPPKLLIYWASTRQSGVPARFSGSGSGTDFTLNIHPVEEEDAATYYCQQHNYPLTFGAGTKLEIK</v>
       </c>
       <c r="N108" s="4">
-        <f t="shared" si="10"/>
+        <f>LEN(M108)</f>
         <v>247</v>
       </c>
       <c r="O108" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f>IF(N108&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P108" s="1" t="b">
@@ -12223,15 +12585,15 @@
         <v>125</v>
       </c>
       <c r="M109" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT(I109,L109,J109)</f>
         <v>EVQLVESGAEVKKPGSSVKVSCKASGGPFTSYVISWVRQAPGQGLEWMGRIIPIRGTTYAQKFQGRVTITADKSTSTAYMELRSEDTAVYYCARGSHVFGYYDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSISGNYLAWYQQKPGQAPRLLIYGASIRAAGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPRTFGQGTKVEIK</v>
       </c>
       <c r="N109" s="4">
-        <f t="shared" si="10"/>
+        <f>LEN(M109)</f>
         <v>239</v>
       </c>
       <c r="O109" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f>IF(N109&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P109" s="1" t="b">
@@ -12282,15 +12644,15 @@
         <v>125</v>
       </c>
       <c r="M110" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT(I110,L110,J110)</f>
         <v>EVQLVETGGGLVQPGGSLKLSCRASGYTFTDYAMHWVRQAPLGLGLYTGGVNYARHFMKSRISITRDNSKNTLYLQMTKVDDTATYFCARRGLFDSDYWGQGTLVTVSSGGGSGGGSGGGSGGGSSVTQPPSVSGSTSVGDRVTTCRASQSISSNWLAWYQQFPGTAPKLLIYENSSRPSGVPDRFSGSGSGTDFTLKISRVEAEDVGVYYCLQALSPRFTFGSGTKLEIK</v>
       </c>
       <c r="N110" s="4">
-        <f t="shared" si="10"/>
+        <f>LEN(M110)</f>
         <v>231</v>
       </c>
       <c r="O110" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f>IF(N110&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P110" s="1" t="b">
@@ -12341,15 +12703,15 @@
         <v>125</v>
       </c>
       <c r="M111" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT(I111,L111,J111)</f>
         <v>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSNYGISWVRQAPGQGLEWMGGIIPILGIANYAQKFQGRVTITADKSTSTAYMELRSLRSDDTAVYYCAREGHAYFHNGLDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSVSSSYFAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPPATFGQGTKVEIK</v>
       </c>
       <c r="N111" s="4">
-        <f t="shared" si="10"/>
+        <f>LEN(M111)</f>
         <v>246</v>
       </c>
       <c r="O111" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f>IF(N111&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P111" s="1" t="b">
@@ -12400,15 +12762,15 @@
         <v>125</v>
       </c>
       <c r="M112" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT(I112,L112,J112)</f>
         <v>QVQLVESGGGVVQPGRSLRLSCAASGFTFSSFGMHWVRQAPGKGLEWVAIIWDGSNKYYADSVKGRFTISRDNSKNTLYLQMRAEDTAVYYCALDGGSFDDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSTLSTSVGDRVTITCRASQSISSWLAWYQQKPGKAPKLLIYKASTLESGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQHFYGTPITFGPGTKVD</v>
       </c>
       <c r="N112" s="4">
-        <f t="shared" si="10"/>
+        <f>LEN(M112)</f>
         <v>234</v>
       </c>
       <c r="O112" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f>IF(N112&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P112" s="1" t="b">
@@ -12459,15 +12821,15 @@
         <v>125</v>
       </c>
       <c r="M113" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT(I113,L113,J113)</f>
         <v>EVQLVESGGGLVKPGGSLKVSCAASGFTFSDYSMNWVRQAPGKGLEWVSSITSGYTSIYYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARVSDNFDYWGQGTAVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK</v>
       </c>
       <c r="N113" s="4">
-        <f t="shared" si="10"/>
+        <f>LEN(M113)</f>
         <v>238</v>
       </c>
       <c r="O113" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f>IF(N113&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P113" s="1" t="b">
@@ -12480,7 +12842,7 @@
         <v>45979</v>
       </c>
       <c r="U113" s="2" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="V113" s="4">
         <v>0.61102100000000004</v>
@@ -12518,15 +12880,15 @@
         <v>125</v>
       </c>
       <c r="M114" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT(I114,L114,J114)</f>
         <v>EVQLQQSGAELVKPGASVKLSCKASGYTFLDYYMYWVKQRPEQGLEWIGRIDPANGNTIYAPKFQDKATLTLTTDTTSSNTAYMQLSSLTSEDSAVYYCAREGNYGYRDLAWFAYWGQGTLVTVSSGGGSGGGSGGGSGGGSAIRMTQSPSSLSASVGDTVTITCRASQSISSYLNWYQQKPGKAPKLLIYTASNLESGVPSRFSGSGSGTDYTLTISSLQPEDIATYYCQQYDNPPLTFGGGTKVEIK</v>
       </c>
       <c r="N114" s="4">
-        <f t="shared" si="10"/>
+        <f>LEN(M114)</f>
         <v>249</v>
       </c>
       <c r="O114" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f>IF(N114&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P114" s="1" t="b">
@@ -12539,7 +12901,7 @@
         <v>45979</v>
       </c>
       <c r="U114" s="2" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="V114" s="4">
         <v>8.9335999999999999E-2</v>
@@ -12577,15 +12939,15 @@
         <v>125</v>
       </c>
       <c r="M115" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT(I115,L115,J115)</f>
         <v>QVQLQESGPGLVKPSETLSLTCTVSGGSVSSGGYFWSWIRQRPGKGLEWIGHIYYSGTTNYNPSLRSRVTISRDTSKSQFSLKMDSLTSEDTALYYCARQLGLRFDIWGQGTMVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYTTPPTFGQGTKVEIK</v>
       </c>
       <c r="N115" s="4">
-        <f t="shared" si="10"/>
+        <f>LEN(M115)</f>
         <v>241</v>
       </c>
       <c r="O115" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f>IF(N115&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P115" s="1" t="b">
@@ -12598,7 +12960,7 @@
         <v>45979</v>
       </c>
       <c r="U115" s="2" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="V115" s="4">
         <v>5.3220000000000003E-3</v>
@@ -12636,15 +12998,15 @@
         <v>125</v>
       </c>
       <c r="M116" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT(I116,L116,J116)</f>
         <v>QVQLVESGGGLVQPGGSLRLSCAASGFNLYSSSIHWVRQAPGKGLEWVARIYPSGATYYADSVKGRFTISADTSKNTAYLQMRAEDTAVYYCARSYYGDDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASFLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYSYYPFTFGQGTKVEIK</v>
       </c>
       <c r="N116" s="4">
-        <f t="shared" si="10"/>
+        <f>LEN(M116)</f>
         <v>235</v>
       </c>
       <c r="O116" s="1" t="b">
-        <f t="shared" si="8"/>
+        <f>IF(N116&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P116" s="1" t="b">
@@ -12657,7 +13019,7 @@
         <v>45979</v>
       </c>
       <c r="U116" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="V116" s="4">
         <v>0</v>
@@ -12698,15 +13060,15 @@
         <v>125</v>
       </c>
       <c r="M117" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT(I117,L117,J117)</f>
         <v>EVQLLESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSYISSSSSTIYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCAKYSSYDYDYWGRGTMVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISSYLNWYQQKPGKAPKLLIYDASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQFYEWLRTFGQGTRLEIK</v>
       </c>
       <c r="N117" s="4">
-        <f t="shared" si="10"/>
+        <f>LEN(M117)</f>
         <v>240</v>
       </c>
       <c r="O117" s="1" t="b">
-        <f t="shared" ref="O117:O118" si="11">IF(N117&lt;=250,TRUE,FALSE)</f>
+        <f>IF(N117&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P117" s="1" t="b">
@@ -12719,7 +13081,7 @@
         <v>45979</v>
       </c>
       <c r="U117" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="V117" s="4">
         <v>0.1542</v>
@@ -12760,15 +13122,15 @@
         <v>126</v>
       </c>
       <c r="M118" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT(I118,L118,J118)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFATVSSNYMSWVRQAPGKGLEWVSVIYSCGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARYYYDSSRSGYYYYFDYWGQGTLVTVSSGGGSGGGSGGGSDIVLTQSPASLAVSLGQRATISCKASQSVDYDGDSYMHWYQQKPGQPPKLLIYRASNLESGIPARFSGSGSRTDFTLTINPVEADDVATYYCQQSNYPLTFGSGTKVEIK</v>
       </c>
       <c r="N118" s="4">
-        <f t="shared" si="10"/>
+        <f>LEN(M118)</f>
         <v>247</v>
       </c>
       <c r="O118" s="1" t="b">
-        <f t="shared" si="11"/>
+        <f>IF(N118&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P118" s="1" t="b">
@@ -12781,10 +13143,540 @@
         <v>45979</v>
       </c>
       <c r="U118" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="V118" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D119" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K119" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M119" s="2" t="str">
+        <f t="shared" ref="M119:M128" si="0">_xlfn.CONCAT(I119,L119,J119)</f>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISDSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGRDLFGLDALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+      </c>
+      <c r="N119" s="4">
+        <f t="shared" ref="N119:N128" si="1">LEN(M119)</f>
+        <v>241</v>
+      </c>
+      <c r="O119" s="1" t="b">
+        <f t="shared" ref="O119:O128" si="2">IF(N119&lt;=250,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P119" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T119" s="10">
+        <v>45982</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D120" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K120" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L120" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M120" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGLTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGYYLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+      </c>
+      <c r="N120" s="4">
+        <f t="shared" si="1"/>
+        <v>241</v>
+      </c>
+      <c r="O120" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P120" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T120" s="10">
+        <v>45982</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D121" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K121" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M121" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGATYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGNHLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+      </c>
+      <c r="N121" s="4">
+        <f t="shared" si="1"/>
+        <v>241</v>
+      </c>
+      <c r="O121" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P121" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T121" s="10">
+        <v>45982</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="V118" s="4">
-        <v>0</v>
+      <c r="B122" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D122" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K122" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M122" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGRYLDGLFALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+      </c>
+      <c r="N122" s="4">
+        <f t="shared" si="1"/>
+        <v>241</v>
+      </c>
+      <c r="O122" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P122" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q122" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T122" s="10">
+        <v>45982</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D123" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K123" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M123" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGSLLRGLSALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+      </c>
+      <c r="N123" s="4">
+        <f t="shared" si="1"/>
+        <v>241</v>
+      </c>
+      <c r="O123" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P123" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q123" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T123" s="10">
+        <v>45982</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D124" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K124" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M124" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISDSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGRYLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+      </c>
+      <c r="N124" s="4">
+        <f t="shared" si="1"/>
+        <v>241</v>
+      </c>
+      <c r="O124" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P124" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T124" s="10">
+        <v>45982</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D125" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K125" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M125" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGSYLDGLSALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+      </c>
+      <c r="N125" s="4">
+        <f t="shared" si="1"/>
+        <v>241</v>
+      </c>
+      <c r="O125" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P125" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q125" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T125" s="10">
+        <v>45982</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D126" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K126" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M126" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISDSSIHWVRQAPGKGLEWVASIYNYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGYYLDGLDALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+      </c>
+      <c r="N126" s="4">
+        <f t="shared" si="1"/>
+        <v>241</v>
+      </c>
+      <c r="O126" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P126" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q126" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T126" s="10">
+        <v>45982</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D127" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K127" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M127" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISDYSIHWVRQAPGKGLEWVASIYNRSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGYYLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+      </c>
+      <c r="N127" s="4">
+        <f t="shared" si="1"/>
+        <v>241</v>
+      </c>
+      <c r="O127" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P127" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q127" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T127" s="10">
+        <v>45982</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D128" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K128" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M128" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGHDLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+      </c>
+      <c r="N128" s="4">
+        <f t="shared" si="1"/>
+        <v>241</v>
+      </c>
+      <c r="O128" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P128" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T128" s="10">
+        <v>45982</v>
       </c>
     </row>
   </sheetData>
@@ -12801,12 +13693,12 @@
       <formula>LEN(TRIM(K1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O118">
+  <conditionalFormatting sqref="O2:O128">
     <cfRule type="containsBlanks" dxfId="17" priority="11">
       <formula>LEN(TRIM(O2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O84:Q118">
+  <conditionalFormatting sqref="O84:Q128">
     <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -13313,14 +14205,14 @@
   <dimension ref="A2:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:A34"/>
+      <selection activeCell="A29" sqref="A29:A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="249.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="255.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
@@ -13330,133 +14222,177 @@
         <v>98</v>
       </c>
       <c r="B2" s="9">
-        <v>45979</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>422</v>
+        <v>516</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>526</v>
       </c>
       <c r="C4" t="s">
-        <v>508</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>423</v>
+        <v>517</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>526</v>
       </c>
       <c r="C5" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>424</v>
+        <v>518</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>526</v>
       </c>
       <c r="C6" t="s">
-        <v>510</v>
+        <v>539</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>425</v>
+        <v>519</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>526</v>
       </c>
       <c r="C7" t="s">
-        <v>511</v>
+        <v>540</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="B8" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="C8" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="B9" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="C9" t="s">
-        <v>513</v>
+        <v>542</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>522</v>
+      </c>
+      <c r="B10" t="s">
+        <v>526</v>
+      </c>
+      <c r="C10" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>523</v>
+      </c>
+      <c r="B11" t="s">
+        <v>526</v>
+      </c>
+      <c r="C11" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>524</v>
+      </c>
+      <c r="B12" t="s">
+        <v>526</v>
+      </c>
+      <c r="C12" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>525</v>
+      </c>
+      <c r="B13" t="s">
+        <v>526</v>
+      </c>
+      <c r="C13" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>_xlfn.CONCAT("&gt;",A4,"\n",C4)</f>
-        <v>&gt;sbio-nipahgpg-114\nEVQLVESGGGLVKPGGSLKVSCAASGFTFSDYSMNWVRQAPGKGLEWVSSITSGYTSIYYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARVSDNFDYWGQGTAVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK</v>
+        <v>&gt;sbio-nipahgpg-120\nEVQLVESGGGLVQPGGSLRLSCAASGFNISDSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGRDLFGLDALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" ref="A30:A38" si="0">_xlfn.CONCAT("&gt;",A5,"\n",C5)</f>
-        <v>&gt;sbio-nipahgpg-115\nEVQLQQSGAELVKPGASVKLSCKASGYTFLDYYMYWVKQRPEQGLEWIGRIDPANGNTIYAPKFQDKATLTLTTDTTSSNTAYMQLSSLTSEDSAVYYCAREGNYGYRDLAWFAYWGQGTLVTVSSGGGSGGGSGGGSGGGSAIRMTQSPSSLSASVGDTVTITCRASQSISSYLNWYQQKPGKAPKLLIYTASNLESGVPSRFSGSGSGTDYTLTISSLQPEDIATYYCQQYDNPPLTFGGGTKVEIK</v>
+        <v>&gt;sbio-nipahgpg-121\nEVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGLTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGYYLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-116\nQVQLQESGPGLVKPSETLSLTCTVSGGSVSSGGYFWSWIRQRPGKGLEWIGHIYYSGTTNYNPSLRSRVTISRDTSKSQFSLKMDSLTSEDTALYYCARQLGLRFDIWGQGTMVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYTTPPTFGQGTKVEIK</v>
+        <v>&gt;sbio-nipahgpg-122\nEVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGATYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGNHLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-117\nQVQLVESGGGLVQPGGSLRLSCAASGFNLYSSSIHWVRQAPGKGLEWVARIYPSGATYYADSVKGRFTISADTSKNTAYLQMRAEDTAVYYCARSYYGDDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASFLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYSYYPFTFGQGTKVEIK</v>
+        <v>&gt;sbio-nipahgpg-123\nEVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGRYLDGLFALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-118\nEVQLLESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSYISSSSSTIYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCAKYSSYDYDYWGRGTMVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISSYLNWYQQKPGKAPKLLIYDASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQFYEWLRTFGQGTRLEIK</v>
+        <v>&gt;sbio-nipahgpg-124\nEVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGSLLRGLSALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-119\nEVQLVESGGGLVQPGGSLRLSCAASGFATVSSNYMSWVRQAPGKGLEWVSVIYSCGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARYYYDSSRSGYYYYFDYWGQGTLVTVSSGGGSGGGSGGGSDIVLTQSPASLAVSLGQRATISCKASQSVDYDGDSYMHWYQQKPGQPPKLLIYRASNLESGIPARFSGSGSRTDFTLTINPVEADDVATYYCQQSNYPLTFGSGTKVEIK</v>
+        <v>&gt;sbio-nipahgpg-125\nEVQLVESGGGLVQPGGSLRLSCAASGFNISDSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGRYLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;\n</v>
+        <v>&gt;sbio-nipahgpg-126\nEVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGSYLDGLSALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;\n</v>
+        <v>&gt;sbio-nipahgpg-127\nEVQLVESGGGLVQPGGSLRLSCAASGFNISDSSIHWVRQAPGKGLEWVASIYNYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGYYLDGLDALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;\n</v>
+        <v>&gt;sbio-nipahgpg-128\nEVQLVESGGGLVQPGGSLRLSCAASGFNISDYSIHWVRQAPGKGLEWVASIYNRSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGYYLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;\n</v>
+        <v>&gt;sbio-nipahgpg-129\nEVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGHDLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
     </row>
   </sheetData>

--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/Nipah_gpG_Fv_Generation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BA5D2B-DFB4-534B-8D45-34C2BB232395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C3F5D3-ED09-264A-AE39-F2F14E4401A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,12 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Antibody Candidates'!$A$1:$V$118</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Antibody Candidates'!$V$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Antibody Candidates'!$V$2:$V$128</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Antibody Candidates'!$V$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Antibody Candidates'!$V$2:$V$128</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Antibody Candidates'!$V$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Antibody Candidates'!$V$2:$V$128</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -43,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="557">
   <si>
     <t>antigen_id</t>
   </si>
@@ -1684,6 +1690,36 @@
   </si>
   <si>
     <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGHDLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>silent-wolf-ember</t>
+  </si>
+  <si>
+    <t>lunar-ox-vine</t>
+  </si>
+  <si>
+    <t>bright-crow-wave</t>
+  </si>
+  <si>
+    <t>frozen-bee-crystal</t>
+  </si>
+  <si>
+    <t>young-bee-orchid</t>
+  </si>
+  <si>
+    <t>wild-boar-quartz</t>
+  </si>
+  <si>
+    <t>steady-hawk-pine</t>
+  </si>
+  <si>
+    <t>wild-shark-clay</t>
+  </si>
+  <si>
+    <t>hollow-orca-rose</t>
+  </si>
+  <si>
+    <t>dark-quail-thorn</t>
   </si>
 </sst>
 </file>
@@ -5840,10 +5876,10 @@
   <dimension ref="A1:V128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K116" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M121" sqref="M121"/>
+      <selection pane="bottomRight" activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13201,6 +13237,12 @@
       <c r="T119" s="10">
         <v>45982</v>
       </c>
+      <c r="U119" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="V119" s="4">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="120" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
@@ -13254,6 +13296,12 @@
       <c r="T120" s="10">
         <v>45982</v>
       </c>
+      <c r="U120" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="V120" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="121" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
@@ -13307,6 +13355,12 @@
       <c r="T121" s="10">
         <v>45982</v>
       </c>
+      <c r="U121" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="V121" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="122" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
@@ -13360,6 +13414,12 @@
       <c r="T122" s="10">
         <v>45982</v>
       </c>
+      <c r="U122" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="V122" s="4">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="123" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
@@ -13413,6 +13473,12 @@
       <c r="T123" s="10">
         <v>45982</v>
       </c>
+      <c r="U123" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="V123" s="4">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="124" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
@@ -13466,6 +13532,12 @@
       <c r="T124" s="10">
         <v>45982</v>
       </c>
+      <c r="U124" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="V124" s="4">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="125" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
@@ -13519,6 +13591,12 @@
       <c r="T125" s="10">
         <v>45982</v>
       </c>
+      <c r="U125" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="V125" s="4">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="126" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
@@ -13572,6 +13650,12 @@
       <c r="T126" s="10">
         <v>45982</v>
       </c>
+      <c r="U126" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="V126" s="4">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="127" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
@@ -13625,6 +13709,12 @@
       <c r="T127" s="10">
         <v>45982</v>
       </c>
+      <c r="U127" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="V127" s="4">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="128" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
@@ -13677,6 +13767,12 @@
       </c>
       <c r="T128" s="10">
         <v>45982</v>
+      </c>
+      <c r="U128" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="V128" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/Nipah_gpG_Fv_Generation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C3F5D3-ED09-264A-AE39-F2F14E4401A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E423875A-0961-9941-A230-C954A6166070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="111" r:id="rId6"/>
+    <pivotCache cacheId="118" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="573">
   <si>
     <t>antigen_id</t>
   </si>
@@ -1662,36 +1662,6 @@
     <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGHDLDGLYALDYWGQGTLVTVSS</t>
   </si>
   <si>
-    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISDSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGRDLFGLDALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGLTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGYYLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGATYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGNHLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGRYLDGLFALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGSLLRGLSALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISDSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGRYLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGSYLDGLSALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISDSSIHWVRQAPGKGLEWVASIYNYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGYYLDGLDALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISDYSIHWVRQAPGKGLEWVASIYNRSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGYYLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
-  </si>
-  <si>
-    <t>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGHDLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</t>
-  </si>
-  <si>
     <t>silent-wolf-ember</t>
   </si>
   <si>
@@ -1720,6 +1690,84 @@
   </si>
   <si>
     <t>dark-quail-thorn</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-130</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-131</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-132</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-133</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-134</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-135</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-136</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-137</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-138</t>
+  </si>
+  <si>
+    <t>sbio-nipahgpg-139</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYAMHWVRQAPGKGLEWVSYIWSGADSIGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSS</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYSMHWVRQAPGKGLEWVSSIWSGADSTGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSS</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYAMHWVRQAPGKGLEWVSRIWSGADSTGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSS</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYAMHWVRQAPGKGLEWVSYIWSGADSIGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARYDDAFDYWGQGTAVTVSS</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYSMHWVRQAPGKGLEWVSRIWSGTDSIGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSS</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYAMHWVRQAPGKGLEWVSYIWSGVDSIGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSS</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVKPGGSLKVSCAASGFTFSSFAMHWVRQAPGKGLEWVSYIWSGADSTGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSS</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYSMVWVRQAPGKGLEWVSRIWSGVDSTGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSS</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYAMHWVRQAPGKGLEWVSYIWSGADSIGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYSMHWVRQAPGKGLEWVSSIWSGADSTGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYAMHWVRQAPGKGLEWVSRIWSGADSTGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYAMHWVRQAPGKGLEWVSYIWSGADSIGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARYDDAFDYWGQGTAVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYSMHWVRQAPGKGLEWVSRIWSGTDSIGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYAMHWVRQAPGKGLEWVSYIWSGVDSIGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVKPGGSLKVSCAASGFTFSSFAMHWVRQAPGKGLEWVSYIWSGADSTGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK</t>
+  </si>
+  <si>
+    <t>EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYSMVWVRQAPGKGLEWVSRIWSGVDSTGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK</t>
   </si>
 </sst>
 </file>
@@ -1819,7 +1867,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1981,13 +2043,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Colby Ford" refreshedDate="45982.908866782411" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="128" xr:uid="{C69715DE-2A16-4198-9FD9-FAE4F60B2265}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Colby Ford" refreshedDate="45984.413934027776" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="149" xr:uid="{C69715DE-2A16-4198-9FD9-FAE4F60B2265}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:T2970" sheet="Antibody Candidates"/>
   </cacheSource>
   <cacheFields count="20">
     <cacheField name="antibody_id" numFmtId="0">
-      <sharedItems containsBlank="1" count="128">
+      <sharedItems containsBlank="1" count="149">
         <s v="sbio-nipahgpg-001"/>
         <s v="sbio-nipahgpg-002"/>
         <s v="sbio-nipahgpg-003"/>
@@ -2115,6 +2177,27 @@
         <s v="sbio-nipahgpg-127"/>
         <s v="sbio-nipahgpg-128"/>
         <s v="sbio-nipahgpg-129"/>
+        <s v="sbio-nipahgpg-130"/>
+        <s v="sbio-nipahgpg-131"/>
+        <s v="sbio-nipahgpg-132"/>
+        <s v="sbio-nipahgpg-133"/>
+        <s v="sbio-nipahgpg-134"/>
+        <s v="sbio-nipahgpg-135"/>
+        <s v="sbio-nipahgpg-136"/>
+        <s v="sbio-nipahgpg-137"/>
+        <s v="sbio-nipahgpg-138"/>
+        <s v="sbio-nipahgpg-139"/>
+        <s v="sbio-nipahgpg-140"/>
+        <s v="sbio-nipahgpg-141"/>
+        <s v="sbio-nipahgpg-142"/>
+        <s v="sbio-nipahgpg-143"/>
+        <s v="sbio-nipahgpg-144"/>
+        <s v="sbio-nipahgpg-145"/>
+        <s v="sbio-nipahgpg-146"/>
+        <s v="sbio-nipahgpg-147"/>
+        <s v="sbio-nipahgpg-148"/>
+        <s v="sbio-nipahgpg-149"/>
+        <s v="sbio-nipahgpg-150"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -2164,7 +2247,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="franken_chain" numFmtId="0">
-      <sharedItems containsBlank="1" count="128">
+      <sharedItems containsBlank="1" count="136">
         <s v="QVQLVESGGGVVQPGRSLRLSCAASGFTFSSYGMHWVRQAPGKGLEWVAVISYDGSKKYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARSPFYDSSGYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISSYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQANSFPPTFGQGTKVEIK"/>
         <s v="QVQLVESGGGVVQPGKSLRLSCAASGFTFSSYAMSWVRQAPGKGPEWVAFISYDGSNNYYADSVKGRFTISRDNPKNTLYLQMKSLRAEDTAVYYCARWRQRFDMYWGRGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK"/>
         <s v="QVQLQESGPGLVKPSETLSLTCTVSGASIRGYYWSWIRQFPGKELEWIGYVYSGSTENYNPSLKSRVTVTLTDTKNSFSLKLNSVTSEDTAVYYCARGGALIYYDVWGTGTTVTVSSGGGSGGGSGGGSGGGSDIQVTQSPVSLSASVGDRVTITCRASQGIDSLNWFQQRPGKAPKLLIYAASQLTGIAPRFRSGSGSGTDFTLTISSLQPEDFATYYCQQYNIYPATFGQGTKVEIK"/>
@@ -2292,6 +2375,14 @@
         <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISDSSIHWVRQAPGKGLEWVASIYNYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGYYLDGLDALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
         <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISDYSIHWVRQAPGKGLEWVASIYNRSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGYYLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
         <s v="EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGHDLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK"/>
+        <s v="EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYAMHWVRQAPGKGLEWVSYIWSGADSIGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK"/>
+        <s v="EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYSMHWVRQAPGKGLEWVSSIWSGADSTGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK"/>
+        <s v="EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYAMHWVRQAPGKGLEWVSRIWSGADSTGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK"/>
+        <s v="EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYAMHWVRQAPGKGLEWVSYIWSGADSIGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARYDDAFDYWGQGTAVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK"/>
+        <s v="EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYSMHWVRQAPGKGLEWVSRIWSGTDSIGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK"/>
+        <s v="EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYAMHWVRQAPGKGLEWVSYIWSGVDSIGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK"/>
+        <s v="EVQLVESGGGLVKPGGSLKVSCAASGFTFSSFAMHWVRQAPGKGLEWVSYIWSGADSTGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK"/>
+        <s v="EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYSMVWVRQAPGKGLEWVSRIWSGVDSTGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -2314,7 +2405,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="0.69121100000000002"/>
     </cacheField>
     <cacheField name="submitted_to_comp" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-11-12T00:00:00" maxDate="2025-11-22T00:00:00" count="15">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-11-12T00:00:00" maxDate="2025-11-24T00:00:00" count="17">
         <d v="2025-11-07T00:00:00"/>
         <d v="2025-11-08T00:00:00"/>
         <d v="2025-11-09T00:00:00"/>
@@ -2327,7 +2418,9 @@
         <d v="2025-11-16T00:00:00"/>
         <d v="2025-11-17T00:00:00"/>
         <d v="2025-11-18T00:00:00"/>
-        <d v="2025-11-21T00:00:00"/>
+        <d v="2025-11-22T00:00:00"/>
+        <d v="2025-11-23T00:00:00"/>
+        <d v="2025-11-21T00:00:00" u="1"/>
         <d v="2025-11-14T00:00:00" u="1"/>
         <d v="2023-11-12T00:00:00" u="1"/>
       </sharedItems>
@@ -2342,7 +2435,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="128">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="149">
   <r>
     <x v="0"/>
     <s v="peleke-1"/>
@@ -4922,7 +5015,7 @@
     <s v="peleke-1 + AntiBMPNN"/>
     <x v="9"/>
     <n v="0.2"/>
-    <m/>
+    <s v="derivative"/>
     <s v="sbio-nipahgpg-055"/>
     <s v="nipah_gpG_compout"/>
     <m/>
@@ -4944,7 +5037,7 @@
     <s v="peleke-1 + AntiBMPNN"/>
     <x v="9"/>
     <n v="0.2"/>
-    <m/>
+    <s v="derivative"/>
     <s v="sbio-nipahgpg-055"/>
     <s v="nipah_gpG_compout"/>
     <m/>
@@ -4966,7 +5059,7 @@
     <s v="peleke-1 + AntiBMPNN"/>
     <x v="9"/>
     <n v="0.2"/>
-    <m/>
+    <s v="derivative"/>
     <s v="sbio-nipahgpg-055"/>
     <s v="nipah_gpG_compout"/>
     <m/>
@@ -4988,7 +5081,7 @@
     <s v="peleke-1 + AntiBMPNN"/>
     <x v="9"/>
     <n v="0.2"/>
-    <m/>
+    <s v="derivative"/>
     <s v="sbio-nipahgpg-055"/>
     <s v="nipah_gpG_compout"/>
     <m/>
@@ -5010,7 +5103,7 @@
     <s v="peleke-1 + AntiBMPNN"/>
     <x v="9"/>
     <n v="0.2"/>
-    <m/>
+    <s v="derivative"/>
     <s v="sbio-nipahgpg-055"/>
     <s v="nipah_gpG_compout"/>
     <m/>
@@ -5032,7 +5125,7 @@
     <s v="peleke-1 + AntiBMPNN"/>
     <x v="9"/>
     <n v="0.2"/>
-    <m/>
+    <s v="derivative"/>
     <s v="sbio-nipahgpg-055"/>
     <s v="nipah_gpG_compout"/>
     <m/>
@@ -5054,7 +5147,7 @@
     <s v="peleke-1 + AntiBMPNN"/>
     <x v="9"/>
     <n v="0.2"/>
-    <m/>
+    <s v="derivative"/>
     <s v="sbio-nipahgpg-055"/>
     <s v="nipah_gpG_compout"/>
     <m/>
@@ -5076,7 +5169,7 @@
     <s v="peleke-1 + AntiBMPNN"/>
     <x v="9"/>
     <n v="0.2"/>
-    <m/>
+    <s v="derivative"/>
     <s v="sbio-nipahgpg-055"/>
     <s v="nipah_gpG_compout"/>
     <m/>
@@ -5098,7 +5191,7 @@
     <s v="peleke-1 + AntiBMPNN"/>
     <x v="9"/>
     <n v="0.2"/>
-    <m/>
+    <s v="derivative"/>
     <s v="sbio-nipahgpg-055"/>
     <s v="nipah_gpG_compout"/>
     <m/>
@@ -5120,7 +5213,7 @@
     <s v="peleke-1 + AntiBMPNN"/>
     <x v="9"/>
     <n v="0.2"/>
-    <m/>
+    <s v="derivative"/>
     <s v="sbio-nipahgpg-055"/>
     <s v="nipah_gpG_compout"/>
     <m/>
@@ -5139,6 +5232,226 @@
   </r>
   <r>
     <x v="127"/>
+    <s v="peleke-1 + AntiBMPNN"/>
+    <x v="9"/>
+    <n v="0.2"/>
+    <s v="derivative"/>
+    <s v="sbio-nipahgpg-114"/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYAMHWVRQAPGKGLEWVSYIWSGADSIGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGS"/>
+    <x v="127"/>
+    <n v="234"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="128"/>
+    <s v="peleke-1 + AntiBMPNN"/>
+    <x v="9"/>
+    <n v="0.2"/>
+    <s v="derivative"/>
+    <s v="sbio-nipahgpg-114"/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYSMHWVRQAPGKGLEWVSSIWSGADSTGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGS"/>
+    <x v="128"/>
+    <n v="234"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="129"/>
+    <s v="peleke-1 + AntiBMPNN"/>
+    <x v="9"/>
+    <n v="0.2"/>
+    <s v="derivative"/>
+    <s v="sbio-nipahgpg-114"/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYAMHWVRQAPGKGLEWVSRIWSGADSTGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGS"/>
+    <x v="129"/>
+    <n v="234"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="130"/>
+    <s v="peleke-1 + AntiBMPNN"/>
+    <x v="9"/>
+    <n v="0.2"/>
+    <s v="derivative"/>
+    <s v="sbio-nipahgpg-114"/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYAMHWVRQAPGKGLEWVSYIWSGADSIGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARYDDAFDYWGQGTAVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGS"/>
+    <x v="130"/>
+    <n v="234"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="131"/>
+    <s v="peleke-1 + AntiBMPNN"/>
+    <x v="9"/>
+    <n v="0.2"/>
+    <s v="derivative"/>
+    <s v="sbio-nipahgpg-114"/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYSMHWVRQAPGKGLEWVSRIWSGTDSIGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGS"/>
+    <x v="131"/>
+    <n v="234"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="132"/>
+    <s v="peleke-1 + AntiBMPNN"/>
+    <x v="9"/>
+    <n v="0.2"/>
+    <s v="derivative"/>
+    <s v="sbio-nipahgpg-114"/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYAMHWVRQAPGKGLEWVSYIWSGVDSIGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGS"/>
+    <x v="132"/>
+    <n v="234"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="133"/>
+    <s v="peleke-1 + AntiBMPNN"/>
+    <x v="9"/>
+    <n v="0.2"/>
+    <s v="derivative"/>
+    <s v="sbio-nipahgpg-114"/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVKPGGSLKVSCAASGFTFSSFAMHWVRQAPGKGLEWVSYIWSGADSTGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGS"/>
+    <x v="133"/>
+    <n v="234"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="134"/>
+    <s v="peleke-1 + AntiBMPNN"/>
+    <x v="9"/>
+    <n v="0.2"/>
+    <s v="derivative"/>
+    <s v="sbio-nipahgpg-114"/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYAMHWVRQAPGKGLEWVSYIWSGADSIGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARYDDAFDYWGQGTAVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGS"/>
+    <x v="130"/>
+    <n v="234"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="135"/>
+    <s v="peleke-1 + AntiBMPNN"/>
+    <x v="9"/>
+    <n v="0.2"/>
+    <s v="derivative"/>
+    <s v="sbio-nipahgpg-114"/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYAMHWVRQAPGKGLEWVSYIWSGVDSIGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGS"/>
+    <x v="132"/>
+    <n v="234"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="136"/>
+    <s v="peleke-1 + AntiBMPNN"/>
+    <x v="9"/>
+    <n v="0.2"/>
+    <s v="derivative"/>
+    <s v="sbio-nipahgpg-114"/>
+    <s v="nipah_gpG_compout"/>
+    <m/>
+    <s v="EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYSMVWVRQAPGKGLEWVSRIWSGVDSTGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSS"/>
+    <s v="DIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK"/>
+    <b v="1"/>
+    <s v="GGGSGGGSGGGS"/>
+    <x v="134"/>
+    <n v="234"/>
+    <b v="1"/>
+    <b v="0"/>
+    <b v="0"/>
+    <m/>
+    <m/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="137"/>
     <m/>
     <x v="10"/>
     <m/>
@@ -5150,7 +5463,249 @@
     <m/>
     <m/>
     <m/>
-    <x v="127"/>
+    <x v="135"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="138"/>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="135"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="139"/>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="135"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="135"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="141"/>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="135"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="142"/>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="135"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="143"/>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="135"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="144"/>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="135"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="145"/>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="135"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="146"/>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="135"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="147"/>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="135"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="148"/>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="135"/>
     <m/>
     <m/>
     <m/>
@@ -5163,11 +5718,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{135D55CA-26D1-4FA2-9199-54D547F2C103}" name="PivotTable1" cacheId="111" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{135D55CA-26D1-4FA2-9199-54D547F2C103}" name="PivotTable1" cacheId="118" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:C13" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="128">
+      <items count="149">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -5217,7 +5772,7 @@
         <item x="46"/>
         <item x="47"/>
         <item x="48"/>
-        <item x="127"/>
+        <item x="148"/>
         <item x="49"/>
         <item x="50"/>
         <item x="51"/>
@@ -5296,6 +5851,27 @@
         <item x="124"/>
         <item x="125"/>
         <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -5324,7 +5900,7 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="128">
+      <items count="136">
         <item x="19"/>
         <item x="15"/>
         <item x="23"/>
@@ -5374,7 +5950,7 @@
         <item x="46"/>
         <item x="47"/>
         <item x="48"/>
-        <item x="127"/>
+        <item x="135"/>
         <item x="49"/>
         <item x="50"/>
         <item x="51"/>
@@ -5453,6 +6029,14 @@
         <item x="124"/>
         <item x="125"/>
         <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -5462,7 +6046,7 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
-      <items count="15">
+      <items count="17">
         <item h="1" x="8"/>
         <item h="1" x="0"/>
         <item h="1" x="1"/>
@@ -5470,14 +6054,16 @@
         <item h="1" x="3"/>
         <item h="1" x="4"/>
         <item h="1" x="5"/>
-        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="16"/>
         <item h="1" x="6"/>
-        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="15"/>
         <item h="1" x="7"/>
         <item h="1" x="9"/>
         <item h="1" x="10"/>
         <item h="1" x="11"/>
-        <item x="12"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" x="12"/>
+        <item x="13"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -5488,54 +6074,54 @@
   </rowFields>
   <rowItems count="10">
     <i>
-      <x v="118"/>
+      <x v="128"/>
       <x v="10"/>
-      <x v="118"/>
+      <x v="128"/>
     </i>
     <i>
-      <x v="119"/>
+      <x v="129"/>
       <x v="10"/>
-      <x v="119"/>
+      <x v="129"/>
     </i>
     <i>
-      <x v="120"/>
+      <x v="130"/>
       <x v="10"/>
-      <x v="120"/>
+      <x v="130"/>
     </i>
     <i>
-      <x v="121"/>
+      <x v="131"/>
       <x v="10"/>
-      <x v="121"/>
+      <x v="131"/>
     </i>
     <i>
-      <x v="122"/>
+      <x v="132"/>
       <x v="10"/>
-      <x v="122"/>
+      <x v="132"/>
     </i>
     <i>
-      <x v="123"/>
+      <x v="133"/>
       <x v="10"/>
-      <x v="123"/>
+      <x v="133"/>
     </i>
     <i>
-      <x v="124"/>
+      <x v="134"/>
       <x v="10"/>
-      <x v="124"/>
+      <x v="134"/>
     </i>
     <i>
-      <x v="125"/>
+      <x v="135"/>
       <x v="10"/>
-      <x v="125"/>
+      <x v="131"/>
     </i>
     <i>
-      <x v="126"/>
+      <x v="136"/>
       <x v="10"/>
-      <x v="126"/>
+      <x v="133"/>
     </i>
     <i>
-      <x v="127"/>
+      <x v="137"/>
       <x v="10"/>
-      <x v="127"/>
+      <x v="135"/>
     </i>
   </rowItems>
   <colItems count="1">
@@ -5873,13 +6459,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V128"/>
+  <dimension ref="A1:V138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B133" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C130" sqref="C130"/>
+      <selection pane="bottomRight" activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13198,6 +13784,9 @@
       <c r="D119" s="4">
         <v>0.2</v>
       </c>
+      <c r="E119" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F119" s="1" t="s">
         <v>266</v>
       </c>
@@ -13217,15 +13806,15 @@
         <v>126</v>
       </c>
       <c r="M119" s="2" t="str">
-        <f t="shared" ref="M119:M128" si="0">_xlfn.CONCAT(I119,L119,J119)</f>
+        <f>_xlfn.CONCAT(I119,L119,J119)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISDSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGRDLFGLDALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N119" s="4">
-        <f t="shared" ref="N119:N128" si="1">LEN(M119)</f>
+        <f>LEN(M119)</f>
         <v>241</v>
       </c>
       <c r="O119" s="1" t="b">
-        <f t="shared" ref="O119:O128" si="2">IF(N119&lt;=250,TRUE,FALSE)</f>
+        <f>IF(N119&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P119" s="1" t="b">
@@ -13235,10 +13824,10 @@
         <v>0</v>
       </c>
       <c r="T119" s="10">
-        <v>45982</v>
+        <v>45983</v>
       </c>
       <c r="U119" s="2" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="V119" s="4">
         <v>0.69</v>
@@ -13257,6 +13846,9 @@
       <c r="D120" s="4">
         <v>0.2</v>
       </c>
+      <c r="E120" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F120" s="1" t="s">
         <v>266</v>
       </c>
@@ -13276,15 +13868,15 @@
         <v>126</v>
       </c>
       <c r="M120" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I120,L120,J120)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGLTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGYYLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N120" s="4">
-        <f t="shared" si="1"/>
+        <f>LEN(M120)</f>
         <v>241</v>
       </c>
       <c r="O120" s="1" t="b">
-        <f t="shared" si="2"/>
+        <f>IF(N120&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P120" s="1" t="b">
@@ -13294,10 +13886,10 @@
         <v>0</v>
       </c>
       <c r="T120" s="10">
-        <v>45982</v>
+        <v>45983</v>
       </c>
       <c r="U120" s="2" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="V120" s="4">
         <v>0</v>
@@ -13316,6 +13908,9 @@
       <c r="D121" s="4">
         <v>0.2</v>
       </c>
+      <c r="E121" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F121" s="1" t="s">
         <v>266</v>
       </c>
@@ -13335,15 +13930,15 @@
         <v>126</v>
       </c>
       <c r="M121" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I121,L121,J121)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGATYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGNHLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N121" s="4">
-        <f t="shared" si="1"/>
+        <f>LEN(M121)</f>
         <v>241</v>
       </c>
       <c r="O121" s="1" t="b">
-        <f t="shared" si="2"/>
+        <f>IF(N121&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P121" s="1" t="b">
@@ -13353,10 +13948,10 @@
         <v>0</v>
       </c>
       <c r="T121" s="10">
-        <v>45982</v>
+        <v>45983</v>
       </c>
       <c r="U121" s="2" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="V121" s="4">
         <v>0</v>
@@ -13375,6 +13970,9 @@
       <c r="D122" s="4">
         <v>0.2</v>
       </c>
+      <c r="E122" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F122" s="1" t="s">
         <v>266</v>
       </c>
@@ -13394,15 +13992,15 @@
         <v>126</v>
       </c>
       <c r="M122" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I122,L122,J122)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGRYLDGLFALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N122" s="4">
-        <f t="shared" si="1"/>
+        <f>LEN(M122)</f>
         <v>241</v>
       </c>
       <c r="O122" s="1" t="b">
-        <f t="shared" si="2"/>
+        <f>IF(N122&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P122" s="1" t="b">
@@ -13412,10 +14010,10 @@
         <v>0</v>
       </c>
       <c r="T122" s="10">
-        <v>45982</v>
+        <v>45983</v>
       </c>
       <c r="U122" s="2" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="V122" s="4">
         <v>0.02</v>
@@ -13434,6 +14032,9 @@
       <c r="D123" s="4">
         <v>0.2</v>
       </c>
+      <c r="E123" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F123" s="1" t="s">
         <v>266</v>
       </c>
@@ -13453,15 +14054,15 @@
         <v>126</v>
       </c>
       <c r="M123" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I123,L123,J123)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGSLLRGLSALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N123" s="4">
-        <f t="shared" si="1"/>
+        <f>LEN(M123)</f>
         <v>241</v>
       </c>
       <c r="O123" s="1" t="b">
-        <f t="shared" si="2"/>
+        <f>IF(N123&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P123" s="1" t="b">
@@ -13471,10 +14072,10 @@
         <v>0</v>
       </c>
       <c r="T123" s="10">
-        <v>45982</v>
+        <v>45983</v>
       </c>
       <c r="U123" s="2" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="V123" s="4">
         <v>0.01</v>
@@ -13493,6 +14094,9 @@
       <c r="D124" s="4">
         <v>0.2</v>
       </c>
+      <c r="E124" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F124" s="1" t="s">
         <v>266</v>
       </c>
@@ -13512,15 +14116,15 @@
         <v>126</v>
       </c>
       <c r="M124" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I124,L124,J124)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISDSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGRYLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N124" s="4">
-        <f t="shared" si="1"/>
+        <f>LEN(M124)</f>
         <v>241</v>
       </c>
       <c r="O124" s="1" t="b">
-        <f t="shared" si="2"/>
+        <f>IF(N124&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P124" s="1" t="b">
@@ -13530,10 +14134,10 @@
         <v>0</v>
       </c>
       <c r="T124" s="10">
-        <v>45982</v>
+        <v>45983</v>
       </c>
       <c r="U124" s="2" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="V124" s="4">
         <v>0.31</v>
@@ -13552,6 +14156,9 @@
       <c r="D125" s="4">
         <v>0.2</v>
       </c>
+      <c r="E125" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F125" s="1" t="s">
         <v>266</v>
       </c>
@@ -13571,15 +14178,15 @@
         <v>126</v>
       </c>
       <c r="M125" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I125,L125,J125)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGSYLDGLSALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N125" s="4">
-        <f t="shared" si="1"/>
+        <f>LEN(M125)</f>
         <v>241</v>
       </c>
       <c r="O125" s="1" t="b">
-        <f t="shared" si="2"/>
+        <f>IF(N125&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P125" s="1" t="b">
@@ -13589,10 +14196,10 @@
         <v>0</v>
       </c>
       <c r="T125" s="10">
-        <v>45982</v>
+        <v>45983</v>
       </c>
       <c r="U125" s="2" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="V125" s="4">
         <v>0.01</v>
@@ -13611,6 +14218,9 @@
       <c r="D126" s="4">
         <v>0.2</v>
       </c>
+      <c r="E126" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F126" s="1" t="s">
         <v>266</v>
       </c>
@@ -13630,15 +14240,15 @@
         <v>126</v>
       </c>
       <c r="M126" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I126,L126,J126)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISDSSIHWVRQAPGKGLEWVASIYNYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGYYLDGLDALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N126" s="4">
-        <f t="shared" si="1"/>
+        <f>LEN(M126)</f>
         <v>241</v>
       </c>
       <c r="O126" s="1" t="b">
-        <f t="shared" si="2"/>
+        <f>IF(N126&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P126" s="1" t="b">
@@ -13648,10 +14258,10 @@
         <v>0</v>
       </c>
       <c r="T126" s="10">
-        <v>45982</v>
+        <v>45983</v>
       </c>
       <c r="U126" s="2" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="V126" s="4">
         <v>0.47</v>
@@ -13670,6 +14280,9 @@
       <c r="D127" s="4">
         <v>0.2</v>
       </c>
+      <c r="E127" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F127" s="1" t="s">
         <v>266</v>
       </c>
@@ -13689,15 +14302,15 @@
         <v>126</v>
       </c>
       <c r="M127" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(I127,L127,J127)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISDYSIHWVRQAPGKGLEWVASIYNRSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGYYLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N127" s="4">
-        <f t="shared" si="1"/>
+        <f>LEN(M127)</f>
         <v>241</v>
       </c>
       <c r="O127" s="1" t="b">
-        <f t="shared" si="2"/>
+        <f>IF(N127&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P127" s="1" t="b">
@@ -13707,10 +14320,10 @@
         <v>0</v>
       </c>
       <c r="T127" s="10">
-        <v>45982</v>
+        <v>45983</v>
       </c>
       <c r="U127" s="2" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="V127" s="4">
         <v>0.01</v>
@@ -13729,6 +14342,9 @@
       <c r="D128" s="4">
         <v>0.2</v>
       </c>
+      <c r="E128" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F128" s="1" t="s">
         <v>266</v>
       </c>
@@ -13748,70 +14364,630 @@
         <v>126</v>
       </c>
       <c r="M128" s="2" t="str">
+        <f>_xlfn.CONCAT(I128,L128,J128)</f>
+        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGHDLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+      </c>
+      <c r="N128" s="4">
+        <f>LEN(M128)</f>
+        <v>241</v>
+      </c>
+      <c r="O128" s="1" t="b">
+        <f>IF(N128&lt;=250,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P128" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T128" s="10">
+        <v>45983</v>
+      </c>
+      <c r="U128" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="V128" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D129" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="K129" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M129" s="2" t="str">
+        <f t="shared" ref="M129:M138" si="0">_xlfn.CONCAT(I129,L129,J129)</f>
+        <v>EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYAMHWVRQAPGKGLEWVSYIWSGADSIGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK</v>
+      </c>
+      <c r="N129" s="4">
+        <f t="shared" ref="N129:N149" si="1">LEN(M129)</f>
+        <v>234</v>
+      </c>
+      <c r="O129" s="1" t="b">
+        <f t="shared" ref="O129:O138" si="2">IF(N129&lt;=250,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P129" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q129" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T129" s="10">
+        <v>45984</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D130" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="K130" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M130" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGHDLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
-      </c>
-      <c r="N128" s="4">
+        <v>EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYSMHWVRQAPGKGLEWVSSIWSGADSTGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK</v>
+      </c>
+      <c r="N130" s="4">
         <f t="shared" si="1"/>
-        <v>241</v>
-      </c>
-      <c r="O128" s="1" t="b">
+        <v>234</v>
+      </c>
+      <c r="O130" s="1" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P128" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q128" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T128" s="10">
-        <v>45982</v>
-      </c>
-      <c r="U128" s="2" t="s">
+      <c r="P130" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q130" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T130" s="10">
+        <v>45984</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D131" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="K131" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M131" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYAMHWVRQAPGKGLEWVSRIWSGADSTGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK</v>
+      </c>
+      <c r="N131" s="4">
+        <f t="shared" si="1"/>
+        <v>234</v>
+      </c>
+      <c r="O131" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P131" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q131" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T131" s="10">
+        <v>45984</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D132" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="K132" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M132" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYAMHWVRQAPGKGLEWVSYIWSGADSIGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARYDDAFDYWGQGTAVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK</v>
+      </c>
+      <c r="N132" s="4">
+        <f t="shared" si="1"/>
+        <v>234</v>
+      </c>
+      <c r="O132" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P132" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q132" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T132" s="10">
+        <v>45984</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D133" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="K133" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M133" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYSMHWVRQAPGKGLEWVSRIWSGTDSIGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK</v>
+      </c>
+      <c r="N133" s="4">
+        <f t="shared" si="1"/>
+        <v>234</v>
+      </c>
+      <c r="O133" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P133" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q133" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T133" s="10">
+        <v>45984</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D134" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="J134" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="K134" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M134" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYAMHWVRQAPGKGLEWVSYIWSGVDSIGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK</v>
+      </c>
+      <c r="N134" s="4">
+        <f t="shared" si="1"/>
+        <v>234</v>
+      </c>
+      <c r="O134" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P134" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q134" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T134" s="10">
+        <v>45984</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D135" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="J135" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="K135" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M135" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLVESGGGLVKPGGSLKVSCAASGFTFSSFAMHWVRQAPGKGLEWVSYIWSGADSTGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK</v>
+      </c>
+      <c r="N135" s="4">
+        <f t="shared" si="1"/>
+        <v>234</v>
+      </c>
+      <c r="O135" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P135" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q135" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T135" s="10">
+        <v>45984</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="V128" s="4">
-        <v>0</v>
+      <c r="B136" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D136" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="K136" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M136" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYAMHWVRQAPGKGLEWVSYIWSGADSIGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARYDDAFDYWGQGTAVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK</v>
+      </c>
+      <c r="N136" s="4">
+        <f t="shared" si="1"/>
+        <v>234</v>
+      </c>
+      <c r="O136" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P136" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q136" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T136" s="10">
+        <v>45984</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D137" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="J137" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="K137" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M137" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYAMHWVRQAPGKGLEWVSYIWSGVDSIGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK</v>
+      </c>
+      <c r="N137" s="4">
+        <f t="shared" si="1"/>
+        <v>234</v>
+      </c>
+      <c r="O137" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P137" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q137" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T137" s="10">
+        <v>45984</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D138" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="K138" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M138" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYSMVWVRQAPGKGLEWVSRIWSGVDSTGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK</v>
+      </c>
+      <c r="N138" s="4">
+        <f t="shared" si="1"/>
+        <v>234</v>
+      </c>
+      <c r="O138" s="1" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P138" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q138" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T138" s="10">
+        <v>45984</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:V118" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K1:L1048576">
-    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="18" priority="19">
+    <cfRule type="containsBlanks" dxfId="20" priority="21">
       <formula>LEN(TRIM(K1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O128">
-    <cfRule type="containsBlanks" dxfId="17" priority="11">
+  <conditionalFormatting sqref="O2:O138">
+    <cfRule type="containsBlanks" dxfId="19" priority="13">
       <formula>LEN(TRIM(O2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O84:Q128">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+  <conditionalFormatting sqref="O84:Q128 O129:O138">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:S2 O3:Q83 R3:S22">
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="22" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:S1048576 V1:V1048576">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -13823,10 +14999,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V22">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P129:Q138">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14141,21 +15325,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E4">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H4">
-    <cfRule type="containsBlanks" dxfId="8" priority="10">
+    <cfRule type="containsBlanks" dxfId="10" priority="10">
       <formula>LEN(TRIM(H2))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14172,10 +15356,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J2">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14190,10 +15374,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14208,10 +15392,10 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14301,14 +15485,14 @@
   <dimension ref="A2:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:A38"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="249.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="244.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="255.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
@@ -14318,177 +15502,177 @@
         <v>98</v>
       </c>
       <c r="B2" s="9">
-        <v>45982</v>
+        <v>45984</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>516</v>
+        <v>547</v>
       </c>
       <c r="B4" t="s">
         <v>526</v>
       </c>
       <c r="C4" t="s">
-        <v>537</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>517</v>
+        <v>548</v>
       </c>
       <c r="B5" t="s">
         <v>526</v>
       </c>
       <c r="C5" t="s">
-        <v>538</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>518</v>
+        <v>549</v>
       </c>
       <c r="B6" t="s">
         <v>526</v>
       </c>
       <c r="C6" t="s">
-        <v>539</v>
+        <v>567</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>519</v>
+        <v>550</v>
       </c>
       <c r="B7" t="s">
         <v>526</v>
       </c>
       <c r="C7" t="s">
-        <v>540</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>520</v>
+        <v>551</v>
       </c>
       <c r="B8" t="s">
         <v>526</v>
       </c>
       <c r="C8" t="s">
-        <v>541</v>
+        <v>569</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>521</v>
+        <v>552</v>
       </c>
       <c r="B9" t="s">
         <v>526</v>
       </c>
       <c r="C9" t="s">
-        <v>542</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>522</v>
+        <v>553</v>
       </c>
       <c r="B10" t="s">
         <v>526</v>
       </c>
       <c r="C10" t="s">
-        <v>543</v>
+        <v>571</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>523</v>
+        <v>554</v>
       </c>
       <c r="B11" t="s">
         <v>526</v>
       </c>
       <c r="C11" t="s">
-        <v>544</v>
+        <v>568</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>524</v>
+        <v>555</v>
       </c>
       <c r="B12" t="s">
         <v>526</v>
       </c>
       <c r="C12" t="s">
-        <v>545</v>
+        <v>570</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>525</v>
+        <v>556</v>
       </c>
       <c r="B13" t="s">
         <v>526</v>
       </c>
       <c r="C13" t="s">
-        <v>546</v>
+        <v>572</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>_xlfn.CONCAT("&gt;",A4,"\n",C4)</f>
-        <v>&gt;sbio-nipahgpg-120\nEVQLVESGGGLVQPGGSLRLSCAASGFNISDSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGRDLFGLDALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+        <v>&gt;sbio-nipahgpg-130\nEVQLVESGGGLVKPGGSLKVSCAASGFTFSSYAMHWVRQAPGKGLEWVSYIWSGADSIGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" ref="A30:A38" si="0">_xlfn.CONCAT("&gt;",A5,"\n",C5)</f>
-        <v>&gt;sbio-nipahgpg-121\nEVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGLTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGYYLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+        <v>&gt;sbio-nipahgpg-131\nEVQLVESGGGLVKPGGSLKVSCAASGFTFSSYSMHWVRQAPGKGLEWVSSIWSGADSTGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-122\nEVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGATYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGNHLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+        <v>&gt;sbio-nipahgpg-132\nEVQLVESGGGLVKPGGSLKVSCAASGFTFSSYAMHWVRQAPGKGLEWVSRIWSGADSTGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-123\nEVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGRYLDGLFALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+        <v>&gt;sbio-nipahgpg-133\nEVQLVESGGGLVKPGGSLKVSCAASGFTFSSYAMHWVRQAPGKGLEWVSYIWSGADSIGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARYDDAFDYWGQGTAVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-124\nEVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGSLLRGLSALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+        <v>&gt;sbio-nipahgpg-134\nEVQLVESGGGLVKPGGSLKVSCAASGFTFSSYSMHWVRQAPGKGLEWVSRIWSGTDSIGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-125\nEVQLVESGGGLVQPGGSLRLSCAASGFNISDSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGRYLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+        <v>&gt;sbio-nipahgpg-135\nEVQLVESGGGLVKPGGSLKVSCAASGFTFSSYAMHWVRQAPGKGLEWVSYIWSGVDSIGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-126\nEVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGSYLDGLSALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+        <v>&gt;sbio-nipahgpg-136\nEVQLVESGGGLVKPGGSLKVSCAASGFTFSSFAMHWVRQAPGKGLEWVSYIWSGADSTGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-127\nEVQLVESGGGLVQPGGSLRLSCAASGFNISDSSIHWVRQAPGKGLEWVASIYNYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGYYLDGLDALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+        <v>&gt;sbio-nipahgpg-137\nEVQLVESGGGLVKPGGSLKVSCAASGFTFSSYAMHWVRQAPGKGLEWVSYIWSGADSIGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARYDDAFDYWGQGTAVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-128\nEVQLVESGGGLVQPGGSLRLSCAASGFNISDYSIHWVRQAPGKGLEWVASIYNRSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGYYLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+        <v>&gt;sbio-nipahgpg-138\nEVQLVESGGGLVKPGGSLKVSCAASGFTFSSYAMHWVRQAPGKGLEWVSYIWSGVDSIGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
-        <v>&gt;sbio-nipahgpg-129\nEVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGHDLDGLYALDYWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
+        <v>&gt;sbio-nipahgpg-139\nEVQLVESGGGLVKPGGSLKVSCAASGFTFSSYSMVWVRQAPGKGLEWVSRIWSGVDSTGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK</v>
       </c>
     </row>
   </sheetData>

--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/Nipah_gpG_Fv_Generation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E423875A-0961-9941-A230-C954A6166070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F319C840-10C7-DA49-8C27-85FBEE36E58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,16 +21,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Antibody Candidates'!$A$1:$V$118</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Antibody Candidates'!$V$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Antibody Candidates'!$V$2:$V$128</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Antibody Candidates'!$V$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Antibody Candidates'!$V$2:$V$128</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Antibody Candidates'!$V$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Antibody Candidates'!$V$2:$V$128</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="118" r:id="rId6"/>
+    <pivotCache cacheId="119" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -49,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="578">
   <si>
     <t>antigen_id</t>
   </si>
@@ -1768,6 +1762,21 @@
   </si>
   <si>
     <t>EVQLVESGGGLVKPGGSLKVSCAASGFTFSSYSMVWVRQAPGKGLEWVSRIWSGVDSTGYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARDDDAFDYWGQGTAVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK</t>
+  </si>
+  <si>
+    <t>EIVMTQSPGTPSLSPGERATLSCRASQSIRSTYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGRSPSFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>EVQLVQSGAEVKKRGSSVKVSCKSSGGTFSNYAINWVRQAPGQGLEWMGGIIPILGIANYAQKFQGRVTITTDESTSTAYMELSSLRSEDTAVYYCARGWGREQLAPHPSQYYYYYYGMDVWGQGTTVTVSS</t>
+  </si>
+  <si>
+    <t>m102.3</t>
+  </si>
+  <si>
+    <t>6CMI_HL</t>
+  </si>
+  <si>
+    <t>GGGSGGGSGGG</t>
   </si>
 </sst>
 </file>
@@ -1867,7 +1876,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5718,7 +5741,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{135D55CA-26D1-4FA2-9199-54D547F2C103}" name="PivotTable1" cacheId="118" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{135D55CA-26D1-4FA2-9199-54D547F2C103}" name="PivotTable1" cacheId="119" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:C13" firstHeaderRow="0" firstDataRow="0" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -6462,10 +6485,10 @@
   <dimension ref="A1:V138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B133" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C146" sqref="C146"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6595,15 +6618,15 @@
         <v>125</v>
       </c>
       <c r="M2" s="2" t="str">
-        <f>_xlfn.CONCAT(I2,L2,J2)</f>
+        <f t="shared" ref="M2:M33" si="0">_xlfn.CONCAT(I2,L2,J2)</f>
         <v>QVQLVESGGGVVQPGRSLRLSCAASGFTFSSYGMHWVRQAPGKGLEWVAVISYDGSKKYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARSPFYDSSGYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISSYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQANSFPPTFGQGTKVEIK</v>
       </c>
       <c r="N2" s="4">
-        <f>LEN(M2)</f>
+        <f t="shared" ref="N2:N33" si="1">LEN(M2)</f>
         <v>246</v>
       </c>
       <c r="O2" s="1" t="b">
-        <f>IF(N2&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" ref="O2:O33" si="2">IF(N2&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P2" s="1" t="b">
@@ -6663,15 +6686,15 @@
         <v>125</v>
       </c>
       <c r="M3" s="2" t="str">
-        <f>_xlfn.CONCAT(I3,L3,J3)</f>
+        <f t="shared" si="0"/>
         <v>QVQLVESGGGVVQPGKSLRLSCAASGFTFSSYAMSWVRQAPGKGPEWVAFISYDGSNNYYADSVKGRFTISRDNPKNTLYLQMKSLRAEDTAVYYCARWRQRFDMYWGRGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK</v>
       </c>
       <c r="N3" s="4">
-        <f>LEN(M3)</f>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="O3" s="1" t="b">
-        <f>IF(N3&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P3" s="1" t="b">
@@ -6731,15 +6754,15 @@
         <v>125</v>
       </c>
       <c r="M4" s="2" t="str">
-        <f>_xlfn.CONCAT(I4,L4,J4)</f>
+        <f t="shared" si="0"/>
         <v>QVQLQESGPGLVKPSETLSLTCTVSGASIRGYYWSWIRQFPGKELEWIGYVYSGSTENYNPSLKSRVTVTLTDTKNSFSLKLNSVTSEDTAVYYCARGGALIYYDVWGTGTTVTVSSGGGSGGGSGGGSGGGSDIQVTQSPVSLSASVGDRVTITCRASQGIDSLNWFQQRPGKAPKLLIYAASQLTGIAPRFRSGSGSGTDFTLTISSLQPEDFATYYCQQYNIYPATFGQGTKVEIK</v>
       </c>
       <c r="N4" s="4">
-        <f>LEN(M4)</f>
+        <f t="shared" si="1"/>
         <v>239</v>
       </c>
       <c r="O4" s="1" t="b">
-        <f>IF(N4&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P4" s="1" t="b">
@@ -6799,15 +6822,15 @@
         <v>125</v>
       </c>
       <c r="M5" s="2" t="str">
-        <f>_xlfn.CONCAT(I5,L5,J5)</f>
+        <f t="shared" si="0"/>
         <v>EVQLVQSGAEVKKPGESLKISCKGSGYTFSYYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAMYYCARGEGVFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSYTLTQAPSVSASGQSVTISCTGTSRDVGTYWYQQIPGRAPKLLIHDKSENQGKTPGIPDRFSGSKSGNTASLVIIRGLQADDEADYYCNSYHGSGSNIFGGGTKLTVD</v>
       </c>
       <c r="N5" s="4">
-        <f>LEN(M5)</f>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="O5" s="1" t="b">
-        <f>IF(N5&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P5" s="1" t="b">
@@ -6867,15 +6890,15 @@
         <v>125</v>
       </c>
       <c r="M6" s="2" t="str">
-        <f>_xlfn.CONCAT(I6,L6,J6)</f>
+        <f t="shared" si="0"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYWMNWVRQAPGKGLEWVANINQDGGEKYYVDSVKGRFTISRDNAKNSLYLQMNSLRAEDTAIYYCARDVGGGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</v>
       </c>
       <c r="N6" s="4">
-        <f>LEN(M6)</f>
+        <f t="shared" si="1"/>
         <v>238</v>
       </c>
       <c r="O6" s="1" t="b">
-        <f>IF(N6&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P6" s="1" t="b">
@@ -6931,15 +6954,15 @@
         <v>125</v>
       </c>
       <c r="M7" s="2" t="str">
-        <f>_xlfn.CONCAT(I7,L7,J7)</f>
+        <f t="shared" si="0"/>
         <v>QVQLVESGGGVVQPGRSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAIWSNGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARDYGSYGYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPLSLPVTPGEPASISCRSSQSLLYSNGNTYLEWYLQKPGQSPQLLIYLVSKLDSGVPDRFSGSGSGTDFTLKISRVEAEDLGIYYCQQSKEVPYTFGAGTKLEIK</v>
       </c>
       <c r="N7" s="4">
-        <f>LEN(M7)</f>
+        <f t="shared" si="1"/>
         <v>247</v>
       </c>
       <c r="O7" s="1" t="b">
-        <f>IF(N7&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P7" s="1" t="b">
@@ -7004,15 +7027,15 @@
         <v>125</v>
       </c>
       <c r="M8" s="2" t="str">
-        <f>_xlfn.CONCAT(I8,L8,J8)</f>
+        <f t="shared" si="0"/>
         <v>AVSLVESGGGTVKPGESVTLSCQASGFNFSKYQWVWVRQAPGKGLEWVGQISPDGSKTRYHPSVAGRFTISRDNSNSTLYLHMSNLRPEDTAVYYCGIIPQDNVHGDYSISHWGQGTLLTVSAGGGSGGGSGGGSGGGSAIKLTQSPKSLSASVGDTVTINCTASRPIGDLLSWYKQKPGKPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSSDFATYYCRQTSRFPITFGEGTTINKK</v>
       </c>
       <c r="N8" s="4">
-        <f>LEN(M8)</f>
+        <f t="shared" si="1"/>
         <v>246</v>
       </c>
       <c r="O8" s="1" t="b">
-        <f>IF(N8&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P8" s="1" t="b">
@@ -7077,15 +7100,15 @@
         <v>125</v>
       </c>
       <c r="M9" s="2" t="str">
-        <f>_xlfn.CONCAT(I9,L9,J9)</f>
+        <f t="shared" si="0"/>
         <v>AVSITESGGGTKAPGSSVTLSCKVSGFVFSKYSIAWVRQAPGQGLEWVSQISPDGSTTRYNPAVAGRFTISRDNSNSTAYLQMSNLTPSDTATYYCAIIPQDNEHGDYSLSHWGQGTQLTVSAGGGSGGGSGGGSGGGSAIKLTQSPKSLSAKVGDTVTINCTASAPIGDFLSWYKQKPGQPPQLLIYKSSTLAPGVSSRYSGSGSDTNFTLTISSLQEEDFATYYCQQTATLPITFGEGTTINKK</v>
       </c>
       <c r="N9" s="4">
-        <f>LEN(M9)</f>
+        <f t="shared" si="1"/>
         <v>246</v>
       </c>
       <c r="O9" s="1" t="b">
-        <f>IF(N9&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P9" s="1" t="b">
@@ -7150,15 +7173,15 @@
         <v>125</v>
       </c>
       <c r="M10" s="2" t="str">
-        <f>_xlfn.CONCAT(I10,L10,J10)</f>
+        <f t="shared" si="0"/>
         <v>SISLVESGGGTVAPGSSVTLSCQASGFNFSKYSKAWVRQPPGQPLEWVSRISPDGSTKYYHPDVAGRFTISKDNSKSTVYLAMSNLTAADTATYYCGIIPGDNTHGDYAMSHWGQGTLLTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTISCTASRPIGDKLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTSFTLTISSLQEDDFATYYCQQTYTLPITFGQGTTISKK</v>
       </c>
       <c r="N10" s="4">
-        <f>LEN(M10)</f>
+        <f t="shared" si="1"/>
         <v>246</v>
       </c>
       <c r="O10" s="1" t="b">
-        <f>IF(N10&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P10" s="1" t="b">
@@ -7223,15 +7246,15 @@
         <v>125</v>
       </c>
       <c r="M11" s="2" t="str">
-        <f>_xlfn.CONCAT(I11,L11,J11)</f>
+        <f t="shared" si="0"/>
         <v>GVSLTESGGGTVAPGSSVTLSCKASGFNFSKYSHAWVRQAPGQGLTWVGEISPDGSKTRYASSVAGRFTISRDNSNSTVYLQMSSLTPSDTATYYCGIIPGDSVHGERSMSHWGQGTLLTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTLNCTASRPIGDRLSWYKQKPGQAPQLLIYRASTLAPGVSSRYSGSGSDTQFTLTISSLQSDDFATYYCQQTSSYPVTFGQGTTITKK</v>
       </c>
       <c r="N11" s="4">
-        <f>LEN(M11)</f>
+        <f t="shared" si="1"/>
         <v>246</v>
       </c>
       <c r="O11" s="1" t="b">
-        <f>IF(N11&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P11" s="1" t="b">
@@ -7296,15 +7319,15 @@
         <v>125</v>
       </c>
       <c r="M12" s="2" t="str">
-        <f>_xlfn.CONCAT(I12,L12,J12)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">EVSLVESGGGTVKPGESVTLSCQASGFNFSKYRLAWVRQPPGQGLVWVSEISPDGTEVKYHPDVKGRFTASRDNSNSTAYLKMNNLQPSDTATYYCGIIPQDSSHGDYSISHWGQGTQLTVSAGGGSGGGSGGGSGGGSTITLTQSPSSLSASVGDTVTINCTASRPIGDFLSWYKQKPGQPPQLLIYRSSTLASGVSSRYSGSGSDTNFTLTISSLQSDDFATYYCQQTYTLPITFGQGTTLTKK </v>
       </c>
       <c r="N12" s="4">
-        <f>LEN(M12)</f>
+        <f t="shared" si="1"/>
         <v>247</v>
       </c>
       <c r="O12" s="1" t="b">
-        <f>IF(N12&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P12" s="1" t="b">
@@ -7363,15 +7386,15 @@
         <v>125</v>
       </c>
       <c r="M13" s="2" t="str">
-        <f>_xlfn.CONCAT(I13,L13,J13)</f>
+        <f t="shared" si="0"/>
         <v>AVSLVESGGGTYAPGSSVTLSCQGSGFNFSKVRKVWVRQPPGGPLEYVAEISPDGSTTTYASSVAGRFTISKDNSNSTLYLSMSNLTPADTATYYCGLIPGDSEHGDRSISHWGQGTLVTVSAGGGSGGGSGGGSGGGSAITLTQSPSSLSASVGDTVTINCTASQPIGNFLSWYKQKPGQPPQLLIYNASTLAPGVSSRYSGSGSDTNFTLTISSLQSEDFATYYCQQTSRLPVTFGQGTTINKK</v>
       </c>
       <c r="N13" s="4">
-        <f>LEN(M13)</f>
+        <f t="shared" si="1"/>
         <v>246</v>
       </c>
       <c r="O13" s="1" t="b">
-        <f>IF(N13&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P13" s="1" t="b">
@@ -7436,15 +7459,15 @@
         <v>125</v>
       </c>
       <c r="M14" s="2" t="str">
-        <f>_xlfn.CONCAT(I14,L14,J14)</f>
+        <f t="shared" si="0"/>
         <v>GISLVESGGGTVKPGESVTLSCKASGFVFSKYSHAWVRQPPGGPLEWVSQISSDGSVTRYASSVSGRFTISRDNSNSTVYLQMNNLRPSDTATYYCGIIPQDNVHGDYAISHWGQGTLLTVTAGGGSGGGSGGGSGGGSAITLTQSPASLSAKVGDTVTLSCTASRPIGDLLSWYKQKPGQPPQLLIYRASTLAPGVDSRYSGSGSDTSFTLTISSLQPEDFATYYCQQTSRFPITFGQGTTIKQA</v>
       </c>
       <c r="N14" s="4">
-        <f>LEN(M14)</f>
+        <f t="shared" si="1"/>
         <v>246</v>
       </c>
       <c r="O14" s="1" t="b">
-        <f>IF(N14&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P14" s="1" t="b">
@@ -7509,15 +7532,15 @@
         <v>125</v>
       </c>
       <c r="M15" s="2" t="str">
-        <f>_xlfn.CONCAT(I15,L15,J15)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">PVSLVESGGGTVAPGSSVTLTCQASGFNFSKYIVAWVRQPPGQPLRFVAMITPDGSKVWLHPEVEGRFTPSKDNSKNTSYLQLKDLQPEDTATYYCGIIPQGSTHGDYSITHWGQGVVLTVTAGGGSGGGSGGGSGGGSMVTLTQSPSSLSASVGDTVTITCTASSPVDNLMSWYQQPPGQPLRLLIYNASTRAPGVSSRFSGSGSDTNFTLTISSLQASDFATYYCQQTYRLPVTFGQGTTLSAA </v>
       </c>
       <c r="N15" s="4">
-        <f>LEN(M15)</f>
+        <f t="shared" si="1"/>
         <v>247</v>
       </c>
       <c r="O15" s="1" t="b">
-        <f>IF(N15&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P15" s="1" t="b">
@@ -7576,15 +7599,15 @@
         <v>125</v>
       </c>
       <c r="M16" s="2" t="str">
-        <f>_xlfn.CONCAT(I16,L16,J16)</f>
+        <f t="shared" si="0"/>
         <v>SIKLTESGGGTVKPGSSVTLSCQASGFNFSKYEVVWVMQKPGQPLQWVGSISPDGSKVRLHPKVKGRFTLSKDNSKNTAYLTMKNLQPEDTATYYCGIIPGGSVHGDRSITHWGQGVELKVVAGGGSGGGSGGGSGGGSMIKLTQSPKSVKAKVGDTVTITCTASEPVDDLVSWYQQKPGQPLRLLIYRSSTLAPGVSSRFSGSGSDTNFTLTISSLQEEDFATYYCMQTSKYPYTFGQGTTLSRA</v>
       </c>
       <c r="N16" s="4">
-        <f>LEN(M16)</f>
+        <f t="shared" si="1"/>
         <v>246</v>
       </c>
       <c r="O16" s="1" t="b">
-        <f>IF(N16&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P16" s="1" t="b">
@@ -7649,15 +7672,15 @@
         <v>125</v>
       </c>
       <c r="M17" s="2" t="str">
-        <f>_xlfn.CONCAT(I17,L17,J17)</f>
+        <f t="shared" si="0"/>
         <v>AITLTESGGGVVAPGSSVTLTCTASGFNFSKYSMVWVRQPPGGPLQWVAQISPDNSTVRYHPAVEGRFTASKDNSKNTAYLAMSDLEPSDTATYYCGIIPQGSTHNDYSIVHWGQGTELRVVAGGGSGGGSGGGSGGGSMIKLTQSPSSLSAKVGDKVTITCTASSPVDNLVSWYKQPPGGPLQLLIYNSSTRAPGVSSRFKGSGSDTNFTLTIESLQEEDFATYYCQQTYKFPITFGQGTKLTRA</v>
       </c>
       <c r="N17" s="4">
-        <f>LEN(M17)</f>
+        <f t="shared" si="1"/>
         <v>246</v>
       </c>
       <c r="O17" s="1" t="b">
-        <f>IF(N17&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P17" s="1" t="b">
@@ -7722,15 +7745,15 @@
         <v>125</v>
       </c>
       <c r="M18" s="2" t="str">
-        <f>_xlfn.CONCAT(I18,L18,J18)</f>
+        <f t="shared" si="0"/>
         <v>SISLTESGGGTVAPGSSVTLTCTASGFNFSKYSVAWVRQPPGQPLQWVALISPDGSKKWYHPDVKGRATISKDNSKNTSYLTLSNLQPSDTATYYCGIIPGGNIHGDYSMTHWGQGTQLTVVAGGGSGGGSGGGSGGGSMITLTQSPLSLSAKVGDTVTITCTASSPVDDLVSWYQQKPGQPLRLLIRNASERAPGVSSRFSGSGSDTTFTLTISSVQEEDFATYYCQQTSKLPYTFGQGTTLSRA</v>
       </c>
       <c r="N18" s="4">
-        <f>LEN(M18)</f>
+        <f t="shared" si="1"/>
         <v>246</v>
       </c>
       <c r="O18" s="1" t="b">
-        <f>IF(N18&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P18" s="1" t="b">
@@ -7795,15 +7818,15 @@
         <v>125</v>
       </c>
       <c r="M19" s="2" t="str">
-        <f>_xlfn.CONCAT(I19,L19,J19)</f>
+        <f t="shared" si="0"/>
         <v>AVTLTESGGGTVAPGSSVTLTCTASGFNFSKYILAWVRQAPGQPLEWVASISPDGSKTRYHPAVKGRATASKDNSKNTAYLELKDLRPEDTATYYCGIIPQGSVHGDYSMTHWGQGTELRVEAGGGSGGGSGGGSGGGSPVVLTQSPLSLSAKVGDTVTITCTASSPVDNLVSWYKQAPGQPLQLLIYNATTRAPGVPSRFTGSGSDTTFTLTISSLQPEDFAVYYCQQTYKFPITFGQGTRLTPA</v>
       </c>
       <c r="N19" s="4">
-        <f>LEN(M19)</f>
+        <f t="shared" si="1"/>
         <v>246</v>
       </c>
       <c r="O19" s="1" t="b">
-        <f>IF(N19&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P19" s="1" t="b">
@@ -7868,15 +7891,15 @@
         <v>125</v>
       </c>
       <c r="M20" s="2" t="str">
-        <f>_xlfn.CONCAT(I20,L20,J20)</f>
+        <f t="shared" si="0"/>
         <v>PVKLVESGGGTVAPGSSVTLTCKASGFNFSKYMVQWVRQAPGGAFQWVGLISPDGSTKWYHPDVEGRFTISKDNSKNTAYLEMRNLTPADTAVYYCGIVPQGSVHGDYSITHWGQGVTLTVTAGGGSGGGSGGGSGGGSVVQLTQSPPELSAKVGEKVTITCTASSPVDNLVSWYQQKPGGAPKLLIYNATTLAPGVPSRFSGSGSDTVFTLTIDSLQAEDFATYYCQQTSRLPFTFGQGTVLRPA</v>
       </c>
       <c r="N20" s="4">
-        <f>LEN(M20)</f>
+        <f t="shared" si="1"/>
         <v>246</v>
       </c>
       <c r="O20" s="1" t="b">
-        <f>IF(N20&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P20" s="1" t="b">
@@ -7941,15 +7964,15 @@
         <v>125</v>
       </c>
       <c r="M21" s="2" t="str">
-        <f>_xlfn.CONCAT(I21,L21,J21)</f>
+        <f t="shared" si="0"/>
         <v>AIKLTESGGGTVKPGSSVTLTCQASGFNFSKYIMAWVRQAPGQPLQWVAQISPDNSVKRYHPEVEGRFTASKDNSKNTAYLEMKNLTPADTATYYCAIIPQGSTQGDYSMVHWGQGVELKVVAGGGSGGGSGGGSGGGSPVVLTQSPASLKAAVGDTVTITCTASAPVDNLVSWYKQAPGQPPQLLIYNASTLAPGVPSRFTGSGSDTSFTLTISSLQEEDFATYYCQETSKFPITFGQGTKLEKK</v>
       </c>
       <c r="N21" s="4">
-        <f>LEN(M21)</f>
+        <f t="shared" si="1"/>
         <v>246</v>
       </c>
       <c r="O21" s="1" t="b">
-        <f>IF(N21&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P21" s="1" t="b">
@@ -8014,15 +8037,15 @@
         <v>125</v>
       </c>
       <c r="M22" s="2" t="str">
-        <f>_xlfn.CONCAT(I22,L22,J22)</f>
+        <f t="shared" si="0"/>
         <v>SIKLTESGGGVVAPGESVTLTCTASGFNFSKYEMAWVRQAPGGPLEFVAVISPDGSTTRYHPRVEGRATISRDNSKNTAYLTLRDLTPADTAVYYCGIIPGGSVHGDRALSHWGQGVRLEVRAGGGSGGGSGGGSGGGSMVTLTQSPSSLSAKVGDKVTISCTASEPVDDLVSWYKQAPGGPPQLLISRASTRAPGVPSRFSGSGSDTNFTLTIESLQSSDFATYYCQQTYKFPDTFGQGTTLSEA</v>
       </c>
       <c r="N22" s="4">
-        <f>LEN(M22)</f>
+        <f t="shared" si="1"/>
         <v>246</v>
       </c>
       <c r="O22" s="1" t="b">
-        <f>IF(N22&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P22" s="1" t="b">
@@ -8087,15 +8110,15 @@
         <v>126</v>
       </c>
       <c r="M23" s="2" t="str">
-        <f>_xlfn.CONCAT(I23,L23,J23)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">SVTLVESGDQTVAPGGSVTLSCTSSGGSFGNSGVSWVKQQPGGPLQWIGGIIPSLGISKVSPEYAGRVTISSDSSNNTAYLTISNLTAADTATYYCALGEGEDVFASSPFASNVNLGALSVWGQGTKVTVSGGGSGGGSGGGSITVTQSPSSPSLKVGETATLTCTLSAPVPRSNVAWYKQQPGQPPTLLIYGGSTRAPGVPSRYSGSGSGTTFTLTITALKPEDFATYYCQVYGENPSFGQGTTLKLK </v>
       </c>
       <c r="N23" s="4">
-        <f>LEN(M23)</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="O23" s="1" t="b">
-        <f>IF(N23&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P23" s="1" t="b">
@@ -8154,15 +8177,15 @@
         <v>126</v>
       </c>
       <c r="M24" s="2" t="str">
-        <f>_xlfn.CONCAT(I24,L24,J24)</f>
+        <f t="shared" si="0"/>
         <v>GVKLVQSGDLTVKPGGSVTLSCKSEGGSFGNSSVAWVRQRPGGPYEYIGSIIPAYGVSRVSPEYEGRVTISADVANNTAYLTISNLTPEDTATYYCALGPGEVVYAASPFDEKLLTGALSVWGEGTLVTVTGGGSGGGSGGGSITVTQSPSSPSLSVGDTATLTCTLSSSVATSNVAWYKQLPGQPPELLISGGSTRAPGVPSRYSGSGSGTTFTLTISSLQASDFATYYCQVYGENPSFGQGTTLTLK</v>
       </c>
       <c r="N24" s="4">
-        <f>LEN(M24)</f>
+        <f t="shared" si="1"/>
         <v>249</v>
       </c>
       <c r="O24" s="1" t="b">
-        <f>IF(N24&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P24" s="1" t="b">
@@ -8227,15 +8250,15 @@
         <v>126</v>
       </c>
       <c r="M25" s="2" t="str">
-        <f>_xlfn.CONCAT(I25,L25,J25)</f>
+        <f t="shared" si="0"/>
         <v>AVKLVQSGDQTVAPGGSVTLSCTSSGGSFGNSSVAWVRQRPGGPFEFIGSIIPSLGISRYNSKYKGRVTISSDAANNTAYLTISNLTAADTATYYCALGPGESVFASHPFKEKLLTGALSVWGEGTLVTVSGGGSGGGSGGGSITVTQSPSSPSKSVGDTVTLTCTLSSSVPVSQVAWYKQHPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLQPEDFATYYCQVYGEEPSFGQGTTVTLA</v>
       </c>
       <c r="N25" s="4">
-        <f>LEN(M25)</f>
+        <f t="shared" si="1"/>
         <v>249</v>
       </c>
       <c r="O25" s="1" t="b">
-        <f>IF(N25&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P25" s="1" t="b">
@@ -8300,15 +8323,15 @@
         <v>126</v>
       </c>
       <c r="M26" s="2" t="str">
-        <f>_xlfn.CONCAT(I26,L26,J26)</f>
+        <f t="shared" si="0"/>
         <v>SITLVQSGDVTVAPGGSVTLTCTSSGGSFGNKAVAWVRQRPGGPYEWLGFIIPAYGVSRYNPAYEGRVTISVDSASNTASLTISNLTAADTATYYCALGEGEIVYAASPFDENYKLGALYIWGQGTKVTVSGGGSGGGSGGGSITLTQSPSSPSLSVGETATLTCTASAPVPKSNVAWYKQLPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLTADDFATYYCQVYGENPSFGEGTTLTLK</v>
       </c>
       <c r="N26" s="4">
-        <f>LEN(M26)</f>
+        <f t="shared" si="1"/>
         <v>249</v>
       </c>
       <c r="O26" s="1" t="b">
-        <f>IF(N26&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P26" s="1" t="b">
@@ -8373,15 +8396,15 @@
         <v>126</v>
       </c>
       <c r="M27" s="2" t="str">
-        <f>_xlfn.CONCAT(I27,L27,J27)</f>
+        <f t="shared" si="0"/>
         <v>SVTLVQSGDQTVPIGGSVTLSCTANGGSFGNKGVAWVRQRPGGPYEFLGFIKPAIGESRYHPKYKGRVTISSDVSSNTAYLTISNLTPEDTAVYYCALGEAEDVFAAHPFKTDLLLGALSIWGQGTRVTVTGGGSGGGSGGGSITVTQSPSSPSLSVGETAVLTCTLSQPVPQSQVAWYKQLPGQPPTLLISGGSTRASGVPSRYSGSGSGTTFTLTISSLLPEDFATYYCQVVGKEPSFGQGTTLTLK</v>
       </c>
       <c r="N27" s="4">
-        <f>LEN(M27)</f>
+        <f t="shared" si="1"/>
         <v>249</v>
       </c>
       <c r="O27" s="1" t="b">
-        <f>IF(N27&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P27" s="1" t="b">
@@ -8446,15 +8469,15 @@
         <v>126</v>
       </c>
       <c r="M28" s="2" t="str">
-        <f>_xlfn.CONCAT(I28,L28,J28)</f>
+        <f t="shared" si="0"/>
         <v>SVKLVQSGDQTVPVGGSVTLSCTASGGSFGNYGVAWVRQRPGGPLEYIGSIIPAYGISTVNPKYEGRVTISADPTNNTAYLTISNLTPEDTATYYCALGPGEVVFASSPFDIDVLTGALWVWGEGTKVTVTGGGSGGGSGGGSITVTQSPSSPSLKVGETATLTCTLSAPVAKSNVAWYKQLPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFTLTISSLQPEDFATYYCQVVGKNPSFGQGTLLKLK</v>
       </c>
       <c r="N28" s="4">
-        <f>LEN(M28)</f>
+        <f t="shared" si="1"/>
         <v>249</v>
       </c>
       <c r="O28" s="1" t="b">
-        <f>IF(N28&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P28" s="1" t="b">
@@ -8519,15 +8542,15 @@
         <v>126</v>
       </c>
       <c r="M29" s="2" t="str">
-        <f>_xlfn.CONCAT(I29,L29,J29)</f>
+        <f t="shared" si="0"/>
         <v>SISLVQSSDQTVAPGGSVTLSCTSSGGSFGNSGVAWVRQAPGGPPVYIGGIIPATGVSTYNAAFKGRVTISSDSSNNTAYLTISGLTAADTATYYCALGPAENVFASHPFAEDVNLGALSVWGQGTLVTVTGGGSGGGSGGGSITVTESPSSPELSVGETAVLSCTLSSSVPQSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLEPEDFATYYCQVYGTSPSFGQGTTLKLK</v>
       </c>
       <c r="N29" s="4">
-        <f>LEN(M29)</f>
+        <f t="shared" si="1"/>
         <v>249</v>
       </c>
       <c r="O29" s="1" t="b">
-        <f>IF(N29&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P29" s="1" t="b">
@@ -8592,15 +8615,15 @@
         <v>126</v>
       </c>
       <c r="M30" s="2" t="str">
-        <f>_xlfn.CONCAT(I30,L30,J30)</f>
+        <f t="shared" si="0"/>
         <v>AVSLVESGDQTVAPGGSVTLSCTSSGGSFGNSGVAWVRQAPGGPLEFLGFIIPALGVSKVNSKYEGRVTISSDPANNTAYLTISNLTAADTATYYCGLGTGESVFASSPFDEKLLLGALSVWGQGTKVTVTGGGSGGGSGGGSITVTQSPASPEKKVGETATLTCTLSSAVPKSNVAWYKQKPGQPPELLIYGGSTRASGVPSRYSGSGSGTTFYLTISSLQPEDFATYYCRVYGEEPSFGQGTTLKLK</v>
       </c>
       <c r="N30" s="4">
-        <f>LEN(M30)</f>
+        <f t="shared" si="1"/>
         <v>249</v>
       </c>
       <c r="O30" s="1" t="b">
-        <f>IF(N30&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P30" s="1" t="b">
@@ -8659,15 +8682,15 @@
         <v>125</v>
       </c>
       <c r="M31" s="2" t="str">
-        <f>_xlfn.CONCAT(I31,L31,J31)</f>
+        <f t="shared" si="0"/>
         <v>VQLQESGPGLVKPSQSLSLTCTVTGYSITTGYAWNWIRQFPGNKLEWMGYISYSGSTYYPSLKSRISITRDTSKNQFFLQLSIVTTEDTATYYCARGTTLPDYVDFWGQGTSVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQTISTYLNWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYFCLQHFWTPPITFGQGTRLEIK</v>
       </c>
       <c r="N31" s="4">
-        <f>LEN(M31)</f>
+        <f t="shared" si="1"/>
         <v>241</v>
       </c>
       <c r="O31" s="1" t="b">
-        <f>IF(N31&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P31" s="1" t="b">
@@ -8718,15 +8741,15 @@
         <v>126</v>
       </c>
       <c r="M32" s="2" t="str">
-        <f>_xlfn.CONCAT(I32,L32,J32)</f>
+        <f t="shared" si="0"/>
         <v>QVQLQESGPGLVKPSETLSVTCTVSGGSIGSNNYWSWIRQPAGKGLEWIGYIYYSGSTNYNPSLKSRVTMSVDTSKNQFSLKLSSVTAADTAVYYCVRNYYDSSDSSGYYFMDVWGQGTTVTVSSGGGSGGGSGGGSDIVMTQSPLSLSVTPGEPASISCRSSQSLLHSNGYNYLDWYLQKPGQSPQLLIYLGSNRASGVPDRFSGSGSGTDFTLKISRVEAEDVGVYYCMQALQTPTFGQGTRLEIK</v>
       </c>
       <c r="N32" s="4">
-        <f>LEN(M32)</f>
+        <f t="shared" si="1"/>
         <v>248</v>
       </c>
       <c r="O32" s="1" t="b">
-        <f>IF(N32&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P32" s="1" t="b">
@@ -8777,15 +8800,15 @@
         <v>125</v>
       </c>
       <c r="M33" s="2" t="str">
-        <f>_xlfn.CONCAT(I33,L33,J33)</f>
+        <f t="shared" si="0"/>
         <v>QVQLVQSGAEVKKPGESLKISCKGSGYRFSSYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAMYYCARQGPDYYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSTLSASVGDRVTITCRASQSISSWLAWYQQKPGKAPKLLIYKASELQSGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQQYINSYTFGQGTKVEIK</v>
       </c>
       <c r="N33" s="4">
-        <f>LEN(M33)</f>
+        <f t="shared" si="1"/>
         <v>242</v>
       </c>
       <c r="O33" s="1" t="b">
-        <f>IF(N33&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P33" s="1" t="b">
@@ -8836,15 +8859,15 @@
         <v>125</v>
       </c>
       <c r="M34" s="2" t="str">
-        <f>_xlfn.CONCAT(I34,L34,J34)</f>
+        <f t="shared" ref="M34:M65" si="3">_xlfn.CONCAT(I34,L34,J34)</f>
         <v>QVQLQQSGPELVKPGASVKLSCKASGYTFTDYYMHWVKQRPGQGLEWIGEINPNSGGTNTYDQKFKGRATLTVDKSSSTAYLQLSSLTSEDSAVYYCARSPPWYFDYWGQGTTLTVSGGGSGGGSGGGSGGGSDIVMTQSPSSMFASVGETVTITCRASENIYSNLAWYQQKPGQSPKLLIYWASTRHTGVPDRFTGSGSGTDFTLTISSVQAEDLALYYCQHYGSYSFTFGSGTKLEIK</v>
       </c>
       <c r="N34" s="4">
-        <f>LEN(M34)</f>
+        <f t="shared" ref="N34:N65" si="4">LEN(M34)</f>
         <v>240</v>
       </c>
       <c r="O34" s="1" t="b">
-        <f>IF(N34&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" ref="O34:O65" si="5">IF(N34&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P34" s="1" t="b">
@@ -8895,15 +8918,15 @@
         <v>125</v>
       </c>
       <c r="M35" s="2" t="str">
-        <f>_xlfn.CONCAT(I35,L35,J35)</f>
+        <f t="shared" si="3"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRNYVYSSGYLDFWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSYSSPPTFGQGTKVEIK</v>
       </c>
       <c r="N35" s="4">
-        <f>LEN(M35)</f>
+        <f t="shared" si="4"/>
         <v>246</v>
       </c>
       <c r="O35" s="1" t="b">
-        <f>IF(N35&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P35" s="1" t="b">
@@ -8954,15 +8977,15 @@
         <v>125</v>
       </c>
       <c r="M36" s="2" t="str">
-        <f>_xlfn.CONCAT(I36,L36,J36)</f>
+        <f t="shared" si="3"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNIYYSSIHWVRQAPGKGLEWVASISPYYGSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARDYGHYYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVMTQSPATLSVSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYGASTRATGIPARFSGSGSGTEFTLTISSLQSEDSAVYYCQQYNNWPPITFGQGTRLEIK</v>
       </c>
       <c r="N36" s="4">
-        <f>LEN(M36)</f>
+        <f t="shared" si="4"/>
         <v>244</v>
       </c>
       <c r="O36" s="1" t="b">
-        <f>IF(N36&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P36" s="1" t="b">
@@ -9013,15 +9036,15 @@
         <v>126</v>
       </c>
       <c r="M37" s="2" t="str">
-        <f>_xlfn.CONCAT(I37,L37,J37)</f>
+        <f t="shared" si="3"/>
         <v>QVQLQESGPGLVKPSETLSLSCVVSGDSSSTNYYWGWIRQPPGKGLEWIGYIYGSGDTAYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARRSWGYGYNGYSTYYYYYYFDQGYFDVWGPGTLVTGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSIGSYLNWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTEFTLTISSLQPEDFATYYCQQSYSWGQGTKVEIK</v>
       </c>
       <c r="N37" s="4">
-        <f>LEN(M37)</f>
+        <f t="shared" si="4"/>
         <v>247</v>
       </c>
       <c r="O37" s="1" t="b">
-        <f>IF(N37&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P37" s="1" t="b">
@@ -9072,15 +9095,15 @@
         <v>125</v>
       </c>
       <c r="M38" s="2" t="str">
-        <f>_xlfn.CONCAT(I38,L38,J38)</f>
+        <f t="shared" si="3"/>
         <v>QVQLVQSGAEVKKPGASVKVSCKASGYTFTSYGISWVRQAPGQGLEWMGWISAHNGDTNYAQKFQGRVTMTRDTSITTAYMELRSDDTAVYYCARDGSVGGFYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPITFGQGTRLEIK</v>
       </c>
       <c r="N38" s="4">
-        <f>LEN(M38)</f>
+        <f t="shared" si="4"/>
         <v>237</v>
       </c>
       <c r="O38" s="1" t="b">
-        <f>IF(N38&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P38" s="1" t="b">
@@ -9131,15 +9154,15 @@
         <v>125</v>
       </c>
       <c r="M39" s="2" t="str">
-        <f>_xlfn.CONCAT(I39,L39,J39)</f>
+        <f t="shared" si="3"/>
         <v>EVQLLESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASISPYYGSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSYYWYWSGWGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSYGSPPTFGQGTKVEIK</v>
       </c>
       <c r="N39" s="4">
-        <f>LEN(M39)</f>
+        <f t="shared" si="4"/>
         <v>238</v>
       </c>
       <c r="O39" s="1" t="b">
-        <f>IF(N39&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P39" s="1" t="b">
@@ -9190,15 +9213,15 @@
         <v>125</v>
       </c>
       <c r="M40" s="2" t="str">
-        <f>_xlfn.CONCAT(I40,L40,J40)</f>
+        <f t="shared" si="3"/>
         <v>QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGHYAWWIRQPPGKGLEWIACIYSSSGSTYYNPSLKSRITISVDTSKNQFSLKLSSVTAADTAVYYCARRQRGYDYDYYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRASQGISRNLAWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSNNWPITFGQGTKVEIK</v>
       </c>
       <c r="N40" s="4">
-        <f>LEN(M40)</f>
+        <f t="shared" si="4"/>
         <v>248</v>
       </c>
       <c r="O40" s="1" t="b">
-        <f>IF(N40&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P40" s="1" t="b">
@@ -9249,15 +9272,15 @@
         <v>125</v>
       </c>
       <c r="M41" s="2" t="str">
-        <f>_xlfn.CONCAT(I41,L41,J41)</f>
+        <f t="shared" si="3"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNIYYSSIHWVRQAPGKGLEWVASIYSYYSSTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARVYGYLSYSYFYWGLDVWGQGTLVTVSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEI</v>
       </c>
       <c r="N41" s="4">
-        <f>LEN(M41)</f>
+        <f t="shared" si="4"/>
         <v>246</v>
       </c>
       <c r="O41" s="1" t="b">
-        <f>IF(N41&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P41" s="1" t="b">
@@ -9308,15 +9331,15 @@
         <v>125</v>
       </c>
       <c r="M42" s="2" t="str">
-        <f>_xlfn.CONCAT(I42,L42,J42)</f>
+        <f t="shared" si="3"/>
         <v>EVQLQQSGAELVKPGASVKLSCTASGFNIKDTYVHWVKQRPEQGLEWIGRIDPANGYTKYDPKFQGKATITADTSSNTAYLQLSSLTSEDTAVYYCVRPLYDYYAMDYWGQGTTLTVSSGGGSGGGSGGGSGGGSDIVMTQSPSSLAMSAGRVSITCRTSQSISSYLNWVQQKPGKSPKLLIYWASTRESGVPDRFTGSGSGTDFTLTISRVEAEDLGVYYCMQGTHVPYTFGGGTKLEIK</v>
       </c>
       <c r="N42" s="4">
-        <f>LEN(M42)</f>
+        <f t="shared" si="4"/>
         <v>241</v>
       </c>
       <c r="O42" s="1" t="b">
-        <f>IF(N42&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P42" s="1" t="b">
@@ -9367,15 +9390,15 @@
         <v>125</v>
       </c>
       <c r="M43" s="2" t="str">
-        <f>_xlfn.CONCAT(I43,L43,J43)</f>
+        <f t="shared" si="3"/>
         <v>EVQLVESGGGLVKPGGSLRLSCAASGFTFSSYAMHWVRQAPGKGLEWVSAISGGGGSTYYADSVKGRFTISRDNSKNTLYLQMRAEDTAVYYCAKDDADWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPFTFGQGTKVEIK</v>
       </c>
       <c r="N43" s="4">
-        <f>LEN(M43)</f>
+        <f t="shared" si="4"/>
         <v>233</v>
       </c>
       <c r="O43" s="1" t="b">
-        <f>IF(N43&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P43" s="1" t="b">
@@ -9426,15 +9449,15 @@
         <v>125</v>
       </c>
       <c r="M44" s="2" t="str">
-        <f>_xlfn.CONCAT(I44,L44,J44)</f>
+        <f t="shared" si="3"/>
         <v>QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGSYYWIRQSPGKGLEWIGYIYYSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARHRYYDRGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPASLSASVGETVTITCRASENIYSNLAWYQQKQGKSPQLLVYAATDLADGVPSRFSGSGSGTQFSLKINSLQPEDFGSYYCQHFWDTPWTFGQGTRVE</v>
       </c>
       <c r="N44" s="4">
-        <f>LEN(M44)</f>
+        <f t="shared" si="4"/>
         <v>234</v>
       </c>
       <c r="O44" s="1" t="b">
-        <f>IF(N44&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P44" s="1" t="b">
@@ -9485,15 +9508,15 @@
         <v>125</v>
       </c>
       <c r="M45" s="2" t="str">
-        <f>_xlfn.CONCAT(I45,L45,J45)</f>
+        <f t="shared" si="3"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNLYSSSIHWVRQAPGKGLEWVAYISSSGTHYADSVKGRFTISADTSKNTAYLQMRAEDTAVYYCARVGHYYSSGGYYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYSSYWTFGQGTKVEIK</v>
       </c>
       <c r="N45" s="4">
-        <f>LEN(M45)</f>
+        <f t="shared" si="4"/>
         <v>242</v>
       </c>
       <c r="O45" s="1" t="b">
-        <f>IF(N45&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P45" s="1" t="b">
@@ -9544,15 +9567,15 @@
         <v>126</v>
       </c>
       <c r="M46" s="2" t="str">
-        <f>_xlfn.CONCAT(I46,L46,J46)</f>
+        <f t="shared" si="3"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVVDSGISWVRQAPGKGLEWVSYISSSSGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARAHYYGSYFGSVVYYYGLDVWGQGTLVTVSSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYDTYPITFGQGTKVEIK</v>
       </c>
       <c r="N46" s="4">
-        <f>LEN(M46)</f>
+        <f t="shared" si="4"/>
         <v>247</v>
       </c>
       <c r="O46" s="1" t="b">
-        <f>IF(N46&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P46" s="1" t="b">
@@ -9603,15 +9626,15 @@
         <v>125</v>
       </c>
       <c r="M47" s="2" t="str">
-        <f>_xlfn.CONCAT(I47,L47,J47)</f>
+        <f t="shared" si="3"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVYSSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSYSTYYYGYWYFDVWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSAAVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYNYYWLITFGQGTKVEIK</v>
       </c>
       <c r="N47" s="4">
-        <f>LEN(M47)</f>
+        <f t="shared" si="4"/>
         <v>247</v>
       </c>
       <c r="O47" s="1" t="b">
-        <f>IF(N47&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P47" s="1" t="b">
@@ -9662,15 +9685,15 @@
         <v>125</v>
       </c>
       <c r="M48" s="2" t="str">
-        <f>_xlfn.CONCAT(I48,L48,J48)</f>
+        <f t="shared" si="3"/>
         <v>QVQLQQPGAELVKPGASVKLSCKASGYTFTSDWIHWVKQRPGHGLEWIGEIIPSYGRANYNEKIQKKATLTADKSSSTAFMHLSSLTSEDSAVYYCARERGDGYFAVWGAGTTVTVSSGGGSGGGSGGGSGGGSDILLTQSPAILSVSPGERVSFSCRASQSIGTDIHWYQQRTNGSPRLLIKYASESISGIPSRFSGSGSGTDFTLSINSVESEDIANYYCQQSNRWPFTFGSGTKLEIK</v>
       </c>
       <c r="N48" s="4">
-        <f>LEN(M48)</f>
+        <f t="shared" si="4"/>
         <v>241</v>
       </c>
       <c r="O48" s="1" t="b">
-        <f>IF(N48&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P48" s="1" t="b">
@@ -9721,15 +9744,15 @@
         <v>125</v>
       </c>
       <c r="M49" s="2" t="str">
-        <f>_xlfn.CONCAT(I49,L49,J49)</f>
+        <f t="shared" si="3"/>
         <v>VRLLESGGGLVQPGGSLKLSCAASGFDYSRYWMSWVRQAPGKGLKWIGEINPVSSTINYTPSLKDKFIISRDNAKDTLYLQISKVRSEDTALYYCARLYYGYGYWYFDVWGAGTTVTVSSGGGSGGGSGGGSGGGSDIVLTQSPAIMSAAPGDKVTMTCSASSSVSYIHWYQQKSGTSPKRWIYDTSKLTSGVPVRFSGSGSGTSYSLTINTMEAEDAATYYCQQWSSHPQTFGGGTKLEIl</v>
       </c>
       <c r="N49" s="4">
-        <f>LEN(M49)</f>
+        <f t="shared" si="4"/>
         <v>242</v>
       </c>
       <c r="O49" s="1" t="b">
-        <f>IF(N49&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P49" s="1" t="b">
@@ -9780,15 +9803,15 @@
         <v>125</v>
       </c>
       <c r="M50" s="2" t="str">
-        <f>_xlfn.CONCAT(I50,L50,J50)</f>
+        <f t="shared" si="3"/>
         <v>QVQLQESGPGLVQPSQSLSLTCTVSGFSLTSYGVHWVRQSPGKGLEWLGVIWAGGSTDYNSALKSRLSISRDTSKNQVFLKMNSLQTDDTAMYYCAKHGSSNGDYWGQGTSVTVSSGGGSGGGSGGGSGGGSDIVMTQSPDSLAVSLGERATINCKSSQSVLYSSNNKNYLAWYQQKPEGQPPNLLIYWASTRESGVPDRFSGSGSGTDFTLTISSLQAEDVAVYYCQQYYSAPTFGQGTKLEIK</v>
       </c>
       <c r="N50" s="4">
-        <f>LEN(M50)</f>
+        <f t="shared" si="4"/>
         <v>245</v>
       </c>
       <c r="O50" s="1" t="b">
-        <f>IF(N50&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P50" s="1" t="b">
@@ -9839,15 +9862,15 @@
         <v>125</v>
       </c>
       <c r="M51" s="2" t="str">
-        <f>_xlfn.CONCAT(I51,L51,J51)</f>
+        <f t="shared" si="3"/>
         <v>QVQLQESGPGLVKPSETLSLTCTVSGGSVSSGGYFWSWIRQPPGKGLEWIGCIYYSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARVDSFYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGIRNDLGWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK</v>
       </c>
       <c r="N51" s="4">
-        <f>LEN(M51)</f>
+        <f t="shared" si="4"/>
         <v>243</v>
       </c>
       <c r="O51" s="1" t="b">
-        <f>IF(N51&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P51" s="1" t="b">
@@ -9898,15 +9921,15 @@
         <v>125</v>
       </c>
       <c r="M52" s="2" t="str">
-        <f>_xlfn.CONCAT(I52,L52,J52)</f>
+        <f t="shared" si="3"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAISGSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARQVWFGGFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N52" s="4">
-        <f>LEN(M52)</f>
+        <f t="shared" si="4"/>
         <v>241</v>
       </c>
       <c r="O52" s="1" t="b">
-        <f>IF(N52&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P52" s="1" t="b">
@@ -9957,15 +9980,15 @@
         <v>125</v>
       </c>
       <c r="M53" s="2" t="str">
-        <f>_xlfn.CONCAT(I53,L53,J53)</f>
+        <f t="shared" si="3"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSYIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRQFWYSGLDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N53" s="4">
-        <f>LEN(M53)</f>
+        <f t="shared" si="4"/>
         <v>243</v>
       </c>
       <c r="O53" s="1" t="b">
-        <f>IF(N53&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P53" s="1" t="b">
@@ -10016,15 +10039,15 @@
         <v>125</v>
       </c>
       <c r="M54" s="2" t="str">
-        <f>_xlfn.CONCAT(I54,L54,J54)</f>
+        <f t="shared" si="3"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGGSSYFGYYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N54" s="4">
-        <f>LEN(M54)</f>
+        <f t="shared" si="4"/>
         <v>245</v>
       </c>
       <c r="O54" s="1" t="b">
-        <f>IF(N54&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P54" s="1" t="b">
@@ -10075,15 +10098,15 @@
         <v>125</v>
       </c>
       <c r="M55" s="2" t="str">
-        <f>_xlfn.CONCAT(I55,L55,J55)</f>
+        <f t="shared" si="3"/>
         <v>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYSISWVRQAPGQGLEWMGGIIIFGTANYAQKFQGRVTITADESTSTAYMELSSLRSEDTAVYYCARGQGTLVDFYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK</v>
       </c>
       <c r="N55" s="4">
-        <f>LEN(M55)</f>
+        <f t="shared" si="4"/>
         <v>240</v>
       </c>
       <c r="O55" s="1" t="b">
-        <f>IF(N55&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P55" s="1" t="b">
@@ -10131,15 +10154,15 @@
         <v>125</v>
       </c>
       <c r="M56" s="2" t="str">
-        <f>_xlfn.CONCAT(I56,L56,J56)</f>
+        <f t="shared" si="3"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASIYPYSGYTNYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGYGYWGYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N56" s="4">
-        <f>LEN(M56)</f>
+        <f t="shared" si="4"/>
         <v>245</v>
       </c>
       <c r="O56" s="1" t="b">
-        <f>IF(N56&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P56" s="1" t="b">
@@ -10190,15 +10213,15 @@
         <v>125</v>
       </c>
       <c r="M57" s="2" t="str">
-        <f>_xlfn.CONCAT(I57,L57,J57)</f>
+        <f t="shared" si="3"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSAISGSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARGYQVYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N57" s="4">
-        <f>LEN(M57)</f>
+        <f t="shared" si="4"/>
         <v>240</v>
       </c>
       <c r="O57" s="1" t="b">
-        <f>IF(N57&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P57" s="1" t="b">
@@ -10246,15 +10269,15 @@
         <v>125</v>
       </c>
       <c r="M58" s="2" t="str">
-        <f>_xlfn.CONCAT(I58,L58,J58)</f>
+        <f t="shared" si="3"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSYIHWVRQAPGKGLEWVASISSYYGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGWSYSWSYSWSYSGLDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</v>
       </c>
       <c r="N58" s="4">
-        <f>LEN(M58)</f>
+        <f t="shared" si="4"/>
         <v>249</v>
       </c>
       <c r="O58" s="1" t="b">
-        <f>IF(N58&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P58" s="1" t="b">
@@ -10305,15 +10328,15 @@
         <v>125</v>
       </c>
       <c r="M59" s="2" t="str">
-        <f>_xlfn.CONCAT(I59,L59,J59)</f>
+        <f t="shared" si="3"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGWYYGSSYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N59" s="4">
-        <f>LEN(M59)</f>
+        <f t="shared" si="4"/>
         <v>240</v>
       </c>
       <c r="O59" s="1" t="b">
-        <f>IF(N59&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P59" s="1" t="b">
@@ -10359,15 +10382,15 @@
         <v>125</v>
       </c>
       <c r="M60" s="2" t="str">
-        <f>_xlfn.CONCAT(I60,L60,J60)</f>
+        <f t="shared" si="3"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSYIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGTYYGSSYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N60" s="4">
-        <f>LEN(M60)</f>
+        <f t="shared" si="4"/>
         <v>242</v>
       </c>
       <c r="O60" s="1" t="b">
-        <f>IF(N60&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P60" s="1" t="b">
@@ -10413,15 +10436,15 @@
         <v>125</v>
       </c>
       <c r="M61" s="2" t="str">
-        <f>_xlfn.CONCAT(I61,L61,J61)</f>
+        <f t="shared" si="3"/>
         <v>QMQLVQSGAEVKKPGESLKISCKGSGYSFTSYWIGWVRQMPGKGLEWMGIIYPGDSDTRYSPSFQGQVTISADKSISTAYLQWSSLKASDTAIYYCARHYYGGQYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGIRNDLGWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKLEIK</v>
       </c>
       <c r="N61" s="4">
-        <f>LEN(M61)</f>
+        <f t="shared" si="4"/>
         <v>242</v>
       </c>
       <c r="O61" s="1" t="b">
-        <f>IF(N61&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P61" s="1" t="b">
@@ -10472,15 +10495,15 @@
         <v>125</v>
       </c>
       <c r="M62" s="2" t="str">
-        <f>_xlfn.CONCAT(I62,L62,J62)</f>
+        <f t="shared" si="3"/>
         <v>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYAISWVRQAPGQGLEWMGGIIPIFGTANYAQKFQGRVTITADESTSTAYMELSSLRSEDTAVYYCARWYDGYFVYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK</v>
       </c>
       <c r="N62" s="4">
-        <f>LEN(M62)</f>
+        <f t="shared" si="4"/>
         <v>240</v>
       </c>
       <c r="O62" s="1" t="b">
-        <f>IF(N62&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P62" s="1" t="b">
@@ -10531,15 +10554,15 @@
         <v>125</v>
       </c>
       <c r="M63" s="2" t="str">
-        <f>_xlfn.CONCAT(I63,L63,J63)</f>
+        <f t="shared" si="3"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRQFWYSGLDYWGQGTLVTVFNGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N63" s="4">
-        <f>LEN(M63)</f>
+        <f t="shared" si="4"/>
         <v>243</v>
       </c>
       <c r="O63" s="1" t="b">
-        <f>IF(N63&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P63" s="1" t="b">
@@ -10590,15 +10613,15 @@
         <v>125</v>
       </c>
       <c r="M64" s="2" t="str">
-        <f>_xlfn.CONCAT(I64,L64,J64)</f>
+        <f t="shared" si="3"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYYGSTYYADSVKGRFTISADTSKNTAYLQMRAEDTAVYYCARGWRSYAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</v>
       </c>
       <c r="N64" s="4">
-        <f>LEN(M64)</f>
+        <f t="shared" si="4"/>
         <v>238</v>
       </c>
       <c r="O64" s="1" t="b">
-        <f>IF(N64&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P64" s="1" t="b">
@@ -10649,15 +10672,15 @@
         <v>125</v>
       </c>
       <c r="M65" s="2" t="str">
-        <f>_xlfn.CONCAT(I65,L65,J65)</f>
+        <f t="shared" si="3"/>
         <v>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYSFIWVRQAPGQGLEWMGGIIPIFGTANYAQKFQGRVTITADESTSTAYMELSSLRSEDTAVYYCARSSYSGVYYSWYFDVWGAGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGISNYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK</v>
       </c>
       <c r="N65" s="4">
-        <f>LEN(M65)</f>
+        <f t="shared" si="4"/>
         <v>246</v>
       </c>
       <c r="O65" s="1" t="b">
-        <f>IF(N65&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P65" s="1" t="b">
@@ -10708,15 +10731,15 @@
         <v>125</v>
       </c>
       <c r="M66" s="2" t="str">
-        <f>_xlfn.CONCAT(I66,L66,J66)</f>
+        <f t="shared" ref="M66:M97" si="6">_xlfn.CONCAT(I66,L66,J66)</f>
         <v>EVQLQESGPGLVKPSQTLSLTCTVSGGSISSYAAWSWIRQPPGKGLEWIGYIYSSSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARGDYSYSYYGLDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGIRNDLGWYQQKPGKAPKLLIYAASNLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRYTFGQGTKVEIK</v>
       </c>
       <c r="N66" s="4">
-        <f>LEN(M66)</f>
+        <f t="shared" ref="N66:N97" si="7">LEN(M66)</f>
         <v>246</v>
       </c>
       <c r="O66" s="1" t="b">
-        <f>IF(N66&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" ref="O66:O97" si="8">IF(N66&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P66" s="1" t="b">
@@ -10767,15 +10790,15 @@
         <v>125</v>
       </c>
       <c r="M67" s="2" t="str">
-        <f>_xlfn.CONCAT(I67,L67,J67)</f>
+        <f t="shared" si="6"/>
         <v>EVQLQQSGPELVKPGASVKMSCKASGYTFTSYNIHWVKQTPVHGLEWIGAIVSGGDTNYNENFKDKATLTVDKSSSTAYMQLTSEDSAVYYCARGGFYGDYWGQGTSVTVSSGGGSGGGSGGGSGGGSDIVLTQSPATLSVTPGDSVSLSCRASQSVTNNIHWYQQKSHESPRLLIKYASQSISGIPSRFSGSGSGTDFTLSINSVETEDFGMYFCQQSNSWPYTFGGGTKLEIK</v>
       </c>
       <c r="N67" s="4">
-        <f>LEN(M67)</f>
+        <f t="shared" si="7"/>
         <v>235</v>
       </c>
       <c r="O67" s="1" t="b">
-        <f>IF(N67&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P67" s="1" t="b">
@@ -10826,15 +10849,15 @@
         <v>125</v>
       </c>
       <c r="M68" s="2" t="str">
-        <f>_xlfn.CONCAT(I68,L68,J68)</f>
+        <f t="shared" si="6"/>
         <v>QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGDYYWIRQHPGKGLEWIGYIYYSGSTYYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARQLWLRGRFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPYTFGQGTKVEIK</v>
       </c>
       <c r="N68" s="4">
-        <f>LEN(M68)</f>
+        <f t="shared" si="7"/>
         <v>241</v>
       </c>
       <c r="O68" s="1" t="b">
-        <f>IF(N68&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P68" s="1" t="b">
@@ -10885,15 +10908,15 @@
         <v>125</v>
       </c>
       <c r="M69" s="2" t="str">
-        <f>_xlfn.CONCAT(I69,L69,J69)</f>
+        <f t="shared" si="6"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFTVSSNYMSWVRQAPGKGLEWVSVIYSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCAREAGVWVFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N69" s="4">
-        <f>LEN(M69)</f>
+        <f t="shared" si="7"/>
         <v>240</v>
       </c>
       <c r="O69" s="1" t="b">
-        <f>IF(N69&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P69" s="1" t="b">
@@ -10944,15 +10967,15 @@
         <v>125</v>
       </c>
       <c r="M70" s="2" t="str">
-        <f>_xlfn.CONCAT(I70,L70,J70)</f>
+        <f t="shared" si="6"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNLYSSSIHWVRQAPGKGLEWVASISSYYGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARSRQFWLWFGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N70" s="4">
-        <f>LEN(M70)</f>
+        <f t="shared" si="7"/>
         <v>239</v>
       </c>
       <c r="O70" s="1" t="b">
-        <f>IF(N70&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P70" s="1" t="b">
@@ -10998,15 +11021,15 @@
         <v>125</v>
       </c>
       <c r="M71" s="2" t="str">
-        <f>_xlfn.CONCAT(I71,L71,J71)</f>
+        <f t="shared" si="6"/>
         <v>VQLVQSGAEVKKPGASVKVSCKASGYTFTTYTISWVRQAPGQGLEWMGWINNSGGTNYAQKFQGRVTMTRDTSTSTVSAYMELRSEDTAVYYCATFVYGYSAYQPLTDDYGQMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWFQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSLLYPLTFGGGTKVEIK</v>
       </c>
       <c r="N71" s="4">
-        <f>LEN(M71)</f>
+        <f t="shared" si="7"/>
         <v>249</v>
       </c>
       <c r="O71" s="1" t="b">
-        <f>IF(N71&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P71" s="1" t="b">
@@ -11057,15 +11080,15 @@
         <v>125</v>
       </c>
       <c r="M72" s="2" t="str">
-        <f>_xlfn.CONCAT(I72,L72,J72)</f>
+        <f t="shared" si="6"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSSSGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARHRWWAHPYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSYYITPYTFGQGTKVEIK</v>
       </c>
       <c r="N72" s="4">
-        <f>LEN(M72)</f>
+        <f t="shared" si="7"/>
         <v>241</v>
       </c>
       <c r="O72" s="1" t="b">
-        <f>IF(N72&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P72" s="1" t="b">
@@ -11116,15 +11139,15 @@
         <v>125</v>
       </c>
       <c r="M73" s="2" t="str">
-        <f>_xlfn.CONCAT(I73,L73,J73)</f>
+        <f t="shared" si="6"/>
         <v>EVQLVESGGGVVQPGRSLRLSCAASGFTFSSYAMHWVRQAPGKGLEWVAVIWYDGSNKYYADSVKGRFTISRDNSKNTLFLQMNSLRPEDTAVYYCARDTPMYYDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQLTQSPSSLSASVGDRVTITCRTSQDIDNYLNWYQQKPGKAPKLLIYYTSSLHSGVPSRFSGSGSGTDFTFTISSLQPEDIATYYCQQYDNLPITFGQGTKLEIK</v>
       </c>
       <c r="N73" s="4">
-        <f>LEN(M73)</f>
+        <f t="shared" si="7"/>
         <v>240</v>
       </c>
       <c r="O73" s="1" t="b">
-        <f>IF(N73&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P73" s="1" t="b">
@@ -11175,15 +11198,15 @@
         <v>125</v>
       </c>
       <c r="M74" s="2" t="str">
-        <f>_xlfn.CONCAT(I74,L74,J74)</f>
+        <f t="shared" si="6"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFTFSNYAMSWVRQAPGKGLEWVSAISGSGGSTYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARLSPYNGSMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSVTQPASVSGSPGQSITISCTGTSSDIGAYNYVSWYQQHPGKAPKLMIYEVSKRPSGVSNRFSGSKSGNTASLTISGLQTEDEADYYCSSYTRSGSVVFGGGTKLTVL</v>
       </c>
       <c r="N74" s="4">
-        <f>LEN(M74)</f>
+        <f t="shared" si="7"/>
         <v>242</v>
       </c>
       <c r="O74" s="1" t="b">
-        <f>IF(N74&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P74" s="1" t="b">
@@ -11234,15 +11257,15 @@
         <v>125</v>
       </c>
       <c r="M75" s="2" t="str">
-        <f>_xlfn.CONCAT(I75,L75,J75)</f>
+        <f t="shared" si="6"/>
         <v>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYTISWVRQAPGQGLEWMGGIIPILGIANYAQKFQGRVTITADKSTSTAYMELSSLRSEDTAVYYCARGDSSYVDSWDYWGQGTLVTVSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSVSSSYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPWTFGQGTKVEIK</v>
       </c>
       <c r="N75" s="4">
-        <f>LEN(M75)</f>
+        <f t="shared" si="7"/>
         <v>243</v>
       </c>
       <c r="O75" s="1" t="b">
-        <f>IF(N75&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P75" s="1" t="b">
@@ -11293,15 +11316,15 @@
         <v>125</v>
       </c>
       <c r="M76" s="2" t="str">
-        <f>_xlfn.CONCAT(I76,L76,J76)</f>
+        <f t="shared" si="6"/>
         <v>QVQLVESGGGVVQPGRSLRLSCAASGFTFSNYGMHWVRQAPGKGLEWVAVISDGSNKYYADSVKGRFTISRDNSKNTLYLQMRAEDTAVYYCARGSHSSRDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSISSYLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPPYTFGQGTKVEIK</v>
       </c>
       <c r="N76" s="4">
-        <f>LEN(M76)</f>
+        <f t="shared" si="7"/>
         <v>237</v>
       </c>
       <c r="O76" s="1" t="b">
-        <f>IF(N76&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P76" s="1" t="b">
@@ -11352,15 +11375,15 @@
         <v>125</v>
       </c>
       <c r="M77" s="2" t="str">
-        <f>_xlfn.CONCAT(I77,L77,J77)</f>
+        <f t="shared" si="6"/>
         <v>VQLVQSGAEVKRPGSSVKVSCKTSGGTIFSTYVFWVRQAPGQGLEWMGGFPPKAGYIYAQKFQGRVTFTADESSSTTVYMEDLRSEDTAVYFCARFPYFVYDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSIGGYLAWYQQKPGKVPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPRTFGQGTKVEIK</v>
       </c>
       <c r="N77" s="4">
-        <f>LEN(M77)</f>
+        <f t="shared" si="7"/>
         <v>237</v>
       </c>
       <c r="O77" s="1" t="b">
-        <f>IF(N77&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P77" s="1" t="b">
@@ -11411,15 +11434,15 @@
         <v>126</v>
       </c>
       <c r="M78" s="2" t="str">
-        <f>_xlfn.CONCAT(I78,L78,J78)</f>
+        <f t="shared" si="6"/>
         <v>VQLQESGPGLVKPSQSLSLTCTVTGFSIDYNIYWGWIRQPPGKGLEWIGYIYSGSDTYNPSLKSRVTISVDTSKNQFSLKVNSVTAADTAVYYCARVVDLWYDDGKYASCVKGAIDYWGQGTLVTVSSGGGSGGGSGGGSSVLTQPPSVSGAPGQRVTISCTGSSGAGYDVHWYQQLPGTAPKLLIYGNSNRPSGVPDRFSGSKSGTSASLAITGLQAEDEADYYCQSYDSSLSGWVFGGGTKLTVL</v>
       </c>
       <c r="N78" s="4">
-        <f>LEN(M78)</f>
+        <f t="shared" si="7"/>
         <v>247</v>
       </c>
       <c r="O78" s="1" t="b">
-        <f>IF(N78&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P78" s="1" t="b">
@@ -11470,15 +11493,15 @@
         <v>125</v>
       </c>
       <c r="M79" s="2" t="str">
-        <f>_xlfn.CONCAT(I79,L79,J79)</f>
+        <f t="shared" si="6"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVVDFSLHWVRQAPGKGLEWVASIYPYDGSAYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARWGYWPGEGWLGKYWGQGTLVTVSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEI</v>
       </c>
       <c r="N79" s="4">
-        <f>LEN(M79)</f>
+        <f t="shared" si="7"/>
         <v>243</v>
       </c>
       <c r="O79" s="1" t="b">
-        <f>IF(N79&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P79" s="1" t="b">
@@ -11529,15 +11552,15 @@
         <v>125</v>
       </c>
       <c r="M80" s="2" t="str">
-        <f>_xlfn.CONCAT(I80,L80,J80)</f>
+        <f t="shared" si="6"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASISSSYGSTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARWEGYRGDLWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYYEWLRTFGQGTKVEIK</v>
       </c>
       <c r="N80" s="4">
-        <f>LEN(M80)</f>
+        <f t="shared" si="7"/>
         <v>240</v>
       </c>
       <c r="O80" s="1" t="b">
-        <f>IF(N80&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P80" s="1" t="b">
@@ -11594,15 +11617,15 @@
         <v>125</v>
       </c>
       <c r="M81" s="2" t="str">
-        <f>_xlfn.CONCAT(I81,L81,J81)</f>
+        <f t="shared" si="6"/>
         <v>QVQLQESGPGLVKPSQTLSLTCTVSGGSVSSGSYYWSWIRQPPGKGLEWIGYIYYSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARVDSFYYGMDVWGQGTTVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASSGSSYDNGWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYLQDSNYTPRTFGQGTKVEIK</v>
       </c>
       <c r="N81" s="4">
-        <f>LEN(M81)</f>
+        <f t="shared" si="7"/>
         <v>243</v>
       </c>
       <c r="O81" s="1" t="b">
-        <f>IF(N81&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P81" s="1" t="b">
@@ -11659,15 +11682,15 @@
         <v>125</v>
       </c>
       <c r="M82" s="2" t="str">
-        <f>_xlfn.CONCAT(I82,L82,J82)</f>
+        <f t="shared" si="6"/>
         <v>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYTISWVRQAPGQGLEWMGRIIPIFGTANYAQKFQGRVTITADKSTSTAYMELSSLRSEDTAVYYCARYYDSYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQCGNSFPWTFGGGTKLEIK</v>
       </c>
       <c r="N82" s="4">
-        <f>LEN(M82)</f>
+        <f t="shared" si="7"/>
         <v>240</v>
       </c>
       <c r="O82" s="1" t="b">
-        <f>IF(N82&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P82" s="1" t="b">
@@ -11718,15 +11741,15 @@
         <v>125</v>
       </c>
       <c r="M83" s="2" t="str">
-        <f>_xlfn.CONCAT(I83,L83,J83)</f>
+        <f t="shared" si="6"/>
         <v>DVQLQESGPGLVKPSQTLSLTCTVSGYSITSDYYWNWIRQFPGNKLEWMGYISYDGSSNYNPSLKNRISITRDNSKNQFFLQLNSVTTEDTATYYCARSCSRRGYAMDYWGQGTSVTVSSGGGSGGGSGGGSGGGSQIVLTQSPAIMSASLGEKVTLTCSASSSVSYMHWYQQKPGTSPKLLIYSCNLLSGVPDRFSGSGSGTDFTLSISNVETEDAATYYCYQYRIRFGGGTKLTVLQ</v>
       </c>
       <c r="N83" s="4">
-        <f>LEN(M83)</f>
+        <f t="shared" si="7"/>
         <v>239</v>
       </c>
       <c r="O83" s="1" t="b">
-        <f>IF(N83&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P83" s="1" t="b">
@@ -11777,15 +11800,15 @@
         <v>125</v>
       </c>
       <c r="M84" s="2" t="str">
-        <f>_xlfn.CONCAT(I84,L84,J84)</f>
+        <f t="shared" si="6"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYAMSWVRQAPGKGLEWVSSISRSGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARSCSSRGYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPDSLAVSLGERATINCRASQSVSSYLAWYQQKPGQSPKLLIYSCNLQSGVPDRFSGSGSGTDFTLTISSLQPEDFATYYCQPYIRFGGGGTKLEIK</v>
       </c>
       <c r="N84" s="4">
-        <f>LEN(M84)</f>
+        <f t="shared" si="7"/>
         <v>238</v>
       </c>
       <c r="O84" s="1" t="b">
-        <f>IF(N84&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P84" s="1" t="b">
@@ -11836,15 +11859,15 @@
         <v>125</v>
       </c>
       <c r="M85" s="2" t="str">
-        <f>_xlfn.CONCAT(I85,L85,J85)</f>
+        <f t="shared" si="6"/>
         <v>QVQLQESGPGLVKPSQTLSLTCTVSGFSFSSYAMSWVRQAPGKGLEWVSSISRSGGSTYYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARSCSSRGYLFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPDSLAVSLGERATINCRASQSVSSYLAWYQQKPGQSPKLLIYSCNLQSGVPDRFSGSGSGTDFTLTISSLQPEDFATYYCQPYIRFGGGGTKLEIK</v>
       </c>
       <c r="N85" s="4">
-        <f>LEN(M85)</f>
+        <f t="shared" si="7"/>
         <v>239</v>
       </c>
       <c r="O85" s="1" t="b">
-        <f>IF(N85&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P85" s="1" t="b">
@@ -11898,15 +11921,15 @@
         <v>125</v>
       </c>
       <c r="M86" s="2" t="str">
-        <f>_xlfn.CONCAT(I86,L86,J86)</f>
+        <f t="shared" si="6"/>
         <v>SIKLTESGPTSVAPGSTLNLTCTVTGDNITSSGWYWWVKQAPDNKLTWIGGIDKNGNTWLNVAYIDRATLTRDPAANTVYLSIRNVTSSDTATYYCAKSSDDNGSYLDVWGQGLKVTVSGGGGSGGGSGGGSGGGSQVKLTQSPKEVTAKIGDTVTLTCTASQPVSTVSWYMQKPGQPPQLLISNNKLVEGVPERFSASGSGTEFTLTIKDVQKEDEAIYYCEVNGQVFGQGTKLTVLE</v>
       </c>
       <c r="N86" s="4">
-        <f>LEN(M86)</f>
+        <f t="shared" si="7"/>
         <v>239</v>
       </c>
       <c r="O86" s="1" t="b">
-        <f>IF(N86&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P86" s="1" t="b">
@@ -11957,15 +11980,15 @@
         <v>125</v>
       </c>
       <c r="M87" s="2" t="str">
-        <f>_xlfn.CONCAT(I87,L87,J87)</f>
+        <f t="shared" si="6"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASIYSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGWYSYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N87" s="4">
-        <f>LEN(M87)</f>
+        <f t="shared" si="7"/>
         <v>240</v>
       </c>
       <c r="O87" s="1" t="b">
-        <f>IF(N87&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P87" s="1" t="b">
@@ -12011,15 +12034,15 @@
         <v>125</v>
       </c>
       <c r="M88" s="2" t="str">
-        <f>_xlfn.CONCAT(I88,L88,J88)</f>
+        <f t="shared" si="6"/>
         <v>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSSYAISWVRQAPGQGLEWMGGIIIFGTANYAQKFQGRVTITADKSTSTAYMELRSEDTAVYYCAREGTTGWDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSVSSSYLAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPRTFGQGTKVEIK</v>
       </c>
       <c r="N88" s="4">
-        <f>LEN(M88)</f>
+        <f t="shared" si="7"/>
         <v>237</v>
       </c>
       <c r="O88" s="1" t="b">
-        <f>IF(N88&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P88" s="1" t="b">
@@ -12070,15 +12093,15 @@
         <v>125</v>
       </c>
       <c r="M89" s="2" t="str">
-        <f>_xlfn.CONCAT(I89,L89,J89)</f>
+        <f t="shared" si="6"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYVYYGAMDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N89" s="4">
-        <f>LEN(M89)</f>
+        <f t="shared" si="7"/>
         <v>242</v>
       </c>
       <c r="O89" s="1" t="b">
-        <f>IF(N89&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P89" s="1" t="b">
@@ -12126,15 +12149,15 @@
         <v>125</v>
       </c>
       <c r="M90" s="2" t="str">
-        <f>_xlfn.CONCAT(I90,L90,J90)</f>
+        <f t="shared" si="6"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASIYSYSGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGWVRGSSYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N90" s="4">
-        <f>LEN(M90)</f>
+        <f t="shared" si="7"/>
         <v>240</v>
       </c>
       <c r="O90" s="1" t="b">
-        <f>IF(N90&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P90" s="1" t="b">
@@ -12185,15 +12208,15 @@
         <v>125</v>
       </c>
       <c r="M91" s="2" t="str">
-        <f>_xlfn.CONCAT(I91,L91,J91)</f>
+        <f t="shared" si="6"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASIYSYSGYTNYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGGYGGYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N91" s="4">
-        <f>LEN(M91)</f>
+        <f t="shared" si="7"/>
         <v>243</v>
       </c>
       <c r="O91" s="1" t="b">
-        <f>IF(N91&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P91" s="1" t="b">
@@ -12239,15 +12262,15 @@
         <v>125</v>
       </c>
       <c r="M92" s="2" t="str">
-        <f>_xlfn.CONCAT(I92,L92,J92)</f>
+        <f t="shared" si="6"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASIYPYSGYTNYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGYWYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N92" s="4">
-        <f>LEN(M92)</f>
+        <f t="shared" si="7"/>
         <v>241</v>
       </c>
       <c r="O92" s="1" t="b">
-        <f>IF(N92&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P92" s="1" t="b">
@@ -12293,15 +12316,15 @@
         <v>125</v>
       </c>
       <c r="M93" s="2" t="str">
-        <f>_xlfn.CONCAT(I93,L93,J93)</f>
+        <f t="shared" si="6"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGGYGGWYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N93" s="4">
-        <f>LEN(M93)</f>
+        <f t="shared" si="7"/>
         <v>244</v>
       </c>
       <c r="O93" s="1" t="b">
-        <f>IF(N93&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P93" s="1" t="b">
@@ -12347,15 +12370,15 @@
         <v>125</v>
       </c>
       <c r="M94" s="2" t="str">
-        <f>_xlfn.CONCAT(I94,L94,J94)</f>
+        <f t="shared" si="6"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGYWYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N94" s="4">
-        <f>LEN(M94)</f>
+        <f t="shared" si="7"/>
         <v>241</v>
       </c>
       <c r="O94" s="1" t="b">
-        <f>IF(N94&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P94" s="1" t="b">
@@ -12401,15 +12424,15 @@
         <v>125</v>
       </c>
       <c r="M95" s="2" t="str">
-        <f>_xlfn.CONCAT(I95,L95,J95)</f>
+        <f t="shared" si="6"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYYSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYYGTYYGHSYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N95" s="4">
-        <f>LEN(M95)</f>
+        <f t="shared" si="7"/>
         <v>242</v>
       </c>
       <c r="O95" s="1" t="b">
-        <f>IF(N95&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P95" s="1" t="b">
@@ -12455,15 +12478,15 @@
         <v>125</v>
       </c>
       <c r="M96" s="2" t="str">
-        <f>_xlfn.CONCAT(I96,L96,J96)</f>
+        <f t="shared" si="6"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSYSSIHWVRQAPGKGLEWVASIYSYSGYTNYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARYWYFGYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N96" s="4">
-        <f>LEN(M96)</f>
+        <f t="shared" si="7"/>
         <v>241</v>
       </c>
       <c r="O96" s="1" t="b">
-        <f>IF(N96&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P96" s="1" t="b">
@@ -12509,15 +12532,15 @@
         <v>125</v>
       </c>
       <c r="M97" s="2" t="str">
-        <f>_xlfn.CONCAT(I97,L97,J97)</f>
+        <f t="shared" si="6"/>
         <v>EVQLVESGGGLVKPGGSLRLSCAASGFTFRNYAMSWVRQAPGKGLEWVSSISSKSKSTSYADSVKGRFTISRDNAKNSLYLQMNSLRAEDTAVYYCARESGSFSYEGVWGQGTLVTVSSGGGSGGGSGGGSGGGSSVLTQPPSVSGAPGQRVTISCTGSSSNIGAGYDVHWYQQLPGTAPKLLIYDNNKRPSGVPDRFSGSKSGTSASLAITGLQAEDEADYYCQSYDSSLSGLVFGGGTKLTVL</v>
       </c>
       <c r="N97" s="4">
-        <f>LEN(M97)</f>
+        <f t="shared" si="7"/>
         <v>245</v>
       </c>
       <c r="O97" s="1" t="b">
-        <f>IF(N97&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="P97" s="1" t="b">
@@ -12568,15 +12591,15 @@
         <v>125</v>
       </c>
       <c r="M98" s="2" t="str">
-        <f>_xlfn.CONCAT(I98,L98,J98)</f>
+        <f t="shared" ref="M98:M129" si="9">_xlfn.CONCAT(I98,L98,J98)</f>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYYSSGYTHYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARWGYWPGQVWLWFAYWGQGTLVTVSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</v>
       </c>
       <c r="N98" s="4">
-        <f>LEN(M98)</f>
+        <f t="shared" ref="N98:N129" si="10">LEN(M98)</f>
         <v>245</v>
       </c>
       <c r="O98" s="1" t="b">
-        <f>IF(N98&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" ref="O98:O129" si="11">IF(N98&lt;=250,TRUE,FALSE)</f>
         <v>1</v>
       </c>
       <c r="P98" s="1" t="b">
@@ -12627,15 +12650,15 @@
         <v>125</v>
       </c>
       <c r="M99" s="2" t="str">
-        <f>_xlfn.CONCAT(I99,L99,J99)</f>
+        <f t="shared" si="9"/>
         <v>QVQLVQSGAEVKKPGSSVKVSCKSSGGTSNNYAISWVRQAPGQGLEWMGGIIPILGIANYAQKFQGRVTITADKSTSTAYMELSSLRSEDTAVYYCAREDAVVDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSTLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYKASSLESGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQQYNSYPLTFGQGTKVQVK</v>
       </c>
       <c r="N99" s="4">
-        <f>LEN(M99)</f>
+        <f t="shared" si="10"/>
         <v>239</v>
       </c>
       <c r="O99" s="1" t="b">
-        <f>IF(N99&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P99" s="1" t="b">
@@ -12686,15 +12709,15 @@
         <v>125</v>
       </c>
       <c r="M100" s="2" t="str">
-        <f>_xlfn.CONCAT(I100,L100,J100)</f>
+        <f t="shared" si="9"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNVSSSSIHWVRQAPGKGLEWVASISSYYGYTYYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARHWGYCSWFAYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQYKYVPVTFGQGTKVEIK</v>
       </c>
       <c r="N100" s="4">
-        <f>LEN(M100)</f>
+        <f t="shared" si="10"/>
         <v>242</v>
       </c>
       <c r="O100" s="1" t="b">
-        <f>IF(N100&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P100" s="1" t="b">
@@ -12740,15 +12763,15 @@
         <v>125</v>
       </c>
       <c r="M101" s="2" t="str">
-        <f>_xlfn.CONCAT(I101,L101,J101)</f>
+        <f t="shared" si="9"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFNISSSSIHWVRQAPGKGLEWVASIYSYSGYTSYADSVKGRFTISADTSKNTAYLQMNSLRAEDTAVYYCARGSHYFGYFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQSVSSAVAWYQQKPGKAPKLLIYSASSLYSGVPSRFSGSRSGTDFTLTISSLQPEDFATYYCQQSSSSLITFGQGTKVEIK</v>
       </c>
       <c r="N101" s="4">
-        <f>LEN(M101)</f>
+        <f t="shared" si="10"/>
         <v>242</v>
       </c>
       <c r="O101" s="1" t="b">
-        <f>IF(N101&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P101" s="1" t="b">
@@ -12794,15 +12817,15 @@
         <v>125</v>
       </c>
       <c r="M102" s="2" t="str">
-        <f>_xlfn.CONCAT(I102,L102,J102)</f>
+        <f t="shared" si="9"/>
         <v>QVQLQESGPGLVKPSQTLSLTCTVSGGSISSGDYYWIRQHPGKGLEWIGYIYYSGSTDYNPSLKSRVTISVDTSKNQFSLKVTAADTAVYYCARTWFGSDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCRASQGISNYLAWYQQKPGKAPKLLIYAASTLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQAHSFPYTFGGGTKLEIK</v>
       </c>
       <c r="N102" s="4">
-        <f>LEN(M102)</f>
+        <f t="shared" si="10"/>
         <v>235</v>
       </c>
       <c r="O102" s="1" t="b">
-        <f>IF(N102&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P102" s="1" t="b">
@@ -12853,15 +12876,15 @@
         <v>125</v>
       </c>
       <c r="M103" s="2" t="str">
-        <f>_xlfn.CONCAT(I103,L103,J103)</f>
+        <f t="shared" si="9"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFTFSSYWMNWVRQAPGKGLEWVAFIRYDGGNKYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCARWSYSGGSGSYYVYFDYWGQGTLVTVSGGGSGGGSGGGSGGGSSVLTQPPSVSGAPGQRVTISCTGSSSNIGAGYDVHWYQQLPGTAPKLLIYGNSNRPSGVPDRFSGSKSGTSASLAITGLQAEDEADYYCQSYDSSLSGSVFGGGTKLTVL</v>
       </c>
       <c r="N103" s="4">
-        <f>LEN(M103)</f>
+        <f t="shared" si="10"/>
         <v>250</v>
       </c>
       <c r="O103" s="1" t="b">
-        <f>IF(N103&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P103" s="1" t="b">
@@ -12912,15 +12935,15 @@
         <v>125</v>
       </c>
       <c r="M104" s="2" t="str">
-        <f>_xlfn.CONCAT(I104,L104,J104)</f>
+        <f t="shared" si="9"/>
         <v>QVQLVQSGAEVKKPGASVKVSCKASGYTFTNYYIHWVRQAPGQGLEWMGWIYPGGNTNYAQKFQGRVTMTRDTSISTAYMELSRLRSDDTAVYYCARVRTEFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPSSLAMSAGAETITCRSSQSVHSNGYLNWYQQKPGQPPKLLIYWASTRESGVPDRFTGSGSGTDFTLTITNVQSEDLAEYFCQQYSSYPLTFGAGTKLELR</v>
       </c>
       <c r="N104" s="4">
-        <f>LEN(M104)</f>
+        <f t="shared" si="10"/>
         <v>239</v>
       </c>
       <c r="O104" s="1" t="b">
-        <f>IF(N104&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P104" s="1" t="b">
@@ -12971,15 +12994,15 @@
         <v>125</v>
       </c>
       <c r="M105" s="2" t="str">
-        <f>_xlfn.CONCAT(I105,L105,J105)</f>
+        <f t="shared" si="9"/>
         <v>QVQLQESGPGLVKPSETLSLTCTVSGGSVSSGGYFWSWIRQPPGKGLEWIGYVSGSGSTNYNPSLKSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARWDVWISDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPATLSLSPGERATLSCRASQSVSSYLAWYQQKPGQAPRLLIYDASNRATGIPARFSGSGSGTDFTLTISSLEPEDFAVYYCQHSWDQPPWTFGQGTKVEIK</v>
       </c>
       <c r="N105" s="4">
-        <f>LEN(M105)</f>
+        <f t="shared" si="10"/>
         <v>242</v>
       </c>
       <c r="O105" s="1" t="b">
-        <f>IF(N105&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P105" s="1" t="b">
@@ -13030,15 +13053,15 @@
         <v>125</v>
       </c>
       <c r="M106" s="2" t="str">
-        <f>_xlfn.CONCAT(I106,L106,J106)</f>
+        <f t="shared" si="9"/>
         <v>QVQLQESGPGLVKPSQTLSLTCTVTGSSITSGYWNWIRQFPGNKLEWMGYISYSGTITYNPSLKSRISITRDTSKNQFFLQLNSVTTEDTATYYCARVYDGFYDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPSSLSASVGDRVTITCRASQGISSWLAWYQQKPGKAPKLLIYKASSLESGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQQYNSYPLTFGGGTKVEIK</v>
       </c>
       <c r="N106" s="4">
-        <f>LEN(M106)</f>
+        <f t="shared" si="10"/>
         <v>239</v>
       </c>
       <c r="O106" s="1" t="b">
-        <f>IF(N106&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P106" s="1" t="b">
@@ -13089,15 +13112,15 @@
         <v>125</v>
       </c>
       <c r="M107" s="2" t="str">
-        <f>_xlfn.CONCAT(I107,L107,J107)</f>
+        <f t="shared" si="9"/>
         <v>QVQLVESGGGVVQPGRSLRLSCAASGFTFSNYAMHWVRQAPGKGLEWVAVISYNSGNPYADSVKGRFTISRDNSKNTLYLQMRVEDTAVYYCSRTTIGYGGDIWGNMFDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIVMTQSPATLSVSPGDRATLSCRASQSISTNLAWYQQKPGQAPRLLIYTASTLESGVPSRFSGSGSGTEFTLTISNLQSEDFATYFCQQYSAPLTFGGGTKVEIK</v>
       </c>
       <c r="N107" s="4">
-        <f>LEN(M107)</f>
+        <f t="shared" si="10"/>
         <v>243</v>
       </c>
       <c r="O107" s="1" t="b">
-        <f>IF(N107&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P107" s="1" t="b">
@@ -13148,15 +13171,15 @@
         <v>126</v>
       </c>
       <c r="M108" s="2" t="str">
-        <f>_xlfn.CONCAT(I108,L108,J108)</f>
+        <f t="shared" si="9"/>
         <v>EVQLVESGGGLVQPGGSLRLSCAASGFASSSSNYVHWVRQAPGKGLEWVATIYPYSSSEYAASVQGRFTISRDDSKNTLYLQMNSLRGEDTAVYYCARYGYYSSRSGYGYYFNYWGQGTLVTVSSGGGSGGGSGGGSDIVMTQSPASLAVSLGQRATISCRASESVDSYGNSFLAWYQQKPGQPPKLLIYWASTRQSGVPARFSGSGSGTDFTLNIHPVEEEDAATYYCQQHNYPLTFGAGTKLEIK</v>
       </c>
       <c r="N108" s="4">
-        <f>LEN(M108)</f>
+        <f t="shared" si="10"/>
         <v>247</v>
       </c>
       <c r="O108" s="1" t="b">
-        <f>IF(N108&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P108" s="1" t="b">
@@ -13207,15 +13230,15 @@
         <v>125</v>
       </c>
       <c r="M109" s="2" t="str">
-        <f>_xlfn.CONCAT(I109,L109,J109)</f>
+        <f t="shared" si="9"/>
         <v>EVQLVESGAEVKKPGSSVKVSCKASGGPFTSYVISWVRQAPGQGLEWMGRIIPIRGTTYAQKFQGRVTITADKSTSTAYMELRSEDTAVYYCARGSHVFGYYDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSISGNYLAWYQQKPGQAPRLLIYGASIRAAGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPRTFGQGTKVEIK</v>
       </c>
       <c r="N109" s="4">
-        <f>LEN(M109)</f>
+        <f t="shared" si="10"/>
         <v>239</v>
       </c>
       <c r="O109" s="1" t="b">
-        <f>IF(N109&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P109" s="1" t="b">
@@ -13266,15 +13289,15 @@
         <v>125</v>
       </c>
       <c r="M110" s="2" t="str">
-        <f>_xlfn.CONCAT(I110,L110,J110)</f>
+        <f t="shared" si="9"/>
         <v>EVQLVETGGGLVQPGGSLKLSCRASGYTFTDYAMHWVRQAPLGLGLYTGGVNYARHFMKSRISITRDNSKNTLYLQMTKVDDTATYFCARRGLFDSDYWGQGTLVTVSSGGGSGGGSGGGSGGGSSVTQPPSVSGSTSVGDRVTTCRASQSISSNWLAWYQQFPGTAPKLLIYENSSRPSGVPDRFSGSGSGTDFTLKISRVEAEDVGVYYCLQALSPRFTFGSGTKLEIK</v>
       </c>
       <c r="N110" s="4">
-        <f>LEN(M110)</f>
+        <f t="shared" si="10"/>
         <v>231</v>
       </c>
       <c r="O110" s="1" t="b">
-        <f>IF(N110&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P110" s="1" t="b">
@@ -13325,15 +13348,15 @@
         <v>125</v>
       </c>
       <c r="M111" s="2" t="str">
-        <f>_xlfn.CONCAT(I111,L111,J111)</f>
+        <f t="shared" si="9"/>
         <v>QVQLVQSGAEVKKPGSSVKVSCKASGGTFSNYGISWVRQAPGQGLEWMGGIIPILGIANYAQKFQGRVTITADKSTSTAYMELRSLRSDDTAVYYCAREGHAYFHNGLDYWGQGTLVTVSSGGGSGGGSGGGSGGGSEIVLTQSPGTLSLSPGERATLSCRASQSVSSSYFAWYQQKPGQAPRLLIYGASSRATGIPDRFSGSGSGTDFTLTISRLEPEDFAVYYCQQYGSSPPATFGQGTKVEIK</v>
       </c>
       <c r="N111" s="4">
-        <f>LEN(M111)</f>
+        <f t="shared" si="10"/>
         <v>246</v>
       </c>
       <c r="O111" s="1" t="b">
-        <f>IF(N111&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P111" s="1" t="b">
@@ -13384,15 +13407,15 @@
         <v>125</v>
       </c>
       <c r="M112" s="2" t="str">
-        <f>_xlfn.CONCAT(I112,L112,J112)</f>
+        <f t="shared" si="9"/>
         <v>QVQLVESGGGVVQPGRSLRLSCAASGFTFSSFGMHWVRQAPGKGLEWVAIIWDGSNKYYADSVKGRFTISRDNSKNTLYLQMRAEDTAVYYCALDGGSFDDYWGQGTLVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSTLSTSVGDRVTITCRASQSISSWLAWYQQKPGKAPKLLIYKASTLESGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQHFYGTPITFGPGTKVD</v>
       </c>
       <c r="N112" s="4">
-        <f>LEN(M112)</f>
+        <f t="shared" si="10"/>
         <v>234</v>
       </c>
       <c r="O112" s="1" t="b">
-        <f>IF(N112&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P112" s="1" t="b">
@@ -13443,15 +13466,15 @@
         <v>125</v>
       </c>
       <c r="M113" s="2" t="str">
-        <f>_xlfn.CONCAT(I113,L113,J113)</f>
+        <f t="shared" si="9"/>
         <v>EVQLVESGGGLVKPGGSLKVSCAASGFTFSDYSMNWVRQAPGKGLEWVSSITSGYTSIYYADSVKGRFTISRDNAKNSLYLQMNSLRAGDTAVYYCARVSDNFDYWGQGTAVTVSSGGGSGGGSGGGSGGGSDIQMTQSPSSLSASVGDRVTITCQASQDIRFYLNWYQQKPGKAPKLLISAASTLQSGVPSRFSGSGSGTDFTLTITSLQPEDFATYYCAGYVPSYTFGPGTKVDIK</v>
       </c>
       <c r="N113" s="4">
-        <f>LEN(M113)</f>
+        <f t="shared" si="10"/>
         <v>238</v>
       </c>
       <c r="O113" s="1" t="b">
-        <f>IF(N113&lt;=250,TRUE,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P113" s="1" t="b">
@@ -13502,15 +13525,15 @@
         <v>125</v>
       </c>
       <c r="M114" s="2" t="str">
-        <f>_xlfn.CONCAT(I114,L114,J114)</f>
+        <f t="shared" si="9"/>
         <v>EVQLQQSGAELVKPGASVKLSCKASGYTFLDYYMYWVKQRPEQGLEWIGRIDPANGNTIYAPKFQDKATLTLTTDTTSSNTAYMQLSSLTSEDSAVYYCAREGNYGYRDLAWFAYWGQGTLVTVSSGGGSGGGSGGGSGGGSAIRMTQSPSSLSASVGDTVTITCRASQSISSYLNWYQQKPGKAPKLLIYTASNLESGVPSRFSGSGSGTDYTLTISSLQPEDIATYYCQQYDNPPLTFGGGTKVEIK</v>
       </c>
       <c r="N114" s="4">
-        <f>LEN